--- a/libinfo.xlsx
+++ b/libinfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tchan\Code\SCMB_Project\RNA-mediated_DSB_repair\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F77E198-BC03-45A6-AC42-E98B6BCEBEAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F060A8-6BE7-42B3-913A-7C631FD43BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="2" xr2:uid="{2091B41C-DDD2-4E50-B30A-30FF3CA370E5}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="138">
   <si>
     <t>yjl217</t>
   </si>
@@ -447,6 +447,12 @@
   </si>
   <si>
     <t>file_in</t>
+  </si>
+  <si>
+    <t>command_filter_nhej</t>
+  </si>
+  <si>
+    <t>command_main_data_combined</t>
   </si>
 </sst>
 </file>
@@ -859,8 +865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40F1EACD-27DC-4973-8E3A-9162F610D9C4}">
   <dimension ref="A1:M113"/>
   <sheetViews>
-    <sheetView topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="F106" sqref="F106:F113"/>
+    <sheetView topLeftCell="B100" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:M113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -917,7 +923,7 @@
         <v>134</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>88</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -947,7 +953,7 @@
         <v>yjl217_R1_2DSBs.sam</v>
       </c>
       <c r="I2" t="str">
-        <f>_xlfn.CONCAT(A2, "_", B2, "_", D2, "_", F2, "_", E2)</f>
+        <f t="shared" ref="I2:I33" si="0">_xlfn.CONCAT(A2, "_", B2, "_", D2, "_", F2, "_", E2)</f>
         <v>yjl217_WT_sgAB_R1_sense</v>
       </c>
       <c r="J2" t="str">
@@ -955,7 +961,7 @@
         <v>2DSB_R1_sense.fa</v>
       </c>
       <c r="K2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L2">
         <f>IF(LEFT(C2, 1) = "2", 50, 130)</f>
@@ -989,22 +995,22 @@
         <v>67</v>
       </c>
       <c r="H3" t="str">
-        <f t="shared" ref="H3:H66" si="0">_xlfn.CONCAT(A3, IF(C3 = "2DSBanti", "_anti", ""), "_",F3,"_", IF(LEFT(C3, 1)="2","2DSBs", D3), ".sam")</f>
+        <f t="shared" ref="H3:H66" si="1">_xlfn.CONCAT(A3, IF(C3 = "2DSBanti", "_anti", ""), "_",F3,"_", IF(LEFT(C3, 1)="2","2DSBs", D3), ".sam")</f>
         <v>yjl218_R1_2DSBs.sam</v>
       </c>
       <c r="I3" t="str">
-        <f>_xlfn.CONCAT(A3, "_", B3, "_", D3, "_", F3, "_", E3)</f>
+        <f t="shared" si="0"/>
         <v>yjl218_WT_sgAB_R1_sense</v>
       </c>
       <c r="J3" t="str">
-        <f t="shared" ref="J3:J66" si="1">_xlfn.CONCAT(C3,"_", F3,"_", E3, ".fa")</f>
+        <f t="shared" ref="J3:J66" si="2">_xlfn.CONCAT(C3,"_", F3,"_", E3, ".fa")</f>
         <v>2DSB_R1_sense.fa</v>
       </c>
       <c r="K3">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L66" si="2">IF(LEFT(C3, 1) = "2", 50, 130)</f>
+        <f t="shared" ref="L3:L66" si="3">IF(LEFT(C3, 1) = "2", 50, 130)</f>
         <v>50</v>
       </c>
       <c r="M3" t="str">
@@ -1035,22 +1041,22 @@
         <v>67</v>
       </c>
       <c r="H4" t="str">
+        <f t="shared" si="1"/>
+        <v>yjl219_R1_2DSBs.sam</v>
+      </c>
+      <c r="I4" t="str">
         <f t="shared" si="0"/>
-        <v>yjl219_R1_2DSBs.sam</v>
-      </c>
-      <c r="I4" t="str">
-        <f>_xlfn.CONCAT(A4, "_", B4, "_", D4, "_", F4, "_", E4)</f>
         <v>yjl219_WT_sgAB_R1_sense</v>
       </c>
       <c r="J4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2DSB_R1_sense.fa</v>
       </c>
       <c r="K4">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="M4" t="str">
@@ -1081,22 +1087,22 @@
         <v>67</v>
       </c>
       <c r="H5" t="str">
+        <f t="shared" si="1"/>
+        <v>yjl220_R1_2DSBs.sam</v>
+      </c>
+      <c r="I5" t="str">
         <f t="shared" si="0"/>
-        <v>yjl220_R1_2DSBs.sam</v>
-      </c>
-      <c r="I5" t="str">
-        <f>_xlfn.CONCAT(A5, "_", B5, "_", D5, "_", F5, "_", E5)</f>
         <v>yjl220_WT_sgAB_R1_sense</v>
       </c>
       <c r="J5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2DSB_R1_sense.fa</v>
       </c>
       <c r="K5">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="M5" t="str">
@@ -1127,22 +1133,22 @@
         <v>67</v>
       </c>
       <c r="H6" t="str">
+        <f t="shared" si="1"/>
+        <v>yjl221_R1_2DSBs.sam</v>
+      </c>
+      <c r="I6" t="str">
         <f t="shared" si="0"/>
-        <v>yjl221_R1_2DSBs.sam</v>
-      </c>
-      <c r="I6" t="str">
-        <f>_xlfn.CONCAT(A6, "_", B6, "_", D6, "_", F6, "_", E6)</f>
         <v>yjl221_WT_sgAB_R1_branch</v>
       </c>
       <c r="J6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2DSB_R1_branch.fa</v>
       </c>
       <c r="K6">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="M6" t="str">
@@ -1173,22 +1179,22 @@
         <v>67</v>
       </c>
       <c r="H7" t="str">
+        <f t="shared" si="1"/>
+        <v>yjl222_R1_2DSBs.sam</v>
+      </c>
+      <c r="I7" t="str">
         <f t="shared" si="0"/>
-        <v>yjl222_R1_2DSBs.sam</v>
-      </c>
-      <c r="I7" t="str">
-        <f>_xlfn.CONCAT(A7, "_", B7, "_", D7, "_", F7, "_", E7)</f>
         <v>yjl222_WT_sgAB_R1_branch</v>
       </c>
       <c r="J7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2DSB_R1_branch.fa</v>
       </c>
       <c r="K7">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="M7" t="str">
@@ -1219,22 +1225,22 @@
         <v>67</v>
       </c>
       <c r="H8" t="str">
+        <f t="shared" si="1"/>
+        <v>yjl223_R1_2DSBs.sam</v>
+      </c>
+      <c r="I8" t="str">
         <f t="shared" si="0"/>
-        <v>yjl223_R1_2DSBs.sam</v>
-      </c>
-      <c r="I8" t="str">
-        <f>_xlfn.CONCAT(A8, "_", B8, "_", D8, "_", F8, "_", E8)</f>
         <v>yjl223_WT_sgAB_R1_branch</v>
       </c>
       <c r="J8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2DSB_R1_branch.fa</v>
       </c>
       <c r="K8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="M8" t="str">
@@ -1265,22 +1271,22 @@
         <v>67</v>
       </c>
       <c r="H9" t="str">
+        <f t="shared" si="1"/>
+        <v>yjl224_R1_2DSBs.sam</v>
+      </c>
+      <c r="I9" t="str">
         <f t="shared" si="0"/>
-        <v>yjl224_R1_2DSBs.sam</v>
-      </c>
-      <c r="I9" t="str">
-        <f>_xlfn.CONCAT(A9, "_", B9, "_", D9, "_", F9, "_", E9)</f>
         <v>yjl224_WT_sgAB_R1_branch</v>
       </c>
       <c r="J9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2DSB_R1_branch.fa</v>
       </c>
       <c r="K9">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="M9" t="str">
@@ -1311,22 +1317,22 @@
         <v>67</v>
       </c>
       <c r="H10" t="str">
+        <f t="shared" si="1"/>
+        <v>yjl225_R1_2DSBs.sam</v>
+      </c>
+      <c r="I10" t="str">
         <f t="shared" si="0"/>
-        <v>yjl225_R1_2DSBs.sam</v>
-      </c>
-      <c r="I10" t="str">
-        <f>_xlfn.CONCAT(A10, "_", B10, "_", D10, "_", F10, "_", E10)</f>
         <v>yjl225_WT_sgAB_R1_cmv</v>
       </c>
       <c r="J10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2DSB_R1_cmv.fa</v>
       </c>
       <c r="K10">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="M10" t="str">
@@ -1357,22 +1363,22 @@
         <v>67</v>
       </c>
       <c r="H11" t="str">
+        <f t="shared" si="1"/>
+        <v>yjl226_R1_2DSBs.sam</v>
+      </c>
+      <c r="I11" t="str">
         <f t="shared" si="0"/>
-        <v>yjl226_R1_2DSBs.sam</v>
-      </c>
-      <c r="I11" t="str">
-        <f>_xlfn.CONCAT(A11, "_", B11, "_", D11, "_", F11, "_", E11)</f>
         <v>yjl226_WT_sgAB_R1_cmv</v>
       </c>
       <c r="J11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2DSB_R1_cmv.fa</v>
       </c>
       <c r="K11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="M11" t="str">
@@ -1403,22 +1409,22 @@
         <v>67</v>
       </c>
       <c r="H12" t="str">
+        <f t="shared" si="1"/>
+        <v>yjl227_R1_2DSBs.sam</v>
+      </c>
+      <c r="I12" t="str">
         <f t="shared" si="0"/>
-        <v>yjl227_R1_2DSBs.sam</v>
-      </c>
-      <c r="I12" t="str">
-        <f>_xlfn.CONCAT(A12, "_", B12, "_", D12, "_", F12, "_", E12)</f>
         <v>yjl227_WT_sgAB_R1_cmv</v>
       </c>
       <c r="J12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2DSB_R1_cmv.fa</v>
       </c>
       <c r="K12">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="M12" t="str">
@@ -1449,22 +1455,22 @@
         <v>67</v>
       </c>
       <c r="H13" t="str">
+        <f t="shared" si="1"/>
+        <v>yjl228_R1_2DSBs.sam</v>
+      </c>
+      <c r="I13" t="str">
         <f t="shared" si="0"/>
-        <v>yjl228_R1_2DSBs.sam</v>
-      </c>
-      <c r="I13" t="str">
-        <f>_xlfn.CONCAT(A13, "_", B13, "_", D13, "_", F13, "_", E13)</f>
         <v>yjl228_WT_sgAB_R1_cmv</v>
       </c>
       <c r="J13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2DSB_R1_cmv.fa</v>
       </c>
       <c r="K13">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="M13" t="str">
@@ -1495,22 +1501,22 @@
         <v>67</v>
       </c>
       <c r="H14" t="str">
+        <f t="shared" si="1"/>
+        <v>yjl229_R1_2DSBs.sam</v>
+      </c>
+      <c r="I14" t="str">
         <f t="shared" si="0"/>
-        <v>yjl229_R1_2DSBs.sam</v>
-      </c>
-      <c r="I14" t="str">
-        <f>_xlfn.CONCAT(A14, "_", B14, "_", D14, "_", F14, "_", E14)</f>
         <v>yjl229_KO_sgAB_R1_sense</v>
       </c>
       <c r="J14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2DSB_R1_sense.fa</v>
       </c>
       <c r="K14">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="M14" t="str">
@@ -1541,22 +1547,22 @@
         <v>67</v>
       </c>
       <c r="H15" t="str">
+        <f t="shared" si="1"/>
+        <v>yjl230_R1_2DSBs.sam</v>
+      </c>
+      <c r="I15" t="str">
         <f t="shared" si="0"/>
-        <v>yjl230_R1_2DSBs.sam</v>
-      </c>
-      <c r="I15" t="str">
-        <f>_xlfn.CONCAT(A15, "_", B15, "_", D15, "_", F15, "_", E15)</f>
         <v>yjl230_KO_sgAB_R1_sense</v>
       </c>
       <c r="J15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2DSB_R1_sense.fa</v>
       </c>
       <c r="K15">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="M15" t="str">
@@ -1587,22 +1593,22 @@
         <v>67</v>
       </c>
       <c r="H16" t="str">
+        <f t="shared" si="1"/>
+        <v>yjl231_R1_2DSBs.sam</v>
+      </c>
+      <c r="I16" t="str">
         <f t="shared" si="0"/>
-        <v>yjl231_R1_2DSBs.sam</v>
-      </c>
-      <c r="I16" t="str">
-        <f>_xlfn.CONCAT(A16, "_", B16, "_", D16, "_", F16, "_", E16)</f>
         <v>yjl231_KO_sgAB_R1_sense</v>
       </c>
       <c r="J16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2DSB_R1_sense.fa</v>
       </c>
       <c r="K16">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="M16" t="str">
@@ -1633,22 +1639,22 @@
         <v>67</v>
       </c>
       <c r="H17" t="str">
+        <f t="shared" si="1"/>
+        <v>yjl232_R1_2DSBs.sam</v>
+      </c>
+      <c r="I17" t="str">
         <f t="shared" si="0"/>
-        <v>yjl232_R1_2DSBs.sam</v>
-      </c>
-      <c r="I17" t="str">
-        <f>_xlfn.CONCAT(A17, "_", B17, "_", D17, "_", F17, "_", E17)</f>
         <v>yjl232_KO_sgAB_R1_sense</v>
       </c>
       <c r="J17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2DSB_R1_sense.fa</v>
       </c>
       <c r="K17">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="M17" t="str">
@@ -1679,22 +1685,22 @@
         <v>67</v>
       </c>
       <c r="H18" t="str">
+        <f t="shared" si="1"/>
+        <v>yjl233_R1_2DSBs.sam</v>
+      </c>
+      <c r="I18" t="str">
         <f t="shared" si="0"/>
-        <v>yjl233_R1_2DSBs.sam</v>
-      </c>
-      <c r="I18" t="str">
-        <f>_xlfn.CONCAT(A18, "_", B18, "_", D18, "_", F18, "_", E18)</f>
         <v>yjl233_KO_sgAB_R1_branch</v>
       </c>
       <c r="J18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2DSB_R1_branch.fa</v>
       </c>
       <c r="K18">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="M18" t="str">
@@ -1725,22 +1731,22 @@
         <v>67</v>
       </c>
       <c r="H19" t="str">
+        <f t="shared" si="1"/>
+        <v>yjl234_R1_2DSBs.sam</v>
+      </c>
+      <c r="I19" t="str">
         <f t="shared" si="0"/>
-        <v>yjl234_R1_2DSBs.sam</v>
-      </c>
-      <c r="I19" t="str">
-        <f>_xlfn.CONCAT(A19, "_", B19, "_", D19, "_", F19, "_", E19)</f>
         <v>yjl234_KO_sgAB_R1_branch</v>
       </c>
       <c r="J19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2DSB_R1_branch.fa</v>
       </c>
       <c r="K19">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="M19" t="str">
@@ -1771,22 +1777,22 @@
         <v>67</v>
       </c>
       <c r="H20" t="str">
+        <f t="shared" si="1"/>
+        <v>yjl235_R1_2DSBs.sam</v>
+      </c>
+      <c r="I20" t="str">
         <f t="shared" si="0"/>
-        <v>yjl235_R1_2DSBs.sam</v>
-      </c>
-      <c r="I20" t="str">
-        <f>_xlfn.CONCAT(A20, "_", B20, "_", D20, "_", F20, "_", E20)</f>
         <v>yjl235_KO_sgAB_R1_branch</v>
       </c>
       <c r="J20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2DSB_R1_branch.fa</v>
       </c>
       <c r="K20">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="M20" t="str">
@@ -1817,22 +1823,22 @@
         <v>67</v>
       </c>
       <c r="H21" t="str">
+        <f t="shared" si="1"/>
+        <v>yjl236_R1_2DSBs.sam</v>
+      </c>
+      <c r="I21" t="str">
         <f t="shared" si="0"/>
-        <v>yjl236_R1_2DSBs.sam</v>
-      </c>
-      <c r="I21" t="str">
-        <f>_xlfn.CONCAT(A21, "_", B21, "_", D21, "_", F21, "_", E21)</f>
         <v>yjl236_KO_sgAB_R1_branch</v>
       </c>
       <c r="J21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2DSB_R1_branch.fa</v>
       </c>
       <c r="K21">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="M21" t="str">
@@ -1863,22 +1869,22 @@
         <v>67</v>
       </c>
       <c r="H22" t="str">
+        <f t="shared" si="1"/>
+        <v>yjl237_R1_2DSBs.sam</v>
+      </c>
+      <c r="I22" t="str">
         <f t="shared" si="0"/>
-        <v>yjl237_R1_2DSBs.sam</v>
-      </c>
-      <c r="I22" t="str">
-        <f>_xlfn.CONCAT(A22, "_", B22, "_", D22, "_", F22, "_", E22)</f>
         <v>yjl237_KO_sgAB_R1_cmv</v>
       </c>
       <c r="J22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2DSB_R1_cmv.fa</v>
       </c>
       <c r="K22">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="M22" t="str">
@@ -1909,22 +1915,22 @@
         <v>67</v>
       </c>
       <c r="H23" t="str">
+        <f t="shared" si="1"/>
+        <v>yjl238_R1_2DSBs.sam</v>
+      </c>
+      <c r="I23" t="str">
         <f t="shared" si="0"/>
-        <v>yjl238_R1_2DSBs.sam</v>
-      </c>
-      <c r="I23" t="str">
-        <f>_xlfn.CONCAT(A23, "_", B23, "_", D23, "_", F23, "_", E23)</f>
         <v>yjl238_KO_sgAB_R1_cmv</v>
       </c>
       <c r="J23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2DSB_R1_cmv.fa</v>
       </c>
       <c r="K23">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="M23" t="str">
@@ -1955,22 +1961,22 @@
         <v>67</v>
       </c>
       <c r="H24" t="str">
+        <f t="shared" si="1"/>
+        <v>yjl239_R1_2DSBs.sam</v>
+      </c>
+      <c r="I24" t="str">
         <f t="shared" si="0"/>
-        <v>yjl239_R1_2DSBs.sam</v>
-      </c>
-      <c r="I24" t="str">
-        <f>_xlfn.CONCAT(A24, "_", B24, "_", D24, "_", F24, "_", E24)</f>
         <v>yjl239_KO_sgAB_R1_cmv</v>
       </c>
       <c r="J24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2DSB_R1_cmv.fa</v>
       </c>
       <c r="K24">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="M24" t="str">
@@ -2001,22 +2007,22 @@
         <v>67</v>
       </c>
       <c r="H25" t="str">
+        <f t="shared" si="1"/>
+        <v>yjl240_R1_2DSBs.sam</v>
+      </c>
+      <c r="I25" t="str">
         <f t="shared" si="0"/>
-        <v>yjl240_R1_2DSBs.sam</v>
-      </c>
-      <c r="I25" t="str">
-        <f>_xlfn.CONCAT(A25, "_", B25, "_", D25, "_", F25, "_", E25)</f>
         <v>yjl240_KO_sgAB_R1_cmv</v>
       </c>
       <c r="J25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2DSB_R1_cmv.fa</v>
       </c>
       <c r="K25">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="M25" t="str">
@@ -2047,22 +2053,22 @@
         <v>46</v>
       </c>
       <c r="H26" t="str">
+        <f t="shared" si="1"/>
+        <v>yjl217_R2_2DSBs.sam</v>
+      </c>
+      <c r="I26" t="str">
         <f t="shared" si="0"/>
-        <v>yjl217_R2_2DSBs.sam</v>
-      </c>
-      <c r="I26" t="str">
-        <f>_xlfn.CONCAT(A26, "_", B26, "_", D26, "_", F26, "_", E26)</f>
         <v>yjl217_WT_sgAB_R2_sense</v>
       </c>
       <c r="J26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2DSB_R2_sense.fa</v>
       </c>
       <c r="K26">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="M26" t="str">
@@ -2093,22 +2099,22 @@
         <v>46</v>
       </c>
       <c r="H27" t="str">
+        <f t="shared" si="1"/>
+        <v>yjl218_R2_2DSBs.sam</v>
+      </c>
+      <c r="I27" t="str">
         <f t="shared" si="0"/>
-        <v>yjl218_R2_2DSBs.sam</v>
-      </c>
-      <c r="I27" t="str">
-        <f>_xlfn.CONCAT(A27, "_", B27, "_", D27, "_", F27, "_", E27)</f>
         <v>yjl218_WT_sgAB_R2_sense</v>
       </c>
       <c r="J27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2DSB_R2_sense.fa</v>
       </c>
       <c r="K27">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="M27" t="str">
@@ -2139,22 +2145,22 @@
         <v>46</v>
       </c>
       <c r="H28" t="str">
+        <f t="shared" si="1"/>
+        <v>yjl219_R2_2DSBs.sam</v>
+      </c>
+      <c r="I28" t="str">
         <f t="shared" si="0"/>
-        <v>yjl219_R2_2DSBs.sam</v>
-      </c>
-      <c r="I28" t="str">
-        <f>_xlfn.CONCAT(A28, "_", B28, "_", D28, "_", F28, "_", E28)</f>
         <v>yjl219_WT_sgAB_R2_sense</v>
       </c>
       <c r="J28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2DSB_R2_sense.fa</v>
       </c>
       <c r="K28">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="M28" t="str">
@@ -2185,22 +2191,22 @@
         <v>46</v>
       </c>
       <c r="H29" t="str">
+        <f t="shared" si="1"/>
+        <v>yjl220_R2_2DSBs.sam</v>
+      </c>
+      <c r="I29" t="str">
         <f t="shared" si="0"/>
-        <v>yjl220_R2_2DSBs.sam</v>
-      </c>
-      <c r="I29" t="str">
-        <f>_xlfn.CONCAT(A29, "_", B29, "_", D29, "_", F29, "_", E29)</f>
         <v>yjl220_WT_sgAB_R2_sense</v>
       </c>
       <c r="J29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2DSB_R2_sense.fa</v>
       </c>
       <c r="K29">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="M29" t="str">
@@ -2231,22 +2237,22 @@
         <v>46</v>
       </c>
       <c r="H30" t="str">
+        <f t="shared" si="1"/>
+        <v>yjl221_R2_2DSBs.sam</v>
+      </c>
+      <c r="I30" t="str">
         <f t="shared" si="0"/>
-        <v>yjl221_R2_2DSBs.sam</v>
-      </c>
-      <c r="I30" t="str">
-        <f>_xlfn.CONCAT(A30, "_", B30, "_", D30, "_", F30, "_", E30)</f>
         <v>yjl221_WT_sgAB_R2_branch</v>
       </c>
       <c r="J30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2DSB_R2_branch.fa</v>
       </c>
       <c r="K30">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="M30" t="str">
@@ -2277,22 +2283,22 @@
         <v>46</v>
       </c>
       <c r="H31" t="str">
+        <f t="shared" si="1"/>
+        <v>yjl222_R2_2DSBs.sam</v>
+      </c>
+      <c r="I31" t="str">
         <f t="shared" si="0"/>
-        <v>yjl222_R2_2DSBs.sam</v>
-      </c>
-      <c r="I31" t="str">
-        <f>_xlfn.CONCAT(A31, "_", B31, "_", D31, "_", F31, "_", E31)</f>
         <v>yjl222_WT_sgAB_R2_branch</v>
       </c>
       <c r="J31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2DSB_R2_branch.fa</v>
       </c>
       <c r="K31">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="M31" t="str">
@@ -2323,22 +2329,22 @@
         <v>46</v>
       </c>
       <c r="H32" t="str">
+        <f t="shared" si="1"/>
+        <v>yjl223_R2_2DSBs.sam</v>
+      </c>
+      <c r="I32" t="str">
         <f t="shared" si="0"/>
-        <v>yjl223_R2_2DSBs.sam</v>
-      </c>
-      <c r="I32" t="str">
-        <f>_xlfn.CONCAT(A32, "_", B32, "_", D32, "_", F32, "_", E32)</f>
         <v>yjl223_WT_sgAB_R2_branch</v>
       </c>
       <c r="J32" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2DSB_R2_branch.fa</v>
       </c>
       <c r="K32">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="M32" t="str">
@@ -2369,22 +2375,22 @@
         <v>46</v>
       </c>
       <c r="H33" t="str">
+        <f t="shared" si="1"/>
+        <v>yjl224_R2_2DSBs.sam</v>
+      </c>
+      <c r="I33" t="str">
         <f t="shared" si="0"/>
-        <v>yjl224_R2_2DSBs.sam</v>
-      </c>
-      <c r="I33" t="str">
-        <f>_xlfn.CONCAT(A33, "_", B33, "_", D33, "_", F33, "_", E33)</f>
         <v>yjl224_WT_sgAB_R2_branch</v>
       </c>
       <c r="J33" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2DSB_R2_branch.fa</v>
       </c>
       <c r="K33">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="M33" t="str">
@@ -2415,22 +2421,22 @@
         <v>46</v>
       </c>
       <c r="H34" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>yjl225_R2_2DSBs.sam</v>
       </c>
       <c r="I34" t="str">
-        <f>_xlfn.CONCAT(A34, "_", B34, "_", D34, "_", F34, "_", E34)</f>
+        <f t="shared" ref="I34:I65" si="4">_xlfn.CONCAT(A34, "_", B34, "_", D34, "_", F34, "_", E34)</f>
         <v>yjl225_WT_sgAB_R2_cmv</v>
       </c>
       <c r="J34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2DSB_R2_cmv.fa</v>
       </c>
       <c r="K34">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="M34" t="str">
@@ -2461,22 +2467,22 @@
         <v>46</v>
       </c>
       <c r="H35" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>yjl226_R2_2DSBs.sam</v>
       </c>
       <c r="I35" t="str">
-        <f>_xlfn.CONCAT(A35, "_", B35, "_", D35, "_", F35, "_", E35)</f>
+        <f t="shared" si="4"/>
         <v>yjl226_WT_sgAB_R2_cmv</v>
       </c>
       <c r="J35" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2DSB_R2_cmv.fa</v>
       </c>
       <c r="K35">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="M35" t="str">
@@ -2507,22 +2513,22 @@
         <v>46</v>
       </c>
       <c r="H36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>yjl227_R2_2DSBs.sam</v>
       </c>
       <c r="I36" t="str">
-        <f>_xlfn.CONCAT(A36, "_", B36, "_", D36, "_", F36, "_", E36)</f>
+        <f t="shared" si="4"/>
         <v>yjl227_WT_sgAB_R2_cmv</v>
       </c>
       <c r="J36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2DSB_R2_cmv.fa</v>
       </c>
       <c r="K36">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="M36" t="str">
@@ -2553,22 +2559,22 @@
         <v>46</v>
       </c>
       <c r="H37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>yjl228_R2_2DSBs.sam</v>
       </c>
       <c r="I37" t="str">
-        <f>_xlfn.CONCAT(A37, "_", B37, "_", D37, "_", F37, "_", E37)</f>
+        <f t="shared" si="4"/>
         <v>yjl228_WT_sgAB_R2_cmv</v>
       </c>
       <c r="J37" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2DSB_R2_cmv.fa</v>
       </c>
       <c r="K37">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="M37" t="str">
@@ -2599,22 +2605,22 @@
         <v>46</v>
       </c>
       <c r="H38" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>yjl229_R2_2DSBs.sam</v>
       </c>
       <c r="I38" t="str">
-        <f>_xlfn.CONCAT(A38, "_", B38, "_", D38, "_", F38, "_", E38)</f>
+        <f t="shared" si="4"/>
         <v>yjl229_KO_sgAB_R2_sense</v>
       </c>
       <c r="J38" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2DSB_R2_sense.fa</v>
       </c>
       <c r="K38">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="M38" t="str">
@@ -2645,22 +2651,22 @@
         <v>46</v>
       </c>
       <c r="H39" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>yjl230_R2_2DSBs.sam</v>
       </c>
       <c r="I39" t="str">
-        <f>_xlfn.CONCAT(A39, "_", B39, "_", D39, "_", F39, "_", E39)</f>
+        <f t="shared" si="4"/>
         <v>yjl230_KO_sgAB_R2_sense</v>
       </c>
       <c r="J39" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2DSB_R2_sense.fa</v>
       </c>
       <c r="K39">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="M39" t="str">
@@ -2691,22 +2697,22 @@
         <v>46</v>
       </c>
       <c r="H40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>yjl231_R2_2DSBs.sam</v>
       </c>
       <c r="I40" t="str">
-        <f>_xlfn.CONCAT(A40, "_", B40, "_", D40, "_", F40, "_", E40)</f>
+        <f t="shared" si="4"/>
         <v>yjl231_KO_sgAB_R2_sense</v>
       </c>
       <c r="J40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2DSB_R2_sense.fa</v>
       </c>
       <c r="K40">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="M40" t="str">
@@ -2737,22 +2743,22 @@
         <v>46</v>
       </c>
       <c r="H41" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>yjl232_R2_2DSBs.sam</v>
       </c>
       <c r="I41" t="str">
-        <f>_xlfn.CONCAT(A41, "_", B41, "_", D41, "_", F41, "_", E41)</f>
+        <f t="shared" si="4"/>
         <v>yjl232_KO_sgAB_R2_sense</v>
       </c>
       <c r="J41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2DSB_R2_sense.fa</v>
       </c>
       <c r="K41">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="M41" t="str">
@@ -2783,22 +2789,22 @@
         <v>46</v>
       </c>
       <c r="H42" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>yjl233_R2_2DSBs.sam</v>
       </c>
       <c r="I42" t="str">
-        <f>_xlfn.CONCAT(A42, "_", B42, "_", D42, "_", F42, "_", E42)</f>
+        <f t="shared" si="4"/>
         <v>yjl233_KO_sgAB_R2_branch</v>
       </c>
       <c r="J42" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2DSB_R2_branch.fa</v>
       </c>
       <c r="K42">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="M42" t="str">
@@ -2829,22 +2835,22 @@
         <v>46</v>
       </c>
       <c r="H43" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>yjl234_R2_2DSBs.sam</v>
       </c>
       <c r="I43" t="str">
-        <f>_xlfn.CONCAT(A43, "_", B43, "_", D43, "_", F43, "_", E43)</f>
+        <f t="shared" si="4"/>
         <v>yjl234_KO_sgAB_R2_branch</v>
       </c>
       <c r="J43" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2DSB_R2_branch.fa</v>
       </c>
       <c r="K43">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="M43" t="str">
@@ -2875,22 +2881,22 @@
         <v>46</v>
       </c>
       <c r="H44" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>yjl235_R2_2DSBs.sam</v>
       </c>
       <c r="I44" t="str">
-        <f>_xlfn.CONCAT(A44, "_", B44, "_", D44, "_", F44, "_", E44)</f>
+        <f t="shared" si="4"/>
         <v>yjl235_KO_sgAB_R2_branch</v>
       </c>
       <c r="J44" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2DSB_R2_branch.fa</v>
       </c>
       <c r="K44">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="M44" t="str">
@@ -2921,22 +2927,22 @@
         <v>46</v>
       </c>
       <c r="H45" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>yjl236_R2_2DSBs.sam</v>
       </c>
       <c r="I45" t="str">
-        <f>_xlfn.CONCAT(A45, "_", B45, "_", D45, "_", F45, "_", E45)</f>
+        <f t="shared" si="4"/>
         <v>yjl236_KO_sgAB_R2_branch</v>
       </c>
       <c r="J45" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2DSB_R2_branch.fa</v>
       </c>
       <c r="K45">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="M45" t="str">
@@ -2967,22 +2973,22 @@
         <v>46</v>
       </c>
       <c r="H46" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>yjl237_R2_2DSBs.sam</v>
       </c>
       <c r="I46" t="str">
-        <f>_xlfn.CONCAT(A46, "_", B46, "_", D46, "_", F46, "_", E46)</f>
+        <f t="shared" si="4"/>
         <v>yjl237_KO_sgAB_R2_cmv</v>
       </c>
       <c r="J46" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2DSB_R2_cmv.fa</v>
       </c>
       <c r="K46">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="M46" t="str">
@@ -3013,22 +3019,22 @@
         <v>46</v>
       </c>
       <c r="H47" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>yjl238_R2_2DSBs.sam</v>
       </c>
       <c r="I47" t="str">
-        <f>_xlfn.CONCAT(A47, "_", B47, "_", D47, "_", F47, "_", E47)</f>
+        <f t="shared" si="4"/>
         <v>yjl238_KO_sgAB_R2_cmv</v>
       </c>
       <c r="J47" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2DSB_R2_cmv.fa</v>
       </c>
       <c r="K47">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="M47" t="str">
@@ -3059,22 +3065,22 @@
         <v>46</v>
       </c>
       <c r="H48" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>yjl239_R2_2DSBs.sam</v>
       </c>
       <c r="I48" t="str">
-        <f>_xlfn.CONCAT(A48, "_", B48, "_", D48, "_", F48, "_", E48)</f>
+        <f t="shared" si="4"/>
         <v>yjl239_KO_sgAB_R2_cmv</v>
       </c>
       <c r="J48" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2DSB_R2_cmv.fa</v>
       </c>
       <c r="K48">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="M48" t="str">
@@ -3105,22 +3111,22 @@
         <v>46</v>
       </c>
       <c r="H49" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>yjl240_R2_2DSBs.sam</v>
       </c>
       <c r="I49" t="str">
-        <f>_xlfn.CONCAT(A49, "_", B49, "_", D49, "_", F49, "_", E49)</f>
+        <f t="shared" si="4"/>
         <v>yjl240_KO_sgAB_R2_cmv</v>
       </c>
       <c r="J49" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2DSB_R2_cmv.fa</v>
       </c>
       <c r="K49">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="M49" t="str">
@@ -3151,22 +3157,22 @@
         <v>67</v>
       </c>
       <c r="H50" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>yjl255_R1_sgA.sam</v>
       </c>
       <c r="I50" t="str">
-        <f>_xlfn.CONCAT(A50, "_", B50, "_", D50, "_", F50, "_", E50)</f>
+        <f t="shared" si="4"/>
         <v>yjl255_WT_sgA_R1_sense</v>
       </c>
       <c r="J50" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1DSB_R1_sense.fa</v>
       </c>
       <c r="K50">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>130</v>
       </c>
       <c r="M50" t="str">
@@ -3197,22 +3203,22 @@
         <v>67</v>
       </c>
       <c r="H51" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>yjl256_R1_sgA.sam</v>
       </c>
       <c r="I51" t="str">
-        <f>_xlfn.CONCAT(A51, "_", B51, "_", D51, "_", F51, "_", E51)</f>
+        <f t="shared" si="4"/>
         <v>yjl256_WT_sgA_R1_sense</v>
       </c>
       <c r="J51" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1DSB_R1_sense.fa</v>
       </c>
       <c r="K51">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>130</v>
       </c>
       <c r="M51" t="str">
@@ -3243,22 +3249,22 @@
         <v>67</v>
       </c>
       <c r="H52" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>yjl257_R1_sgA.sam</v>
       </c>
       <c r="I52" t="str">
-        <f>_xlfn.CONCAT(A52, "_", B52, "_", D52, "_", F52, "_", E52)</f>
+        <f t="shared" si="4"/>
         <v>yjl257_WT_sgA_R1_sense</v>
       </c>
       <c r="J52" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1DSB_R1_sense.fa</v>
       </c>
       <c r="K52">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>130</v>
       </c>
       <c r="M52" t="str">
@@ -3289,22 +3295,22 @@
         <v>67</v>
       </c>
       <c r="H53" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>yjl258_R1_sgA.sam</v>
       </c>
       <c r="I53" t="str">
-        <f>_xlfn.CONCAT(A53, "_", B53, "_", D53, "_", F53, "_", E53)</f>
+        <f t="shared" si="4"/>
         <v>yjl258_WT_sgA_R1_sense</v>
       </c>
       <c r="J53" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1DSB_R1_sense.fa</v>
       </c>
       <c r="K53">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>130</v>
       </c>
       <c r="M53" t="str">
@@ -3335,22 +3341,22 @@
         <v>67</v>
       </c>
       <c r="H54" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>yjl259_R1_sgA.sam</v>
       </c>
       <c r="I54" t="str">
-        <f>_xlfn.CONCAT(A54, "_", B54, "_", D54, "_", F54, "_", E54)</f>
+        <f t="shared" si="4"/>
         <v>yjl259_WT_sgA_R1_branch</v>
       </c>
       <c r="J54" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1DSB_R1_branch.fa</v>
       </c>
       <c r="K54">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>130</v>
       </c>
       <c r="M54" t="str">
@@ -3381,22 +3387,22 @@
         <v>67</v>
       </c>
       <c r="H55" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>yjl260_R1_sgA.sam</v>
       </c>
       <c r="I55" t="str">
-        <f>_xlfn.CONCAT(A55, "_", B55, "_", D55, "_", F55, "_", E55)</f>
+        <f t="shared" si="4"/>
         <v>yjl260_WT_sgA_R1_branch</v>
       </c>
       <c r="J55" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1DSB_R1_branch.fa</v>
       </c>
       <c r="K55">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>130</v>
       </c>
       <c r="M55" t="str">
@@ -3427,22 +3433,22 @@
         <v>67</v>
       </c>
       <c r="H56" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>yjl261_R1_sgA.sam</v>
       </c>
       <c r="I56" t="str">
-        <f>_xlfn.CONCAT(A56, "_", B56, "_", D56, "_", F56, "_", E56)</f>
+        <f t="shared" si="4"/>
         <v>yjl261_WT_sgA_R1_branch</v>
       </c>
       <c r="J56" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1DSB_R1_branch.fa</v>
       </c>
       <c r="K56">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>130</v>
       </c>
       <c r="M56" t="str">
@@ -3473,22 +3479,22 @@
         <v>67</v>
       </c>
       <c r="H57" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>yjl262_R1_sgA.sam</v>
       </c>
       <c r="I57" t="str">
-        <f>_xlfn.CONCAT(A57, "_", B57, "_", D57, "_", F57, "_", E57)</f>
+        <f t="shared" si="4"/>
         <v>yjl262_WT_sgA_R1_branch</v>
       </c>
       <c r="J57" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1DSB_R1_branch.fa</v>
       </c>
       <c r="K57">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>130</v>
       </c>
       <c r="M57" t="str">
@@ -3519,22 +3525,22 @@
         <v>67</v>
       </c>
       <c r="H58" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>yjl263_R1_sgA.sam</v>
       </c>
       <c r="I58" t="str">
-        <f>_xlfn.CONCAT(A58, "_", B58, "_", D58, "_", F58, "_", E58)</f>
+        <f t="shared" si="4"/>
         <v>yjl263_WT_sgA_R1_cmv</v>
       </c>
       <c r="J58" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1DSB_R1_cmv.fa</v>
       </c>
       <c r="K58">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>130</v>
       </c>
       <c r="M58" t="str">
@@ -3565,22 +3571,22 @@
         <v>67</v>
       </c>
       <c r="H59" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>yjl264_R1_sgA.sam</v>
       </c>
       <c r="I59" t="str">
-        <f>_xlfn.CONCAT(A59, "_", B59, "_", D59, "_", F59, "_", E59)</f>
+        <f t="shared" si="4"/>
         <v>yjl264_WT_sgA_R1_cmv</v>
       </c>
       <c r="J59" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1DSB_R1_cmv.fa</v>
       </c>
       <c r="K59">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>130</v>
       </c>
       <c r="M59" t="str">
@@ -3611,22 +3617,22 @@
         <v>67</v>
       </c>
       <c r="H60" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>yjl265_R1_sgA.sam</v>
       </c>
       <c r="I60" t="str">
-        <f>_xlfn.CONCAT(A60, "_", B60, "_", D60, "_", F60, "_", E60)</f>
+        <f t="shared" si="4"/>
         <v>yjl265_WT_sgA_R1_cmv</v>
       </c>
       <c r="J60" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1DSB_R1_cmv.fa</v>
       </c>
       <c r="K60">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>130</v>
       </c>
       <c r="M60" t="str">
@@ -3657,22 +3663,22 @@
         <v>67</v>
       </c>
       <c r="H61" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>yjl266_R1_sgA.sam</v>
       </c>
       <c r="I61" t="str">
-        <f>_xlfn.CONCAT(A61, "_", B61, "_", D61, "_", F61, "_", E61)</f>
+        <f t="shared" si="4"/>
         <v>yjl266_WT_sgA_R1_cmv</v>
       </c>
       <c r="J61" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1DSB_R1_cmv.fa</v>
       </c>
       <c r="K61">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>130</v>
       </c>
       <c r="M61" t="str">
@@ -3703,22 +3709,22 @@
         <v>46</v>
       </c>
       <c r="H62" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>yjl267_R2_sgB.sam</v>
       </c>
       <c r="I62" t="str">
-        <f>_xlfn.CONCAT(A62, "_", B62, "_", D62, "_", F62, "_", E62)</f>
+        <f t="shared" si="4"/>
         <v>yjl267_WT_sgB_R2_sense</v>
       </c>
       <c r="J62" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1DSB_R2_sense.fa</v>
       </c>
       <c r="K62">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L62">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>130</v>
       </c>
       <c r="M62" t="str">
@@ -3749,22 +3755,22 @@
         <v>46</v>
       </c>
       <c r="H63" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>yjl268_R2_sgB.sam</v>
       </c>
       <c r="I63" t="str">
-        <f>_xlfn.CONCAT(A63, "_", B63, "_", D63, "_", F63, "_", E63)</f>
+        <f t="shared" si="4"/>
         <v>yjl268_WT_sgB_R2_sense</v>
       </c>
       <c r="J63" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1DSB_R2_sense.fa</v>
       </c>
       <c r="K63">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>130</v>
       </c>
       <c r="M63" t="str">
@@ -3795,22 +3801,22 @@
         <v>46</v>
       </c>
       <c r="H64" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>yjl269_R2_sgB.sam</v>
       </c>
       <c r="I64" t="str">
-        <f>_xlfn.CONCAT(A64, "_", B64, "_", D64, "_", F64, "_", E64)</f>
+        <f t="shared" si="4"/>
         <v>yjl269_WT_sgB_R2_sense</v>
       </c>
       <c r="J64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1DSB_R2_sense.fa</v>
       </c>
       <c r="K64">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>130</v>
       </c>
       <c r="M64" t="str">
@@ -3841,22 +3847,22 @@
         <v>46</v>
       </c>
       <c r="H65" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>yjl270_R2_sgB.sam</v>
       </c>
       <c r="I65" t="str">
-        <f>_xlfn.CONCAT(A65, "_", B65, "_", D65, "_", F65, "_", E65)</f>
+        <f t="shared" si="4"/>
         <v>yjl270_WT_sgB_R2_sense</v>
       </c>
       <c r="J65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1DSB_R2_sense.fa</v>
       </c>
       <c r="K65">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>130</v>
       </c>
       <c r="M65" t="str">
@@ -3887,22 +3893,22 @@
         <v>46</v>
       </c>
       <c r="H66" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>yjl271_R2_sgB.sam</v>
       </c>
       <c r="I66" t="str">
-        <f>_xlfn.CONCAT(A66, "_", B66, "_", D66, "_", F66, "_", E66)</f>
+        <f t="shared" ref="I66:I98" si="5">_xlfn.CONCAT(A66, "_", B66, "_", D66, "_", F66, "_", E66)</f>
         <v>yjl271_WT_sgB_R2_branch</v>
       </c>
       <c r="J66" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1DSB_R2_branch.fa</v>
       </c>
       <c r="K66">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>130</v>
       </c>
       <c r="M66" t="str">
@@ -3933,22 +3939,22 @@
         <v>46</v>
       </c>
       <c r="H67" t="str">
-        <f t="shared" ref="H67:H105" si="3">_xlfn.CONCAT(A67, IF(C67 = "2DSBanti", "_anti", ""), "_",F67,"_", IF(LEFT(C67, 1)="2","2DSBs", D67), ".sam")</f>
+        <f t="shared" ref="H67:H105" si="6">_xlfn.CONCAT(A67, IF(C67 = "2DSBanti", "_anti", ""), "_",F67,"_", IF(LEFT(C67, 1)="2","2DSBs", D67), ".sam")</f>
         <v>yjl272_R2_sgB.sam</v>
       </c>
       <c r="I67" t="str">
-        <f>_xlfn.CONCAT(A67, "_", B67, "_", D67, "_", F67, "_", E67)</f>
+        <f t="shared" si="5"/>
         <v>yjl272_WT_sgB_R2_branch</v>
       </c>
       <c r="J67" t="str">
-        <f t="shared" ref="J67:J105" si="4">_xlfn.CONCAT(C67,"_", F67,"_", E67, ".fa")</f>
+        <f t="shared" ref="J67:J105" si="7">_xlfn.CONCAT(C67,"_", F67,"_", E67, ".fa")</f>
         <v>1DSB_R2_branch.fa</v>
       </c>
       <c r="K67">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L67">
-        <f t="shared" ref="L67:L105" si="5">IF(LEFT(C67, 1) = "2", 50, 130)</f>
+        <f t="shared" ref="L67:L105" si="8">IF(LEFT(C67, 1) = "2", 50, 130)</f>
         <v>130</v>
       </c>
       <c r="M67" t="str">
@@ -3979,22 +3985,22 @@
         <v>46</v>
       </c>
       <c r="H68" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>yjl273_R2_sgB.sam</v>
       </c>
       <c r="I68" t="str">
-        <f>_xlfn.CONCAT(A68, "_", B68, "_", D68, "_", F68, "_", E68)</f>
+        <f t="shared" si="5"/>
         <v>yjl273_WT_sgB_R2_branch</v>
       </c>
       <c r="J68" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1DSB_R2_branch.fa</v>
       </c>
       <c r="K68">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>130</v>
       </c>
       <c r="M68" t="str">
@@ -4025,22 +4031,22 @@
         <v>46</v>
       </c>
       <c r="H69" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>yjl274_R2_sgB.sam</v>
       </c>
       <c r="I69" t="str">
-        <f>_xlfn.CONCAT(A69, "_", B69, "_", D69, "_", F69, "_", E69)</f>
+        <f t="shared" si="5"/>
         <v>yjl274_WT_sgB_R2_branch</v>
       </c>
       <c r="J69" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1DSB_R2_branch.fa</v>
       </c>
       <c r="K69">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>130</v>
       </c>
       <c r="M69" t="str">
@@ -4071,22 +4077,22 @@
         <v>46</v>
       </c>
       <c r="H70" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>yjl275_R2_sgB.sam</v>
       </c>
       <c r="I70" t="str">
-        <f>_xlfn.CONCAT(A70, "_", B70, "_", D70, "_", F70, "_", E70)</f>
+        <f t="shared" si="5"/>
         <v>yjl275_WT_sgB_R2_cmv</v>
       </c>
       <c r="J70" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1DSB_R2_cmv.fa</v>
       </c>
       <c r="K70">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>130</v>
       </c>
       <c r="M70" t="str">
@@ -4117,22 +4123,22 @@
         <v>46</v>
       </c>
       <c r="H71" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>yjl276_R2_sgB.sam</v>
       </c>
       <c r="I71" t="str">
-        <f>_xlfn.CONCAT(A71, "_", B71, "_", D71, "_", F71, "_", E71)</f>
+        <f t="shared" si="5"/>
         <v>yjl276_WT_sgB_R2_cmv</v>
       </c>
       <c r="J71" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1DSB_R2_cmv.fa</v>
       </c>
       <c r="K71">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>130</v>
       </c>
       <c r="M71" t="str">
@@ -4163,22 +4169,22 @@
         <v>46</v>
       </c>
       <c r="H72" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>yjl277_R2_sgB.sam</v>
       </c>
       <c r="I72" t="str">
-        <f>_xlfn.CONCAT(A72, "_", B72, "_", D72, "_", F72, "_", E72)</f>
+        <f t="shared" si="5"/>
         <v>yjl277_WT_sgB_R2_cmv</v>
       </c>
       <c r="J72" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1DSB_R2_cmv.fa</v>
       </c>
       <c r="K72">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>130</v>
       </c>
       <c r="M72" t="str">
@@ -4209,22 +4215,22 @@
         <v>46</v>
       </c>
       <c r="H73" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>yjl278_R2_sgB.sam</v>
       </c>
       <c r="I73" t="str">
-        <f>_xlfn.CONCAT(A73, "_", B73, "_", D73, "_", F73, "_", E73)</f>
+        <f t="shared" si="5"/>
         <v>yjl278_WT_sgB_R2_cmv</v>
       </c>
       <c r="J73" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1DSB_R2_cmv.fa</v>
       </c>
       <c r="K73">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>130</v>
       </c>
       <c r="M73" t="str">
@@ -4255,22 +4261,22 @@
         <v>67</v>
       </c>
       <c r="H74" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>yjl292_R1_sgA.sam</v>
       </c>
       <c r="I74" t="str">
-        <f>_xlfn.CONCAT(A74, "_", B74, "_", D74, "_", F74, "_", E74)</f>
+        <f t="shared" si="5"/>
         <v>yjl292_KO_sgA_R1_sense</v>
       </c>
       <c r="J74" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1DSB_R1_sense.fa</v>
       </c>
       <c r="K74">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>130</v>
       </c>
       <c r="M74" t="str">
@@ -4301,22 +4307,22 @@
         <v>67</v>
       </c>
       <c r="H75" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>yjl293_R1_sgA.sam</v>
       </c>
       <c r="I75" t="str">
-        <f>_xlfn.CONCAT(A75, "_", B75, "_", D75, "_", F75, "_", E75)</f>
+        <f t="shared" si="5"/>
         <v>yjl293_KO_sgA_R1_sense</v>
       </c>
       <c r="J75" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1DSB_R1_sense.fa</v>
       </c>
       <c r="K75">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>130</v>
       </c>
       <c r="M75" t="str">
@@ -4347,22 +4353,22 @@
         <v>67</v>
       </c>
       <c r="H76" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>yjl294_R1_sgA.sam</v>
       </c>
       <c r="I76" t="str">
-        <f>_xlfn.CONCAT(A76, "_", B76, "_", D76, "_", F76, "_", E76)</f>
+        <f t="shared" si="5"/>
         <v>yjl294_KO_sgA_R1_sense</v>
       </c>
       <c r="J76" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1DSB_R1_sense.fa</v>
       </c>
       <c r="K76">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>130</v>
       </c>
       <c r="M76" t="str">
@@ -4393,22 +4399,22 @@
         <v>67</v>
       </c>
       <c r="H77" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>yjl295_R1_sgA.sam</v>
       </c>
       <c r="I77" t="str">
-        <f>_xlfn.CONCAT(A77, "_", B77, "_", D77, "_", F77, "_", E77)</f>
+        <f t="shared" si="5"/>
         <v>yjl295_KO_sgA_R1_sense</v>
       </c>
       <c r="J77" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1DSB_R1_sense.fa</v>
       </c>
       <c r="K77">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L77">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>130</v>
       </c>
       <c r="M77" t="str">
@@ -4439,22 +4445,22 @@
         <v>67</v>
       </c>
       <c r="H78" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>yjl296_R1_sgA.sam</v>
       </c>
       <c r="I78" t="str">
-        <f>_xlfn.CONCAT(A78, "_", B78, "_", D78, "_", F78, "_", E78)</f>
+        <f t="shared" si="5"/>
         <v>yjl296_KO_sgA_R1_branch</v>
       </c>
       <c r="J78" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1DSB_R1_branch.fa</v>
       </c>
       <c r="K78">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L78">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>130</v>
       </c>
       <c r="M78" t="str">
@@ -4485,22 +4491,22 @@
         <v>67</v>
       </c>
       <c r="H79" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>yjl297_R1_sgA.sam</v>
       </c>
       <c r="I79" t="str">
-        <f>_xlfn.CONCAT(A79, "_", B79, "_", D79, "_", F79, "_", E79)</f>
+        <f t="shared" si="5"/>
         <v>yjl297_KO_sgA_R1_branch</v>
       </c>
       <c r="J79" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1DSB_R1_branch.fa</v>
       </c>
       <c r="K79">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>130</v>
       </c>
       <c r="M79" t="str">
@@ -4531,22 +4537,22 @@
         <v>67</v>
       </c>
       <c r="H80" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>yjl298_R1_sgA.sam</v>
       </c>
       <c r="I80" t="str">
-        <f>_xlfn.CONCAT(A80, "_", B80, "_", D80, "_", F80, "_", E80)</f>
+        <f t="shared" si="5"/>
         <v>yjl298_KO_sgA_R1_branch</v>
       </c>
       <c r="J80" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1DSB_R1_branch.fa</v>
       </c>
       <c r="K80">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>130</v>
       </c>
       <c r="M80" t="str">
@@ -4577,22 +4583,22 @@
         <v>67</v>
       </c>
       <c r="H81" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>yjl299_R1_sgA.sam</v>
       </c>
       <c r="I81" t="str">
-        <f>_xlfn.CONCAT(A81, "_", B81, "_", D81, "_", F81, "_", E81)</f>
+        <f t="shared" si="5"/>
         <v>yjl299_KO_sgA_R1_branch</v>
       </c>
       <c r="J81" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1DSB_R1_branch.fa</v>
       </c>
       <c r="K81">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>130</v>
       </c>
       <c r="M81" t="str">
@@ -4623,22 +4629,22 @@
         <v>67</v>
       </c>
       <c r="H82" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>yjl300_R1_sgA.sam</v>
       </c>
       <c r="I82" t="str">
-        <f>_xlfn.CONCAT(A82, "_", B82, "_", D82, "_", F82, "_", E82)</f>
+        <f t="shared" si="5"/>
         <v>yjl300_KO_sgA_R1_cmv</v>
       </c>
       <c r="J82" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1DSB_R1_cmv.fa</v>
       </c>
       <c r="K82">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>130</v>
       </c>
       <c r="M82" t="str">
@@ -4669,22 +4675,22 @@
         <v>67</v>
       </c>
       <c r="H83" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>yjl301_R1_sgA.sam</v>
       </c>
       <c r="I83" t="str">
-        <f>_xlfn.CONCAT(A83, "_", B83, "_", D83, "_", F83, "_", E83)</f>
+        <f t="shared" si="5"/>
         <v>yjl301_KO_sgA_R1_cmv</v>
       </c>
       <c r="J83" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1DSB_R1_cmv.fa</v>
       </c>
       <c r="K83">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>130</v>
       </c>
       <c r="M83" t="str">
@@ -4715,22 +4721,22 @@
         <v>67</v>
       </c>
       <c r="H84" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>yjl302_R1_sgA.sam</v>
       </c>
       <c r="I84" t="str">
-        <f>_xlfn.CONCAT(A84, "_", B84, "_", D84, "_", F84, "_", E84)</f>
+        <f t="shared" si="5"/>
         <v>yjl302_KO_sgA_R1_cmv</v>
       </c>
       <c r="J84" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1DSB_R1_cmv.fa</v>
       </c>
       <c r="K84">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>130</v>
       </c>
       <c r="M84" t="str">
@@ -4761,22 +4767,22 @@
         <v>67</v>
       </c>
       <c r="H85" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>yjl303_R1_sgA.sam</v>
       </c>
       <c r="I85" t="str">
-        <f>_xlfn.CONCAT(A85, "_", B85, "_", D85, "_", F85, "_", E85)</f>
+        <f t="shared" si="5"/>
         <v>yjl303_KO_sgA_R1_cmv</v>
       </c>
       <c r="J85" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1DSB_R1_cmv.fa</v>
       </c>
       <c r="K85">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L85">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>130</v>
       </c>
       <c r="M85" t="str">
@@ -4807,22 +4813,22 @@
         <v>46</v>
       </c>
       <c r="H86" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>yjl304_R2_sgB.sam</v>
       </c>
       <c r="I86" t="str">
-        <f>_xlfn.CONCAT(A86, "_", B86, "_", D86, "_", F86, "_", E86)</f>
+        <f t="shared" si="5"/>
         <v>yjl304_KO_sgB_R2_sense</v>
       </c>
       <c r="J86" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1DSB_R2_sense.fa</v>
       </c>
       <c r="K86">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L86">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>130</v>
       </c>
       <c r="M86" t="str">
@@ -4853,22 +4859,22 @@
         <v>46</v>
       </c>
       <c r="H87" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>yjl305_R2_sgB.sam</v>
       </c>
       <c r="I87" t="str">
-        <f>_xlfn.CONCAT(A87, "_", B87, "_", D87, "_", F87, "_", E87)</f>
+        <f t="shared" si="5"/>
         <v>yjl305_KO_sgB_R2_sense</v>
       </c>
       <c r="J87" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1DSB_R2_sense.fa</v>
       </c>
       <c r="K87">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>130</v>
       </c>
       <c r="M87" t="str">
@@ -4899,22 +4905,22 @@
         <v>46</v>
       </c>
       <c r="H88" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>yjl306_R2_sgB.sam</v>
       </c>
       <c r="I88" t="str">
-        <f>_xlfn.CONCAT(A88, "_", B88, "_", D88, "_", F88, "_", E88)</f>
+        <f t="shared" si="5"/>
         <v>yjl306_KO_sgB_R2_sense</v>
       </c>
       <c r="J88" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1DSB_R2_sense.fa</v>
       </c>
       <c r="K88">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L88">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>130</v>
       </c>
       <c r="M88" t="str">
@@ -4945,22 +4951,22 @@
         <v>46</v>
       </c>
       <c r="H89" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>yjl307_R2_sgB.sam</v>
       </c>
       <c r="I89" t="str">
-        <f>_xlfn.CONCAT(A89, "_", B89, "_", D89, "_", F89, "_", E89)</f>
+        <f t="shared" si="5"/>
         <v>yjl307_KO_sgB_R2_sense</v>
       </c>
       <c r="J89" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1DSB_R2_sense.fa</v>
       </c>
       <c r="K89">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L89">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>130</v>
       </c>
       <c r="M89" t="str">
@@ -4991,22 +4997,22 @@
         <v>46</v>
       </c>
       <c r="H90" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>yjl308_R2_sgB.sam</v>
       </c>
       <c r="I90" t="str">
-        <f>_xlfn.CONCAT(A90, "_", B90, "_", D90, "_", F90, "_", E90)</f>
+        <f t="shared" si="5"/>
         <v>yjl308_KO_sgB_R2_branch</v>
       </c>
       <c r="J90" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1DSB_R2_branch.fa</v>
       </c>
       <c r="K90">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>130</v>
       </c>
       <c r="M90" t="str">
@@ -5037,22 +5043,22 @@
         <v>46</v>
       </c>
       <c r="H91" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>yjl309_R2_sgB.sam</v>
       </c>
       <c r="I91" t="str">
-        <f>_xlfn.CONCAT(A91, "_", B91, "_", D91, "_", F91, "_", E91)</f>
+        <f t="shared" si="5"/>
         <v>yjl309_KO_sgB_R2_branch</v>
       </c>
       <c r="J91" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1DSB_R2_branch.fa</v>
       </c>
       <c r="K91">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L91">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>130</v>
       </c>
       <c r="M91" t="str">
@@ -5083,22 +5089,22 @@
         <v>46</v>
       </c>
       <c r="H92" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>yjl310_R2_sgB.sam</v>
       </c>
       <c r="I92" t="str">
-        <f>_xlfn.CONCAT(A92, "_", B92, "_", D92, "_", F92, "_", E92)</f>
+        <f t="shared" si="5"/>
         <v>yjl310_KO_sgB_R2_branch</v>
       </c>
       <c r="J92" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1DSB_R2_branch.fa</v>
       </c>
       <c r="K92">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L92">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>130</v>
       </c>
       <c r="M92" t="str">
@@ -5129,22 +5135,22 @@
         <v>46</v>
       </c>
       <c r="H93" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>yjl311_R2_sgB.sam</v>
       </c>
       <c r="I93" t="str">
-        <f>_xlfn.CONCAT(A93, "_", B93, "_", D93, "_", F93, "_", E93)</f>
+        <f t="shared" si="5"/>
         <v>yjl311_KO_sgB_R2_branch</v>
       </c>
       <c r="J93" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1DSB_R2_branch.fa</v>
       </c>
       <c r="K93">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>130</v>
       </c>
       <c r="M93" t="str">
@@ -5175,22 +5181,22 @@
         <v>46</v>
       </c>
       <c r="H94" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>yjl312_R2_sgB.sam</v>
       </c>
       <c r="I94" t="str">
-        <f>_xlfn.CONCAT(A94, "_", B94, "_", D94, "_", F94, "_", E94)</f>
+        <f t="shared" si="5"/>
         <v>yjl312_KO_sgB_R2_cmv</v>
       </c>
       <c r="J94" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1DSB_R2_cmv.fa</v>
       </c>
       <c r="K94">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L94">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>130</v>
       </c>
       <c r="M94" t="str">
@@ -5221,22 +5227,22 @@
         <v>46</v>
       </c>
       <c r="H95" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>yjl313_R2_sgB.sam</v>
       </c>
       <c r="I95" t="str">
-        <f>_xlfn.CONCAT(A95, "_", B95, "_", D95, "_", F95, "_", E95)</f>
+        <f t="shared" si="5"/>
         <v>yjl313_KO_sgB_R2_cmv</v>
       </c>
       <c r="J95" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1DSB_R2_cmv.fa</v>
       </c>
       <c r="K95">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L95">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>130</v>
       </c>
       <c r="M95" t="str">
@@ -5267,22 +5273,22 @@
         <v>46</v>
       </c>
       <c r="H96" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>yjl314_R2_sgB.sam</v>
       </c>
       <c r="I96" t="str">
-        <f>_xlfn.CONCAT(A96, "_", B96, "_", D96, "_", F96, "_", E96)</f>
+        <f t="shared" si="5"/>
         <v>yjl314_KO_sgB_R2_cmv</v>
       </c>
       <c r="J96" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1DSB_R2_cmv.fa</v>
       </c>
       <c r="K96">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L96">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>130</v>
       </c>
       <c r="M96" t="str">
@@ -5313,22 +5319,22 @@
         <v>46</v>
       </c>
       <c r="H97" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>yjl315_R2_sgB.sam</v>
       </c>
       <c r="I97" t="str">
-        <f>_xlfn.CONCAT(A97, "_", B97, "_", D97, "_", F97, "_", E97)</f>
+        <f t="shared" si="5"/>
         <v>yjl315_KO_sgB_R2_cmv</v>
       </c>
       <c r="J97" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1DSB_R2_cmv.fa</v>
       </c>
       <c r="K97">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L97">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>130</v>
       </c>
       <c r="M97" t="str">
@@ -5359,22 +5365,22 @@
         <v>50</v>
       </c>
       <c r="H98" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>yjl89_anti_R1_2DSBs.sam</v>
       </c>
       <c r="I98" t="str">
-        <f>_xlfn.CONCAT(A98, "_", B98, "_", D98, "_", F98, "_", E98)</f>
+        <f t="shared" si="5"/>
         <v>yjl89_WT_sgCD_R1_antisense</v>
       </c>
       <c r="J98" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2DSBanti_R1_antisense.fa</v>
       </c>
       <c r="K98">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L98">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>50</v>
       </c>
       <c r="M98" t="str">
@@ -5405,22 +5411,22 @@
         <v>50</v>
       </c>
       <c r="H99" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>yjl90_anti_R1_2DSBs.sam</v>
       </c>
       <c r="I99" t="str">
-        <f t="shared" ref="I99:I105" si="6">_xlfn.CONCAT(A99, "_", B99, "_", D99, "_", F99, "_", E99)</f>
+        <f t="shared" ref="I99:I105" si="9">_xlfn.CONCAT(A99, "_", B99, "_", D99, "_", F99, "_", E99)</f>
         <v>yjl90_WT_sgCD_R1_antisense</v>
       </c>
       <c r="J99" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2DSBanti_R1_antisense.fa</v>
       </c>
       <c r="K99">
         <v>97</v>
       </c>
       <c r="L99">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>50</v>
       </c>
       <c r="M99" t="str">
@@ -5451,22 +5457,22 @@
         <v>50</v>
       </c>
       <c r="H100" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>yjl91_anti_R1_2DSBs.sam</v>
       </c>
       <c r="I100" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>yjl91_WT_sgCD_R1_antisense</v>
       </c>
       <c r="J100" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2DSBanti_R1_antisense.fa</v>
       </c>
       <c r="K100">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="L100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>50</v>
       </c>
       <c r="M100" t="str">
@@ -5497,22 +5503,22 @@
         <v>50</v>
       </c>
       <c r="H101" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>yjl92_anti_R1_2DSBs.sam</v>
       </c>
       <c r="I101" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>yjl92_WT_sgCD_R1_antisense</v>
       </c>
       <c r="J101" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2DSBanti_R1_antisense.fa</v>
       </c>
       <c r="K101">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L101">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>50</v>
       </c>
       <c r="M101" t="str">
@@ -5543,22 +5549,22 @@
         <v>50</v>
       </c>
       <c r="H102" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>yjl93_anti_R1_2DSBs.sam</v>
       </c>
       <c r="I102" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>yjl93_WT_sgCD_R1_splicing</v>
       </c>
       <c r="J102" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2DSBanti_R1_splicing.fa</v>
       </c>
       <c r="K102">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L102">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>50</v>
       </c>
       <c r="M102" t="str">
@@ -5589,22 +5595,22 @@
         <v>50</v>
       </c>
       <c r="H103" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>yjl94_anti_R1_2DSBs.sam</v>
       </c>
       <c r="I103" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>yjl94_WT_sgCD_R1_splicing</v>
       </c>
       <c r="J103" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2DSBanti_R1_splicing.fa</v>
       </c>
       <c r="K103">
         <v>97</v>
       </c>
       <c r="L103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>50</v>
       </c>
       <c r="M103" t="str">
@@ -5635,22 +5641,22 @@
         <v>50</v>
       </c>
       <c r="H104" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>yjl95_anti_R1_2DSBs.sam</v>
       </c>
       <c r="I104" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>yjl95_WT_sgCD_R1_splicing</v>
       </c>
       <c r="J104" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2DSBanti_R1_splicing.fa</v>
       </c>
       <c r="K104">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="L104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>50</v>
       </c>
       <c r="M104" t="str">
@@ -5681,22 +5687,22 @@
         <v>50</v>
       </c>
       <c r="H105" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>yjl96_anti_R1_2DSBs.sam</v>
       </c>
       <c r="I105" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>yjl96_WT_sgCD_R1_splicing</v>
       </c>
       <c r="J105" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2DSBanti_R1_splicing.fa</v>
       </c>
       <c r="K105">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L105">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>50</v>
       </c>
       <c r="M105" t="str">
@@ -5724,10 +5730,10 @@
         <v>86</v>
       </c>
       <c r="G106">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H106" t="str">
-        <f t="shared" ref="H106:H113" si="7">_xlfn.CONCAT(A106, IF(C106 = "2DSBanti", "_anti", ""), "_",F106,"_", IF(LEFT(C106, 1)="2","2DSBs", D106), ".sam")</f>
+        <f t="shared" ref="H106:H113" si="10">_xlfn.CONCAT(A106, IF(C106 = "2DSBanti", "_anti", ""), "_",F106,"_", IF(LEFT(C106, 1)="2","2DSBs", D106), ".sam")</f>
         <v>yjl89_anti_R2_2DSBs.sam</v>
       </c>
       <c r="I106" t="str">
@@ -5735,19 +5741,19 @@
         <v>yjl89_WT_sgCD_R2_antisense</v>
       </c>
       <c r="J106" t="str">
-        <f t="shared" ref="J106:J113" si="8">_xlfn.CONCAT(C106,"_", F106,"_", E106, ".fa")</f>
+        <f t="shared" ref="J106:J113" si="11">_xlfn.CONCAT(C106,"_", F106,"_", E106, ".fa")</f>
         <v>2DSBanti_R2_antisense.fa</v>
       </c>
       <c r="K106">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L106">
-        <f t="shared" ref="L106:L113" si="9">IF(LEFT(C106, 1) = "2", 50, 130)</f>
+        <f t="shared" ref="L106:L113" si="12">IF(LEFT(C106, 1) = "2", 50, 130)</f>
         <v>50</v>
       </c>
       <c r="M106" t="str">
         <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", H106, " -ref ref_seq/", J106, " -o ", dirs!$A$2, "/", I106, ".tsv", " --min_length ", L106, " -dsb ", G106, " --quiet")</f>
-        <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl89_anti_R2_2DSBs.sam -ref ref_seq/2DSBanti_R2_antisense.fa -o libraries_2/yjl89_WT_sgCD_R2_antisense.tsv --min_length 50 -dsb 50 --quiet</v>
+        <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl89_anti_R2_2DSBs.sam -ref ref_seq/2DSBanti_R2_antisense.fa -o libraries_2/yjl89_WT_sgCD_R2_antisense.tsv --min_length 50 -dsb 47 --quiet</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
@@ -5770,30 +5776,30 @@
         <v>86</v>
       </c>
       <c r="G107">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H107" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>yjl90_anti_R2_2DSBs.sam</v>
       </c>
       <c r="I107" t="str">
-        <f t="shared" ref="I107:I113" si="10">_xlfn.CONCAT(A107, "_", B107, "_", D107, "_", F107, "_", E107)</f>
+        <f t="shared" ref="I107:I113" si="13">_xlfn.CONCAT(A107, "_", B107, "_", D107, "_", F107, "_", E107)</f>
         <v>yjl90_WT_sgCD_R2_antisense</v>
       </c>
       <c r="J107" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2DSBanti_R2_antisense.fa</v>
       </c>
       <c r="K107">
         <v>97</v>
       </c>
       <c r="L107">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>50</v>
       </c>
       <c r="M107" t="str">
         <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", H107, " -ref ref_seq/", J107, " -o ", dirs!$A$2, "/", I107, ".tsv", " --min_length ", L107, " -dsb ", G107, " --quiet")</f>
-        <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl90_anti_R2_2DSBs.sam -ref ref_seq/2DSBanti_R2_antisense.fa -o libraries_2/yjl90_WT_sgCD_R2_antisense.tsv --min_length 50 -dsb 50 --quiet</v>
+        <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl90_anti_R2_2DSBs.sam -ref ref_seq/2DSBanti_R2_antisense.fa -o libraries_2/yjl90_WT_sgCD_R2_antisense.tsv --min_length 50 -dsb 47 --quiet</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
@@ -5816,30 +5822,30 @@
         <v>86</v>
       </c>
       <c r="G108">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H108" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>yjl91_anti_R2_2DSBs.sam</v>
       </c>
       <c r="I108" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>yjl91_WT_sgCD_R2_antisense</v>
       </c>
       <c r="J108" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2DSBanti_R2_antisense.fa</v>
       </c>
       <c r="K108">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="L108">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>50</v>
       </c>
       <c r="M108" t="str">
         <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", H108, " -ref ref_seq/", J108, " -o ", dirs!$A$2, "/", I108, ".tsv", " --min_length ", L108, " -dsb ", G108, " --quiet")</f>
-        <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl91_anti_R2_2DSBs.sam -ref ref_seq/2DSBanti_R2_antisense.fa -o libraries_2/yjl91_WT_sgCD_R2_antisense.tsv --min_length 50 -dsb 50 --quiet</v>
+        <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl91_anti_R2_2DSBs.sam -ref ref_seq/2DSBanti_R2_antisense.fa -o libraries_2/yjl91_WT_sgCD_R2_antisense.tsv --min_length 50 -dsb 47 --quiet</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
@@ -5862,30 +5868,30 @@
         <v>86</v>
       </c>
       <c r="G109">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H109" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>yjl92_anti_R2_2DSBs.sam</v>
       </c>
       <c r="I109" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>yjl92_WT_sgCD_R2_antisense</v>
       </c>
       <c r="J109" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2DSBanti_R2_antisense.fa</v>
       </c>
       <c r="K109">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L109">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>50</v>
       </c>
       <c r="M109" t="str">
         <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", H109, " -ref ref_seq/", J109, " -o ", dirs!$A$2, "/", I109, ".tsv", " --min_length ", L109, " -dsb ", G109, " --quiet")</f>
-        <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl92_anti_R2_2DSBs.sam -ref ref_seq/2DSBanti_R2_antisense.fa -o libraries_2/yjl92_WT_sgCD_R2_antisense.tsv --min_length 50 -dsb 50 --quiet</v>
+        <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl92_anti_R2_2DSBs.sam -ref ref_seq/2DSBanti_R2_antisense.fa -o libraries_2/yjl92_WT_sgCD_R2_antisense.tsv --min_length 50 -dsb 47 --quiet</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
@@ -5908,30 +5914,30 @@
         <v>86</v>
       </c>
       <c r="G110">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H110" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>yjl93_anti_R2_2DSBs.sam</v>
       </c>
       <c r="I110" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>yjl93_WT_sgCD_R2_splicing</v>
       </c>
       <c r="J110" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2DSBanti_R2_splicing.fa</v>
       </c>
       <c r="K110">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L110">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>50</v>
       </c>
       <c r="M110" t="str">
         <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", H110, " -ref ref_seq/", J110, " -o ", dirs!$A$2, "/", I110, ".tsv", " --min_length ", L110, " -dsb ", G110, " --quiet")</f>
-        <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl93_anti_R2_2DSBs.sam -ref ref_seq/2DSBanti_R2_splicing.fa -o libraries_2/yjl93_WT_sgCD_R2_splicing.tsv --min_length 50 -dsb 50 --quiet</v>
+        <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl93_anti_R2_2DSBs.sam -ref ref_seq/2DSBanti_R2_splicing.fa -o libraries_2/yjl93_WT_sgCD_R2_splicing.tsv --min_length 50 -dsb 47 --quiet</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
@@ -5954,30 +5960,30 @@
         <v>86</v>
       </c>
       <c r="G111">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H111" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>yjl94_anti_R2_2DSBs.sam</v>
       </c>
       <c r="I111" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>yjl94_WT_sgCD_R2_splicing</v>
       </c>
       <c r="J111" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2DSBanti_R2_splicing.fa</v>
       </c>
       <c r="K111">
         <v>97</v>
       </c>
       <c r="L111">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>50</v>
       </c>
       <c r="M111" t="str">
         <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", H111, " -ref ref_seq/", J111, " -o ", dirs!$A$2, "/", I111, ".tsv", " --min_length ", L111, " -dsb ", G111, " --quiet")</f>
-        <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl94_anti_R2_2DSBs.sam -ref ref_seq/2DSBanti_R2_splicing.fa -o libraries_2/yjl94_WT_sgCD_R2_splicing.tsv --min_length 50 -dsb 50 --quiet</v>
+        <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl94_anti_R2_2DSBs.sam -ref ref_seq/2DSBanti_R2_splicing.fa -o libraries_2/yjl94_WT_sgCD_R2_splicing.tsv --min_length 50 -dsb 47 --quiet</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
@@ -6000,30 +6006,30 @@
         <v>86</v>
       </c>
       <c r="G112">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H112" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>yjl95_anti_R2_2DSBs.sam</v>
       </c>
       <c r="I112" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>yjl95_WT_sgCD_R2_splicing</v>
       </c>
       <c r="J112" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2DSBanti_R2_splicing.fa</v>
       </c>
       <c r="K112">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="L112">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>50</v>
       </c>
       <c r="M112" t="str">
         <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", H112, " -ref ref_seq/", J112, " -o ", dirs!$A$2, "/", I112, ".tsv", " --min_length ", L112, " -dsb ", G112, " --quiet")</f>
-        <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl95_anti_R2_2DSBs.sam -ref ref_seq/2DSBanti_R2_splicing.fa -o libraries_2/yjl95_WT_sgCD_R2_splicing.tsv --min_length 50 -dsb 50 --quiet</v>
+        <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl95_anti_R2_2DSBs.sam -ref ref_seq/2DSBanti_R2_splicing.fa -o libraries_2/yjl95_WT_sgCD_R2_splicing.tsv --min_length 50 -dsb 47 --quiet</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
@@ -6046,30 +6052,30 @@
         <v>86</v>
       </c>
       <c r="G113">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H113" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>yjl96_anti_R2_2DSBs.sam</v>
       </c>
       <c r="I113" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>yjl96_WT_sgCD_R2_splicing</v>
       </c>
       <c r="J113" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2DSBanti_R2_splicing.fa</v>
       </c>
       <c r="K113">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L113">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>50</v>
       </c>
       <c r="M113" t="str">
         <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", H113, " -ref ref_seq/", J113, " -o ", dirs!$A$2, "/", I113, ".tsv", " --min_length ", L113, " -dsb ", G113, " --quiet")</f>
-        <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl96_anti_R2_2DSBs.sam -ref ref_seq/2DSBanti_R2_splicing.fa -o libraries_2/yjl96_WT_sgCD_R2_splicing.tsv --min_length 50 -dsb 50 --quiet</v>
+        <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl96_anti_R2_2DSBs.sam -ref ref_seq/2DSBanti_R2_splicing.fa -o libraries_2/yjl96_WT_sgCD_R2_splicing.tsv --min_length 50 -dsb 47 --quiet</v>
       </c>
     </row>
   </sheetData>
@@ -6083,8 +6089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12B0900B-E55F-43FE-AC1A-BE82F1C8E743}">
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G10" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView tabSelected="1" topLeftCell="G7" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3:Q30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6221,7 +6227,7 @@
       </c>
       <c r="J3">
         <f ca="1">OFFSET('1'!$K$1, 4 * ($A3 - 1)  + ($J$2), 0)</f>
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K3" t="str">
         <f ca="1">OFFSET('1'!$I$1, 4 * (A3 - 1)  + ($K$2), 0)</f>
@@ -6229,7 +6235,7 @@
       </c>
       <c r="L3">
         <f ca="1">OFFSET('1'!$K$1, 4 * ($A3 - 1)  + ($L$2), 0)</f>
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M3" t="str">
         <f ca="1">OFFSET('1'!$I$1, 4 * ($A3 - 1)  + ($M$2), 0)</f>
@@ -6237,7 +6243,7 @@
       </c>
       <c r="N3">
         <f ca="1">OFFSET('1'!$K$1, 4 * ($A3 - 1)  + ($N$2), 0)</f>
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O3" t="str">
         <f ca="1">OFFSET('1'!$I$1, 4 * ($A3 - 1)  + ($O$2), 0)</f>
@@ -6245,11 +6251,11 @@
       </c>
       <c r="P3">
         <f ca="1">OFFSET('1'!$K$1, 4 * ($A3 - 1)  + ($P$2), 0)</f>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q3" t="str">
-        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", I3, ".tsv ", dirs!$A$2, "/", K3, ".tsv ", dirs!$A$2, "/", M3, ".tsv ", dirs!$A$2, "/", O3, ".tsv --total_reads ", J3, " ", L3, " ", N3, " ", P3, " -o ", dirs!$A$3, "/", H3, ".tsv")</f>
-        <v>python 1_process_nhej/combine_repeats.py -in libraries_2/yjl217_WT_sgAB_R1_sense.tsv libraries_2/yjl218_WT_sgAB_R1_sense.tsv libraries_2/yjl219_WT_sgAB_R1_sense.tsv libraries_2/yjl220_WT_sgAB_R1_sense.tsv --total_reads 95 96 97 98 -o libraries_3/WT_sgAB_sense.tsv</v>
+        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", I3, ".tsv ", dirs!$A$2, "/", K3, ".tsv ", dirs!$A$2, "/", M3, ".tsv ", dirs!$A$2, "/", O3, ".tsv --total_reads ", J3, " ", L3, " ", N3, " ", P3, " -o ", dirs!$A$3, "/", H3, ".tsv", " --quiet ")</f>
+        <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl217_WT_sgAB_R1_sense.tsv libraries_2/yjl218_WT_sgAB_R1_sense.tsv libraries_2/yjl219_WT_sgAB_R1_sense.tsv libraries_2/yjl220_WT_sgAB_R1_sense.tsv --total_reads 96 97 98 99 -o libraries_3/WT_sgAB_sense.tsv --quiet </v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -6290,7 +6296,7 @@
       </c>
       <c r="J4">
         <f ca="1">OFFSET('1'!$K$1, 4 * ($A4 - 1)  + ($J$2), 0)</f>
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K4" t="str">
         <f ca="1">OFFSET('1'!$I$1, 4 * (A4 - 1)  + ($K$2), 0)</f>
@@ -6298,7 +6304,7 @@
       </c>
       <c r="L4">
         <f ca="1">OFFSET('1'!$K$1, 4 * ($A4 - 1)  + ($L$2), 0)</f>
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M4" t="str">
         <f ca="1">OFFSET('1'!$I$1, 4 * ($A4 - 1)  + ($M$2), 0)</f>
@@ -6306,7 +6312,7 @@
       </c>
       <c r="N4">
         <f ca="1">OFFSET('1'!$K$1, 4 * ($A4 - 1)  + ($N$2), 0)</f>
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O4" t="str">
         <f ca="1">OFFSET('1'!$I$1, 4 * ($A4 - 1)  + ($O$2), 0)</f>
@@ -6314,11 +6320,11 @@
       </c>
       <c r="P4">
         <f ca="1">OFFSET('1'!$K$1, 4 * ($A4 - 1)  + ($P$2), 0)</f>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q4" t="str">
-        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", I4, ".tsv ", dirs!$A$2, "/", K4, ".tsv ", dirs!$A$2, "/", M4, ".tsv ", dirs!$A$2, "/", O4, ".tsv --total_reads ", J4, " ", L4, " ", N4, " ", P4, " -o ", dirs!$A$3, "/", H4, ".tsv")</f>
-        <v>python 1_process_nhej/combine_repeats.py -in libraries_2/yjl221_WT_sgAB_R1_branch.tsv libraries_2/yjl222_WT_sgAB_R1_branch.tsv libraries_2/yjl223_WT_sgAB_R1_branch.tsv libraries_2/yjl224_WT_sgAB_R1_branch.tsv --total_reads 95 96 97 98 -o libraries_3/WT_sgAB_branch.tsv</v>
+        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", I4, ".tsv ", dirs!$A$2, "/", K4, ".tsv ", dirs!$A$2, "/", M4, ".tsv ", dirs!$A$2, "/", O4, ".tsv --total_reads ", J4, " ", L4, " ", N4, " ", P4, " -o ", dirs!$A$3, "/", H4, ".tsv", " --quiet ")</f>
+        <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl221_WT_sgAB_R1_branch.tsv libraries_2/yjl222_WT_sgAB_R1_branch.tsv libraries_2/yjl223_WT_sgAB_R1_branch.tsv libraries_2/yjl224_WT_sgAB_R1_branch.tsv --total_reads 96 97 98 99 -o libraries_3/WT_sgAB_branch.tsv --quiet </v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -6359,7 +6365,7 @@
       </c>
       <c r="J5">
         <f ca="1">OFFSET('1'!$K$1, 4 * ($A5 - 1)  + ($J$2), 0)</f>
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K5" t="str">
         <f ca="1">OFFSET('1'!$I$1, 4 * (A5 - 1)  + ($K$2), 0)</f>
@@ -6367,7 +6373,7 @@
       </c>
       <c r="L5">
         <f ca="1">OFFSET('1'!$K$1, 4 * ($A5 - 1)  + ($L$2), 0)</f>
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M5" t="str">
         <f ca="1">OFFSET('1'!$I$1, 4 * ($A5 - 1)  + ($M$2), 0)</f>
@@ -6375,7 +6381,7 @@
       </c>
       <c r="N5">
         <f ca="1">OFFSET('1'!$K$1, 4 * ($A5 - 1)  + ($N$2), 0)</f>
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O5" t="str">
         <f ca="1">OFFSET('1'!$I$1, 4 * ($A5 - 1)  + ($O$2), 0)</f>
@@ -6383,11 +6389,11 @@
       </c>
       <c r="P5">
         <f ca="1">OFFSET('1'!$K$1, 4 * ($A5 - 1)  + ($P$2), 0)</f>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q5" t="str">
-        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", I5, ".tsv ", dirs!$A$2, "/", K5, ".tsv ", dirs!$A$2, "/", M5, ".tsv ", dirs!$A$2, "/", O5, ".tsv --total_reads ", J5, " ", L5, " ", N5, " ", P5, " -o ", dirs!$A$3, "/", H5, ".tsv")</f>
-        <v>python 1_process_nhej/combine_repeats.py -in libraries_2/yjl225_WT_sgAB_R1_cmv.tsv libraries_2/yjl226_WT_sgAB_R1_cmv.tsv libraries_2/yjl227_WT_sgAB_R1_cmv.tsv libraries_2/yjl228_WT_sgAB_R1_cmv.tsv --total_reads 95 96 97 98 -o libraries_3/WT_sgAB_cmv.tsv</v>
+        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", I5, ".tsv ", dirs!$A$2, "/", K5, ".tsv ", dirs!$A$2, "/", M5, ".tsv ", dirs!$A$2, "/", O5, ".tsv --total_reads ", J5, " ", L5, " ", N5, " ", P5, " -o ", dirs!$A$3, "/", H5, ".tsv", " --quiet ")</f>
+        <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl225_WT_sgAB_R1_cmv.tsv libraries_2/yjl226_WT_sgAB_R1_cmv.tsv libraries_2/yjl227_WT_sgAB_R1_cmv.tsv libraries_2/yjl228_WT_sgAB_R1_cmv.tsv --total_reads 96 97 98 99 -o libraries_3/WT_sgAB_cmv.tsv --quiet </v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -6428,7 +6434,7 @@
       </c>
       <c r="J6">
         <f ca="1">OFFSET('1'!$K$1, 4 * ($A6 - 1)  + ($J$2), 0)</f>
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K6" t="str">
         <f ca="1">OFFSET('1'!$I$1, 4 * (A6 - 1)  + ($K$2), 0)</f>
@@ -6436,7 +6442,7 @@
       </c>
       <c r="L6">
         <f ca="1">OFFSET('1'!$K$1, 4 * ($A6 - 1)  + ($L$2), 0)</f>
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M6" t="str">
         <f ca="1">OFFSET('1'!$I$1, 4 * ($A6 - 1)  + ($M$2), 0)</f>
@@ -6444,7 +6450,7 @@
       </c>
       <c r="N6">
         <f ca="1">OFFSET('1'!$K$1, 4 * ($A6 - 1)  + ($N$2), 0)</f>
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O6" t="str">
         <f ca="1">OFFSET('1'!$I$1, 4 * ($A6 - 1)  + ($O$2), 0)</f>
@@ -6452,11 +6458,11 @@
       </c>
       <c r="P6">
         <f ca="1">OFFSET('1'!$K$1, 4 * ($A6 - 1)  + ($P$2), 0)</f>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q6" t="str">
-        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", I6, ".tsv ", dirs!$A$2, "/", K6, ".tsv ", dirs!$A$2, "/", M6, ".tsv ", dirs!$A$2, "/", O6, ".tsv --total_reads ", J6, " ", L6, " ", N6, " ", P6, " -o ", dirs!$A$3, "/", H6, ".tsv")</f>
-        <v>python 1_process_nhej/combine_repeats.py -in libraries_2/yjl229_KO_sgAB_R1_sense.tsv libraries_2/yjl230_KO_sgAB_R1_sense.tsv libraries_2/yjl231_KO_sgAB_R1_sense.tsv libraries_2/yjl232_KO_sgAB_R1_sense.tsv --total_reads 95 96 97 98 -o libraries_3/KO_sgAB_sense.tsv</v>
+        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", I6, ".tsv ", dirs!$A$2, "/", K6, ".tsv ", dirs!$A$2, "/", M6, ".tsv ", dirs!$A$2, "/", O6, ".tsv --total_reads ", J6, " ", L6, " ", N6, " ", P6, " -o ", dirs!$A$3, "/", H6, ".tsv", " --quiet ")</f>
+        <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl229_KO_sgAB_R1_sense.tsv libraries_2/yjl230_KO_sgAB_R1_sense.tsv libraries_2/yjl231_KO_sgAB_R1_sense.tsv libraries_2/yjl232_KO_sgAB_R1_sense.tsv --total_reads 96 97 98 99 -o libraries_3/KO_sgAB_sense.tsv --quiet </v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -6497,7 +6503,7 @@
       </c>
       <c r="J7">
         <f ca="1">OFFSET('1'!$K$1, 4 * ($A7 - 1)  + ($J$2), 0)</f>
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K7" t="str">
         <f ca="1">OFFSET('1'!$I$1, 4 * (A7 - 1)  + ($K$2), 0)</f>
@@ -6505,7 +6511,7 @@
       </c>
       <c r="L7">
         <f ca="1">OFFSET('1'!$K$1, 4 * ($A7 - 1)  + ($L$2), 0)</f>
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M7" t="str">
         <f ca="1">OFFSET('1'!$I$1, 4 * ($A7 - 1)  + ($M$2), 0)</f>
@@ -6513,7 +6519,7 @@
       </c>
       <c r="N7">
         <f ca="1">OFFSET('1'!$K$1, 4 * ($A7 - 1)  + ($N$2), 0)</f>
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O7" t="str">
         <f ca="1">OFFSET('1'!$I$1, 4 * ($A7 - 1)  + ($O$2), 0)</f>
@@ -6521,11 +6527,11 @@
       </c>
       <c r="P7">
         <f ca="1">OFFSET('1'!$K$1, 4 * ($A7 - 1)  + ($P$2), 0)</f>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q7" t="str">
-        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", I7, ".tsv ", dirs!$A$2, "/", K7, ".tsv ", dirs!$A$2, "/", M7, ".tsv ", dirs!$A$2, "/", O7, ".tsv --total_reads ", J7, " ", L7, " ", N7, " ", P7, " -o ", dirs!$A$3, "/", H7, ".tsv")</f>
-        <v>python 1_process_nhej/combine_repeats.py -in libraries_2/yjl233_KO_sgAB_R1_branch.tsv libraries_2/yjl234_KO_sgAB_R1_branch.tsv libraries_2/yjl235_KO_sgAB_R1_branch.tsv libraries_2/yjl236_KO_sgAB_R1_branch.tsv --total_reads 95 96 97 98 -o libraries_3/KO_sgAB_branch.tsv</v>
+        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", I7, ".tsv ", dirs!$A$2, "/", K7, ".tsv ", dirs!$A$2, "/", M7, ".tsv ", dirs!$A$2, "/", O7, ".tsv --total_reads ", J7, " ", L7, " ", N7, " ", P7, " -o ", dirs!$A$3, "/", H7, ".tsv", " --quiet ")</f>
+        <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl233_KO_sgAB_R1_branch.tsv libraries_2/yjl234_KO_sgAB_R1_branch.tsv libraries_2/yjl235_KO_sgAB_R1_branch.tsv libraries_2/yjl236_KO_sgAB_R1_branch.tsv --total_reads 96 97 98 99 -o libraries_3/KO_sgAB_branch.tsv --quiet </v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -6566,7 +6572,7 @@
       </c>
       <c r="J8">
         <f ca="1">OFFSET('1'!$K$1, 4 * ($A8 - 1)  + ($J$2), 0)</f>
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K8" t="str">
         <f ca="1">OFFSET('1'!$I$1, 4 * (A8 - 1)  + ($K$2), 0)</f>
@@ -6574,7 +6580,7 @@
       </c>
       <c r="L8">
         <f ca="1">OFFSET('1'!$K$1, 4 * ($A8 - 1)  + ($L$2), 0)</f>
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M8" t="str">
         <f ca="1">OFFSET('1'!$I$1, 4 * ($A8 - 1)  + ($M$2), 0)</f>
@@ -6582,7 +6588,7 @@
       </c>
       <c r="N8">
         <f ca="1">OFFSET('1'!$K$1, 4 * ($A8 - 1)  + ($N$2), 0)</f>
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O8" t="str">
         <f ca="1">OFFSET('1'!$I$1, 4 * ($A8 - 1)  + ($O$2), 0)</f>
@@ -6590,11 +6596,11 @@
       </c>
       <c r="P8">
         <f ca="1">OFFSET('1'!$K$1, 4 * ($A8 - 1)  + ($P$2), 0)</f>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q8" t="str">
-        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", I8, ".tsv ", dirs!$A$2, "/", K8, ".tsv ", dirs!$A$2, "/", M8, ".tsv ", dirs!$A$2, "/", O8, ".tsv --total_reads ", J8, " ", L8, " ", N8, " ", P8, " -o ", dirs!$A$3, "/", H8, ".tsv")</f>
-        <v>python 1_process_nhej/combine_repeats.py -in libraries_2/yjl237_KO_sgAB_R1_cmv.tsv libraries_2/yjl238_KO_sgAB_R1_cmv.tsv libraries_2/yjl239_KO_sgAB_R1_cmv.tsv libraries_2/yjl240_KO_sgAB_R1_cmv.tsv --total_reads 95 96 97 98 -o libraries_3/KO_sgAB_cmv.tsv</v>
+        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", I8, ".tsv ", dirs!$A$2, "/", K8, ".tsv ", dirs!$A$2, "/", M8, ".tsv ", dirs!$A$2, "/", O8, ".tsv --total_reads ", J8, " ", L8, " ", N8, " ", P8, " -o ", dirs!$A$3, "/", H8, ".tsv", " --quiet ")</f>
+        <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl237_KO_sgAB_R1_cmv.tsv libraries_2/yjl238_KO_sgAB_R1_cmv.tsv libraries_2/yjl239_KO_sgAB_R1_cmv.tsv libraries_2/yjl240_KO_sgAB_R1_cmv.tsv --total_reads 96 97 98 99 -o libraries_3/KO_sgAB_cmv.tsv --quiet </v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -6635,7 +6641,7 @@
       </c>
       <c r="J9">
         <f ca="1">OFFSET('1'!$K$1, 4 * ($A9 - 1)  + ($J$2), 0)</f>
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K9" t="str">
         <f ca="1">OFFSET('1'!$I$1, 4 * (A9 - 1)  + ($K$2), 0)</f>
@@ -6643,7 +6649,7 @@
       </c>
       <c r="L9">
         <f ca="1">OFFSET('1'!$K$1, 4 * ($A9 - 1)  + ($L$2), 0)</f>
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M9" t="str">
         <f ca="1">OFFSET('1'!$I$1, 4 * ($A9 - 1)  + ($M$2), 0)</f>
@@ -6651,7 +6657,7 @@
       </c>
       <c r="N9">
         <f ca="1">OFFSET('1'!$K$1, 4 * ($A9 - 1)  + ($N$2), 0)</f>
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O9" t="str">
         <f ca="1">OFFSET('1'!$I$1, 4 * ($A9 - 1)  + ($O$2), 0)</f>
@@ -6659,11 +6665,11 @@
       </c>
       <c r="P9">
         <f ca="1">OFFSET('1'!$K$1, 4 * ($A9 - 1)  + ($P$2), 0)</f>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q9" t="str">
-        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", I9, ".tsv ", dirs!$A$2, "/", K9, ".tsv ", dirs!$A$2, "/", M9, ".tsv ", dirs!$A$2, "/", O9, ".tsv --total_reads ", J9, " ", L9, " ", N9, " ", P9, " -o ", dirs!$A$3, "/", H9, ".tsv")</f>
-        <v>python 1_process_nhej/combine_repeats.py -in libraries_2/yjl217_WT_sgAB_R2_sense.tsv libraries_2/yjl218_WT_sgAB_R2_sense.tsv libraries_2/yjl219_WT_sgAB_R2_sense.tsv libraries_2/yjl220_WT_sgAB_R2_sense.tsv --total_reads 95 96 97 98 -o libraries_3/WT_sgAB_sense.tsv</v>
+        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", I9, ".tsv ", dirs!$A$2, "/", K9, ".tsv ", dirs!$A$2, "/", M9, ".tsv ", dirs!$A$2, "/", O9, ".tsv --total_reads ", J9, " ", L9, " ", N9, " ", P9, " -o ", dirs!$A$3, "/", H9, ".tsv", " --quiet ")</f>
+        <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl217_WT_sgAB_R2_sense.tsv libraries_2/yjl218_WT_sgAB_R2_sense.tsv libraries_2/yjl219_WT_sgAB_R2_sense.tsv libraries_2/yjl220_WT_sgAB_R2_sense.tsv --total_reads 96 97 98 99 -o libraries_3/WT_sgAB_sense.tsv --quiet </v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -6704,7 +6710,7 @@
       </c>
       <c r="J10">
         <f ca="1">OFFSET('1'!$K$1, 4 * ($A10 - 1)  + ($J$2), 0)</f>
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K10" t="str">
         <f ca="1">OFFSET('1'!$I$1, 4 * (A10 - 1)  + ($K$2), 0)</f>
@@ -6712,7 +6718,7 @@
       </c>
       <c r="L10">
         <f ca="1">OFFSET('1'!$K$1, 4 * ($A10 - 1)  + ($L$2), 0)</f>
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M10" t="str">
         <f ca="1">OFFSET('1'!$I$1, 4 * ($A10 - 1)  + ($M$2), 0)</f>
@@ -6720,7 +6726,7 @@
       </c>
       <c r="N10">
         <f ca="1">OFFSET('1'!$K$1, 4 * ($A10 - 1)  + ($N$2), 0)</f>
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O10" t="str">
         <f ca="1">OFFSET('1'!$I$1, 4 * ($A10 - 1)  + ($O$2), 0)</f>
@@ -6728,11 +6734,11 @@
       </c>
       <c r="P10">
         <f ca="1">OFFSET('1'!$K$1, 4 * ($A10 - 1)  + ($P$2), 0)</f>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q10" t="str">
-        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", I10, ".tsv ", dirs!$A$2, "/", K10, ".tsv ", dirs!$A$2, "/", M10, ".tsv ", dirs!$A$2, "/", O10, ".tsv --total_reads ", J10, " ", L10, " ", N10, " ", P10, " -o ", dirs!$A$3, "/", H10, ".tsv")</f>
-        <v>python 1_process_nhej/combine_repeats.py -in libraries_2/yjl221_WT_sgAB_R2_branch.tsv libraries_2/yjl222_WT_sgAB_R2_branch.tsv libraries_2/yjl223_WT_sgAB_R2_branch.tsv libraries_2/yjl224_WT_sgAB_R2_branch.tsv --total_reads 95 96 97 98 -o libraries_3/WT_sgAB_branch.tsv</v>
+        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", I10, ".tsv ", dirs!$A$2, "/", K10, ".tsv ", dirs!$A$2, "/", M10, ".tsv ", dirs!$A$2, "/", O10, ".tsv --total_reads ", J10, " ", L10, " ", N10, " ", P10, " -o ", dirs!$A$3, "/", H10, ".tsv", " --quiet ")</f>
+        <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl221_WT_sgAB_R2_branch.tsv libraries_2/yjl222_WT_sgAB_R2_branch.tsv libraries_2/yjl223_WT_sgAB_R2_branch.tsv libraries_2/yjl224_WT_sgAB_R2_branch.tsv --total_reads 96 97 98 99 -o libraries_3/WT_sgAB_branch.tsv --quiet </v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -6773,7 +6779,7 @@
       </c>
       <c r="J11">
         <f ca="1">OFFSET('1'!$K$1, 4 * ($A11 - 1)  + ($J$2), 0)</f>
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K11" t="str">
         <f ca="1">OFFSET('1'!$I$1, 4 * (A11 - 1)  + ($K$2), 0)</f>
@@ -6781,7 +6787,7 @@
       </c>
       <c r="L11">
         <f ca="1">OFFSET('1'!$K$1, 4 * ($A11 - 1)  + ($L$2), 0)</f>
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M11" t="str">
         <f ca="1">OFFSET('1'!$I$1, 4 * ($A11 - 1)  + ($M$2), 0)</f>
@@ -6789,7 +6795,7 @@
       </c>
       <c r="N11">
         <f ca="1">OFFSET('1'!$K$1, 4 * ($A11 - 1)  + ($N$2), 0)</f>
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O11" t="str">
         <f ca="1">OFFSET('1'!$I$1, 4 * ($A11 - 1)  + ($O$2), 0)</f>
@@ -6797,11 +6803,11 @@
       </c>
       <c r="P11">
         <f ca="1">OFFSET('1'!$K$1, 4 * ($A11 - 1)  + ($P$2), 0)</f>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q11" t="str">
-        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", I11, ".tsv ", dirs!$A$2, "/", K11, ".tsv ", dirs!$A$2, "/", M11, ".tsv ", dirs!$A$2, "/", O11, ".tsv --total_reads ", J11, " ", L11, " ", N11, " ", P11, " -o ", dirs!$A$3, "/", H11, ".tsv")</f>
-        <v>python 1_process_nhej/combine_repeats.py -in libraries_2/yjl225_WT_sgAB_R2_cmv.tsv libraries_2/yjl226_WT_sgAB_R2_cmv.tsv libraries_2/yjl227_WT_sgAB_R2_cmv.tsv libraries_2/yjl228_WT_sgAB_R2_cmv.tsv --total_reads 95 96 97 98 -o libraries_3/WT_sgAB_cmv.tsv</v>
+        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", I11, ".tsv ", dirs!$A$2, "/", K11, ".tsv ", dirs!$A$2, "/", M11, ".tsv ", dirs!$A$2, "/", O11, ".tsv --total_reads ", J11, " ", L11, " ", N11, " ", P11, " -o ", dirs!$A$3, "/", H11, ".tsv", " --quiet ")</f>
+        <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl225_WT_sgAB_R2_cmv.tsv libraries_2/yjl226_WT_sgAB_R2_cmv.tsv libraries_2/yjl227_WT_sgAB_R2_cmv.tsv libraries_2/yjl228_WT_sgAB_R2_cmv.tsv --total_reads 96 97 98 99 -o libraries_3/WT_sgAB_cmv.tsv --quiet </v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -6842,7 +6848,7 @@
       </c>
       <c r="J12">
         <f ca="1">OFFSET('1'!$K$1, 4 * ($A12 - 1)  + ($J$2), 0)</f>
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K12" t="str">
         <f ca="1">OFFSET('1'!$I$1, 4 * (A12 - 1)  + ($K$2), 0)</f>
@@ -6850,7 +6856,7 @@
       </c>
       <c r="L12">
         <f ca="1">OFFSET('1'!$K$1, 4 * ($A12 - 1)  + ($L$2), 0)</f>
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M12" t="str">
         <f ca="1">OFFSET('1'!$I$1, 4 * ($A12 - 1)  + ($M$2), 0)</f>
@@ -6858,7 +6864,7 @@
       </c>
       <c r="N12">
         <f ca="1">OFFSET('1'!$K$1, 4 * ($A12 - 1)  + ($N$2), 0)</f>
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O12" t="str">
         <f ca="1">OFFSET('1'!$I$1, 4 * ($A12 - 1)  + ($O$2), 0)</f>
@@ -6866,11 +6872,11 @@
       </c>
       <c r="P12">
         <f ca="1">OFFSET('1'!$K$1, 4 * ($A12 - 1)  + ($P$2), 0)</f>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q12" t="str">
-        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", I12, ".tsv ", dirs!$A$2, "/", K12, ".tsv ", dirs!$A$2, "/", M12, ".tsv ", dirs!$A$2, "/", O12, ".tsv --total_reads ", J12, " ", L12, " ", N12, " ", P12, " -o ", dirs!$A$3, "/", H12, ".tsv")</f>
-        <v>python 1_process_nhej/combine_repeats.py -in libraries_2/yjl229_KO_sgAB_R2_sense.tsv libraries_2/yjl230_KO_sgAB_R2_sense.tsv libraries_2/yjl231_KO_sgAB_R2_sense.tsv libraries_2/yjl232_KO_sgAB_R2_sense.tsv --total_reads 95 96 97 98 -o libraries_3/KO_sgAB_sense.tsv</v>
+        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", I12, ".tsv ", dirs!$A$2, "/", K12, ".tsv ", dirs!$A$2, "/", M12, ".tsv ", dirs!$A$2, "/", O12, ".tsv --total_reads ", J12, " ", L12, " ", N12, " ", P12, " -o ", dirs!$A$3, "/", H12, ".tsv", " --quiet ")</f>
+        <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl229_KO_sgAB_R2_sense.tsv libraries_2/yjl230_KO_sgAB_R2_sense.tsv libraries_2/yjl231_KO_sgAB_R2_sense.tsv libraries_2/yjl232_KO_sgAB_R2_sense.tsv --total_reads 96 97 98 99 -o libraries_3/KO_sgAB_sense.tsv --quiet </v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -6911,7 +6917,7 @@
       </c>
       <c r="J13">
         <f ca="1">OFFSET('1'!$K$1, 4 * ($A13 - 1)  + ($J$2), 0)</f>
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K13" t="str">
         <f ca="1">OFFSET('1'!$I$1, 4 * (A13 - 1)  + ($K$2), 0)</f>
@@ -6919,7 +6925,7 @@
       </c>
       <c r="L13">
         <f ca="1">OFFSET('1'!$K$1, 4 * ($A13 - 1)  + ($L$2), 0)</f>
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M13" t="str">
         <f ca="1">OFFSET('1'!$I$1, 4 * ($A13 - 1)  + ($M$2), 0)</f>
@@ -6927,7 +6933,7 @@
       </c>
       <c r="N13">
         <f ca="1">OFFSET('1'!$K$1, 4 * ($A13 - 1)  + ($N$2), 0)</f>
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O13" t="str">
         <f ca="1">OFFSET('1'!$I$1, 4 * ($A13 - 1)  + ($O$2), 0)</f>
@@ -6935,11 +6941,11 @@
       </c>
       <c r="P13">
         <f ca="1">OFFSET('1'!$K$1, 4 * ($A13 - 1)  + ($P$2), 0)</f>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q13" t="str">
-        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", I13, ".tsv ", dirs!$A$2, "/", K13, ".tsv ", dirs!$A$2, "/", M13, ".tsv ", dirs!$A$2, "/", O13, ".tsv --total_reads ", J13, " ", L13, " ", N13, " ", P13, " -o ", dirs!$A$3, "/", H13, ".tsv")</f>
-        <v>python 1_process_nhej/combine_repeats.py -in libraries_2/yjl233_KO_sgAB_R2_branch.tsv libraries_2/yjl234_KO_sgAB_R2_branch.tsv libraries_2/yjl235_KO_sgAB_R2_branch.tsv libraries_2/yjl236_KO_sgAB_R2_branch.tsv --total_reads 95 96 97 98 -o libraries_3/KO_sgAB_branch.tsv</v>
+        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", I13, ".tsv ", dirs!$A$2, "/", K13, ".tsv ", dirs!$A$2, "/", M13, ".tsv ", dirs!$A$2, "/", O13, ".tsv --total_reads ", J13, " ", L13, " ", N13, " ", P13, " -o ", dirs!$A$3, "/", H13, ".tsv", " --quiet ")</f>
+        <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl233_KO_sgAB_R2_branch.tsv libraries_2/yjl234_KO_sgAB_R2_branch.tsv libraries_2/yjl235_KO_sgAB_R2_branch.tsv libraries_2/yjl236_KO_sgAB_R2_branch.tsv --total_reads 96 97 98 99 -o libraries_3/KO_sgAB_branch.tsv --quiet </v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -6980,7 +6986,7 @@
       </c>
       <c r="J14">
         <f ca="1">OFFSET('1'!$K$1, 4 * ($A14 - 1)  + ($J$2), 0)</f>
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K14" t="str">
         <f ca="1">OFFSET('1'!$I$1, 4 * (A14 - 1)  + ($K$2), 0)</f>
@@ -6988,7 +6994,7 @@
       </c>
       <c r="L14">
         <f ca="1">OFFSET('1'!$K$1, 4 * ($A14 - 1)  + ($L$2), 0)</f>
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M14" t="str">
         <f ca="1">OFFSET('1'!$I$1, 4 * ($A14 - 1)  + ($M$2), 0)</f>
@@ -6996,7 +7002,7 @@
       </c>
       <c r="N14">
         <f ca="1">OFFSET('1'!$K$1, 4 * ($A14 - 1)  + ($N$2), 0)</f>
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O14" t="str">
         <f ca="1">OFFSET('1'!$I$1, 4 * ($A14 - 1)  + ($O$2), 0)</f>
@@ -7004,11 +7010,11 @@
       </c>
       <c r="P14">
         <f ca="1">OFFSET('1'!$K$1, 4 * ($A14 - 1)  + ($P$2), 0)</f>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q14" t="str">
-        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", I14, ".tsv ", dirs!$A$2, "/", K14, ".tsv ", dirs!$A$2, "/", M14, ".tsv ", dirs!$A$2, "/", O14, ".tsv --total_reads ", J14, " ", L14, " ", N14, " ", P14, " -o ", dirs!$A$3, "/", H14, ".tsv")</f>
-        <v>python 1_process_nhej/combine_repeats.py -in libraries_2/yjl237_KO_sgAB_R2_cmv.tsv libraries_2/yjl238_KO_sgAB_R2_cmv.tsv libraries_2/yjl239_KO_sgAB_R2_cmv.tsv libraries_2/yjl240_KO_sgAB_R2_cmv.tsv --total_reads 95 96 97 98 -o libraries_3/KO_sgAB_cmv.tsv</v>
+        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", I14, ".tsv ", dirs!$A$2, "/", K14, ".tsv ", dirs!$A$2, "/", M14, ".tsv ", dirs!$A$2, "/", O14, ".tsv --total_reads ", J14, " ", L14, " ", N14, " ", P14, " -o ", dirs!$A$3, "/", H14, ".tsv", " --quiet ")</f>
+        <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl237_KO_sgAB_R2_cmv.tsv libraries_2/yjl238_KO_sgAB_R2_cmv.tsv libraries_2/yjl239_KO_sgAB_R2_cmv.tsv libraries_2/yjl240_KO_sgAB_R2_cmv.tsv --total_reads 96 97 98 99 -o libraries_3/KO_sgAB_cmv.tsv --quiet </v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -7049,7 +7055,7 @@
       </c>
       <c r="J15">
         <f ca="1">OFFSET('1'!$K$1, 4 * ($A15 - 1)  + ($J$2), 0)</f>
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K15" t="str">
         <f ca="1">OFFSET('1'!$I$1, 4 * (A15 - 1)  + ($K$2), 0)</f>
@@ -7057,7 +7063,7 @@
       </c>
       <c r="L15">
         <f ca="1">OFFSET('1'!$K$1, 4 * ($A15 - 1)  + ($L$2), 0)</f>
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M15" t="str">
         <f ca="1">OFFSET('1'!$I$1, 4 * ($A15 - 1)  + ($M$2), 0)</f>
@@ -7065,7 +7071,7 @@
       </c>
       <c r="N15">
         <f ca="1">OFFSET('1'!$K$1, 4 * ($A15 - 1)  + ($N$2), 0)</f>
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O15" t="str">
         <f ca="1">OFFSET('1'!$I$1, 4 * ($A15 - 1)  + ($O$2), 0)</f>
@@ -7073,11 +7079,11 @@
       </c>
       <c r="P15">
         <f ca="1">OFFSET('1'!$K$1, 4 * ($A15 - 1)  + ($P$2), 0)</f>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q15" t="str">
-        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", I15, ".tsv ", dirs!$A$2, "/", K15, ".tsv ", dirs!$A$2, "/", M15, ".tsv ", dirs!$A$2, "/", O15, ".tsv --total_reads ", J15, " ", L15, " ", N15, " ", P15, " -o ", dirs!$A$3, "/", H15, ".tsv")</f>
-        <v>python 1_process_nhej/combine_repeats.py -in libraries_2/yjl255_WT_sgA_R1_sense.tsv libraries_2/yjl256_WT_sgA_R1_sense.tsv libraries_2/yjl257_WT_sgA_R1_sense.tsv libraries_2/yjl258_WT_sgA_R1_sense.tsv --total_reads 95 96 97 98 -o libraries_3/WT_sgA_sense.tsv</v>
+        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", I15, ".tsv ", dirs!$A$2, "/", K15, ".tsv ", dirs!$A$2, "/", M15, ".tsv ", dirs!$A$2, "/", O15, ".tsv --total_reads ", J15, " ", L15, " ", N15, " ", P15, " -o ", dirs!$A$3, "/", H15, ".tsv", " --quiet ")</f>
+        <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl255_WT_sgA_R1_sense.tsv libraries_2/yjl256_WT_sgA_R1_sense.tsv libraries_2/yjl257_WT_sgA_R1_sense.tsv libraries_2/yjl258_WT_sgA_R1_sense.tsv --total_reads 96 97 98 99 -o libraries_3/WT_sgA_sense.tsv --quiet </v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -7118,7 +7124,7 @@
       </c>
       <c r="J16">
         <f ca="1">OFFSET('1'!$K$1, 4 * ($A16 - 1)  + ($J$2), 0)</f>
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K16" t="str">
         <f ca="1">OFFSET('1'!$I$1, 4 * (A16 - 1)  + ($K$2), 0)</f>
@@ -7126,7 +7132,7 @@
       </c>
       <c r="L16">
         <f ca="1">OFFSET('1'!$K$1, 4 * ($A16 - 1)  + ($L$2), 0)</f>
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M16" t="str">
         <f ca="1">OFFSET('1'!$I$1, 4 * ($A16 - 1)  + ($M$2), 0)</f>
@@ -7134,7 +7140,7 @@
       </c>
       <c r="N16">
         <f ca="1">OFFSET('1'!$K$1, 4 * ($A16 - 1)  + ($N$2), 0)</f>
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O16" t="str">
         <f ca="1">OFFSET('1'!$I$1, 4 * ($A16 - 1)  + ($O$2), 0)</f>
@@ -7142,11 +7148,11 @@
       </c>
       <c r="P16">
         <f ca="1">OFFSET('1'!$K$1, 4 * ($A16 - 1)  + ($P$2), 0)</f>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q16" t="str">
-        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", I16, ".tsv ", dirs!$A$2, "/", K16, ".tsv ", dirs!$A$2, "/", M16, ".tsv ", dirs!$A$2, "/", O16, ".tsv --total_reads ", J16, " ", L16, " ", N16, " ", P16, " -o ", dirs!$A$3, "/", H16, ".tsv")</f>
-        <v>python 1_process_nhej/combine_repeats.py -in libraries_2/yjl259_WT_sgA_R1_branch.tsv libraries_2/yjl260_WT_sgA_R1_branch.tsv libraries_2/yjl261_WT_sgA_R1_branch.tsv libraries_2/yjl262_WT_sgA_R1_branch.tsv --total_reads 95 96 97 98 -o libraries_3/WT_sgA_branch.tsv</v>
+        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", I16, ".tsv ", dirs!$A$2, "/", K16, ".tsv ", dirs!$A$2, "/", M16, ".tsv ", dirs!$A$2, "/", O16, ".tsv --total_reads ", J16, " ", L16, " ", N16, " ", P16, " -o ", dirs!$A$3, "/", H16, ".tsv", " --quiet ")</f>
+        <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl259_WT_sgA_R1_branch.tsv libraries_2/yjl260_WT_sgA_R1_branch.tsv libraries_2/yjl261_WT_sgA_R1_branch.tsv libraries_2/yjl262_WT_sgA_R1_branch.tsv --total_reads 96 97 98 99 -o libraries_3/WT_sgA_branch.tsv --quiet </v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -7187,7 +7193,7 @@
       </c>
       <c r="J17">
         <f ca="1">OFFSET('1'!$K$1, 4 * ($A17 - 1)  + ($J$2), 0)</f>
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K17" t="str">
         <f ca="1">OFFSET('1'!$I$1, 4 * (A17 - 1)  + ($K$2), 0)</f>
@@ -7195,7 +7201,7 @@
       </c>
       <c r="L17">
         <f ca="1">OFFSET('1'!$K$1, 4 * ($A17 - 1)  + ($L$2), 0)</f>
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M17" t="str">
         <f ca="1">OFFSET('1'!$I$1, 4 * ($A17 - 1)  + ($M$2), 0)</f>
@@ -7203,7 +7209,7 @@
       </c>
       <c r="N17">
         <f ca="1">OFFSET('1'!$K$1, 4 * ($A17 - 1)  + ($N$2), 0)</f>
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O17" t="str">
         <f ca="1">OFFSET('1'!$I$1, 4 * ($A17 - 1)  + ($O$2), 0)</f>
@@ -7211,11 +7217,11 @@
       </c>
       <c r="P17">
         <f ca="1">OFFSET('1'!$K$1, 4 * ($A17 - 1)  + ($P$2), 0)</f>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q17" t="str">
-        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", I17, ".tsv ", dirs!$A$2, "/", K17, ".tsv ", dirs!$A$2, "/", M17, ".tsv ", dirs!$A$2, "/", O17, ".tsv --total_reads ", J17, " ", L17, " ", N17, " ", P17, " -o ", dirs!$A$3, "/", H17, ".tsv")</f>
-        <v>python 1_process_nhej/combine_repeats.py -in libraries_2/yjl263_WT_sgA_R1_cmv.tsv libraries_2/yjl264_WT_sgA_R1_cmv.tsv libraries_2/yjl265_WT_sgA_R1_cmv.tsv libraries_2/yjl266_WT_sgA_R1_cmv.tsv --total_reads 95 96 97 98 -o libraries_3/WT_sgA_cmv.tsv</v>
+        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", I17, ".tsv ", dirs!$A$2, "/", K17, ".tsv ", dirs!$A$2, "/", M17, ".tsv ", dirs!$A$2, "/", O17, ".tsv --total_reads ", J17, " ", L17, " ", N17, " ", P17, " -o ", dirs!$A$3, "/", H17, ".tsv", " --quiet ")</f>
+        <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl263_WT_sgA_R1_cmv.tsv libraries_2/yjl264_WT_sgA_R1_cmv.tsv libraries_2/yjl265_WT_sgA_R1_cmv.tsv libraries_2/yjl266_WT_sgA_R1_cmv.tsv --total_reads 96 97 98 99 -o libraries_3/WT_sgA_cmv.tsv --quiet </v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
@@ -7256,7 +7262,7 @@
       </c>
       <c r="J18">
         <f ca="1">OFFSET('1'!$K$1, 4 * ($A18 - 1)  + ($J$2), 0)</f>
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K18" t="str">
         <f ca="1">OFFSET('1'!$I$1, 4 * (A18 - 1)  + ($K$2), 0)</f>
@@ -7264,7 +7270,7 @@
       </c>
       <c r="L18">
         <f ca="1">OFFSET('1'!$K$1, 4 * ($A18 - 1)  + ($L$2), 0)</f>
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M18" t="str">
         <f ca="1">OFFSET('1'!$I$1, 4 * ($A18 - 1)  + ($M$2), 0)</f>
@@ -7272,7 +7278,7 @@
       </c>
       <c r="N18">
         <f ca="1">OFFSET('1'!$K$1, 4 * ($A18 - 1)  + ($N$2), 0)</f>
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O18" t="str">
         <f ca="1">OFFSET('1'!$I$1, 4 * ($A18 - 1)  + ($O$2), 0)</f>
@@ -7280,11 +7286,11 @@
       </c>
       <c r="P18">
         <f ca="1">OFFSET('1'!$K$1, 4 * ($A18 - 1)  + ($P$2), 0)</f>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q18" t="str">
-        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", I18, ".tsv ", dirs!$A$2, "/", K18, ".tsv ", dirs!$A$2, "/", M18, ".tsv ", dirs!$A$2, "/", O18, ".tsv --total_reads ", J18, " ", L18, " ", N18, " ", P18, " -o ", dirs!$A$3, "/", H18, ".tsv")</f>
-        <v>python 1_process_nhej/combine_repeats.py -in libraries_2/yjl267_WT_sgB_R2_sense.tsv libraries_2/yjl268_WT_sgB_R2_sense.tsv libraries_2/yjl269_WT_sgB_R2_sense.tsv libraries_2/yjl270_WT_sgB_R2_sense.tsv --total_reads 95 96 97 98 -o libraries_3/WT_sgB_sense.tsv</v>
+        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", I18, ".tsv ", dirs!$A$2, "/", K18, ".tsv ", dirs!$A$2, "/", M18, ".tsv ", dirs!$A$2, "/", O18, ".tsv --total_reads ", J18, " ", L18, " ", N18, " ", P18, " -o ", dirs!$A$3, "/", H18, ".tsv", " --quiet ")</f>
+        <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl267_WT_sgB_R2_sense.tsv libraries_2/yjl268_WT_sgB_R2_sense.tsv libraries_2/yjl269_WT_sgB_R2_sense.tsv libraries_2/yjl270_WT_sgB_R2_sense.tsv --total_reads 96 97 98 99 -o libraries_3/WT_sgB_sense.tsv --quiet </v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
@@ -7325,7 +7331,7 @@
       </c>
       <c r="J19">
         <f ca="1">OFFSET('1'!$K$1, 4 * ($A19 - 1)  + ($J$2), 0)</f>
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K19" t="str">
         <f ca="1">OFFSET('1'!$I$1, 4 * (A19 - 1)  + ($K$2), 0)</f>
@@ -7333,7 +7339,7 @@
       </c>
       <c r="L19">
         <f ca="1">OFFSET('1'!$K$1, 4 * ($A19 - 1)  + ($L$2), 0)</f>
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M19" t="str">
         <f ca="1">OFFSET('1'!$I$1, 4 * ($A19 - 1)  + ($M$2), 0)</f>
@@ -7341,7 +7347,7 @@
       </c>
       <c r="N19">
         <f ca="1">OFFSET('1'!$K$1, 4 * ($A19 - 1)  + ($N$2), 0)</f>
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O19" t="str">
         <f ca="1">OFFSET('1'!$I$1, 4 * ($A19 - 1)  + ($O$2), 0)</f>
@@ -7349,11 +7355,11 @@
       </c>
       <c r="P19">
         <f ca="1">OFFSET('1'!$K$1, 4 * ($A19 - 1)  + ($P$2), 0)</f>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q19" t="str">
-        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", I19, ".tsv ", dirs!$A$2, "/", K19, ".tsv ", dirs!$A$2, "/", M19, ".tsv ", dirs!$A$2, "/", O19, ".tsv --total_reads ", J19, " ", L19, " ", N19, " ", P19, " -o ", dirs!$A$3, "/", H19, ".tsv")</f>
-        <v>python 1_process_nhej/combine_repeats.py -in libraries_2/yjl271_WT_sgB_R2_branch.tsv libraries_2/yjl272_WT_sgB_R2_branch.tsv libraries_2/yjl273_WT_sgB_R2_branch.tsv libraries_2/yjl274_WT_sgB_R2_branch.tsv --total_reads 95 96 97 98 -o libraries_3/WT_sgB_branch.tsv</v>
+        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", I19, ".tsv ", dirs!$A$2, "/", K19, ".tsv ", dirs!$A$2, "/", M19, ".tsv ", dirs!$A$2, "/", O19, ".tsv --total_reads ", J19, " ", L19, " ", N19, " ", P19, " -o ", dirs!$A$3, "/", H19, ".tsv", " --quiet ")</f>
+        <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl271_WT_sgB_R2_branch.tsv libraries_2/yjl272_WT_sgB_R2_branch.tsv libraries_2/yjl273_WT_sgB_R2_branch.tsv libraries_2/yjl274_WT_sgB_R2_branch.tsv --total_reads 96 97 98 99 -o libraries_3/WT_sgB_branch.tsv --quiet </v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
@@ -7394,7 +7400,7 @@
       </c>
       <c r="J20">
         <f ca="1">OFFSET('1'!$K$1, 4 * ($A20 - 1)  + ($J$2), 0)</f>
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K20" t="str">
         <f ca="1">OFFSET('1'!$I$1, 4 * (A20 - 1)  + ($K$2), 0)</f>
@@ -7402,7 +7408,7 @@
       </c>
       <c r="L20">
         <f ca="1">OFFSET('1'!$K$1, 4 * ($A20 - 1)  + ($L$2), 0)</f>
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M20" t="str">
         <f ca="1">OFFSET('1'!$I$1, 4 * ($A20 - 1)  + ($M$2), 0)</f>
@@ -7410,7 +7416,7 @@
       </c>
       <c r="N20">
         <f ca="1">OFFSET('1'!$K$1, 4 * ($A20 - 1)  + ($N$2), 0)</f>
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O20" t="str">
         <f ca="1">OFFSET('1'!$I$1, 4 * ($A20 - 1)  + ($O$2), 0)</f>
@@ -7418,11 +7424,11 @@
       </c>
       <c r="P20">
         <f ca="1">OFFSET('1'!$K$1, 4 * ($A20 - 1)  + ($P$2), 0)</f>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q20" t="str">
-        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", I20, ".tsv ", dirs!$A$2, "/", K20, ".tsv ", dirs!$A$2, "/", M20, ".tsv ", dirs!$A$2, "/", O20, ".tsv --total_reads ", J20, " ", L20, " ", N20, " ", P20, " -o ", dirs!$A$3, "/", H20, ".tsv")</f>
-        <v>python 1_process_nhej/combine_repeats.py -in libraries_2/yjl275_WT_sgB_R2_cmv.tsv libraries_2/yjl276_WT_sgB_R2_cmv.tsv libraries_2/yjl277_WT_sgB_R2_cmv.tsv libraries_2/yjl278_WT_sgB_R2_cmv.tsv --total_reads 95 96 97 98 -o libraries_3/WT_sgB_cmv.tsv</v>
+        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", I20, ".tsv ", dirs!$A$2, "/", K20, ".tsv ", dirs!$A$2, "/", M20, ".tsv ", dirs!$A$2, "/", O20, ".tsv --total_reads ", J20, " ", L20, " ", N20, " ", P20, " -o ", dirs!$A$3, "/", H20, ".tsv", " --quiet ")</f>
+        <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl275_WT_sgB_R2_cmv.tsv libraries_2/yjl276_WT_sgB_R2_cmv.tsv libraries_2/yjl277_WT_sgB_R2_cmv.tsv libraries_2/yjl278_WT_sgB_R2_cmv.tsv --total_reads 96 97 98 99 -o libraries_3/WT_sgB_cmv.tsv --quiet </v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
@@ -7463,7 +7469,7 @@
       </c>
       <c r="J21">
         <f ca="1">OFFSET('1'!$K$1, 4 * ($A21 - 1)  + ($J$2), 0)</f>
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K21" t="str">
         <f ca="1">OFFSET('1'!$I$1, 4 * (A21 - 1)  + ($K$2), 0)</f>
@@ -7471,7 +7477,7 @@
       </c>
       <c r="L21">
         <f ca="1">OFFSET('1'!$K$1, 4 * ($A21 - 1)  + ($L$2), 0)</f>
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M21" t="str">
         <f ca="1">OFFSET('1'!$I$1, 4 * ($A21 - 1)  + ($M$2), 0)</f>
@@ -7479,7 +7485,7 @@
       </c>
       <c r="N21">
         <f ca="1">OFFSET('1'!$K$1, 4 * ($A21 - 1)  + ($N$2), 0)</f>
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O21" t="str">
         <f ca="1">OFFSET('1'!$I$1, 4 * ($A21 - 1)  + ($O$2), 0)</f>
@@ -7487,11 +7493,11 @@
       </c>
       <c r="P21">
         <f ca="1">OFFSET('1'!$K$1, 4 * ($A21 - 1)  + ($P$2), 0)</f>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q21" t="str">
-        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", I21, ".tsv ", dirs!$A$2, "/", K21, ".tsv ", dirs!$A$2, "/", M21, ".tsv ", dirs!$A$2, "/", O21, ".tsv --total_reads ", J21, " ", L21, " ", N21, " ", P21, " -o ", dirs!$A$3, "/", H21, ".tsv")</f>
-        <v>python 1_process_nhej/combine_repeats.py -in libraries_2/yjl292_KO_sgA_R1_sense.tsv libraries_2/yjl293_KO_sgA_R1_sense.tsv libraries_2/yjl294_KO_sgA_R1_sense.tsv libraries_2/yjl295_KO_sgA_R1_sense.tsv --total_reads 95 96 97 98 -o libraries_3/KO_sgA_sense.tsv</v>
+        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", I21, ".tsv ", dirs!$A$2, "/", K21, ".tsv ", dirs!$A$2, "/", M21, ".tsv ", dirs!$A$2, "/", O21, ".tsv --total_reads ", J21, " ", L21, " ", N21, " ", P21, " -o ", dirs!$A$3, "/", H21, ".tsv", " --quiet ")</f>
+        <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl292_KO_sgA_R1_sense.tsv libraries_2/yjl293_KO_sgA_R1_sense.tsv libraries_2/yjl294_KO_sgA_R1_sense.tsv libraries_2/yjl295_KO_sgA_R1_sense.tsv --total_reads 96 97 98 99 -o libraries_3/KO_sgA_sense.tsv --quiet </v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
@@ -7532,7 +7538,7 @@
       </c>
       <c r="J22">
         <f ca="1">OFFSET('1'!$K$1, 4 * ($A22 - 1)  + ($J$2), 0)</f>
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K22" t="str">
         <f ca="1">OFFSET('1'!$I$1, 4 * (A22 - 1)  + ($K$2), 0)</f>
@@ -7540,7 +7546,7 @@
       </c>
       <c r="L22">
         <f ca="1">OFFSET('1'!$K$1, 4 * ($A22 - 1)  + ($L$2), 0)</f>
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M22" t="str">
         <f ca="1">OFFSET('1'!$I$1, 4 * ($A22 - 1)  + ($M$2), 0)</f>
@@ -7548,7 +7554,7 @@
       </c>
       <c r="N22">
         <f ca="1">OFFSET('1'!$K$1, 4 * ($A22 - 1)  + ($N$2), 0)</f>
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O22" t="str">
         <f ca="1">OFFSET('1'!$I$1, 4 * ($A22 - 1)  + ($O$2), 0)</f>
@@ -7556,11 +7562,11 @@
       </c>
       <c r="P22">
         <f ca="1">OFFSET('1'!$K$1, 4 * ($A22 - 1)  + ($P$2), 0)</f>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q22" t="str">
-        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", I22, ".tsv ", dirs!$A$2, "/", K22, ".tsv ", dirs!$A$2, "/", M22, ".tsv ", dirs!$A$2, "/", O22, ".tsv --total_reads ", J22, " ", L22, " ", N22, " ", P22, " -o ", dirs!$A$3, "/", H22, ".tsv")</f>
-        <v>python 1_process_nhej/combine_repeats.py -in libraries_2/yjl296_KO_sgA_R1_branch.tsv libraries_2/yjl297_KO_sgA_R1_branch.tsv libraries_2/yjl298_KO_sgA_R1_branch.tsv libraries_2/yjl299_KO_sgA_R1_branch.tsv --total_reads 95 96 97 98 -o libraries_3/KO_sgA_branch.tsv</v>
+        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", I22, ".tsv ", dirs!$A$2, "/", K22, ".tsv ", dirs!$A$2, "/", M22, ".tsv ", dirs!$A$2, "/", O22, ".tsv --total_reads ", J22, " ", L22, " ", N22, " ", P22, " -o ", dirs!$A$3, "/", H22, ".tsv", " --quiet ")</f>
+        <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl296_KO_sgA_R1_branch.tsv libraries_2/yjl297_KO_sgA_R1_branch.tsv libraries_2/yjl298_KO_sgA_R1_branch.tsv libraries_2/yjl299_KO_sgA_R1_branch.tsv --total_reads 96 97 98 99 -o libraries_3/KO_sgA_branch.tsv --quiet </v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
@@ -7601,7 +7607,7 @@
       </c>
       <c r="J23">
         <f ca="1">OFFSET('1'!$K$1, 4 * ($A23 - 1)  + ($J$2), 0)</f>
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K23" t="str">
         <f ca="1">OFFSET('1'!$I$1, 4 * (A23 - 1)  + ($K$2), 0)</f>
@@ -7609,7 +7615,7 @@
       </c>
       <c r="L23">
         <f ca="1">OFFSET('1'!$K$1, 4 * ($A23 - 1)  + ($L$2), 0)</f>
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M23" t="str">
         <f ca="1">OFFSET('1'!$I$1, 4 * ($A23 - 1)  + ($M$2), 0)</f>
@@ -7617,7 +7623,7 @@
       </c>
       <c r="N23">
         <f ca="1">OFFSET('1'!$K$1, 4 * ($A23 - 1)  + ($N$2), 0)</f>
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O23" t="str">
         <f ca="1">OFFSET('1'!$I$1, 4 * ($A23 - 1)  + ($O$2), 0)</f>
@@ -7625,11 +7631,11 @@
       </c>
       <c r="P23">
         <f ca="1">OFFSET('1'!$K$1, 4 * ($A23 - 1)  + ($P$2), 0)</f>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q23" t="str">
-        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", I23, ".tsv ", dirs!$A$2, "/", K23, ".tsv ", dirs!$A$2, "/", M23, ".tsv ", dirs!$A$2, "/", O23, ".tsv --total_reads ", J23, " ", L23, " ", N23, " ", P23, " -o ", dirs!$A$3, "/", H23, ".tsv")</f>
-        <v>python 1_process_nhej/combine_repeats.py -in libraries_2/yjl300_KO_sgA_R1_cmv.tsv libraries_2/yjl301_KO_sgA_R1_cmv.tsv libraries_2/yjl302_KO_sgA_R1_cmv.tsv libraries_2/yjl303_KO_sgA_R1_cmv.tsv --total_reads 95 96 97 98 -o libraries_3/KO_sgA_cmv.tsv</v>
+        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", I23, ".tsv ", dirs!$A$2, "/", K23, ".tsv ", dirs!$A$2, "/", M23, ".tsv ", dirs!$A$2, "/", O23, ".tsv --total_reads ", J23, " ", L23, " ", N23, " ", P23, " -o ", dirs!$A$3, "/", H23, ".tsv", " --quiet ")</f>
+        <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl300_KO_sgA_R1_cmv.tsv libraries_2/yjl301_KO_sgA_R1_cmv.tsv libraries_2/yjl302_KO_sgA_R1_cmv.tsv libraries_2/yjl303_KO_sgA_R1_cmv.tsv --total_reads 96 97 98 99 -o libraries_3/KO_sgA_cmv.tsv --quiet </v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
@@ -7670,7 +7676,7 @@
       </c>
       <c r="J24">
         <f ca="1">OFFSET('1'!$K$1, 4 * ($A24 - 1)  + ($J$2), 0)</f>
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K24" t="str">
         <f ca="1">OFFSET('1'!$I$1, 4 * (A24 - 1)  + ($K$2), 0)</f>
@@ -7678,7 +7684,7 @@
       </c>
       <c r="L24">
         <f ca="1">OFFSET('1'!$K$1, 4 * ($A24 - 1)  + ($L$2), 0)</f>
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M24" t="str">
         <f ca="1">OFFSET('1'!$I$1, 4 * ($A24 - 1)  + ($M$2), 0)</f>
@@ -7686,7 +7692,7 @@
       </c>
       <c r="N24">
         <f ca="1">OFFSET('1'!$K$1, 4 * ($A24 - 1)  + ($N$2), 0)</f>
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O24" t="str">
         <f ca="1">OFFSET('1'!$I$1, 4 * ($A24 - 1)  + ($O$2), 0)</f>
@@ -7694,11 +7700,11 @@
       </c>
       <c r="P24">
         <f ca="1">OFFSET('1'!$K$1, 4 * ($A24 - 1)  + ($P$2), 0)</f>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q24" t="str">
-        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", I24, ".tsv ", dirs!$A$2, "/", K24, ".tsv ", dirs!$A$2, "/", M24, ".tsv ", dirs!$A$2, "/", O24, ".tsv --total_reads ", J24, " ", L24, " ", N24, " ", P24, " -o ", dirs!$A$3, "/", H24, ".tsv")</f>
-        <v>python 1_process_nhej/combine_repeats.py -in libraries_2/yjl304_KO_sgB_R2_sense.tsv libraries_2/yjl305_KO_sgB_R2_sense.tsv libraries_2/yjl306_KO_sgB_R2_sense.tsv libraries_2/yjl307_KO_sgB_R2_sense.tsv --total_reads 95 96 97 98 -o libraries_3/KO_sgB_sense.tsv</v>
+        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", I24, ".tsv ", dirs!$A$2, "/", K24, ".tsv ", dirs!$A$2, "/", M24, ".tsv ", dirs!$A$2, "/", O24, ".tsv --total_reads ", J24, " ", L24, " ", N24, " ", P24, " -o ", dirs!$A$3, "/", H24, ".tsv", " --quiet ")</f>
+        <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl304_KO_sgB_R2_sense.tsv libraries_2/yjl305_KO_sgB_R2_sense.tsv libraries_2/yjl306_KO_sgB_R2_sense.tsv libraries_2/yjl307_KO_sgB_R2_sense.tsv --total_reads 96 97 98 99 -o libraries_3/KO_sgB_sense.tsv --quiet </v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
@@ -7739,7 +7745,7 @@
       </c>
       <c r="J25">
         <f ca="1">OFFSET('1'!$K$1, 4 * ($A25 - 1)  + ($J$2), 0)</f>
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K25" t="str">
         <f ca="1">OFFSET('1'!$I$1, 4 * (A25 - 1)  + ($K$2), 0)</f>
@@ -7747,7 +7753,7 @@
       </c>
       <c r="L25">
         <f ca="1">OFFSET('1'!$K$1, 4 * ($A25 - 1)  + ($L$2), 0)</f>
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M25" t="str">
         <f ca="1">OFFSET('1'!$I$1, 4 * ($A25 - 1)  + ($M$2), 0)</f>
@@ -7755,7 +7761,7 @@
       </c>
       <c r="N25">
         <f ca="1">OFFSET('1'!$K$1, 4 * ($A25 - 1)  + ($N$2), 0)</f>
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O25" t="str">
         <f ca="1">OFFSET('1'!$I$1, 4 * ($A25 - 1)  + ($O$2), 0)</f>
@@ -7763,11 +7769,11 @@
       </c>
       <c r="P25">
         <f ca="1">OFFSET('1'!$K$1, 4 * ($A25 - 1)  + ($P$2), 0)</f>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q25" t="str">
-        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", I25, ".tsv ", dirs!$A$2, "/", K25, ".tsv ", dirs!$A$2, "/", M25, ".tsv ", dirs!$A$2, "/", O25, ".tsv --total_reads ", J25, " ", L25, " ", N25, " ", P25, " -o ", dirs!$A$3, "/", H25, ".tsv")</f>
-        <v>python 1_process_nhej/combine_repeats.py -in libraries_2/yjl308_KO_sgB_R2_branch.tsv libraries_2/yjl309_KO_sgB_R2_branch.tsv libraries_2/yjl310_KO_sgB_R2_branch.tsv libraries_2/yjl311_KO_sgB_R2_branch.tsv --total_reads 95 96 97 98 -o libraries_3/KO_sgB_branch.tsv</v>
+        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", I25, ".tsv ", dirs!$A$2, "/", K25, ".tsv ", dirs!$A$2, "/", M25, ".tsv ", dirs!$A$2, "/", O25, ".tsv --total_reads ", J25, " ", L25, " ", N25, " ", P25, " -o ", dirs!$A$3, "/", H25, ".tsv", " --quiet ")</f>
+        <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl308_KO_sgB_R2_branch.tsv libraries_2/yjl309_KO_sgB_R2_branch.tsv libraries_2/yjl310_KO_sgB_R2_branch.tsv libraries_2/yjl311_KO_sgB_R2_branch.tsv --total_reads 96 97 98 99 -o libraries_3/KO_sgB_branch.tsv --quiet </v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
@@ -7808,7 +7814,7 @@
       </c>
       <c r="J26">
         <f ca="1">OFFSET('1'!$K$1, 4 * ($A26 - 1)  + ($J$2), 0)</f>
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K26" t="str">
         <f ca="1">OFFSET('1'!$I$1, 4 * (A26 - 1)  + ($K$2), 0)</f>
@@ -7816,7 +7822,7 @@
       </c>
       <c r="L26">
         <f ca="1">OFFSET('1'!$K$1, 4 * ($A26 - 1)  + ($L$2), 0)</f>
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M26" t="str">
         <f ca="1">OFFSET('1'!$I$1, 4 * ($A26 - 1)  + ($M$2), 0)</f>
@@ -7824,7 +7830,7 @@
       </c>
       <c r="N26">
         <f ca="1">OFFSET('1'!$K$1, 4 * ($A26 - 1)  + ($N$2), 0)</f>
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O26" t="str">
         <f ca="1">OFFSET('1'!$I$1, 4 * ($A26 - 1)  + ($O$2), 0)</f>
@@ -7832,11 +7838,11 @@
       </c>
       <c r="P26">
         <f ca="1">OFFSET('1'!$K$1, 4 * ($A26 - 1)  + ($P$2), 0)</f>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q26" t="str">
-        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", I26, ".tsv ", dirs!$A$2, "/", K26, ".tsv ", dirs!$A$2, "/", M26, ".tsv ", dirs!$A$2, "/", O26, ".tsv --total_reads ", J26, " ", L26, " ", N26, " ", P26, " -o ", dirs!$A$3, "/", H26, ".tsv")</f>
-        <v>python 1_process_nhej/combine_repeats.py -in libraries_2/yjl312_KO_sgB_R2_cmv.tsv libraries_2/yjl313_KO_sgB_R2_cmv.tsv libraries_2/yjl314_KO_sgB_R2_cmv.tsv libraries_2/yjl315_KO_sgB_R2_cmv.tsv --total_reads 95 96 97 98 -o libraries_3/KO_sgB_cmv.tsv</v>
+        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", I26, ".tsv ", dirs!$A$2, "/", K26, ".tsv ", dirs!$A$2, "/", M26, ".tsv ", dirs!$A$2, "/", O26, ".tsv --total_reads ", J26, " ", L26, " ", N26, " ", P26, " -o ", dirs!$A$3, "/", H26, ".tsv", " --quiet ")</f>
+        <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl312_KO_sgB_R2_cmv.tsv libraries_2/yjl313_KO_sgB_R2_cmv.tsv libraries_2/yjl314_KO_sgB_R2_cmv.tsv libraries_2/yjl315_KO_sgB_R2_cmv.tsv --total_reads 96 97 98 99 -o libraries_3/KO_sgB_cmv.tsv --quiet </v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
@@ -7877,7 +7883,7 @@
       </c>
       <c r="J27">
         <f ca="1">OFFSET('1'!$K$1, 4 * ($A27 - 1)  + ($J$2), 0)</f>
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K27" t="str">
         <f ca="1">OFFSET('1'!$I$1, 4 * (A27 - 1)  + ($K$2), 0)</f>
@@ -7893,7 +7899,7 @@
       </c>
       <c r="N27">
         <f ca="1">OFFSET('1'!$K$1, 4 * ($A27 - 1)  + ($N$2), 0)</f>
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O27" t="str">
         <f ca="1">OFFSET('1'!$I$1, 4 * ($A27 - 1)  + ($O$2), 0)</f>
@@ -7901,11 +7907,11 @@
       </c>
       <c r="P27">
         <f ca="1">OFFSET('1'!$K$1, 4 * ($A27 - 1)  + ($P$2), 0)</f>
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Q27" t="str">
-        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", I27, ".tsv ", dirs!$A$2, "/", K27, ".tsv ", dirs!$A$2, "/", M27, ".tsv ", dirs!$A$2, "/", O27, ".tsv --total_reads ", J27, " ", L27, " ", N27, " ", P27, " -o ", dirs!$A$3, "/", H27, ".tsv")</f>
-        <v>python 1_process_nhej/combine_repeats.py -in libraries_2/yjl89_WT_sgCD_R1_antisense.tsv libraries_2/yjl90_WT_sgCD_R1_antisense.tsv libraries_2/yjl91_WT_sgCD_R1_antisense.tsv libraries_2/yjl92_WT_sgCD_R1_antisense.tsv --total_reads 95 97 95 97 -o libraries_3/WT_sgCD_antisense.tsv</v>
+        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", I27, ".tsv ", dirs!$A$2, "/", K27, ".tsv ", dirs!$A$2, "/", M27, ".tsv ", dirs!$A$2, "/", O27, ".tsv --total_reads ", J27, " ", L27, " ", N27, " ", P27, " -o ", dirs!$A$3, "/", H27, ".tsv", " --quiet ")</f>
+        <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl89_WT_sgCD_R1_antisense.tsv libraries_2/yjl90_WT_sgCD_R1_antisense.tsv libraries_2/yjl91_WT_sgCD_R1_antisense.tsv libraries_2/yjl92_WT_sgCD_R1_antisense.tsv --total_reads 96 97 98 99 -o libraries_3/WT_sgCD_antisense.tsv --quiet </v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
@@ -7946,7 +7952,7 @@
       </c>
       <c r="J28">
         <f ca="1">OFFSET('1'!$K$1, 4 * ($A28 - 1)  + ($J$2), 0)</f>
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K28" t="str">
         <f ca="1">OFFSET('1'!$I$1, 4 * (A28 - 1)  + ($K$2), 0)</f>
@@ -7962,7 +7968,7 @@
       </c>
       <c r="N28">
         <f ca="1">OFFSET('1'!$K$1, 4 * ($A28 - 1)  + ($N$2), 0)</f>
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O28" t="str">
         <f ca="1">OFFSET('1'!$I$1, 4 * ($A28 - 1)  + ($O$2), 0)</f>
@@ -7970,11 +7976,11 @@
       </c>
       <c r="P28">
         <f ca="1">OFFSET('1'!$K$1, 4 * ($A28 - 1)  + ($P$2), 0)</f>
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Q28" t="str">
-        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", I28, ".tsv ", dirs!$A$2, "/", K28, ".tsv ", dirs!$A$2, "/", M28, ".tsv ", dirs!$A$2, "/", O28, ".tsv --total_reads ", J28, " ", L28, " ", N28, " ", P28, " -o ", dirs!$A$3, "/", H28, ".tsv")</f>
-        <v>python 1_process_nhej/combine_repeats.py -in libraries_2/yjl93_WT_sgCD_R1_splicing.tsv libraries_2/yjl94_WT_sgCD_R1_splicing.tsv libraries_2/yjl95_WT_sgCD_R1_splicing.tsv libraries_2/yjl96_WT_sgCD_R1_splicing.tsv --total_reads 95 97 95 97 -o libraries_3/WT_sgCD_splicing.tsv</v>
+        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", I28, ".tsv ", dirs!$A$2, "/", K28, ".tsv ", dirs!$A$2, "/", M28, ".tsv ", dirs!$A$2, "/", O28, ".tsv --total_reads ", J28, " ", L28, " ", N28, " ", P28, " -o ", dirs!$A$3, "/", H28, ".tsv", " --quiet ")</f>
+        <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl93_WT_sgCD_R1_splicing.tsv libraries_2/yjl94_WT_sgCD_R1_splicing.tsv libraries_2/yjl95_WT_sgCD_R1_splicing.tsv libraries_2/yjl96_WT_sgCD_R1_splicing.tsv --total_reads 96 97 98 99 -o libraries_3/WT_sgCD_splicing.tsv --quiet </v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
@@ -7987,7 +7993,7 @@
       </c>
       <c r="C29">
         <f ca="1">OFFSET('1'!$G$2, 4 * (A29 - 1), 0)</f>
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D29" t="str">
         <f ca="1">OFFSET('1'!$B$2, 4 * (A29 - 1), 0)</f>
@@ -8015,7 +8021,7 @@
       </c>
       <c r="J29">
         <f ca="1">OFFSET('1'!$K$1, 4 * ($A29 - 1)  + ($J$2), 0)</f>
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K29" t="str">
         <f ca="1">OFFSET('1'!$I$1, 4 * (A29 - 1)  + ($K$2), 0)</f>
@@ -8031,7 +8037,7 @@
       </c>
       <c r="N29">
         <f ca="1">OFFSET('1'!$K$1, 4 * ($A29 - 1)  + ($N$2), 0)</f>
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O29" t="str">
         <f ca="1">OFFSET('1'!$I$1, 4 * ($A29 - 1)  + ($O$2), 0)</f>
@@ -8039,11 +8045,11 @@
       </c>
       <c r="P29">
         <f ca="1">OFFSET('1'!$K$1, 4 * ($A29 - 1)  + ($P$2), 0)</f>
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Q29" t="str">
-        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", I29, ".tsv ", dirs!$A$2, "/", K29, ".tsv ", dirs!$A$2, "/", M29, ".tsv ", dirs!$A$2, "/", O29, ".tsv --total_reads ", J29, " ", L29, " ", N29, " ", P29, " -o ", dirs!$A$3, "/", H29, ".tsv")</f>
-        <v>python 1_process_nhej/combine_repeats.py -in libraries_2/yjl89_WT_sgCD_R2_antisense.tsv libraries_2/yjl90_WT_sgCD_R2_antisense.tsv libraries_2/yjl91_WT_sgCD_R2_antisense.tsv libraries_2/yjl92_WT_sgCD_R2_antisense.tsv --total_reads 95 97 95 97 -o libraries_3/WT_sgCD_antisense.tsv</v>
+        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", I29, ".tsv ", dirs!$A$2, "/", K29, ".tsv ", dirs!$A$2, "/", M29, ".tsv ", dirs!$A$2, "/", O29, ".tsv --total_reads ", J29, " ", L29, " ", N29, " ", P29, " -o ", dirs!$A$3, "/", H29, ".tsv", " --quiet ")</f>
+        <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl89_WT_sgCD_R2_antisense.tsv libraries_2/yjl90_WT_sgCD_R2_antisense.tsv libraries_2/yjl91_WT_sgCD_R2_antisense.tsv libraries_2/yjl92_WT_sgCD_R2_antisense.tsv --total_reads 96 97 98 99 -o libraries_3/WT_sgCD_antisense.tsv --quiet </v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
@@ -8056,7 +8062,7 @@
       </c>
       <c r="C30">
         <f ca="1">OFFSET('1'!$G$2, 4 * (A30 - 1), 0)</f>
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D30" t="str">
         <f ca="1">OFFSET('1'!$B$2, 4 * (A30 - 1), 0)</f>
@@ -8084,7 +8090,7 @@
       </c>
       <c r="J30">
         <f ca="1">OFFSET('1'!$K$1, 4 * ($A30 - 1)  + ($J$2), 0)</f>
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K30" t="str">
         <f ca="1">OFFSET('1'!$I$1, 4 * (A30 - 1)  + ($K$2), 0)</f>
@@ -8100,7 +8106,7 @@
       </c>
       <c r="N30">
         <f ca="1">OFFSET('1'!$K$1, 4 * ($A30 - 1)  + ($N$2), 0)</f>
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O30" t="str">
         <f ca="1">OFFSET('1'!$I$1, 4 * ($A30 - 1)  + ($O$2), 0)</f>
@@ -8108,11 +8114,11 @@
       </c>
       <c r="P30">
         <f ca="1">OFFSET('1'!$K$1, 4 * ($A30 - 1)  + ($P$2), 0)</f>
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Q30" t="str">
-        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", I30, ".tsv ", dirs!$A$2, "/", K30, ".tsv ", dirs!$A$2, "/", M30, ".tsv ", dirs!$A$2, "/", O30, ".tsv --total_reads ", J30, " ", L30, " ", N30, " ", P30, " -o ", dirs!$A$3, "/", H30, ".tsv")</f>
-        <v>python 1_process_nhej/combine_repeats.py -in libraries_2/yjl93_WT_sgCD_R2_splicing.tsv libraries_2/yjl94_WT_sgCD_R2_splicing.tsv libraries_2/yjl95_WT_sgCD_R2_splicing.tsv libraries_2/yjl96_WT_sgCD_R2_splicing.tsv --total_reads 95 97 95 97 -o libraries_3/WT_sgCD_splicing.tsv</v>
+        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", I30, ".tsv ", dirs!$A$2, "/", K30, ".tsv ", dirs!$A$2, "/", M30, ".tsv ", dirs!$A$2, "/", O30, ".tsv --total_reads ", J30, " ", L30, " ", N30, " ", P30, " -o ", dirs!$A$3, "/", H30, ".tsv", " --quiet ")</f>
+        <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl93_WT_sgCD_R2_splicing.tsv libraries_2/yjl94_WT_sgCD_R2_splicing.tsv libraries_2/yjl95_WT_sgCD_R2_splicing.tsv libraries_2/yjl96_WT_sgCD_R2_splicing.tsv --total_reads 96 97 98 99 -o libraries_3/WT_sgCD_splicing.tsv --quiet </v>
       </c>
     </row>
   </sheetData>
@@ -8124,8 +8130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7FB6E33-93C4-4971-BF44-23A0F65AADA0}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8140,40 +8146,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>115</v>
       </c>
     </row>
@@ -9436,7 +9442,7 @@
       </c>
       <c r="C28">
         <f ca="1">'2'!C29</f>
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D28">
         <f ca="1">IF('2'!G29="2DSB", 2, 1)</f>
@@ -9466,7 +9472,7 @@
       </c>
       <c r="K28" t="str">
         <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/", '3'!A28, ".tsv -o ", dirs!$A$4, "/", A28, " -ref ref_seq/", B28, " -dsb ", C28, " --dsb_type ", D28, " --format ", E28, " --strand ", F28, " --hguide ", G28, " --cell ", H28, " --treatments ", I28, " --subst_type ", J28)</f>
-        <v>python 2_graph_processing/make_main_data.py -in libraries_3/WT_sgCD_antisense.tsv -o libraries_4/WT_sgCD_antisense -ref ref_seq/2DSBanti_R2_antisense.fa -dsb 50 --dsb_type 1 --format individual --strand R2 --hguide sgCD --cell WT --treatments antisense --subst_type without</v>
+        <v>python 2_graph_processing/make_main_data.py -in libraries_3/WT_sgCD_antisense.tsv -o libraries_4/WT_sgCD_antisense -ref ref_seq/2DSBanti_R2_antisense.fa -dsb 47 --dsb_type 1 --format individual --strand R2 --hguide sgCD --cell WT --treatments antisense --subst_type without</v>
       </c>
       <c r="L28" t="str">
         <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without ",  " -dir ", dirs!$A$4, "/", '3'!A28)</f>
@@ -9484,7 +9490,7 @@
       </c>
       <c r="C29">
         <f ca="1">'2'!C30</f>
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D29">
         <f ca="1">IF('2'!G30="2DSB", 2, 1)</f>
@@ -9514,7 +9520,7 @@
       </c>
       <c r="K29" t="str">
         <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/", '3'!A29, ".tsv -o ", dirs!$A$4, "/", A29, " -ref ref_seq/", B29, " -dsb ", C29, " --dsb_type ", D29, " --format ", E29, " --strand ", F29, " --hguide ", G29, " --cell ", H29, " --treatments ", I29, " --subst_type ", J29)</f>
-        <v>python 2_graph_processing/make_main_data.py -in libraries_3/WT_sgCD_splicing.tsv -o libraries_4/WT_sgCD_splicing -ref ref_seq/2DSBanti_R2_splicing.fa -dsb 50 --dsb_type 1 --format individual --strand R2 --hguide sgCD --cell WT --treatments splicing --subst_type without</v>
+        <v>python 2_graph_processing/make_main_data.py -in libraries_3/WT_sgCD_splicing.tsv -o libraries_4/WT_sgCD_splicing -ref ref_seq/2DSBanti_R2_splicing.fa -dsb 47 --dsb_type 1 --format individual --strand R2 --hguide sgCD --cell WT --treatments splicing --subst_type without</v>
       </c>
       <c r="L29" t="str">
         <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without ",  " -dir ", dirs!$A$4, "/", '3'!A29)</f>
@@ -9523,6 +9529,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9560,7 +9567,7 @@
         <v>112</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>88</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -9624,7 +9631,7 @@
         <v>KO_sgAB_branch</v>
       </c>
       <c r="D4" t="str">
-        <f t="shared" ref="D4:D17" ca="1" si="0">_xlfn.CONCAT(B4, "_", "branch")</f>
+        <f t="shared" ref="D4" ca="1" si="0">_xlfn.CONCAT(B4, "_", "branch")</f>
         <v>KO_sgAB_sense_branch</v>
       </c>
       <c r="E4" t="s">
@@ -9648,7 +9655,7 @@
         <v>KO_sgAB_cmv</v>
       </c>
       <c r="D5" t="str">
-        <f t="shared" ref="D5:D17" ca="1" si="1">_xlfn.CONCAT(B4, "_", "cmv")</f>
+        <f t="shared" ref="D5" ca="1" si="1">_xlfn.CONCAT(B4, "_", "cmv")</f>
         <v>KO_sgAB_sense_cmv</v>
       </c>
       <c r="E5" t="s">
@@ -9672,7 +9679,7 @@
         <v>WT_sgAB_branch</v>
       </c>
       <c r="D6" t="str">
-        <f t="shared" ref="D6:D17" ca="1" si="2">_xlfn.CONCAT(B6, "_", "branch")</f>
+        <f t="shared" ref="D6" ca="1" si="2">_xlfn.CONCAT(B6, "_", "branch")</f>
         <v>WT_sgAB_sense_branch</v>
       </c>
       <c r="E6" t="s">
@@ -9696,7 +9703,7 @@
         <v>WT_sgAB_cmv</v>
       </c>
       <c r="D7" t="str">
-        <f t="shared" ref="D7:D17" ca="1" si="3">_xlfn.CONCAT(B6, "_", "cmv")</f>
+        <f t="shared" ref="D7" ca="1" si="3">_xlfn.CONCAT(B6, "_", "cmv")</f>
         <v>WT_sgAB_sense_cmv</v>
       </c>
       <c r="E7" t="s">
@@ -9720,7 +9727,7 @@
         <v>KO_sgAB_branch</v>
       </c>
       <c r="D8" t="str">
-        <f t="shared" ref="D8:D17" ca="1" si="4">_xlfn.CONCAT(B8, "_", "branch")</f>
+        <f t="shared" ref="D8" ca="1" si="4">_xlfn.CONCAT(B8, "_", "branch")</f>
         <v>KO_sgAB_sense_branch</v>
       </c>
       <c r="E8" t="s">
@@ -9744,7 +9751,7 @@
         <v>KO_sgAB_cmv</v>
       </c>
       <c r="D9" t="str">
-        <f t="shared" ref="D9:D17" ca="1" si="5">_xlfn.CONCAT(B8, "_", "cmv")</f>
+        <f t="shared" ref="D9" ca="1" si="5">_xlfn.CONCAT(B8, "_", "cmv")</f>
         <v>KO_sgAB_sense_cmv</v>
       </c>
       <c r="E9" t="s">
@@ -9768,7 +9775,7 @@
         <v>WT_sgA_branch</v>
       </c>
       <c r="D10" t="str">
-        <f t="shared" ref="D10:D17" ca="1" si="6">_xlfn.CONCAT(B10, "_", "branch")</f>
+        <f t="shared" ref="D10" ca="1" si="6">_xlfn.CONCAT(B10, "_", "branch")</f>
         <v>WT_sgA_sense_branch</v>
       </c>
       <c r="E10" t="s">
@@ -9792,7 +9799,7 @@
         <v>WT_sgA_cmv</v>
       </c>
       <c r="D11" t="str">
-        <f t="shared" ref="D11:D17" ca="1" si="7">_xlfn.CONCAT(B10, "_", "cmv")</f>
+        <f t="shared" ref="D11" ca="1" si="7">_xlfn.CONCAT(B10, "_", "cmv")</f>
         <v>WT_sgA_sense_cmv</v>
       </c>
       <c r="E11" t="s">
@@ -9816,7 +9823,7 @@
         <v>WT_sgB_branch</v>
       </c>
       <c r="D12" t="str">
-        <f t="shared" ref="D12:D17" ca="1" si="8">_xlfn.CONCAT(B12, "_", "branch")</f>
+        <f t="shared" ref="D12" ca="1" si="8">_xlfn.CONCAT(B12, "_", "branch")</f>
         <v>WT_sgB_sense_branch</v>
       </c>
       <c r="E12" t="s">
@@ -9840,7 +9847,7 @@
         <v>WT_sgB_cmv</v>
       </c>
       <c r="D13" t="str">
-        <f t="shared" ref="D13:D17" ca="1" si="9">_xlfn.CONCAT(B12, "_", "cmv")</f>
+        <f t="shared" ref="D13" ca="1" si="9">_xlfn.CONCAT(B12, "_", "cmv")</f>
         <v>WT_sgB_sense_cmv</v>
       </c>
       <c r="E13" t="s">
@@ -9864,7 +9871,7 @@
         <v>KO_sgA_branch</v>
       </c>
       <c r="D14" t="str">
-        <f t="shared" ref="D14:D17" ca="1" si="10">_xlfn.CONCAT(B14, "_", "branch")</f>
+        <f t="shared" ref="D14" ca="1" si="10">_xlfn.CONCAT(B14, "_", "branch")</f>
         <v>KO_sgA_sense_branch</v>
       </c>
       <c r="E14" t="s">
@@ -9888,7 +9895,7 @@
         <v>KO_sgA_cmv</v>
       </c>
       <c r="D15" t="str">
-        <f t="shared" ref="D15:D17" ca="1" si="11">_xlfn.CONCAT(B14, "_", "cmv")</f>
+        <f t="shared" ref="D15" ca="1" si="11">_xlfn.CONCAT(B14, "_", "cmv")</f>
         <v>KO_sgA_sense_cmv</v>
       </c>
       <c r="E15" t="s">
@@ -9912,7 +9919,7 @@
         <v>KO_sgB_branch</v>
       </c>
       <c r="D16" t="str">
-        <f t="shared" ref="D16:D17" ca="1" si="12">_xlfn.CONCAT(B16, "_", "branch")</f>
+        <f t="shared" ref="D16" ca="1" si="12">_xlfn.CONCAT(B16, "_", "branch")</f>
         <v>KO_sgB_sense_branch</v>
       </c>
       <c r="E16" t="s">

--- a/libinfo.xlsx
+++ b/libinfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tchan\Code\SCMB_Project\RNA-mediated_DSB_repair\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F060A8-6BE7-42B3-913A-7C631FD43BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C3EEDB-24BF-4238-8CE0-429B00C78CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="2" xr2:uid="{2091B41C-DDD2-4E50-B30A-30FF3CA370E5}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="136">
   <si>
     <t>yjl217</t>
   </si>
@@ -305,9 +305,6 @@
     <t>file_out</t>
   </si>
   <si>
-    <t>command</t>
-  </si>
-  <si>
     <t>ref_file</t>
   </si>
   <si>
@@ -362,12 +359,6 @@
     <t>dsb_type</t>
   </si>
   <si>
-    <t>format</t>
-  </si>
-  <si>
-    <t>individual</t>
-  </si>
-  <si>
     <t>hguide</t>
   </si>
   <si>
@@ -453,6 +444,9 @@
   </si>
   <si>
     <t>command_main_data_combined</t>
+  </si>
+  <si>
+    <t>command_combine</t>
   </si>
 </sst>
 </file>
@@ -833,27 +827,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -896,7 +890,7 @@
         <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>83</v>
@@ -905,25 +899,25 @@
         <v>84</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>87</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -937,7 +931,7 @@
         <v>74</v>
       </c>
       <c r="D2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E2" t="s">
         <v>75</v>
@@ -983,7 +977,7 @@
         <v>74</v>
       </c>
       <c r="D3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E3" t="s">
         <v>75</v>
@@ -1029,7 +1023,7 @@
         <v>74</v>
       </c>
       <c r="D4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E4" t="s">
         <v>75</v>
@@ -1075,7 +1069,7 @@
         <v>74</v>
       </c>
       <c r="D5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E5" t="s">
         <v>75</v>
@@ -1121,7 +1115,7 @@
         <v>74</v>
       </c>
       <c r="D6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E6" t="s">
         <v>76</v>
@@ -1167,7 +1161,7 @@
         <v>74</v>
       </c>
       <c r="D7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E7" t="s">
         <v>76</v>
@@ -1213,7 +1207,7 @@
         <v>74</v>
       </c>
       <c r="D8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E8" t="s">
         <v>76</v>
@@ -1259,7 +1253,7 @@
         <v>74</v>
       </c>
       <c r="D9" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E9" t="s">
         <v>76</v>
@@ -1305,7 +1299,7 @@
         <v>74</v>
       </c>
       <c r="D10" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E10" t="s">
         <v>77</v>
@@ -1351,7 +1345,7 @@
         <v>74</v>
       </c>
       <c r="D11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E11" t="s">
         <v>77</v>
@@ -1397,7 +1391,7 @@
         <v>74</v>
       </c>
       <c r="D12" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E12" t="s">
         <v>77</v>
@@ -1443,7 +1437,7 @@
         <v>74</v>
       </c>
       <c r="D13" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E13" t="s">
         <v>77</v>
@@ -1489,7 +1483,7 @@
         <v>74</v>
       </c>
       <c r="D14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E14" t="s">
         <v>75</v>
@@ -1535,7 +1529,7 @@
         <v>74</v>
       </c>
       <c r="D15" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E15" t="s">
         <v>75</v>
@@ -1581,7 +1575,7 @@
         <v>74</v>
       </c>
       <c r="D16" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E16" t="s">
         <v>75</v>
@@ -1627,7 +1621,7 @@
         <v>74</v>
       </c>
       <c r="D17" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E17" t="s">
         <v>75</v>
@@ -1673,7 +1667,7 @@
         <v>74</v>
       </c>
       <c r="D18" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E18" t="s">
         <v>76</v>
@@ -1719,7 +1713,7 @@
         <v>74</v>
       </c>
       <c r="D19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E19" t="s">
         <v>76</v>
@@ -1765,7 +1759,7 @@
         <v>74</v>
       </c>
       <c r="D20" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E20" t="s">
         <v>76</v>
@@ -1811,7 +1805,7 @@
         <v>74</v>
       </c>
       <c r="D21" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E21" t="s">
         <v>76</v>
@@ -1857,7 +1851,7 @@
         <v>74</v>
       </c>
       <c r="D22" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E22" t="s">
         <v>77</v>
@@ -1903,7 +1897,7 @@
         <v>74</v>
       </c>
       <c r="D23" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E23" t="s">
         <v>77</v>
@@ -1949,7 +1943,7 @@
         <v>74</v>
       </c>
       <c r="D24" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E24" t="s">
         <v>77</v>
@@ -1995,7 +1989,7 @@
         <v>74</v>
       </c>
       <c r="D25" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E25" t="s">
         <v>77</v>
@@ -2041,7 +2035,7 @@
         <v>74</v>
       </c>
       <c r="D26" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E26" t="s">
         <v>75</v>
@@ -2087,7 +2081,7 @@
         <v>74</v>
       </c>
       <c r="D27" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E27" t="s">
         <v>75</v>
@@ -2133,7 +2127,7 @@
         <v>74</v>
       </c>
       <c r="D28" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E28" t="s">
         <v>75</v>
@@ -2179,7 +2173,7 @@
         <v>74</v>
       </c>
       <c r="D29" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E29" t="s">
         <v>75</v>
@@ -2225,7 +2219,7 @@
         <v>74</v>
       </c>
       <c r="D30" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E30" t="s">
         <v>76</v>
@@ -2271,7 +2265,7 @@
         <v>74</v>
       </c>
       <c r="D31" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E31" t="s">
         <v>76</v>
@@ -2317,7 +2311,7 @@
         <v>74</v>
       </c>
       <c r="D32" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E32" t="s">
         <v>76</v>
@@ -2363,7 +2357,7 @@
         <v>74</v>
       </c>
       <c r="D33" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E33" t="s">
         <v>76</v>
@@ -2409,7 +2403,7 @@
         <v>74</v>
       </c>
       <c r="D34" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E34" t="s">
         <v>77</v>
@@ -2455,7 +2449,7 @@
         <v>74</v>
       </c>
       <c r="D35" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E35" t="s">
         <v>77</v>
@@ -2501,7 +2495,7 @@
         <v>74</v>
       </c>
       <c r="D36" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E36" t="s">
         <v>77</v>
@@ -2547,7 +2541,7 @@
         <v>74</v>
       </c>
       <c r="D37" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E37" t="s">
         <v>77</v>
@@ -2593,7 +2587,7 @@
         <v>74</v>
       </c>
       <c r="D38" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E38" t="s">
         <v>75</v>
@@ -2639,7 +2633,7 @@
         <v>74</v>
       </c>
       <c r="D39" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E39" t="s">
         <v>75</v>
@@ -2685,7 +2679,7 @@
         <v>74</v>
       </c>
       <c r="D40" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E40" t="s">
         <v>75</v>
@@ -2731,7 +2725,7 @@
         <v>74</v>
       </c>
       <c r="D41" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E41" t="s">
         <v>75</v>
@@ -2777,7 +2771,7 @@
         <v>74</v>
       </c>
       <c r="D42" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E42" t="s">
         <v>76</v>
@@ -2823,7 +2817,7 @@
         <v>74</v>
       </c>
       <c r="D43" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E43" t="s">
         <v>76</v>
@@ -2869,7 +2863,7 @@
         <v>74</v>
       </c>
       <c r="D44" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E44" t="s">
         <v>76</v>
@@ -2915,7 +2909,7 @@
         <v>74</v>
       </c>
       <c r="D45" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E45" t="s">
         <v>76</v>
@@ -2961,7 +2955,7 @@
         <v>74</v>
       </c>
       <c r="D46" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E46" t="s">
         <v>77</v>
@@ -3007,7 +3001,7 @@
         <v>74</v>
       </c>
       <c r="D47" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E47" t="s">
         <v>77</v>
@@ -3053,7 +3047,7 @@
         <v>74</v>
       </c>
       <c r="D48" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E48" t="s">
         <v>77</v>
@@ -3099,7 +3093,7 @@
         <v>74</v>
       </c>
       <c r="D49" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E49" t="s">
         <v>77</v>
@@ -3142,7 +3136,7 @@
         <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D50" t="s">
         <v>78</v>
@@ -3188,7 +3182,7 @@
         <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D51" t="s">
         <v>78</v>
@@ -3234,7 +3228,7 @@
         <v>1</v>
       </c>
       <c r="C52" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D52" t="s">
         <v>78</v>
@@ -3280,7 +3274,7 @@
         <v>1</v>
       </c>
       <c r="C53" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D53" t="s">
         <v>78</v>
@@ -3326,7 +3320,7 @@
         <v>1</v>
       </c>
       <c r="C54" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D54" t="s">
         <v>78</v>
@@ -3372,7 +3366,7 @@
         <v>1</v>
       </c>
       <c r="C55" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D55" t="s">
         <v>78</v>
@@ -3418,7 +3412,7 @@
         <v>1</v>
       </c>
       <c r="C56" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D56" t="s">
         <v>78</v>
@@ -3464,7 +3458,7 @@
         <v>1</v>
       </c>
       <c r="C57" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D57" t="s">
         <v>78</v>
@@ -3510,7 +3504,7 @@
         <v>1</v>
       </c>
       <c r="C58" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D58" t="s">
         <v>78</v>
@@ -3556,7 +3550,7 @@
         <v>1</v>
       </c>
       <c r="C59" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D59" t="s">
         <v>78</v>
@@ -3602,7 +3596,7 @@
         <v>1</v>
       </c>
       <c r="C60" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D60" t="s">
         <v>78</v>
@@ -3648,7 +3642,7 @@
         <v>1</v>
       </c>
       <c r="C61" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D61" t="s">
         <v>78</v>
@@ -3694,7 +3688,7 @@
         <v>1</v>
       </c>
       <c r="C62" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D62" t="s">
         <v>79</v>
@@ -3740,7 +3734,7 @@
         <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D63" t="s">
         <v>79</v>
@@ -3786,7 +3780,7 @@
         <v>1</v>
       </c>
       <c r="C64" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D64" t="s">
         <v>79</v>
@@ -3832,7 +3826,7 @@
         <v>1</v>
       </c>
       <c r="C65" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D65" t="s">
         <v>79</v>
@@ -3878,7 +3872,7 @@
         <v>1</v>
       </c>
       <c r="C66" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D66" t="s">
         <v>79</v>
@@ -3924,7 +3918,7 @@
         <v>1</v>
       </c>
       <c r="C67" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D67" t="s">
         <v>79</v>
@@ -3970,7 +3964,7 @@
         <v>1</v>
       </c>
       <c r="C68" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D68" t="s">
         <v>79</v>
@@ -4016,7 +4010,7 @@
         <v>1</v>
       </c>
       <c r="C69" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D69" t="s">
         <v>79</v>
@@ -4062,7 +4056,7 @@
         <v>1</v>
       </c>
       <c r="C70" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D70" t="s">
         <v>79</v>
@@ -4108,7 +4102,7 @@
         <v>1</v>
       </c>
       <c r="C71" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D71" t="s">
         <v>79</v>
@@ -4154,7 +4148,7 @@
         <v>1</v>
       </c>
       <c r="C72" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D72" t="s">
         <v>79</v>
@@ -4200,7 +4194,7 @@
         <v>1</v>
       </c>
       <c r="C73" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D73" t="s">
         <v>79</v>
@@ -4246,7 +4240,7 @@
         <v>14</v>
       </c>
       <c r="C74" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D74" t="s">
         <v>78</v>
@@ -4292,7 +4286,7 @@
         <v>14</v>
       </c>
       <c r="C75" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D75" t="s">
         <v>78</v>
@@ -4338,7 +4332,7 @@
         <v>14</v>
       </c>
       <c r="C76" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D76" t="s">
         <v>78</v>
@@ -4384,7 +4378,7 @@
         <v>14</v>
       </c>
       <c r="C77" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D77" t="s">
         <v>78</v>
@@ -4430,7 +4424,7 @@
         <v>14</v>
       </c>
       <c r="C78" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D78" t="s">
         <v>78</v>
@@ -4476,7 +4470,7 @@
         <v>14</v>
       </c>
       <c r="C79" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D79" t="s">
         <v>78</v>
@@ -4522,7 +4516,7 @@
         <v>14</v>
       </c>
       <c r="C80" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D80" t="s">
         <v>78</v>
@@ -4568,7 +4562,7 @@
         <v>14</v>
       </c>
       <c r="C81" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D81" t="s">
         <v>78</v>
@@ -4614,7 +4608,7 @@
         <v>14</v>
       </c>
       <c r="C82" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D82" t="s">
         <v>78</v>
@@ -4660,7 +4654,7 @@
         <v>14</v>
       </c>
       <c r="C83" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D83" t="s">
         <v>78</v>
@@ -4706,7 +4700,7 @@
         <v>14</v>
       </c>
       <c r="C84" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D84" t="s">
         <v>78</v>
@@ -4752,7 +4746,7 @@
         <v>14</v>
       </c>
       <c r="C85" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D85" t="s">
         <v>78</v>
@@ -4798,7 +4792,7 @@
         <v>14</v>
       </c>
       <c r="C86" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D86" t="s">
         <v>79</v>
@@ -4844,7 +4838,7 @@
         <v>14</v>
       </c>
       <c r="C87" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D87" t="s">
         <v>79</v>
@@ -4890,7 +4884,7 @@
         <v>14</v>
       </c>
       <c r="C88" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D88" t="s">
         <v>79</v>
@@ -4936,7 +4930,7 @@
         <v>14</v>
       </c>
       <c r="C89" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D89" t="s">
         <v>79</v>
@@ -4982,7 +4976,7 @@
         <v>14</v>
       </c>
       <c r="C90" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D90" t="s">
         <v>79</v>
@@ -5028,7 +5022,7 @@
         <v>14</v>
       </c>
       <c r="C91" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D91" t="s">
         <v>79</v>
@@ -5074,7 +5068,7 @@
         <v>14</v>
       </c>
       <c r="C92" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D92" t="s">
         <v>79</v>
@@ -5120,7 +5114,7 @@
         <v>14</v>
       </c>
       <c r="C93" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D93" t="s">
         <v>79</v>
@@ -5166,7 +5160,7 @@
         <v>14</v>
       </c>
       <c r="C94" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D94" t="s">
         <v>79</v>
@@ -5212,7 +5206,7 @@
         <v>14</v>
       </c>
       <c r="C95" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D95" t="s">
         <v>79</v>
@@ -5258,7 +5252,7 @@
         <v>14</v>
       </c>
       <c r="C96" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D96" t="s">
         <v>79</v>
@@ -5304,7 +5298,7 @@
         <v>14</v>
       </c>
       <c r="C97" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D97" t="s">
         <v>79</v>
@@ -5344,19 +5338,19 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B98" t="s">
         <v>1</v>
       </c>
       <c r="C98" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D98" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E98" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F98" t="s">
         <v>85</v>
@@ -5390,19 +5384,19 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B99" t="s">
         <v>1</v>
       </c>
       <c r="C99" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D99" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E99" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F99" t="s">
         <v>85</v>
@@ -5436,19 +5430,19 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B100" t="s">
         <v>1</v>
       </c>
       <c r="C100" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D100" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E100" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F100" t="s">
         <v>85</v>
@@ -5482,19 +5476,19 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B101" t="s">
         <v>1</v>
       </c>
       <c r="C101" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D101" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E101" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F101" t="s">
         <v>85</v>
@@ -5528,19 +5522,19 @@
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B102" t="s">
         <v>1</v>
       </c>
       <c r="C102" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D102" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E102" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F102" t="s">
         <v>85</v>
@@ -5574,19 +5568,19 @@
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B103" t="s">
         <v>1</v>
       </c>
       <c r="C103" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D103" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E103" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F103" t="s">
         <v>85</v>
@@ -5620,19 +5614,19 @@
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B104" t="s">
         <v>1</v>
       </c>
       <c r="C104" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D104" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E104" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F104" t="s">
         <v>85</v>
@@ -5666,19 +5660,19 @@
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B105" t="s">
         <v>1</v>
       </c>
       <c r="C105" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D105" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E105" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F105" t="s">
         <v>85</v>
@@ -5712,19 +5706,19 @@
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B106" t="s">
         <v>1</v>
       </c>
       <c r="C106" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D106" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E106" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F106" t="s">
         <v>86</v>
@@ -5758,19 +5752,19 @@
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B107" t="s">
         <v>1</v>
       </c>
       <c r="C107" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D107" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E107" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F107" t="s">
         <v>86</v>
@@ -5804,19 +5798,19 @@
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B108" t="s">
         <v>1</v>
       </c>
       <c r="C108" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D108" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E108" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F108" t="s">
         <v>86</v>
@@ -5850,19 +5844,19 @@
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B109" t="s">
         <v>1</v>
       </c>
       <c r="C109" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D109" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E109" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F109" t="s">
         <v>86</v>
@@ -5896,19 +5890,19 @@
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B110" t="s">
         <v>1</v>
       </c>
       <c r="C110" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D110" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E110" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F110" t="s">
         <v>86</v>
@@ -5942,19 +5936,19 @@
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B111" t="s">
         <v>1</v>
       </c>
       <c r="C111" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D111" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E111" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F111" t="s">
         <v>86</v>
@@ -5988,19 +5982,19 @@
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B112" t="s">
         <v>1</v>
       </c>
       <c r="C112" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D112" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E112" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F112" t="s">
         <v>86</v>
@@ -6034,19 +6028,19 @@
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B113" t="s">
         <v>1</v>
       </c>
       <c r="C113" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D113" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E113" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F113" t="s">
         <v>86</v>
@@ -6089,7 +6083,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12B0900B-E55F-43FE-AC1A-BE82F1C8E743}">
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G19" workbookViewId="0">
       <selection activeCell="Q3" sqref="Q3:Q30"/>
     </sheetView>
   </sheetViews>
@@ -6115,13 +6109,13 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>84</v>
@@ -6130,37 +6124,37 @@
         <v>83</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="Q1" s="1" t="s">
-        <v>88</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -6218,8 +6212,8 @@
         <v>sgAB</v>
       </c>
       <c r="H3" t="str">
-        <f ca="1">_xlfn.CONCAT(D3, "_", G3, "_", F3)</f>
-        <v>WT_sgAB_sense</v>
+        <f ca="1">_xlfn.CONCAT(D3, "_", G3, "_", E3, "_", F3)</f>
+        <v>WT_sgAB_R1_sense</v>
       </c>
       <c r="I3" t="str">
         <f ca="1">OFFSET('1'!$I$1, 4 * (A3 - 1)  + ($I$2), 0)</f>
@@ -6255,7 +6249,7 @@
       </c>
       <c r="Q3" t="str">
         <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", I3, ".tsv ", dirs!$A$2, "/", K3, ".tsv ", dirs!$A$2, "/", M3, ".tsv ", dirs!$A$2, "/", O3, ".tsv --total_reads ", J3, " ", L3, " ", N3, " ", P3, " -o ", dirs!$A$3, "/", H3, ".tsv", " --quiet ")</f>
-        <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl217_WT_sgAB_R1_sense.tsv libraries_2/yjl218_WT_sgAB_R1_sense.tsv libraries_2/yjl219_WT_sgAB_R1_sense.tsv libraries_2/yjl220_WT_sgAB_R1_sense.tsv --total_reads 96 97 98 99 -o libraries_3/WT_sgAB_sense.tsv --quiet </v>
+        <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl217_WT_sgAB_R1_sense.tsv libraries_2/yjl218_WT_sgAB_R1_sense.tsv libraries_2/yjl219_WT_sgAB_R1_sense.tsv libraries_2/yjl220_WT_sgAB_R1_sense.tsv --total_reads 96 97 98 99 -o libraries_3/WT_sgAB_R1_sense.tsv --quiet </v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -6287,8 +6281,8 @@
         <v>sgAB</v>
       </c>
       <c r="H4" t="str">
-        <f t="shared" ref="H4:H30" ca="1" si="0">_xlfn.CONCAT(D4, "_", G4, "_", F4)</f>
-        <v>WT_sgAB_branch</v>
+        <f t="shared" ref="H4:H30" ca="1" si="0">_xlfn.CONCAT(D4, "_", G4, "_", E4, "_", F4)</f>
+        <v>WT_sgAB_R1_branch</v>
       </c>
       <c r="I4" t="str">
         <f ca="1">OFFSET('1'!$I$1, 4 * (A4 - 1)  + ($I$2), 0)</f>
@@ -6324,7 +6318,7 @@
       </c>
       <c r="Q4" t="str">
         <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", I4, ".tsv ", dirs!$A$2, "/", K4, ".tsv ", dirs!$A$2, "/", M4, ".tsv ", dirs!$A$2, "/", O4, ".tsv --total_reads ", J4, " ", L4, " ", N4, " ", P4, " -o ", dirs!$A$3, "/", H4, ".tsv", " --quiet ")</f>
-        <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl221_WT_sgAB_R1_branch.tsv libraries_2/yjl222_WT_sgAB_R1_branch.tsv libraries_2/yjl223_WT_sgAB_R1_branch.tsv libraries_2/yjl224_WT_sgAB_R1_branch.tsv --total_reads 96 97 98 99 -o libraries_3/WT_sgAB_branch.tsv --quiet </v>
+        <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl221_WT_sgAB_R1_branch.tsv libraries_2/yjl222_WT_sgAB_R1_branch.tsv libraries_2/yjl223_WT_sgAB_R1_branch.tsv libraries_2/yjl224_WT_sgAB_R1_branch.tsv --total_reads 96 97 98 99 -o libraries_3/WT_sgAB_R1_branch.tsv --quiet </v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -6357,7 +6351,7 @@
       </c>
       <c r="H5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>WT_sgAB_cmv</v>
+        <v>WT_sgAB_R1_cmv</v>
       </c>
       <c r="I5" t="str">
         <f ca="1">OFFSET('1'!$I$1, 4 * (A5 - 1)  + ($I$2), 0)</f>
@@ -6393,7 +6387,7 @@
       </c>
       <c r="Q5" t="str">
         <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", I5, ".tsv ", dirs!$A$2, "/", K5, ".tsv ", dirs!$A$2, "/", M5, ".tsv ", dirs!$A$2, "/", O5, ".tsv --total_reads ", J5, " ", L5, " ", N5, " ", P5, " -o ", dirs!$A$3, "/", H5, ".tsv", " --quiet ")</f>
-        <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl225_WT_sgAB_R1_cmv.tsv libraries_2/yjl226_WT_sgAB_R1_cmv.tsv libraries_2/yjl227_WT_sgAB_R1_cmv.tsv libraries_2/yjl228_WT_sgAB_R1_cmv.tsv --total_reads 96 97 98 99 -o libraries_3/WT_sgAB_cmv.tsv --quiet </v>
+        <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl225_WT_sgAB_R1_cmv.tsv libraries_2/yjl226_WT_sgAB_R1_cmv.tsv libraries_2/yjl227_WT_sgAB_R1_cmv.tsv libraries_2/yjl228_WT_sgAB_R1_cmv.tsv --total_reads 96 97 98 99 -o libraries_3/WT_sgAB_R1_cmv.tsv --quiet </v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -6426,7 +6420,7 @@
       </c>
       <c r="H6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>KO_sgAB_sense</v>
+        <v>KO_sgAB_R1_sense</v>
       </c>
       <c r="I6" t="str">
         <f ca="1">OFFSET('1'!$I$1, 4 * (A6 - 1)  + ($I$2), 0)</f>
@@ -6462,7 +6456,7 @@
       </c>
       <c r="Q6" t="str">
         <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", I6, ".tsv ", dirs!$A$2, "/", K6, ".tsv ", dirs!$A$2, "/", M6, ".tsv ", dirs!$A$2, "/", O6, ".tsv --total_reads ", J6, " ", L6, " ", N6, " ", P6, " -o ", dirs!$A$3, "/", H6, ".tsv", " --quiet ")</f>
-        <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl229_KO_sgAB_R1_sense.tsv libraries_2/yjl230_KO_sgAB_R1_sense.tsv libraries_2/yjl231_KO_sgAB_R1_sense.tsv libraries_2/yjl232_KO_sgAB_R1_sense.tsv --total_reads 96 97 98 99 -o libraries_3/KO_sgAB_sense.tsv --quiet </v>
+        <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl229_KO_sgAB_R1_sense.tsv libraries_2/yjl230_KO_sgAB_R1_sense.tsv libraries_2/yjl231_KO_sgAB_R1_sense.tsv libraries_2/yjl232_KO_sgAB_R1_sense.tsv --total_reads 96 97 98 99 -o libraries_3/KO_sgAB_R1_sense.tsv --quiet </v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -6495,7 +6489,7 @@
       </c>
       <c r="H7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>KO_sgAB_branch</v>
+        <v>KO_sgAB_R1_branch</v>
       </c>
       <c r="I7" t="str">
         <f ca="1">OFFSET('1'!$I$1, 4 * (A7 - 1)  + ($I$2), 0)</f>
@@ -6531,7 +6525,7 @@
       </c>
       <c r="Q7" t="str">
         <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", I7, ".tsv ", dirs!$A$2, "/", K7, ".tsv ", dirs!$A$2, "/", M7, ".tsv ", dirs!$A$2, "/", O7, ".tsv --total_reads ", J7, " ", L7, " ", N7, " ", P7, " -o ", dirs!$A$3, "/", H7, ".tsv", " --quiet ")</f>
-        <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl233_KO_sgAB_R1_branch.tsv libraries_2/yjl234_KO_sgAB_R1_branch.tsv libraries_2/yjl235_KO_sgAB_R1_branch.tsv libraries_2/yjl236_KO_sgAB_R1_branch.tsv --total_reads 96 97 98 99 -o libraries_3/KO_sgAB_branch.tsv --quiet </v>
+        <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl233_KO_sgAB_R1_branch.tsv libraries_2/yjl234_KO_sgAB_R1_branch.tsv libraries_2/yjl235_KO_sgAB_R1_branch.tsv libraries_2/yjl236_KO_sgAB_R1_branch.tsv --total_reads 96 97 98 99 -o libraries_3/KO_sgAB_R1_branch.tsv --quiet </v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -6564,7 +6558,7 @@
       </c>
       <c r="H8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>KO_sgAB_cmv</v>
+        <v>KO_sgAB_R1_cmv</v>
       </c>
       <c r="I8" t="str">
         <f ca="1">OFFSET('1'!$I$1, 4 * (A8 - 1)  + ($I$2), 0)</f>
@@ -6600,7 +6594,7 @@
       </c>
       <c r="Q8" t="str">
         <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", I8, ".tsv ", dirs!$A$2, "/", K8, ".tsv ", dirs!$A$2, "/", M8, ".tsv ", dirs!$A$2, "/", O8, ".tsv --total_reads ", J8, " ", L8, " ", N8, " ", P8, " -o ", dirs!$A$3, "/", H8, ".tsv", " --quiet ")</f>
-        <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl237_KO_sgAB_R1_cmv.tsv libraries_2/yjl238_KO_sgAB_R1_cmv.tsv libraries_2/yjl239_KO_sgAB_R1_cmv.tsv libraries_2/yjl240_KO_sgAB_R1_cmv.tsv --total_reads 96 97 98 99 -o libraries_3/KO_sgAB_cmv.tsv --quiet </v>
+        <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl237_KO_sgAB_R1_cmv.tsv libraries_2/yjl238_KO_sgAB_R1_cmv.tsv libraries_2/yjl239_KO_sgAB_R1_cmv.tsv libraries_2/yjl240_KO_sgAB_R1_cmv.tsv --total_reads 96 97 98 99 -o libraries_3/KO_sgAB_R1_cmv.tsv --quiet </v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -6633,7 +6627,7 @@
       </c>
       <c r="H9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>WT_sgAB_sense</v>
+        <v>WT_sgAB_R2_sense</v>
       </c>
       <c r="I9" t="str">
         <f ca="1">OFFSET('1'!$I$1, 4 * (A9 - 1)  + ($I$2), 0)</f>
@@ -6669,7 +6663,7 @@
       </c>
       <c r="Q9" t="str">
         <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", I9, ".tsv ", dirs!$A$2, "/", K9, ".tsv ", dirs!$A$2, "/", M9, ".tsv ", dirs!$A$2, "/", O9, ".tsv --total_reads ", J9, " ", L9, " ", N9, " ", P9, " -o ", dirs!$A$3, "/", H9, ".tsv", " --quiet ")</f>
-        <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl217_WT_sgAB_R2_sense.tsv libraries_2/yjl218_WT_sgAB_R2_sense.tsv libraries_2/yjl219_WT_sgAB_R2_sense.tsv libraries_2/yjl220_WT_sgAB_R2_sense.tsv --total_reads 96 97 98 99 -o libraries_3/WT_sgAB_sense.tsv --quiet </v>
+        <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl217_WT_sgAB_R2_sense.tsv libraries_2/yjl218_WT_sgAB_R2_sense.tsv libraries_2/yjl219_WT_sgAB_R2_sense.tsv libraries_2/yjl220_WT_sgAB_R2_sense.tsv --total_reads 96 97 98 99 -o libraries_3/WT_sgAB_R2_sense.tsv --quiet </v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -6702,7 +6696,7 @@
       </c>
       <c r="H10" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>WT_sgAB_branch</v>
+        <v>WT_sgAB_R2_branch</v>
       </c>
       <c r="I10" t="str">
         <f ca="1">OFFSET('1'!$I$1, 4 * (A10 - 1)  + ($I$2), 0)</f>
@@ -6738,7 +6732,7 @@
       </c>
       <c r="Q10" t="str">
         <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", I10, ".tsv ", dirs!$A$2, "/", K10, ".tsv ", dirs!$A$2, "/", M10, ".tsv ", dirs!$A$2, "/", O10, ".tsv --total_reads ", J10, " ", L10, " ", N10, " ", P10, " -o ", dirs!$A$3, "/", H10, ".tsv", " --quiet ")</f>
-        <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl221_WT_sgAB_R2_branch.tsv libraries_2/yjl222_WT_sgAB_R2_branch.tsv libraries_2/yjl223_WT_sgAB_R2_branch.tsv libraries_2/yjl224_WT_sgAB_R2_branch.tsv --total_reads 96 97 98 99 -o libraries_3/WT_sgAB_branch.tsv --quiet </v>
+        <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl221_WT_sgAB_R2_branch.tsv libraries_2/yjl222_WT_sgAB_R2_branch.tsv libraries_2/yjl223_WT_sgAB_R2_branch.tsv libraries_2/yjl224_WT_sgAB_R2_branch.tsv --total_reads 96 97 98 99 -o libraries_3/WT_sgAB_R2_branch.tsv --quiet </v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -6771,7 +6765,7 @@
       </c>
       <c r="H11" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>WT_sgAB_cmv</v>
+        <v>WT_sgAB_R2_cmv</v>
       </c>
       <c r="I11" t="str">
         <f ca="1">OFFSET('1'!$I$1, 4 * (A11 - 1)  + ($I$2), 0)</f>
@@ -6807,7 +6801,7 @@
       </c>
       <c r="Q11" t="str">
         <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", I11, ".tsv ", dirs!$A$2, "/", K11, ".tsv ", dirs!$A$2, "/", M11, ".tsv ", dirs!$A$2, "/", O11, ".tsv --total_reads ", J11, " ", L11, " ", N11, " ", P11, " -o ", dirs!$A$3, "/", H11, ".tsv", " --quiet ")</f>
-        <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl225_WT_sgAB_R2_cmv.tsv libraries_2/yjl226_WT_sgAB_R2_cmv.tsv libraries_2/yjl227_WT_sgAB_R2_cmv.tsv libraries_2/yjl228_WT_sgAB_R2_cmv.tsv --total_reads 96 97 98 99 -o libraries_3/WT_sgAB_cmv.tsv --quiet </v>
+        <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl225_WT_sgAB_R2_cmv.tsv libraries_2/yjl226_WT_sgAB_R2_cmv.tsv libraries_2/yjl227_WT_sgAB_R2_cmv.tsv libraries_2/yjl228_WT_sgAB_R2_cmv.tsv --total_reads 96 97 98 99 -o libraries_3/WT_sgAB_R2_cmv.tsv --quiet </v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -6840,7 +6834,7 @@
       </c>
       <c r="H12" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>KO_sgAB_sense</v>
+        <v>KO_sgAB_R2_sense</v>
       </c>
       <c r="I12" t="str">
         <f ca="1">OFFSET('1'!$I$1, 4 * (A12 - 1)  + ($I$2), 0)</f>
@@ -6876,7 +6870,7 @@
       </c>
       <c r="Q12" t="str">
         <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", I12, ".tsv ", dirs!$A$2, "/", K12, ".tsv ", dirs!$A$2, "/", M12, ".tsv ", dirs!$A$2, "/", O12, ".tsv --total_reads ", J12, " ", L12, " ", N12, " ", P12, " -o ", dirs!$A$3, "/", H12, ".tsv", " --quiet ")</f>
-        <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl229_KO_sgAB_R2_sense.tsv libraries_2/yjl230_KO_sgAB_R2_sense.tsv libraries_2/yjl231_KO_sgAB_R2_sense.tsv libraries_2/yjl232_KO_sgAB_R2_sense.tsv --total_reads 96 97 98 99 -o libraries_3/KO_sgAB_sense.tsv --quiet </v>
+        <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl229_KO_sgAB_R2_sense.tsv libraries_2/yjl230_KO_sgAB_R2_sense.tsv libraries_2/yjl231_KO_sgAB_R2_sense.tsv libraries_2/yjl232_KO_sgAB_R2_sense.tsv --total_reads 96 97 98 99 -o libraries_3/KO_sgAB_R2_sense.tsv --quiet </v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -6909,7 +6903,7 @@
       </c>
       <c r="H13" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>KO_sgAB_branch</v>
+        <v>KO_sgAB_R2_branch</v>
       </c>
       <c r="I13" t="str">
         <f ca="1">OFFSET('1'!$I$1, 4 * (A13 - 1)  + ($I$2), 0)</f>
@@ -6945,7 +6939,7 @@
       </c>
       <c r="Q13" t="str">
         <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", I13, ".tsv ", dirs!$A$2, "/", K13, ".tsv ", dirs!$A$2, "/", M13, ".tsv ", dirs!$A$2, "/", O13, ".tsv --total_reads ", J13, " ", L13, " ", N13, " ", P13, " -o ", dirs!$A$3, "/", H13, ".tsv", " --quiet ")</f>
-        <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl233_KO_sgAB_R2_branch.tsv libraries_2/yjl234_KO_sgAB_R2_branch.tsv libraries_2/yjl235_KO_sgAB_R2_branch.tsv libraries_2/yjl236_KO_sgAB_R2_branch.tsv --total_reads 96 97 98 99 -o libraries_3/KO_sgAB_branch.tsv --quiet </v>
+        <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl233_KO_sgAB_R2_branch.tsv libraries_2/yjl234_KO_sgAB_R2_branch.tsv libraries_2/yjl235_KO_sgAB_R2_branch.tsv libraries_2/yjl236_KO_sgAB_R2_branch.tsv --total_reads 96 97 98 99 -o libraries_3/KO_sgAB_R2_branch.tsv --quiet </v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -6978,7 +6972,7 @@
       </c>
       <c r="H14" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>KO_sgAB_cmv</v>
+        <v>KO_sgAB_R2_cmv</v>
       </c>
       <c r="I14" t="str">
         <f ca="1">OFFSET('1'!$I$1, 4 * (A14 - 1)  + ($I$2), 0)</f>
@@ -7014,7 +7008,7 @@
       </c>
       <c r="Q14" t="str">
         <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", I14, ".tsv ", dirs!$A$2, "/", K14, ".tsv ", dirs!$A$2, "/", M14, ".tsv ", dirs!$A$2, "/", O14, ".tsv --total_reads ", J14, " ", L14, " ", N14, " ", P14, " -o ", dirs!$A$3, "/", H14, ".tsv", " --quiet ")</f>
-        <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl237_KO_sgAB_R2_cmv.tsv libraries_2/yjl238_KO_sgAB_R2_cmv.tsv libraries_2/yjl239_KO_sgAB_R2_cmv.tsv libraries_2/yjl240_KO_sgAB_R2_cmv.tsv --total_reads 96 97 98 99 -o libraries_3/KO_sgAB_cmv.tsv --quiet </v>
+        <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl237_KO_sgAB_R2_cmv.tsv libraries_2/yjl238_KO_sgAB_R2_cmv.tsv libraries_2/yjl239_KO_sgAB_R2_cmv.tsv libraries_2/yjl240_KO_sgAB_R2_cmv.tsv --total_reads 96 97 98 99 -o libraries_3/KO_sgAB_R2_cmv.tsv --quiet </v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -7047,7 +7041,7 @@
       </c>
       <c r="H15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>WT_sgA_sense</v>
+        <v>WT_sgA_R1_sense</v>
       </c>
       <c r="I15" t="str">
         <f ca="1">OFFSET('1'!$I$1, 4 * (A15 - 1)  + ($I$2), 0)</f>
@@ -7083,7 +7077,7 @@
       </c>
       <c r="Q15" t="str">
         <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", I15, ".tsv ", dirs!$A$2, "/", K15, ".tsv ", dirs!$A$2, "/", M15, ".tsv ", dirs!$A$2, "/", O15, ".tsv --total_reads ", J15, " ", L15, " ", N15, " ", P15, " -o ", dirs!$A$3, "/", H15, ".tsv", " --quiet ")</f>
-        <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl255_WT_sgA_R1_sense.tsv libraries_2/yjl256_WT_sgA_R1_sense.tsv libraries_2/yjl257_WT_sgA_R1_sense.tsv libraries_2/yjl258_WT_sgA_R1_sense.tsv --total_reads 96 97 98 99 -o libraries_3/WT_sgA_sense.tsv --quiet </v>
+        <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl255_WT_sgA_R1_sense.tsv libraries_2/yjl256_WT_sgA_R1_sense.tsv libraries_2/yjl257_WT_sgA_R1_sense.tsv libraries_2/yjl258_WT_sgA_R1_sense.tsv --total_reads 96 97 98 99 -o libraries_3/WT_sgA_R1_sense.tsv --quiet </v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -7116,7 +7110,7 @@
       </c>
       <c r="H16" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>WT_sgA_branch</v>
+        <v>WT_sgA_R1_branch</v>
       </c>
       <c r="I16" t="str">
         <f ca="1">OFFSET('1'!$I$1, 4 * (A16 - 1)  + ($I$2), 0)</f>
@@ -7152,7 +7146,7 @@
       </c>
       <c r="Q16" t="str">
         <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", I16, ".tsv ", dirs!$A$2, "/", K16, ".tsv ", dirs!$A$2, "/", M16, ".tsv ", dirs!$A$2, "/", O16, ".tsv --total_reads ", J16, " ", L16, " ", N16, " ", P16, " -o ", dirs!$A$3, "/", H16, ".tsv", " --quiet ")</f>
-        <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl259_WT_sgA_R1_branch.tsv libraries_2/yjl260_WT_sgA_R1_branch.tsv libraries_2/yjl261_WT_sgA_R1_branch.tsv libraries_2/yjl262_WT_sgA_R1_branch.tsv --total_reads 96 97 98 99 -o libraries_3/WT_sgA_branch.tsv --quiet </v>
+        <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl259_WT_sgA_R1_branch.tsv libraries_2/yjl260_WT_sgA_R1_branch.tsv libraries_2/yjl261_WT_sgA_R1_branch.tsv libraries_2/yjl262_WT_sgA_R1_branch.tsv --total_reads 96 97 98 99 -o libraries_3/WT_sgA_R1_branch.tsv --quiet </v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -7185,7 +7179,7 @@
       </c>
       <c r="H17" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>WT_sgA_cmv</v>
+        <v>WT_sgA_R1_cmv</v>
       </c>
       <c r="I17" t="str">
         <f ca="1">OFFSET('1'!$I$1, 4 * (A17 - 1)  + ($I$2), 0)</f>
@@ -7221,7 +7215,7 @@
       </c>
       <c r="Q17" t="str">
         <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", I17, ".tsv ", dirs!$A$2, "/", K17, ".tsv ", dirs!$A$2, "/", M17, ".tsv ", dirs!$A$2, "/", O17, ".tsv --total_reads ", J17, " ", L17, " ", N17, " ", P17, " -o ", dirs!$A$3, "/", H17, ".tsv", " --quiet ")</f>
-        <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl263_WT_sgA_R1_cmv.tsv libraries_2/yjl264_WT_sgA_R1_cmv.tsv libraries_2/yjl265_WT_sgA_R1_cmv.tsv libraries_2/yjl266_WT_sgA_R1_cmv.tsv --total_reads 96 97 98 99 -o libraries_3/WT_sgA_cmv.tsv --quiet </v>
+        <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl263_WT_sgA_R1_cmv.tsv libraries_2/yjl264_WT_sgA_R1_cmv.tsv libraries_2/yjl265_WT_sgA_R1_cmv.tsv libraries_2/yjl266_WT_sgA_R1_cmv.tsv --total_reads 96 97 98 99 -o libraries_3/WT_sgA_R1_cmv.tsv --quiet </v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
@@ -7254,7 +7248,7 @@
       </c>
       <c r="H18" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>WT_sgB_sense</v>
+        <v>WT_sgB_R2_sense</v>
       </c>
       <c r="I18" t="str">
         <f ca="1">OFFSET('1'!$I$1, 4 * (A18 - 1)  + ($I$2), 0)</f>
@@ -7290,7 +7284,7 @@
       </c>
       <c r="Q18" t="str">
         <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", I18, ".tsv ", dirs!$A$2, "/", K18, ".tsv ", dirs!$A$2, "/", M18, ".tsv ", dirs!$A$2, "/", O18, ".tsv --total_reads ", J18, " ", L18, " ", N18, " ", P18, " -o ", dirs!$A$3, "/", H18, ".tsv", " --quiet ")</f>
-        <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl267_WT_sgB_R2_sense.tsv libraries_2/yjl268_WT_sgB_R2_sense.tsv libraries_2/yjl269_WT_sgB_R2_sense.tsv libraries_2/yjl270_WT_sgB_R2_sense.tsv --total_reads 96 97 98 99 -o libraries_3/WT_sgB_sense.tsv --quiet </v>
+        <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl267_WT_sgB_R2_sense.tsv libraries_2/yjl268_WT_sgB_R2_sense.tsv libraries_2/yjl269_WT_sgB_R2_sense.tsv libraries_2/yjl270_WT_sgB_R2_sense.tsv --total_reads 96 97 98 99 -o libraries_3/WT_sgB_R2_sense.tsv --quiet </v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
@@ -7323,7 +7317,7 @@
       </c>
       <c r="H19" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>WT_sgB_branch</v>
+        <v>WT_sgB_R2_branch</v>
       </c>
       <c r="I19" t="str">
         <f ca="1">OFFSET('1'!$I$1, 4 * (A19 - 1)  + ($I$2), 0)</f>
@@ -7359,7 +7353,7 @@
       </c>
       <c r="Q19" t="str">
         <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", I19, ".tsv ", dirs!$A$2, "/", K19, ".tsv ", dirs!$A$2, "/", M19, ".tsv ", dirs!$A$2, "/", O19, ".tsv --total_reads ", J19, " ", L19, " ", N19, " ", P19, " -o ", dirs!$A$3, "/", H19, ".tsv", " --quiet ")</f>
-        <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl271_WT_sgB_R2_branch.tsv libraries_2/yjl272_WT_sgB_R2_branch.tsv libraries_2/yjl273_WT_sgB_R2_branch.tsv libraries_2/yjl274_WT_sgB_R2_branch.tsv --total_reads 96 97 98 99 -o libraries_3/WT_sgB_branch.tsv --quiet </v>
+        <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl271_WT_sgB_R2_branch.tsv libraries_2/yjl272_WT_sgB_R2_branch.tsv libraries_2/yjl273_WT_sgB_R2_branch.tsv libraries_2/yjl274_WT_sgB_R2_branch.tsv --total_reads 96 97 98 99 -o libraries_3/WT_sgB_R2_branch.tsv --quiet </v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
@@ -7392,7 +7386,7 @@
       </c>
       <c r="H20" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>WT_sgB_cmv</v>
+        <v>WT_sgB_R2_cmv</v>
       </c>
       <c r="I20" t="str">
         <f ca="1">OFFSET('1'!$I$1, 4 * (A20 - 1)  + ($I$2), 0)</f>
@@ -7428,7 +7422,7 @@
       </c>
       <c r="Q20" t="str">
         <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", I20, ".tsv ", dirs!$A$2, "/", K20, ".tsv ", dirs!$A$2, "/", M20, ".tsv ", dirs!$A$2, "/", O20, ".tsv --total_reads ", J20, " ", L20, " ", N20, " ", P20, " -o ", dirs!$A$3, "/", H20, ".tsv", " --quiet ")</f>
-        <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl275_WT_sgB_R2_cmv.tsv libraries_2/yjl276_WT_sgB_R2_cmv.tsv libraries_2/yjl277_WT_sgB_R2_cmv.tsv libraries_2/yjl278_WT_sgB_R2_cmv.tsv --total_reads 96 97 98 99 -o libraries_3/WT_sgB_cmv.tsv --quiet </v>
+        <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl275_WT_sgB_R2_cmv.tsv libraries_2/yjl276_WT_sgB_R2_cmv.tsv libraries_2/yjl277_WT_sgB_R2_cmv.tsv libraries_2/yjl278_WT_sgB_R2_cmv.tsv --total_reads 96 97 98 99 -o libraries_3/WT_sgB_R2_cmv.tsv --quiet </v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
@@ -7461,7 +7455,7 @@
       </c>
       <c r="H21" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>KO_sgA_sense</v>
+        <v>KO_sgA_R1_sense</v>
       </c>
       <c r="I21" t="str">
         <f ca="1">OFFSET('1'!$I$1, 4 * (A21 - 1)  + ($I$2), 0)</f>
@@ -7497,7 +7491,7 @@
       </c>
       <c r="Q21" t="str">
         <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", I21, ".tsv ", dirs!$A$2, "/", K21, ".tsv ", dirs!$A$2, "/", M21, ".tsv ", dirs!$A$2, "/", O21, ".tsv --total_reads ", J21, " ", L21, " ", N21, " ", P21, " -o ", dirs!$A$3, "/", H21, ".tsv", " --quiet ")</f>
-        <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl292_KO_sgA_R1_sense.tsv libraries_2/yjl293_KO_sgA_R1_sense.tsv libraries_2/yjl294_KO_sgA_R1_sense.tsv libraries_2/yjl295_KO_sgA_R1_sense.tsv --total_reads 96 97 98 99 -o libraries_3/KO_sgA_sense.tsv --quiet </v>
+        <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl292_KO_sgA_R1_sense.tsv libraries_2/yjl293_KO_sgA_R1_sense.tsv libraries_2/yjl294_KO_sgA_R1_sense.tsv libraries_2/yjl295_KO_sgA_R1_sense.tsv --total_reads 96 97 98 99 -o libraries_3/KO_sgA_R1_sense.tsv --quiet </v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
@@ -7530,7 +7524,7 @@
       </c>
       <c r="H22" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>KO_sgA_branch</v>
+        <v>KO_sgA_R1_branch</v>
       </c>
       <c r="I22" t="str">
         <f ca="1">OFFSET('1'!$I$1, 4 * (A22 - 1)  + ($I$2), 0)</f>
@@ -7566,7 +7560,7 @@
       </c>
       <c r="Q22" t="str">
         <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", I22, ".tsv ", dirs!$A$2, "/", K22, ".tsv ", dirs!$A$2, "/", M22, ".tsv ", dirs!$A$2, "/", O22, ".tsv --total_reads ", J22, " ", L22, " ", N22, " ", P22, " -o ", dirs!$A$3, "/", H22, ".tsv", " --quiet ")</f>
-        <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl296_KO_sgA_R1_branch.tsv libraries_2/yjl297_KO_sgA_R1_branch.tsv libraries_2/yjl298_KO_sgA_R1_branch.tsv libraries_2/yjl299_KO_sgA_R1_branch.tsv --total_reads 96 97 98 99 -o libraries_3/KO_sgA_branch.tsv --quiet </v>
+        <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl296_KO_sgA_R1_branch.tsv libraries_2/yjl297_KO_sgA_R1_branch.tsv libraries_2/yjl298_KO_sgA_R1_branch.tsv libraries_2/yjl299_KO_sgA_R1_branch.tsv --total_reads 96 97 98 99 -o libraries_3/KO_sgA_R1_branch.tsv --quiet </v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
@@ -7599,7 +7593,7 @@
       </c>
       <c r="H23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>KO_sgA_cmv</v>
+        <v>KO_sgA_R1_cmv</v>
       </c>
       <c r="I23" t="str">
         <f ca="1">OFFSET('1'!$I$1, 4 * (A23 - 1)  + ($I$2), 0)</f>
@@ -7635,7 +7629,7 @@
       </c>
       <c r="Q23" t="str">
         <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", I23, ".tsv ", dirs!$A$2, "/", K23, ".tsv ", dirs!$A$2, "/", M23, ".tsv ", dirs!$A$2, "/", O23, ".tsv --total_reads ", J23, " ", L23, " ", N23, " ", P23, " -o ", dirs!$A$3, "/", H23, ".tsv", " --quiet ")</f>
-        <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl300_KO_sgA_R1_cmv.tsv libraries_2/yjl301_KO_sgA_R1_cmv.tsv libraries_2/yjl302_KO_sgA_R1_cmv.tsv libraries_2/yjl303_KO_sgA_R1_cmv.tsv --total_reads 96 97 98 99 -o libraries_3/KO_sgA_cmv.tsv --quiet </v>
+        <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl300_KO_sgA_R1_cmv.tsv libraries_2/yjl301_KO_sgA_R1_cmv.tsv libraries_2/yjl302_KO_sgA_R1_cmv.tsv libraries_2/yjl303_KO_sgA_R1_cmv.tsv --total_reads 96 97 98 99 -o libraries_3/KO_sgA_R1_cmv.tsv --quiet </v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
@@ -7668,7 +7662,7 @@
       </c>
       <c r="H24" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>KO_sgB_sense</v>
+        <v>KO_sgB_R2_sense</v>
       </c>
       <c r="I24" t="str">
         <f ca="1">OFFSET('1'!$I$1, 4 * (A24 - 1)  + ($I$2), 0)</f>
@@ -7704,7 +7698,7 @@
       </c>
       <c r="Q24" t="str">
         <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", I24, ".tsv ", dirs!$A$2, "/", K24, ".tsv ", dirs!$A$2, "/", M24, ".tsv ", dirs!$A$2, "/", O24, ".tsv --total_reads ", J24, " ", L24, " ", N24, " ", P24, " -o ", dirs!$A$3, "/", H24, ".tsv", " --quiet ")</f>
-        <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl304_KO_sgB_R2_sense.tsv libraries_2/yjl305_KO_sgB_R2_sense.tsv libraries_2/yjl306_KO_sgB_R2_sense.tsv libraries_2/yjl307_KO_sgB_R2_sense.tsv --total_reads 96 97 98 99 -o libraries_3/KO_sgB_sense.tsv --quiet </v>
+        <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl304_KO_sgB_R2_sense.tsv libraries_2/yjl305_KO_sgB_R2_sense.tsv libraries_2/yjl306_KO_sgB_R2_sense.tsv libraries_2/yjl307_KO_sgB_R2_sense.tsv --total_reads 96 97 98 99 -o libraries_3/KO_sgB_R2_sense.tsv --quiet </v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
@@ -7737,7 +7731,7 @@
       </c>
       <c r="H25" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>KO_sgB_branch</v>
+        <v>KO_sgB_R2_branch</v>
       </c>
       <c r="I25" t="str">
         <f ca="1">OFFSET('1'!$I$1, 4 * (A25 - 1)  + ($I$2), 0)</f>
@@ -7773,7 +7767,7 @@
       </c>
       <c r="Q25" t="str">
         <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", I25, ".tsv ", dirs!$A$2, "/", K25, ".tsv ", dirs!$A$2, "/", M25, ".tsv ", dirs!$A$2, "/", O25, ".tsv --total_reads ", J25, " ", L25, " ", N25, " ", P25, " -o ", dirs!$A$3, "/", H25, ".tsv", " --quiet ")</f>
-        <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl308_KO_sgB_R2_branch.tsv libraries_2/yjl309_KO_sgB_R2_branch.tsv libraries_2/yjl310_KO_sgB_R2_branch.tsv libraries_2/yjl311_KO_sgB_R2_branch.tsv --total_reads 96 97 98 99 -o libraries_3/KO_sgB_branch.tsv --quiet </v>
+        <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl308_KO_sgB_R2_branch.tsv libraries_2/yjl309_KO_sgB_R2_branch.tsv libraries_2/yjl310_KO_sgB_R2_branch.tsv libraries_2/yjl311_KO_sgB_R2_branch.tsv --total_reads 96 97 98 99 -o libraries_3/KO_sgB_R2_branch.tsv --quiet </v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
@@ -7806,7 +7800,7 @@
       </c>
       <c r="H26" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>KO_sgB_cmv</v>
+        <v>KO_sgB_R2_cmv</v>
       </c>
       <c r="I26" t="str">
         <f ca="1">OFFSET('1'!$I$1, 4 * (A26 - 1)  + ($I$2), 0)</f>
@@ -7842,7 +7836,7 @@
       </c>
       <c r="Q26" t="str">
         <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", I26, ".tsv ", dirs!$A$2, "/", K26, ".tsv ", dirs!$A$2, "/", M26, ".tsv ", dirs!$A$2, "/", O26, ".tsv --total_reads ", J26, " ", L26, " ", N26, " ", P26, " -o ", dirs!$A$3, "/", H26, ".tsv", " --quiet ")</f>
-        <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl312_KO_sgB_R2_cmv.tsv libraries_2/yjl313_KO_sgB_R2_cmv.tsv libraries_2/yjl314_KO_sgB_R2_cmv.tsv libraries_2/yjl315_KO_sgB_R2_cmv.tsv --total_reads 96 97 98 99 -o libraries_3/KO_sgB_cmv.tsv --quiet </v>
+        <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl312_KO_sgB_R2_cmv.tsv libraries_2/yjl313_KO_sgB_R2_cmv.tsv libraries_2/yjl314_KO_sgB_R2_cmv.tsv libraries_2/yjl315_KO_sgB_R2_cmv.tsv --total_reads 96 97 98 99 -o libraries_3/KO_sgB_R2_cmv.tsv --quiet </v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
@@ -7875,7 +7869,7 @@
       </c>
       <c r="H27" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>WT_sgCD_antisense</v>
+        <v>WT_sgCD_R1_antisense</v>
       </c>
       <c r="I27" t="str">
         <f ca="1">OFFSET('1'!$I$1, 4 * (A27 - 1)  + ($I$2), 0)</f>
@@ -7911,7 +7905,7 @@
       </c>
       <c r="Q27" t="str">
         <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", I27, ".tsv ", dirs!$A$2, "/", K27, ".tsv ", dirs!$A$2, "/", M27, ".tsv ", dirs!$A$2, "/", O27, ".tsv --total_reads ", J27, " ", L27, " ", N27, " ", P27, " -o ", dirs!$A$3, "/", H27, ".tsv", " --quiet ")</f>
-        <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl89_WT_sgCD_R1_antisense.tsv libraries_2/yjl90_WT_sgCD_R1_antisense.tsv libraries_2/yjl91_WT_sgCD_R1_antisense.tsv libraries_2/yjl92_WT_sgCD_R1_antisense.tsv --total_reads 96 97 98 99 -o libraries_3/WT_sgCD_antisense.tsv --quiet </v>
+        <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl89_WT_sgCD_R1_antisense.tsv libraries_2/yjl90_WT_sgCD_R1_antisense.tsv libraries_2/yjl91_WT_sgCD_R1_antisense.tsv libraries_2/yjl92_WT_sgCD_R1_antisense.tsv --total_reads 96 97 98 99 -o libraries_3/WT_sgCD_R1_antisense.tsv --quiet </v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
@@ -7944,7 +7938,7 @@
       </c>
       <c r="H28" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>WT_sgCD_splicing</v>
+        <v>WT_sgCD_R1_splicing</v>
       </c>
       <c r="I28" t="str">
         <f ca="1">OFFSET('1'!$I$1, 4 * (A28 - 1)  + ($I$2), 0)</f>
@@ -7980,7 +7974,7 @@
       </c>
       <c r="Q28" t="str">
         <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", I28, ".tsv ", dirs!$A$2, "/", K28, ".tsv ", dirs!$A$2, "/", M28, ".tsv ", dirs!$A$2, "/", O28, ".tsv --total_reads ", J28, " ", L28, " ", N28, " ", P28, " -o ", dirs!$A$3, "/", H28, ".tsv", " --quiet ")</f>
-        <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl93_WT_sgCD_R1_splicing.tsv libraries_2/yjl94_WT_sgCD_R1_splicing.tsv libraries_2/yjl95_WT_sgCD_R1_splicing.tsv libraries_2/yjl96_WT_sgCD_R1_splicing.tsv --total_reads 96 97 98 99 -o libraries_3/WT_sgCD_splicing.tsv --quiet </v>
+        <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl93_WT_sgCD_R1_splicing.tsv libraries_2/yjl94_WT_sgCD_R1_splicing.tsv libraries_2/yjl95_WT_sgCD_R1_splicing.tsv libraries_2/yjl96_WT_sgCD_R1_splicing.tsv --total_reads 96 97 98 99 -o libraries_3/WT_sgCD_R1_splicing.tsv --quiet </v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
@@ -8013,7 +8007,7 @@
       </c>
       <c r="H29" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>WT_sgCD_antisense</v>
+        <v>WT_sgCD_R2_antisense</v>
       </c>
       <c r="I29" t="str">
         <f ca="1">OFFSET('1'!$I$1, 4 * (A29 - 1)  + ($I$2), 0)</f>
@@ -8049,7 +8043,7 @@
       </c>
       <c r="Q29" t="str">
         <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", I29, ".tsv ", dirs!$A$2, "/", K29, ".tsv ", dirs!$A$2, "/", M29, ".tsv ", dirs!$A$2, "/", O29, ".tsv --total_reads ", J29, " ", L29, " ", N29, " ", P29, " -o ", dirs!$A$3, "/", H29, ".tsv", " --quiet ")</f>
-        <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl89_WT_sgCD_R2_antisense.tsv libraries_2/yjl90_WT_sgCD_R2_antisense.tsv libraries_2/yjl91_WT_sgCD_R2_antisense.tsv libraries_2/yjl92_WT_sgCD_R2_antisense.tsv --total_reads 96 97 98 99 -o libraries_3/WT_sgCD_antisense.tsv --quiet </v>
+        <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl89_WT_sgCD_R2_antisense.tsv libraries_2/yjl90_WT_sgCD_R2_antisense.tsv libraries_2/yjl91_WT_sgCD_R2_antisense.tsv libraries_2/yjl92_WT_sgCD_R2_antisense.tsv --total_reads 96 97 98 99 -o libraries_3/WT_sgCD_R2_antisense.tsv --quiet </v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
@@ -8082,7 +8076,7 @@
       </c>
       <c r="H30" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>WT_sgCD_splicing</v>
+        <v>WT_sgCD_R2_splicing</v>
       </c>
       <c r="I30" t="str">
         <f ca="1">OFFSET('1'!$I$1, 4 * (A30 - 1)  + ($I$2), 0)</f>
@@ -8118,7 +8112,7 @@
       </c>
       <c r="Q30" t="str">
         <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", I30, ".tsv ", dirs!$A$2, "/", K30, ".tsv ", dirs!$A$2, "/", M30, ".tsv ", dirs!$A$2, "/", O30, ".tsv --total_reads ", J30, " ", L30, " ", N30, " ", P30, " -o ", dirs!$A$3, "/", H30, ".tsv", " --quiet ")</f>
-        <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl93_WT_sgCD_R2_splicing.tsv libraries_2/yjl94_WT_sgCD_R2_splicing.tsv libraries_2/yjl95_WT_sgCD_R2_splicing.tsv libraries_2/yjl96_WT_sgCD_R2_splicing.tsv --total_reads 96 97 98 99 -o libraries_3/WT_sgCD_splicing.tsv --quiet </v>
+        <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl93_WT_sgCD_R2_splicing.tsv libraries_2/yjl94_WT_sgCD_R2_splicing.tsv libraries_2/yjl95_WT_sgCD_R2_splicing.tsv libraries_2/yjl96_WT_sgCD_R2_splicing.tsv --total_reads 96 97 98 99 -o libraries_3/WT_sgCD_R2_splicing.tsv --quiet </v>
       </c>
     </row>
   </sheetData>
@@ -8128,10 +8122,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7FB6E33-93C4-4971-BF44-23A0F65AADA0}">
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:L1"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8139,54 +8133,50 @@
     <col min="1" max="1" width="31.140625" customWidth="1"/>
     <col min="2" max="2" width="31.28515625" customWidth="1"/>
     <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1"/>
-    <col min="9" max="10" width="11.85546875" customWidth="1"/>
-    <col min="11" max="11" width="50.7109375" customWidth="1"/>
-    <col min="12" max="12" width="51" customWidth="1"/>
+    <col min="8" max="9" width="11.85546875" customWidth="1"/>
+    <col min="10" max="10" width="50.85546875" customWidth="1"/>
+    <col min="11" max="11" width="51" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="J1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f ca="1">'2'!H3</f>
-        <v>WT_sgAB_sense</v>
+        <v>WT_sgAB_R1_sense</v>
       </c>
       <c r="B2" t="str">
         <f ca="1">'2'!B3</f>
@@ -8200,41 +8190,38 @@
         <f ca="1">IF('2'!G3="2DSB", 2, 1)</f>
         <v>1</v>
       </c>
-      <c r="E2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F2" t="str">
+      <c r="E2" t="str">
         <f ca="1">'2'!E3</f>
         <v>R1</v>
       </c>
+      <c r="F2" t="str">
+        <f ca="1">MID('2'!G3, 3, 100)</f>
+        <v>AB</v>
+      </c>
       <c r="G2" t="str">
-        <f ca="1">'2'!G3</f>
-        <v>sgAB</v>
-      </c>
-      <c r="H2" t="str">
         <f ca="1">'2'!D3</f>
         <v>WT</v>
       </c>
-      <c r="I2" t="str">
+      <c r="H2" t="str">
         <f ca="1">'2'!F3</f>
         <v>sense</v>
       </c>
-      <c r="J2" t="s">
-        <v>113</v>
+      <c r="I2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J2" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/", '3'!A2, ".tsv -o ", dirs!$A$4, "/", A2, " -ref ref_seq/", B2, " -dsb ", C2, " --dsb_type ", D2, " --strand ", E2, " --hguide ", F2, " --cell ", G2, " --treatment ", H2, " --subst_type ", I2)</f>
+        <v>python 2_graph_processing/make_main_data.py -in libraries_3/WT_sgAB_R1_sense.tsv -o libraries_4/WT_sgAB_R1_sense -ref ref_seq/2DSB_R1_sense.fa -dsb 67 --dsb_type 1 --strand R1 --hguide AB --cell WT --treatment sense --subst_type without</v>
       </c>
       <c r="K2" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/", '3'!A2, ".tsv -o ", dirs!$A$4, "/", A2, " -ref ref_seq/", B2, " -dsb ", C2, " --dsb_type ", D2, " --format ", E2, " --strand ", F2, " --hguide ", G2, " --cell ", H2, " --treatments ", I2, " --subst_type ", J2)</f>
-        <v>python 2_graph_processing/make_main_data.py -in libraries_3/WT_sgAB_sense.tsv -o libraries_4/WT_sgAB_sense -ref ref_seq/2DSB_R1_sense.fa -dsb 67 --dsb_type 1 --format individual --strand R1 --hguide sgAB --cell WT --treatments sense --subst_type without</v>
-      </c>
-      <c r="L2" t="str">
         <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without ",  " -dir ", dirs!$A$4, "/", '3'!A2)</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/WT_sgAB_sense</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/WT_sgAB_R1_sense</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f ca="1">'2'!H4</f>
-        <v>WT_sgAB_branch</v>
+        <v>WT_sgAB_R1_branch</v>
       </c>
       <c r="B3" t="str">
         <f ca="1">'2'!B4</f>
@@ -8248,41 +8235,38 @@
         <f ca="1">IF('2'!G4="2DSB", 2, 1)</f>
         <v>1</v>
       </c>
-      <c r="E3" t="s">
-        <v>108</v>
-      </c>
-      <c r="F3" t="str">
+      <c r="E3" t="str">
         <f ca="1">'2'!E4</f>
         <v>R1</v>
       </c>
+      <c r="F3" t="str">
+        <f ca="1">MID('2'!G4, 3, 100)</f>
+        <v>AB</v>
+      </c>
       <c r="G3" t="str">
-        <f ca="1">'2'!G4</f>
-        <v>sgAB</v>
-      </c>
-      <c r="H3" t="str">
         <f ca="1">'2'!D4</f>
         <v>WT</v>
       </c>
-      <c r="I3" t="str">
+      <c r="H3" t="str">
         <f ca="1">'2'!F4</f>
         <v>branch</v>
       </c>
-      <c r="J3" t="s">
-        <v>113</v>
+      <c r="I3" t="s">
+        <v>110</v>
+      </c>
+      <c r="J3" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/", '3'!A3, ".tsv -o ", dirs!$A$4, "/", A3, " -ref ref_seq/", B3, " -dsb ", C3, " --dsb_type ", D3, " --strand ", E3, " --hguide ", F3, " --cell ", G3, " --treatment ", H3, " --subst_type ", I3)</f>
+        <v>python 2_graph_processing/make_main_data.py -in libraries_3/WT_sgAB_R1_branch.tsv -o libraries_4/WT_sgAB_R1_branch -ref ref_seq/2DSB_R1_branch.fa -dsb 67 --dsb_type 1 --strand R1 --hguide AB --cell WT --treatment branch --subst_type without</v>
       </c>
       <c r="K3" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/", '3'!A3, ".tsv -o ", dirs!$A$4, "/", A3, " -ref ref_seq/", B3, " -dsb ", C3, " --dsb_type ", D3, " --format ", E3, " --strand ", F3, " --hguide ", G3, " --cell ", H3, " --treatments ", I3, " --subst_type ", J3)</f>
-        <v>python 2_graph_processing/make_main_data.py -in libraries_3/WT_sgAB_branch.tsv -o libraries_4/WT_sgAB_branch -ref ref_seq/2DSB_R1_branch.fa -dsb 67 --dsb_type 1 --format individual --strand R1 --hguide sgAB --cell WT --treatments branch --subst_type without</v>
-      </c>
-      <c r="L3" t="str">
         <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without ",  " -dir ", dirs!$A$4, "/", '3'!A3)</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/WT_sgAB_branch</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/WT_sgAB_R1_branch</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f ca="1">'2'!H5</f>
-        <v>WT_sgAB_cmv</v>
+        <v>WT_sgAB_R1_cmv</v>
       </c>
       <c r="B4" t="str">
         <f ca="1">'2'!B5</f>
@@ -8296,41 +8280,38 @@
         <f ca="1">IF('2'!G5="2DSB", 2, 1)</f>
         <v>1</v>
       </c>
-      <c r="E4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F4" t="str">
+      <c r="E4" t="str">
         <f ca="1">'2'!E5</f>
         <v>R1</v>
       </c>
+      <c r="F4" t="str">
+        <f ca="1">MID('2'!G5, 3, 100)</f>
+        <v>AB</v>
+      </c>
       <c r="G4" t="str">
-        <f ca="1">'2'!G5</f>
-        <v>sgAB</v>
-      </c>
-      <c r="H4" t="str">
         <f ca="1">'2'!D5</f>
         <v>WT</v>
       </c>
-      <c r="I4" t="str">
+      <c r="H4" t="str">
         <f ca="1">'2'!F5</f>
         <v>cmv</v>
       </c>
-      <c r="J4" t="s">
-        <v>113</v>
+      <c r="I4" t="s">
+        <v>110</v>
+      </c>
+      <c r="J4" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/", '3'!A4, ".tsv -o ", dirs!$A$4, "/", A4, " -ref ref_seq/", B4, " -dsb ", C4, " --dsb_type ", D4, " --strand ", E4, " --hguide ", F4, " --cell ", G4, " --treatment ", H4, " --subst_type ", I4)</f>
+        <v>python 2_graph_processing/make_main_data.py -in libraries_3/WT_sgAB_R1_cmv.tsv -o libraries_4/WT_sgAB_R1_cmv -ref ref_seq/2DSB_R1_cmv.fa -dsb 67 --dsb_type 1 --strand R1 --hguide AB --cell WT --treatment cmv --subst_type without</v>
       </c>
       <c r="K4" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/", '3'!A4, ".tsv -o ", dirs!$A$4, "/", A4, " -ref ref_seq/", B4, " -dsb ", C4, " --dsb_type ", D4, " --format ", E4, " --strand ", F4, " --hguide ", G4, " --cell ", H4, " --treatments ", I4, " --subst_type ", J4)</f>
-        <v>python 2_graph_processing/make_main_data.py -in libraries_3/WT_sgAB_cmv.tsv -o libraries_4/WT_sgAB_cmv -ref ref_seq/2DSB_R1_cmv.fa -dsb 67 --dsb_type 1 --format individual --strand R1 --hguide sgAB --cell WT --treatments cmv --subst_type without</v>
-      </c>
-      <c r="L4" t="str">
         <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without ",  " -dir ", dirs!$A$4, "/", '3'!A4)</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/WT_sgAB_cmv</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/WT_sgAB_R1_cmv</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f ca="1">'2'!H6</f>
-        <v>KO_sgAB_sense</v>
+        <v>KO_sgAB_R1_sense</v>
       </c>
       <c r="B5" t="str">
         <f ca="1">'2'!B6</f>
@@ -8344,41 +8325,38 @@
         <f ca="1">IF('2'!G6="2DSB", 2, 1)</f>
         <v>1</v>
       </c>
-      <c r="E5" t="s">
-        <v>108</v>
-      </c>
-      <c r="F5" t="str">
+      <c r="E5" t="str">
         <f ca="1">'2'!E6</f>
         <v>R1</v>
       </c>
+      <c r="F5" t="str">
+        <f ca="1">MID('2'!G6, 3, 100)</f>
+        <v>AB</v>
+      </c>
       <c r="G5" t="str">
-        <f ca="1">'2'!G6</f>
-        <v>sgAB</v>
-      </c>
-      <c r="H5" t="str">
         <f ca="1">'2'!D6</f>
         <v>KO</v>
       </c>
-      <c r="I5" t="str">
+      <c r="H5" t="str">
         <f ca="1">'2'!F6</f>
         <v>sense</v>
       </c>
-      <c r="J5" t="s">
-        <v>113</v>
+      <c r="I5" t="s">
+        <v>110</v>
+      </c>
+      <c r="J5" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/", '3'!A5, ".tsv -o ", dirs!$A$4, "/", A5, " -ref ref_seq/", B5, " -dsb ", C5, " --dsb_type ", D5, " --strand ", E5, " --hguide ", F5, " --cell ", G5, " --treatment ", H5, " --subst_type ", I5)</f>
+        <v>python 2_graph_processing/make_main_data.py -in libraries_3/KO_sgAB_R1_sense.tsv -o libraries_4/KO_sgAB_R1_sense -ref ref_seq/2DSB_R1_sense.fa -dsb 67 --dsb_type 1 --strand R1 --hguide AB --cell KO --treatment sense --subst_type without</v>
       </c>
       <c r="K5" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/", '3'!A5, ".tsv -o ", dirs!$A$4, "/", A5, " -ref ref_seq/", B5, " -dsb ", C5, " --dsb_type ", D5, " --format ", E5, " --strand ", F5, " --hguide ", G5, " --cell ", H5, " --treatments ", I5, " --subst_type ", J5)</f>
-        <v>python 2_graph_processing/make_main_data.py -in libraries_3/KO_sgAB_sense.tsv -o libraries_4/KO_sgAB_sense -ref ref_seq/2DSB_R1_sense.fa -dsb 67 --dsb_type 1 --format individual --strand R1 --hguide sgAB --cell KO --treatments sense --subst_type without</v>
-      </c>
-      <c r="L5" t="str">
         <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without ",  " -dir ", dirs!$A$4, "/", '3'!A5)</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/KO_sgAB_sense</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/KO_sgAB_R1_sense</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f ca="1">'2'!H7</f>
-        <v>KO_sgAB_branch</v>
+        <v>KO_sgAB_R1_branch</v>
       </c>
       <c r="B6" t="str">
         <f ca="1">'2'!B7</f>
@@ -8392,41 +8370,38 @@
         <f ca="1">IF('2'!G7="2DSB", 2, 1)</f>
         <v>1</v>
       </c>
-      <c r="E6" t="s">
-        <v>108</v>
-      </c>
-      <c r="F6" t="str">
+      <c r="E6" t="str">
         <f ca="1">'2'!E7</f>
         <v>R1</v>
       </c>
+      <c r="F6" t="str">
+        <f ca="1">MID('2'!G7, 3, 100)</f>
+        <v>AB</v>
+      </c>
       <c r="G6" t="str">
-        <f ca="1">'2'!G7</f>
-        <v>sgAB</v>
-      </c>
-      <c r="H6" t="str">
         <f ca="1">'2'!D7</f>
         <v>KO</v>
       </c>
-      <c r="I6" t="str">
+      <c r="H6" t="str">
         <f ca="1">'2'!F7</f>
         <v>branch</v>
       </c>
-      <c r="J6" t="s">
-        <v>113</v>
+      <c r="I6" t="s">
+        <v>110</v>
+      </c>
+      <c r="J6" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/", '3'!A6, ".tsv -o ", dirs!$A$4, "/", A6, " -ref ref_seq/", B6, " -dsb ", C6, " --dsb_type ", D6, " --strand ", E6, " --hguide ", F6, " --cell ", G6, " --treatment ", H6, " --subst_type ", I6)</f>
+        <v>python 2_graph_processing/make_main_data.py -in libraries_3/KO_sgAB_R1_branch.tsv -o libraries_4/KO_sgAB_R1_branch -ref ref_seq/2DSB_R1_branch.fa -dsb 67 --dsb_type 1 --strand R1 --hguide AB --cell KO --treatment branch --subst_type without</v>
       </c>
       <c r="K6" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/", '3'!A6, ".tsv -o ", dirs!$A$4, "/", A6, " -ref ref_seq/", B6, " -dsb ", C6, " --dsb_type ", D6, " --format ", E6, " --strand ", F6, " --hguide ", G6, " --cell ", H6, " --treatments ", I6, " --subst_type ", J6)</f>
-        <v>python 2_graph_processing/make_main_data.py -in libraries_3/KO_sgAB_branch.tsv -o libraries_4/KO_sgAB_branch -ref ref_seq/2DSB_R1_branch.fa -dsb 67 --dsb_type 1 --format individual --strand R1 --hguide sgAB --cell KO --treatments branch --subst_type without</v>
-      </c>
-      <c r="L6" t="str">
         <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without ",  " -dir ", dirs!$A$4, "/", '3'!A6)</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/KO_sgAB_branch</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/KO_sgAB_R1_branch</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f ca="1">'2'!H8</f>
-        <v>KO_sgAB_cmv</v>
+        <v>KO_sgAB_R1_cmv</v>
       </c>
       <c r="B7" t="str">
         <f ca="1">'2'!B8</f>
@@ -8440,41 +8415,38 @@
         <f ca="1">IF('2'!G8="2DSB", 2, 1)</f>
         <v>1</v>
       </c>
-      <c r="E7" t="s">
-        <v>108</v>
-      </c>
-      <c r="F7" t="str">
+      <c r="E7" t="str">
         <f ca="1">'2'!E8</f>
         <v>R1</v>
       </c>
+      <c r="F7" t="str">
+        <f ca="1">MID('2'!G8, 3, 100)</f>
+        <v>AB</v>
+      </c>
       <c r="G7" t="str">
-        <f ca="1">'2'!G8</f>
-        <v>sgAB</v>
-      </c>
-      <c r="H7" t="str">
         <f ca="1">'2'!D8</f>
         <v>KO</v>
       </c>
-      <c r="I7" t="str">
+      <c r="H7" t="str">
         <f ca="1">'2'!F8</f>
         <v>cmv</v>
       </c>
-      <c r="J7" t="s">
-        <v>113</v>
+      <c r="I7" t="s">
+        <v>110</v>
+      </c>
+      <c r="J7" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/", '3'!A7, ".tsv -o ", dirs!$A$4, "/", A7, " -ref ref_seq/", B7, " -dsb ", C7, " --dsb_type ", D7, " --strand ", E7, " --hguide ", F7, " --cell ", G7, " --treatment ", H7, " --subst_type ", I7)</f>
+        <v>python 2_graph_processing/make_main_data.py -in libraries_3/KO_sgAB_R1_cmv.tsv -o libraries_4/KO_sgAB_R1_cmv -ref ref_seq/2DSB_R1_cmv.fa -dsb 67 --dsb_type 1 --strand R1 --hguide AB --cell KO --treatment cmv --subst_type without</v>
       </c>
       <c r="K7" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/", '3'!A7, ".tsv -o ", dirs!$A$4, "/", A7, " -ref ref_seq/", B7, " -dsb ", C7, " --dsb_type ", D7, " --format ", E7, " --strand ", F7, " --hguide ", G7, " --cell ", H7, " --treatments ", I7, " --subst_type ", J7)</f>
-        <v>python 2_graph_processing/make_main_data.py -in libraries_3/KO_sgAB_cmv.tsv -o libraries_4/KO_sgAB_cmv -ref ref_seq/2DSB_R1_cmv.fa -dsb 67 --dsb_type 1 --format individual --strand R1 --hguide sgAB --cell KO --treatments cmv --subst_type without</v>
-      </c>
-      <c r="L7" t="str">
         <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without ",  " -dir ", dirs!$A$4, "/", '3'!A7)</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/KO_sgAB_cmv</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/KO_sgAB_R1_cmv</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f ca="1">'2'!H9</f>
-        <v>WT_sgAB_sense</v>
+        <v>WT_sgAB_R2_sense</v>
       </c>
       <c r="B8" t="str">
         <f ca="1">'2'!B9</f>
@@ -8488,41 +8460,38 @@
         <f ca="1">IF('2'!G9="2DSB", 2, 1)</f>
         <v>1</v>
       </c>
-      <c r="E8" t="s">
-        <v>108</v>
-      </c>
-      <c r="F8" t="str">
+      <c r="E8" t="str">
         <f ca="1">'2'!E9</f>
         <v>R2</v>
       </c>
+      <c r="F8" t="str">
+        <f ca="1">MID('2'!G9, 3, 100)</f>
+        <v>AB</v>
+      </c>
       <c r="G8" t="str">
-        <f ca="1">'2'!G9</f>
-        <v>sgAB</v>
-      </c>
-      <c r="H8" t="str">
         <f ca="1">'2'!D9</f>
         <v>WT</v>
       </c>
-      <c r="I8" t="str">
+      <c r="H8" t="str">
         <f ca="1">'2'!F9</f>
         <v>sense</v>
       </c>
-      <c r="J8" t="s">
-        <v>113</v>
+      <c r="I8" t="s">
+        <v>110</v>
+      </c>
+      <c r="J8" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/", '3'!A8, ".tsv -o ", dirs!$A$4, "/", A8, " -ref ref_seq/", B8, " -dsb ", C8, " --dsb_type ", D8, " --strand ", E8, " --hguide ", F8, " --cell ", G8, " --treatment ", H8, " --subst_type ", I8)</f>
+        <v>python 2_graph_processing/make_main_data.py -in libraries_3/WT_sgAB_R2_sense.tsv -o libraries_4/WT_sgAB_R2_sense -ref ref_seq/2DSB_R2_sense.fa -dsb 46 --dsb_type 1 --strand R2 --hguide AB --cell WT --treatment sense --subst_type without</v>
       </c>
       <c r="K8" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/", '3'!A8, ".tsv -o ", dirs!$A$4, "/", A8, " -ref ref_seq/", B8, " -dsb ", C8, " --dsb_type ", D8, " --format ", E8, " --strand ", F8, " --hguide ", G8, " --cell ", H8, " --treatments ", I8, " --subst_type ", J8)</f>
-        <v>python 2_graph_processing/make_main_data.py -in libraries_3/WT_sgAB_sense.tsv -o libraries_4/WT_sgAB_sense -ref ref_seq/2DSB_R2_sense.fa -dsb 46 --dsb_type 1 --format individual --strand R2 --hguide sgAB --cell WT --treatments sense --subst_type without</v>
-      </c>
-      <c r="L8" t="str">
         <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without ",  " -dir ", dirs!$A$4, "/", '3'!A8)</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/WT_sgAB_sense</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/WT_sgAB_R2_sense</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f ca="1">'2'!H10</f>
-        <v>WT_sgAB_branch</v>
+        <v>WT_sgAB_R2_branch</v>
       </c>
       <c r="B9" t="str">
         <f ca="1">'2'!B10</f>
@@ -8536,41 +8505,38 @@
         <f ca="1">IF('2'!G10="2DSB", 2, 1)</f>
         <v>1</v>
       </c>
-      <c r="E9" t="s">
-        <v>108</v>
-      </c>
-      <c r="F9" t="str">
+      <c r="E9" t="str">
         <f ca="1">'2'!E10</f>
         <v>R2</v>
       </c>
+      <c r="F9" t="str">
+        <f ca="1">MID('2'!G10, 3, 100)</f>
+        <v>AB</v>
+      </c>
       <c r="G9" t="str">
-        <f ca="1">'2'!G10</f>
-        <v>sgAB</v>
-      </c>
-      <c r="H9" t="str">
         <f ca="1">'2'!D10</f>
         <v>WT</v>
       </c>
-      <c r="I9" t="str">
+      <c r="H9" t="str">
         <f ca="1">'2'!F10</f>
         <v>branch</v>
       </c>
-      <c r="J9" t="s">
-        <v>113</v>
+      <c r="I9" t="s">
+        <v>110</v>
+      </c>
+      <c r="J9" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/", '3'!A9, ".tsv -o ", dirs!$A$4, "/", A9, " -ref ref_seq/", B9, " -dsb ", C9, " --dsb_type ", D9, " --strand ", E9, " --hguide ", F9, " --cell ", G9, " --treatment ", H9, " --subst_type ", I9)</f>
+        <v>python 2_graph_processing/make_main_data.py -in libraries_3/WT_sgAB_R2_branch.tsv -o libraries_4/WT_sgAB_R2_branch -ref ref_seq/2DSB_R2_branch.fa -dsb 46 --dsb_type 1 --strand R2 --hguide AB --cell WT --treatment branch --subst_type without</v>
       </c>
       <c r="K9" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/", '3'!A9, ".tsv -o ", dirs!$A$4, "/", A9, " -ref ref_seq/", B9, " -dsb ", C9, " --dsb_type ", D9, " --format ", E9, " --strand ", F9, " --hguide ", G9, " --cell ", H9, " --treatments ", I9, " --subst_type ", J9)</f>
-        <v>python 2_graph_processing/make_main_data.py -in libraries_3/WT_sgAB_branch.tsv -o libraries_4/WT_sgAB_branch -ref ref_seq/2DSB_R2_branch.fa -dsb 46 --dsb_type 1 --format individual --strand R2 --hguide sgAB --cell WT --treatments branch --subst_type without</v>
-      </c>
-      <c r="L9" t="str">
         <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without ",  " -dir ", dirs!$A$4, "/", '3'!A9)</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/WT_sgAB_branch</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/WT_sgAB_R2_branch</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f ca="1">'2'!H11</f>
-        <v>WT_sgAB_cmv</v>
+        <v>WT_sgAB_R2_cmv</v>
       </c>
       <c r="B10" t="str">
         <f ca="1">'2'!B11</f>
@@ -8584,41 +8550,38 @@
         <f ca="1">IF('2'!G11="2DSB", 2, 1)</f>
         <v>1</v>
       </c>
-      <c r="E10" t="s">
-        <v>108</v>
-      </c>
-      <c r="F10" t="str">
+      <c r="E10" t="str">
         <f ca="1">'2'!E11</f>
         <v>R2</v>
       </c>
+      <c r="F10" t="str">
+        <f ca="1">MID('2'!G11, 3, 100)</f>
+        <v>AB</v>
+      </c>
       <c r="G10" t="str">
-        <f ca="1">'2'!G11</f>
-        <v>sgAB</v>
-      </c>
-      <c r="H10" t="str">
         <f ca="1">'2'!D11</f>
         <v>WT</v>
       </c>
-      <c r="I10" t="str">
+      <c r="H10" t="str">
         <f ca="1">'2'!F11</f>
         <v>cmv</v>
       </c>
-      <c r="J10" t="s">
-        <v>113</v>
+      <c r="I10" t="s">
+        <v>110</v>
+      </c>
+      <c r="J10" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/", '3'!A10, ".tsv -o ", dirs!$A$4, "/", A10, " -ref ref_seq/", B10, " -dsb ", C10, " --dsb_type ", D10, " --strand ", E10, " --hguide ", F10, " --cell ", G10, " --treatment ", H10, " --subst_type ", I10)</f>
+        <v>python 2_graph_processing/make_main_data.py -in libraries_3/WT_sgAB_R2_cmv.tsv -o libraries_4/WT_sgAB_R2_cmv -ref ref_seq/2DSB_R2_cmv.fa -dsb 46 --dsb_type 1 --strand R2 --hguide AB --cell WT --treatment cmv --subst_type without</v>
       </c>
       <c r="K10" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/", '3'!A10, ".tsv -o ", dirs!$A$4, "/", A10, " -ref ref_seq/", B10, " -dsb ", C10, " --dsb_type ", D10, " --format ", E10, " --strand ", F10, " --hguide ", G10, " --cell ", H10, " --treatments ", I10, " --subst_type ", J10)</f>
-        <v>python 2_graph_processing/make_main_data.py -in libraries_3/WT_sgAB_cmv.tsv -o libraries_4/WT_sgAB_cmv -ref ref_seq/2DSB_R2_cmv.fa -dsb 46 --dsb_type 1 --format individual --strand R2 --hguide sgAB --cell WT --treatments cmv --subst_type without</v>
-      </c>
-      <c r="L10" t="str">
         <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without ",  " -dir ", dirs!$A$4, "/", '3'!A10)</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/WT_sgAB_cmv</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/WT_sgAB_R2_cmv</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f ca="1">'2'!H12</f>
-        <v>KO_sgAB_sense</v>
+        <v>KO_sgAB_R2_sense</v>
       </c>
       <c r="B11" t="str">
         <f ca="1">'2'!B12</f>
@@ -8632,41 +8595,38 @@
         <f ca="1">IF('2'!G12="2DSB", 2, 1)</f>
         <v>1</v>
       </c>
-      <c r="E11" t="s">
-        <v>108</v>
-      </c>
-      <c r="F11" t="str">
+      <c r="E11" t="str">
         <f ca="1">'2'!E12</f>
         <v>R2</v>
       </c>
+      <c r="F11" t="str">
+        <f ca="1">MID('2'!G12, 3, 100)</f>
+        <v>AB</v>
+      </c>
       <c r="G11" t="str">
-        <f ca="1">'2'!G12</f>
-        <v>sgAB</v>
-      </c>
-      <c r="H11" t="str">
         <f ca="1">'2'!D12</f>
         <v>KO</v>
       </c>
-      <c r="I11" t="str">
+      <c r="H11" t="str">
         <f ca="1">'2'!F12</f>
         <v>sense</v>
       </c>
-      <c r="J11" t="s">
-        <v>113</v>
+      <c r="I11" t="s">
+        <v>110</v>
+      </c>
+      <c r="J11" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/", '3'!A11, ".tsv -o ", dirs!$A$4, "/", A11, " -ref ref_seq/", B11, " -dsb ", C11, " --dsb_type ", D11, " --strand ", E11, " --hguide ", F11, " --cell ", G11, " --treatment ", H11, " --subst_type ", I11)</f>
+        <v>python 2_graph_processing/make_main_data.py -in libraries_3/KO_sgAB_R2_sense.tsv -o libraries_4/KO_sgAB_R2_sense -ref ref_seq/2DSB_R2_sense.fa -dsb 46 --dsb_type 1 --strand R2 --hguide AB --cell KO --treatment sense --subst_type without</v>
       </c>
       <c r="K11" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/", '3'!A11, ".tsv -o ", dirs!$A$4, "/", A11, " -ref ref_seq/", B11, " -dsb ", C11, " --dsb_type ", D11, " --format ", E11, " --strand ", F11, " --hguide ", G11, " --cell ", H11, " --treatments ", I11, " --subst_type ", J11)</f>
-        <v>python 2_graph_processing/make_main_data.py -in libraries_3/KO_sgAB_sense.tsv -o libraries_4/KO_sgAB_sense -ref ref_seq/2DSB_R2_sense.fa -dsb 46 --dsb_type 1 --format individual --strand R2 --hguide sgAB --cell KO --treatments sense --subst_type without</v>
-      </c>
-      <c r="L11" t="str">
         <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without ",  " -dir ", dirs!$A$4, "/", '3'!A11)</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/KO_sgAB_sense</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/KO_sgAB_R2_sense</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f ca="1">'2'!H13</f>
-        <v>KO_sgAB_branch</v>
+        <v>KO_sgAB_R2_branch</v>
       </c>
       <c r="B12" t="str">
         <f ca="1">'2'!B13</f>
@@ -8680,41 +8640,38 @@
         <f ca="1">IF('2'!G13="2DSB", 2, 1)</f>
         <v>1</v>
       </c>
-      <c r="E12" t="s">
-        <v>108</v>
-      </c>
-      <c r="F12" t="str">
+      <c r="E12" t="str">
         <f ca="1">'2'!E13</f>
         <v>R2</v>
       </c>
+      <c r="F12" t="str">
+        <f ca="1">MID('2'!G13, 3, 100)</f>
+        <v>AB</v>
+      </c>
       <c r="G12" t="str">
-        <f ca="1">'2'!G13</f>
-        <v>sgAB</v>
-      </c>
-      <c r="H12" t="str">
         <f ca="1">'2'!D13</f>
         <v>KO</v>
       </c>
-      <c r="I12" t="str">
+      <c r="H12" t="str">
         <f ca="1">'2'!F13</f>
         <v>branch</v>
       </c>
-      <c r="J12" t="s">
-        <v>113</v>
+      <c r="I12" t="s">
+        <v>110</v>
+      </c>
+      <c r="J12" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/", '3'!A12, ".tsv -o ", dirs!$A$4, "/", A12, " -ref ref_seq/", B12, " -dsb ", C12, " --dsb_type ", D12, " --strand ", E12, " --hguide ", F12, " --cell ", G12, " --treatment ", H12, " --subst_type ", I12)</f>
+        <v>python 2_graph_processing/make_main_data.py -in libraries_3/KO_sgAB_R2_branch.tsv -o libraries_4/KO_sgAB_R2_branch -ref ref_seq/2DSB_R2_branch.fa -dsb 46 --dsb_type 1 --strand R2 --hguide AB --cell KO --treatment branch --subst_type without</v>
       </c>
       <c r="K12" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/", '3'!A12, ".tsv -o ", dirs!$A$4, "/", A12, " -ref ref_seq/", B12, " -dsb ", C12, " --dsb_type ", D12, " --format ", E12, " --strand ", F12, " --hguide ", G12, " --cell ", H12, " --treatments ", I12, " --subst_type ", J12)</f>
-        <v>python 2_graph_processing/make_main_data.py -in libraries_3/KO_sgAB_branch.tsv -o libraries_4/KO_sgAB_branch -ref ref_seq/2DSB_R2_branch.fa -dsb 46 --dsb_type 1 --format individual --strand R2 --hguide sgAB --cell KO --treatments branch --subst_type without</v>
-      </c>
-      <c r="L12" t="str">
         <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without ",  " -dir ", dirs!$A$4, "/", '3'!A12)</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/KO_sgAB_branch</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/KO_sgAB_R2_branch</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f ca="1">'2'!H14</f>
-        <v>KO_sgAB_cmv</v>
+        <v>KO_sgAB_R2_cmv</v>
       </c>
       <c r="B13" t="str">
         <f ca="1">'2'!B14</f>
@@ -8728,41 +8685,38 @@
         <f ca="1">IF('2'!G14="2DSB", 2, 1)</f>
         <v>1</v>
       </c>
-      <c r="E13" t="s">
-        <v>108</v>
-      </c>
-      <c r="F13" t="str">
+      <c r="E13" t="str">
         <f ca="1">'2'!E14</f>
         <v>R2</v>
       </c>
+      <c r="F13" t="str">
+        <f ca="1">MID('2'!G14, 3, 100)</f>
+        <v>AB</v>
+      </c>
       <c r="G13" t="str">
-        <f ca="1">'2'!G14</f>
-        <v>sgAB</v>
-      </c>
-      <c r="H13" t="str">
         <f ca="1">'2'!D14</f>
         <v>KO</v>
       </c>
-      <c r="I13" t="str">
+      <c r="H13" t="str">
         <f ca="1">'2'!F14</f>
         <v>cmv</v>
       </c>
-      <c r="J13" t="s">
-        <v>113</v>
+      <c r="I13" t="s">
+        <v>110</v>
+      </c>
+      <c r="J13" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/", '3'!A13, ".tsv -o ", dirs!$A$4, "/", A13, " -ref ref_seq/", B13, " -dsb ", C13, " --dsb_type ", D13, " --strand ", E13, " --hguide ", F13, " --cell ", G13, " --treatment ", H13, " --subst_type ", I13)</f>
+        <v>python 2_graph_processing/make_main_data.py -in libraries_3/KO_sgAB_R2_cmv.tsv -o libraries_4/KO_sgAB_R2_cmv -ref ref_seq/2DSB_R2_cmv.fa -dsb 46 --dsb_type 1 --strand R2 --hguide AB --cell KO --treatment cmv --subst_type without</v>
       </c>
       <c r="K13" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/", '3'!A13, ".tsv -o ", dirs!$A$4, "/", A13, " -ref ref_seq/", B13, " -dsb ", C13, " --dsb_type ", D13, " --format ", E13, " --strand ", F13, " --hguide ", G13, " --cell ", H13, " --treatments ", I13, " --subst_type ", J13)</f>
-        <v>python 2_graph_processing/make_main_data.py -in libraries_3/KO_sgAB_cmv.tsv -o libraries_4/KO_sgAB_cmv -ref ref_seq/2DSB_R2_cmv.fa -dsb 46 --dsb_type 1 --format individual --strand R2 --hguide sgAB --cell KO --treatments cmv --subst_type without</v>
-      </c>
-      <c r="L13" t="str">
         <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without ",  " -dir ", dirs!$A$4, "/", '3'!A13)</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/KO_sgAB_cmv</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/KO_sgAB_R2_cmv</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f ca="1">'2'!H15</f>
-        <v>WT_sgA_sense</v>
+        <v>WT_sgA_R1_sense</v>
       </c>
       <c r="B14" t="str">
         <f ca="1">'2'!B15</f>
@@ -8776,41 +8730,38 @@
         <f ca="1">IF('2'!G15="2DSB", 2, 1)</f>
         <v>1</v>
       </c>
-      <c r="E14" t="s">
-        <v>108</v>
-      </c>
-      <c r="F14" t="str">
+      <c r="E14" t="str">
         <f ca="1">'2'!E15</f>
         <v>R1</v>
       </c>
+      <c r="F14" t="str">
+        <f ca="1">MID('2'!G15, 3, 100)</f>
+        <v>A</v>
+      </c>
       <c r="G14" t="str">
-        <f ca="1">'2'!G15</f>
-        <v>sgA</v>
-      </c>
-      <c r="H14" t="str">
         <f ca="1">'2'!D15</f>
         <v>WT</v>
       </c>
-      <c r="I14" t="str">
+      <c r="H14" t="str">
         <f ca="1">'2'!F15</f>
         <v>sense</v>
       </c>
-      <c r="J14" t="s">
-        <v>113</v>
+      <c r="I14" t="s">
+        <v>110</v>
+      </c>
+      <c r="J14" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/", '3'!A14, ".tsv -o ", dirs!$A$4, "/", A14, " -ref ref_seq/", B14, " -dsb ", C14, " --dsb_type ", D14, " --strand ", E14, " --hguide ", F14, " --cell ", G14, " --treatment ", H14, " --subst_type ", I14)</f>
+        <v>python 2_graph_processing/make_main_data.py -in libraries_3/WT_sgA_R1_sense.tsv -o libraries_4/WT_sgA_R1_sense -ref ref_seq/1DSB_R1_sense.fa -dsb 67 --dsb_type 1 --strand R1 --hguide A --cell WT --treatment sense --subst_type without</v>
       </c>
       <c r="K14" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/", '3'!A14, ".tsv -o ", dirs!$A$4, "/", A14, " -ref ref_seq/", B14, " -dsb ", C14, " --dsb_type ", D14, " --format ", E14, " --strand ", F14, " --hguide ", G14, " --cell ", H14, " --treatments ", I14, " --subst_type ", J14)</f>
-        <v>python 2_graph_processing/make_main_data.py -in libraries_3/WT_sgA_sense.tsv -o libraries_4/WT_sgA_sense -ref ref_seq/1DSB_R1_sense.fa -dsb 67 --dsb_type 1 --format individual --strand R1 --hguide sgA --cell WT --treatments sense --subst_type without</v>
-      </c>
-      <c r="L14" t="str">
         <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without ",  " -dir ", dirs!$A$4, "/", '3'!A14)</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/WT_sgA_sense</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/WT_sgA_R1_sense</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f ca="1">'2'!H16</f>
-        <v>WT_sgA_branch</v>
+        <v>WT_sgA_R1_branch</v>
       </c>
       <c r="B15" t="str">
         <f ca="1">'2'!B16</f>
@@ -8824,41 +8775,38 @@
         <f ca="1">IF('2'!G16="2DSB", 2, 1)</f>
         <v>1</v>
       </c>
-      <c r="E15" t="s">
-        <v>108</v>
-      </c>
-      <c r="F15" t="str">
+      <c r="E15" t="str">
         <f ca="1">'2'!E16</f>
         <v>R1</v>
       </c>
+      <c r="F15" t="str">
+        <f ca="1">MID('2'!G16, 3, 100)</f>
+        <v>A</v>
+      </c>
       <c r="G15" t="str">
-        <f ca="1">'2'!G16</f>
-        <v>sgA</v>
-      </c>
-      <c r="H15" t="str">
         <f ca="1">'2'!D16</f>
         <v>WT</v>
       </c>
-      <c r="I15" t="str">
+      <c r="H15" t="str">
         <f ca="1">'2'!F16</f>
         <v>branch</v>
       </c>
-      <c r="J15" t="s">
-        <v>113</v>
+      <c r="I15" t="s">
+        <v>110</v>
+      </c>
+      <c r="J15" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/", '3'!A15, ".tsv -o ", dirs!$A$4, "/", A15, " -ref ref_seq/", B15, " -dsb ", C15, " --dsb_type ", D15, " --strand ", E15, " --hguide ", F15, " --cell ", G15, " --treatment ", H15, " --subst_type ", I15)</f>
+        <v>python 2_graph_processing/make_main_data.py -in libraries_3/WT_sgA_R1_branch.tsv -o libraries_4/WT_sgA_R1_branch -ref ref_seq/1DSB_R1_branch.fa -dsb 67 --dsb_type 1 --strand R1 --hguide A --cell WT --treatment branch --subst_type without</v>
       </c>
       <c r="K15" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/", '3'!A15, ".tsv -o ", dirs!$A$4, "/", A15, " -ref ref_seq/", B15, " -dsb ", C15, " --dsb_type ", D15, " --format ", E15, " --strand ", F15, " --hguide ", G15, " --cell ", H15, " --treatments ", I15, " --subst_type ", J15)</f>
-        <v>python 2_graph_processing/make_main_data.py -in libraries_3/WT_sgA_branch.tsv -o libraries_4/WT_sgA_branch -ref ref_seq/1DSB_R1_branch.fa -dsb 67 --dsb_type 1 --format individual --strand R1 --hguide sgA --cell WT --treatments branch --subst_type without</v>
-      </c>
-      <c r="L15" t="str">
         <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without ",  " -dir ", dirs!$A$4, "/", '3'!A15)</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/WT_sgA_branch</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/WT_sgA_R1_branch</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f ca="1">'2'!H17</f>
-        <v>WT_sgA_cmv</v>
+        <v>WT_sgA_R1_cmv</v>
       </c>
       <c r="B16" t="str">
         <f ca="1">'2'!B17</f>
@@ -8872,41 +8820,38 @@
         <f ca="1">IF('2'!G17="2DSB", 2, 1)</f>
         <v>1</v>
       </c>
-      <c r="E16" t="s">
-        <v>108</v>
-      </c>
-      <c r="F16" t="str">
+      <c r="E16" t="str">
         <f ca="1">'2'!E17</f>
         <v>R1</v>
       </c>
+      <c r="F16" t="str">
+        <f ca="1">MID('2'!G17, 3, 100)</f>
+        <v>A</v>
+      </c>
       <c r="G16" t="str">
-        <f ca="1">'2'!G17</f>
-        <v>sgA</v>
-      </c>
-      <c r="H16" t="str">
         <f ca="1">'2'!D17</f>
         <v>WT</v>
       </c>
-      <c r="I16" t="str">
+      <c r="H16" t="str">
         <f ca="1">'2'!F17</f>
         <v>cmv</v>
       </c>
-      <c r="J16" t="s">
-        <v>113</v>
+      <c r="I16" t="s">
+        <v>110</v>
+      </c>
+      <c r="J16" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/", '3'!A16, ".tsv -o ", dirs!$A$4, "/", A16, " -ref ref_seq/", B16, " -dsb ", C16, " --dsb_type ", D16, " --strand ", E16, " --hguide ", F16, " --cell ", G16, " --treatment ", H16, " --subst_type ", I16)</f>
+        <v>python 2_graph_processing/make_main_data.py -in libraries_3/WT_sgA_R1_cmv.tsv -o libraries_4/WT_sgA_R1_cmv -ref ref_seq/1DSB_R1_cmv.fa -dsb 67 --dsb_type 1 --strand R1 --hguide A --cell WT --treatment cmv --subst_type without</v>
       </c>
       <c r="K16" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/", '3'!A16, ".tsv -o ", dirs!$A$4, "/", A16, " -ref ref_seq/", B16, " -dsb ", C16, " --dsb_type ", D16, " --format ", E16, " --strand ", F16, " --hguide ", G16, " --cell ", H16, " --treatments ", I16, " --subst_type ", J16)</f>
-        <v>python 2_graph_processing/make_main_data.py -in libraries_3/WT_sgA_cmv.tsv -o libraries_4/WT_sgA_cmv -ref ref_seq/1DSB_R1_cmv.fa -dsb 67 --dsb_type 1 --format individual --strand R1 --hguide sgA --cell WT --treatments cmv --subst_type without</v>
-      </c>
-      <c r="L16" t="str">
         <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without ",  " -dir ", dirs!$A$4, "/", '3'!A16)</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/WT_sgA_cmv</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/WT_sgA_R1_cmv</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f ca="1">'2'!H18</f>
-        <v>WT_sgB_sense</v>
+        <v>WT_sgB_R2_sense</v>
       </c>
       <c r="B17" t="str">
         <f ca="1">'2'!B18</f>
@@ -8920,41 +8865,38 @@
         <f ca="1">IF('2'!G18="2DSB", 2, 1)</f>
         <v>1</v>
       </c>
-      <c r="E17" t="s">
-        <v>108</v>
-      </c>
-      <c r="F17" t="str">
+      <c r="E17" t="str">
         <f ca="1">'2'!E18</f>
         <v>R2</v>
       </c>
+      <c r="F17" t="str">
+        <f ca="1">MID('2'!G18, 3, 100)</f>
+        <v>B</v>
+      </c>
       <c r="G17" t="str">
-        <f ca="1">'2'!G18</f>
-        <v>sgB</v>
-      </c>
-      <c r="H17" t="str">
         <f ca="1">'2'!D18</f>
         <v>WT</v>
       </c>
-      <c r="I17" t="str">
+      <c r="H17" t="str">
         <f ca="1">'2'!F18</f>
         <v>sense</v>
       </c>
-      <c r="J17" t="s">
-        <v>113</v>
+      <c r="I17" t="s">
+        <v>110</v>
+      </c>
+      <c r="J17" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/", '3'!A17, ".tsv -o ", dirs!$A$4, "/", A17, " -ref ref_seq/", B17, " -dsb ", C17, " --dsb_type ", D17, " --strand ", E17, " --hguide ", F17, " --cell ", G17, " --treatment ", H17, " --subst_type ", I17)</f>
+        <v>python 2_graph_processing/make_main_data.py -in libraries_3/WT_sgB_R2_sense.tsv -o libraries_4/WT_sgB_R2_sense -ref ref_seq/1DSB_R2_sense.fa -dsb 46 --dsb_type 1 --strand R2 --hguide B --cell WT --treatment sense --subst_type without</v>
       </c>
       <c r="K17" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/", '3'!A17, ".tsv -o ", dirs!$A$4, "/", A17, " -ref ref_seq/", B17, " -dsb ", C17, " --dsb_type ", D17, " --format ", E17, " --strand ", F17, " --hguide ", G17, " --cell ", H17, " --treatments ", I17, " --subst_type ", J17)</f>
-        <v>python 2_graph_processing/make_main_data.py -in libraries_3/WT_sgB_sense.tsv -o libraries_4/WT_sgB_sense -ref ref_seq/1DSB_R2_sense.fa -dsb 46 --dsb_type 1 --format individual --strand R2 --hguide sgB --cell WT --treatments sense --subst_type without</v>
-      </c>
-      <c r="L17" t="str">
         <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without ",  " -dir ", dirs!$A$4, "/", '3'!A17)</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/WT_sgB_sense</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/WT_sgB_R2_sense</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f ca="1">'2'!H19</f>
-        <v>WT_sgB_branch</v>
+        <v>WT_sgB_R2_branch</v>
       </c>
       <c r="B18" t="str">
         <f ca="1">'2'!B19</f>
@@ -8968,41 +8910,38 @@
         <f ca="1">IF('2'!G19="2DSB", 2, 1)</f>
         <v>1</v>
       </c>
-      <c r="E18" t="s">
-        <v>108</v>
-      </c>
-      <c r="F18" t="str">
+      <c r="E18" t="str">
         <f ca="1">'2'!E19</f>
         <v>R2</v>
       </c>
+      <c r="F18" t="str">
+        <f ca="1">MID('2'!G19, 3, 100)</f>
+        <v>B</v>
+      </c>
       <c r="G18" t="str">
-        <f ca="1">'2'!G19</f>
-        <v>sgB</v>
-      </c>
-      <c r="H18" t="str">
         <f ca="1">'2'!D19</f>
         <v>WT</v>
       </c>
-      <c r="I18" t="str">
+      <c r="H18" t="str">
         <f ca="1">'2'!F19</f>
         <v>branch</v>
       </c>
-      <c r="J18" t="s">
-        <v>113</v>
+      <c r="I18" t="s">
+        <v>110</v>
+      </c>
+      <c r="J18" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/", '3'!A18, ".tsv -o ", dirs!$A$4, "/", A18, " -ref ref_seq/", B18, " -dsb ", C18, " --dsb_type ", D18, " --strand ", E18, " --hguide ", F18, " --cell ", G18, " --treatment ", H18, " --subst_type ", I18)</f>
+        <v>python 2_graph_processing/make_main_data.py -in libraries_3/WT_sgB_R2_branch.tsv -o libraries_4/WT_sgB_R2_branch -ref ref_seq/1DSB_R2_branch.fa -dsb 46 --dsb_type 1 --strand R2 --hguide B --cell WT --treatment branch --subst_type without</v>
       </c>
       <c r="K18" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/", '3'!A18, ".tsv -o ", dirs!$A$4, "/", A18, " -ref ref_seq/", B18, " -dsb ", C18, " --dsb_type ", D18, " --format ", E18, " --strand ", F18, " --hguide ", G18, " --cell ", H18, " --treatments ", I18, " --subst_type ", J18)</f>
-        <v>python 2_graph_processing/make_main_data.py -in libraries_3/WT_sgB_branch.tsv -o libraries_4/WT_sgB_branch -ref ref_seq/1DSB_R2_branch.fa -dsb 46 --dsb_type 1 --format individual --strand R2 --hguide sgB --cell WT --treatments branch --subst_type without</v>
-      </c>
-      <c r="L18" t="str">
         <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without ",  " -dir ", dirs!$A$4, "/", '3'!A18)</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/WT_sgB_branch</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/WT_sgB_R2_branch</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f ca="1">'2'!H20</f>
-        <v>WT_sgB_cmv</v>
+        <v>WT_sgB_R2_cmv</v>
       </c>
       <c r="B19" t="str">
         <f ca="1">'2'!B20</f>
@@ -9016,41 +8955,38 @@
         <f ca="1">IF('2'!G20="2DSB", 2, 1)</f>
         <v>1</v>
       </c>
-      <c r="E19" t="s">
-        <v>108</v>
-      </c>
-      <c r="F19" t="str">
+      <c r="E19" t="str">
         <f ca="1">'2'!E20</f>
         <v>R2</v>
       </c>
+      <c r="F19" t="str">
+        <f ca="1">MID('2'!G20, 3, 100)</f>
+        <v>B</v>
+      </c>
       <c r="G19" t="str">
-        <f ca="1">'2'!G20</f>
-        <v>sgB</v>
-      </c>
-      <c r="H19" t="str">
         <f ca="1">'2'!D20</f>
         <v>WT</v>
       </c>
-      <c r="I19" t="str">
+      <c r="H19" t="str">
         <f ca="1">'2'!F20</f>
         <v>cmv</v>
       </c>
-      <c r="J19" t="s">
-        <v>113</v>
+      <c r="I19" t="s">
+        <v>110</v>
+      </c>
+      <c r="J19" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/", '3'!A19, ".tsv -o ", dirs!$A$4, "/", A19, " -ref ref_seq/", B19, " -dsb ", C19, " --dsb_type ", D19, " --strand ", E19, " --hguide ", F19, " --cell ", G19, " --treatment ", H19, " --subst_type ", I19)</f>
+        <v>python 2_graph_processing/make_main_data.py -in libraries_3/WT_sgB_R2_cmv.tsv -o libraries_4/WT_sgB_R2_cmv -ref ref_seq/1DSB_R2_cmv.fa -dsb 46 --dsb_type 1 --strand R2 --hguide B --cell WT --treatment cmv --subst_type without</v>
       </c>
       <c r="K19" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/", '3'!A19, ".tsv -o ", dirs!$A$4, "/", A19, " -ref ref_seq/", B19, " -dsb ", C19, " --dsb_type ", D19, " --format ", E19, " --strand ", F19, " --hguide ", G19, " --cell ", H19, " --treatments ", I19, " --subst_type ", J19)</f>
-        <v>python 2_graph_processing/make_main_data.py -in libraries_3/WT_sgB_cmv.tsv -o libraries_4/WT_sgB_cmv -ref ref_seq/1DSB_R2_cmv.fa -dsb 46 --dsb_type 1 --format individual --strand R2 --hguide sgB --cell WT --treatments cmv --subst_type without</v>
-      </c>
-      <c r="L19" t="str">
         <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without ",  " -dir ", dirs!$A$4, "/", '3'!A19)</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/WT_sgB_cmv</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/WT_sgB_R2_cmv</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f ca="1">'2'!H21</f>
-        <v>KO_sgA_sense</v>
+        <v>KO_sgA_R1_sense</v>
       </c>
       <c r="B20" t="str">
         <f ca="1">'2'!B21</f>
@@ -9064,41 +9000,38 @@
         <f ca="1">IF('2'!G21="2DSB", 2, 1)</f>
         <v>1</v>
       </c>
-      <c r="E20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F20" t="str">
+      <c r="E20" t="str">
         <f ca="1">'2'!E21</f>
         <v>R1</v>
       </c>
+      <c r="F20" t="str">
+        <f ca="1">MID('2'!G21, 3, 100)</f>
+        <v>A</v>
+      </c>
       <c r="G20" t="str">
-        <f ca="1">'2'!G21</f>
-        <v>sgA</v>
-      </c>
-      <c r="H20" t="str">
         <f ca="1">'2'!D21</f>
         <v>KO</v>
       </c>
-      <c r="I20" t="str">
+      <c r="H20" t="str">
         <f ca="1">'2'!F21</f>
         <v>sense</v>
       </c>
-      <c r="J20" t="s">
-        <v>113</v>
+      <c r="I20" t="s">
+        <v>110</v>
+      </c>
+      <c r="J20" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/", '3'!A20, ".tsv -o ", dirs!$A$4, "/", A20, " -ref ref_seq/", B20, " -dsb ", C20, " --dsb_type ", D20, " --strand ", E20, " --hguide ", F20, " --cell ", G20, " --treatment ", H20, " --subst_type ", I20)</f>
+        <v>python 2_graph_processing/make_main_data.py -in libraries_3/KO_sgA_R1_sense.tsv -o libraries_4/KO_sgA_R1_sense -ref ref_seq/1DSB_R1_sense.fa -dsb 67 --dsb_type 1 --strand R1 --hguide A --cell KO --treatment sense --subst_type without</v>
       </c>
       <c r="K20" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/", '3'!A20, ".tsv -o ", dirs!$A$4, "/", A20, " -ref ref_seq/", B20, " -dsb ", C20, " --dsb_type ", D20, " --format ", E20, " --strand ", F20, " --hguide ", G20, " --cell ", H20, " --treatments ", I20, " --subst_type ", J20)</f>
-        <v>python 2_graph_processing/make_main_data.py -in libraries_3/KO_sgA_sense.tsv -o libraries_4/KO_sgA_sense -ref ref_seq/1DSB_R1_sense.fa -dsb 67 --dsb_type 1 --format individual --strand R1 --hguide sgA --cell KO --treatments sense --subst_type without</v>
-      </c>
-      <c r="L20" t="str">
         <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without ",  " -dir ", dirs!$A$4, "/", '3'!A20)</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/KO_sgA_sense</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/KO_sgA_R1_sense</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f ca="1">'2'!H22</f>
-        <v>KO_sgA_branch</v>
+        <v>KO_sgA_R1_branch</v>
       </c>
       <c r="B21" t="str">
         <f ca="1">'2'!B22</f>
@@ -9112,41 +9045,38 @@
         <f ca="1">IF('2'!G22="2DSB", 2, 1)</f>
         <v>1</v>
       </c>
-      <c r="E21" t="s">
-        <v>108</v>
-      </c>
-      <c r="F21" t="str">
+      <c r="E21" t="str">
         <f ca="1">'2'!E22</f>
         <v>R1</v>
       </c>
+      <c r="F21" t="str">
+        <f ca="1">MID('2'!G22, 3, 100)</f>
+        <v>A</v>
+      </c>
       <c r="G21" t="str">
-        <f ca="1">'2'!G22</f>
-        <v>sgA</v>
-      </c>
-      <c r="H21" t="str">
         <f ca="1">'2'!D22</f>
         <v>KO</v>
       </c>
-      <c r="I21" t="str">
+      <c r="H21" t="str">
         <f ca="1">'2'!F22</f>
         <v>branch</v>
       </c>
-      <c r="J21" t="s">
-        <v>113</v>
+      <c r="I21" t="s">
+        <v>110</v>
+      </c>
+      <c r="J21" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/", '3'!A21, ".tsv -o ", dirs!$A$4, "/", A21, " -ref ref_seq/", B21, " -dsb ", C21, " --dsb_type ", D21, " --strand ", E21, " --hguide ", F21, " --cell ", G21, " --treatment ", H21, " --subst_type ", I21)</f>
+        <v>python 2_graph_processing/make_main_data.py -in libraries_3/KO_sgA_R1_branch.tsv -o libraries_4/KO_sgA_R1_branch -ref ref_seq/1DSB_R1_branch.fa -dsb 67 --dsb_type 1 --strand R1 --hguide A --cell KO --treatment branch --subst_type without</v>
       </c>
       <c r="K21" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/", '3'!A21, ".tsv -o ", dirs!$A$4, "/", A21, " -ref ref_seq/", B21, " -dsb ", C21, " --dsb_type ", D21, " --format ", E21, " --strand ", F21, " --hguide ", G21, " --cell ", H21, " --treatments ", I21, " --subst_type ", J21)</f>
-        <v>python 2_graph_processing/make_main_data.py -in libraries_3/KO_sgA_branch.tsv -o libraries_4/KO_sgA_branch -ref ref_seq/1DSB_R1_branch.fa -dsb 67 --dsb_type 1 --format individual --strand R1 --hguide sgA --cell KO --treatments branch --subst_type without</v>
-      </c>
-      <c r="L21" t="str">
         <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without ",  " -dir ", dirs!$A$4, "/", '3'!A21)</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/KO_sgA_branch</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/KO_sgA_R1_branch</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f ca="1">'2'!H23</f>
-        <v>KO_sgA_cmv</v>
+        <v>KO_sgA_R1_cmv</v>
       </c>
       <c r="B22" t="str">
         <f ca="1">'2'!B23</f>
@@ -9160,41 +9090,38 @@
         <f ca="1">IF('2'!G23="2DSB", 2, 1)</f>
         <v>1</v>
       </c>
-      <c r="E22" t="s">
-        <v>108</v>
-      </c>
-      <c r="F22" t="str">
+      <c r="E22" t="str">
         <f ca="1">'2'!E23</f>
         <v>R1</v>
       </c>
+      <c r="F22" t="str">
+        <f ca="1">MID('2'!G23, 3, 100)</f>
+        <v>A</v>
+      </c>
       <c r="G22" t="str">
-        <f ca="1">'2'!G23</f>
-        <v>sgA</v>
-      </c>
-      <c r="H22" t="str">
         <f ca="1">'2'!D23</f>
         <v>KO</v>
       </c>
-      <c r="I22" t="str">
+      <c r="H22" t="str">
         <f ca="1">'2'!F23</f>
         <v>cmv</v>
       </c>
-      <c r="J22" t="s">
-        <v>113</v>
+      <c r="I22" t="s">
+        <v>110</v>
+      </c>
+      <c r="J22" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/", '3'!A22, ".tsv -o ", dirs!$A$4, "/", A22, " -ref ref_seq/", B22, " -dsb ", C22, " --dsb_type ", D22, " --strand ", E22, " --hguide ", F22, " --cell ", G22, " --treatment ", H22, " --subst_type ", I22)</f>
+        <v>python 2_graph_processing/make_main_data.py -in libraries_3/KO_sgA_R1_cmv.tsv -o libraries_4/KO_sgA_R1_cmv -ref ref_seq/1DSB_R1_cmv.fa -dsb 67 --dsb_type 1 --strand R1 --hguide A --cell KO --treatment cmv --subst_type without</v>
       </c>
       <c r="K22" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/", '3'!A22, ".tsv -o ", dirs!$A$4, "/", A22, " -ref ref_seq/", B22, " -dsb ", C22, " --dsb_type ", D22, " --format ", E22, " --strand ", F22, " --hguide ", G22, " --cell ", H22, " --treatments ", I22, " --subst_type ", J22)</f>
-        <v>python 2_graph_processing/make_main_data.py -in libraries_3/KO_sgA_cmv.tsv -o libraries_4/KO_sgA_cmv -ref ref_seq/1DSB_R1_cmv.fa -dsb 67 --dsb_type 1 --format individual --strand R1 --hguide sgA --cell KO --treatments cmv --subst_type without</v>
-      </c>
-      <c r="L22" t="str">
         <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without ",  " -dir ", dirs!$A$4, "/", '3'!A22)</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/KO_sgA_cmv</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/KO_sgA_R1_cmv</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f ca="1">'2'!H24</f>
-        <v>KO_sgB_sense</v>
+        <v>KO_sgB_R2_sense</v>
       </c>
       <c r="B23" t="str">
         <f ca="1">'2'!B24</f>
@@ -9208,41 +9135,38 @@
         <f ca="1">IF('2'!G24="2DSB", 2, 1)</f>
         <v>1</v>
       </c>
-      <c r="E23" t="s">
-        <v>108</v>
-      </c>
-      <c r="F23" t="str">
+      <c r="E23" t="str">
         <f ca="1">'2'!E24</f>
         <v>R2</v>
       </c>
+      <c r="F23" t="str">
+        <f ca="1">MID('2'!G24, 3, 100)</f>
+        <v>B</v>
+      </c>
       <c r="G23" t="str">
-        <f ca="1">'2'!G24</f>
-        <v>sgB</v>
-      </c>
-      <c r="H23" t="str">
         <f ca="1">'2'!D24</f>
         <v>KO</v>
       </c>
-      <c r="I23" t="str">
+      <c r="H23" t="str">
         <f ca="1">'2'!F24</f>
         <v>sense</v>
       </c>
-      <c r="J23" t="s">
-        <v>113</v>
+      <c r="I23" t="s">
+        <v>110</v>
+      </c>
+      <c r="J23" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/", '3'!A23, ".tsv -o ", dirs!$A$4, "/", A23, " -ref ref_seq/", B23, " -dsb ", C23, " --dsb_type ", D23, " --strand ", E23, " --hguide ", F23, " --cell ", G23, " --treatment ", H23, " --subst_type ", I23)</f>
+        <v>python 2_graph_processing/make_main_data.py -in libraries_3/KO_sgB_R2_sense.tsv -o libraries_4/KO_sgB_R2_sense -ref ref_seq/1DSB_R2_sense.fa -dsb 46 --dsb_type 1 --strand R2 --hguide B --cell KO --treatment sense --subst_type without</v>
       </c>
       <c r="K23" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/", '3'!A23, ".tsv -o ", dirs!$A$4, "/", A23, " -ref ref_seq/", B23, " -dsb ", C23, " --dsb_type ", D23, " --format ", E23, " --strand ", F23, " --hguide ", G23, " --cell ", H23, " --treatments ", I23, " --subst_type ", J23)</f>
-        <v>python 2_graph_processing/make_main_data.py -in libraries_3/KO_sgB_sense.tsv -o libraries_4/KO_sgB_sense -ref ref_seq/1DSB_R2_sense.fa -dsb 46 --dsb_type 1 --format individual --strand R2 --hguide sgB --cell KO --treatments sense --subst_type without</v>
-      </c>
-      <c r="L23" t="str">
         <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without ",  " -dir ", dirs!$A$4, "/", '3'!A23)</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/KO_sgB_sense</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/KO_sgB_R2_sense</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f ca="1">'2'!H25</f>
-        <v>KO_sgB_branch</v>
+        <v>KO_sgB_R2_branch</v>
       </c>
       <c r="B24" t="str">
         <f ca="1">'2'!B25</f>
@@ -9256,41 +9180,38 @@
         <f ca="1">IF('2'!G25="2DSB", 2, 1)</f>
         <v>1</v>
       </c>
-      <c r="E24" t="s">
-        <v>108</v>
-      </c>
-      <c r="F24" t="str">
+      <c r="E24" t="str">
         <f ca="1">'2'!E25</f>
         <v>R2</v>
       </c>
+      <c r="F24" t="str">
+        <f ca="1">MID('2'!G25, 3, 100)</f>
+        <v>B</v>
+      </c>
       <c r="G24" t="str">
-        <f ca="1">'2'!G25</f>
-        <v>sgB</v>
-      </c>
-      <c r="H24" t="str">
         <f ca="1">'2'!D25</f>
         <v>KO</v>
       </c>
-      <c r="I24" t="str">
+      <c r="H24" t="str">
         <f ca="1">'2'!F25</f>
         <v>branch</v>
       </c>
-      <c r="J24" t="s">
-        <v>113</v>
+      <c r="I24" t="s">
+        <v>110</v>
+      </c>
+      <c r="J24" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/", '3'!A24, ".tsv -o ", dirs!$A$4, "/", A24, " -ref ref_seq/", B24, " -dsb ", C24, " --dsb_type ", D24, " --strand ", E24, " --hguide ", F24, " --cell ", G24, " --treatment ", H24, " --subst_type ", I24)</f>
+        <v>python 2_graph_processing/make_main_data.py -in libraries_3/KO_sgB_R2_branch.tsv -o libraries_4/KO_sgB_R2_branch -ref ref_seq/1DSB_R2_branch.fa -dsb 46 --dsb_type 1 --strand R2 --hguide B --cell KO --treatment branch --subst_type without</v>
       </c>
       <c r="K24" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/", '3'!A24, ".tsv -o ", dirs!$A$4, "/", A24, " -ref ref_seq/", B24, " -dsb ", C24, " --dsb_type ", D24, " --format ", E24, " --strand ", F24, " --hguide ", G24, " --cell ", H24, " --treatments ", I24, " --subst_type ", J24)</f>
-        <v>python 2_graph_processing/make_main_data.py -in libraries_3/KO_sgB_branch.tsv -o libraries_4/KO_sgB_branch -ref ref_seq/1DSB_R2_branch.fa -dsb 46 --dsb_type 1 --format individual --strand R2 --hguide sgB --cell KO --treatments branch --subst_type without</v>
-      </c>
-      <c r="L24" t="str">
         <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without ",  " -dir ", dirs!$A$4, "/", '3'!A24)</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/KO_sgB_branch</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/KO_sgB_R2_branch</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f ca="1">'2'!H26</f>
-        <v>KO_sgB_cmv</v>
+        <v>KO_sgB_R2_cmv</v>
       </c>
       <c r="B25" t="str">
         <f ca="1">'2'!B26</f>
@@ -9304,41 +9225,38 @@
         <f ca="1">IF('2'!G26="2DSB", 2, 1)</f>
         <v>1</v>
       </c>
-      <c r="E25" t="s">
-        <v>108</v>
-      </c>
-      <c r="F25" t="str">
+      <c r="E25" t="str">
         <f ca="1">'2'!E26</f>
         <v>R2</v>
       </c>
+      <c r="F25" t="str">
+        <f ca="1">MID('2'!G26, 3, 100)</f>
+        <v>B</v>
+      </c>
       <c r="G25" t="str">
-        <f ca="1">'2'!G26</f>
-        <v>sgB</v>
-      </c>
-      <c r="H25" t="str">
         <f ca="1">'2'!D26</f>
         <v>KO</v>
       </c>
-      <c r="I25" t="str">
+      <c r="H25" t="str">
         <f ca="1">'2'!F26</f>
         <v>cmv</v>
       </c>
-      <c r="J25" t="s">
-        <v>113</v>
+      <c r="I25" t="s">
+        <v>110</v>
+      </c>
+      <c r="J25" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/", '3'!A25, ".tsv -o ", dirs!$A$4, "/", A25, " -ref ref_seq/", B25, " -dsb ", C25, " --dsb_type ", D25, " --strand ", E25, " --hguide ", F25, " --cell ", G25, " --treatment ", H25, " --subst_type ", I25)</f>
+        <v>python 2_graph_processing/make_main_data.py -in libraries_3/KO_sgB_R2_cmv.tsv -o libraries_4/KO_sgB_R2_cmv -ref ref_seq/1DSB_R2_cmv.fa -dsb 46 --dsb_type 1 --strand R2 --hguide B --cell KO --treatment cmv --subst_type without</v>
       </c>
       <c r="K25" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/", '3'!A25, ".tsv -o ", dirs!$A$4, "/", A25, " -ref ref_seq/", B25, " -dsb ", C25, " --dsb_type ", D25, " --format ", E25, " --strand ", F25, " --hguide ", G25, " --cell ", H25, " --treatments ", I25, " --subst_type ", J25)</f>
-        <v>python 2_graph_processing/make_main_data.py -in libraries_3/KO_sgB_cmv.tsv -o libraries_4/KO_sgB_cmv -ref ref_seq/1DSB_R2_cmv.fa -dsb 46 --dsb_type 1 --format individual --strand R2 --hguide sgB --cell KO --treatments cmv --subst_type without</v>
-      </c>
-      <c r="L25" t="str">
         <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without ",  " -dir ", dirs!$A$4, "/", '3'!A25)</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/KO_sgB_cmv</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/KO_sgB_R2_cmv</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f ca="1">'2'!H27</f>
-        <v>WT_sgCD_antisense</v>
+        <v>WT_sgCD_R1_antisense</v>
       </c>
       <c r="B26" t="str">
         <f ca="1">'2'!B27</f>
@@ -9352,41 +9270,38 @@
         <f ca="1">IF('2'!G27="2DSB", 2, 1)</f>
         <v>1</v>
       </c>
-      <c r="E26" t="s">
-        <v>108</v>
-      </c>
-      <c r="F26" t="str">
+      <c r="E26" t="str">
         <f ca="1">'2'!E27</f>
         <v>R1</v>
       </c>
+      <c r="F26" t="str">
+        <f ca="1">MID('2'!G27, 3, 100)</f>
+        <v>CD</v>
+      </c>
       <c r="G26" t="str">
-        <f ca="1">'2'!G27</f>
-        <v>sgCD</v>
-      </c>
-      <c r="H26" t="str">
         <f ca="1">'2'!D27</f>
         <v>WT</v>
       </c>
-      <c r="I26" t="str">
+      <c r="H26" t="str">
         <f ca="1">'2'!F27</f>
         <v>antisense</v>
       </c>
-      <c r="J26" t="s">
-        <v>113</v>
+      <c r="I26" t="s">
+        <v>110</v>
+      </c>
+      <c r="J26" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/", '3'!A26, ".tsv -o ", dirs!$A$4, "/", A26, " -ref ref_seq/", B26, " -dsb ", C26, " --dsb_type ", D26, " --strand ", E26, " --hguide ", F26, " --cell ", G26, " --treatment ", H26, " --subst_type ", I26)</f>
+        <v>python 2_graph_processing/make_main_data.py -in libraries_3/WT_sgCD_R1_antisense.tsv -o libraries_4/WT_sgCD_R1_antisense -ref ref_seq/2DSBanti_R1_antisense.fa -dsb 50 --dsb_type 1 --strand R1 --hguide CD --cell WT --treatment antisense --subst_type without</v>
       </c>
       <c r="K26" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/", '3'!A26, ".tsv -o ", dirs!$A$4, "/", A26, " -ref ref_seq/", B26, " -dsb ", C26, " --dsb_type ", D26, " --format ", E26, " --strand ", F26, " --hguide ", G26, " --cell ", H26, " --treatments ", I26, " --subst_type ", J26)</f>
-        <v>python 2_graph_processing/make_main_data.py -in libraries_3/WT_sgCD_antisense.tsv -o libraries_4/WT_sgCD_antisense -ref ref_seq/2DSBanti_R1_antisense.fa -dsb 50 --dsb_type 1 --format individual --strand R1 --hguide sgCD --cell WT --treatments antisense --subst_type without</v>
-      </c>
-      <c r="L26" t="str">
         <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without ",  " -dir ", dirs!$A$4, "/", '3'!A26)</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/WT_sgCD_antisense</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/WT_sgCD_R1_antisense</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f ca="1">'2'!H28</f>
-        <v>WT_sgCD_splicing</v>
+        <v>WT_sgCD_R1_splicing</v>
       </c>
       <c r="B27" t="str">
         <f ca="1">'2'!B28</f>
@@ -9400,41 +9315,38 @@
         <f ca="1">IF('2'!G28="2DSB", 2, 1)</f>
         <v>1</v>
       </c>
-      <c r="E27" t="s">
-        <v>108</v>
-      </c>
-      <c r="F27" t="str">
+      <c r="E27" t="str">
         <f ca="1">'2'!E28</f>
         <v>R1</v>
       </c>
+      <c r="F27" t="str">
+        <f ca="1">MID('2'!G28, 3, 100)</f>
+        <v>CD</v>
+      </c>
       <c r="G27" t="str">
-        <f ca="1">'2'!G28</f>
-        <v>sgCD</v>
-      </c>
-      <c r="H27" t="str">
         <f ca="1">'2'!D28</f>
         <v>WT</v>
       </c>
-      <c r="I27" t="str">
+      <c r="H27" t="str">
         <f ca="1">'2'!F28</f>
         <v>splicing</v>
       </c>
-      <c r="J27" t="s">
-        <v>113</v>
+      <c r="I27" t="s">
+        <v>110</v>
+      </c>
+      <c r="J27" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/", '3'!A27, ".tsv -o ", dirs!$A$4, "/", A27, " -ref ref_seq/", B27, " -dsb ", C27, " --dsb_type ", D27, " --strand ", E27, " --hguide ", F27, " --cell ", G27, " --treatment ", H27, " --subst_type ", I27)</f>
+        <v>python 2_graph_processing/make_main_data.py -in libraries_3/WT_sgCD_R1_splicing.tsv -o libraries_4/WT_sgCD_R1_splicing -ref ref_seq/2DSBanti_R1_splicing.fa -dsb 50 --dsb_type 1 --strand R1 --hguide CD --cell WT --treatment splicing --subst_type without</v>
       </c>
       <c r="K27" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/", '3'!A27, ".tsv -o ", dirs!$A$4, "/", A27, " -ref ref_seq/", B27, " -dsb ", C27, " --dsb_type ", D27, " --format ", E27, " --strand ", F27, " --hguide ", G27, " --cell ", H27, " --treatments ", I27, " --subst_type ", J27)</f>
-        <v>python 2_graph_processing/make_main_data.py -in libraries_3/WT_sgCD_splicing.tsv -o libraries_4/WT_sgCD_splicing -ref ref_seq/2DSBanti_R1_splicing.fa -dsb 50 --dsb_type 1 --format individual --strand R1 --hguide sgCD --cell WT --treatments splicing --subst_type without</v>
-      </c>
-      <c r="L27" t="str">
         <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without ",  " -dir ", dirs!$A$4, "/", '3'!A27)</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/WT_sgCD_splicing</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/WT_sgCD_R1_splicing</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f ca="1">'2'!H29</f>
-        <v>WT_sgCD_antisense</v>
+        <v>WT_sgCD_R2_antisense</v>
       </c>
       <c r="B28" t="str">
         <f ca="1">'2'!B29</f>
@@ -9448,41 +9360,38 @@
         <f ca="1">IF('2'!G29="2DSB", 2, 1)</f>
         <v>1</v>
       </c>
-      <c r="E28" t="s">
-        <v>108</v>
-      </c>
-      <c r="F28" t="str">
+      <c r="E28" t="str">
         <f ca="1">'2'!E29</f>
         <v>R2</v>
       </c>
+      <c r="F28" t="str">
+        <f ca="1">MID('2'!G29, 3, 100)</f>
+        <v>CD</v>
+      </c>
       <c r="G28" t="str">
-        <f ca="1">'2'!G29</f>
-        <v>sgCD</v>
-      </c>
-      <c r="H28" t="str">
         <f ca="1">'2'!D29</f>
         <v>WT</v>
       </c>
-      <c r="I28" t="str">
+      <c r="H28" t="str">
         <f ca="1">'2'!F29</f>
         <v>antisense</v>
       </c>
-      <c r="J28" t="s">
-        <v>113</v>
+      <c r="I28" t="s">
+        <v>110</v>
+      </c>
+      <c r="J28" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/", '3'!A28, ".tsv -o ", dirs!$A$4, "/", A28, " -ref ref_seq/", B28, " -dsb ", C28, " --dsb_type ", D28, " --strand ", E28, " --hguide ", F28, " --cell ", G28, " --treatment ", H28, " --subst_type ", I28)</f>
+        <v>python 2_graph_processing/make_main_data.py -in libraries_3/WT_sgCD_R2_antisense.tsv -o libraries_4/WT_sgCD_R2_antisense -ref ref_seq/2DSBanti_R2_antisense.fa -dsb 47 --dsb_type 1 --strand R2 --hguide CD --cell WT --treatment antisense --subst_type without</v>
       </c>
       <c r="K28" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/", '3'!A28, ".tsv -o ", dirs!$A$4, "/", A28, " -ref ref_seq/", B28, " -dsb ", C28, " --dsb_type ", D28, " --format ", E28, " --strand ", F28, " --hguide ", G28, " --cell ", H28, " --treatments ", I28, " --subst_type ", J28)</f>
-        <v>python 2_graph_processing/make_main_data.py -in libraries_3/WT_sgCD_antisense.tsv -o libraries_4/WT_sgCD_antisense -ref ref_seq/2DSBanti_R2_antisense.fa -dsb 47 --dsb_type 1 --format individual --strand R2 --hguide sgCD --cell WT --treatments antisense --subst_type without</v>
-      </c>
-      <c r="L28" t="str">
         <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without ",  " -dir ", dirs!$A$4, "/", '3'!A28)</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/WT_sgCD_antisense</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/WT_sgCD_R2_antisense</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f ca="1">'2'!H30</f>
-        <v>WT_sgCD_splicing</v>
+        <v>WT_sgCD_R2_splicing</v>
       </c>
       <c r="B29" t="str">
         <f ca="1">'2'!B30</f>
@@ -9496,35 +9405,32 @@
         <f ca="1">IF('2'!G30="2DSB", 2, 1)</f>
         <v>1</v>
       </c>
-      <c r="E29" t="s">
-        <v>108</v>
-      </c>
-      <c r="F29" t="str">
+      <c r="E29" t="str">
         <f ca="1">'2'!E30</f>
         <v>R2</v>
       </c>
+      <c r="F29" t="str">
+        <f ca="1">MID('2'!G30, 3, 100)</f>
+        <v>CD</v>
+      </c>
       <c r="G29" t="str">
-        <f ca="1">'2'!G30</f>
-        <v>sgCD</v>
-      </c>
-      <c r="H29" t="str">
         <f ca="1">'2'!D30</f>
         <v>WT</v>
       </c>
-      <c r="I29" t="str">
+      <c r="H29" t="str">
         <f ca="1">'2'!F30</f>
         <v>splicing</v>
       </c>
-      <c r="J29" t="s">
-        <v>113</v>
+      <c r="I29" t="s">
+        <v>110</v>
+      </c>
+      <c r="J29" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/", '3'!A29, ".tsv -o ", dirs!$A$4, "/", A29, " -ref ref_seq/", B29, " -dsb ", C29, " --dsb_type ", D29, " --strand ", E29, " --hguide ", F29, " --cell ", G29, " --treatment ", H29, " --subst_type ", I29)</f>
+        <v>python 2_graph_processing/make_main_data.py -in libraries_3/WT_sgCD_R2_splicing.tsv -o libraries_4/WT_sgCD_R2_splicing -ref ref_seq/2DSBanti_R2_splicing.fa -dsb 47 --dsb_type 1 --strand R2 --hguide CD --cell WT --treatment splicing --subst_type without</v>
       </c>
       <c r="K29" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/", '3'!A29, ".tsv -o ", dirs!$A$4, "/", A29, " -ref ref_seq/", B29, " -dsb ", C29, " --dsb_type ", D29, " --format ", E29, " --strand ", F29, " --hguide ", G29, " --cell ", H29, " --treatments ", I29, " --subst_type ", J29)</f>
-        <v>python 2_graph_processing/make_main_data.py -in libraries_3/WT_sgCD_splicing.tsv -o libraries_4/WT_sgCD_splicing -ref ref_seq/2DSBanti_R2_splicing.fa -dsb 47 --dsb_type 1 --format individual --strand R2 --hguide sgCD --cell WT --treatments splicing --subst_type without</v>
-      </c>
-      <c r="L29" t="str">
         <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without ",  " -dir ", dirs!$A$4, "/", '3'!A29)</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/WT_sgCD_splicing</v>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/WT_sgCD_R2_splicing</v>
       </c>
     </row>
   </sheetData>
@@ -9552,22 +9458,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -9576,22 +9482,22 @@
       </c>
       <c r="B2" t="str">
         <f ca="1">OFFSET('3'!$A$2, 3 * (A2 - 1), 0)</f>
-        <v>WT_sgAB_sense</v>
+        <v>WT_sgAB_R1_sense</v>
       </c>
       <c r="C2" t="str">
         <f ca="1">OFFSET('3'!$A$2, 3 * (A2 - 1) + 1, 0)</f>
-        <v>WT_sgAB_branch</v>
+        <v>WT_sgAB_R1_branch</v>
       </c>
       <c r="D2" t="str">
         <f ca="1">_xlfn.CONCAT(B2, "_", "branch")</f>
-        <v>WT_sgAB_sense_branch</v>
+        <v>WT_sgAB_R1_sense_branch</v>
       </c>
       <c r="E2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F2" t="str">
         <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", B2, " ", dirs!$A$4, "/", C2, " ", " -o ", dirs!$A$4, "/", D2, " --subst_type ", E2)</f>
-        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgAB_sense libraries_4/WT_sgAB_branch  -o libraries_4/WT_sgAB_sense_branch --subst_type without</v>
+        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgAB_R1_sense libraries_4/WT_sgAB_R1_branch  -o libraries_4/WT_sgAB_R1_sense_branch --subst_type without</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -9600,22 +9506,22 @@
       </c>
       <c r="B3" t="str">
         <f ca="1">OFFSET('3'!$A$2, 3 * (A3 - 1), 0)</f>
-        <v>WT_sgAB_sense</v>
+        <v>WT_sgAB_R1_sense</v>
       </c>
       <c r="C3" t="str">
         <f ca="1">OFFSET('3'!$A$2, 3 * (A3 - 1) + 2, 0)</f>
-        <v>WT_sgAB_cmv</v>
+        <v>WT_sgAB_R1_cmv</v>
       </c>
       <c r="D3" t="str">
         <f ca="1">_xlfn.CONCAT(B2, "_", "cmv")</f>
-        <v>WT_sgAB_sense_cmv</v>
+        <v>WT_sgAB_R1_sense_cmv</v>
       </c>
       <c r="E3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F3" t="str">
         <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", B3, " ", dirs!$A$4, "/", C3, " ", " -o ", dirs!$A$4, "/", D3, " --subst_type ", E3)</f>
-        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgAB_sense libraries_4/WT_sgAB_cmv  -o libraries_4/WT_sgAB_sense_cmv --subst_type without</v>
+        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgAB_R1_sense libraries_4/WT_sgAB_R1_cmv  -o libraries_4/WT_sgAB_R1_sense_cmv --subst_type without</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -9624,22 +9530,22 @@
       </c>
       <c r="B4" t="str">
         <f ca="1">OFFSET('3'!$A$2, 3 * (A4 - 1), 0)</f>
-        <v>KO_sgAB_sense</v>
+        <v>KO_sgAB_R1_sense</v>
       </c>
       <c r="C4" t="str">
         <f ca="1">OFFSET('3'!$A$2, 3 * (A4 - 1) + 1, 0)</f>
-        <v>KO_sgAB_branch</v>
+        <v>KO_sgAB_R1_branch</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" ref="D4" ca="1" si="0">_xlfn.CONCAT(B4, "_", "branch")</f>
-        <v>KO_sgAB_sense_branch</v>
+        <v>KO_sgAB_R1_sense_branch</v>
       </c>
       <c r="E4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F4" t="str">
         <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", B4, " ", dirs!$A$4, "/", C4, " ", " -o ", dirs!$A$4, "/", D4, " --subst_type ", E4)</f>
-        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/KO_sgAB_sense libraries_4/KO_sgAB_branch  -o libraries_4/KO_sgAB_sense_branch --subst_type without</v>
+        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/KO_sgAB_R1_sense libraries_4/KO_sgAB_R1_branch  -o libraries_4/KO_sgAB_R1_sense_branch --subst_type without</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -9648,22 +9554,22 @@
       </c>
       <c r="B5" t="str">
         <f ca="1">OFFSET('3'!$A$2, 3 * (A5 - 1), 0)</f>
-        <v>KO_sgAB_sense</v>
+        <v>KO_sgAB_R1_sense</v>
       </c>
       <c r="C5" t="str">
         <f ca="1">OFFSET('3'!$A$2, 3 * (A5 - 1) + 2, 0)</f>
-        <v>KO_sgAB_cmv</v>
+        <v>KO_sgAB_R1_cmv</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" ref="D5" ca="1" si="1">_xlfn.CONCAT(B4, "_", "cmv")</f>
-        <v>KO_sgAB_sense_cmv</v>
+        <v>KO_sgAB_R1_sense_cmv</v>
       </c>
       <c r="E5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F5" t="str">
         <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", B5, " ", dirs!$A$4, "/", C5, " ", " -o ", dirs!$A$4, "/", D5, " --subst_type ", E5)</f>
-        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/KO_sgAB_sense libraries_4/KO_sgAB_cmv  -o libraries_4/KO_sgAB_sense_cmv --subst_type without</v>
+        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/KO_sgAB_R1_sense libraries_4/KO_sgAB_R1_cmv  -o libraries_4/KO_sgAB_R1_sense_cmv --subst_type without</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -9672,22 +9578,22 @@
       </c>
       <c r="B6" t="str">
         <f ca="1">OFFSET('3'!$A$2, 3 * (A6 - 1), 0)</f>
-        <v>WT_sgAB_sense</v>
+        <v>WT_sgAB_R2_sense</v>
       </c>
       <c r="C6" t="str">
         <f ca="1">OFFSET('3'!$A$2, 3 * (A6 - 1) + 1, 0)</f>
-        <v>WT_sgAB_branch</v>
+        <v>WT_sgAB_R2_branch</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" ref="D6" ca="1" si="2">_xlfn.CONCAT(B6, "_", "branch")</f>
-        <v>WT_sgAB_sense_branch</v>
+        <v>WT_sgAB_R2_sense_branch</v>
       </c>
       <c r="E6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F6" t="str">
         <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", B6, " ", dirs!$A$4, "/", C6, " ", " -o ", dirs!$A$4, "/", D6, " --subst_type ", E6)</f>
-        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgAB_sense libraries_4/WT_sgAB_branch  -o libraries_4/WT_sgAB_sense_branch --subst_type without</v>
+        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgAB_R2_sense libraries_4/WT_sgAB_R2_branch  -o libraries_4/WT_sgAB_R2_sense_branch --subst_type without</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -9696,22 +9602,22 @@
       </c>
       <c r="B7" t="str">
         <f ca="1">OFFSET('3'!$A$2, 3 * (A7 - 1), 0)</f>
-        <v>WT_sgAB_sense</v>
+        <v>WT_sgAB_R2_sense</v>
       </c>
       <c r="C7" t="str">
         <f ca="1">OFFSET('3'!$A$2, 3 * (A7 - 1) + 2, 0)</f>
-        <v>WT_sgAB_cmv</v>
+        <v>WT_sgAB_R2_cmv</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" ref="D7" ca="1" si="3">_xlfn.CONCAT(B6, "_", "cmv")</f>
-        <v>WT_sgAB_sense_cmv</v>
+        <v>WT_sgAB_R2_sense_cmv</v>
       </c>
       <c r="E7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F7" t="str">
         <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", B7, " ", dirs!$A$4, "/", C7, " ", " -o ", dirs!$A$4, "/", D7, " --subst_type ", E7)</f>
-        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgAB_sense libraries_4/WT_sgAB_cmv  -o libraries_4/WT_sgAB_sense_cmv --subst_type without</v>
+        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgAB_R2_sense libraries_4/WT_sgAB_R2_cmv  -o libraries_4/WT_sgAB_R2_sense_cmv --subst_type without</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -9720,22 +9626,22 @@
       </c>
       <c r="B8" t="str">
         <f ca="1">OFFSET('3'!$A$2, 3 * (A8 - 1), 0)</f>
-        <v>KO_sgAB_sense</v>
+        <v>KO_sgAB_R2_sense</v>
       </c>
       <c r="C8" t="str">
         <f ca="1">OFFSET('3'!$A$2, 3 * (A8 - 1) + 1, 0)</f>
-        <v>KO_sgAB_branch</v>
+        <v>KO_sgAB_R2_branch</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" ref="D8" ca="1" si="4">_xlfn.CONCAT(B8, "_", "branch")</f>
-        <v>KO_sgAB_sense_branch</v>
+        <v>KO_sgAB_R2_sense_branch</v>
       </c>
       <c r="E8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F8" t="str">
         <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", B8, " ", dirs!$A$4, "/", C8, " ", " -o ", dirs!$A$4, "/", D8, " --subst_type ", E8)</f>
-        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/KO_sgAB_sense libraries_4/KO_sgAB_branch  -o libraries_4/KO_sgAB_sense_branch --subst_type without</v>
+        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/KO_sgAB_R2_sense libraries_4/KO_sgAB_R2_branch  -o libraries_4/KO_sgAB_R2_sense_branch --subst_type without</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -9744,22 +9650,22 @@
       </c>
       <c r="B9" t="str">
         <f ca="1">OFFSET('3'!$A$2, 3 * (A9 - 1), 0)</f>
-        <v>KO_sgAB_sense</v>
+        <v>KO_sgAB_R2_sense</v>
       </c>
       <c r="C9" t="str">
         <f ca="1">OFFSET('3'!$A$2, 3 * (A9 - 1) + 2, 0)</f>
-        <v>KO_sgAB_cmv</v>
+        <v>KO_sgAB_R2_cmv</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" ref="D9" ca="1" si="5">_xlfn.CONCAT(B8, "_", "cmv")</f>
-        <v>KO_sgAB_sense_cmv</v>
+        <v>KO_sgAB_R2_sense_cmv</v>
       </c>
       <c r="E9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F9" t="str">
         <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", B9, " ", dirs!$A$4, "/", C9, " ", " -o ", dirs!$A$4, "/", D9, " --subst_type ", E9)</f>
-        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/KO_sgAB_sense libraries_4/KO_sgAB_cmv  -o libraries_4/KO_sgAB_sense_cmv --subst_type without</v>
+        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/KO_sgAB_R2_sense libraries_4/KO_sgAB_R2_cmv  -o libraries_4/KO_sgAB_R2_sense_cmv --subst_type without</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -9768,22 +9674,22 @@
       </c>
       <c r="B10" t="str">
         <f ca="1">OFFSET('3'!$A$2, 3 * (A10 - 1), 0)</f>
-        <v>WT_sgA_sense</v>
+        <v>WT_sgA_R1_sense</v>
       </c>
       <c r="C10" t="str">
         <f ca="1">OFFSET('3'!$A$2, 3 * (A10 - 1) + 1, 0)</f>
-        <v>WT_sgA_branch</v>
+        <v>WT_sgA_R1_branch</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" ref="D10" ca="1" si="6">_xlfn.CONCAT(B10, "_", "branch")</f>
-        <v>WT_sgA_sense_branch</v>
+        <v>WT_sgA_R1_sense_branch</v>
       </c>
       <c r="E10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F10" t="str">
         <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", B10, " ", dirs!$A$4, "/", C10, " ", " -o ", dirs!$A$4, "/", D10, " --subst_type ", E10)</f>
-        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgA_sense libraries_4/WT_sgA_branch  -o libraries_4/WT_sgA_sense_branch --subst_type without</v>
+        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgA_R1_sense libraries_4/WT_sgA_R1_branch  -o libraries_4/WT_sgA_R1_sense_branch --subst_type without</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -9792,22 +9698,22 @@
       </c>
       <c r="B11" t="str">
         <f ca="1">OFFSET('3'!$A$2, 3 * (A11 - 1), 0)</f>
-        <v>WT_sgA_sense</v>
+        <v>WT_sgA_R1_sense</v>
       </c>
       <c r="C11" t="str">
         <f ca="1">OFFSET('3'!$A$2, 3 * (A11 - 1) + 2, 0)</f>
-        <v>WT_sgA_cmv</v>
+        <v>WT_sgA_R1_cmv</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" ref="D11" ca="1" si="7">_xlfn.CONCAT(B10, "_", "cmv")</f>
-        <v>WT_sgA_sense_cmv</v>
+        <v>WT_sgA_R1_sense_cmv</v>
       </c>
       <c r="E11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F11" t="str">
         <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", B11, " ", dirs!$A$4, "/", C11, " ", " -o ", dirs!$A$4, "/", D11, " --subst_type ", E11)</f>
-        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgA_sense libraries_4/WT_sgA_cmv  -o libraries_4/WT_sgA_sense_cmv --subst_type without</v>
+        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgA_R1_sense libraries_4/WT_sgA_R1_cmv  -o libraries_4/WT_sgA_R1_sense_cmv --subst_type without</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -9816,22 +9722,22 @@
       </c>
       <c r="B12" t="str">
         <f ca="1">OFFSET('3'!$A$2, 3 * (A12 - 1), 0)</f>
-        <v>WT_sgB_sense</v>
+        <v>WT_sgB_R2_sense</v>
       </c>
       <c r="C12" t="str">
         <f ca="1">OFFSET('3'!$A$2, 3 * (A12 - 1) + 1, 0)</f>
-        <v>WT_sgB_branch</v>
+        <v>WT_sgB_R2_branch</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" ref="D12" ca="1" si="8">_xlfn.CONCAT(B12, "_", "branch")</f>
-        <v>WT_sgB_sense_branch</v>
+        <v>WT_sgB_R2_sense_branch</v>
       </c>
       <c r="E12" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F12" t="str">
         <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", B12, " ", dirs!$A$4, "/", C12, " ", " -o ", dirs!$A$4, "/", D12, " --subst_type ", E12)</f>
-        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgB_sense libraries_4/WT_sgB_branch  -o libraries_4/WT_sgB_sense_branch --subst_type without</v>
+        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgB_R2_sense libraries_4/WT_sgB_R2_branch  -o libraries_4/WT_sgB_R2_sense_branch --subst_type without</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -9840,22 +9746,22 @@
       </c>
       <c r="B13" t="str">
         <f ca="1">OFFSET('3'!$A$2, 3 * (A13 - 1), 0)</f>
-        <v>WT_sgB_sense</v>
+        <v>WT_sgB_R2_sense</v>
       </c>
       <c r="C13" t="str">
         <f ca="1">OFFSET('3'!$A$2, 3 * (A13 - 1) + 2, 0)</f>
-        <v>WT_sgB_cmv</v>
+        <v>WT_sgB_R2_cmv</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" ref="D13" ca="1" si="9">_xlfn.CONCAT(B12, "_", "cmv")</f>
-        <v>WT_sgB_sense_cmv</v>
+        <v>WT_sgB_R2_sense_cmv</v>
       </c>
       <c r="E13" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F13" t="str">
         <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", B13, " ", dirs!$A$4, "/", C13, " ", " -o ", dirs!$A$4, "/", D13, " --subst_type ", E13)</f>
-        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgB_sense libraries_4/WT_sgB_cmv  -o libraries_4/WT_sgB_sense_cmv --subst_type without</v>
+        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgB_R2_sense libraries_4/WT_sgB_R2_cmv  -o libraries_4/WT_sgB_R2_sense_cmv --subst_type without</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -9864,22 +9770,22 @@
       </c>
       <c r="B14" t="str">
         <f ca="1">OFFSET('3'!$A$2, 3 * (A14 - 1), 0)</f>
-        <v>KO_sgA_sense</v>
+        <v>KO_sgA_R1_sense</v>
       </c>
       <c r="C14" t="str">
         <f ca="1">OFFSET('3'!$A$2, 3 * (A14 - 1) + 1, 0)</f>
-        <v>KO_sgA_branch</v>
+        <v>KO_sgA_R1_branch</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" ref="D14" ca="1" si="10">_xlfn.CONCAT(B14, "_", "branch")</f>
-        <v>KO_sgA_sense_branch</v>
+        <v>KO_sgA_R1_sense_branch</v>
       </c>
       <c r="E14" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F14" t="str">
         <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", B14, " ", dirs!$A$4, "/", C14, " ", " -o ", dirs!$A$4, "/", D14, " --subst_type ", E14)</f>
-        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/KO_sgA_sense libraries_4/KO_sgA_branch  -o libraries_4/KO_sgA_sense_branch --subst_type without</v>
+        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/KO_sgA_R1_sense libraries_4/KO_sgA_R1_branch  -o libraries_4/KO_sgA_R1_sense_branch --subst_type without</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -9888,22 +9794,22 @@
       </c>
       <c r="B15" t="str">
         <f ca="1">OFFSET('3'!$A$2, 3 * (A15 - 1), 0)</f>
-        <v>KO_sgA_sense</v>
+        <v>KO_sgA_R1_sense</v>
       </c>
       <c r="C15" t="str">
         <f ca="1">OFFSET('3'!$A$2, 3 * (A15 - 1) + 2, 0)</f>
-        <v>KO_sgA_cmv</v>
+        <v>KO_sgA_R1_cmv</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" ref="D15" ca="1" si="11">_xlfn.CONCAT(B14, "_", "cmv")</f>
-        <v>KO_sgA_sense_cmv</v>
+        <v>KO_sgA_R1_sense_cmv</v>
       </c>
       <c r="E15" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F15" t="str">
         <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", B15, " ", dirs!$A$4, "/", C15, " ", " -o ", dirs!$A$4, "/", D15, " --subst_type ", E15)</f>
-        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/KO_sgA_sense libraries_4/KO_sgA_cmv  -o libraries_4/KO_sgA_sense_cmv --subst_type without</v>
+        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/KO_sgA_R1_sense libraries_4/KO_sgA_R1_cmv  -o libraries_4/KO_sgA_R1_sense_cmv --subst_type without</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -9912,22 +9818,22 @@
       </c>
       <c r="B16" t="str">
         <f ca="1">OFFSET('3'!$A$2, 3 * (A16 - 1), 0)</f>
-        <v>KO_sgB_sense</v>
+        <v>KO_sgB_R2_sense</v>
       </c>
       <c r="C16" t="str">
         <f ca="1">OFFSET('3'!$A$2, 3 * (A16 - 1) + 1, 0)</f>
-        <v>KO_sgB_branch</v>
+        <v>KO_sgB_R2_branch</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" ref="D16" ca="1" si="12">_xlfn.CONCAT(B16, "_", "branch")</f>
-        <v>KO_sgB_sense_branch</v>
+        <v>KO_sgB_R2_sense_branch</v>
       </c>
       <c r="E16" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F16" t="str">
         <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", B16, " ", dirs!$A$4, "/", C16, " ", " -o ", dirs!$A$4, "/", D16, " --subst_type ", E16)</f>
-        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/KO_sgB_sense libraries_4/KO_sgB_branch  -o libraries_4/KO_sgB_sense_branch --subst_type without</v>
+        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/KO_sgB_R2_sense libraries_4/KO_sgB_R2_branch  -o libraries_4/KO_sgB_R2_sense_branch --subst_type without</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -9936,22 +9842,22 @@
       </c>
       <c r="B17" t="str">
         <f ca="1">OFFSET('3'!$A$2, 3 * (A17 - 1), 0)</f>
-        <v>KO_sgB_sense</v>
+        <v>KO_sgB_R2_sense</v>
       </c>
       <c r="C17" t="str">
         <f ca="1">OFFSET('3'!$A$2, 3 * (A17 - 1) + 2, 0)</f>
-        <v>KO_sgB_cmv</v>
+        <v>KO_sgB_R2_cmv</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" ref="D17" ca="1" si="13">_xlfn.CONCAT(B16, "_", "cmv")</f>
-        <v>KO_sgB_sense_cmv</v>
+        <v>KO_sgB_R2_sense_cmv</v>
       </c>
       <c r="E17" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F17" t="str">
         <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", B17, " ", dirs!$A$4, "/", C17, " ", " -o ", dirs!$A$4, "/", D17, " --subst_type ", E17)</f>
-        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/KO_sgB_sense libraries_4/KO_sgB_cmv  -o libraries_4/KO_sgB_sense_cmv --subst_type without</v>
+        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/KO_sgB_R2_sense libraries_4/KO_sgB_R2_cmv  -o libraries_4/KO_sgB_R2_sense_cmv --subst_type without</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -9960,22 +9866,22 @@
       </c>
       <c r="B18" t="str">
         <f ca="1">OFFSET('3'!$A$2, 3 * (A18 - 1), 0)</f>
-        <v>WT_sgCD_antisense</v>
+        <v>WT_sgCD_R1_antisense</v>
       </c>
       <c r="C18" t="str">
         <f ca="1">OFFSET('3'!$A$2, 3 * (A18 - 1) + 1, 0)</f>
-        <v>WT_sgCD_splicing</v>
+        <v>WT_sgCD_R1_splicing</v>
       </c>
       <c r="D18" t="str">
         <f ca="1">_xlfn.CONCAT(B17, "_", "splicing")</f>
-        <v>KO_sgB_sense_splicing</v>
+        <v>KO_sgB_R2_sense_splicing</v>
       </c>
       <c r="E18" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F18" t="str">
         <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", B18, " ", dirs!$A$4, "/", C18, " ", " -o ", dirs!$A$4, "/", D18, " --subst_type ", E18)</f>
-        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgCD_antisense libraries_4/WT_sgCD_splicing  -o libraries_4/KO_sgB_sense_splicing --subst_type without</v>
+        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgCD_R1_antisense libraries_4/WT_sgCD_R1_splicing  -o libraries_4/KO_sgB_R2_sense_splicing --subst_type without</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -9984,22 +9890,22 @@
       </c>
       <c r="B19" t="str">
         <f ca="1">OFFSET('3'!$A$2, 3 * (A19 - 1), 0)</f>
-        <v>WT_sgCD_antisense</v>
+        <v>WT_sgCD_R1_antisense</v>
       </c>
       <c r="C19" t="str">
         <f ca="1">OFFSET('3'!$A$2, 3 * (A19 - 1) + 1, 0)</f>
-        <v>WT_sgCD_splicing</v>
+        <v>WT_sgCD_R1_splicing</v>
       </c>
       <c r="D19" t="str">
         <f ca="1">_xlfn.CONCAT(B18, "_", "splicing")</f>
-        <v>WT_sgCD_antisense_splicing</v>
+        <v>WT_sgCD_R1_antisense_splicing</v>
       </c>
       <c r="E19" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F19" t="str">
         <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", B19, " ", dirs!$A$4, "/", C19, " ", " -o ", dirs!$A$4, "/", D19, " --subst_type ", E19)</f>
-        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgCD_antisense libraries_4/WT_sgCD_splicing  -o libraries_4/WT_sgCD_antisense_splicing --subst_type without</v>
+        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgCD_R1_antisense libraries_4/WT_sgCD_R1_splicing  -o libraries_4/WT_sgCD_R1_antisense_splicing --subst_type without</v>
       </c>
     </row>
   </sheetData>

--- a/libinfo.xlsx
+++ b/libinfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tchan\Code\SCMB_Project\RNA-mediated_DSB_repair\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C3EEDB-24BF-4238-8CE0-429B00C78CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8168026-2C8B-4AEA-8343-7EC28A32DF8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="2" xr2:uid="{2091B41C-DDD2-4E50-B30A-30FF3CA370E5}"/>
   </bookViews>

--- a/libinfo.xlsx
+++ b/libinfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tchan\Code\SCMB_Project\RNA-mediated_DSB_repair\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8168026-2C8B-4AEA-8343-7EC28A32DF8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B5666E-6F88-4A84-B72D-C4718E6AE17A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="2" xr2:uid="{2091B41C-DDD2-4E50-B30A-30FF3CA370E5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{2091B41C-DDD2-4E50-B30A-30FF3CA370E5}"/>
   </bookViews>
   <sheets>
     <sheet name="dirs" sheetId="3" r:id="rId1"/>
@@ -6083,7 +6083,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12B0900B-E55F-43FE-AC1A-BE82F1C8E743}">
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G19" workbookViewId="0">
+    <sheetView topLeftCell="G19" workbookViewId="0">
       <selection activeCell="Q3" sqref="Q3:Q30"/>
     </sheetView>
   </sheetViews>
@@ -8124,8 +8124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7FB6E33-93C4-4971-BF44-23A0F65AADA0}">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J29"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6:K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8394,8 +8394,8 @@
         <v>python 2_graph_processing/make_main_data.py -in libraries_3/KO_sgAB_R1_branch.tsv -o libraries_4/KO_sgAB_R1_branch -ref ref_seq/2DSB_R1_branch.fa -dsb 67 --dsb_type 1 --strand R1 --hguide AB --cell KO --treatment branch --subst_type without</v>
       </c>
       <c r="K6" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without ",  " -dir ", dirs!$A$4, "/", '3'!A6)</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/KO_sgAB_R1_branch</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without",  " -dir ", dirs!$A$4, "/", '3'!A6)</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgAB_R1_branch</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -8439,8 +8439,8 @@
         <v>python 2_graph_processing/make_main_data.py -in libraries_3/KO_sgAB_R1_cmv.tsv -o libraries_4/KO_sgAB_R1_cmv -ref ref_seq/2DSB_R1_cmv.fa -dsb 67 --dsb_type 1 --strand R1 --hguide AB --cell KO --treatment cmv --subst_type without</v>
       </c>
       <c r="K7" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without ",  " -dir ", dirs!$A$4, "/", '3'!A7)</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/KO_sgAB_R1_cmv</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without",  " -dir ", dirs!$A$4, "/", '3'!A7)</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgAB_R1_cmv</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -8484,8 +8484,8 @@
         <v>python 2_graph_processing/make_main_data.py -in libraries_3/WT_sgAB_R2_sense.tsv -o libraries_4/WT_sgAB_R2_sense -ref ref_seq/2DSB_R2_sense.fa -dsb 46 --dsb_type 1 --strand R2 --hguide AB --cell WT --treatment sense --subst_type without</v>
       </c>
       <c r="K8" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without ",  " -dir ", dirs!$A$4, "/", '3'!A8)</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/WT_sgAB_R2_sense</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without",  " -dir ", dirs!$A$4, "/", '3'!A8)</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgAB_R2_sense</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -8529,8 +8529,8 @@
         <v>python 2_graph_processing/make_main_data.py -in libraries_3/WT_sgAB_R2_branch.tsv -o libraries_4/WT_sgAB_R2_branch -ref ref_seq/2DSB_R2_branch.fa -dsb 46 --dsb_type 1 --strand R2 --hguide AB --cell WT --treatment branch --subst_type without</v>
       </c>
       <c r="K9" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without ",  " -dir ", dirs!$A$4, "/", '3'!A9)</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/WT_sgAB_R2_branch</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without",  " -dir ", dirs!$A$4, "/", '3'!A9)</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgAB_R2_branch</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -8574,8 +8574,8 @@
         <v>python 2_graph_processing/make_main_data.py -in libraries_3/WT_sgAB_R2_cmv.tsv -o libraries_4/WT_sgAB_R2_cmv -ref ref_seq/2DSB_R2_cmv.fa -dsb 46 --dsb_type 1 --strand R2 --hguide AB --cell WT --treatment cmv --subst_type without</v>
       </c>
       <c r="K10" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without ",  " -dir ", dirs!$A$4, "/", '3'!A10)</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/WT_sgAB_R2_cmv</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without",  " -dir ", dirs!$A$4, "/", '3'!A10)</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgAB_R2_cmv</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -8619,8 +8619,8 @@
         <v>python 2_graph_processing/make_main_data.py -in libraries_3/KO_sgAB_R2_sense.tsv -o libraries_4/KO_sgAB_R2_sense -ref ref_seq/2DSB_R2_sense.fa -dsb 46 --dsb_type 1 --strand R2 --hguide AB --cell KO --treatment sense --subst_type without</v>
       </c>
       <c r="K11" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without ",  " -dir ", dirs!$A$4, "/", '3'!A11)</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/KO_sgAB_R2_sense</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without",  " -dir ", dirs!$A$4, "/", '3'!A11)</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgAB_R2_sense</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -8664,8 +8664,8 @@
         <v>python 2_graph_processing/make_main_data.py -in libraries_3/KO_sgAB_R2_branch.tsv -o libraries_4/KO_sgAB_R2_branch -ref ref_seq/2DSB_R2_branch.fa -dsb 46 --dsb_type 1 --strand R2 --hguide AB --cell KO --treatment branch --subst_type without</v>
       </c>
       <c r="K12" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without ",  " -dir ", dirs!$A$4, "/", '3'!A12)</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/KO_sgAB_R2_branch</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without",  " -dir ", dirs!$A$4, "/", '3'!A12)</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgAB_R2_branch</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -8709,8 +8709,8 @@
         <v>python 2_graph_processing/make_main_data.py -in libraries_3/KO_sgAB_R2_cmv.tsv -o libraries_4/KO_sgAB_R2_cmv -ref ref_seq/2DSB_R2_cmv.fa -dsb 46 --dsb_type 1 --strand R2 --hguide AB --cell KO --treatment cmv --subst_type without</v>
       </c>
       <c r="K13" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without ",  " -dir ", dirs!$A$4, "/", '3'!A13)</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/KO_sgAB_R2_cmv</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without",  " -dir ", dirs!$A$4, "/", '3'!A13)</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgAB_R2_cmv</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -8754,8 +8754,8 @@
         <v>python 2_graph_processing/make_main_data.py -in libraries_3/WT_sgA_R1_sense.tsv -o libraries_4/WT_sgA_R1_sense -ref ref_seq/1DSB_R1_sense.fa -dsb 67 --dsb_type 1 --strand R1 --hguide A --cell WT --treatment sense --subst_type without</v>
       </c>
       <c r="K14" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without ",  " -dir ", dirs!$A$4, "/", '3'!A14)</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/WT_sgA_R1_sense</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without",  " -dir ", dirs!$A$4, "/", '3'!A14)</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgA_R1_sense</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -8799,8 +8799,8 @@
         <v>python 2_graph_processing/make_main_data.py -in libraries_3/WT_sgA_R1_branch.tsv -o libraries_4/WT_sgA_R1_branch -ref ref_seq/1DSB_R1_branch.fa -dsb 67 --dsb_type 1 --strand R1 --hguide A --cell WT --treatment branch --subst_type without</v>
       </c>
       <c r="K15" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without ",  " -dir ", dirs!$A$4, "/", '3'!A15)</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/WT_sgA_R1_branch</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without",  " -dir ", dirs!$A$4, "/", '3'!A15)</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgA_R1_branch</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -8844,8 +8844,8 @@
         <v>python 2_graph_processing/make_main_data.py -in libraries_3/WT_sgA_R1_cmv.tsv -o libraries_4/WT_sgA_R1_cmv -ref ref_seq/1DSB_R1_cmv.fa -dsb 67 --dsb_type 1 --strand R1 --hguide A --cell WT --treatment cmv --subst_type without</v>
       </c>
       <c r="K16" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without ",  " -dir ", dirs!$A$4, "/", '3'!A16)</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/WT_sgA_R1_cmv</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without",  " -dir ", dirs!$A$4, "/", '3'!A16)</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgA_R1_cmv</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -8889,8 +8889,8 @@
         <v>python 2_graph_processing/make_main_data.py -in libraries_3/WT_sgB_R2_sense.tsv -o libraries_4/WT_sgB_R2_sense -ref ref_seq/1DSB_R2_sense.fa -dsb 46 --dsb_type 1 --strand R2 --hguide B --cell WT --treatment sense --subst_type without</v>
       </c>
       <c r="K17" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without ",  " -dir ", dirs!$A$4, "/", '3'!A17)</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/WT_sgB_R2_sense</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without",  " -dir ", dirs!$A$4, "/", '3'!A17)</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgB_R2_sense</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -8934,8 +8934,8 @@
         <v>python 2_graph_processing/make_main_data.py -in libraries_3/WT_sgB_R2_branch.tsv -o libraries_4/WT_sgB_R2_branch -ref ref_seq/1DSB_R2_branch.fa -dsb 46 --dsb_type 1 --strand R2 --hguide B --cell WT --treatment branch --subst_type without</v>
       </c>
       <c r="K18" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without ",  " -dir ", dirs!$A$4, "/", '3'!A18)</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/WT_sgB_R2_branch</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without",  " -dir ", dirs!$A$4, "/", '3'!A18)</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgB_R2_branch</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -8979,8 +8979,8 @@
         <v>python 2_graph_processing/make_main_data.py -in libraries_3/WT_sgB_R2_cmv.tsv -o libraries_4/WT_sgB_R2_cmv -ref ref_seq/1DSB_R2_cmv.fa -dsb 46 --dsb_type 1 --strand R2 --hguide B --cell WT --treatment cmv --subst_type without</v>
       </c>
       <c r="K19" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without ",  " -dir ", dirs!$A$4, "/", '3'!A19)</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/WT_sgB_R2_cmv</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without",  " -dir ", dirs!$A$4, "/", '3'!A19)</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgB_R2_cmv</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -9024,8 +9024,8 @@
         <v>python 2_graph_processing/make_main_data.py -in libraries_3/KO_sgA_R1_sense.tsv -o libraries_4/KO_sgA_R1_sense -ref ref_seq/1DSB_R1_sense.fa -dsb 67 --dsb_type 1 --strand R1 --hguide A --cell KO --treatment sense --subst_type without</v>
       </c>
       <c r="K20" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without ",  " -dir ", dirs!$A$4, "/", '3'!A20)</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/KO_sgA_R1_sense</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without",  " -dir ", dirs!$A$4, "/", '3'!A20)</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgA_R1_sense</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -9069,8 +9069,8 @@
         <v>python 2_graph_processing/make_main_data.py -in libraries_3/KO_sgA_R1_branch.tsv -o libraries_4/KO_sgA_R1_branch -ref ref_seq/1DSB_R1_branch.fa -dsb 67 --dsb_type 1 --strand R1 --hguide A --cell KO --treatment branch --subst_type without</v>
       </c>
       <c r="K21" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without ",  " -dir ", dirs!$A$4, "/", '3'!A21)</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/KO_sgA_R1_branch</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without",  " -dir ", dirs!$A$4, "/", '3'!A21)</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgA_R1_branch</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -9114,8 +9114,8 @@
         <v>python 2_graph_processing/make_main_data.py -in libraries_3/KO_sgA_R1_cmv.tsv -o libraries_4/KO_sgA_R1_cmv -ref ref_seq/1DSB_R1_cmv.fa -dsb 67 --dsb_type 1 --strand R1 --hguide A --cell KO --treatment cmv --subst_type without</v>
       </c>
       <c r="K22" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without ",  " -dir ", dirs!$A$4, "/", '3'!A22)</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/KO_sgA_R1_cmv</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without",  " -dir ", dirs!$A$4, "/", '3'!A22)</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgA_R1_cmv</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -9159,8 +9159,8 @@
         <v>python 2_graph_processing/make_main_data.py -in libraries_3/KO_sgB_R2_sense.tsv -o libraries_4/KO_sgB_R2_sense -ref ref_seq/1DSB_R2_sense.fa -dsb 46 --dsb_type 1 --strand R2 --hguide B --cell KO --treatment sense --subst_type without</v>
       </c>
       <c r="K23" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without ",  " -dir ", dirs!$A$4, "/", '3'!A23)</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/KO_sgB_R2_sense</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without",  " -dir ", dirs!$A$4, "/", '3'!A23)</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgB_R2_sense</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -9204,8 +9204,8 @@
         <v>python 2_graph_processing/make_main_data.py -in libraries_3/KO_sgB_R2_branch.tsv -o libraries_4/KO_sgB_R2_branch -ref ref_seq/1DSB_R2_branch.fa -dsb 46 --dsb_type 1 --strand R2 --hguide B --cell KO --treatment branch --subst_type without</v>
       </c>
       <c r="K24" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without ",  " -dir ", dirs!$A$4, "/", '3'!A24)</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/KO_sgB_R2_branch</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without",  " -dir ", dirs!$A$4, "/", '3'!A24)</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgB_R2_branch</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -9249,8 +9249,8 @@
         <v>python 2_graph_processing/make_main_data.py -in libraries_3/KO_sgB_R2_cmv.tsv -o libraries_4/KO_sgB_R2_cmv -ref ref_seq/1DSB_R2_cmv.fa -dsb 46 --dsb_type 1 --strand R2 --hguide B --cell KO --treatment cmv --subst_type without</v>
       </c>
       <c r="K25" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without ",  " -dir ", dirs!$A$4, "/", '3'!A25)</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/KO_sgB_R2_cmv</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without",  " -dir ", dirs!$A$4, "/", '3'!A25)</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgB_R2_cmv</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -9294,8 +9294,8 @@
         <v>python 2_graph_processing/make_main_data.py -in libraries_3/WT_sgCD_R1_antisense.tsv -o libraries_4/WT_sgCD_R1_antisense -ref ref_seq/2DSBanti_R1_antisense.fa -dsb 50 --dsb_type 1 --strand R1 --hguide CD --cell WT --treatment antisense --subst_type without</v>
       </c>
       <c r="K26" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without ",  " -dir ", dirs!$A$4, "/", '3'!A26)</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/WT_sgCD_R1_antisense</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without",  " -dir ", dirs!$A$4, "/", '3'!A26)</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgCD_R1_antisense</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -9339,8 +9339,8 @@
         <v>python 2_graph_processing/make_main_data.py -in libraries_3/WT_sgCD_R1_splicing.tsv -o libraries_4/WT_sgCD_R1_splicing -ref ref_seq/2DSBanti_R1_splicing.fa -dsb 50 --dsb_type 1 --strand R1 --hguide CD --cell WT --treatment splicing --subst_type without</v>
       </c>
       <c r="K27" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without ",  " -dir ", dirs!$A$4, "/", '3'!A27)</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/WT_sgCD_R1_splicing</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without",  " -dir ", dirs!$A$4, "/", '3'!A27)</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgCD_R1_splicing</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -9384,8 +9384,8 @@
         <v>python 2_graph_processing/make_main_data.py -in libraries_3/WT_sgCD_R2_antisense.tsv -o libraries_4/WT_sgCD_R2_antisense -ref ref_seq/2DSBanti_R2_antisense.fa -dsb 47 --dsb_type 1 --strand R2 --hguide CD --cell WT --treatment antisense --subst_type without</v>
       </c>
       <c r="K28" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without ",  " -dir ", dirs!$A$4, "/", '3'!A28)</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/WT_sgCD_R2_antisense</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without",  " -dir ", dirs!$A$4, "/", '3'!A28)</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgCD_R2_antisense</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -9429,8 +9429,8 @@
         <v>python 2_graph_processing/make_main_data.py -in libraries_3/WT_sgCD_R2_splicing.tsv -o libraries_4/WT_sgCD_R2_splicing -ref ref_seq/2DSBanti_R2_splicing.fa -dsb 47 --dsb_type 1 --strand R2 --hguide CD --cell WT --treatment splicing --subst_type without</v>
       </c>
       <c r="K29" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without ",  " -dir ", dirs!$A$4, "/", '3'!A29)</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/WT_sgCD_R2_splicing</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without",  " -dir ", dirs!$A$4, "/", '3'!A29)</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgCD_R2_splicing</v>
       </c>
     </row>
   </sheetData>
@@ -9444,7 +9444,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F2" sqref="F2:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9496,8 +9496,8 @@
         <v>110</v>
       </c>
       <c r="F2" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", B2, " ", dirs!$A$4, "/", C2, " ", " -o ", dirs!$A$4, "/", D2, " --subst_type ", E2)</f>
-        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgAB_R1_sense libraries_4/WT_sgAB_R1_branch  -o libraries_4/WT_sgAB_R1_sense_branch --subst_type without</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", B2, " ", dirs!$A$4, "/", C2, " -o ", dirs!$A$4, "/", D2, " --subst_type ", E2)</f>
+        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgAB_R1_sense libraries_4/WT_sgAB_R1_branch -o libraries_4/WT_sgAB_R1_sense_branch --subst_type without</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -9520,8 +9520,8 @@
         <v>110</v>
       </c>
       <c r="F3" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", B3, " ", dirs!$A$4, "/", C3, " ", " -o ", dirs!$A$4, "/", D3, " --subst_type ", E3)</f>
-        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgAB_R1_sense libraries_4/WT_sgAB_R1_cmv  -o libraries_4/WT_sgAB_R1_sense_cmv --subst_type without</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", B3, " ", dirs!$A$4, "/", C3, " -o ", dirs!$A$4, "/", D3, " --subst_type ", E3)</f>
+        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgAB_R1_sense libraries_4/WT_sgAB_R1_cmv -o libraries_4/WT_sgAB_R1_sense_cmv --subst_type without</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -9544,8 +9544,8 @@
         <v>110</v>
       </c>
       <c r="F4" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", B4, " ", dirs!$A$4, "/", C4, " ", " -o ", dirs!$A$4, "/", D4, " --subst_type ", E4)</f>
-        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/KO_sgAB_R1_sense libraries_4/KO_sgAB_R1_branch  -o libraries_4/KO_sgAB_R1_sense_branch --subst_type without</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", B4, " ", dirs!$A$4, "/", C4, " -o ", dirs!$A$4, "/", D4, " --subst_type ", E4)</f>
+        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/KO_sgAB_R1_sense libraries_4/KO_sgAB_R1_branch -o libraries_4/KO_sgAB_R1_sense_branch --subst_type without</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -9568,8 +9568,8 @@
         <v>110</v>
       </c>
       <c r="F5" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", B5, " ", dirs!$A$4, "/", C5, " ", " -o ", dirs!$A$4, "/", D5, " --subst_type ", E5)</f>
-        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/KO_sgAB_R1_sense libraries_4/KO_sgAB_R1_cmv  -o libraries_4/KO_sgAB_R1_sense_cmv --subst_type without</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", B5, " ", dirs!$A$4, "/", C5, " -o ", dirs!$A$4, "/", D5, " --subst_type ", E5)</f>
+        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/KO_sgAB_R1_sense libraries_4/KO_sgAB_R1_cmv -o libraries_4/KO_sgAB_R1_sense_cmv --subst_type without</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -9592,8 +9592,8 @@
         <v>110</v>
       </c>
       <c r="F6" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", B6, " ", dirs!$A$4, "/", C6, " ", " -o ", dirs!$A$4, "/", D6, " --subst_type ", E6)</f>
-        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgAB_R2_sense libraries_4/WT_sgAB_R2_branch  -o libraries_4/WT_sgAB_R2_sense_branch --subst_type without</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", B6, " ", dirs!$A$4, "/", C6, " -o ", dirs!$A$4, "/", D6, " --subst_type ", E6)</f>
+        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgAB_R2_sense libraries_4/WT_sgAB_R2_branch -o libraries_4/WT_sgAB_R2_sense_branch --subst_type without</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -9616,8 +9616,8 @@
         <v>110</v>
       </c>
       <c r="F7" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", B7, " ", dirs!$A$4, "/", C7, " ", " -o ", dirs!$A$4, "/", D7, " --subst_type ", E7)</f>
-        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgAB_R2_sense libraries_4/WT_sgAB_R2_cmv  -o libraries_4/WT_sgAB_R2_sense_cmv --subst_type without</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", B7, " ", dirs!$A$4, "/", C7, " -o ", dirs!$A$4, "/", D7, " --subst_type ", E7)</f>
+        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgAB_R2_sense libraries_4/WT_sgAB_R2_cmv -o libraries_4/WT_sgAB_R2_sense_cmv --subst_type without</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -9640,8 +9640,8 @@
         <v>110</v>
       </c>
       <c r="F8" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", B8, " ", dirs!$A$4, "/", C8, " ", " -o ", dirs!$A$4, "/", D8, " --subst_type ", E8)</f>
-        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/KO_sgAB_R2_sense libraries_4/KO_sgAB_R2_branch  -o libraries_4/KO_sgAB_R2_sense_branch --subst_type without</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", B8, " ", dirs!$A$4, "/", C8, " -o ", dirs!$A$4, "/", D8, " --subst_type ", E8)</f>
+        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/KO_sgAB_R2_sense libraries_4/KO_sgAB_R2_branch -o libraries_4/KO_sgAB_R2_sense_branch --subst_type without</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -9664,8 +9664,8 @@
         <v>110</v>
       </c>
       <c r="F9" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", B9, " ", dirs!$A$4, "/", C9, " ", " -o ", dirs!$A$4, "/", D9, " --subst_type ", E9)</f>
-        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/KO_sgAB_R2_sense libraries_4/KO_sgAB_R2_cmv  -o libraries_4/KO_sgAB_R2_sense_cmv --subst_type without</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", B9, " ", dirs!$A$4, "/", C9, " -o ", dirs!$A$4, "/", D9, " --subst_type ", E9)</f>
+        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/KO_sgAB_R2_sense libraries_4/KO_sgAB_R2_cmv -o libraries_4/KO_sgAB_R2_sense_cmv --subst_type without</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -9688,8 +9688,8 @@
         <v>110</v>
       </c>
       <c r="F10" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", B10, " ", dirs!$A$4, "/", C10, " ", " -o ", dirs!$A$4, "/", D10, " --subst_type ", E10)</f>
-        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgA_R1_sense libraries_4/WT_sgA_R1_branch  -o libraries_4/WT_sgA_R1_sense_branch --subst_type without</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", B10, " ", dirs!$A$4, "/", C10, " -o ", dirs!$A$4, "/", D10, " --subst_type ", E10)</f>
+        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgA_R1_sense libraries_4/WT_sgA_R1_branch -o libraries_4/WT_sgA_R1_sense_branch --subst_type without</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -9712,8 +9712,8 @@
         <v>110</v>
       </c>
       <c r="F11" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", B11, " ", dirs!$A$4, "/", C11, " ", " -o ", dirs!$A$4, "/", D11, " --subst_type ", E11)</f>
-        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgA_R1_sense libraries_4/WT_sgA_R1_cmv  -o libraries_4/WT_sgA_R1_sense_cmv --subst_type without</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", B11, " ", dirs!$A$4, "/", C11, " -o ", dirs!$A$4, "/", D11, " --subst_type ", E11)</f>
+        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgA_R1_sense libraries_4/WT_sgA_R1_cmv -o libraries_4/WT_sgA_R1_sense_cmv --subst_type without</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -9736,8 +9736,8 @@
         <v>110</v>
       </c>
       <c r="F12" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", B12, " ", dirs!$A$4, "/", C12, " ", " -o ", dirs!$A$4, "/", D12, " --subst_type ", E12)</f>
-        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgB_R2_sense libraries_4/WT_sgB_R2_branch  -o libraries_4/WT_sgB_R2_sense_branch --subst_type without</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", B12, " ", dirs!$A$4, "/", C12, " -o ", dirs!$A$4, "/", D12, " --subst_type ", E12)</f>
+        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgB_R2_sense libraries_4/WT_sgB_R2_branch -o libraries_4/WT_sgB_R2_sense_branch --subst_type without</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -9760,8 +9760,8 @@
         <v>110</v>
       </c>
       <c r="F13" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", B13, " ", dirs!$A$4, "/", C13, " ", " -o ", dirs!$A$4, "/", D13, " --subst_type ", E13)</f>
-        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgB_R2_sense libraries_4/WT_sgB_R2_cmv  -o libraries_4/WT_sgB_R2_sense_cmv --subst_type without</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", B13, " ", dirs!$A$4, "/", C13, " -o ", dirs!$A$4, "/", D13, " --subst_type ", E13)</f>
+        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgB_R2_sense libraries_4/WT_sgB_R2_cmv -o libraries_4/WT_sgB_R2_sense_cmv --subst_type without</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -9784,8 +9784,8 @@
         <v>110</v>
       </c>
       <c r="F14" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", B14, " ", dirs!$A$4, "/", C14, " ", " -o ", dirs!$A$4, "/", D14, " --subst_type ", E14)</f>
-        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/KO_sgA_R1_sense libraries_4/KO_sgA_R1_branch  -o libraries_4/KO_sgA_R1_sense_branch --subst_type without</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", B14, " ", dirs!$A$4, "/", C14, " -o ", dirs!$A$4, "/", D14, " --subst_type ", E14)</f>
+        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/KO_sgA_R1_sense libraries_4/KO_sgA_R1_branch -o libraries_4/KO_sgA_R1_sense_branch --subst_type without</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -9808,8 +9808,8 @@
         <v>110</v>
       </c>
       <c r="F15" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", B15, " ", dirs!$A$4, "/", C15, " ", " -o ", dirs!$A$4, "/", D15, " --subst_type ", E15)</f>
-        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/KO_sgA_R1_sense libraries_4/KO_sgA_R1_cmv  -o libraries_4/KO_sgA_R1_sense_cmv --subst_type without</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", B15, " ", dirs!$A$4, "/", C15, " -o ", dirs!$A$4, "/", D15, " --subst_type ", E15)</f>
+        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/KO_sgA_R1_sense libraries_4/KO_sgA_R1_cmv -o libraries_4/KO_sgA_R1_sense_cmv --subst_type without</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -9832,8 +9832,8 @@
         <v>110</v>
       </c>
       <c r="F16" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", B16, " ", dirs!$A$4, "/", C16, " ", " -o ", dirs!$A$4, "/", D16, " --subst_type ", E16)</f>
-        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/KO_sgB_R2_sense libraries_4/KO_sgB_R2_branch  -o libraries_4/KO_sgB_R2_sense_branch --subst_type without</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", B16, " ", dirs!$A$4, "/", C16, " -o ", dirs!$A$4, "/", D16, " --subst_type ", E16)</f>
+        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/KO_sgB_R2_sense libraries_4/KO_sgB_R2_branch -o libraries_4/KO_sgB_R2_sense_branch --subst_type without</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -9856,8 +9856,8 @@
         <v>110</v>
       </c>
       <c r="F17" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", B17, " ", dirs!$A$4, "/", C17, " ", " -o ", dirs!$A$4, "/", D17, " --subst_type ", E17)</f>
-        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/KO_sgB_R2_sense libraries_4/KO_sgB_R2_cmv  -o libraries_4/KO_sgB_R2_sense_cmv --subst_type without</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", B17, " ", dirs!$A$4, "/", C17, " -o ", dirs!$A$4, "/", D17, " --subst_type ", E17)</f>
+        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/KO_sgB_R2_sense libraries_4/KO_sgB_R2_cmv -o libraries_4/KO_sgB_R2_sense_cmv --subst_type without</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -9880,8 +9880,8 @@
         <v>110</v>
       </c>
       <c r="F18" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", B18, " ", dirs!$A$4, "/", C18, " ", " -o ", dirs!$A$4, "/", D18, " --subst_type ", E18)</f>
-        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgCD_R1_antisense libraries_4/WT_sgCD_R1_splicing  -o libraries_4/KO_sgB_R2_sense_splicing --subst_type without</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", B18, " ", dirs!$A$4, "/", C18, " -o ", dirs!$A$4, "/", D18, " --subst_type ", E18)</f>
+        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgCD_R1_antisense libraries_4/WT_sgCD_R1_splicing -o libraries_4/KO_sgB_R2_sense_splicing --subst_type without</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -9904,8 +9904,8 @@
         <v>110</v>
       </c>
       <c r="F19" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", B19, " ", dirs!$A$4, "/", C19, " ", " -o ", dirs!$A$4, "/", D19, " --subst_type ", E19)</f>
-        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgCD_R1_antisense libraries_4/WT_sgCD_R1_splicing  -o libraries_4/WT_sgCD_R1_antisense_splicing --subst_type without</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", B19, " ", dirs!$A$4, "/", C19, " -o ", dirs!$A$4, "/", D19, " --subst_type ", E19)</f>
+        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgCD_R1_antisense libraries_4/WT_sgCD_R1_splicing -o libraries_4/WT_sgCD_R1_antisense_splicing --subst_type without</v>
       </c>
     </row>
   </sheetData>

--- a/libinfo.xlsx
+++ b/libinfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tchan\Code\SCMB_Project\RNA-mediated_DSB_repair\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B5666E-6F88-4A84-B72D-C4718E6AE17A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C46FD791-FF59-48E6-8612-E9AD180DFA2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{2091B41C-DDD2-4E50-B30A-30FF3CA370E5}"/>
   </bookViews>
@@ -8124,8 +8124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7FB6E33-93C4-4971-BF44-23A0F65AADA0}">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6:K29"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9443,8 +9443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AFDA2BA-58B9-4C12-83E9-7C389A51814A}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F19"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9513,15 +9513,15 @@
         <v>WT_sgAB_R1_cmv</v>
       </c>
       <c r="D3" t="str">
-        <f ca="1">_xlfn.CONCAT(B2, "_", "cmv")</f>
-        <v>WT_sgAB_R1_sense_cmv</v>
+        <f t="shared" ref="D3:D19" ca="1" si="0">_xlfn.CONCAT(B3, "_", "branch")</f>
+        <v>WT_sgAB_R1_sense_branch</v>
       </c>
       <c r="E3" t="s">
         <v>110</v>
       </c>
       <c r="F3" t="str">
         <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", B3, " ", dirs!$A$4, "/", C3, " -o ", dirs!$A$4, "/", D3, " --subst_type ", E3)</f>
-        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgAB_R1_sense libraries_4/WT_sgAB_R1_cmv -o libraries_4/WT_sgAB_R1_sense_cmv --subst_type without</v>
+        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgAB_R1_sense libraries_4/WT_sgAB_R1_cmv -o libraries_4/WT_sgAB_R1_sense_branch --subst_type without</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -9537,7 +9537,7 @@
         <v>KO_sgAB_R1_branch</v>
       </c>
       <c r="D4" t="str">
-        <f t="shared" ref="D4" ca="1" si="0">_xlfn.CONCAT(B4, "_", "branch")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>KO_sgAB_R1_sense_branch</v>
       </c>
       <c r="E4" t="s">
@@ -9561,15 +9561,15 @@
         <v>KO_sgAB_R1_cmv</v>
       </c>
       <c r="D5" t="str">
-        <f t="shared" ref="D5" ca="1" si="1">_xlfn.CONCAT(B4, "_", "cmv")</f>
-        <v>KO_sgAB_R1_sense_cmv</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>KO_sgAB_R1_sense_branch</v>
       </c>
       <c r="E5" t="s">
         <v>110</v>
       </c>
       <c r="F5" t="str">
         <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", B5, " ", dirs!$A$4, "/", C5, " -o ", dirs!$A$4, "/", D5, " --subst_type ", E5)</f>
-        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/KO_sgAB_R1_sense libraries_4/KO_sgAB_R1_cmv -o libraries_4/KO_sgAB_R1_sense_cmv --subst_type without</v>
+        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/KO_sgAB_R1_sense libraries_4/KO_sgAB_R1_cmv -o libraries_4/KO_sgAB_R1_sense_branch --subst_type without</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -9585,7 +9585,7 @@
         <v>WT_sgAB_R2_branch</v>
       </c>
       <c r="D6" t="str">
-        <f t="shared" ref="D6" ca="1" si="2">_xlfn.CONCAT(B6, "_", "branch")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>WT_sgAB_R2_sense_branch</v>
       </c>
       <c r="E6" t="s">
@@ -9609,15 +9609,15 @@
         <v>WT_sgAB_R2_cmv</v>
       </c>
       <c r="D7" t="str">
-        <f t="shared" ref="D7" ca="1" si="3">_xlfn.CONCAT(B6, "_", "cmv")</f>
-        <v>WT_sgAB_R2_sense_cmv</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>WT_sgAB_R2_sense_branch</v>
       </c>
       <c r="E7" t="s">
         <v>110</v>
       </c>
       <c r="F7" t="str">
         <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", B7, " ", dirs!$A$4, "/", C7, " -o ", dirs!$A$4, "/", D7, " --subst_type ", E7)</f>
-        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgAB_R2_sense libraries_4/WT_sgAB_R2_cmv -o libraries_4/WT_sgAB_R2_sense_cmv --subst_type without</v>
+        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgAB_R2_sense libraries_4/WT_sgAB_R2_cmv -o libraries_4/WT_sgAB_R2_sense_branch --subst_type without</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -9633,7 +9633,7 @@
         <v>KO_sgAB_R2_branch</v>
       </c>
       <c r="D8" t="str">
-        <f t="shared" ref="D8" ca="1" si="4">_xlfn.CONCAT(B8, "_", "branch")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>KO_sgAB_R2_sense_branch</v>
       </c>
       <c r="E8" t="s">
@@ -9657,15 +9657,15 @@
         <v>KO_sgAB_R2_cmv</v>
       </c>
       <c r="D9" t="str">
-        <f t="shared" ref="D9" ca="1" si="5">_xlfn.CONCAT(B8, "_", "cmv")</f>
-        <v>KO_sgAB_R2_sense_cmv</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>KO_sgAB_R2_sense_branch</v>
       </c>
       <c r="E9" t="s">
         <v>110</v>
       </c>
       <c r="F9" t="str">
         <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", B9, " ", dirs!$A$4, "/", C9, " -o ", dirs!$A$4, "/", D9, " --subst_type ", E9)</f>
-        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/KO_sgAB_R2_sense libraries_4/KO_sgAB_R2_cmv -o libraries_4/KO_sgAB_R2_sense_cmv --subst_type without</v>
+        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/KO_sgAB_R2_sense libraries_4/KO_sgAB_R2_cmv -o libraries_4/KO_sgAB_R2_sense_branch --subst_type without</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -9681,7 +9681,7 @@
         <v>WT_sgA_R1_branch</v>
       </c>
       <c r="D10" t="str">
-        <f t="shared" ref="D10" ca="1" si="6">_xlfn.CONCAT(B10, "_", "branch")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>WT_sgA_R1_sense_branch</v>
       </c>
       <c r="E10" t="s">
@@ -9705,15 +9705,15 @@
         <v>WT_sgA_R1_cmv</v>
       </c>
       <c r="D11" t="str">
-        <f t="shared" ref="D11" ca="1" si="7">_xlfn.CONCAT(B10, "_", "cmv")</f>
-        <v>WT_sgA_R1_sense_cmv</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>WT_sgA_R1_sense_branch</v>
       </c>
       <c r="E11" t="s">
         <v>110</v>
       </c>
       <c r="F11" t="str">
         <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", B11, " ", dirs!$A$4, "/", C11, " -o ", dirs!$A$4, "/", D11, " --subst_type ", E11)</f>
-        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgA_R1_sense libraries_4/WT_sgA_R1_cmv -o libraries_4/WT_sgA_R1_sense_cmv --subst_type without</v>
+        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgA_R1_sense libraries_4/WT_sgA_R1_cmv -o libraries_4/WT_sgA_R1_sense_branch --subst_type without</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -9729,7 +9729,7 @@
         <v>WT_sgB_R2_branch</v>
       </c>
       <c r="D12" t="str">
-        <f t="shared" ref="D12" ca="1" si="8">_xlfn.CONCAT(B12, "_", "branch")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>WT_sgB_R2_sense_branch</v>
       </c>
       <c r="E12" t="s">
@@ -9753,15 +9753,15 @@
         <v>WT_sgB_R2_cmv</v>
       </c>
       <c r="D13" t="str">
-        <f t="shared" ref="D13" ca="1" si="9">_xlfn.CONCAT(B12, "_", "cmv")</f>
-        <v>WT_sgB_R2_sense_cmv</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>WT_sgB_R2_sense_branch</v>
       </c>
       <c r="E13" t="s">
         <v>110</v>
       </c>
       <c r="F13" t="str">
         <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", B13, " ", dirs!$A$4, "/", C13, " -o ", dirs!$A$4, "/", D13, " --subst_type ", E13)</f>
-        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgB_R2_sense libraries_4/WT_sgB_R2_cmv -o libraries_4/WT_sgB_R2_sense_cmv --subst_type without</v>
+        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgB_R2_sense libraries_4/WT_sgB_R2_cmv -o libraries_4/WT_sgB_R2_sense_branch --subst_type without</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -9777,7 +9777,7 @@
         <v>KO_sgA_R1_branch</v>
       </c>
       <c r="D14" t="str">
-        <f t="shared" ref="D14" ca="1" si="10">_xlfn.CONCAT(B14, "_", "branch")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>KO_sgA_R1_sense_branch</v>
       </c>
       <c r="E14" t="s">
@@ -9801,15 +9801,15 @@
         <v>KO_sgA_R1_cmv</v>
       </c>
       <c r="D15" t="str">
-        <f t="shared" ref="D15" ca="1" si="11">_xlfn.CONCAT(B14, "_", "cmv")</f>
-        <v>KO_sgA_R1_sense_cmv</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>KO_sgA_R1_sense_branch</v>
       </c>
       <c r="E15" t="s">
         <v>110</v>
       </c>
       <c r="F15" t="str">
         <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", B15, " ", dirs!$A$4, "/", C15, " -o ", dirs!$A$4, "/", D15, " --subst_type ", E15)</f>
-        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/KO_sgA_R1_sense libraries_4/KO_sgA_R1_cmv -o libraries_4/KO_sgA_R1_sense_cmv --subst_type without</v>
+        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/KO_sgA_R1_sense libraries_4/KO_sgA_R1_cmv -o libraries_4/KO_sgA_R1_sense_branch --subst_type without</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -9825,7 +9825,7 @@
         <v>KO_sgB_R2_branch</v>
       </c>
       <c r="D16" t="str">
-        <f t="shared" ref="D16" ca="1" si="12">_xlfn.CONCAT(B16, "_", "branch")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>KO_sgB_R2_sense_branch</v>
       </c>
       <c r="E16" t="s">
@@ -9849,15 +9849,15 @@
         <v>KO_sgB_R2_cmv</v>
       </c>
       <c r="D17" t="str">
-        <f t="shared" ref="D17" ca="1" si="13">_xlfn.CONCAT(B16, "_", "cmv")</f>
-        <v>KO_sgB_R2_sense_cmv</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>KO_sgB_R2_sense_branch</v>
       </c>
       <c r="E17" t="s">
         <v>110</v>
       </c>
       <c r="F17" t="str">
         <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", B17, " ", dirs!$A$4, "/", C17, " -o ", dirs!$A$4, "/", D17, " --subst_type ", E17)</f>
-        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/KO_sgB_R2_sense libraries_4/KO_sgB_R2_cmv -o libraries_4/KO_sgB_R2_sense_cmv --subst_type without</v>
+        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/KO_sgB_R2_sense libraries_4/KO_sgB_R2_cmv -o libraries_4/KO_sgB_R2_sense_branch --subst_type without</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -9873,15 +9873,15 @@
         <v>WT_sgCD_R1_splicing</v>
       </c>
       <c r="D18" t="str">
-        <f ca="1">_xlfn.CONCAT(B17, "_", "splicing")</f>
-        <v>KO_sgB_R2_sense_splicing</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>WT_sgCD_R1_antisense_branch</v>
       </c>
       <c r="E18" t="s">
         <v>110</v>
       </c>
       <c r="F18" t="str">
         <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", B18, " ", dirs!$A$4, "/", C18, " -o ", dirs!$A$4, "/", D18, " --subst_type ", E18)</f>
-        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgCD_R1_antisense libraries_4/WT_sgCD_R1_splicing -o libraries_4/KO_sgB_R2_sense_splicing --subst_type without</v>
+        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgCD_R1_antisense libraries_4/WT_sgCD_R1_splicing -o libraries_4/WT_sgCD_R1_antisense_branch --subst_type without</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -9897,15 +9897,15 @@
         <v>WT_sgCD_R1_splicing</v>
       </c>
       <c r="D19" t="str">
-        <f ca="1">_xlfn.CONCAT(B18, "_", "splicing")</f>
-        <v>WT_sgCD_R1_antisense_splicing</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>WT_sgCD_R1_antisense_branch</v>
       </c>
       <c r="E19" t="s">
         <v>110</v>
       </c>
       <c r="F19" t="str">
         <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", B19, " ", dirs!$A$4, "/", C19, " -o ", dirs!$A$4, "/", D19, " --subst_type ", E19)</f>
-        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgCD_R1_antisense libraries_4/WT_sgCD_R1_splicing -o libraries_4/WT_sgCD_R1_antisense_splicing --subst_type without</v>
+        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgCD_R1_antisense libraries_4/WT_sgCD_R1_splicing -o libraries_4/WT_sgCD_R1_antisense_branch --subst_type without</v>
       </c>
     </row>
   </sheetData>

--- a/libinfo.xlsx
+++ b/libinfo.xlsx
@@ -8,19 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tchan\Code\SCMB_Project\RNA-mediated_DSB_repair\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4D7A3F-DEA4-49B6-8983-6C958CD161EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8673D43-8D4B-4F98-B8C5-6C941EF89D56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="6" xr2:uid="{2091B41C-DDD2-4E50-B30A-30FF3CA370E5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{2091B41C-DDD2-4E50-B30A-30FF3CA370E5}"/>
   </bookViews>
   <sheets>
     <sheet name="dirs" sheetId="3" r:id="rId1"/>
     <sheet name="1_repeats" sheetId="1" r:id="rId2"/>
     <sheet name="1_total_reads" sheetId="8" r:id="rId3"/>
     <sheet name="2_combined" sheetId="7" r:id="rId4"/>
-    <sheet name="2_nodsb" sheetId="6" r:id="rId5"/>
-    <sheet name="3_graph" sheetId="4" r:id="rId6"/>
-    <sheet name="3_graph_nodsb" sheetId="9" r:id="rId7"/>
-    <sheet name="4_graph_combined" sheetId="5" r:id="rId8"/>
+    <sheet name="3_graph" sheetId="4" r:id="rId5"/>
+    <sheet name="4_graph_combined" sheetId="5" r:id="rId6"/>
+    <sheet name="5_histogram_3d" sheetId="11" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="dsb">'1_repeats'!$D:$D</definedName>
@@ -67,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1576" uniqueCount="175">
   <si>
     <t>yjl217</t>
   </si>
@@ -578,6 +577,21 @@
   <si>
     <t>yjl241</t>
   </si>
+  <si>
+    <t>treatment_1</t>
+  </si>
+  <si>
+    <t>treatment_2</t>
+  </si>
+  <si>
+    <t>treatments_out</t>
+  </si>
+  <si>
+    <t>SCRATCH 30BP DOWN COMBINED! THE REFERENCE SEQUENCES WONT BE THE SAME!</t>
+  </si>
+  <si>
+    <t>plots/histogram_3d</t>
+  </si>
 </sst>
 </file>
 
@@ -634,17 +648,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{FFD19645-61C4-4244-A560-0232B787F38C}"/>
   </cellStyles>
-  <dxfs count="62">
+  <dxfs count="93">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -724,6 +749,82 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -772,27 +873,121 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -817,6 +1012,15 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -833,6 +1037,39 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -986,7 +1223,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{22A90416-B904-4D3D-A6DB-EFCB9FD1EAED}" name="Table1" displayName="Table1" ref="A1:N173" totalsRowShown="0" headerRowDxfId="61">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{22A90416-B904-4D3D-A6DB-EFCB9FD1EAED}" name="Table1" displayName="Table1" ref="A1:N173" totalsRowShown="0" headerRowDxfId="92">
   <autoFilter ref="A1:N173" xr:uid="{22A90416-B904-4D3D-A6DB-EFCB9FD1EAED}"/>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{5C1CDEE9-AAC7-4E12-B88F-1314CF422335}" name="library"/>
@@ -996,26 +1233,117 @@
     <tableColumn id="5" xr3:uid="{81A143FE-8E74-4182-8124-E697DD5A7C62}" name="hguide"/>
     <tableColumn id="6" xr3:uid="{4A316E6A-69F3-4B78-9C01-4675AEB656FA}" name="treatment"/>
     <tableColumn id="7" xr3:uid="{25B8E763-346D-4756-8B58-D3C8CB103545}" name="strand"/>
-    <tableColumn id="8" xr3:uid="{4B708639-BB19-4DC1-A57D-214FA0EFB1EA}" name="dsb_pos" dataDxfId="60">
+    <tableColumn id="8" xr3:uid="{4B708639-BB19-4DC1-A57D-214FA0EFB1EA}" name="dsb_pos" dataDxfId="91">
       <calculatedColumnFormula array="1">IF(D2="2DSB", IF(G2="R1", 67, 46), IF(D2="1DSB", IF(G2="R1", 67, 46), IF(D2="2DSBanti", IF(G2="R1", 50, 47), NA))) + IF(Table1[[#This Row],[control]]="30bpDown", 30, 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{CCF6021C-1B60-4954-A92E-3F2848564215}" name="file_in" dataDxfId="59">
+    <tableColumn id="9" xr3:uid="{CCF6021C-1B60-4954-A92E-3F2848564215}" name="file_in" dataDxfId="90">
       <calculatedColumnFormula>IF(OR(Table1[[#This Row],[control]]="none", Table1[[#This Row],[control]]="30bpDown"), _xlfn.CONCAT(Table1[[#This Row],[library]], IF(Table1[[#This Row],[dsb]] = "2DSBanti", "_anti", ""), "_",Table1[[#This Row],[strand]],"_", IF(LEFT(Table1[[#This Row],[dsb]], 1)="2","2DSBs", Table1[[#This Row],[hguide]]), ".sam"), _xlfn.CONCAT(Table1[[#This Row],[library]], "_NHEJ_", IF(Table1[[#This Row],[hguide]]="sgA", "hg39", IF(Table1[[#This Row],[hguide]]="sgB", "hg42", "2DSB")), "_", Table1[[#This Row],[strand]], ".sam"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{58220462-2A11-4DAD-A247-C0871AFCFDB4}" name="file_out" dataDxfId="58">
+    <tableColumn id="10" xr3:uid="{58220462-2A11-4DAD-A247-C0871AFCFDB4}" name="file_out" dataDxfId="89">
       <calculatedColumnFormula>_xlfn.CONCAT(Table1[[#This Row],[library]], "_", Table1[[#This Row],[cell_line]], "_", Table1[[#This Row],[hguide]], "_", Table1[[#This Row],[strand]], "_", Table1[[#This Row],[treatment]], IF(Table1[[#This Row],[control]]&lt;&gt;"none", _xlfn.CONCAT("_", Table1[[#This Row],[control]]), ""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{775EE7A9-3C78-4568-BF98-500DE451177C}" name="ref_file" dataDxfId="57">
+    <tableColumn id="11" xr3:uid="{775EE7A9-3C78-4568-BF98-500DE451177C}" name="ref_file" dataDxfId="88">
       <calculatedColumnFormula>_xlfn.CONCAT(Table1[[#This Row],[dsb]],"_", Table1[[#This Row],[strand]],"_", Table1[[#This Row],[treatment]], ".fa")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="12" xr3:uid="{5B945FB6-D054-40C4-AAEF-BB50B19F8936}" name="total_reads">
       <calculatedColumnFormula>VLOOKUP(Table1[[#This Row],[library]], Table9[#All], 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{66485B06-471E-47D3-BA91-FC751F58FA5A}" name="min_length" dataDxfId="56">
+    <tableColumn id="13" xr3:uid="{66485B06-471E-47D3-BA91-FC751F58FA5A}" name="min_length" dataDxfId="87">
       <calculatedColumnFormula>IF(LEFT(Table1[[#This Row],[dsb]], 1) = "2", 50, 130)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{DF3C46EA-690D-4E6A-99CF-BBC2B2F74AFF}" name="command_filter_nhej" dataDxfId="55">
+    <tableColumn id="14" xr3:uid="{DF3C46EA-690D-4E6A-99CF-BBC2B2F74AFF}" name="command_filter_nhej" dataDxfId="86">
       <calculatedColumnFormula>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{73BF8355-0AB0-4422-8F65-2A32E222946E}" name="Table513" displayName="Table513" ref="A1:M41" totalsRowShown="0" headerRowDxfId="17">
+  <autoFilter ref="A1:M41" xr:uid="{73BF8355-0AB0-4422-8F65-2A32E222946E}"/>
+  <tableColumns count="13">
+    <tableColumn id="25" xr3:uid="{43F57146-0E56-46F3-A0E3-717A41010F4A}" name="index" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{B0B3F6B0-7577-49AC-B865-1E873B4DC53C}" name="dir" dataDxfId="15">
+      <calculatedColumnFormula>'2_combined'!J3</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{D04F356F-9288-416D-ACDA-6BFE128B70D7}" name="control" dataDxfId="14">
+      <calculatedColumnFormula>'2_combined'!C3</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{9C168B22-F534-40D4-947C-918239C33FD9}" name="ref" dataDxfId="13">
+      <calculatedColumnFormula>'2_combined'!B3</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{6F64477B-0C66-4251-9156-22307A6D70A0}" name="dsb_pos" dataDxfId="12">
+      <calculatedColumnFormula>'2_combined'!E3</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{D037F4F2-543F-4D7D-AB36-0B253FD61B0D}" name="dsb_type" dataDxfId="11">
+      <calculatedColumnFormula>'2_combined'!D3</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{407AC5E6-13CB-409A-8E78-64B8CC121882}" name="dsb_type_command" dataDxfId="10">
+      <calculatedColumnFormula array="1">IF(Table513[[#This Row],[dsb_type]]="2DSB", "2", IF(Table513[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table513[[#This Row],[dsb_type]]="1DSB", "1", NA)))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{1A24C844-2A10-4394-818F-0C25A569B414}" name="strand" dataDxfId="9">
+      <calculatedColumnFormula>'2_combined'!G3</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{4F0A02F9-5555-489E-BA41-E3CBF81D1114}" name="hguide" dataDxfId="8">
+      <calculatedColumnFormula>MID('2_combined'!I3, 3, 100)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{FAE741F2-7C1B-41F2-8875-9F7A2EF40A54}" name="cell" dataDxfId="7">
+      <calculatedColumnFormula>'2_combined'!F3</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{FE3ED128-2534-43D1-9244-11AB1FB57650}" name="treatment" dataDxfId="6">
+      <calculatedColumnFormula>'2_combined'!H3</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{65ACBC9C-0EC8-4074-B310-05F4B70BFAD5}" name="subst_type"/>
+    <tableColumn id="10" xr3:uid="{F80F6FB9-4F35-4819-8285-D77131C6EFCE}" name="command_main_data" dataDxfId="3">
+      <calculatedColumnFormula>_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", dirs!$A$4, "/",Table513[[#This Row],[dir]], " -o ", dirs!$A$5, "/")</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{D74A5276-1A50-4DA1-9131-9669404C8622}" name="Table1014" displayName="Table1014" ref="A43:N55" totalsRowShown="0">
+  <autoFilter ref="A43:N55" xr:uid="{D74A5276-1A50-4DA1-9131-9669404C8622}"/>
+  <tableColumns count="14">
+    <tableColumn id="1" xr3:uid="{8AC09A63-4226-4C75-8801-68CF93C0F078}" name="index"/>
+    <tableColumn id="2" xr3:uid="{77584C42-D70C-48A4-979A-F4DEA0B31542}" name="dir">
+      <calculatedColumnFormula>'2_combined'!J45</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{483E3D73-4059-4B65-84EC-5DC4E7008F35}" name="control" dataDxfId="5">
+      <calculatedColumnFormula>SUBSTITUTE('2_combined'!C45, "dsb", "DSB")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{5859A8DB-4C52-4451-BBB6-C6BEBF497540}" name="ref">
+      <calculatedColumnFormula>'2_combined'!B45</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{06FC4099-C18C-436C-B1E6-9739B71C7F22}" name="dsb_pos">
+      <calculatedColumnFormula>'2_combined'!E45</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{8F043A8E-C5E7-4596-AE13-3E495C6DB33E}" name="dsb_type">
+      <calculatedColumnFormula>'2_combined'!D45</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{E2DB136E-6FA9-4095-8B91-F094974333AF}" name="dsb_type_command">
+      <calculatedColumnFormula array="1">IF(Table1014[[#This Row],[dsb_type]]="2DSB", "2", IF(Table1014[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table1014[[#This Row],[dsb_type]]="1DSB", "1", NA)))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{55CDC54E-3E43-4365-B1C9-5359F747A157}" name="strand">
+      <calculatedColumnFormula>'2_combined'!G45</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{056BD8A0-CC40-4C61-9F22-EE7382045F66}" name="hguide">
+      <calculatedColumnFormula>MID('2_combined'!I45, 3, 100)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{489E156D-888A-4DDC-BB23-A4721D588249}" name="cell">
+      <calculatedColumnFormula>'2_combined'!F45</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{0F1B5F9E-B10D-4258-9052-90BCDC89F0B0}" name="treatment">
+      <calculatedColumnFormula>'2_combined'!H45</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{A2723EF6-80E8-4D8D-A6DC-7556C1996222}" name="subst_type"/>
+    <tableColumn id="13" xr3:uid="{02531CCA-6CDE-42BA-80E3-31C0F97A3546}" name="command_main_data">
+      <calculatedColumnFormula>_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/",Table1014[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table1014[[#This Row],[dir]], " -ref ref_seq/", Table1014[[#This Row],[ref]], " -dsb ", Table1014[[#This Row],[dsb_pos]], " --dsb_type ",Table1014[[#This Row],[dsb_type_command]], " --strand ", Table1014[[#This Row],[strand]], " --hguide ", Table1014[[#This Row],[hguide]], " --cell ", Table1014[[#This Row],[cell]], " --treatment ", Table1014[[#This Row],[treatment]], " --subst_type ", Table1014[[#This Row],[subst_type]], " --control ", Table1014[[#This Row],[control]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="14" xr3:uid="{044D252B-8D18-4E92-82F7-0C8FAA410CB0}" name="command_graph_data" dataDxfId="4">
+      <calculatedColumnFormula>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table1014[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table1014[[#This Row],[dir]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1034,62 +1362,62 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DE05925F-1FF6-4367-AF1E-BAECCA464E36}" name="Table3" displayName="Table3" ref="A2:S42" totalsRowShown="0" headerRowDxfId="54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DE05925F-1FF6-4367-AF1E-BAECCA464E36}" name="Table3" displayName="Table3" ref="A2:S42" totalsRowShown="0" headerRowDxfId="85">
   <autoFilter ref="A2:S42" xr:uid="{DE05925F-1FF6-4367-AF1E-BAECCA464E36}"/>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{C373869E-A92E-4B06-B8E5-C5A873420ED4}" name="index" dataDxfId="53"/>
-    <tableColumn id="2" xr3:uid="{A28AAC50-FA09-494A-B052-8489F07A5A70}" name="ref" dataDxfId="52">
+    <tableColumn id="1" xr3:uid="{C373869E-A92E-4B06-B8E5-C5A873420ED4}" name="index" dataDxfId="84"/>
+    <tableColumn id="2" xr3:uid="{A28AAC50-FA09-494A-B052-8489F07A5A70}" name="ref" dataDxfId="83">
       <calculatedColumnFormula>OFFSET('1_repeats'!$K$2, 4 * (Table3[[#This Row],[index]] - 1), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{07D57089-9737-4983-8884-C4ACCDCFF6CB}" name="control" dataDxfId="51">
+    <tableColumn id="18" xr3:uid="{07D57089-9737-4983-8884-C4ACCDCFF6CB}" name="control" dataDxfId="82">
       <calculatedColumnFormula>OFFSET('1_repeats'!$C$2, 4 * (Table3[[#This Row],[index]] - 1), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{C6423FEA-272F-48D3-BC6A-909FCA937DA9}" name="dsb" dataDxfId="50">
+    <tableColumn id="19" xr3:uid="{C6423FEA-272F-48D3-BC6A-909FCA937DA9}" name="dsb" dataDxfId="81">
       <calculatedColumnFormula>OFFSET('1_repeats'!$D$2, 4 * (Table3[[#This Row],[index]] - 1), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{B8F61088-5FFA-4860-BF4E-1BFB301A31D9}" name="dsb_pos" dataDxfId="49">
+    <tableColumn id="3" xr3:uid="{B8F61088-5FFA-4860-BF4E-1BFB301A31D9}" name="dsb_pos" dataDxfId="80">
       <calculatedColumnFormula>OFFSET('1_repeats'!$H$2, 4 * (Table3[[#This Row],[index]] - 1), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{524D5B3D-BB20-420D-B7E9-93A7F77CA728}" name="cell" dataDxfId="48">
+    <tableColumn id="4" xr3:uid="{524D5B3D-BB20-420D-B7E9-93A7F77CA728}" name="cell" dataDxfId="79">
       <calculatedColumnFormula>OFFSET('1_repeats'!$B$2, 4 * (Table3[[#This Row],[index]] - 1), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{CC918D20-5D79-4223-9717-2CA0EFFA213F}" name="strand" dataDxfId="47">
+    <tableColumn id="5" xr3:uid="{CC918D20-5D79-4223-9717-2CA0EFFA213F}" name="strand" dataDxfId="78">
       <calculatedColumnFormula>OFFSET('1_repeats'!$G$2, 4 * (Table3[[#This Row],[index]] - 1), 0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{B2851465-D533-4787-80C4-E844BB2ABB8C}" name="treatment">
       <calculatedColumnFormula>OFFSET('1_repeats'!$F$2, 4 * (A3 - 1), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{849BE448-7739-4815-A2C5-5843F62D83D7}" name="hguide" dataDxfId="46">
+    <tableColumn id="7" xr3:uid="{849BE448-7739-4815-A2C5-5843F62D83D7}" name="hguide" dataDxfId="77">
       <calculatedColumnFormula>OFFSET('1_repeats'!$E$2, 4 * (Table3[[#This Row],[index]]- 1), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{343716D9-C3A9-4F90-A58A-42B1B9C79EBF}" name="output_dir" dataDxfId="15">
+    <tableColumn id="8" xr3:uid="{343716D9-C3A9-4F90-A58A-42B1B9C79EBF}" name="output_dir" dataDxfId="53">
       <calculatedColumnFormula>_xlfn.CONCAT(Table3[[#This Row],[cell]], "_", Table3[[#This Row],[hguide]], "_", Table3[[#This Row],[strand]], "_", Table3[[#This Row],[treatment]], IF(Table3[[#This Row],[control]]&lt;&gt;"none",_xlfn.CONCAT("_", Table3[[#This Row],[control]]), ""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{D29558AA-D418-4CDD-81AE-A987E7BC501D}" name="input_1" dataDxfId="45">
+    <tableColumn id="9" xr3:uid="{D29558AA-D418-4CDD-81AE-A987E7BC501D}" name="input_1" dataDxfId="76">
       <calculatedColumnFormula>OFFSET('1_repeats'!$J$1, 4 * (Table3[[#This Row],[index]] - 1)  + ($K$1), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{E2ABF5A3-B032-47F7-9141-9F269EFD9D49}" name="total_reads_1" dataDxfId="44">
+    <tableColumn id="10" xr3:uid="{E2ABF5A3-B032-47F7-9141-9F269EFD9D49}" name="total_reads_1" dataDxfId="75">
       <calculatedColumnFormula array="1">OFFSET('1_repeats'!$L$1, 4 * (Table3[[#This Row],[index]] - 1)  + INDIRECT(ADDRESS(1, COLUMN())), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{6B1B21F6-1584-4712-844D-99F3DBE8B3D9}" name="input_2" dataDxfId="43">
+    <tableColumn id="11" xr3:uid="{6B1B21F6-1584-4712-844D-99F3DBE8B3D9}" name="input_2" dataDxfId="74">
       <calculatedColumnFormula>OFFSET('1_repeats'!$J$1, 4 * (Table3[[#This Row],[index]] - 1)  + ($M$1), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{C7B1BE14-3BD6-413B-8575-DE9712F9761A}" name="total_reads_2" dataDxfId="42">
+    <tableColumn id="12" xr3:uid="{C7B1BE14-3BD6-413B-8575-DE9712F9761A}" name="total_reads_2" dataDxfId="73">
       <calculatedColumnFormula array="1">OFFSET('1_repeats'!$L$1, 4 * (Table3[[#This Row],[index]] - 1)  + INDIRECT(ADDRESS(1, COLUMN())), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{6BE840C3-79BA-41DC-90D3-918C6C412936}" name="input_3" dataDxfId="41">
+    <tableColumn id="13" xr3:uid="{6BE840C3-79BA-41DC-90D3-918C6C412936}" name="input_3" dataDxfId="72">
       <calculatedColumnFormula>OFFSET('1_repeats'!$J$1, 4 * (Table3[[#This Row],[index]] - 1)  + ($O$1), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{6A8CE344-45B9-42E3-95D8-8EB6A485D968}" name="total_reads_3" dataDxfId="40">
+    <tableColumn id="14" xr3:uid="{6A8CE344-45B9-42E3-95D8-8EB6A485D968}" name="total_reads_3" dataDxfId="71">
       <calculatedColumnFormula array="1">OFFSET('1_repeats'!$L$1, 4 * (Table3[[#This Row],[index]] - 1)  + INDIRECT(ADDRESS(1, COLUMN())), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{17F598DE-E755-49D6-AFC6-70309C0348FD}" name="input_4" dataDxfId="39">
+    <tableColumn id="15" xr3:uid="{17F598DE-E755-49D6-AFC6-70309C0348FD}" name="input_4" dataDxfId="70">
       <calculatedColumnFormula>OFFSET('1_repeats'!$J$1, 4 * (Table3[[#This Row],[index]] - 1)  + ($Q$1), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{AC170216-9CAE-43B8-A8E2-8FE1529F6D55}" name="total_reads_4" dataDxfId="38">
+    <tableColumn id="16" xr3:uid="{AC170216-9CAE-43B8-A8E2-8FE1529F6D55}" name="total_reads_4" dataDxfId="69">
       <calculatedColumnFormula array="1">OFFSET('1_repeats'!$L$1, 4 * (Table3[[#This Row],[index]] - 1)  + INDIRECT(ADDRESS(1, COLUMN())), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{A285A0DD-6F6D-404D-AE2A-0D1FC3DDB459}" name="command_combine" dataDxfId="37">
+    <tableColumn id="17" xr3:uid="{A285A0DD-6F6D-404D-AE2A-0D1FC3DDB459}" name="command_combine" dataDxfId="68">
       <calculatedColumnFormula>_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", Table3[[#This Row],[input_1]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_2]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_3]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_4]], ".tsv --total_reads ", Table3[[#This Row],[total_reads_1]], " ", Table3[[#This Row],[total_reads_2]], " ", Table3[[#This Row],[total_reads_3]], " ", Table3[[#This Row],[total_reads_4]], " -o ", dirs!$A$3, "/", Table3[[#This Row],[output_dir]], ".tsv", " --quiet ")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1098,45 +1426,45 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E84665CC-255D-48F4-A3B3-2170686615C7}" name="Table4" displayName="Table4" ref="A1:M13" totalsRowShown="0" headerRowDxfId="36">
-  <autoFilter ref="A1:M13" xr:uid="{E84665CC-255D-48F4-A3B3-2170686615C7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{7D969AC7-2D2F-45B0-BA99-D174130B0A52}" name="Table11" displayName="Table11" ref="A44:M56" totalsRowShown="0">
+  <autoFilter ref="A44:M56" xr:uid="{7D969AC7-2D2F-45B0-BA99-D174130B0A52}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{04508C6D-64BE-48D1-91AC-60303E2840B2}" name="index" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{0C07B69B-B69B-4114-937F-32C2C4AEBE70}" name="ref">
+    <tableColumn id="1" xr3:uid="{D612E3DF-AA8E-4EE0-9306-7903B4821992}" name="index" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{B00239B6-16E0-4472-B8C9-F25D625D21DD}" name="ref">
       <calculatedColumnFormula>'1_repeats'!K162</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{A3554449-DED8-4DDC-94F7-6BEE7C436207}" name="control" dataDxfId="8">
+    <tableColumn id="3" xr3:uid="{47FE94A7-C208-4138-B063-127D4AE215A0}" name="control">
       <calculatedColumnFormula>'1_repeats'!C162</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{1A26516A-FD11-46C6-9F00-8AFD5DA7060A}" name="dsb" dataDxfId="5">
+    <tableColumn id="4" xr3:uid="{43B4F550-AB35-4206-AAAB-820BBA723DEA}" name="dsb">
       <calculatedColumnFormula>'1_repeats'!D162</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{781AD183-2467-43E6-8314-CD1FCEED014E}" name="dsb_pos">
+    <tableColumn id="5" xr3:uid="{7233C674-8249-48C9-814C-599A94DF6097}" name="dsb_pos">
       <calculatedColumnFormula>'1_repeats'!H162</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{320FDC9C-B2D7-404D-8D82-986933D30C1B}" name="cell">
+    <tableColumn id="6" xr3:uid="{8FD419DF-3888-4BC8-ACF7-F31E7AB24754}" name="cell">
       <calculatedColumnFormula>'1_repeats'!B162</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{0440C582-59F2-436D-A74F-B68926C41968}" name="strand">
+    <tableColumn id="7" xr3:uid="{612FF909-1004-49E1-BC8F-F65A8C97EEFC}" name="strand">
       <calculatedColumnFormula>'1_repeats'!G162</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{8C868203-4E5A-4044-9763-23F0BF548137}" name="treatment">
+    <tableColumn id="8" xr3:uid="{C57AB4D7-F308-46D6-8F19-069619F8CF1B}" name="treatment">
       <calculatedColumnFormula>'1_repeats'!F162</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{ECB8EE38-8429-4296-887B-160FCAA3CA11}" name="hguide">
+    <tableColumn id="9" xr3:uid="{27DAC4C9-BDB2-4621-A4F1-0094D063284E}" name="hguide">
       <calculatedColumnFormula>'1_repeats'!E162</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{84AA4BEF-21E8-46E1-A237-42637EDAF82C}" name="output_dir">
-      <calculatedColumnFormula>_xlfn.CONCAT(F2, "_", I2, "_", G2, "_", H2, "_nodsb")</calculatedColumnFormula>
+    <tableColumn id="10" xr3:uid="{E0E9E8C1-4E85-4EFB-8220-84140FBAAF8E}" name="output_dir">
+      <calculatedColumnFormula>_xlfn.CONCAT(F45, "_", I45, "_", G45, "_", H45, "_nodsb")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{6E65077F-CFF3-4EB6-85D7-722B6ED66785}" name="input">
+    <tableColumn id="11" xr3:uid="{CAC474F1-3930-4766-B491-65C86C5752E8}" name="input">
       <calculatedColumnFormula>'1_repeats'!J162</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{6EB803A6-8E02-4FB6-B444-73B12CA574B7}" name="total_reads">
+    <tableColumn id="12" xr3:uid="{BB84920E-3487-4670-93ED-5671EACD3061}" name="total_reads">
       <calculatedColumnFormula>'1_repeats'!L162</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{AB423D53-2EBC-4C44-AC22-488C30879BDA}" name="command_combine" dataDxfId="34">
-      <calculatedColumnFormula>_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", Table4[[#This Row],[input]], ".tsv ", " --total_reads ", Table4[[#This Row],[total_reads]], " -o ", dirs!$A$3, "/", Table4[[#This Row],[output_dir]], ".tsv", " --quiet ")</calculatedColumnFormula>
+    <tableColumn id="13" xr3:uid="{0CE6DAF6-0C4C-4EC5-8FE5-9B3840A02412}" name="command_combine" dataDxfId="0">
+      <calculatedColumnFormula>_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -i ", dirs!$A$2, "/", Table11[[#This Row],[input]], ".tsv ", " --total_reads ", Table11[[#This Row],[total_reads]], " -o ", dirs!$A$3, "/", Table11[[#This Row],[output_dir]], ".tsv", " --quiet ")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1144,46 +1472,46 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{5C7BFDB7-8825-4FA5-A5E3-550303D41F99}" name="Table5" displayName="Table5" ref="A1:N41" totalsRowShown="0" headerRowDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{5C7BFDB7-8825-4FA5-A5E3-550303D41F99}" name="Table5" displayName="Table5" ref="A1:N41" totalsRowShown="0" headerRowDxfId="67">
   <autoFilter ref="A1:N41" xr:uid="{5C7BFDB7-8825-4FA5-A5E3-550303D41F99}"/>
   <tableColumns count="14">
-    <tableColumn id="25" xr3:uid="{93D2F09B-24D5-4FE1-BF34-C037E361889F}" name="index" dataDxfId="32"/>
-    <tableColumn id="1" xr3:uid="{2F28DC66-449D-4F81-AA63-8F24B25F33D1}" name="dir" dataDxfId="31">
+    <tableColumn id="25" xr3:uid="{93D2F09B-24D5-4FE1-BF34-C037E361889F}" name="index" dataDxfId="66"/>
+    <tableColumn id="1" xr3:uid="{2F28DC66-449D-4F81-AA63-8F24B25F33D1}" name="dir" dataDxfId="65">
       <calculatedColumnFormula>'2_combined'!J3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{3DF6F698-1F9A-4B05-A310-657CCFCE9F66}" name="control" dataDxfId="16">
+    <tableColumn id="13" xr3:uid="{3DF6F698-1F9A-4B05-A310-657CCFCE9F66}" name="control" dataDxfId="54">
       <calculatedColumnFormula>'2_combined'!C3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{362C2395-52F7-4A62-B7BA-2DD97ED5E6FB}" name="ref" dataDxfId="30">
+    <tableColumn id="2" xr3:uid="{362C2395-52F7-4A62-B7BA-2DD97ED5E6FB}" name="ref" dataDxfId="64">
       <calculatedColumnFormula>'2_combined'!B3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{5F0895D9-2EF2-4524-8BC7-15A33FE68636}" name="dsb_pos" dataDxfId="29">
+    <tableColumn id="3" xr3:uid="{5F0895D9-2EF2-4524-8BC7-15A33FE68636}" name="dsb_pos" dataDxfId="63">
       <calculatedColumnFormula>'2_combined'!E3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{C6D28829-46E6-4D97-8EA4-0AD12EF6CF10}" name="dsb_type" dataDxfId="28">
+    <tableColumn id="4" xr3:uid="{C6D28829-46E6-4D97-8EA4-0AD12EF6CF10}" name="dsb_type" dataDxfId="62">
       <calculatedColumnFormula>'2_combined'!D3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{E8B2E211-C273-4602-86F0-60EA4259B7A4}" name="dsb_type_command" dataDxfId="27">
+    <tableColumn id="12" xr3:uid="{E8B2E211-C273-4602-86F0-60EA4259B7A4}" name="dsb_type_command" dataDxfId="61">
       <calculatedColumnFormula array="1">IF(Table5[[#This Row],[dsb_type]]="2DSB", "2", IF(Table5[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table5[[#This Row],[dsb_type]]="1DSB", "1", NA)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{15578E86-B7BE-4D8E-8FD4-E6C9C4F35C9C}" name="strand" dataDxfId="26">
+    <tableColumn id="5" xr3:uid="{15578E86-B7BE-4D8E-8FD4-E6C9C4F35C9C}" name="strand" dataDxfId="60">
       <calculatedColumnFormula>'2_combined'!G3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{3366AC40-6578-4797-B607-19265E7DBF5C}" name="hguide" dataDxfId="25">
+    <tableColumn id="6" xr3:uid="{3366AC40-6578-4797-B607-19265E7DBF5C}" name="hguide" dataDxfId="59">
       <calculatedColumnFormula>MID('2_combined'!I3, 3, 100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{554F4E79-98DE-474B-A5C8-D4B536772E95}" name="cell" dataDxfId="24">
+    <tableColumn id="7" xr3:uid="{554F4E79-98DE-474B-A5C8-D4B536772E95}" name="cell" dataDxfId="58">
       <calculatedColumnFormula>'2_combined'!F3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{32FC5061-DD85-4234-9ED8-FEAF6D9E3BC0}" name="treatment" dataDxfId="23">
+    <tableColumn id="8" xr3:uid="{32FC5061-DD85-4234-9ED8-FEAF6D9E3BC0}" name="treatment" dataDxfId="57">
       <calculatedColumnFormula>'2_combined'!H3</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" xr3:uid="{DB6998A3-1431-4DDD-8DA0-525B805BF436}" name="subst_type"/>
-    <tableColumn id="10" xr3:uid="{367B0912-E7A8-4430-962D-4F79EE14E5EA}" name="command_main_data" dataDxfId="22">
-      <calculatedColumnFormula>_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]])</calculatedColumnFormula>
+    <tableColumn id="10" xr3:uid="{367B0912-E7A8-4430-962D-4F79EE14E5EA}" name="command_main_data" dataDxfId="2">
+      <calculatedColumnFormula>_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{4A65279E-321E-4E3E-8383-26D448C2012F}" name="command_graph_data">
-      <calculatedColumnFormula>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without ",  " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</calculatedColumnFormula>
+    <tableColumn id="11" xr3:uid="{4A65279E-321E-4E3E-8383-26D448C2012F}" name="command_graph_data" dataDxfId="22">
+      <calculatedColumnFormula>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1191,46 +1519,46 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E491D16B-C985-4740-8483-5822A2F0265E}" name="Table53" displayName="Table53" ref="A1:N13" totalsRowShown="0" headerRowDxfId="14">
-  <autoFilter ref="A1:N13" xr:uid="{E491D16B-C985-4740-8483-5822A2F0265E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{0CE85F3F-2349-4949-BA20-3963E68FECC0}" name="Table10" displayName="Table10" ref="A43:N55" totalsRowShown="0">
+  <autoFilter ref="A43:N55" xr:uid="{0CE85F3F-2349-4949-BA20-3963E68FECC0}"/>
   <tableColumns count="14">
-    <tableColumn id="25" xr3:uid="{AC0E8932-6A90-4861-82A6-1A45FC6BCC4C}" name="index" dataDxfId="13"/>
-    <tableColumn id="1" xr3:uid="{01F601FF-EA66-49DE-ACA0-195F72E1431D}" name="dir" dataDxfId="9">
-      <calculatedColumnFormula>Table4[[#This Row],[output_dir]]</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{92421F36-D68B-4126-B5F8-BE67DBECB0C5}" name="index"/>
+    <tableColumn id="2" xr3:uid="{5B7F1A2A-EC69-4E5A-BEF9-DA0BB1F6D84F}" name="dir">
+      <calculatedColumnFormula>'2_combined'!J45</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{922AA05E-FD76-434E-BD1D-114167C9D3D8}" name="control" dataDxfId="7">
-      <calculatedColumnFormula>Table4[[#This Row],[control]]</calculatedColumnFormula>
+    <tableColumn id="3" xr3:uid="{5911EF6D-9D4A-4737-925D-230D175C0AD0}" name="control" dataDxfId="21">
+      <calculatedColumnFormula>SUBSTITUTE('2_combined'!C45, "dsb", "DSB")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{F651250D-2FDF-4DFB-B891-A50250700B96}" name="ref" dataDxfId="6">
-      <calculatedColumnFormula>Table4[[#This Row],[ref]]</calculatedColumnFormula>
+    <tableColumn id="4" xr3:uid="{8DB9ADE6-D3E8-4451-9780-7AC62CFAAC8A}" name="ref">
+      <calculatedColumnFormula>'2_combined'!B45</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{5CDCA79B-44EB-4D80-A122-858809B9A668}" name="dsb_pos" dataDxfId="12">
-      <calculatedColumnFormula>'2_combined'!E3</calculatedColumnFormula>
+    <tableColumn id="5" xr3:uid="{9B8E885A-1625-467F-BADB-89B0A82CD2D8}" name="dsb_pos">
+      <calculatedColumnFormula>'2_combined'!E45</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{11D60553-643D-4AF8-9E68-9733C3331D5F}" name="dsb_type" dataDxfId="4">
-      <calculatedColumnFormula>Table4[[#This Row],[dsb]]</calculatedColumnFormula>
+    <tableColumn id="6" xr3:uid="{8068C981-18AC-4741-B2DA-C268A8165C66}" name="dsb_type">
+      <calculatedColumnFormula>'2_combined'!D45</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{CAB0C94C-C4E8-496F-AD7E-62B2C224EC68}" name="dsb_type_command" dataDxfId="11">
-      <calculatedColumnFormula array="1">IF(Table53[[#This Row],[dsb_type]]="2DSB", "2", IF(Table53[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table53[[#This Row],[dsb_type]]="1DSB", "1", NA)))</calculatedColumnFormula>
+    <tableColumn id="7" xr3:uid="{312E7D40-E8DE-4C3F-A17A-4C6877E40C4F}" name="dsb_type_command">
+      <calculatedColumnFormula array="1">IF(Table10[[#This Row],[dsb_type]]="2DSB", "2", IF(Table10[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table10[[#This Row],[dsb_type]]="1DSB", "1", NA)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{1AC939E5-74C7-453F-BF31-47B44ED9AE54}" name="strand" dataDxfId="3">
-      <calculatedColumnFormula>Table4[[#This Row],[strand]]</calculatedColumnFormula>
+    <tableColumn id="8" xr3:uid="{567E30CF-C20C-4A34-88BE-2B7E44D139B6}" name="strand">
+      <calculatedColumnFormula>'2_combined'!G45</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{4C66699D-7976-421E-984F-47FB839D5E8F}" name="hguide" dataDxfId="0">
-      <calculatedColumnFormula>MID(Table4[[#This Row],[hguide]], 3, 100)</calculatedColumnFormula>
+    <tableColumn id="9" xr3:uid="{F5BE3002-0742-4BA1-A59B-DDA7004CE14B}" name="hguide">
+      <calculatedColumnFormula>MID('2_combined'!I45, 3, 100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{70CAC8E8-365C-467C-9933-63910E771229}" name="cell" dataDxfId="2">
-      <calculatedColumnFormula>Table4[[#This Row],[cell]]</calculatedColumnFormula>
+    <tableColumn id="10" xr3:uid="{B4462191-EB37-4F30-AB1B-815C125B4368}" name="cell">
+      <calculatedColumnFormula>'2_combined'!F45</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{7A5DE147-95A6-45D6-A548-94B313053626}" name="treatment" dataDxfId="1">
-      <calculatedColumnFormula>Table4[[#This Row],[treatment]]</calculatedColumnFormula>
+    <tableColumn id="11" xr3:uid="{08EAD756-AA31-4DE2-B500-71FE3AA9EA6F}" name="treatment">
+      <calculatedColumnFormula>'2_combined'!H45</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{2F8FA95D-3EBE-4AA5-9EE7-CFF230768CCA}" name="subst_type"/>
-    <tableColumn id="10" xr3:uid="{5EB79F0F-05C9-493B-A8D4-B641046DE742}" name="command_main_data" dataDxfId="10">
-      <calculatedColumnFormula>_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/",Table53[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table53[[#This Row],[dir]], " -ref ref_seq/", Table53[[#This Row],[ref]], " -dsb ", Table53[[#This Row],[dsb_pos]], " --dsb_type ",Table53[[#This Row],[dsb_type_command]], " --strand ", Table53[[#This Row],[strand]], " --hguide ", Table53[[#This Row],[hguide]], " --cell ", Table53[[#This Row],[cell]], " --treatment ", Table53[[#This Row],[treatment]], " --subst_type ", Table53[[#This Row],[subst_type]])</calculatedColumnFormula>
+    <tableColumn id="12" xr3:uid="{79869E15-3FDE-43F8-AD44-2CB6888FCFF5}" name="subst_type"/>
+    <tableColumn id="13" xr3:uid="{F52A28AD-B89A-419E-8DBE-A81D738193B6}" name="command_main_data" dataDxfId="1">
+      <calculatedColumnFormula>_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", dirs!$A$3, "/",Table10[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table10[[#This Row],[dir]], " -ref ref_seq/", Table10[[#This Row],[ref]], " -dsb ", Table10[[#This Row],[dsb_pos]], " --dsb_type ",Table10[[#This Row],[dsb_type_command]], " --strand ", Table10[[#This Row],[strand]], " --hguide ", Table10[[#This Row],[hguide]], " --cell ", Table10[[#This Row],[cell]], " --treatment ", Table10[[#This Row],[treatment]], " --subst_type ", Table10[[#This Row],[subst_type]], " --control ", Table10[[#This Row],[control]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{FD2CE4EE-0EEB-4D37-A1B7-69E251C7F3D9}" name="command_graph_data">
-      <calculatedColumnFormula>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without ",  " -dir ", dirs!$A$4, "/", Table53[[#This Row],[dir]])</calculatedColumnFormula>
+    <tableColumn id="14" xr3:uid="{AC6F291F-482F-4B13-86D4-8C748D325E95}" name="command_graph_data" dataDxfId="23">
+      <calculatedColumnFormula>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table10[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table10[[#This Row],[dir]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1238,20 +1566,113 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{3ADBC687-3D92-491E-B36B-6CC1BB3B3380}" name="Table6" displayName="Table6" ref="A1:F19" totalsRowShown="0" headerRowDxfId="21">
-  <autoFilter ref="A1:F19" xr:uid="{3ADBC687-3D92-491E-B36B-6CC1BB3B3380}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{B7EC223D-BA24-48F1-9EE3-DC56DEFDE4C2}" name="index" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{5F6D005A-96D8-4801-93E2-101BAE551BA8}" name="dir_1" dataDxfId="19">
-      <calculatedColumnFormula>OFFSET('3_graph'!$B$2, 3 * (Table6[[#This Row],[index]] - 1), 0)</calculatedColumnFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{3ADBC687-3D92-491E-B36B-6CC1BB3B3380}" name="Table6" displayName="Table6" ref="A1:K17" totalsRowShown="0" headerRowDxfId="56">
+  <autoFilter ref="A1:K17" xr:uid="{3ADBC687-3D92-491E-B36B-6CC1BB3B3380}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{B7EC223D-BA24-48F1-9EE3-DC56DEFDE4C2}" name="index" dataDxfId="51"/>
+    <tableColumn id="7" xr3:uid="{D9F1ADDA-18A2-4F81-862D-6B0F786079FF}" name="control" dataDxfId="49">
+      <calculatedColumnFormula>OFFSET('3_graph'!$C$3, 3 * QUOTIENT(Table6[[#This Row],[index]] - 1, 2), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{D66426AC-E0B2-4B07-A4D4-5A74AA033E80}" name="dir_2"/>
-    <tableColumn id="4" xr3:uid="{519A6397-7A3C-4009-B8B9-A71C0B3A591B}" name="dir_out" dataDxfId="18">
-      <calculatedColumnFormula>_xlfn.CONCAT(Table6[[#This Row],[dir_1]], "_", "branch")</calculatedColumnFormula>
+    <tableColumn id="8" xr3:uid="{0EA5A81F-6EA1-4256-9717-03273165F7BF}" name="treatment_1" dataDxfId="48">
+      <calculatedColumnFormula>OFFSET('3_graph'!$K$2, 3 * QUOTIENT(Table6[[#This Row],[index]] - 1, 2), 0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{5F6D005A-96D8-4801-93E2-101BAE551BA8}" name="dir_1" dataDxfId="50">
+      <calculatedColumnFormula>OFFSET('3_graph'!$B$2, 3 * QUOTIENT(Table6[[#This Row],[index]] - 1, 2), 0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{C21D1AF7-7ABE-4181-AA2A-42227869A8DD}" name="treatment_2" dataDxfId="47">
+      <calculatedColumnFormula>OFFSET('3_graph'!$K$2, 3 * QUOTIENT(Table6[[#This Row],[index]] - 1, 2) + 1 + MOD(Table6[[#This Row],[index]] - 1, 2), 0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{D66426AC-E0B2-4B07-A4D4-5A74AA033E80}" name="dir_2" dataDxfId="52">
+      <calculatedColumnFormula>OFFSET('3_graph'!$B$2, 3 * QUOTIENT(Table6[[#This Row],[index]] - 1, 2) + 1 + MOD(Table6[[#This Row],[index]] - 1, 2), 0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{0C8146A0-DC77-4DC4-82FF-74F4C74CF33E}" name="treatments_out" dataDxfId="25">
+      <calculatedColumnFormula>_xlfn.CONCAT(Table6[[#This Row],[treatment_1]], "_", Table6[[#This Row],[treatment_2]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{519A6397-7A3C-4009-B8B9-A71C0B3A591B}" name="dir_out" dataDxfId="24">
+      <calculatedColumnFormula>SUBSTITUTE(Table6[[#This Row],[dir_1]], Table6[[#This Row],[treatment_1]], Table6[[#This Row],[treatments_out]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{E1629355-7D02-4819-98A1-EEB3B5FADE18}" name="subst_type"/>
-    <tableColumn id="6" xr3:uid="{BC9117A0-CB6F-4D3C-A0E4-BF8395854D9A}" name="command_main_data_combined" dataDxfId="17">
+    <tableColumn id="6" xr3:uid="{BC9117A0-CB6F-4D3C-A0E4-BF8395854D9A}" name="command_main_data_combined" dataDxfId="55">
       <calculatedColumnFormula>_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", Table6[[#This Row],[dir_1]], " ", dirs!$A$4, "/", Table6[[#This Row],[dir_2]], " -o ", dirs!$A$4, "/", Table6[[#This Row],[dir_out]], " --subst_type ", Table6[[#This Row],[subst_type]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{D384013E-9937-4DD8-A36A-43325757359B}" name="command_graph_data" dataDxfId="20">
+      <calculatedColumnFormula>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table6[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table6[[#This Row],[dir_out]])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{44E39C67-02E4-4910-8670-BA7FFCEEEAF8}" name="Table68" displayName="Table68" ref="A19:K21" totalsRowShown="0" headerRowDxfId="46">
+  <autoFilter ref="A19:K21" xr:uid="{44E39C67-02E4-4910-8670-BA7FFCEEEAF8}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{7F5A3A15-751D-407C-A035-61B2605E693F}" name="index" dataDxfId="45"/>
+    <tableColumn id="7" xr3:uid="{45863AB0-FD32-49FE-B4BF-F8EE865F7604}" name="control" dataDxfId="44">
+      <calculatedColumnFormula>OFFSET('3_graph'!$C$26, 2 * (Table68[[#This Row],[index]] - 1), 0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{CD16648D-267E-410B-A366-3E12367C037C}" name="treatment_1" dataDxfId="43">
+      <calculatedColumnFormula>OFFSET('3_graph'!$K$26, 2 * (Table68[[#This Row],[index]] - 1), 0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{10C9F90E-86FD-4BFE-939E-298FD6F69F12}" name="dir_1" dataDxfId="42">
+      <calculatedColumnFormula>OFFSET('3_graph'!$B$26, 2 * (Table68[[#This Row],[index]] - 1), 0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{7AB3E4AB-F43B-4FDE-96D7-FBBB4A8B83BE}" name="treatment_2" dataDxfId="41">
+      <calculatedColumnFormula>OFFSET('3_graph'!$K$26, 2 * (Table68[[#This Row],[index]] - 1) + 1, 0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{BF948A3E-9649-41BF-A7E7-57BFDE810FE9}" name="dir_2" dataDxfId="40">
+      <calculatedColumnFormula>OFFSET('3_graph'!$B$26, 2 * (Table68[[#This Row],[index]] - 1) + 1, 0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{378119E5-F021-4785-A653-4D632F029AA6}" name="treatments_out" dataDxfId="26">
+      <calculatedColumnFormula>_xlfn.CONCAT(Table68[[#This Row],[treatment_1]], "_", Table68[[#This Row],[treatment_2]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{AE1A14DC-D0C9-4818-B8CC-09A571E73BC2}" name="dir_out" dataDxfId="27">
+      <calculatedColumnFormula>SUBSTITUTE(Table68[[#This Row],[dir_1]], Table68[[#This Row],[treatment_1]], Table68[[#This Row],[treatments_out]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{F29DAC4E-FEC5-4C1D-AAC1-7CE19E401F25}" name="subst_type"/>
+    <tableColumn id="6" xr3:uid="{DC4E99F4-97AB-4553-A5FB-D20D3D487947}" name="command_main_data_combined" dataDxfId="39">
+      <calculatedColumnFormula>_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", Table68[[#This Row],[dir_1]], " ", dirs!$A$4, "/", Table68[[#This Row],[dir_2]], " -o ", dirs!$A$4, "/", Table68[[#This Row],[dir_out]], " --subst_type ", Table68[[#This Row],[subst_type]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{E19D3001-2E76-4CC2-BF33-D0465C77D538}" name="command_graph_data" dataDxfId="19">
+      <calculatedColumnFormula>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table68[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table68[[#This Row],[dir_out]])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{DF721F9E-54DB-422A-8466-77EDBF2287AF}" name="Table69" displayName="Table69" ref="A24:K32" totalsRowShown="0" headerRowDxfId="38">
+  <autoFilter ref="A24:K32" xr:uid="{DF721F9E-54DB-422A-8466-77EDBF2287AF}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{4B2D38BB-C594-4CFF-A307-A134FF1DBF8B}" name="index" dataDxfId="37"/>
+    <tableColumn id="7" xr3:uid="{CC939230-FB0E-416F-B345-7A4DD4839870}" name="control" dataDxfId="35">
+      <calculatedColumnFormula>OFFSET('3_graph'!$C$30, 3 * QUOTIENT(Table69[[#This Row],[index]] - 1, 2), 0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{AF3BF10E-758C-4395-83F8-5F1B20B1ABB6}" name="treatment_1" dataDxfId="34">
+      <calculatedColumnFormula>OFFSET('3_graph'!$K$30, 3 * QUOTIENT(Table69[[#This Row],[index]] - 1, 2), 0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{0E2E8B48-A535-4A36-B8D0-3BC864F39FE8}" name="dir_1" dataDxfId="33">
+      <calculatedColumnFormula>OFFSET('3_graph'!$B$30, 3 * QUOTIENT(Table69[[#This Row],[index]] - 1, 2), 0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{10535B63-D8B1-4531-B393-DEE364AD65FC}" name="treatment_2" dataDxfId="32">
+      <calculatedColumnFormula>OFFSET('3_graph'!$K$30, 3 * QUOTIENT(Table69[[#This Row],[index]] - 1, 2) + 1 + MOD(Table69[[#This Row],[index]] - 1, 2), 0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{38434F18-6E6B-4445-9468-F1AC68C767A1}" name="dir_2" dataDxfId="31">
+      <calculatedColumnFormula>OFFSET('3_graph'!$B$30, 3 * QUOTIENT(Table69[[#This Row],[index]] - 1, 2) + 1 + MOD(Table69[[#This Row],[index]] - 1, 2), 0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{D8505D76-DFE0-404D-80FB-E23FCF6C4138}" name="treatments_out" dataDxfId="29">
+      <calculatedColumnFormula>_xlfn.CONCAT(Table69[[#This Row],[treatment_1]], "_", Table69[[#This Row],[treatment_2]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{40A7ED64-C4FB-4223-B672-132B923E0A05}" name="dir_out" dataDxfId="28">
+      <calculatedColumnFormula>SUBSTITUTE(Table69[[#This Row],[dir_1]], Table69[[#This Row],[treatment_1]], Table69[[#This Row],[treatments_out]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{8212981C-68FE-482E-8379-C30BF6F1B4E7}" name="subst_type"/>
+    <tableColumn id="6" xr3:uid="{A4B6DFAC-3439-4952-AA76-E967563DEB87}" name="command_main_data_combined" dataDxfId="36">
+      <calculatedColumnFormula>_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", Table69[[#This Row],[dir_1]], " ", dirs!$A$4, "/", Table69[[#This Row],[dir_2]], " -o ", dirs!$A$4, "/", Table69[[#This Row],[dir_out]], " --subst_type ", Table69[[#This Row],[subst_type]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{C0DE1F11-E7E3-403F-A689-174A1F923BFE}" name="command_graph_data" dataDxfId="18">
+      <calculatedColumnFormula>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table69[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table69[[#This Row],[dir_out]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1555,10 +1976,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86129707-88BE-44BB-B759-1CA0FE147BD8}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1592,6 +2013,11 @@
         <v>108</v>
       </c>
     </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>174</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1601,8 +2027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40F1EACD-27DC-4973-8E3A-9162F610D9C4}">
   <dimension ref="A1:N173"/>
   <sheetViews>
-    <sheetView topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9880,7 +10306,7 @@
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B163" t="s">
         <v>1</v>
@@ -9892,33 +10318,33 @@
         <v>128</v>
       </c>
       <c r="E163" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F163" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G163" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H163" cm="1">
         <f t="array" ref="H163">IF(D163="2DSB", IF(G163="R1", 67, 46), IF(D163="1DSB", IF(G163="R1", 67, 46), IF(D163="2DSBanti", IF(G163="R1", 50, 47), NA))) + IF(Table1[[#This Row],[control]]="30bpDown", 30, 0)</f>
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="I163" t="str">
         <f>IF(OR(Table1[[#This Row],[control]]="none", Table1[[#This Row],[control]]="30bpDown"), _xlfn.CONCAT(Table1[[#This Row],[library]], IF(Table1[[#This Row],[dsb]] = "2DSBanti", "_anti", ""), "_",Table1[[#This Row],[strand]],"_", IF(LEFT(Table1[[#This Row],[dsb]], 1)="2","2DSBs", Table1[[#This Row],[hguide]]), ".sam"), _xlfn.CONCAT(Table1[[#This Row],[library]], "_NHEJ_", IF(Table1[[#This Row],[hguide]]="sgA", "hg39", IF(Table1[[#This Row],[hguide]]="sgB", "hg42", "2DSB")), "_", Table1[[#This Row],[strand]], ".sam"))</f>
-        <v>yjl244_NHEJ_hg42_R2.sam</v>
+        <v>yjl245_NHEJ_hg39_R1.sam</v>
       </c>
       <c r="J163" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[library]], "_", Table1[[#This Row],[cell_line]], "_", Table1[[#This Row],[hguide]], "_", Table1[[#This Row],[strand]], "_", Table1[[#This Row],[treatment]], IF(Table1[[#This Row],[control]]&lt;&gt;"none", _xlfn.CONCAT("_", Table1[[#This Row],[control]]), ""))</f>
-        <v>yjl244_WT_sgB_R2_sense_nodsb</v>
+        <v>yjl245_WT_sgA_R1_branch_nodsb</v>
       </c>
       <c r="K163" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[dsb]],"_", Table1[[#This Row],[strand]],"_", Table1[[#This Row],[treatment]], ".fa")</f>
-        <v>1DSB_R2_sense.fa</v>
+        <v>1DSB_R1_branch.fa</v>
       </c>
       <c r="L163">
         <f>VLOOKUP(Table1[[#This Row],[library]], Table9[#All], 2)</f>
-        <v>10005232</v>
+        <v>12898941</v>
       </c>
       <c r="M163">
         <f>IF(LEFT(Table1[[#This Row],[dsb]], 1) = "2", 50, 130)</f>
@@ -9926,12 +10352,12 @@
       </c>
       <c r="N163" t="str">
         <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
-        <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl244_NHEJ_hg42_R2.sam -ref ref_seq/1DSB_R2_sense.fa -o libraries_2/yjl244_WT_sgB_R2_sense_nodsb.tsv --min_length 130 -dsb 46 --quiet</v>
+        <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl245_NHEJ_hg39_R1.sam -ref ref_seq/1DSB_R1_branch.fa -o libraries_2/yjl245_WT_sgA_R1_branch_nodsb.tsv --min_length 130 -dsb 67 --quiet</v>
       </c>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B164" t="s">
         <v>1</v>
@@ -9946,7 +10372,7 @@
         <v>78</v>
       </c>
       <c r="F164" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G164" t="s">
         <v>85</v>
@@ -9957,19 +10383,19 @@
       </c>
       <c r="I164" t="str">
         <f>IF(OR(Table1[[#This Row],[control]]="none", Table1[[#This Row],[control]]="30bpDown"), _xlfn.CONCAT(Table1[[#This Row],[library]], IF(Table1[[#This Row],[dsb]] = "2DSBanti", "_anti", ""), "_",Table1[[#This Row],[strand]],"_", IF(LEFT(Table1[[#This Row],[dsb]], 1)="2","2DSBs", Table1[[#This Row],[hguide]]), ".sam"), _xlfn.CONCAT(Table1[[#This Row],[library]], "_NHEJ_", IF(Table1[[#This Row],[hguide]]="sgA", "hg39", IF(Table1[[#This Row],[hguide]]="sgB", "hg42", "2DSB")), "_", Table1[[#This Row],[strand]], ".sam"))</f>
-        <v>yjl245_NHEJ_hg39_R1.sam</v>
+        <v>yjl246_NHEJ_hg39_R1.sam</v>
       </c>
       <c r="J164" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[library]], "_", Table1[[#This Row],[cell_line]], "_", Table1[[#This Row],[hguide]], "_", Table1[[#This Row],[strand]], "_", Table1[[#This Row],[treatment]], IF(Table1[[#This Row],[control]]&lt;&gt;"none", _xlfn.CONCAT("_", Table1[[#This Row],[control]]), ""))</f>
-        <v>yjl245_WT_sgA_R1_branch_nodsb</v>
+        <v>yjl246_WT_sgA_R1_cmv_nodsb</v>
       </c>
       <c r="K164" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[dsb]],"_", Table1[[#This Row],[strand]],"_", Table1[[#This Row],[treatment]], ".fa")</f>
-        <v>1DSB_R1_branch.fa</v>
+        <v>1DSB_R1_cmv.fa</v>
       </c>
       <c r="L164">
         <f>VLOOKUP(Table1[[#This Row],[library]], Table9[#All], 2)</f>
-        <v>12898941</v>
+        <v>10217401</v>
       </c>
       <c r="M164">
         <f>IF(LEFT(Table1[[#This Row],[dsb]], 1) = "2", 50, 130)</f>
@@ -9977,15 +10403,15 @@
       </c>
       <c r="N164" t="str">
         <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
-        <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl245_NHEJ_hg39_R1.sam -ref ref_seq/1DSB_R1_branch.fa -o libraries_2/yjl245_WT_sgA_R1_branch_nodsb.tsv --min_length 130 -dsb 67 --quiet</v>
+        <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl246_NHEJ_hg39_R1.sam -ref ref_seq/1DSB_R1_cmv.fa -o libraries_2/yjl246_WT_sgA_R1_cmv_nodsb.tsv --min_length 130 -dsb 67 --quiet</v>
       </c>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B165" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C165" t="s">
         <v>146</v>
@@ -9994,33 +10420,33 @@
         <v>128</v>
       </c>
       <c r="E165" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F165" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G165" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H165" cm="1">
         <f t="array" ref="H165">IF(D165="2DSB", IF(G165="R1", 67, 46), IF(D165="1DSB", IF(G165="R1", 67, 46), IF(D165="2DSBanti", IF(G165="R1", 50, 47), NA))) + IF(Table1[[#This Row],[control]]="30bpDown", 30, 0)</f>
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="I165" t="str">
         <f>IF(OR(Table1[[#This Row],[control]]="none", Table1[[#This Row],[control]]="30bpDown"), _xlfn.CONCAT(Table1[[#This Row],[library]], IF(Table1[[#This Row],[dsb]] = "2DSBanti", "_anti", ""), "_",Table1[[#This Row],[strand]],"_", IF(LEFT(Table1[[#This Row],[dsb]], 1)="2","2DSBs", Table1[[#This Row],[hguide]]), ".sam"), _xlfn.CONCAT(Table1[[#This Row],[library]], "_NHEJ_", IF(Table1[[#This Row],[hguide]]="sgA", "hg39", IF(Table1[[#This Row],[hguide]]="sgB", "hg42", "2DSB")), "_", Table1[[#This Row],[strand]], ".sam"))</f>
-        <v>yjl245_NHEJ_hg42_R2.sam</v>
+        <v>yjl281_NHEJ_hg39_R1.sam</v>
       </c>
       <c r="J165" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[library]], "_", Table1[[#This Row],[cell_line]], "_", Table1[[#This Row],[hguide]], "_", Table1[[#This Row],[strand]], "_", Table1[[#This Row],[treatment]], IF(Table1[[#This Row],[control]]&lt;&gt;"none", _xlfn.CONCAT("_", Table1[[#This Row],[control]]), ""))</f>
-        <v>yjl245_WT_sgB_R2_branch_nodsb</v>
+        <v>yjl281_KO_sgA_R1_sense_nodsb</v>
       </c>
       <c r="K165" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[dsb]],"_", Table1[[#This Row],[strand]],"_", Table1[[#This Row],[treatment]], ".fa")</f>
-        <v>1DSB_R2_branch.fa</v>
+        <v>1DSB_R1_sense.fa</v>
       </c>
       <c r="L165">
         <f>VLOOKUP(Table1[[#This Row],[library]], Table9[#All], 2)</f>
-        <v>12898941</v>
+        <v>7424148</v>
       </c>
       <c r="M165">
         <f>IF(LEFT(Table1[[#This Row],[dsb]], 1) = "2", 50, 130)</f>
@@ -10028,15 +10454,15 @@
       </c>
       <c r="N165" t="str">
         <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
-        <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl245_NHEJ_hg42_R2.sam -ref ref_seq/1DSB_R2_branch.fa -o libraries_2/yjl245_WT_sgB_R2_branch_nodsb.tsv --min_length 130 -dsb 46 --quiet</v>
+        <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl281_NHEJ_hg39_R1.sam -ref ref_seq/1DSB_R1_sense.fa -o libraries_2/yjl281_KO_sgA_R1_sense_nodsb.tsv --min_length 130 -dsb 67 --quiet</v>
       </c>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B166" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C166" t="s">
         <v>146</v>
@@ -10048,7 +10474,7 @@
         <v>78</v>
       </c>
       <c r="F166" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G166" t="s">
         <v>85</v>
@@ -10059,19 +10485,19 @@
       </c>
       <c r="I166" t="str">
         <f>IF(OR(Table1[[#This Row],[control]]="none", Table1[[#This Row],[control]]="30bpDown"), _xlfn.CONCAT(Table1[[#This Row],[library]], IF(Table1[[#This Row],[dsb]] = "2DSBanti", "_anti", ""), "_",Table1[[#This Row],[strand]],"_", IF(LEFT(Table1[[#This Row],[dsb]], 1)="2","2DSBs", Table1[[#This Row],[hguide]]), ".sam"), _xlfn.CONCAT(Table1[[#This Row],[library]], "_NHEJ_", IF(Table1[[#This Row],[hguide]]="sgA", "hg39", IF(Table1[[#This Row],[hguide]]="sgB", "hg42", "2DSB")), "_", Table1[[#This Row],[strand]], ".sam"))</f>
-        <v>yjl246_NHEJ_hg39_R1.sam</v>
+        <v>yjl282_NHEJ_hg39_R1.sam</v>
       </c>
       <c r="J166" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[library]], "_", Table1[[#This Row],[cell_line]], "_", Table1[[#This Row],[hguide]], "_", Table1[[#This Row],[strand]], "_", Table1[[#This Row],[treatment]], IF(Table1[[#This Row],[control]]&lt;&gt;"none", _xlfn.CONCAT("_", Table1[[#This Row],[control]]), ""))</f>
-        <v>yjl246_WT_sgA_R1_cmv_nodsb</v>
+        <v>yjl282_KO_sgA_R1_branch_nodsb</v>
       </c>
       <c r="K166" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[dsb]],"_", Table1[[#This Row],[strand]],"_", Table1[[#This Row],[treatment]], ".fa")</f>
-        <v>1DSB_R1_cmv.fa</v>
+        <v>1DSB_R1_branch.fa</v>
       </c>
       <c r="L166">
         <f>VLOOKUP(Table1[[#This Row],[library]], Table9[#All], 2)</f>
-        <v>10217401</v>
+        <v>10190833</v>
       </c>
       <c r="M166">
         <f>IF(LEFT(Table1[[#This Row],[dsb]], 1) = "2", 50, 130)</f>
@@ -10079,15 +10505,15 @@
       </c>
       <c r="N166" t="str">
         <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
-        <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl246_NHEJ_hg39_R1.sam -ref ref_seq/1DSB_R1_cmv.fa -o libraries_2/yjl246_WT_sgA_R1_cmv_nodsb.tsv --min_length 130 -dsb 67 --quiet</v>
+        <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl282_NHEJ_hg39_R1.sam -ref ref_seq/1DSB_R1_branch.fa -o libraries_2/yjl282_KO_sgA_R1_branch_nodsb.tsv --min_length 130 -dsb 67 --quiet</v>
       </c>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B167" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C167" t="s">
         <v>146</v>
@@ -10096,33 +10522,33 @@
         <v>128</v>
       </c>
       <c r="E167" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F167" t="s">
         <v>77</v>
       </c>
       <c r="G167" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H167" cm="1">
         <f t="array" ref="H167">IF(D167="2DSB", IF(G167="R1", 67, 46), IF(D167="1DSB", IF(G167="R1", 67, 46), IF(D167="2DSBanti", IF(G167="R1", 50, 47), NA))) + IF(Table1[[#This Row],[control]]="30bpDown", 30, 0)</f>
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="I167" t="str">
         <f>IF(OR(Table1[[#This Row],[control]]="none", Table1[[#This Row],[control]]="30bpDown"), _xlfn.CONCAT(Table1[[#This Row],[library]], IF(Table1[[#This Row],[dsb]] = "2DSBanti", "_anti", ""), "_",Table1[[#This Row],[strand]],"_", IF(LEFT(Table1[[#This Row],[dsb]], 1)="2","2DSBs", Table1[[#This Row],[hguide]]), ".sam"), _xlfn.CONCAT(Table1[[#This Row],[library]], "_NHEJ_", IF(Table1[[#This Row],[hguide]]="sgA", "hg39", IF(Table1[[#This Row],[hguide]]="sgB", "hg42", "2DSB")), "_", Table1[[#This Row],[strand]], ".sam"))</f>
-        <v>yjl246_NHEJ_hg42_R2.sam</v>
+        <v>yjl283_NHEJ_hg39_R1.sam</v>
       </c>
       <c r="J167" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[library]], "_", Table1[[#This Row],[cell_line]], "_", Table1[[#This Row],[hguide]], "_", Table1[[#This Row],[strand]], "_", Table1[[#This Row],[treatment]], IF(Table1[[#This Row],[control]]&lt;&gt;"none", _xlfn.CONCAT("_", Table1[[#This Row],[control]]), ""))</f>
-        <v>yjl246_WT_sgB_R2_cmv_nodsb</v>
+        <v>yjl283_KO_sgA_R1_cmv_nodsb</v>
       </c>
       <c r="K167" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[dsb]],"_", Table1[[#This Row],[strand]],"_", Table1[[#This Row],[treatment]], ".fa")</f>
-        <v>1DSB_R2_cmv.fa</v>
+        <v>1DSB_R1_cmv.fa</v>
       </c>
       <c r="L167">
         <f>VLOOKUP(Table1[[#This Row],[library]], Table9[#All], 2)</f>
-        <v>10217401</v>
+        <v>7763439</v>
       </c>
       <c r="M167">
         <f>IF(LEFT(Table1[[#This Row],[dsb]], 1) = "2", 50, 130)</f>
@@ -10130,15 +10556,15 @@
       </c>
       <c r="N167" t="str">
         <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
-        <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl246_NHEJ_hg42_R2.sam -ref ref_seq/1DSB_R2_cmv.fa -o libraries_2/yjl246_WT_sgB_R2_cmv_nodsb.tsv --min_length 130 -dsb 46 --quiet</v>
+        <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl283_NHEJ_hg39_R1.sam -ref ref_seq/1DSB_R1_cmv.fa -o libraries_2/yjl283_KO_sgA_R1_cmv_nodsb.tsv --min_length 130 -dsb 67 --quiet</v>
       </c>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B168" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C168" t="s">
         <v>146</v>
@@ -10147,33 +10573,33 @@
         <v>128</v>
       </c>
       <c r="E168" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F168" t="s">
         <v>75</v>
       </c>
       <c r="G168" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H168" cm="1">
         <f t="array" ref="H168">IF(D168="2DSB", IF(G168="R1", 67, 46), IF(D168="1DSB", IF(G168="R1", 67, 46), IF(D168="2DSBanti", IF(G168="R1", 50, 47), NA))) + IF(Table1[[#This Row],[control]]="30bpDown", 30, 0)</f>
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="I168" t="str">
         <f>IF(OR(Table1[[#This Row],[control]]="none", Table1[[#This Row],[control]]="30bpDown"), _xlfn.CONCAT(Table1[[#This Row],[library]], IF(Table1[[#This Row],[dsb]] = "2DSBanti", "_anti", ""), "_",Table1[[#This Row],[strand]],"_", IF(LEFT(Table1[[#This Row],[dsb]], 1)="2","2DSBs", Table1[[#This Row],[hguide]]), ".sam"), _xlfn.CONCAT(Table1[[#This Row],[library]], "_NHEJ_", IF(Table1[[#This Row],[hguide]]="sgA", "hg39", IF(Table1[[#This Row],[hguide]]="sgB", "hg42", "2DSB")), "_", Table1[[#This Row],[strand]], ".sam"))</f>
-        <v>yjl281_NHEJ_hg39_R1.sam</v>
+        <v>yjl244_NHEJ_hg42_R2.sam</v>
       </c>
       <c r="J168" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[library]], "_", Table1[[#This Row],[cell_line]], "_", Table1[[#This Row],[hguide]], "_", Table1[[#This Row],[strand]], "_", Table1[[#This Row],[treatment]], IF(Table1[[#This Row],[control]]&lt;&gt;"none", _xlfn.CONCAT("_", Table1[[#This Row],[control]]), ""))</f>
-        <v>yjl281_KO_sgA_R1_sense_nodsb</v>
+        <v>yjl244_WT_sgB_R2_sense_nodsb</v>
       </c>
       <c r="K168" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[dsb]],"_", Table1[[#This Row],[strand]],"_", Table1[[#This Row],[treatment]], ".fa")</f>
-        <v>1DSB_R1_sense.fa</v>
+        <v>1DSB_R2_sense.fa</v>
       </c>
       <c r="L168">
         <f>VLOOKUP(Table1[[#This Row],[library]], Table9[#All], 2)</f>
-        <v>7424148</v>
+        <v>10005232</v>
       </c>
       <c r="M168">
         <f>IF(LEFT(Table1[[#This Row],[dsb]], 1) = "2", 50, 130)</f>
@@ -10181,15 +10607,15 @@
       </c>
       <c r="N168" t="str">
         <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
-        <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl281_NHEJ_hg39_R1.sam -ref ref_seq/1DSB_R1_sense.fa -o libraries_2/yjl281_KO_sgA_R1_sense_nodsb.tsv --min_length 130 -dsb 67 --quiet</v>
+        <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl244_NHEJ_hg42_R2.sam -ref ref_seq/1DSB_R2_sense.fa -o libraries_2/yjl244_WT_sgB_R2_sense_nodsb.tsv --min_length 130 -dsb 46 --quiet</v>
       </c>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B169" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C169" t="s">
         <v>146</v>
@@ -10201,7 +10627,7 @@
         <v>79</v>
       </c>
       <c r="F169" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G169" t="s">
         <v>86</v>
@@ -10212,19 +10638,19 @@
       </c>
       <c r="I169" t="str">
         <f>IF(OR(Table1[[#This Row],[control]]="none", Table1[[#This Row],[control]]="30bpDown"), _xlfn.CONCAT(Table1[[#This Row],[library]], IF(Table1[[#This Row],[dsb]] = "2DSBanti", "_anti", ""), "_",Table1[[#This Row],[strand]],"_", IF(LEFT(Table1[[#This Row],[dsb]], 1)="2","2DSBs", Table1[[#This Row],[hguide]]), ".sam"), _xlfn.CONCAT(Table1[[#This Row],[library]], "_NHEJ_", IF(Table1[[#This Row],[hguide]]="sgA", "hg39", IF(Table1[[#This Row],[hguide]]="sgB", "hg42", "2DSB")), "_", Table1[[#This Row],[strand]], ".sam"))</f>
-        <v>yjl281_NHEJ_hg42_R2.sam</v>
+        <v>yjl245_NHEJ_hg42_R2.sam</v>
       </c>
       <c r="J169" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[library]], "_", Table1[[#This Row],[cell_line]], "_", Table1[[#This Row],[hguide]], "_", Table1[[#This Row],[strand]], "_", Table1[[#This Row],[treatment]], IF(Table1[[#This Row],[control]]&lt;&gt;"none", _xlfn.CONCAT("_", Table1[[#This Row],[control]]), ""))</f>
-        <v>yjl281_KO_sgB_R2_sense_nodsb</v>
+        <v>yjl245_WT_sgB_R2_branch_nodsb</v>
       </c>
       <c r="K169" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[dsb]],"_", Table1[[#This Row],[strand]],"_", Table1[[#This Row],[treatment]], ".fa")</f>
-        <v>1DSB_R2_sense.fa</v>
+        <v>1DSB_R2_branch.fa</v>
       </c>
       <c r="L169">
         <f>VLOOKUP(Table1[[#This Row],[library]], Table9[#All], 2)</f>
-        <v>7424148</v>
+        <v>12898941</v>
       </c>
       <c r="M169">
         <f>IF(LEFT(Table1[[#This Row],[dsb]], 1) = "2", 50, 130)</f>
@@ -10232,15 +10658,15 @@
       </c>
       <c r="N169" t="str">
         <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
-        <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl281_NHEJ_hg42_R2.sam -ref ref_seq/1DSB_R2_sense.fa -o libraries_2/yjl281_KO_sgB_R2_sense_nodsb.tsv --min_length 130 -dsb 46 --quiet</v>
+        <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl245_NHEJ_hg42_R2.sam -ref ref_seq/1DSB_R2_branch.fa -o libraries_2/yjl245_WT_sgB_R2_branch_nodsb.tsv --min_length 130 -dsb 46 --quiet</v>
       </c>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B170" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C170" t="s">
         <v>146</v>
@@ -10249,33 +10675,33 @@
         <v>128</v>
       </c>
       <c r="E170" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F170" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G170" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H170" cm="1">
         <f t="array" ref="H170">IF(D170="2DSB", IF(G170="R1", 67, 46), IF(D170="1DSB", IF(G170="R1", 67, 46), IF(D170="2DSBanti", IF(G170="R1", 50, 47), NA))) + IF(Table1[[#This Row],[control]]="30bpDown", 30, 0)</f>
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="I170" t="str">
         <f>IF(OR(Table1[[#This Row],[control]]="none", Table1[[#This Row],[control]]="30bpDown"), _xlfn.CONCAT(Table1[[#This Row],[library]], IF(Table1[[#This Row],[dsb]] = "2DSBanti", "_anti", ""), "_",Table1[[#This Row],[strand]],"_", IF(LEFT(Table1[[#This Row],[dsb]], 1)="2","2DSBs", Table1[[#This Row],[hguide]]), ".sam"), _xlfn.CONCAT(Table1[[#This Row],[library]], "_NHEJ_", IF(Table1[[#This Row],[hguide]]="sgA", "hg39", IF(Table1[[#This Row],[hguide]]="sgB", "hg42", "2DSB")), "_", Table1[[#This Row],[strand]], ".sam"))</f>
-        <v>yjl282_NHEJ_hg39_R1.sam</v>
+        <v>yjl246_NHEJ_hg42_R2.sam</v>
       </c>
       <c r="J170" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[library]], "_", Table1[[#This Row],[cell_line]], "_", Table1[[#This Row],[hguide]], "_", Table1[[#This Row],[strand]], "_", Table1[[#This Row],[treatment]], IF(Table1[[#This Row],[control]]&lt;&gt;"none", _xlfn.CONCAT("_", Table1[[#This Row],[control]]), ""))</f>
-        <v>yjl282_KO_sgA_R1_branch_nodsb</v>
+        <v>yjl246_WT_sgB_R2_cmv_nodsb</v>
       </c>
       <c r="K170" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[dsb]],"_", Table1[[#This Row],[strand]],"_", Table1[[#This Row],[treatment]], ".fa")</f>
-        <v>1DSB_R1_branch.fa</v>
+        <v>1DSB_R2_cmv.fa</v>
       </c>
       <c r="L170">
         <f>VLOOKUP(Table1[[#This Row],[library]], Table9[#All], 2)</f>
-        <v>10190833</v>
+        <v>10217401</v>
       </c>
       <c r="M170">
         <f>IF(LEFT(Table1[[#This Row],[dsb]], 1) = "2", 50, 130)</f>
@@ -10283,12 +10709,12 @@
       </c>
       <c r="N170" t="str">
         <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
-        <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl282_NHEJ_hg39_R1.sam -ref ref_seq/1DSB_R1_branch.fa -o libraries_2/yjl282_KO_sgA_R1_branch_nodsb.tsv --min_length 130 -dsb 67 --quiet</v>
+        <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl246_NHEJ_hg42_R2.sam -ref ref_seq/1DSB_R2_cmv.fa -o libraries_2/yjl246_WT_sgB_R2_cmv_nodsb.tsv --min_length 130 -dsb 46 --quiet</v>
       </c>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B171" t="s">
         <v>14</v>
@@ -10303,7 +10729,7 @@
         <v>79</v>
       </c>
       <c r="F171" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G171" t="s">
         <v>86</v>
@@ -10314,19 +10740,19 @@
       </c>
       <c r="I171" t="str">
         <f>IF(OR(Table1[[#This Row],[control]]="none", Table1[[#This Row],[control]]="30bpDown"), _xlfn.CONCAT(Table1[[#This Row],[library]], IF(Table1[[#This Row],[dsb]] = "2DSBanti", "_anti", ""), "_",Table1[[#This Row],[strand]],"_", IF(LEFT(Table1[[#This Row],[dsb]], 1)="2","2DSBs", Table1[[#This Row],[hguide]]), ".sam"), _xlfn.CONCAT(Table1[[#This Row],[library]], "_NHEJ_", IF(Table1[[#This Row],[hguide]]="sgA", "hg39", IF(Table1[[#This Row],[hguide]]="sgB", "hg42", "2DSB")), "_", Table1[[#This Row],[strand]], ".sam"))</f>
-        <v>yjl282_NHEJ_hg42_R2.sam</v>
+        <v>yjl281_NHEJ_hg42_R2.sam</v>
       </c>
       <c r="J171" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[library]], "_", Table1[[#This Row],[cell_line]], "_", Table1[[#This Row],[hguide]], "_", Table1[[#This Row],[strand]], "_", Table1[[#This Row],[treatment]], IF(Table1[[#This Row],[control]]&lt;&gt;"none", _xlfn.CONCAT("_", Table1[[#This Row],[control]]), ""))</f>
-        <v>yjl282_KO_sgB_R2_branch_nodsb</v>
+        <v>yjl281_KO_sgB_R2_sense_nodsb</v>
       </c>
       <c r="K171" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[dsb]],"_", Table1[[#This Row],[strand]],"_", Table1[[#This Row],[treatment]], ".fa")</f>
-        <v>1DSB_R2_branch.fa</v>
+        <v>1DSB_R2_sense.fa</v>
       </c>
       <c r="L171">
         <f>VLOOKUP(Table1[[#This Row],[library]], Table9[#All], 2)</f>
-        <v>10190833</v>
+        <v>7424148</v>
       </c>
       <c r="M171">
         <f>IF(LEFT(Table1[[#This Row],[dsb]], 1) = "2", 50, 130)</f>
@@ -10334,12 +10760,12 @@
       </c>
       <c r="N171" t="str">
         <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
-        <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl282_NHEJ_hg42_R2.sam -ref ref_seq/1DSB_R2_branch.fa -o libraries_2/yjl282_KO_sgB_R2_branch_nodsb.tsv --min_length 130 -dsb 46 --quiet</v>
+        <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl281_NHEJ_hg42_R2.sam -ref ref_seq/1DSB_R2_sense.fa -o libraries_2/yjl281_KO_sgB_R2_sense_nodsb.tsv --min_length 130 -dsb 46 --quiet</v>
       </c>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B172" t="s">
         <v>14</v>
@@ -10351,33 +10777,33 @@
         <v>128</v>
       </c>
       <c r="E172" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F172" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G172" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H172" cm="1">
         <f t="array" ref="H172">IF(D172="2DSB", IF(G172="R1", 67, 46), IF(D172="1DSB", IF(G172="R1", 67, 46), IF(D172="2DSBanti", IF(G172="R1", 50, 47), NA))) + IF(Table1[[#This Row],[control]]="30bpDown", 30, 0)</f>
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="I172" t="str">
         <f>IF(OR(Table1[[#This Row],[control]]="none", Table1[[#This Row],[control]]="30bpDown"), _xlfn.CONCAT(Table1[[#This Row],[library]], IF(Table1[[#This Row],[dsb]] = "2DSBanti", "_anti", ""), "_",Table1[[#This Row],[strand]],"_", IF(LEFT(Table1[[#This Row],[dsb]], 1)="2","2DSBs", Table1[[#This Row],[hguide]]), ".sam"), _xlfn.CONCAT(Table1[[#This Row],[library]], "_NHEJ_", IF(Table1[[#This Row],[hguide]]="sgA", "hg39", IF(Table1[[#This Row],[hguide]]="sgB", "hg42", "2DSB")), "_", Table1[[#This Row],[strand]], ".sam"))</f>
-        <v>yjl283_NHEJ_hg39_R1.sam</v>
+        <v>yjl282_NHEJ_hg42_R2.sam</v>
       </c>
       <c r="J172" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[library]], "_", Table1[[#This Row],[cell_line]], "_", Table1[[#This Row],[hguide]], "_", Table1[[#This Row],[strand]], "_", Table1[[#This Row],[treatment]], IF(Table1[[#This Row],[control]]&lt;&gt;"none", _xlfn.CONCAT("_", Table1[[#This Row],[control]]), ""))</f>
-        <v>yjl283_KO_sgA_R1_cmv_nodsb</v>
+        <v>yjl282_KO_sgB_R2_branch_nodsb</v>
       </c>
       <c r="K172" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[dsb]],"_", Table1[[#This Row],[strand]],"_", Table1[[#This Row],[treatment]], ".fa")</f>
-        <v>1DSB_R1_cmv.fa</v>
+        <v>1DSB_R2_branch.fa</v>
       </c>
       <c r="L172">
         <f>VLOOKUP(Table1[[#This Row],[library]], Table9[#All], 2)</f>
-        <v>7763439</v>
+        <v>10190833</v>
       </c>
       <c r="M172">
         <f>IF(LEFT(Table1[[#This Row],[dsb]], 1) = "2", 50, 130)</f>
@@ -10385,7 +10811,7 @@
       </c>
       <c r="N172" t="str">
         <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
-        <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl283_NHEJ_hg39_R1.sam -ref ref_seq/1DSB_R1_cmv.fa -o libraries_2/yjl283_KO_sgA_R1_cmv_nodsb.tsv --min_length 130 -dsb 67 --quiet</v>
+        <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl282_NHEJ_hg42_R2.sam -ref ref_seq/1DSB_R2_branch.fa -o libraries_2/yjl282_KO_sgB_R2_branch_nodsb.tsv --min_length 130 -dsb 46 --quiet</v>
       </c>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.25">
@@ -11272,23 +11698,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8D704B5-D01A-4D17-9252-416EA08BC871}">
-  <dimension ref="A1:S42"/>
+  <dimension ref="A1:S56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S42" sqref="S3:S42"/>
+    <sheetView topLeftCell="G43" workbookViewId="0">
+      <selection activeCell="M46" sqref="M46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="24.28515625" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" customWidth="1"/>
     <col min="8" max="8" width="12.140625" customWidth="1"/>
     <col min="9" max="9" width="9.28515625" customWidth="1"/>
     <col min="10" max="10" width="29.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="35.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.140625" customWidth="1"/>
-    <col min="13" max="13" width="9.85546875" customWidth="1"/>
+    <col min="13" max="13" width="20.5703125" customWidth="1"/>
     <col min="14" max="14" width="15.140625" customWidth="1"/>
     <col min="15" max="15" width="9.85546875" customWidth="1"/>
     <col min="16" max="16" width="15.140625" customWidth="1"/>
@@ -14462,728 +14889,699 @@
         <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl312_KO_sgB_R2_cmv_30bpDown.tsv libraries_2/yjl313_KO_sgB_R2_cmv_30bpDown.tsv libraries_2/yjl314_KO_sgB_R2_cmv_30bpDown.tsv libraries_2/yjl315_KO_sgB_R2_cmv_30bpDown.tsv --total_reads 6846213 6511345 7387185 6462243 -o libraries_3/KO_sgB_R2_cmv_30bpDown.tsv --quiet </v>
       </c>
     </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>116</v>
+      </c>
+      <c r="B44" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" t="s">
+        <v>139</v>
+      </c>
+      <c r="D44" t="s">
+        <v>82</v>
+      </c>
+      <c r="E44" t="s">
+        <v>104</v>
+      </c>
+      <c r="F44" t="s">
+        <v>107</v>
+      </c>
+      <c r="G44" t="s">
+        <v>84</v>
+      </c>
+      <c r="H44" t="s">
+        <v>83</v>
+      </c>
+      <c r="I44" t="s">
+        <v>106</v>
+      </c>
+      <c r="J44" t="s">
+        <v>144</v>
+      </c>
+      <c r="K44" t="s">
+        <v>143</v>
+      </c>
+      <c r="L44" t="s">
+        <v>95</v>
+      </c>
+      <c r="M44" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>1</v>
+      </c>
+      <c r="B45" t="str">
+        <f>'1_repeats'!K162</f>
+        <v>1DSB_R1_sense.fa</v>
+      </c>
+      <c r="C45" t="str">
+        <f>'1_repeats'!C162</f>
+        <v>nodsb</v>
+      </c>
+      <c r="D45" t="str">
+        <f>'1_repeats'!D162</f>
+        <v>1DSB</v>
+      </c>
+      <c r="E45">
+        <f>'1_repeats'!H162</f>
+        <v>67</v>
+      </c>
+      <c r="F45" t="str">
+        <f>'1_repeats'!B162</f>
+        <v>WT</v>
+      </c>
+      <c r="G45" t="str">
+        <f>'1_repeats'!G162</f>
+        <v>R1</v>
+      </c>
+      <c r="H45" t="str">
+        <f>'1_repeats'!F162</f>
+        <v>sense</v>
+      </c>
+      <c r="I45" t="str">
+        <f>'1_repeats'!E162</f>
+        <v>sgA</v>
+      </c>
+      <c r="J45" t="str">
+        <f>_xlfn.CONCAT(F45, "_", I45, "_", G45, "_", H45, "_nodsb")</f>
+        <v>WT_sgA_R1_sense_nodsb</v>
+      </c>
+      <c r="K45" t="str">
+        <f>'1_repeats'!J162</f>
+        <v>yjl244_WT_sgA_R1_sense_nodsb</v>
+      </c>
+      <c r="L45">
+        <f>'1_repeats'!L162</f>
+        <v>10005232</v>
+      </c>
+      <c r="M45" t="str">
+        <f>_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -i ", dirs!$A$2, "/", Table11[[#This Row],[input]], ".tsv ", " --total_reads ", Table11[[#This Row],[total_reads]], " -o ", dirs!$A$3, "/", Table11[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
+        <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -i libraries_2/yjl244_WT_sgA_R1_sense_nodsb.tsv  --total_reads 10005232 -o libraries_3/WT_sgA_R1_sense_nodsb.tsv --quiet </v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>2</v>
+      </c>
+      <c r="B46" t="str">
+        <f>'1_repeats'!K163</f>
+        <v>1DSB_R1_branch.fa</v>
+      </c>
+      <c r="C46" t="str">
+        <f>'1_repeats'!C163</f>
+        <v>nodsb</v>
+      </c>
+      <c r="D46" t="str">
+        <f>'1_repeats'!D163</f>
+        <v>1DSB</v>
+      </c>
+      <c r="E46">
+        <f>'1_repeats'!H163</f>
+        <v>67</v>
+      </c>
+      <c r="F46" t="str">
+        <f>'1_repeats'!B163</f>
+        <v>WT</v>
+      </c>
+      <c r="G46" t="str">
+        <f>'1_repeats'!G163</f>
+        <v>R1</v>
+      </c>
+      <c r="H46" t="str">
+        <f>'1_repeats'!F163</f>
+        <v>branch</v>
+      </c>
+      <c r="I46" t="str">
+        <f>'1_repeats'!E163</f>
+        <v>sgA</v>
+      </c>
+      <c r="J46" t="str">
+        <f t="shared" ref="J46:J56" si="0">_xlfn.CONCAT(F46, "_", I46, "_", G46, "_", H46, "_nodsb")</f>
+        <v>WT_sgA_R1_branch_nodsb</v>
+      </c>
+      <c r="K46" t="str">
+        <f>'1_repeats'!J163</f>
+        <v>yjl245_WT_sgA_R1_branch_nodsb</v>
+      </c>
+      <c r="L46">
+        <f>'1_repeats'!L163</f>
+        <v>12898941</v>
+      </c>
+      <c r="M46" t="str">
+        <f>_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -i ", dirs!$A$2, "/", Table11[[#This Row],[input]], ".tsv ", " --total_reads ", Table11[[#This Row],[total_reads]], " -o ", dirs!$A$3, "/", Table11[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
+        <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -i libraries_2/yjl245_WT_sgA_R1_branch_nodsb.tsv  --total_reads 12898941 -o libraries_3/WT_sgA_R1_branch_nodsb.tsv --quiet </v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>3</v>
+      </c>
+      <c r="B47" t="str">
+        <f>'1_repeats'!K164</f>
+        <v>1DSB_R1_cmv.fa</v>
+      </c>
+      <c r="C47" t="str">
+        <f>'1_repeats'!C164</f>
+        <v>nodsb</v>
+      </c>
+      <c r="D47" t="str">
+        <f>'1_repeats'!D164</f>
+        <v>1DSB</v>
+      </c>
+      <c r="E47">
+        <f>'1_repeats'!H164</f>
+        <v>67</v>
+      </c>
+      <c r="F47" t="str">
+        <f>'1_repeats'!B164</f>
+        <v>WT</v>
+      </c>
+      <c r="G47" t="str">
+        <f>'1_repeats'!G164</f>
+        <v>R1</v>
+      </c>
+      <c r="H47" t="str">
+        <f>'1_repeats'!F164</f>
+        <v>cmv</v>
+      </c>
+      <c r="I47" t="str">
+        <f>'1_repeats'!E164</f>
+        <v>sgA</v>
+      </c>
+      <c r="J47" t="str">
+        <f t="shared" si="0"/>
+        <v>WT_sgA_R1_cmv_nodsb</v>
+      </c>
+      <c r="K47" t="str">
+        <f>'1_repeats'!J164</f>
+        <v>yjl246_WT_sgA_R1_cmv_nodsb</v>
+      </c>
+      <c r="L47">
+        <f>'1_repeats'!L164</f>
+        <v>10217401</v>
+      </c>
+      <c r="M47" t="str">
+        <f>_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -i ", dirs!$A$2, "/", Table11[[#This Row],[input]], ".tsv ", " --total_reads ", Table11[[#This Row],[total_reads]], " -o ", dirs!$A$3, "/", Table11[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
+        <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -i libraries_2/yjl246_WT_sgA_R1_cmv_nodsb.tsv  --total_reads 10217401 -o libraries_3/WT_sgA_R1_cmv_nodsb.tsv --quiet </v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>4</v>
+      </c>
+      <c r="B48" t="str">
+        <f>'1_repeats'!K165</f>
+        <v>1DSB_R1_sense.fa</v>
+      </c>
+      <c r="C48" t="str">
+        <f>'1_repeats'!C165</f>
+        <v>nodsb</v>
+      </c>
+      <c r="D48" t="str">
+        <f>'1_repeats'!D165</f>
+        <v>1DSB</v>
+      </c>
+      <c r="E48">
+        <f>'1_repeats'!H165</f>
+        <v>67</v>
+      </c>
+      <c r="F48" t="str">
+        <f>'1_repeats'!B165</f>
+        <v>KO</v>
+      </c>
+      <c r="G48" t="str">
+        <f>'1_repeats'!G165</f>
+        <v>R1</v>
+      </c>
+      <c r="H48" t="str">
+        <f>'1_repeats'!F165</f>
+        <v>sense</v>
+      </c>
+      <c r="I48" t="str">
+        <f>'1_repeats'!E165</f>
+        <v>sgA</v>
+      </c>
+      <c r="J48" t="str">
+        <f t="shared" si="0"/>
+        <v>KO_sgA_R1_sense_nodsb</v>
+      </c>
+      <c r="K48" t="str">
+        <f>'1_repeats'!J165</f>
+        <v>yjl281_KO_sgA_R1_sense_nodsb</v>
+      </c>
+      <c r="L48">
+        <f>'1_repeats'!L165</f>
+        <v>7424148</v>
+      </c>
+      <c r="M48" t="str">
+        <f>_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -i ", dirs!$A$2, "/", Table11[[#This Row],[input]], ".tsv ", " --total_reads ", Table11[[#This Row],[total_reads]], " -o ", dirs!$A$3, "/", Table11[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
+        <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -i libraries_2/yjl281_KO_sgA_R1_sense_nodsb.tsv  --total_reads 7424148 -o libraries_3/KO_sgA_R1_sense_nodsb.tsv --quiet </v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>5</v>
+      </c>
+      <c r="B49" t="str">
+        <f>'1_repeats'!K166</f>
+        <v>1DSB_R1_branch.fa</v>
+      </c>
+      <c r="C49" t="str">
+        <f>'1_repeats'!C166</f>
+        <v>nodsb</v>
+      </c>
+      <c r="D49" t="str">
+        <f>'1_repeats'!D166</f>
+        <v>1DSB</v>
+      </c>
+      <c r="E49">
+        <f>'1_repeats'!H166</f>
+        <v>67</v>
+      </c>
+      <c r="F49" t="str">
+        <f>'1_repeats'!B166</f>
+        <v>KO</v>
+      </c>
+      <c r="G49" t="str">
+        <f>'1_repeats'!G166</f>
+        <v>R1</v>
+      </c>
+      <c r="H49" t="str">
+        <f>'1_repeats'!F166</f>
+        <v>branch</v>
+      </c>
+      <c r="I49" t="str">
+        <f>'1_repeats'!E166</f>
+        <v>sgA</v>
+      </c>
+      <c r="J49" t="str">
+        <f t="shared" si="0"/>
+        <v>KO_sgA_R1_branch_nodsb</v>
+      </c>
+      <c r="K49" t="str">
+        <f>'1_repeats'!J166</f>
+        <v>yjl282_KO_sgA_R1_branch_nodsb</v>
+      </c>
+      <c r="L49">
+        <f>'1_repeats'!L166</f>
+        <v>10190833</v>
+      </c>
+      <c r="M49" t="str">
+        <f>_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -i ", dirs!$A$2, "/", Table11[[#This Row],[input]], ".tsv ", " --total_reads ", Table11[[#This Row],[total_reads]], " -o ", dirs!$A$3, "/", Table11[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
+        <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -i libraries_2/yjl282_KO_sgA_R1_branch_nodsb.tsv  --total_reads 10190833 -o libraries_3/KO_sgA_R1_branch_nodsb.tsv --quiet </v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>6</v>
+      </c>
+      <c r="B50" t="str">
+        <f>'1_repeats'!K167</f>
+        <v>1DSB_R1_cmv.fa</v>
+      </c>
+      <c r="C50" t="str">
+        <f>'1_repeats'!C167</f>
+        <v>nodsb</v>
+      </c>
+      <c r="D50" t="str">
+        <f>'1_repeats'!D167</f>
+        <v>1DSB</v>
+      </c>
+      <c r="E50">
+        <f>'1_repeats'!H167</f>
+        <v>67</v>
+      </c>
+      <c r="F50" t="str">
+        <f>'1_repeats'!B167</f>
+        <v>KO</v>
+      </c>
+      <c r="G50" t="str">
+        <f>'1_repeats'!G167</f>
+        <v>R1</v>
+      </c>
+      <c r="H50" t="str">
+        <f>'1_repeats'!F167</f>
+        <v>cmv</v>
+      </c>
+      <c r="I50" t="str">
+        <f>'1_repeats'!E167</f>
+        <v>sgA</v>
+      </c>
+      <c r="J50" t="str">
+        <f t="shared" si="0"/>
+        <v>KO_sgA_R1_cmv_nodsb</v>
+      </c>
+      <c r="K50" t="str">
+        <f>'1_repeats'!J167</f>
+        <v>yjl283_KO_sgA_R1_cmv_nodsb</v>
+      </c>
+      <c r="L50">
+        <f>'1_repeats'!L167</f>
+        <v>7763439</v>
+      </c>
+      <c r="M50" t="str">
+        <f>_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -i ", dirs!$A$2, "/", Table11[[#This Row],[input]], ".tsv ", " --total_reads ", Table11[[#This Row],[total_reads]], " -o ", dirs!$A$3, "/", Table11[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
+        <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -i libraries_2/yjl283_KO_sgA_R1_cmv_nodsb.tsv  --total_reads 7763439 -o libraries_3/KO_sgA_R1_cmv_nodsb.tsv --quiet </v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>7</v>
+      </c>
+      <c r="B51" t="str">
+        <f>'1_repeats'!K168</f>
+        <v>1DSB_R2_sense.fa</v>
+      </c>
+      <c r="C51" t="str">
+        <f>'1_repeats'!C168</f>
+        <v>nodsb</v>
+      </c>
+      <c r="D51" t="str">
+        <f>'1_repeats'!D168</f>
+        <v>1DSB</v>
+      </c>
+      <c r="E51">
+        <f>'1_repeats'!H168</f>
+        <v>46</v>
+      </c>
+      <c r="F51" t="str">
+        <f>'1_repeats'!B168</f>
+        <v>WT</v>
+      </c>
+      <c r="G51" t="str">
+        <f>'1_repeats'!G168</f>
+        <v>R2</v>
+      </c>
+      <c r="H51" t="str">
+        <f>'1_repeats'!F168</f>
+        <v>sense</v>
+      </c>
+      <c r="I51" t="str">
+        <f>'1_repeats'!E168</f>
+        <v>sgB</v>
+      </c>
+      <c r="J51" t="str">
+        <f t="shared" si="0"/>
+        <v>WT_sgB_R2_sense_nodsb</v>
+      </c>
+      <c r="K51" t="str">
+        <f>'1_repeats'!J168</f>
+        <v>yjl244_WT_sgB_R2_sense_nodsb</v>
+      </c>
+      <c r="L51">
+        <f>'1_repeats'!L168</f>
+        <v>10005232</v>
+      </c>
+      <c r="M51" t="str">
+        <f>_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -i ", dirs!$A$2, "/", Table11[[#This Row],[input]], ".tsv ", " --total_reads ", Table11[[#This Row],[total_reads]], " -o ", dirs!$A$3, "/", Table11[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
+        <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -i libraries_2/yjl244_WT_sgB_R2_sense_nodsb.tsv  --total_reads 10005232 -o libraries_3/WT_sgB_R2_sense_nodsb.tsv --quiet </v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>8</v>
+      </c>
+      <c r="B52" t="str">
+        <f>'1_repeats'!K169</f>
+        <v>1DSB_R2_branch.fa</v>
+      </c>
+      <c r="C52" t="str">
+        <f>'1_repeats'!C169</f>
+        <v>nodsb</v>
+      </c>
+      <c r="D52" t="str">
+        <f>'1_repeats'!D169</f>
+        <v>1DSB</v>
+      </c>
+      <c r="E52">
+        <f>'1_repeats'!H169</f>
+        <v>46</v>
+      </c>
+      <c r="F52" t="str">
+        <f>'1_repeats'!B169</f>
+        <v>WT</v>
+      </c>
+      <c r="G52" t="str">
+        <f>'1_repeats'!G169</f>
+        <v>R2</v>
+      </c>
+      <c r="H52" t="str">
+        <f>'1_repeats'!F169</f>
+        <v>branch</v>
+      </c>
+      <c r="I52" t="str">
+        <f>'1_repeats'!E169</f>
+        <v>sgB</v>
+      </c>
+      <c r="J52" t="str">
+        <f t="shared" si="0"/>
+        <v>WT_sgB_R2_branch_nodsb</v>
+      </c>
+      <c r="K52" t="str">
+        <f>'1_repeats'!J169</f>
+        <v>yjl245_WT_sgB_R2_branch_nodsb</v>
+      </c>
+      <c r="L52">
+        <f>'1_repeats'!L169</f>
+        <v>12898941</v>
+      </c>
+      <c r="M52" t="str">
+        <f>_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -i ", dirs!$A$2, "/", Table11[[#This Row],[input]], ".tsv ", " --total_reads ", Table11[[#This Row],[total_reads]], " -o ", dirs!$A$3, "/", Table11[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
+        <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -i libraries_2/yjl245_WT_sgB_R2_branch_nodsb.tsv  --total_reads 12898941 -o libraries_3/WT_sgB_R2_branch_nodsb.tsv --quiet </v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>9</v>
+      </c>
+      <c r="B53" t="str">
+        <f>'1_repeats'!K170</f>
+        <v>1DSB_R2_cmv.fa</v>
+      </c>
+      <c r="C53" t="str">
+        <f>'1_repeats'!C170</f>
+        <v>nodsb</v>
+      </c>
+      <c r="D53" t="str">
+        <f>'1_repeats'!D170</f>
+        <v>1DSB</v>
+      </c>
+      <c r="E53">
+        <f>'1_repeats'!H170</f>
+        <v>46</v>
+      </c>
+      <c r="F53" t="str">
+        <f>'1_repeats'!B170</f>
+        <v>WT</v>
+      </c>
+      <c r="G53" t="str">
+        <f>'1_repeats'!G170</f>
+        <v>R2</v>
+      </c>
+      <c r="H53" t="str">
+        <f>'1_repeats'!F170</f>
+        <v>cmv</v>
+      </c>
+      <c r="I53" t="str">
+        <f>'1_repeats'!E170</f>
+        <v>sgB</v>
+      </c>
+      <c r="J53" t="str">
+        <f t="shared" si="0"/>
+        <v>WT_sgB_R2_cmv_nodsb</v>
+      </c>
+      <c r="K53" t="str">
+        <f>'1_repeats'!J170</f>
+        <v>yjl246_WT_sgB_R2_cmv_nodsb</v>
+      </c>
+      <c r="L53">
+        <f>'1_repeats'!L170</f>
+        <v>10217401</v>
+      </c>
+      <c r="M53" t="str">
+        <f>_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -i ", dirs!$A$2, "/", Table11[[#This Row],[input]], ".tsv ", " --total_reads ", Table11[[#This Row],[total_reads]], " -o ", dirs!$A$3, "/", Table11[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
+        <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -i libraries_2/yjl246_WT_sgB_R2_cmv_nodsb.tsv  --total_reads 10217401 -o libraries_3/WT_sgB_R2_cmv_nodsb.tsv --quiet </v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>10</v>
+      </c>
+      <c r="B54" t="str">
+        <f>'1_repeats'!K171</f>
+        <v>1DSB_R2_sense.fa</v>
+      </c>
+      <c r="C54" t="str">
+        <f>'1_repeats'!C171</f>
+        <v>nodsb</v>
+      </c>
+      <c r="D54" t="str">
+        <f>'1_repeats'!D171</f>
+        <v>1DSB</v>
+      </c>
+      <c r="E54">
+        <f>'1_repeats'!H171</f>
+        <v>46</v>
+      </c>
+      <c r="F54" t="str">
+        <f>'1_repeats'!B171</f>
+        <v>KO</v>
+      </c>
+      <c r="G54" t="str">
+        <f>'1_repeats'!G171</f>
+        <v>R2</v>
+      </c>
+      <c r="H54" t="str">
+        <f>'1_repeats'!F171</f>
+        <v>sense</v>
+      </c>
+      <c r="I54" t="str">
+        <f>'1_repeats'!E171</f>
+        <v>sgB</v>
+      </c>
+      <c r="J54" t="str">
+        <f t="shared" si="0"/>
+        <v>KO_sgB_R2_sense_nodsb</v>
+      </c>
+      <c r="K54" t="str">
+        <f>'1_repeats'!J171</f>
+        <v>yjl281_KO_sgB_R2_sense_nodsb</v>
+      </c>
+      <c r="L54">
+        <f>'1_repeats'!L171</f>
+        <v>7424148</v>
+      </c>
+      <c r="M54" t="str">
+        <f>_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -i ", dirs!$A$2, "/", Table11[[#This Row],[input]], ".tsv ", " --total_reads ", Table11[[#This Row],[total_reads]], " -o ", dirs!$A$3, "/", Table11[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
+        <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -i libraries_2/yjl281_KO_sgB_R2_sense_nodsb.tsv  --total_reads 7424148 -o libraries_3/KO_sgB_R2_sense_nodsb.tsv --quiet </v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>11</v>
+      </c>
+      <c r="B55" t="str">
+        <f>'1_repeats'!K172</f>
+        <v>1DSB_R2_branch.fa</v>
+      </c>
+      <c r="C55" t="str">
+        <f>'1_repeats'!C172</f>
+        <v>nodsb</v>
+      </c>
+      <c r="D55" t="str">
+        <f>'1_repeats'!D172</f>
+        <v>1DSB</v>
+      </c>
+      <c r="E55">
+        <f>'1_repeats'!H172</f>
+        <v>46</v>
+      </c>
+      <c r="F55" t="str">
+        <f>'1_repeats'!B172</f>
+        <v>KO</v>
+      </c>
+      <c r="G55" t="str">
+        <f>'1_repeats'!G172</f>
+        <v>R2</v>
+      </c>
+      <c r="H55" t="str">
+        <f>'1_repeats'!F172</f>
+        <v>branch</v>
+      </c>
+      <c r="I55" t="str">
+        <f>'1_repeats'!E172</f>
+        <v>sgB</v>
+      </c>
+      <c r="J55" t="str">
+        <f t="shared" si="0"/>
+        <v>KO_sgB_R2_branch_nodsb</v>
+      </c>
+      <c r="K55" t="str">
+        <f>'1_repeats'!J172</f>
+        <v>yjl282_KO_sgB_R2_branch_nodsb</v>
+      </c>
+      <c r="L55">
+        <f>'1_repeats'!L172</f>
+        <v>10190833</v>
+      </c>
+      <c r="M55" t="str">
+        <f>_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -i ", dirs!$A$2, "/", Table11[[#This Row],[input]], ".tsv ", " --total_reads ", Table11[[#This Row],[total_reads]], " -o ", dirs!$A$3, "/", Table11[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
+        <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -i libraries_2/yjl282_KO_sgB_R2_branch_nodsb.tsv  --total_reads 10190833 -o libraries_3/KO_sgB_R2_branch_nodsb.tsv --quiet </v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>12</v>
+      </c>
+      <c r="B56" t="str">
+        <f>'1_repeats'!K173</f>
+        <v>1DSB_R2_cmv.fa</v>
+      </c>
+      <c r="C56" t="str">
+        <f>'1_repeats'!C173</f>
+        <v>nodsb</v>
+      </c>
+      <c r="D56" t="str">
+        <f>'1_repeats'!D173</f>
+        <v>1DSB</v>
+      </c>
+      <c r="E56">
+        <f>'1_repeats'!H173</f>
+        <v>46</v>
+      </c>
+      <c r="F56" t="str">
+        <f>'1_repeats'!B173</f>
+        <v>KO</v>
+      </c>
+      <c r="G56" t="str">
+        <f>'1_repeats'!G173</f>
+        <v>R2</v>
+      </c>
+      <c r="H56" t="str">
+        <f>'1_repeats'!F173</f>
+        <v>cmv</v>
+      </c>
+      <c r="I56" t="str">
+        <f>'1_repeats'!E173</f>
+        <v>sgB</v>
+      </c>
+      <c r="J56" t="str">
+        <f t="shared" si="0"/>
+        <v>KO_sgB_R2_cmv_nodsb</v>
+      </c>
+      <c r="K56" t="str">
+        <f>'1_repeats'!J173</f>
+        <v>yjl283_KO_sgB_R2_cmv_nodsb</v>
+      </c>
+      <c r="L56">
+        <f>'1_repeats'!L173</f>
+        <v>7763439</v>
+      </c>
+      <c r="M56" t="str">
+        <f>_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -i ", dirs!$A$2, "/", Table11[[#This Row],[input]], ".tsv ", " --total_reads ", Table11[[#This Row],[total_reads]], " -o ", dirs!$A$3, "/", Table11[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
+        <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -i libraries_2/yjl283_KO_sgB_R2_cmv_nodsb.tsv  --total_reads 7763439 -o libraries_3/KO_sgB_R2_cmv_nodsb.tsv --quiet </v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A105E05C-D19C-48E0-98FD-EB0CB98D1023}">
-  <dimension ref="A1:M13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7FB6E33-93C4-4971-BF44-23A0F65AADA0}">
+  <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="17.28515625" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" customWidth="1"/>
-    <col min="10" max="10" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" t="str">
-        <f>'1_repeats'!K162</f>
-        <v>1DSB_R1_sense.fa</v>
-      </c>
-      <c r="C2" t="str">
-        <f>'1_repeats'!C162</f>
-        <v>nodsb</v>
-      </c>
-      <c r="D2" t="str">
-        <f>'1_repeats'!D162</f>
-        <v>1DSB</v>
-      </c>
-      <c r="E2">
-        <f>'1_repeats'!H162</f>
-        <v>67</v>
-      </c>
-      <c r="F2" t="str">
-        <f>'1_repeats'!B162</f>
-        <v>WT</v>
-      </c>
-      <c r="G2" t="str">
-        <f>'1_repeats'!G162</f>
-        <v>R1</v>
-      </c>
-      <c r="H2" t="str">
-        <f>'1_repeats'!F162</f>
-        <v>sense</v>
-      </c>
-      <c r="I2" t="str">
-        <f>'1_repeats'!E162</f>
-        <v>sgA</v>
-      </c>
-      <c r="J2" t="str">
-        <f>_xlfn.CONCAT(F2, "_", I2, "_", G2, "_", H2, "_nodsb")</f>
-        <v>WT_sgA_R1_sense_nodsb</v>
-      </c>
-      <c r="K2" t="str">
-        <f>'1_repeats'!J162</f>
-        <v>yjl244_WT_sgA_R1_sense_nodsb</v>
-      </c>
-      <c r="L2">
-        <f>'1_repeats'!L162</f>
-        <v>10005232</v>
-      </c>
-      <c r="M2" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", Table4[[#This Row],[input]], ".tsv ", " --total_reads ", Table4[[#This Row],[total_reads]], " -o ", dirs!$A$3, "/", Table4[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
-        <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl244_WT_sgA_R1_sense_nodsb.tsv  --total_reads 10005232 -o libraries_3/WT_sgA_R1_sense_nodsb.tsv --quiet </v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" t="str">
-        <f>'1_repeats'!K163</f>
-        <v>1DSB_R2_sense.fa</v>
-      </c>
-      <c r="C3" t="str">
-        <f>'1_repeats'!C163</f>
-        <v>nodsb</v>
-      </c>
-      <c r="D3" t="str">
-        <f>'1_repeats'!D163</f>
-        <v>1DSB</v>
-      </c>
-      <c r="E3">
-        <f>'1_repeats'!H163</f>
-        <v>46</v>
-      </c>
-      <c r="F3" t="str">
-        <f>'1_repeats'!B163</f>
-        <v>WT</v>
-      </c>
-      <c r="G3" t="str">
-        <f>'1_repeats'!G163</f>
-        <v>R2</v>
-      </c>
-      <c r="H3" t="str">
-        <f>'1_repeats'!F163</f>
-        <v>sense</v>
-      </c>
-      <c r="I3" t="str">
-        <f>'1_repeats'!E163</f>
-        <v>sgB</v>
-      </c>
-      <c r="J3" t="str">
-        <f t="shared" ref="J3:J13" si="0">_xlfn.CONCAT(F3, "_", I3, "_", G3, "_", H3, "_nodsb")</f>
-        <v>WT_sgB_R2_sense_nodsb</v>
-      </c>
-      <c r="K3" t="str">
-        <f>'1_repeats'!J163</f>
-        <v>yjl244_WT_sgB_R2_sense_nodsb</v>
-      </c>
-      <c r="L3">
-        <f>'1_repeats'!L163</f>
-        <v>10005232</v>
-      </c>
-      <c r="M3" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", Table4[[#This Row],[input]], ".tsv ", " --total_reads ", Table4[[#This Row],[total_reads]], " -o ", dirs!$A$3, "/", Table4[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
-        <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl244_WT_sgB_R2_sense_nodsb.tsv  --total_reads 10005232 -o libraries_3/WT_sgB_R2_sense_nodsb.tsv --quiet </v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" t="str">
-        <f>'1_repeats'!K164</f>
-        <v>1DSB_R1_branch.fa</v>
-      </c>
-      <c r="C4" t="str">
-        <f>'1_repeats'!C164</f>
-        <v>nodsb</v>
-      </c>
-      <c r="D4" t="str">
-        <f>'1_repeats'!D164</f>
-        <v>1DSB</v>
-      </c>
-      <c r="E4">
-        <f>'1_repeats'!H164</f>
-        <v>67</v>
-      </c>
-      <c r="F4" t="str">
-        <f>'1_repeats'!B164</f>
-        <v>WT</v>
-      </c>
-      <c r="G4" t="str">
-        <f>'1_repeats'!G164</f>
-        <v>R1</v>
-      </c>
-      <c r="H4" t="str">
-        <f>'1_repeats'!F164</f>
-        <v>branch</v>
-      </c>
-      <c r="I4" t="str">
-        <f>'1_repeats'!E164</f>
-        <v>sgA</v>
-      </c>
-      <c r="J4" t="str">
-        <f t="shared" si="0"/>
-        <v>WT_sgA_R1_branch_nodsb</v>
-      </c>
-      <c r="K4" t="str">
-        <f>'1_repeats'!J164</f>
-        <v>yjl245_WT_sgA_R1_branch_nodsb</v>
-      </c>
-      <c r="L4">
-        <f>'1_repeats'!L164</f>
-        <v>12898941</v>
-      </c>
-      <c r="M4" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", Table4[[#This Row],[input]], ".tsv ", " --total_reads ", Table4[[#This Row],[total_reads]], " -o ", dirs!$A$3, "/", Table4[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
-        <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl245_WT_sgA_R1_branch_nodsb.tsv  --total_reads 12898941 -o libraries_3/WT_sgA_R1_branch_nodsb.tsv --quiet </v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" t="str">
-        <f>'1_repeats'!K165</f>
-        <v>1DSB_R2_branch.fa</v>
-      </c>
-      <c r="C5" t="str">
-        <f>'1_repeats'!C165</f>
-        <v>nodsb</v>
-      </c>
-      <c r="D5" t="str">
-        <f>'1_repeats'!D165</f>
-        <v>1DSB</v>
-      </c>
-      <c r="E5">
-        <f>'1_repeats'!H165</f>
-        <v>46</v>
-      </c>
-      <c r="F5" t="str">
-        <f>'1_repeats'!B165</f>
-        <v>WT</v>
-      </c>
-      <c r="G5" t="str">
-        <f>'1_repeats'!G165</f>
-        <v>R2</v>
-      </c>
-      <c r="H5" t="str">
-        <f>'1_repeats'!F165</f>
-        <v>branch</v>
-      </c>
-      <c r="I5" t="str">
-        <f>'1_repeats'!E165</f>
-        <v>sgB</v>
-      </c>
-      <c r="J5" t="str">
-        <f t="shared" si="0"/>
-        <v>WT_sgB_R2_branch_nodsb</v>
-      </c>
-      <c r="K5" t="str">
-        <f>'1_repeats'!J165</f>
-        <v>yjl245_WT_sgB_R2_branch_nodsb</v>
-      </c>
-      <c r="L5">
-        <f>'1_repeats'!L165</f>
-        <v>12898941</v>
-      </c>
-      <c r="M5" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", Table4[[#This Row],[input]], ".tsv ", " --total_reads ", Table4[[#This Row],[total_reads]], " -o ", dirs!$A$3, "/", Table4[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
-        <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl245_WT_sgB_R2_branch_nodsb.tsv  --total_reads 12898941 -o libraries_3/WT_sgB_R2_branch_nodsb.tsv --quiet </v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" t="str">
-        <f>'1_repeats'!K166</f>
-        <v>1DSB_R1_cmv.fa</v>
-      </c>
-      <c r="C6" t="str">
-        <f>'1_repeats'!C166</f>
-        <v>nodsb</v>
-      </c>
-      <c r="D6" t="str">
-        <f>'1_repeats'!D166</f>
-        <v>1DSB</v>
-      </c>
-      <c r="E6">
-        <f>'1_repeats'!H166</f>
-        <v>67</v>
-      </c>
-      <c r="F6" t="str">
-        <f>'1_repeats'!B166</f>
-        <v>WT</v>
-      </c>
-      <c r="G6" t="str">
-        <f>'1_repeats'!G166</f>
-        <v>R1</v>
-      </c>
-      <c r="H6" t="str">
-        <f>'1_repeats'!F166</f>
-        <v>cmv</v>
-      </c>
-      <c r="I6" t="str">
-        <f>'1_repeats'!E166</f>
-        <v>sgA</v>
-      </c>
-      <c r="J6" t="str">
-        <f t="shared" si="0"/>
-        <v>WT_sgA_R1_cmv_nodsb</v>
-      </c>
-      <c r="K6" t="str">
-        <f>'1_repeats'!J166</f>
-        <v>yjl246_WT_sgA_R1_cmv_nodsb</v>
-      </c>
-      <c r="L6">
-        <f>'1_repeats'!L166</f>
-        <v>10217401</v>
-      </c>
-      <c r="M6" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", Table4[[#This Row],[input]], ".tsv ", " --total_reads ", Table4[[#This Row],[total_reads]], " -o ", dirs!$A$3, "/", Table4[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
-        <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl246_WT_sgA_R1_cmv_nodsb.tsv  --total_reads 10217401 -o libraries_3/WT_sgA_R1_cmv_nodsb.tsv --quiet </v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" t="str">
-        <f>'1_repeats'!K167</f>
-        <v>1DSB_R2_cmv.fa</v>
-      </c>
-      <c r="C7" t="str">
-        <f>'1_repeats'!C167</f>
-        <v>nodsb</v>
-      </c>
-      <c r="D7" t="str">
-        <f>'1_repeats'!D167</f>
-        <v>1DSB</v>
-      </c>
-      <c r="E7">
-        <f>'1_repeats'!H167</f>
-        <v>46</v>
-      </c>
-      <c r="F7" t="str">
-        <f>'1_repeats'!B167</f>
-        <v>WT</v>
-      </c>
-      <c r="G7" t="str">
-        <f>'1_repeats'!G167</f>
-        <v>R2</v>
-      </c>
-      <c r="H7" t="str">
-        <f>'1_repeats'!F167</f>
-        <v>cmv</v>
-      </c>
-      <c r="I7" t="str">
-        <f>'1_repeats'!E167</f>
-        <v>sgB</v>
-      </c>
-      <c r="J7" t="str">
-        <f t="shared" si="0"/>
-        <v>WT_sgB_R2_cmv_nodsb</v>
-      </c>
-      <c r="K7" t="str">
-        <f>'1_repeats'!J167</f>
-        <v>yjl246_WT_sgB_R2_cmv_nodsb</v>
-      </c>
-      <c r="L7">
-        <f>'1_repeats'!L167</f>
-        <v>10217401</v>
-      </c>
-      <c r="M7" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", Table4[[#This Row],[input]], ".tsv ", " --total_reads ", Table4[[#This Row],[total_reads]], " -o ", dirs!$A$3, "/", Table4[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
-        <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl246_WT_sgB_R2_cmv_nodsb.tsv  --total_reads 10217401 -o libraries_3/WT_sgB_R2_cmv_nodsb.tsv --quiet </v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" t="str">
-        <f>'1_repeats'!K168</f>
-        <v>1DSB_R1_sense.fa</v>
-      </c>
-      <c r="C8" t="str">
-        <f>'1_repeats'!C168</f>
-        <v>nodsb</v>
-      </c>
-      <c r="D8" t="str">
-        <f>'1_repeats'!D168</f>
-        <v>1DSB</v>
-      </c>
-      <c r="E8">
-        <f>'1_repeats'!H168</f>
-        <v>67</v>
-      </c>
-      <c r="F8" t="str">
-        <f>'1_repeats'!B168</f>
-        <v>KO</v>
-      </c>
-      <c r="G8" t="str">
-        <f>'1_repeats'!G168</f>
-        <v>R1</v>
-      </c>
-      <c r="H8" t="str">
-        <f>'1_repeats'!F168</f>
-        <v>sense</v>
-      </c>
-      <c r="I8" t="str">
-        <f>'1_repeats'!E168</f>
-        <v>sgA</v>
-      </c>
-      <c r="J8" t="str">
-        <f t="shared" si="0"/>
-        <v>KO_sgA_R1_sense_nodsb</v>
-      </c>
-      <c r="K8" t="str">
-        <f>'1_repeats'!J168</f>
-        <v>yjl281_KO_sgA_R1_sense_nodsb</v>
-      </c>
-      <c r="L8">
-        <f>'1_repeats'!L168</f>
-        <v>7424148</v>
-      </c>
-      <c r="M8" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", Table4[[#This Row],[input]], ".tsv ", " --total_reads ", Table4[[#This Row],[total_reads]], " -o ", dirs!$A$3, "/", Table4[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
-        <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl281_KO_sgA_R1_sense_nodsb.tsv  --total_reads 7424148 -o libraries_3/KO_sgA_R1_sense_nodsb.tsv --quiet </v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" t="str">
-        <f>'1_repeats'!K169</f>
-        <v>1DSB_R2_sense.fa</v>
-      </c>
-      <c r="C9" t="str">
-        <f>'1_repeats'!C169</f>
-        <v>nodsb</v>
-      </c>
-      <c r="D9" t="str">
-        <f>'1_repeats'!D169</f>
-        <v>1DSB</v>
-      </c>
-      <c r="E9">
-        <f>'1_repeats'!H169</f>
-        <v>46</v>
-      </c>
-      <c r="F9" t="str">
-        <f>'1_repeats'!B169</f>
-        <v>KO</v>
-      </c>
-      <c r="G9" t="str">
-        <f>'1_repeats'!G169</f>
-        <v>R2</v>
-      </c>
-      <c r="H9" t="str">
-        <f>'1_repeats'!F169</f>
-        <v>sense</v>
-      </c>
-      <c r="I9" t="str">
-        <f>'1_repeats'!E169</f>
-        <v>sgB</v>
-      </c>
-      <c r="J9" t="str">
-        <f t="shared" si="0"/>
-        <v>KO_sgB_R2_sense_nodsb</v>
-      </c>
-      <c r="K9" t="str">
-        <f>'1_repeats'!J169</f>
-        <v>yjl281_KO_sgB_R2_sense_nodsb</v>
-      </c>
-      <c r="L9">
-        <f>'1_repeats'!L169</f>
-        <v>7424148</v>
-      </c>
-      <c r="M9" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", Table4[[#This Row],[input]], ".tsv ", " --total_reads ", Table4[[#This Row],[total_reads]], " -o ", dirs!$A$3, "/", Table4[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
-        <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl281_KO_sgB_R2_sense_nodsb.tsv  --total_reads 7424148 -o libraries_3/KO_sgB_R2_sense_nodsb.tsv --quiet </v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" t="str">
-        <f>'1_repeats'!K170</f>
-        <v>1DSB_R1_branch.fa</v>
-      </c>
-      <c r="C10" t="str">
-        <f>'1_repeats'!C170</f>
-        <v>nodsb</v>
-      </c>
-      <c r="D10" t="str">
-        <f>'1_repeats'!D170</f>
-        <v>1DSB</v>
-      </c>
-      <c r="E10">
-        <f>'1_repeats'!H170</f>
-        <v>67</v>
-      </c>
-      <c r="F10" t="str">
-        <f>'1_repeats'!B170</f>
-        <v>KO</v>
-      </c>
-      <c r="G10" t="str">
-        <f>'1_repeats'!G170</f>
-        <v>R1</v>
-      </c>
-      <c r="H10" t="str">
-        <f>'1_repeats'!F170</f>
-        <v>branch</v>
-      </c>
-      <c r="I10" t="str">
-        <f>'1_repeats'!E170</f>
-        <v>sgA</v>
-      </c>
-      <c r="J10" t="str">
-        <f t="shared" si="0"/>
-        <v>KO_sgA_R1_branch_nodsb</v>
-      </c>
-      <c r="K10" t="str">
-        <f>'1_repeats'!J170</f>
-        <v>yjl282_KO_sgA_R1_branch_nodsb</v>
-      </c>
-      <c r="L10">
-        <f>'1_repeats'!L170</f>
-        <v>10190833</v>
-      </c>
-      <c r="M10" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", Table4[[#This Row],[input]], ".tsv ", " --total_reads ", Table4[[#This Row],[total_reads]], " -o ", dirs!$A$3, "/", Table4[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
-        <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl282_KO_sgA_R1_branch_nodsb.tsv  --total_reads 10190833 -o libraries_3/KO_sgA_R1_branch_nodsb.tsv --quiet </v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" t="str">
-        <f>'1_repeats'!K171</f>
-        <v>1DSB_R2_branch.fa</v>
-      </c>
-      <c r="C11" t="str">
-        <f>'1_repeats'!C171</f>
-        <v>nodsb</v>
-      </c>
-      <c r="D11" t="str">
-        <f>'1_repeats'!D171</f>
-        <v>1DSB</v>
-      </c>
-      <c r="E11">
-        <f>'1_repeats'!H171</f>
-        <v>46</v>
-      </c>
-      <c r="F11" t="str">
-        <f>'1_repeats'!B171</f>
-        <v>KO</v>
-      </c>
-      <c r="G11" t="str">
-        <f>'1_repeats'!G171</f>
-        <v>R2</v>
-      </c>
-      <c r="H11" t="str">
-        <f>'1_repeats'!F171</f>
-        <v>branch</v>
-      </c>
-      <c r="I11" t="str">
-        <f>'1_repeats'!E171</f>
-        <v>sgB</v>
-      </c>
-      <c r="J11" t="str">
-        <f t="shared" si="0"/>
-        <v>KO_sgB_R2_branch_nodsb</v>
-      </c>
-      <c r="K11" t="str">
-        <f>'1_repeats'!J171</f>
-        <v>yjl282_KO_sgB_R2_branch_nodsb</v>
-      </c>
-      <c r="L11">
-        <f>'1_repeats'!L171</f>
-        <v>10190833</v>
-      </c>
-      <c r="M11" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", Table4[[#This Row],[input]], ".tsv ", " --total_reads ", Table4[[#This Row],[total_reads]], " -o ", dirs!$A$3, "/", Table4[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
-        <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl282_KO_sgB_R2_branch_nodsb.tsv  --total_reads 10190833 -o libraries_3/KO_sgB_R2_branch_nodsb.tsv --quiet </v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" t="str">
-        <f>'1_repeats'!K172</f>
-        <v>1DSB_R1_cmv.fa</v>
-      </c>
-      <c r="C12" t="str">
-        <f>'1_repeats'!C172</f>
-        <v>nodsb</v>
-      </c>
-      <c r="D12" t="str">
-        <f>'1_repeats'!D172</f>
-        <v>1DSB</v>
-      </c>
-      <c r="E12">
-        <f>'1_repeats'!H172</f>
-        <v>67</v>
-      </c>
-      <c r="F12" t="str">
-        <f>'1_repeats'!B172</f>
-        <v>KO</v>
-      </c>
-      <c r="G12" t="str">
-        <f>'1_repeats'!G172</f>
-        <v>R1</v>
-      </c>
-      <c r="H12" t="str">
-        <f>'1_repeats'!F172</f>
-        <v>cmv</v>
-      </c>
-      <c r="I12" t="str">
-        <f>'1_repeats'!E172</f>
-        <v>sgA</v>
-      </c>
-      <c r="J12" t="str">
-        <f t="shared" si="0"/>
-        <v>KO_sgA_R1_cmv_nodsb</v>
-      </c>
-      <c r="K12" t="str">
-        <f>'1_repeats'!J172</f>
-        <v>yjl283_KO_sgA_R1_cmv_nodsb</v>
-      </c>
-      <c r="L12">
-        <f>'1_repeats'!L172</f>
-        <v>7763439</v>
-      </c>
-      <c r="M12" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", Table4[[#This Row],[input]], ".tsv ", " --total_reads ", Table4[[#This Row],[total_reads]], " -o ", dirs!$A$3, "/", Table4[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
-        <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl283_KO_sgA_R1_cmv_nodsb.tsv  --total_reads 7763439 -o libraries_3/KO_sgA_R1_cmv_nodsb.tsv --quiet </v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" t="str">
-        <f>'1_repeats'!K173</f>
-        <v>1DSB_R2_cmv.fa</v>
-      </c>
-      <c r="C13" t="str">
-        <f>'1_repeats'!C173</f>
-        <v>nodsb</v>
-      </c>
-      <c r="D13" t="str">
-        <f>'1_repeats'!D173</f>
-        <v>1DSB</v>
-      </c>
-      <c r="E13">
-        <f>'1_repeats'!H173</f>
-        <v>46</v>
-      </c>
-      <c r="F13" t="str">
-        <f>'1_repeats'!B173</f>
-        <v>KO</v>
-      </c>
-      <c r="G13" t="str">
-        <f>'1_repeats'!G173</f>
-        <v>R2</v>
-      </c>
-      <c r="H13" t="str">
-        <f>'1_repeats'!F173</f>
-        <v>cmv</v>
-      </c>
-      <c r="I13" t="str">
-        <f>'1_repeats'!E173</f>
-        <v>sgB</v>
-      </c>
-      <c r="J13" t="str">
-        <f t="shared" si="0"/>
-        <v>KO_sgB_R2_cmv_nodsb</v>
-      </c>
-      <c r="K13" t="str">
-        <f>'1_repeats'!J173</f>
-        <v>yjl283_KO_sgB_R2_cmv_nodsb</v>
-      </c>
-      <c r="L13">
-        <f>'1_repeats'!L173</f>
-        <v>7763439</v>
-      </c>
-      <c r="M13" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", Table4[[#This Row],[input]], ".tsv ", " --total_reads ", Table4[[#This Row],[total_reads]], " -o ", dirs!$A$3, "/", Table4[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
-        <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl283_KO_sgB_R2_cmv_nodsb.tsv  --total_reads 7763439 -o libraries_3/KO_sgB_R2_cmv_nodsb.tsv --quiet </v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7FB6E33-93C4-4971-BF44-23A0F65AADA0}">
-  <dimension ref="A1:N41"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="D25" workbookViewId="0">
+      <selection activeCell="M45" sqref="M45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15192,12 +15590,13 @@
     <col min="2" max="3" width="31.28515625" customWidth="1"/>
     <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="11.28515625" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" customWidth="1"/>
+    <col min="7" max="7" width="21" customWidth="1"/>
+    <col min="8" max="9" width="9.28515625" customWidth="1"/>
     <col min="10" max="10" width="12.140625" customWidth="1"/>
     <col min="11" max="11" width="12.85546875" customWidth="1"/>
     <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="51" customWidth="1"/>
-    <col min="14" max="14" width="13.28515625" customWidth="1"/>
+    <col min="14" max="14" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -15292,12 +15691,12 @@
         <v>110</v>
       </c>
       <c r="M2" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]])</f>
-        <v>python 2_graph_processing/make_main_data.py -in libraries_3/WT_sgAB_R1_sense.tsv -o libraries_4/WT_sgAB_R1_sense -ref ref_seq/2DSB_R1_sense.fa -dsb 67 --dsb_type 2 --strand R1 --hguide AB --cell WT --treatment sense --subst_type without</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
+        <v>python 2_graph_processing/make_main_data.py -i libraries_3/WT_sgAB_R1_sense.tsv -o libraries_4/WT_sgAB_R1_sense -ref ref_seq/2DSB_R1_sense.fa -dsb 67 --dsb_type 2 --strand R1 --hguide AB --cell WT --treatment sense --subst_type without --control none</v>
       </c>
       <c r="N2" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without ",  " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/WT_sgAB_R1_sense</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgAB_R1_sense</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -15348,12 +15747,12 @@
         <v>110</v>
       </c>
       <c r="M3" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]])</f>
-        <v>python 2_graph_processing/make_main_data.py -in libraries_3/WT_sgAB_R1_branch.tsv -o libraries_4/WT_sgAB_R1_branch -ref ref_seq/2DSB_R1_branch.fa -dsb 67 --dsb_type 2 --strand R1 --hguide AB --cell WT --treatment branch --subst_type without</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
+        <v>python 2_graph_processing/make_main_data.py -i libraries_3/WT_sgAB_R1_branch.tsv -o libraries_4/WT_sgAB_R1_branch -ref ref_seq/2DSB_R1_branch.fa -dsb 67 --dsb_type 2 --strand R1 --hguide AB --cell WT --treatment branch --subst_type without --control none</v>
       </c>
       <c r="N3" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without ",  " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/WT_sgAB_R1_branch</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgAB_R1_branch</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -15404,12 +15803,12 @@
         <v>110</v>
       </c>
       <c r="M4" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]])</f>
-        <v>python 2_graph_processing/make_main_data.py -in libraries_3/WT_sgAB_R1_cmv.tsv -o libraries_4/WT_sgAB_R1_cmv -ref ref_seq/2DSB_R1_cmv.fa -dsb 67 --dsb_type 2 --strand R1 --hguide AB --cell WT --treatment cmv --subst_type without</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
+        <v>python 2_graph_processing/make_main_data.py -i libraries_3/WT_sgAB_R1_cmv.tsv -o libraries_4/WT_sgAB_R1_cmv -ref ref_seq/2DSB_R1_cmv.fa -dsb 67 --dsb_type 2 --strand R1 --hguide AB --cell WT --treatment cmv --subst_type without --control none</v>
       </c>
       <c r="N4" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without ",  " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/WT_sgAB_R1_cmv</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgAB_R1_cmv</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -15460,12 +15859,12 @@
         <v>110</v>
       </c>
       <c r="M5" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]])</f>
-        <v>python 2_graph_processing/make_main_data.py -in libraries_3/KO_sgAB_R1_sense.tsv -o libraries_4/KO_sgAB_R1_sense -ref ref_seq/2DSB_R1_sense.fa -dsb 67 --dsb_type 2 --strand R1 --hguide AB --cell KO --treatment sense --subst_type without</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
+        <v>python 2_graph_processing/make_main_data.py -i libraries_3/KO_sgAB_R1_sense.tsv -o libraries_4/KO_sgAB_R1_sense -ref ref_seq/2DSB_R1_sense.fa -dsb 67 --dsb_type 2 --strand R1 --hguide AB --cell KO --treatment sense --subst_type without --control none</v>
       </c>
       <c r="N5" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without ",  " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/KO_sgAB_R1_sense</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgAB_R1_sense</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -15516,12 +15915,12 @@
         <v>110</v>
       </c>
       <c r="M6" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]])</f>
-        <v>python 2_graph_processing/make_main_data.py -in libraries_3/KO_sgAB_R1_branch.tsv -o libraries_4/KO_sgAB_R1_branch -ref ref_seq/2DSB_R1_branch.fa -dsb 67 --dsb_type 2 --strand R1 --hguide AB --cell KO --treatment branch --subst_type without</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
+        <v>python 2_graph_processing/make_main_data.py -i libraries_3/KO_sgAB_R1_branch.tsv -o libraries_4/KO_sgAB_R1_branch -ref ref_seq/2DSB_R1_branch.fa -dsb 67 --dsb_type 2 --strand R1 --hguide AB --cell KO --treatment branch --subst_type without --control none</v>
       </c>
       <c r="N6" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without ",  " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/KO_sgAB_R1_branch</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgAB_R1_branch</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -15572,12 +15971,12 @@
         <v>110</v>
       </c>
       <c r="M7" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]])</f>
-        <v>python 2_graph_processing/make_main_data.py -in libraries_3/KO_sgAB_R1_cmv.tsv -o libraries_4/KO_sgAB_R1_cmv -ref ref_seq/2DSB_R1_cmv.fa -dsb 67 --dsb_type 2 --strand R1 --hguide AB --cell KO --treatment cmv --subst_type without</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
+        <v>python 2_graph_processing/make_main_data.py -i libraries_3/KO_sgAB_R1_cmv.tsv -o libraries_4/KO_sgAB_R1_cmv -ref ref_seq/2DSB_R1_cmv.fa -dsb 67 --dsb_type 2 --strand R1 --hguide AB --cell KO --treatment cmv --subst_type without --control none</v>
       </c>
       <c r="N7" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without ",  " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/KO_sgAB_R1_cmv</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgAB_R1_cmv</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -15628,12 +16027,12 @@
         <v>110</v>
       </c>
       <c r="M8" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]])</f>
-        <v>python 2_graph_processing/make_main_data.py -in libraries_3/WT_sgAB_R2_sense.tsv -o libraries_4/WT_sgAB_R2_sense -ref ref_seq/2DSB_R2_sense.fa -dsb 46 --dsb_type 2 --strand R2 --hguide AB --cell WT --treatment sense --subst_type without</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
+        <v>python 2_graph_processing/make_main_data.py -i libraries_3/WT_sgAB_R2_sense.tsv -o libraries_4/WT_sgAB_R2_sense -ref ref_seq/2DSB_R2_sense.fa -dsb 46 --dsb_type 2 --strand R2 --hguide AB --cell WT --treatment sense --subst_type without --control none</v>
       </c>
       <c r="N8" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without ",  " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/WT_sgAB_R2_sense</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgAB_R2_sense</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -15684,12 +16083,12 @@
         <v>110</v>
       </c>
       <c r="M9" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]])</f>
-        <v>python 2_graph_processing/make_main_data.py -in libraries_3/WT_sgAB_R2_branch.tsv -o libraries_4/WT_sgAB_R2_branch -ref ref_seq/2DSB_R2_branch.fa -dsb 46 --dsb_type 2 --strand R2 --hguide AB --cell WT --treatment branch --subst_type without</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
+        <v>python 2_graph_processing/make_main_data.py -i libraries_3/WT_sgAB_R2_branch.tsv -o libraries_4/WT_sgAB_R2_branch -ref ref_seq/2DSB_R2_branch.fa -dsb 46 --dsb_type 2 --strand R2 --hguide AB --cell WT --treatment branch --subst_type without --control none</v>
       </c>
       <c r="N9" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without ",  " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/WT_sgAB_R2_branch</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgAB_R2_branch</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -15740,12 +16139,12 @@
         <v>110</v>
       </c>
       <c r="M10" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]])</f>
-        <v>python 2_graph_processing/make_main_data.py -in libraries_3/WT_sgAB_R2_cmv.tsv -o libraries_4/WT_sgAB_R2_cmv -ref ref_seq/2DSB_R2_cmv.fa -dsb 46 --dsb_type 2 --strand R2 --hguide AB --cell WT --treatment cmv --subst_type without</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
+        <v>python 2_graph_processing/make_main_data.py -i libraries_3/WT_sgAB_R2_cmv.tsv -o libraries_4/WT_sgAB_R2_cmv -ref ref_seq/2DSB_R2_cmv.fa -dsb 46 --dsb_type 2 --strand R2 --hguide AB --cell WT --treatment cmv --subst_type without --control none</v>
       </c>
       <c r="N10" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without ",  " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/WT_sgAB_R2_cmv</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgAB_R2_cmv</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -15796,12 +16195,12 @@
         <v>110</v>
       </c>
       <c r="M11" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]])</f>
-        <v>python 2_graph_processing/make_main_data.py -in libraries_3/KO_sgAB_R2_sense.tsv -o libraries_4/KO_sgAB_R2_sense -ref ref_seq/2DSB_R2_sense.fa -dsb 46 --dsb_type 2 --strand R2 --hguide AB --cell KO --treatment sense --subst_type without</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
+        <v>python 2_graph_processing/make_main_data.py -i libraries_3/KO_sgAB_R2_sense.tsv -o libraries_4/KO_sgAB_R2_sense -ref ref_seq/2DSB_R2_sense.fa -dsb 46 --dsb_type 2 --strand R2 --hguide AB --cell KO --treatment sense --subst_type without --control none</v>
       </c>
       <c r="N11" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without ",  " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/KO_sgAB_R2_sense</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgAB_R2_sense</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -15852,12 +16251,12 @@
         <v>110</v>
       </c>
       <c r="M12" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]])</f>
-        <v>python 2_graph_processing/make_main_data.py -in libraries_3/KO_sgAB_R2_branch.tsv -o libraries_4/KO_sgAB_R2_branch -ref ref_seq/2DSB_R2_branch.fa -dsb 46 --dsb_type 2 --strand R2 --hguide AB --cell KO --treatment branch --subst_type without</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
+        <v>python 2_graph_processing/make_main_data.py -i libraries_3/KO_sgAB_R2_branch.tsv -o libraries_4/KO_sgAB_R2_branch -ref ref_seq/2DSB_R2_branch.fa -dsb 46 --dsb_type 2 --strand R2 --hguide AB --cell KO --treatment branch --subst_type without --control none</v>
       </c>
       <c r="N12" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without ",  " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/KO_sgAB_R2_branch</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgAB_R2_branch</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -15908,12 +16307,12 @@
         <v>110</v>
       </c>
       <c r="M13" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]])</f>
-        <v>python 2_graph_processing/make_main_data.py -in libraries_3/KO_sgAB_R2_cmv.tsv -o libraries_4/KO_sgAB_R2_cmv -ref ref_seq/2DSB_R2_cmv.fa -dsb 46 --dsb_type 2 --strand R2 --hguide AB --cell KO --treatment cmv --subst_type without</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
+        <v>python 2_graph_processing/make_main_data.py -i libraries_3/KO_sgAB_R2_cmv.tsv -o libraries_4/KO_sgAB_R2_cmv -ref ref_seq/2DSB_R2_cmv.fa -dsb 46 --dsb_type 2 --strand R2 --hguide AB --cell KO --treatment cmv --subst_type without --control none</v>
       </c>
       <c r="N13" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without ",  " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/KO_sgAB_R2_cmv</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgAB_R2_cmv</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -15964,12 +16363,12 @@
         <v>110</v>
       </c>
       <c r="M14" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]])</f>
-        <v>python 2_graph_processing/make_main_data.py -in libraries_3/WT_sgA_R1_sense.tsv -o libraries_4/WT_sgA_R1_sense -ref ref_seq/1DSB_R1_sense.fa -dsb 67 --dsb_type 1 --strand R1 --hguide A --cell WT --treatment sense --subst_type without</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
+        <v>python 2_graph_processing/make_main_data.py -i libraries_3/WT_sgA_R1_sense.tsv -o libraries_4/WT_sgA_R1_sense -ref ref_seq/1DSB_R1_sense.fa -dsb 67 --dsb_type 1 --strand R1 --hguide A --cell WT --treatment sense --subst_type without --control none</v>
       </c>
       <c r="N14" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without ",  " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/WT_sgA_R1_sense</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgA_R1_sense</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -16020,12 +16419,12 @@
         <v>110</v>
       </c>
       <c r="M15" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]])</f>
-        <v>python 2_graph_processing/make_main_data.py -in libraries_3/WT_sgA_R1_branch.tsv -o libraries_4/WT_sgA_R1_branch -ref ref_seq/1DSB_R1_branch.fa -dsb 67 --dsb_type 1 --strand R1 --hguide A --cell WT --treatment branch --subst_type without</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
+        <v>python 2_graph_processing/make_main_data.py -i libraries_3/WT_sgA_R1_branch.tsv -o libraries_4/WT_sgA_R1_branch -ref ref_seq/1DSB_R1_branch.fa -dsb 67 --dsb_type 1 --strand R1 --hguide A --cell WT --treatment branch --subst_type without --control none</v>
       </c>
       <c r="N15" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without ",  " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/WT_sgA_R1_branch</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgA_R1_branch</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -16076,12 +16475,12 @@
         <v>110</v>
       </c>
       <c r="M16" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]])</f>
-        <v>python 2_graph_processing/make_main_data.py -in libraries_3/WT_sgA_R1_cmv.tsv -o libraries_4/WT_sgA_R1_cmv -ref ref_seq/1DSB_R1_cmv.fa -dsb 67 --dsb_type 1 --strand R1 --hguide A --cell WT --treatment cmv --subst_type without</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
+        <v>python 2_graph_processing/make_main_data.py -i libraries_3/WT_sgA_R1_cmv.tsv -o libraries_4/WT_sgA_R1_cmv -ref ref_seq/1DSB_R1_cmv.fa -dsb 67 --dsb_type 1 --strand R1 --hguide A --cell WT --treatment cmv --subst_type without --control none</v>
       </c>
       <c r="N16" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without ",  " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/WT_sgA_R1_cmv</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgA_R1_cmv</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -16132,12 +16531,12 @@
         <v>110</v>
       </c>
       <c r="M17" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]])</f>
-        <v>python 2_graph_processing/make_main_data.py -in libraries_3/WT_sgB_R2_sense.tsv -o libraries_4/WT_sgB_R2_sense -ref ref_seq/1DSB_R2_sense.fa -dsb 46 --dsb_type 1 --strand R2 --hguide B --cell WT --treatment sense --subst_type without</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
+        <v>python 2_graph_processing/make_main_data.py -i libraries_3/WT_sgB_R2_sense.tsv -o libraries_4/WT_sgB_R2_sense -ref ref_seq/1DSB_R2_sense.fa -dsb 46 --dsb_type 1 --strand R2 --hguide B --cell WT --treatment sense --subst_type without --control none</v>
       </c>
       <c r="N17" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without ",  " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/WT_sgB_R2_sense</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgB_R2_sense</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -16188,12 +16587,12 @@
         <v>110</v>
       </c>
       <c r="M18" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]])</f>
-        <v>python 2_graph_processing/make_main_data.py -in libraries_3/WT_sgB_R2_branch.tsv -o libraries_4/WT_sgB_R2_branch -ref ref_seq/1DSB_R2_branch.fa -dsb 46 --dsb_type 1 --strand R2 --hguide B --cell WT --treatment branch --subst_type without</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
+        <v>python 2_graph_processing/make_main_data.py -i libraries_3/WT_sgB_R2_branch.tsv -o libraries_4/WT_sgB_R2_branch -ref ref_seq/1DSB_R2_branch.fa -dsb 46 --dsb_type 1 --strand R2 --hguide B --cell WT --treatment branch --subst_type without --control none</v>
       </c>
       <c r="N18" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without ",  " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/WT_sgB_R2_branch</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgB_R2_branch</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -16244,12 +16643,12 @@
         <v>110</v>
       </c>
       <c r="M19" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]])</f>
-        <v>python 2_graph_processing/make_main_data.py -in libraries_3/WT_sgB_R2_cmv.tsv -o libraries_4/WT_sgB_R2_cmv -ref ref_seq/1DSB_R2_cmv.fa -dsb 46 --dsb_type 1 --strand R2 --hguide B --cell WT --treatment cmv --subst_type without</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
+        <v>python 2_graph_processing/make_main_data.py -i libraries_3/WT_sgB_R2_cmv.tsv -o libraries_4/WT_sgB_R2_cmv -ref ref_seq/1DSB_R2_cmv.fa -dsb 46 --dsb_type 1 --strand R2 --hguide B --cell WT --treatment cmv --subst_type without --control none</v>
       </c>
       <c r="N19" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without ",  " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/WT_sgB_R2_cmv</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgB_R2_cmv</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -16300,12 +16699,12 @@
         <v>110</v>
       </c>
       <c r="M20" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]])</f>
-        <v>python 2_graph_processing/make_main_data.py -in libraries_3/KO_sgA_R1_sense.tsv -o libraries_4/KO_sgA_R1_sense -ref ref_seq/1DSB_R1_sense.fa -dsb 67 --dsb_type 1 --strand R1 --hguide A --cell KO --treatment sense --subst_type without</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
+        <v>python 2_graph_processing/make_main_data.py -i libraries_3/KO_sgA_R1_sense.tsv -o libraries_4/KO_sgA_R1_sense -ref ref_seq/1DSB_R1_sense.fa -dsb 67 --dsb_type 1 --strand R1 --hguide A --cell KO --treatment sense --subst_type without --control none</v>
       </c>
       <c r="N20" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without ",  " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/KO_sgA_R1_sense</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgA_R1_sense</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -16356,12 +16755,12 @@
         <v>110</v>
       </c>
       <c r="M21" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]])</f>
-        <v>python 2_graph_processing/make_main_data.py -in libraries_3/KO_sgA_R1_branch.tsv -o libraries_4/KO_sgA_R1_branch -ref ref_seq/1DSB_R1_branch.fa -dsb 67 --dsb_type 1 --strand R1 --hguide A --cell KO --treatment branch --subst_type without</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
+        <v>python 2_graph_processing/make_main_data.py -i libraries_3/KO_sgA_R1_branch.tsv -o libraries_4/KO_sgA_R1_branch -ref ref_seq/1DSB_R1_branch.fa -dsb 67 --dsb_type 1 --strand R1 --hguide A --cell KO --treatment branch --subst_type without --control none</v>
       </c>
       <c r="N21" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without ",  " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/KO_sgA_R1_branch</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgA_R1_branch</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -16412,12 +16811,12 @@
         <v>110</v>
       </c>
       <c r="M22" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]])</f>
-        <v>python 2_graph_processing/make_main_data.py -in libraries_3/KO_sgA_R1_cmv.tsv -o libraries_4/KO_sgA_R1_cmv -ref ref_seq/1DSB_R1_cmv.fa -dsb 67 --dsb_type 1 --strand R1 --hguide A --cell KO --treatment cmv --subst_type without</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
+        <v>python 2_graph_processing/make_main_data.py -i libraries_3/KO_sgA_R1_cmv.tsv -o libraries_4/KO_sgA_R1_cmv -ref ref_seq/1DSB_R1_cmv.fa -dsb 67 --dsb_type 1 --strand R1 --hguide A --cell KO --treatment cmv --subst_type without --control none</v>
       </c>
       <c r="N22" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without ",  " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/KO_sgA_R1_cmv</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgA_R1_cmv</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -16468,12 +16867,12 @@
         <v>110</v>
       </c>
       <c r="M23" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]])</f>
-        <v>python 2_graph_processing/make_main_data.py -in libraries_3/KO_sgB_R2_sense.tsv -o libraries_4/KO_sgB_R2_sense -ref ref_seq/1DSB_R2_sense.fa -dsb 46 --dsb_type 1 --strand R2 --hguide B --cell KO --treatment sense --subst_type without</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
+        <v>python 2_graph_processing/make_main_data.py -i libraries_3/KO_sgB_R2_sense.tsv -o libraries_4/KO_sgB_R2_sense -ref ref_seq/1DSB_R2_sense.fa -dsb 46 --dsb_type 1 --strand R2 --hguide B --cell KO --treatment sense --subst_type without --control none</v>
       </c>
       <c r="N23" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without ",  " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/KO_sgB_R2_sense</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgB_R2_sense</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -16524,12 +16923,12 @@
         <v>110</v>
       </c>
       <c r="M24" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]])</f>
-        <v>python 2_graph_processing/make_main_data.py -in libraries_3/KO_sgB_R2_branch.tsv -o libraries_4/KO_sgB_R2_branch -ref ref_seq/1DSB_R2_branch.fa -dsb 46 --dsb_type 1 --strand R2 --hguide B --cell KO --treatment branch --subst_type without</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
+        <v>python 2_graph_processing/make_main_data.py -i libraries_3/KO_sgB_R2_branch.tsv -o libraries_4/KO_sgB_R2_branch -ref ref_seq/1DSB_R2_branch.fa -dsb 46 --dsb_type 1 --strand R2 --hguide B --cell KO --treatment branch --subst_type without --control none</v>
       </c>
       <c r="N24" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without ",  " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/KO_sgB_R2_branch</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgB_R2_branch</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -16580,12 +16979,12 @@
         <v>110</v>
       </c>
       <c r="M25" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]])</f>
-        <v>python 2_graph_processing/make_main_data.py -in libraries_3/KO_sgB_R2_cmv.tsv -o libraries_4/KO_sgB_R2_cmv -ref ref_seq/1DSB_R2_cmv.fa -dsb 46 --dsb_type 1 --strand R2 --hguide B --cell KO --treatment cmv --subst_type without</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
+        <v>python 2_graph_processing/make_main_data.py -i libraries_3/KO_sgB_R2_cmv.tsv -o libraries_4/KO_sgB_R2_cmv -ref ref_seq/1DSB_R2_cmv.fa -dsb 46 --dsb_type 1 --strand R2 --hguide B --cell KO --treatment cmv --subst_type without --control none</v>
       </c>
       <c r="N25" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without ",  " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/KO_sgB_R2_cmv</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgB_R2_cmv</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -16636,12 +17035,12 @@
         <v>110</v>
       </c>
       <c r="M26" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]])</f>
-        <v>python 2_graph_processing/make_main_data.py -in libraries_3/WT_sgCD_R1_antisense.tsv -o libraries_4/WT_sgCD_R1_antisense -ref ref_seq/2DSBanti_R1_antisense.fa -dsb 50 --dsb_type 2a --strand R1 --hguide CD --cell WT --treatment antisense --subst_type without</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
+        <v>python 2_graph_processing/make_main_data.py -i libraries_3/WT_sgCD_R1_antisense.tsv -o libraries_4/WT_sgCD_R1_antisense -ref ref_seq/2DSBanti_R1_antisense.fa -dsb 50 --dsb_type 2a --strand R1 --hguide CD --cell WT --treatment antisense --subst_type without --control none</v>
       </c>
       <c r="N26" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without ",  " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/WT_sgCD_R1_antisense</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgCD_R1_antisense</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -16692,12 +17091,12 @@
         <v>110</v>
       </c>
       <c r="M27" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]])</f>
-        <v>python 2_graph_processing/make_main_data.py -in libraries_3/WT_sgCD_R1_splicing.tsv -o libraries_4/WT_sgCD_R1_splicing -ref ref_seq/2DSBanti_R1_splicing.fa -dsb 50 --dsb_type 2a --strand R1 --hguide CD --cell WT --treatment splicing --subst_type without</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
+        <v>python 2_graph_processing/make_main_data.py -i libraries_3/WT_sgCD_R1_splicing.tsv -o libraries_4/WT_sgCD_R1_splicing -ref ref_seq/2DSBanti_R1_splicing.fa -dsb 50 --dsb_type 2a --strand R1 --hguide CD --cell WT --treatment splicing --subst_type without --control none</v>
       </c>
       <c r="N27" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without ",  " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/WT_sgCD_R1_splicing</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgCD_R1_splicing</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -16748,12 +17147,12 @@
         <v>110</v>
       </c>
       <c r="M28" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]])</f>
-        <v>python 2_graph_processing/make_main_data.py -in libraries_3/WT_sgCD_R2_antisense.tsv -o libraries_4/WT_sgCD_R2_antisense -ref ref_seq/2DSBanti_R2_antisense.fa -dsb 47 --dsb_type 2a --strand R2 --hguide CD --cell WT --treatment antisense --subst_type without</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
+        <v>python 2_graph_processing/make_main_data.py -i libraries_3/WT_sgCD_R2_antisense.tsv -o libraries_4/WT_sgCD_R2_antisense -ref ref_seq/2DSBanti_R2_antisense.fa -dsb 47 --dsb_type 2a --strand R2 --hguide CD --cell WT --treatment antisense --subst_type without --control none</v>
       </c>
       <c r="N28" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without ",  " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/WT_sgCD_R2_antisense</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgCD_R2_antisense</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -16804,12 +17203,12 @@
         <v>110</v>
       </c>
       <c r="M29" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]])</f>
-        <v>python 2_graph_processing/make_main_data.py -in libraries_3/WT_sgCD_R2_splicing.tsv -o libraries_4/WT_sgCD_R2_splicing -ref ref_seq/2DSBanti_R2_splicing.fa -dsb 47 --dsb_type 2a --strand R2 --hguide CD --cell WT --treatment splicing --subst_type without</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
+        <v>python 2_graph_processing/make_main_data.py -i libraries_3/WT_sgCD_R2_splicing.tsv -o libraries_4/WT_sgCD_R2_splicing -ref ref_seq/2DSBanti_R2_splicing.fa -dsb 47 --dsb_type 2a --strand R2 --hguide CD --cell WT --treatment splicing --subst_type without --control none</v>
       </c>
       <c r="N29" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without ",  " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/WT_sgCD_R2_splicing</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgCD_R2_splicing</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -16860,12 +17259,12 @@
         <v>110</v>
       </c>
       <c r="M30" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]])</f>
-        <v>python 2_graph_processing/make_main_data.py -in libraries_3/WT_sgA_R1_sense_30bpDown.tsv -o libraries_4/WT_sgA_R1_sense_30bpDown -ref ref_seq/1DSB_R1_sense.fa -dsb 97 --dsb_type 1 --strand R1 --hguide A --cell WT --treatment sense --subst_type without</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
+        <v>python 2_graph_processing/make_main_data.py -i libraries_3/WT_sgA_R1_sense_30bpDown.tsv -o libraries_4/WT_sgA_R1_sense_30bpDown -ref ref_seq/1DSB_R1_sense.fa -dsb 97 --dsb_type 1 --strand R1 --hguide A --cell WT --treatment sense --subst_type without --control 30bpDown</v>
       </c>
       <c r="N30" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without ",  " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/WT_sgA_R1_sense_30bpDown</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgA_R1_sense_30bpDown</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -16916,12 +17315,12 @@
         <v>110</v>
       </c>
       <c r="M31" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]])</f>
-        <v>python 2_graph_processing/make_main_data.py -in libraries_3/WT_sgA_R1_branch_30bpDown.tsv -o libraries_4/WT_sgA_R1_branch_30bpDown -ref ref_seq/1DSB_R1_branch.fa -dsb 97 --dsb_type 1 --strand R1 --hguide A --cell WT --treatment branch --subst_type without</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
+        <v>python 2_graph_processing/make_main_data.py -i libraries_3/WT_sgA_R1_branch_30bpDown.tsv -o libraries_4/WT_sgA_R1_branch_30bpDown -ref ref_seq/1DSB_R1_branch.fa -dsb 97 --dsb_type 1 --strand R1 --hguide A --cell WT --treatment branch --subst_type without --control 30bpDown</v>
       </c>
       <c r="N31" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without ",  " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/WT_sgA_R1_branch_30bpDown</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgA_R1_branch_30bpDown</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -16972,12 +17371,12 @@
         <v>110</v>
       </c>
       <c r="M32" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]])</f>
-        <v>python 2_graph_processing/make_main_data.py -in libraries_3/WT_sgA_R1_cmv_30bpDown.tsv -o libraries_4/WT_sgA_R1_cmv_30bpDown -ref ref_seq/1DSB_R1_cmv.fa -dsb 97 --dsb_type 1 --strand R1 --hguide A --cell WT --treatment cmv --subst_type without</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
+        <v>python 2_graph_processing/make_main_data.py -i libraries_3/WT_sgA_R1_cmv_30bpDown.tsv -o libraries_4/WT_sgA_R1_cmv_30bpDown -ref ref_seq/1DSB_R1_cmv.fa -dsb 97 --dsb_type 1 --strand R1 --hguide A --cell WT --treatment cmv --subst_type without --control 30bpDown</v>
       </c>
       <c r="N32" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without ",  " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/WT_sgA_R1_cmv_30bpDown</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgA_R1_cmv_30bpDown</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
@@ -17028,12 +17427,12 @@
         <v>110</v>
       </c>
       <c r="M33" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]])</f>
-        <v>python 2_graph_processing/make_main_data.py -in libraries_3/WT_sgB_R2_sense_30bpDown.tsv -o libraries_4/WT_sgB_R2_sense_30bpDown -ref ref_seq/1DSB_R2_sense.fa -dsb 76 --dsb_type 1 --strand R2 --hguide B --cell WT --treatment sense --subst_type without</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
+        <v>python 2_graph_processing/make_main_data.py -i libraries_3/WT_sgB_R2_sense_30bpDown.tsv -o libraries_4/WT_sgB_R2_sense_30bpDown -ref ref_seq/1DSB_R2_sense.fa -dsb 76 --dsb_type 1 --strand R2 --hguide B --cell WT --treatment sense --subst_type without --control 30bpDown</v>
       </c>
       <c r="N33" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without ",  " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/WT_sgB_R2_sense_30bpDown</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgB_R2_sense_30bpDown</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
@@ -17084,12 +17483,12 @@
         <v>110</v>
       </c>
       <c r="M34" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]])</f>
-        <v>python 2_graph_processing/make_main_data.py -in libraries_3/WT_sgB_R2_branch_30bpDown.tsv -o libraries_4/WT_sgB_R2_branch_30bpDown -ref ref_seq/1DSB_R2_branch.fa -dsb 76 --dsb_type 1 --strand R2 --hguide B --cell WT --treatment branch --subst_type without</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
+        <v>python 2_graph_processing/make_main_data.py -i libraries_3/WT_sgB_R2_branch_30bpDown.tsv -o libraries_4/WT_sgB_R2_branch_30bpDown -ref ref_seq/1DSB_R2_branch.fa -dsb 76 --dsb_type 1 --strand R2 --hguide B --cell WT --treatment branch --subst_type without --control 30bpDown</v>
       </c>
       <c r="N34" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without ",  " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/WT_sgB_R2_branch_30bpDown</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgB_R2_branch_30bpDown</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
@@ -17140,12 +17539,12 @@
         <v>110</v>
       </c>
       <c r="M35" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]])</f>
-        <v>python 2_graph_processing/make_main_data.py -in libraries_3/WT_sgB_R2_cmv_30bpDown.tsv -o libraries_4/WT_sgB_R2_cmv_30bpDown -ref ref_seq/1DSB_R2_cmv.fa -dsb 76 --dsb_type 1 --strand R2 --hguide B --cell WT --treatment cmv --subst_type without</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
+        <v>python 2_graph_processing/make_main_data.py -i libraries_3/WT_sgB_R2_cmv_30bpDown.tsv -o libraries_4/WT_sgB_R2_cmv_30bpDown -ref ref_seq/1DSB_R2_cmv.fa -dsb 76 --dsb_type 1 --strand R2 --hguide B --cell WT --treatment cmv --subst_type without --control 30bpDown</v>
       </c>
       <c r="N35" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without ",  " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/WT_sgB_R2_cmv_30bpDown</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgB_R2_cmv_30bpDown</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
@@ -17196,12 +17595,12 @@
         <v>110</v>
       </c>
       <c r="M36" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]])</f>
-        <v>python 2_graph_processing/make_main_data.py -in libraries_3/KO_sgA_R1_sense_30bpDown.tsv -o libraries_4/KO_sgA_R1_sense_30bpDown -ref ref_seq/1DSB_R1_sense.fa -dsb 97 --dsb_type 1 --strand R1 --hguide A --cell KO --treatment sense --subst_type without</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
+        <v>python 2_graph_processing/make_main_data.py -i libraries_3/KO_sgA_R1_sense_30bpDown.tsv -o libraries_4/KO_sgA_R1_sense_30bpDown -ref ref_seq/1DSB_R1_sense.fa -dsb 97 --dsb_type 1 --strand R1 --hguide A --cell KO --treatment sense --subst_type without --control 30bpDown</v>
       </c>
       <c r="N36" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without ",  " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/KO_sgA_R1_sense_30bpDown</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgA_R1_sense_30bpDown</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
@@ -17252,12 +17651,12 @@
         <v>110</v>
       </c>
       <c r="M37" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]])</f>
-        <v>python 2_graph_processing/make_main_data.py -in libraries_3/KO_sgA_R1_branch_30bpDown.tsv -o libraries_4/KO_sgA_R1_branch_30bpDown -ref ref_seq/1DSB_R1_branch.fa -dsb 97 --dsb_type 1 --strand R1 --hguide A --cell KO --treatment branch --subst_type without</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
+        <v>python 2_graph_processing/make_main_data.py -i libraries_3/KO_sgA_R1_branch_30bpDown.tsv -o libraries_4/KO_sgA_R1_branch_30bpDown -ref ref_seq/1DSB_R1_branch.fa -dsb 97 --dsb_type 1 --strand R1 --hguide A --cell KO --treatment branch --subst_type without --control 30bpDown</v>
       </c>
       <c r="N37" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without ",  " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/KO_sgA_R1_branch_30bpDown</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgA_R1_branch_30bpDown</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
@@ -17308,12 +17707,12 @@
         <v>110</v>
       </c>
       <c r="M38" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]])</f>
-        <v>python 2_graph_processing/make_main_data.py -in libraries_3/KO_sgA_R1_cmv_30bpDown.tsv -o libraries_4/KO_sgA_R1_cmv_30bpDown -ref ref_seq/1DSB_R1_cmv.fa -dsb 97 --dsb_type 1 --strand R1 --hguide A --cell KO --treatment cmv --subst_type without</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
+        <v>python 2_graph_processing/make_main_data.py -i libraries_3/KO_sgA_R1_cmv_30bpDown.tsv -o libraries_4/KO_sgA_R1_cmv_30bpDown -ref ref_seq/1DSB_R1_cmv.fa -dsb 97 --dsb_type 1 --strand R1 --hguide A --cell KO --treatment cmv --subst_type without --control 30bpDown</v>
       </c>
       <c r="N38" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without ",  " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/KO_sgA_R1_cmv_30bpDown</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgA_R1_cmv_30bpDown</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
@@ -17364,12 +17763,12 @@
         <v>110</v>
       </c>
       <c r="M39" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]])</f>
-        <v>python 2_graph_processing/make_main_data.py -in libraries_3/KO_sgB_R2_sense_30bpDown.tsv -o libraries_4/KO_sgB_R2_sense_30bpDown -ref ref_seq/1DSB_R2_sense.fa -dsb 76 --dsb_type 1 --strand R2 --hguide B --cell KO --treatment sense --subst_type without</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
+        <v>python 2_graph_processing/make_main_data.py -i libraries_3/KO_sgB_R2_sense_30bpDown.tsv -o libraries_4/KO_sgB_R2_sense_30bpDown -ref ref_seq/1DSB_R2_sense.fa -dsb 76 --dsb_type 1 --strand R2 --hguide B --cell KO --treatment sense --subst_type without --control 30bpDown</v>
       </c>
       <c r="N39" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without ",  " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/KO_sgB_R2_sense_30bpDown</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgB_R2_sense_30bpDown</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
@@ -17420,12 +17819,12 @@
         <v>110</v>
       </c>
       <c r="M40" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]])</f>
-        <v>python 2_graph_processing/make_main_data.py -in libraries_3/KO_sgB_R2_branch_30bpDown.tsv -o libraries_4/KO_sgB_R2_branch_30bpDown -ref ref_seq/1DSB_R2_branch.fa -dsb 76 --dsb_type 1 --strand R2 --hguide B --cell KO --treatment branch --subst_type without</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
+        <v>python 2_graph_processing/make_main_data.py -i libraries_3/KO_sgB_R2_branch_30bpDown.tsv -o libraries_4/KO_sgB_R2_branch_30bpDown -ref ref_seq/1DSB_R2_branch.fa -dsb 76 --dsb_type 1 --strand R2 --hguide B --cell KO --treatment branch --subst_type without --control 30bpDown</v>
       </c>
       <c r="N40" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without ",  " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/KO_sgB_R2_branch_30bpDown</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgB_R2_branch_30bpDown</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
@@ -17476,30 +17875,2035 @@
         <v>110</v>
       </c>
       <c r="M41" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]])</f>
-        <v>python 2_graph_processing/make_main_data.py -in libraries_3/KO_sgB_R2_cmv_30bpDown.tsv -o libraries_4/KO_sgB_R2_cmv_30bpDown -ref ref_seq/1DSB_R2_cmv.fa -dsb 76 --dsb_type 1 --strand R2 --hguide B --cell KO --treatment cmv --subst_type without</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
+        <v>python 2_graph_processing/make_main_data.py -i libraries_3/KO_sgB_R2_cmv_30bpDown.tsv -o libraries_4/KO_sgB_R2_cmv_30bpDown -ref ref_seq/1DSB_R2_cmv.fa -dsb 76 --dsb_type 1 --strand R2 --hguide B --cell KO --treatment cmv --subst_type without --control 30bpDown</v>
       </c>
       <c r="N41" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without ",  " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/KO_sgB_R2_cmv_30bpDown</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgB_R2_cmv_30bpDown</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>116</v>
+      </c>
+      <c r="B43" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43" t="s">
+        <v>139</v>
+      </c>
+      <c r="D43" t="s">
+        <v>89</v>
+      </c>
+      <c r="E43" t="s">
+        <v>104</v>
+      </c>
+      <c r="F43" t="s">
+        <v>105</v>
+      </c>
+      <c r="G43" t="s">
+        <v>148</v>
+      </c>
+      <c r="H43" t="s">
+        <v>84</v>
+      </c>
+      <c r="I43" t="s">
+        <v>106</v>
+      </c>
+      <c r="J43" t="s">
+        <v>107</v>
+      </c>
+      <c r="K43" t="s">
+        <v>83</v>
+      </c>
+      <c r="L43" t="s">
+        <v>109</v>
+      </c>
+      <c r="M43" t="s">
+        <v>111</v>
+      </c>
+      <c r="N43" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44" t="str">
+        <f>'2_combined'!J45</f>
+        <v>WT_sgA_R1_sense_nodsb</v>
+      </c>
+      <c r="C44" t="str">
+        <f>SUBSTITUTE('2_combined'!C45, "dsb", "DSB")</f>
+        <v>noDSB</v>
+      </c>
+      <c r="D44" t="str">
+        <f>'2_combined'!B45</f>
+        <v>1DSB_R1_sense.fa</v>
+      </c>
+      <c r="E44">
+        <f>'2_combined'!E45</f>
+        <v>67</v>
+      </c>
+      <c r="F44" t="str">
+        <f>'2_combined'!D45</f>
+        <v>1DSB</v>
+      </c>
+      <c r="G44" t="str" cm="1">
+        <f t="array" ref="G44">IF(Table10[[#This Row],[dsb_type]]="2DSB", "2", IF(Table10[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table10[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>1</v>
+      </c>
+      <c r="H44" t="str">
+        <f>'2_combined'!G45</f>
+        <v>R1</v>
+      </c>
+      <c r="I44" t="str">
+        <f>MID('2_combined'!I45, 3, 100)</f>
+        <v>A</v>
+      </c>
+      <c r="J44" t="str">
+        <f>'2_combined'!F45</f>
+        <v>WT</v>
+      </c>
+      <c r="K44" t="str">
+        <f>'2_combined'!H45</f>
+        <v>sense</v>
+      </c>
+      <c r="L44" t="s">
+        <v>110</v>
+      </c>
+      <c r="M44" t="str">
+        <f>_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", dirs!$A$3, "/",Table10[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table10[[#This Row],[dir]], " -ref ref_seq/", Table10[[#This Row],[ref]], " -dsb ", Table10[[#This Row],[dsb_pos]], " --dsb_type ",Table10[[#This Row],[dsb_type_command]], " --strand ", Table10[[#This Row],[strand]], " --hguide ", Table10[[#This Row],[hguide]], " --cell ", Table10[[#This Row],[cell]], " --treatment ", Table10[[#This Row],[treatment]], " --subst_type ", Table10[[#This Row],[subst_type]], " --control ", Table10[[#This Row],[control]])</f>
+        <v>python 2_graph_processing/make_main_data.py -i libraries_3/WT_sgA_R1_sense_nodsb.tsv -o libraries_4/WT_sgA_R1_sense_nodsb -ref ref_seq/1DSB_R1_sense.fa -dsb 67 --dsb_type 1 --strand R1 --hguide A --cell WT --treatment sense --subst_type without --control noDSB</v>
+      </c>
+      <c r="N44" t="str">
+        <f>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table10[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table10[[#This Row],[dir]])</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgA_R1_sense_nodsb</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>2</v>
+      </c>
+      <c r="B45" t="str">
+        <f>'2_combined'!J46</f>
+        <v>WT_sgA_R1_branch_nodsb</v>
+      </c>
+      <c r="C45" t="str">
+        <f>SUBSTITUTE('2_combined'!C46, "dsb", "DSB")</f>
+        <v>noDSB</v>
+      </c>
+      <c r="D45" t="str">
+        <f>'2_combined'!B46</f>
+        <v>1DSB_R1_branch.fa</v>
+      </c>
+      <c r="E45">
+        <f>'2_combined'!E46</f>
+        <v>67</v>
+      </c>
+      <c r="F45" t="str">
+        <f>'2_combined'!D46</f>
+        <v>1DSB</v>
+      </c>
+      <c r="G45" t="str" cm="1">
+        <f t="array" ref="G45">IF(Table10[[#This Row],[dsb_type]]="2DSB", "2", IF(Table10[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table10[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>1</v>
+      </c>
+      <c r="H45" t="str">
+        <f>'2_combined'!G46</f>
+        <v>R1</v>
+      </c>
+      <c r="I45" t="str">
+        <f>MID('2_combined'!I46, 3, 100)</f>
+        <v>A</v>
+      </c>
+      <c r="J45" t="str">
+        <f>'2_combined'!F46</f>
+        <v>WT</v>
+      </c>
+      <c r="K45" t="str">
+        <f>'2_combined'!H46</f>
+        <v>branch</v>
+      </c>
+      <c r="L45" t="s">
+        <v>110</v>
+      </c>
+      <c r="M45" t="str">
+        <f>_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", dirs!$A$3, "/",Table10[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table10[[#This Row],[dir]], " -ref ref_seq/", Table10[[#This Row],[ref]], " -dsb ", Table10[[#This Row],[dsb_pos]], " --dsb_type ",Table10[[#This Row],[dsb_type_command]], " --strand ", Table10[[#This Row],[strand]], " --hguide ", Table10[[#This Row],[hguide]], " --cell ", Table10[[#This Row],[cell]], " --treatment ", Table10[[#This Row],[treatment]], " --subst_type ", Table10[[#This Row],[subst_type]], " --control ", Table10[[#This Row],[control]])</f>
+        <v>python 2_graph_processing/make_main_data.py -i libraries_3/WT_sgA_R1_branch_nodsb.tsv -o libraries_4/WT_sgA_R1_branch_nodsb -ref ref_seq/1DSB_R1_branch.fa -dsb 67 --dsb_type 1 --strand R1 --hguide A --cell WT --treatment branch --subst_type without --control noDSB</v>
+      </c>
+      <c r="N45" t="str">
+        <f>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table10[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table10[[#This Row],[dir]])</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgA_R1_branch_nodsb</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>3</v>
+      </c>
+      <c r="B46" t="str">
+        <f>'2_combined'!J47</f>
+        <v>WT_sgA_R1_cmv_nodsb</v>
+      </c>
+      <c r="C46" t="str">
+        <f>SUBSTITUTE('2_combined'!C47, "dsb", "DSB")</f>
+        <v>noDSB</v>
+      </c>
+      <c r="D46" t="str">
+        <f>'2_combined'!B47</f>
+        <v>1DSB_R1_cmv.fa</v>
+      </c>
+      <c r="E46">
+        <f>'2_combined'!E47</f>
+        <v>67</v>
+      </c>
+      <c r="F46" t="str">
+        <f>'2_combined'!D47</f>
+        <v>1DSB</v>
+      </c>
+      <c r="G46" t="str" cm="1">
+        <f t="array" ref="G46">IF(Table10[[#This Row],[dsb_type]]="2DSB", "2", IF(Table10[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table10[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>1</v>
+      </c>
+      <c r="H46" t="str">
+        <f>'2_combined'!G47</f>
+        <v>R1</v>
+      </c>
+      <c r="I46" t="str">
+        <f>MID('2_combined'!I47, 3, 100)</f>
+        <v>A</v>
+      </c>
+      <c r="J46" t="str">
+        <f>'2_combined'!F47</f>
+        <v>WT</v>
+      </c>
+      <c r="K46" t="str">
+        <f>'2_combined'!H47</f>
+        <v>cmv</v>
+      </c>
+      <c r="L46" t="s">
+        <v>110</v>
+      </c>
+      <c r="M46" t="str">
+        <f>_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", dirs!$A$3, "/",Table10[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table10[[#This Row],[dir]], " -ref ref_seq/", Table10[[#This Row],[ref]], " -dsb ", Table10[[#This Row],[dsb_pos]], " --dsb_type ",Table10[[#This Row],[dsb_type_command]], " --strand ", Table10[[#This Row],[strand]], " --hguide ", Table10[[#This Row],[hguide]], " --cell ", Table10[[#This Row],[cell]], " --treatment ", Table10[[#This Row],[treatment]], " --subst_type ", Table10[[#This Row],[subst_type]], " --control ", Table10[[#This Row],[control]])</f>
+        <v>python 2_graph_processing/make_main_data.py -i libraries_3/WT_sgA_R1_cmv_nodsb.tsv -o libraries_4/WT_sgA_R1_cmv_nodsb -ref ref_seq/1DSB_R1_cmv.fa -dsb 67 --dsb_type 1 --strand R1 --hguide A --cell WT --treatment cmv --subst_type without --control noDSB</v>
+      </c>
+      <c r="N46" t="str">
+        <f>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table10[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table10[[#This Row],[dir]])</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgA_R1_cmv_nodsb</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>4</v>
+      </c>
+      <c r="B47" t="str">
+        <f>'2_combined'!J48</f>
+        <v>KO_sgA_R1_sense_nodsb</v>
+      </c>
+      <c r="C47" t="str">
+        <f>SUBSTITUTE('2_combined'!C48, "dsb", "DSB")</f>
+        <v>noDSB</v>
+      </c>
+      <c r="D47" t="str">
+        <f>'2_combined'!B48</f>
+        <v>1DSB_R1_sense.fa</v>
+      </c>
+      <c r="E47">
+        <f>'2_combined'!E48</f>
+        <v>67</v>
+      </c>
+      <c r="F47" t="str">
+        <f>'2_combined'!D48</f>
+        <v>1DSB</v>
+      </c>
+      <c r="G47" t="str" cm="1">
+        <f t="array" ref="G47">IF(Table10[[#This Row],[dsb_type]]="2DSB", "2", IF(Table10[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table10[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>1</v>
+      </c>
+      <c r="H47" t="str">
+        <f>'2_combined'!G48</f>
+        <v>R1</v>
+      </c>
+      <c r="I47" t="str">
+        <f>MID('2_combined'!I48, 3, 100)</f>
+        <v>A</v>
+      </c>
+      <c r="J47" t="str">
+        <f>'2_combined'!F48</f>
+        <v>KO</v>
+      </c>
+      <c r="K47" t="str">
+        <f>'2_combined'!H48</f>
+        <v>sense</v>
+      </c>
+      <c r="L47" t="s">
+        <v>110</v>
+      </c>
+      <c r="M47" t="str">
+        <f>_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", dirs!$A$3, "/",Table10[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table10[[#This Row],[dir]], " -ref ref_seq/", Table10[[#This Row],[ref]], " -dsb ", Table10[[#This Row],[dsb_pos]], " --dsb_type ",Table10[[#This Row],[dsb_type_command]], " --strand ", Table10[[#This Row],[strand]], " --hguide ", Table10[[#This Row],[hguide]], " --cell ", Table10[[#This Row],[cell]], " --treatment ", Table10[[#This Row],[treatment]], " --subst_type ", Table10[[#This Row],[subst_type]], " --control ", Table10[[#This Row],[control]])</f>
+        <v>python 2_graph_processing/make_main_data.py -i libraries_3/KO_sgA_R1_sense_nodsb.tsv -o libraries_4/KO_sgA_R1_sense_nodsb -ref ref_seq/1DSB_R1_sense.fa -dsb 67 --dsb_type 1 --strand R1 --hguide A --cell KO --treatment sense --subst_type without --control noDSB</v>
+      </c>
+      <c r="N47" t="str">
+        <f>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table10[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table10[[#This Row],[dir]])</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgA_R1_sense_nodsb</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>5</v>
+      </c>
+      <c r="B48" t="str">
+        <f>'2_combined'!J49</f>
+        <v>KO_sgA_R1_branch_nodsb</v>
+      </c>
+      <c r="C48" t="str">
+        <f>SUBSTITUTE('2_combined'!C49, "dsb", "DSB")</f>
+        <v>noDSB</v>
+      </c>
+      <c r="D48" t="str">
+        <f>'2_combined'!B49</f>
+        <v>1DSB_R1_branch.fa</v>
+      </c>
+      <c r="E48">
+        <f>'2_combined'!E49</f>
+        <v>67</v>
+      </c>
+      <c r="F48" t="str">
+        <f>'2_combined'!D49</f>
+        <v>1DSB</v>
+      </c>
+      <c r="G48" t="str" cm="1">
+        <f t="array" ref="G48">IF(Table10[[#This Row],[dsb_type]]="2DSB", "2", IF(Table10[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table10[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>1</v>
+      </c>
+      <c r="H48" t="str">
+        <f>'2_combined'!G49</f>
+        <v>R1</v>
+      </c>
+      <c r="I48" t="str">
+        <f>MID('2_combined'!I49, 3, 100)</f>
+        <v>A</v>
+      </c>
+      <c r="J48" t="str">
+        <f>'2_combined'!F49</f>
+        <v>KO</v>
+      </c>
+      <c r="K48" t="str">
+        <f>'2_combined'!H49</f>
+        <v>branch</v>
+      </c>
+      <c r="L48" t="s">
+        <v>110</v>
+      </c>
+      <c r="M48" t="str">
+        <f>_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", dirs!$A$3, "/",Table10[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table10[[#This Row],[dir]], " -ref ref_seq/", Table10[[#This Row],[ref]], " -dsb ", Table10[[#This Row],[dsb_pos]], " --dsb_type ",Table10[[#This Row],[dsb_type_command]], " --strand ", Table10[[#This Row],[strand]], " --hguide ", Table10[[#This Row],[hguide]], " --cell ", Table10[[#This Row],[cell]], " --treatment ", Table10[[#This Row],[treatment]], " --subst_type ", Table10[[#This Row],[subst_type]], " --control ", Table10[[#This Row],[control]])</f>
+        <v>python 2_graph_processing/make_main_data.py -i libraries_3/KO_sgA_R1_branch_nodsb.tsv -o libraries_4/KO_sgA_R1_branch_nodsb -ref ref_seq/1DSB_R1_branch.fa -dsb 67 --dsb_type 1 --strand R1 --hguide A --cell KO --treatment branch --subst_type without --control noDSB</v>
+      </c>
+      <c r="N48" t="str">
+        <f>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table10[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table10[[#This Row],[dir]])</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgA_R1_branch_nodsb</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>6</v>
+      </c>
+      <c r="B49" t="str">
+        <f>'2_combined'!J50</f>
+        <v>KO_sgA_R1_cmv_nodsb</v>
+      </c>
+      <c r="C49" t="str">
+        <f>SUBSTITUTE('2_combined'!C50, "dsb", "DSB")</f>
+        <v>noDSB</v>
+      </c>
+      <c r="D49" t="str">
+        <f>'2_combined'!B50</f>
+        <v>1DSB_R1_cmv.fa</v>
+      </c>
+      <c r="E49">
+        <f>'2_combined'!E50</f>
+        <v>67</v>
+      </c>
+      <c r="F49" t="str">
+        <f>'2_combined'!D50</f>
+        <v>1DSB</v>
+      </c>
+      <c r="G49" t="str" cm="1">
+        <f t="array" ref="G49">IF(Table10[[#This Row],[dsb_type]]="2DSB", "2", IF(Table10[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table10[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>1</v>
+      </c>
+      <c r="H49" t="str">
+        <f>'2_combined'!G50</f>
+        <v>R1</v>
+      </c>
+      <c r="I49" t="str">
+        <f>MID('2_combined'!I50, 3, 100)</f>
+        <v>A</v>
+      </c>
+      <c r="J49" t="str">
+        <f>'2_combined'!F50</f>
+        <v>KO</v>
+      </c>
+      <c r="K49" t="str">
+        <f>'2_combined'!H50</f>
+        <v>cmv</v>
+      </c>
+      <c r="L49" t="s">
+        <v>110</v>
+      </c>
+      <c r="M49" t="str">
+        <f>_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", dirs!$A$3, "/",Table10[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table10[[#This Row],[dir]], " -ref ref_seq/", Table10[[#This Row],[ref]], " -dsb ", Table10[[#This Row],[dsb_pos]], " --dsb_type ",Table10[[#This Row],[dsb_type_command]], " --strand ", Table10[[#This Row],[strand]], " --hguide ", Table10[[#This Row],[hguide]], " --cell ", Table10[[#This Row],[cell]], " --treatment ", Table10[[#This Row],[treatment]], " --subst_type ", Table10[[#This Row],[subst_type]], " --control ", Table10[[#This Row],[control]])</f>
+        <v>python 2_graph_processing/make_main_data.py -i libraries_3/KO_sgA_R1_cmv_nodsb.tsv -o libraries_4/KO_sgA_R1_cmv_nodsb -ref ref_seq/1DSB_R1_cmv.fa -dsb 67 --dsb_type 1 --strand R1 --hguide A --cell KO --treatment cmv --subst_type without --control noDSB</v>
+      </c>
+      <c r="N49" t="str">
+        <f>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table10[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table10[[#This Row],[dir]])</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgA_R1_cmv_nodsb</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>7</v>
+      </c>
+      <c r="B50" t="str">
+        <f>'2_combined'!J51</f>
+        <v>WT_sgB_R2_sense_nodsb</v>
+      </c>
+      <c r="C50" t="str">
+        <f>SUBSTITUTE('2_combined'!C51, "dsb", "DSB")</f>
+        <v>noDSB</v>
+      </c>
+      <c r="D50" t="str">
+        <f>'2_combined'!B51</f>
+        <v>1DSB_R2_sense.fa</v>
+      </c>
+      <c r="E50">
+        <f>'2_combined'!E51</f>
+        <v>46</v>
+      </c>
+      <c r="F50" t="str">
+        <f>'2_combined'!D51</f>
+        <v>1DSB</v>
+      </c>
+      <c r="G50" t="str" cm="1">
+        <f t="array" ref="G50">IF(Table10[[#This Row],[dsb_type]]="2DSB", "2", IF(Table10[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table10[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>1</v>
+      </c>
+      <c r="H50" t="str">
+        <f>'2_combined'!G51</f>
+        <v>R2</v>
+      </c>
+      <c r="I50" t="str">
+        <f>MID('2_combined'!I51, 3, 100)</f>
+        <v>B</v>
+      </c>
+      <c r="J50" t="str">
+        <f>'2_combined'!F51</f>
+        <v>WT</v>
+      </c>
+      <c r="K50" t="str">
+        <f>'2_combined'!H51</f>
+        <v>sense</v>
+      </c>
+      <c r="L50" t="s">
+        <v>110</v>
+      </c>
+      <c r="M50" t="str">
+        <f>_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", dirs!$A$3, "/",Table10[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table10[[#This Row],[dir]], " -ref ref_seq/", Table10[[#This Row],[ref]], " -dsb ", Table10[[#This Row],[dsb_pos]], " --dsb_type ",Table10[[#This Row],[dsb_type_command]], " --strand ", Table10[[#This Row],[strand]], " --hguide ", Table10[[#This Row],[hguide]], " --cell ", Table10[[#This Row],[cell]], " --treatment ", Table10[[#This Row],[treatment]], " --subst_type ", Table10[[#This Row],[subst_type]], " --control ", Table10[[#This Row],[control]])</f>
+        <v>python 2_graph_processing/make_main_data.py -i libraries_3/WT_sgB_R2_sense_nodsb.tsv -o libraries_4/WT_sgB_R2_sense_nodsb -ref ref_seq/1DSB_R2_sense.fa -dsb 46 --dsb_type 1 --strand R2 --hguide B --cell WT --treatment sense --subst_type without --control noDSB</v>
+      </c>
+      <c r="N50" t="str">
+        <f>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table10[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table10[[#This Row],[dir]])</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgB_R2_sense_nodsb</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>8</v>
+      </c>
+      <c r="B51" t="str">
+        <f>'2_combined'!J52</f>
+        <v>WT_sgB_R2_branch_nodsb</v>
+      </c>
+      <c r="C51" t="str">
+        <f>SUBSTITUTE('2_combined'!C52, "dsb", "DSB")</f>
+        <v>noDSB</v>
+      </c>
+      <c r="D51" t="str">
+        <f>'2_combined'!B52</f>
+        <v>1DSB_R2_branch.fa</v>
+      </c>
+      <c r="E51">
+        <f>'2_combined'!E52</f>
+        <v>46</v>
+      </c>
+      <c r="F51" t="str">
+        <f>'2_combined'!D52</f>
+        <v>1DSB</v>
+      </c>
+      <c r="G51" t="str" cm="1">
+        <f t="array" ref="G51">IF(Table10[[#This Row],[dsb_type]]="2DSB", "2", IF(Table10[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table10[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>1</v>
+      </c>
+      <c r="H51" t="str">
+        <f>'2_combined'!G52</f>
+        <v>R2</v>
+      </c>
+      <c r="I51" t="str">
+        <f>MID('2_combined'!I52, 3, 100)</f>
+        <v>B</v>
+      </c>
+      <c r="J51" t="str">
+        <f>'2_combined'!F52</f>
+        <v>WT</v>
+      </c>
+      <c r="K51" t="str">
+        <f>'2_combined'!H52</f>
+        <v>branch</v>
+      </c>
+      <c r="L51" t="s">
+        <v>110</v>
+      </c>
+      <c r="M51" t="str">
+        <f>_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", dirs!$A$3, "/",Table10[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table10[[#This Row],[dir]], " -ref ref_seq/", Table10[[#This Row],[ref]], " -dsb ", Table10[[#This Row],[dsb_pos]], " --dsb_type ",Table10[[#This Row],[dsb_type_command]], " --strand ", Table10[[#This Row],[strand]], " --hguide ", Table10[[#This Row],[hguide]], " --cell ", Table10[[#This Row],[cell]], " --treatment ", Table10[[#This Row],[treatment]], " --subst_type ", Table10[[#This Row],[subst_type]], " --control ", Table10[[#This Row],[control]])</f>
+        <v>python 2_graph_processing/make_main_data.py -i libraries_3/WT_sgB_R2_branch_nodsb.tsv -o libraries_4/WT_sgB_R2_branch_nodsb -ref ref_seq/1DSB_R2_branch.fa -dsb 46 --dsb_type 1 --strand R2 --hguide B --cell WT --treatment branch --subst_type without --control noDSB</v>
+      </c>
+      <c r="N51" t="str">
+        <f>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table10[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table10[[#This Row],[dir]])</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgB_R2_branch_nodsb</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>9</v>
+      </c>
+      <c r="B52" t="str">
+        <f>'2_combined'!J53</f>
+        <v>WT_sgB_R2_cmv_nodsb</v>
+      </c>
+      <c r="C52" t="str">
+        <f>SUBSTITUTE('2_combined'!C53, "dsb", "DSB")</f>
+        <v>noDSB</v>
+      </c>
+      <c r="D52" t="str">
+        <f>'2_combined'!B53</f>
+        <v>1DSB_R2_cmv.fa</v>
+      </c>
+      <c r="E52">
+        <f>'2_combined'!E53</f>
+        <v>46</v>
+      </c>
+      <c r="F52" t="str">
+        <f>'2_combined'!D53</f>
+        <v>1DSB</v>
+      </c>
+      <c r="G52" t="str" cm="1">
+        <f t="array" ref="G52">IF(Table10[[#This Row],[dsb_type]]="2DSB", "2", IF(Table10[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table10[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>1</v>
+      </c>
+      <c r="H52" t="str">
+        <f>'2_combined'!G53</f>
+        <v>R2</v>
+      </c>
+      <c r="I52" t="str">
+        <f>MID('2_combined'!I53, 3, 100)</f>
+        <v>B</v>
+      </c>
+      <c r="J52" t="str">
+        <f>'2_combined'!F53</f>
+        <v>WT</v>
+      </c>
+      <c r="K52" t="str">
+        <f>'2_combined'!H53</f>
+        <v>cmv</v>
+      </c>
+      <c r="L52" t="s">
+        <v>110</v>
+      </c>
+      <c r="M52" t="str">
+        <f>_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", dirs!$A$3, "/",Table10[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table10[[#This Row],[dir]], " -ref ref_seq/", Table10[[#This Row],[ref]], " -dsb ", Table10[[#This Row],[dsb_pos]], " --dsb_type ",Table10[[#This Row],[dsb_type_command]], " --strand ", Table10[[#This Row],[strand]], " --hguide ", Table10[[#This Row],[hguide]], " --cell ", Table10[[#This Row],[cell]], " --treatment ", Table10[[#This Row],[treatment]], " --subst_type ", Table10[[#This Row],[subst_type]], " --control ", Table10[[#This Row],[control]])</f>
+        <v>python 2_graph_processing/make_main_data.py -i libraries_3/WT_sgB_R2_cmv_nodsb.tsv -o libraries_4/WT_sgB_R2_cmv_nodsb -ref ref_seq/1DSB_R2_cmv.fa -dsb 46 --dsb_type 1 --strand R2 --hguide B --cell WT --treatment cmv --subst_type without --control noDSB</v>
+      </c>
+      <c r="N52" t="str">
+        <f>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table10[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table10[[#This Row],[dir]])</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgB_R2_cmv_nodsb</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>10</v>
+      </c>
+      <c r="B53" t="str">
+        <f>'2_combined'!J54</f>
+        <v>KO_sgB_R2_sense_nodsb</v>
+      </c>
+      <c r="C53" t="str">
+        <f>SUBSTITUTE('2_combined'!C54, "dsb", "DSB")</f>
+        <v>noDSB</v>
+      </c>
+      <c r="D53" t="str">
+        <f>'2_combined'!B54</f>
+        <v>1DSB_R2_sense.fa</v>
+      </c>
+      <c r="E53">
+        <f>'2_combined'!E54</f>
+        <v>46</v>
+      </c>
+      <c r="F53" t="str">
+        <f>'2_combined'!D54</f>
+        <v>1DSB</v>
+      </c>
+      <c r="G53" t="str" cm="1">
+        <f t="array" ref="G53">IF(Table10[[#This Row],[dsb_type]]="2DSB", "2", IF(Table10[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table10[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>1</v>
+      </c>
+      <c r="H53" t="str">
+        <f>'2_combined'!G54</f>
+        <v>R2</v>
+      </c>
+      <c r="I53" t="str">
+        <f>MID('2_combined'!I54, 3, 100)</f>
+        <v>B</v>
+      </c>
+      <c r="J53" t="str">
+        <f>'2_combined'!F54</f>
+        <v>KO</v>
+      </c>
+      <c r="K53" t="str">
+        <f>'2_combined'!H54</f>
+        <v>sense</v>
+      </c>
+      <c r="L53" t="s">
+        <v>110</v>
+      </c>
+      <c r="M53" t="str">
+        <f>_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", dirs!$A$3, "/",Table10[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table10[[#This Row],[dir]], " -ref ref_seq/", Table10[[#This Row],[ref]], " -dsb ", Table10[[#This Row],[dsb_pos]], " --dsb_type ",Table10[[#This Row],[dsb_type_command]], " --strand ", Table10[[#This Row],[strand]], " --hguide ", Table10[[#This Row],[hguide]], " --cell ", Table10[[#This Row],[cell]], " --treatment ", Table10[[#This Row],[treatment]], " --subst_type ", Table10[[#This Row],[subst_type]], " --control ", Table10[[#This Row],[control]])</f>
+        <v>python 2_graph_processing/make_main_data.py -i libraries_3/KO_sgB_R2_sense_nodsb.tsv -o libraries_4/KO_sgB_R2_sense_nodsb -ref ref_seq/1DSB_R2_sense.fa -dsb 46 --dsb_type 1 --strand R2 --hguide B --cell KO --treatment sense --subst_type without --control noDSB</v>
+      </c>
+      <c r="N53" t="str">
+        <f>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table10[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table10[[#This Row],[dir]])</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgB_R2_sense_nodsb</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>11</v>
+      </c>
+      <c r="B54" t="str">
+        <f>'2_combined'!J55</f>
+        <v>KO_sgB_R2_branch_nodsb</v>
+      </c>
+      <c r="C54" t="str">
+        <f>SUBSTITUTE('2_combined'!C55, "dsb", "DSB")</f>
+        <v>noDSB</v>
+      </c>
+      <c r="D54" t="str">
+        <f>'2_combined'!B55</f>
+        <v>1DSB_R2_branch.fa</v>
+      </c>
+      <c r="E54">
+        <f>'2_combined'!E55</f>
+        <v>46</v>
+      </c>
+      <c r="F54" t="str">
+        <f>'2_combined'!D55</f>
+        <v>1DSB</v>
+      </c>
+      <c r="G54" t="str" cm="1">
+        <f t="array" ref="G54">IF(Table10[[#This Row],[dsb_type]]="2DSB", "2", IF(Table10[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table10[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>1</v>
+      </c>
+      <c r="H54" t="str">
+        <f>'2_combined'!G55</f>
+        <v>R2</v>
+      </c>
+      <c r="I54" t="str">
+        <f>MID('2_combined'!I55, 3, 100)</f>
+        <v>B</v>
+      </c>
+      <c r="J54" t="str">
+        <f>'2_combined'!F55</f>
+        <v>KO</v>
+      </c>
+      <c r="K54" t="str">
+        <f>'2_combined'!H55</f>
+        <v>branch</v>
+      </c>
+      <c r="L54" t="s">
+        <v>110</v>
+      </c>
+      <c r="M54" t="str">
+        <f>_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", dirs!$A$3, "/",Table10[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table10[[#This Row],[dir]], " -ref ref_seq/", Table10[[#This Row],[ref]], " -dsb ", Table10[[#This Row],[dsb_pos]], " --dsb_type ",Table10[[#This Row],[dsb_type_command]], " --strand ", Table10[[#This Row],[strand]], " --hguide ", Table10[[#This Row],[hguide]], " --cell ", Table10[[#This Row],[cell]], " --treatment ", Table10[[#This Row],[treatment]], " --subst_type ", Table10[[#This Row],[subst_type]], " --control ", Table10[[#This Row],[control]])</f>
+        <v>python 2_graph_processing/make_main_data.py -i libraries_3/KO_sgB_R2_branch_nodsb.tsv -o libraries_4/KO_sgB_R2_branch_nodsb -ref ref_seq/1DSB_R2_branch.fa -dsb 46 --dsb_type 1 --strand R2 --hguide B --cell KO --treatment branch --subst_type without --control noDSB</v>
+      </c>
+      <c r="N54" t="str">
+        <f>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table10[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table10[[#This Row],[dir]])</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgB_R2_branch_nodsb</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>12</v>
+      </c>
+      <c r="B55" t="str">
+        <f>'2_combined'!J56</f>
+        <v>KO_sgB_R2_cmv_nodsb</v>
+      </c>
+      <c r="C55" t="str">
+        <f>SUBSTITUTE('2_combined'!C56, "dsb", "DSB")</f>
+        <v>noDSB</v>
+      </c>
+      <c r="D55" t="str">
+        <f>'2_combined'!B56</f>
+        <v>1DSB_R2_cmv.fa</v>
+      </c>
+      <c r="E55">
+        <f>'2_combined'!E56</f>
+        <v>46</v>
+      </c>
+      <c r="F55" t="str">
+        <f>'2_combined'!D56</f>
+        <v>1DSB</v>
+      </c>
+      <c r="G55" t="str" cm="1">
+        <f t="array" ref="G55">IF(Table10[[#This Row],[dsb_type]]="2DSB", "2", IF(Table10[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table10[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>1</v>
+      </c>
+      <c r="H55" t="str">
+        <f>'2_combined'!G56</f>
+        <v>R2</v>
+      </c>
+      <c r="I55" t="str">
+        <f>MID('2_combined'!I56, 3, 100)</f>
+        <v>B</v>
+      </c>
+      <c r="J55" t="str">
+        <f>'2_combined'!F56</f>
+        <v>KO</v>
+      </c>
+      <c r="K55" t="str">
+        <f>'2_combined'!H56</f>
+        <v>cmv</v>
+      </c>
+      <c r="L55" t="s">
+        <v>110</v>
+      </c>
+      <c r="M55" t="str">
+        <f>_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", dirs!$A$3, "/",Table10[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table10[[#This Row],[dir]], " -ref ref_seq/", Table10[[#This Row],[ref]], " -dsb ", Table10[[#This Row],[dsb_pos]], " --dsb_type ",Table10[[#This Row],[dsb_type_command]], " --strand ", Table10[[#This Row],[strand]], " --hguide ", Table10[[#This Row],[hguide]], " --cell ", Table10[[#This Row],[cell]], " --treatment ", Table10[[#This Row],[treatment]], " --subst_type ", Table10[[#This Row],[subst_type]], " --control ", Table10[[#This Row],[control]])</f>
+        <v>python 2_graph_processing/make_main_data.py -i libraries_3/KO_sgB_R2_cmv_nodsb.tsv -o libraries_4/KO_sgB_R2_cmv_nodsb -ref ref_seq/1DSB_R2_cmv.fa -dsb 46 --dsb_type 1 --strand R2 --hguide B --cell KO --treatment cmv --subst_type without --control noDSB</v>
+      </c>
+      <c r="N55" t="str">
+        <f>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table10[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table10[[#This Row],[dir]])</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgB_R2_cmv_nodsb</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AFDA2BA-58B9-4C12-83E9-7C389A51814A}">
+  <dimension ref="A1:K32"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" customWidth="1"/>
+    <col min="6" max="6" width="29" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="50.7109375" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="str">
+        <f ca="1">OFFSET('3_graph'!$C$3, 3 * QUOTIENT(Table6[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>none</v>
+      </c>
+      <c r="C2" s="5" t="str">
+        <f ca="1">OFFSET('3_graph'!$K$2, 3 * QUOTIENT(Table6[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>sense</v>
+      </c>
+      <c r="D2" s="2" t="str">
+        <f ca="1">OFFSET('3_graph'!$B$2, 3 * QUOTIENT(Table6[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>WT_sgAB_R1_sense</v>
+      </c>
+      <c r="E2" s="2" t="str">
+        <f ca="1">OFFSET('3_graph'!$K$2, 3 * QUOTIENT(Table6[[#This Row],[index]] - 1, 2) + 1 + MOD(Table6[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>branch</v>
+      </c>
+      <c r="F2" s="2" t="str">
+        <f ca="1">OFFSET('3_graph'!$B$2, 3 * QUOTIENT(Table6[[#This Row],[index]] - 1, 2) + 1 + MOD(Table6[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>WT_sgAB_R1_branch</v>
+      </c>
+      <c r="G2" s="2" t="str">
+        <f ca="1">_xlfn.CONCAT(Table6[[#This Row],[treatment_1]], "_", Table6[[#This Row],[treatment_2]])</f>
+        <v>sense_branch</v>
+      </c>
+      <c r="H2" s="2" t="str">
+        <f ca="1">SUBSTITUTE(Table6[[#This Row],[dir_1]], Table6[[#This Row],[treatment_1]], Table6[[#This Row],[treatments_out]])</f>
+        <v>WT_sgAB_R1_sense_branch</v>
+      </c>
+      <c r="I2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J2" s="2" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", Table6[[#This Row],[dir_1]], " ", dirs!$A$4, "/", Table6[[#This Row],[dir_2]], " -o ", dirs!$A$4, "/", Table6[[#This Row],[dir_out]], " --subst_type ", Table6[[#This Row],[subst_type]])</f>
+        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgAB_R1_sense libraries_4/WT_sgAB_R1_branch -o libraries_4/WT_sgAB_R1_sense_branch --subst_type without</v>
+      </c>
+      <c r="K2" s="2" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table6[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table6[[#This Row],[dir_out]])</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgAB_R1_sense_branch</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="str">
+        <f ca="1">OFFSET('3_graph'!$C$3, 3 * QUOTIENT(Table6[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>none</v>
+      </c>
+      <c r="C3" s="5" t="str">
+        <f ca="1">OFFSET('3_graph'!$K$2, 3 * QUOTIENT(Table6[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>sense</v>
+      </c>
+      <c r="D3" s="2" t="str">
+        <f ca="1">OFFSET('3_graph'!$B$2, 3 * QUOTIENT(Table6[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>WT_sgAB_R1_sense</v>
+      </c>
+      <c r="E3" s="2" t="str">
+        <f ca="1">OFFSET('3_graph'!$K$2, 3 * QUOTIENT(Table6[[#This Row],[index]] - 1, 2) + 1 + MOD(Table6[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>cmv</v>
+      </c>
+      <c r="F3" s="2" t="str">
+        <f ca="1">OFFSET('3_graph'!$B$2, 3 * QUOTIENT(Table6[[#This Row],[index]] - 1, 2) + 1 + MOD(Table6[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>WT_sgAB_R1_cmv</v>
+      </c>
+      <c r="G3" s="2" t="str">
+        <f ca="1">_xlfn.CONCAT(Table6[[#This Row],[treatment_1]], "_", Table6[[#This Row],[treatment_2]])</f>
+        <v>sense_cmv</v>
+      </c>
+      <c r="H3" s="2" t="str">
+        <f ca="1">SUBSTITUTE(Table6[[#This Row],[dir_1]], Table6[[#This Row],[treatment_1]], Table6[[#This Row],[treatments_out]])</f>
+        <v>WT_sgAB_R1_sense_cmv</v>
+      </c>
+      <c r="I3" t="s">
+        <v>110</v>
+      </c>
+      <c r="J3" s="2" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", Table6[[#This Row],[dir_1]], " ", dirs!$A$4, "/", Table6[[#This Row],[dir_2]], " -o ", dirs!$A$4, "/", Table6[[#This Row],[dir_out]], " --subst_type ", Table6[[#This Row],[subst_type]])</f>
+        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgAB_R1_sense libraries_4/WT_sgAB_R1_cmv -o libraries_4/WT_sgAB_R1_sense_cmv --subst_type without</v>
+      </c>
+      <c r="K3" s="2" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table6[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table6[[#This Row],[dir_out]])</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgAB_R1_sense_cmv</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="str">
+        <f ca="1">OFFSET('3_graph'!$C$3, 3 * QUOTIENT(Table6[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>none</v>
+      </c>
+      <c r="C4" s="4" t="str">
+        <f ca="1">OFFSET('3_graph'!$K$2, 3 * QUOTIENT(Table6[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>sense</v>
+      </c>
+      <c r="D4" t="str">
+        <f ca="1">OFFSET('3_graph'!$B$2, 3 * QUOTIENT(Table6[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>KO_sgAB_R1_sense</v>
+      </c>
+      <c r="E4" t="str">
+        <f ca="1">OFFSET('3_graph'!$K$2, 3 * QUOTIENT(Table6[[#This Row],[index]] - 1, 2) + 1 + MOD(Table6[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>branch</v>
+      </c>
+      <c r="F4" t="str">
+        <f ca="1">OFFSET('3_graph'!$B$2, 3 * QUOTIENT(Table6[[#This Row],[index]] - 1, 2) + 1 + MOD(Table6[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>KO_sgAB_R1_branch</v>
+      </c>
+      <c r="G4" t="str">
+        <f ca="1">_xlfn.CONCAT(Table6[[#This Row],[treatment_1]], "_", Table6[[#This Row],[treatment_2]])</f>
+        <v>sense_branch</v>
+      </c>
+      <c r="H4" t="str">
+        <f ca="1">SUBSTITUTE(Table6[[#This Row],[dir_1]], Table6[[#This Row],[treatment_1]], Table6[[#This Row],[treatments_out]])</f>
+        <v>KO_sgAB_R1_sense_branch</v>
+      </c>
+      <c r="I4" t="s">
+        <v>110</v>
+      </c>
+      <c r="J4" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", Table6[[#This Row],[dir_1]], " ", dirs!$A$4, "/", Table6[[#This Row],[dir_2]], " -o ", dirs!$A$4, "/", Table6[[#This Row],[dir_out]], " --subst_type ", Table6[[#This Row],[subst_type]])</f>
+        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/KO_sgAB_R1_sense libraries_4/KO_sgAB_R1_branch -o libraries_4/KO_sgAB_R1_sense_branch --subst_type without</v>
+      </c>
+      <c r="K4" s="2" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table6[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table6[[#This Row],[dir_out]])</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgAB_R1_sense_branch</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="str">
+        <f ca="1">OFFSET('3_graph'!$C$3, 3 * QUOTIENT(Table6[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>none</v>
+      </c>
+      <c r="C5" s="4" t="str">
+        <f ca="1">OFFSET('3_graph'!$K$2, 3 * QUOTIENT(Table6[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>sense</v>
+      </c>
+      <c r="D5" t="str">
+        <f ca="1">OFFSET('3_graph'!$B$2, 3 * QUOTIENT(Table6[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>KO_sgAB_R1_sense</v>
+      </c>
+      <c r="E5" t="str">
+        <f ca="1">OFFSET('3_graph'!$K$2, 3 * QUOTIENT(Table6[[#This Row],[index]] - 1, 2) + 1 + MOD(Table6[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>cmv</v>
+      </c>
+      <c r="F5" t="str">
+        <f ca="1">OFFSET('3_graph'!$B$2, 3 * QUOTIENT(Table6[[#This Row],[index]] - 1, 2) + 1 + MOD(Table6[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>KO_sgAB_R1_cmv</v>
+      </c>
+      <c r="G5" t="str">
+        <f ca="1">_xlfn.CONCAT(Table6[[#This Row],[treatment_1]], "_", Table6[[#This Row],[treatment_2]])</f>
+        <v>sense_cmv</v>
+      </c>
+      <c r="H5" t="str">
+        <f ca="1">SUBSTITUTE(Table6[[#This Row],[dir_1]], Table6[[#This Row],[treatment_1]], Table6[[#This Row],[treatments_out]])</f>
+        <v>KO_sgAB_R1_sense_cmv</v>
+      </c>
+      <c r="I5" t="s">
+        <v>110</v>
+      </c>
+      <c r="J5" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", Table6[[#This Row],[dir_1]], " ", dirs!$A$4, "/", Table6[[#This Row],[dir_2]], " -o ", dirs!$A$4, "/", Table6[[#This Row],[dir_out]], " --subst_type ", Table6[[#This Row],[subst_type]])</f>
+        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/KO_sgAB_R1_sense libraries_4/KO_sgAB_R1_cmv -o libraries_4/KO_sgAB_R1_sense_cmv --subst_type without</v>
+      </c>
+      <c r="K5" s="2" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table6[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table6[[#This Row],[dir_out]])</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgAB_R1_sense_cmv</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="str">
+        <f ca="1">OFFSET('3_graph'!$C$3, 3 * QUOTIENT(Table6[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>none</v>
+      </c>
+      <c r="C6" s="4" t="str">
+        <f ca="1">OFFSET('3_graph'!$K$2, 3 * QUOTIENT(Table6[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>sense</v>
+      </c>
+      <c r="D6" t="str">
+        <f ca="1">OFFSET('3_graph'!$B$2, 3 * QUOTIENT(Table6[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>WT_sgAB_R2_sense</v>
+      </c>
+      <c r="E6" t="str">
+        <f ca="1">OFFSET('3_graph'!$K$2, 3 * QUOTIENT(Table6[[#This Row],[index]] - 1, 2) + 1 + MOD(Table6[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>branch</v>
+      </c>
+      <c r="F6" t="str">
+        <f ca="1">OFFSET('3_graph'!$B$2, 3 * QUOTIENT(Table6[[#This Row],[index]] - 1, 2) + 1 + MOD(Table6[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>WT_sgAB_R2_branch</v>
+      </c>
+      <c r="G6" t="str">
+        <f ca="1">_xlfn.CONCAT(Table6[[#This Row],[treatment_1]], "_", Table6[[#This Row],[treatment_2]])</f>
+        <v>sense_branch</v>
+      </c>
+      <c r="H6" t="str">
+        <f ca="1">SUBSTITUTE(Table6[[#This Row],[dir_1]], Table6[[#This Row],[treatment_1]], Table6[[#This Row],[treatments_out]])</f>
+        <v>WT_sgAB_R2_sense_branch</v>
+      </c>
+      <c r="I6" t="s">
+        <v>110</v>
+      </c>
+      <c r="J6" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", Table6[[#This Row],[dir_1]], " ", dirs!$A$4, "/", Table6[[#This Row],[dir_2]], " -o ", dirs!$A$4, "/", Table6[[#This Row],[dir_out]], " --subst_type ", Table6[[#This Row],[subst_type]])</f>
+        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgAB_R2_sense libraries_4/WT_sgAB_R2_branch -o libraries_4/WT_sgAB_R2_sense_branch --subst_type without</v>
+      </c>
+      <c r="K6" s="2" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table6[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table6[[#This Row],[dir_out]])</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgAB_R2_sense_branch</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="str">
+        <f ca="1">OFFSET('3_graph'!$C$3, 3 * QUOTIENT(Table6[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>none</v>
+      </c>
+      <c r="C7" s="4" t="str">
+        <f ca="1">OFFSET('3_graph'!$K$2, 3 * QUOTIENT(Table6[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>sense</v>
+      </c>
+      <c r="D7" t="str">
+        <f ca="1">OFFSET('3_graph'!$B$2, 3 * QUOTIENT(Table6[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>WT_sgAB_R2_sense</v>
+      </c>
+      <c r="E7" t="str">
+        <f ca="1">OFFSET('3_graph'!$K$2, 3 * QUOTIENT(Table6[[#This Row],[index]] - 1, 2) + 1 + MOD(Table6[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>cmv</v>
+      </c>
+      <c r="F7" t="str">
+        <f ca="1">OFFSET('3_graph'!$B$2, 3 * QUOTIENT(Table6[[#This Row],[index]] - 1, 2) + 1 + MOD(Table6[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>WT_sgAB_R2_cmv</v>
+      </c>
+      <c r="G7" t="str">
+        <f ca="1">_xlfn.CONCAT(Table6[[#This Row],[treatment_1]], "_", Table6[[#This Row],[treatment_2]])</f>
+        <v>sense_cmv</v>
+      </c>
+      <c r="H7" t="str">
+        <f ca="1">SUBSTITUTE(Table6[[#This Row],[dir_1]], Table6[[#This Row],[treatment_1]], Table6[[#This Row],[treatments_out]])</f>
+        <v>WT_sgAB_R2_sense_cmv</v>
+      </c>
+      <c r="I7" t="s">
+        <v>110</v>
+      </c>
+      <c r="J7" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", Table6[[#This Row],[dir_1]], " ", dirs!$A$4, "/", Table6[[#This Row],[dir_2]], " -o ", dirs!$A$4, "/", Table6[[#This Row],[dir_out]], " --subst_type ", Table6[[#This Row],[subst_type]])</f>
+        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgAB_R2_sense libraries_4/WT_sgAB_R2_cmv -o libraries_4/WT_sgAB_R2_sense_cmv --subst_type without</v>
+      </c>
+      <c r="K7" s="2" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table6[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table6[[#This Row],[dir_out]])</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgAB_R2_sense_cmv</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="str">
+        <f ca="1">OFFSET('3_graph'!$C$3, 3 * QUOTIENT(Table6[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>none</v>
+      </c>
+      <c r="C8" s="4" t="str">
+        <f ca="1">OFFSET('3_graph'!$K$2, 3 * QUOTIENT(Table6[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>sense</v>
+      </c>
+      <c r="D8" t="str">
+        <f ca="1">OFFSET('3_graph'!$B$2, 3 * QUOTIENT(Table6[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>KO_sgAB_R2_sense</v>
+      </c>
+      <c r="E8" t="str">
+        <f ca="1">OFFSET('3_graph'!$K$2, 3 * QUOTIENT(Table6[[#This Row],[index]] - 1, 2) + 1 + MOD(Table6[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>branch</v>
+      </c>
+      <c r="F8" t="str">
+        <f ca="1">OFFSET('3_graph'!$B$2, 3 * QUOTIENT(Table6[[#This Row],[index]] - 1, 2) + 1 + MOD(Table6[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>KO_sgAB_R2_branch</v>
+      </c>
+      <c r="G8" t="str">
+        <f ca="1">_xlfn.CONCAT(Table6[[#This Row],[treatment_1]], "_", Table6[[#This Row],[treatment_2]])</f>
+        <v>sense_branch</v>
+      </c>
+      <c r="H8" t="str">
+        <f ca="1">SUBSTITUTE(Table6[[#This Row],[dir_1]], Table6[[#This Row],[treatment_1]], Table6[[#This Row],[treatments_out]])</f>
+        <v>KO_sgAB_R2_sense_branch</v>
+      </c>
+      <c r="I8" t="s">
+        <v>110</v>
+      </c>
+      <c r="J8" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", Table6[[#This Row],[dir_1]], " ", dirs!$A$4, "/", Table6[[#This Row],[dir_2]], " -o ", dirs!$A$4, "/", Table6[[#This Row],[dir_out]], " --subst_type ", Table6[[#This Row],[subst_type]])</f>
+        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/KO_sgAB_R2_sense libraries_4/KO_sgAB_R2_branch -o libraries_4/KO_sgAB_R2_sense_branch --subst_type without</v>
+      </c>
+      <c r="K8" s="2" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table6[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table6[[#This Row],[dir_out]])</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgAB_R2_sense_branch</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="str">
+        <f ca="1">OFFSET('3_graph'!$C$3, 3 * QUOTIENT(Table6[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>none</v>
+      </c>
+      <c r="C9" s="4" t="str">
+        <f ca="1">OFFSET('3_graph'!$K$2, 3 * QUOTIENT(Table6[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>sense</v>
+      </c>
+      <c r="D9" t="str">
+        <f ca="1">OFFSET('3_graph'!$B$2, 3 * QUOTIENT(Table6[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>KO_sgAB_R2_sense</v>
+      </c>
+      <c r="E9" t="str">
+        <f ca="1">OFFSET('3_graph'!$K$2, 3 * QUOTIENT(Table6[[#This Row],[index]] - 1, 2) + 1 + MOD(Table6[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>cmv</v>
+      </c>
+      <c r="F9" t="str">
+        <f ca="1">OFFSET('3_graph'!$B$2, 3 * QUOTIENT(Table6[[#This Row],[index]] - 1, 2) + 1 + MOD(Table6[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>KO_sgAB_R2_cmv</v>
+      </c>
+      <c r="G9" t="str">
+        <f ca="1">_xlfn.CONCAT(Table6[[#This Row],[treatment_1]], "_", Table6[[#This Row],[treatment_2]])</f>
+        <v>sense_cmv</v>
+      </c>
+      <c r="H9" t="str">
+        <f ca="1">SUBSTITUTE(Table6[[#This Row],[dir_1]], Table6[[#This Row],[treatment_1]], Table6[[#This Row],[treatments_out]])</f>
+        <v>KO_sgAB_R2_sense_cmv</v>
+      </c>
+      <c r="I9" t="s">
+        <v>110</v>
+      </c>
+      <c r="J9" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", Table6[[#This Row],[dir_1]], " ", dirs!$A$4, "/", Table6[[#This Row],[dir_2]], " -o ", dirs!$A$4, "/", Table6[[#This Row],[dir_out]], " --subst_type ", Table6[[#This Row],[subst_type]])</f>
+        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/KO_sgAB_R2_sense libraries_4/KO_sgAB_R2_cmv -o libraries_4/KO_sgAB_R2_sense_cmv --subst_type without</v>
+      </c>
+      <c r="K9" s="2" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table6[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table6[[#This Row],[dir_out]])</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgAB_R2_sense_cmv</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="str">
+        <f ca="1">OFFSET('3_graph'!$C$3, 3 * QUOTIENT(Table6[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>none</v>
+      </c>
+      <c r="C10" s="4" t="str">
+        <f ca="1">OFFSET('3_graph'!$K$2, 3 * QUOTIENT(Table6[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>sense</v>
+      </c>
+      <c r="D10" t="str">
+        <f ca="1">OFFSET('3_graph'!$B$2, 3 * QUOTIENT(Table6[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>WT_sgA_R1_sense</v>
+      </c>
+      <c r="E10" t="str">
+        <f ca="1">OFFSET('3_graph'!$K$2, 3 * QUOTIENT(Table6[[#This Row],[index]] - 1, 2) + 1 + MOD(Table6[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>branch</v>
+      </c>
+      <c r="F10" t="str">
+        <f ca="1">OFFSET('3_graph'!$B$2, 3 * QUOTIENT(Table6[[#This Row],[index]] - 1, 2) + 1 + MOD(Table6[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>WT_sgA_R1_branch</v>
+      </c>
+      <c r="G10" t="str">
+        <f ca="1">_xlfn.CONCAT(Table6[[#This Row],[treatment_1]], "_", Table6[[#This Row],[treatment_2]])</f>
+        <v>sense_branch</v>
+      </c>
+      <c r="H10" t="str">
+        <f ca="1">SUBSTITUTE(Table6[[#This Row],[dir_1]], Table6[[#This Row],[treatment_1]], Table6[[#This Row],[treatments_out]])</f>
+        <v>WT_sgA_R1_sense_branch</v>
+      </c>
+      <c r="I10" t="s">
+        <v>110</v>
+      </c>
+      <c r="J10" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", Table6[[#This Row],[dir_1]], " ", dirs!$A$4, "/", Table6[[#This Row],[dir_2]], " -o ", dirs!$A$4, "/", Table6[[#This Row],[dir_out]], " --subst_type ", Table6[[#This Row],[subst_type]])</f>
+        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgA_R1_sense libraries_4/WT_sgA_R1_branch -o libraries_4/WT_sgA_R1_sense_branch --subst_type without</v>
+      </c>
+      <c r="K10" s="2" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table6[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table6[[#This Row],[dir_out]])</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgA_R1_sense_branch</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="str">
+        <f ca="1">OFFSET('3_graph'!$C$3, 3 * QUOTIENT(Table6[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>none</v>
+      </c>
+      <c r="C11" s="4" t="str">
+        <f ca="1">OFFSET('3_graph'!$K$2, 3 * QUOTIENT(Table6[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>sense</v>
+      </c>
+      <c r="D11" t="str">
+        <f ca="1">OFFSET('3_graph'!$B$2, 3 * QUOTIENT(Table6[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>WT_sgA_R1_sense</v>
+      </c>
+      <c r="E11" t="str">
+        <f ca="1">OFFSET('3_graph'!$K$2, 3 * QUOTIENT(Table6[[#This Row],[index]] - 1, 2) + 1 + MOD(Table6[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>cmv</v>
+      </c>
+      <c r="F11" t="str">
+        <f ca="1">OFFSET('3_graph'!$B$2, 3 * QUOTIENT(Table6[[#This Row],[index]] - 1, 2) + 1 + MOD(Table6[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>WT_sgA_R1_cmv</v>
+      </c>
+      <c r="G11" t="str">
+        <f ca="1">_xlfn.CONCAT(Table6[[#This Row],[treatment_1]], "_", Table6[[#This Row],[treatment_2]])</f>
+        <v>sense_cmv</v>
+      </c>
+      <c r="H11" t="str">
+        <f ca="1">SUBSTITUTE(Table6[[#This Row],[dir_1]], Table6[[#This Row],[treatment_1]], Table6[[#This Row],[treatments_out]])</f>
+        <v>WT_sgA_R1_sense_cmv</v>
+      </c>
+      <c r="I11" t="s">
+        <v>110</v>
+      </c>
+      <c r="J11" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", Table6[[#This Row],[dir_1]], " ", dirs!$A$4, "/", Table6[[#This Row],[dir_2]], " -o ", dirs!$A$4, "/", Table6[[#This Row],[dir_out]], " --subst_type ", Table6[[#This Row],[subst_type]])</f>
+        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgA_R1_sense libraries_4/WT_sgA_R1_cmv -o libraries_4/WT_sgA_R1_sense_cmv --subst_type without</v>
+      </c>
+      <c r="K11" s="2" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table6[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table6[[#This Row],[dir_out]])</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgA_R1_sense_cmv</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="str">
+        <f ca="1">OFFSET('3_graph'!$C$3, 3 * QUOTIENT(Table6[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>none</v>
+      </c>
+      <c r="C12" s="4" t="str">
+        <f ca="1">OFFSET('3_graph'!$K$2, 3 * QUOTIENT(Table6[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>sense</v>
+      </c>
+      <c r="D12" t="str">
+        <f ca="1">OFFSET('3_graph'!$B$2, 3 * QUOTIENT(Table6[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>WT_sgB_R2_sense</v>
+      </c>
+      <c r="E12" t="str">
+        <f ca="1">OFFSET('3_graph'!$K$2, 3 * QUOTIENT(Table6[[#This Row],[index]] - 1, 2) + 1 + MOD(Table6[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>branch</v>
+      </c>
+      <c r="F12" t="str">
+        <f ca="1">OFFSET('3_graph'!$B$2, 3 * QUOTIENT(Table6[[#This Row],[index]] - 1, 2) + 1 + MOD(Table6[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>WT_sgB_R2_branch</v>
+      </c>
+      <c r="G12" t="str">
+        <f ca="1">_xlfn.CONCAT(Table6[[#This Row],[treatment_1]], "_", Table6[[#This Row],[treatment_2]])</f>
+        <v>sense_branch</v>
+      </c>
+      <c r="H12" t="str">
+        <f ca="1">SUBSTITUTE(Table6[[#This Row],[dir_1]], Table6[[#This Row],[treatment_1]], Table6[[#This Row],[treatments_out]])</f>
+        <v>WT_sgB_R2_sense_branch</v>
+      </c>
+      <c r="I12" t="s">
+        <v>110</v>
+      </c>
+      <c r="J12" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", Table6[[#This Row],[dir_1]], " ", dirs!$A$4, "/", Table6[[#This Row],[dir_2]], " -o ", dirs!$A$4, "/", Table6[[#This Row],[dir_out]], " --subst_type ", Table6[[#This Row],[subst_type]])</f>
+        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgB_R2_sense libraries_4/WT_sgB_R2_branch -o libraries_4/WT_sgB_R2_sense_branch --subst_type without</v>
+      </c>
+      <c r="K12" s="2" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table6[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table6[[#This Row],[dir_out]])</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgB_R2_sense_branch</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="str">
+        <f ca="1">OFFSET('3_graph'!$C$3, 3 * QUOTIENT(Table6[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>none</v>
+      </c>
+      <c r="C13" s="4" t="str">
+        <f ca="1">OFFSET('3_graph'!$K$2, 3 * QUOTIENT(Table6[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>sense</v>
+      </c>
+      <c r="D13" t="str">
+        <f ca="1">OFFSET('3_graph'!$B$2, 3 * QUOTIENT(Table6[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>WT_sgB_R2_sense</v>
+      </c>
+      <c r="E13" t="str">
+        <f ca="1">OFFSET('3_graph'!$K$2, 3 * QUOTIENT(Table6[[#This Row],[index]] - 1, 2) + 1 + MOD(Table6[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>cmv</v>
+      </c>
+      <c r="F13" t="str">
+        <f ca="1">OFFSET('3_graph'!$B$2, 3 * QUOTIENT(Table6[[#This Row],[index]] - 1, 2) + 1 + MOD(Table6[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>WT_sgB_R2_cmv</v>
+      </c>
+      <c r="G13" t="str">
+        <f ca="1">_xlfn.CONCAT(Table6[[#This Row],[treatment_1]], "_", Table6[[#This Row],[treatment_2]])</f>
+        <v>sense_cmv</v>
+      </c>
+      <c r="H13" t="str">
+        <f ca="1">SUBSTITUTE(Table6[[#This Row],[dir_1]], Table6[[#This Row],[treatment_1]], Table6[[#This Row],[treatments_out]])</f>
+        <v>WT_sgB_R2_sense_cmv</v>
+      </c>
+      <c r="I13" t="s">
+        <v>110</v>
+      </c>
+      <c r="J13" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", Table6[[#This Row],[dir_1]], " ", dirs!$A$4, "/", Table6[[#This Row],[dir_2]], " -o ", dirs!$A$4, "/", Table6[[#This Row],[dir_out]], " --subst_type ", Table6[[#This Row],[subst_type]])</f>
+        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgB_R2_sense libraries_4/WT_sgB_R2_cmv -o libraries_4/WT_sgB_R2_sense_cmv --subst_type without</v>
+      </c>
+      <c r="K13" s="2" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table6[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table6[[#This Row],[dir_out]])</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgB_R2_sense_cmv</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="str">
+        <f ca="1">OFFSET('3_graph'!$C$3, 3 * QUOTIENT(Table6[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>none</v>
+      </c>
+      <c r="C14" s="4" t="str">
+        <f ca="1">OFFSET('3_graph'!$K$2, 3 * QUOTIENT(Table6[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>sense</v>
+      </c>
+      <c r="D14" t="str">
+        <f ca="1">OFFSET('3_graph'!$B$2, 3 * QUOTIENT(Table6[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>KO_sgA_R1_sense</v>
+      </c>
+      <c r="E14" t="str">
+        <f ca="1">OFFSET('3_graph'!$K$2, 3 * QUOTIENT(Table6[[#This Row],[index]] - 1, 2) + 1 + MOD(Table6[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>branch</v>
+      </c>
+      <c r="F14" t="str">
+        <f ca="1">OFFSET('3_graph'!$B$2, 3 * QUOTIENT(Table6[[#This Row],[index]] - 1, 2) + 1 + MOD(Table6[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>KO_sgA_R1_branch</v>
+      </c>
+      <c r="G14" t="str">
+        <f ca="1">_xlfn.CONCAT(Table6[[#This Row],[treatment_1]], "_", Table6[[#This Row],[treatment_2]])</f>
+        <v>sense_branch</v>
+      </c>
+      <c r="H14" t="str">
+        <f ca="1">SUBSTITUTE(Table6[[#This Row],[dir_1]], Table6[[#This Row],[treatment_1]], Table6[[#This Row],[treatments_out]])</f>
+        <v>KO_sgA_R1_sense_branch</v>
+      </c>
+      <c r="I14" t="s">
+        <v>110</v>
+      </c>
+      <c r="J14" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", Table6[[#This Row],[dir_1]], " ", dirs!$A$4, "/", Table6[[#This Row],[dir_2]], " -o ", dirs!$A$4, "/", Table6[[#This Row],[dir_out]], " --subst_type ", Table6[[#This Row],[subst_type]])</f>
+        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/KO_sgA_R1_sense libraries_4/KO_sgA_R1_branch -o libraries_4/KO_sgA_R1_sense_branch --subst_type without</v>
+      </c>
+      <c r="K14" s="2" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table6[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table6[[#This Row],[dir_out]])</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgA_R1_sense_branch</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="str">
+        <f ca="1">OFFSET('3_graph'!$C$3, 3 * QUOTIENT(Table6[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>none</v>
+      </c>
+      <c r="C15" s="4" t="str">
+        <f ca="1">OFFSET('3_graph'!$K$2, 3 * QUOTIENT(Table6[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>sense</v>
+      </c>
+      <c r="D15" t="str">
+        <f ca="1">OFFSET('3_graph'!$B$2, 3 * QUOTIENT(Table6[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>KO_sgA_R1_sense</v>
+      </c>
+      <c r="E15" t="str">
+        <f ca="1">OFFSET('3_graph'!$K$2, 3 * QUOTIENT(Table6[[#This Row],[index]] - 1, 2) + 1 + MOD(Table6[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>cmv</v>
+      </c>
+      <c r="F15" t="str">
+        <f ca="1">OFFSET('3_graph'!$B$2, 3 * QUOTIENT(Table6[[#This Row],[index]] - 1, 2) + 1 + MOD(Table6[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>KO_sgA_R1_cmv</v>
+      </c>
+      <c r="G15" t="str">
+        <f ca="1">_xlfn.CONCAT(Table6[[#This Row],[treatment_1]], "_", Table6[[#This Row],[treatment_2]])</f>
+        <v>sense_cmv</v>
+      </c>
+      <c r="H15" t="str">
+        <f ca="1">SUBSTITUTE(Table6[[#This Row],[dir_1]], Table6[[#This Row],[treatment_1]], Table6[[#This Row],[treatments_out]])</f>
+        <v>KO_sgA_R1_sense_cmv</v>
+      </c>
+      <c r="I15" t="s">
+        <v>110</v>
+      </c>
+      <c r="J15" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", Table6[[#This Row],[dir_1]], " ", dirs!$A$4, "/", Table6[[#This Row],[dir_2]], " -o ", dirs!$A$4, "/", Table6[[#This Row],[dir_out]], " --subst_type ", Table6[[#This Row],[subst_type]])</f>
+        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/KO_sgA_R1_sense libraries_4/KO_sgA_R1_cmv -o libraries_4/KO_sgA_R1_sense_cmv --subst_type without</v>
+      </c>
+      <c r="K15" s="2" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table6[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table6[[#This Row],[dir_out]])</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgA_R1_sense_cmv</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="str">
+        <f ca="1">OFFSET('3_graph'!$C$3, 3 * QUOTIENT(Table6[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>none</v>
+      </c>
+      <c r="C16" s="4" t="str">
+        <f ca="1">OFFSET('3_graph'!$K$2, 3 * QUOTIENT(Table6[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>sense</v>
+      </c>
+      <c r="D16" t="str">
+        <f ca="1">OFFSET('3_graph'!$B$2, 3 * QUOTIENT(Table6[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>KO_sgB_R2_sense</v>
+      </c>
+      <c r="E16" t="str">
+        <f ca="1">OFFSET('3_graph'!$K$2, 3 * QUOTIENT(Table6[[#This Row],[index]] - 1, 2) + 1 + MOD(Table6[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>branch</v>
+      </c>
+      <c r="F16" t="str">
+        <f ca="1">OFFSET('3_graph'!$B$2, 3 * QUOTIENT(Table6[[#This Row],[index]] - 1, 2) + 1 + MOD(Table6[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>KO_sgB_R2_branch</v>
+      </c>
+      <c r="G16" t="str">
+        <f ca="1">_xlfn.CONCAT(Table6[[#This Row],[treatment_1]], "_", Table6[[#This Row],[treatment_2]])</f>
+        <v>sense_branch</v>
+      </c>
+      <c r="H16" t="str">
+        <f ca="1">SUBSTITUTE(Table6[[#This Row],[dir_1]], Table6[[#This Row],[treatment_1]], Table6[[#This Row],[treatments_out]])</f>
+        <v>KO_sgB_R2_sense_branch</v>
+      </c>
+      <c r="I16" t="s">
+        <v>110</v>
+      </c>
+      <c r="J16" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", Table6[[#This Row],[dir_1]], " ", dirs!$A$4, "/", Table6[[#This Row],[dir_2]], " -o ", dirs!$A$4, "/", Table6[[#This Row],[dir_out]], " --subst_type ", Table6[[#This Row],[subst_type]])</f>
+        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/KO_sgB_R2_sense libraries_4/KO_sgB_R2_branch -o libraries_4/KO_sgB_R2_sense_branch --subst_type without</v>
+      </c>
+      <c r="K16" s="2" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table6[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table6[[#This Row],[dir_out]])</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgB_R2_sense_branch</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="str">
+        <f ca="1">OFFSET('3_graph'!$C$3, 3 * QUOTIENT(Table6[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>none</v>
+      </c>
+      <c r="C17" s="4" t="str">
+        <f ca="1">OFFSET('3_graph'!$K$2, 3 * QUOTIENT(Table6[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>sense</v>
+      </c>
+      <c r="D17" t="str">
+        <f ca="1">OFFSET('3_graph'!$B$2, 3 * QUOTIENT(Table6[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>KO_sgB_R2_sense</v>
+      </c>
+      <c r="E17" t="str">
+        <f ca="1">OFFSET('3_graph'!$K$2, 3 * QUOTIENT(Table6[[#This Row],[index]] - 1, 2) + 1 + MOD(Table6[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>cmv</v>
+      </c>
+      <c r="F17" t="str">
+        <f ca="1">OFFSET('3_graph'!$B$2, 3 * QUOTIENT(Table6[[#This Row],[index]] - 1, 2) + 1 + MOD(Table6[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>KO_sgB_R2_cmv</v>
+      </c>
+      <c r="G17" t="str">
+        <f ca="1">_xlfn.CONCAT(Table6[[#This Row],[treatment_1]], "_", Table6[[#This Row],[treatment_2]])</f>
+        <v>sense_cmv</v>
+      </c>
+      <c r="H17" t="str">
+        <f ca="1">SUBSTITUTE(Table6[[#This Row],[dir_1]], Table6[[#This Row],[treatment_1]], Table6[[#This Row],[treatments_out]])</f>
+        <v>KO_sgB_R2_sense_cmv</v>
+      </c>
+      <c r="I17" t="s">
+        <v>110</v>
+      </c>
+      <c r="J17" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", Table6[[#This Row],[dir_1]], " ", dirs!$A$4, "/", Table6[[#This Row],[dir_2]], " -o ", dirs!$A$4, "/", Table6[[#This Row],[dir_out]], " --subst_type ", Table6[[#This Row],[subst_type]])</f>
+        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/KO_sgB_R2_sense libraries_4/KO_sgB_R2_cmv -o libraries_4/KO_sgB_R2_sense_cmv --subst_type without</v>
+      </c>
+      <c r="K17" s="2" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table6[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table6[[#This Row],[dir_out]])</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgB_R2_sense_cmv</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>1</v>
+      </c>
+      <c r="B20" s="4" t="str">
+        <f ca="1">OFFSET('3_graph'!$C$26, 2 * (Table68[[#This Row],[index]] - 1), 0)</f>
+        <v>none</v>
+      </c>
+      <c r="C20" s="4" t="str">
+        <f ca="1">OFFSET('3_graph'!$K$26, 2 * (Table68[[#This Row],[index]] - 1), 0)</f>
+        <v>antisense</v>
+      </c>
+      <c r="D20" t="str">
+        <f ca="1">OFFSET('3_graph'!$B$26, 2 * (Table68[[#This Row],[index]] - 1), 0)</f>
+        <v>WT_sgCD_R1_antisense</v>
+      </c>
+      <c r="E20" t="str">
+        <f ca="1">OFFSET('3_graph'!$K$26, 2 * (Table68[[#This Row],[index]] - 1) + 1, 0)</f>
+        <v>splicing</v>
+      </c>
+      <c r="F20" t="str">
+        <f ca="1">OFFSET('3_graph'!$B$26, 2 * (Table68[[#This Row],[index]] - 1) + 1, 0)</f>
+        <v>WT_sgCD_R1_splicing</v>
+      </c>
+      <c r="G20" t="str">
+        <f ca="1">_xlfn.CONCAT(Table68[[#This Row],[treatment_1]], "_", Table68[[#This Row],[treatment_2]])</f>
+        <v>antisense_splicing</v>
+      </c>
+      <c r="H20" t="str">
+        <f ca="1">SUBSTITUTE(Table68[[#This Row],[dir_1]], Table68[[#This Row],[treatment_1]], Table68[[#This Row],[treatments_out]])</f>
+        <v>WT_sgCD_R1_antisense_splicing</v>
+      </c>
+      <c r="I20" t="s">
+        <v>110</v>
+      </c>
+      <c r="J20" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", Table68[[#This Row],[dir_1]], " ", dirs!$A$4, "/", Table68[[#This Row],[dir_2]], " -o ", dirs!$A$4, "/", Table68[[#This Row],[dir_out]], " --subst_type ", Table68[[#This Row],[subst_type]])</f>
+        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgCD_R1_antisense libraries_4/WT_sgCD_R1_splicing -o libraries_4/WT_sgCD_R1_antisense_splicing --subst_type without</v>
+      </c>
+      <c r="K20" s="2" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table68[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table68[[#This Row],[dir_out]])</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgCD_R1_antisense_splicing</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>2</v>
+      </c>
+      <c r="B21" s="4" t="str">
+        <f ca="1">OFFSET('3_graph'!$C$26, 2 * (Table68[[#This Row],[index]] - 1), 0)</f>
+        <v>none</v>
+      </c>
+      <c r="C21" s="4" t="str">
+        <f ca="1">OFFSET('3_graph'!$K$26, 2 * (Table68[[#This Row],[index]] - 1), 0)</f>
+        <v>antisense</v>
+      </c>
+      <c r="D21" t="str">
+        <f ca="1">OFFSET('3_graph'!$B$26, 2 * (Table68[[#This Row],[index]] - 1), 0)</f>
+        <v>WT_sgCD_R2_antisense</v>
+      </c>
+      <c r="E21" t="str">
+        <f ca="1">OFFSET('3_graph'!$K$26, 2 * (Table68[[#This Row],[index]] - 1) + 1, 0)</f>
+        <v>splicing</v>
+      </c>
+      <c r="F21" t="str">
+        <f ca="1">OFFSET('3_graph'!$B$26, 2 * (Table68[[#This Row],[index]] - 1) + 1, 0)</f>
+        <v>WT_sgCD_R2_splicing</v>
+      </c>
+      <c r="G21" t="str">
+        <f ca="1">_xlfn.CONCAT(Table68[[#This Row],[treatment_1]], "_", Table68[[#This Row],[treatment_2]])</f>
+        <v>antisense_splicing</v>
+      </c>
+      <c r="H21" t="str">
+        <f ca="1">SUBSTITUTE(Table68[[#This Row],[dir_1]], Table68[[#This Row],[treatment_1]], Table68[[#This Row],[treatments_out]])</f>
+        <v>WT_sgCD_R2_antisense_splicing</v>
+      </c>
+      <c r="I21" t="s">
+        <v>110</v>
+      </c>
+      <c r="J21" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", Table68[[#This Row],[dir_1]], " ", dirs!$A$4, "/", Table68[[#This Row],[dir_2]], " -o ", dirs!$A$4, "/", Table68[[#This Row],[dir_out]], " --subst_type ", Table68[[#This Row],[subst_type]])</f>
+        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgCD_R2_antisense libraries_4/WT_sgCD_R2_splicing -o libraries_4/WT_sgCD_R2_antisense_splicing --subst_type without</v>
+      </c>
+      <c r="K21" s="2" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table68[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table68[[#This Row],[dir_out]])</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgCD_R2_antisense_splicing</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>1</v>
+      </c>
+      <c r="B25" s="5" t="str">
+        <f ca="1">OFFSET('3_graph'!$C$30, 3 * QUOTIENT(Table69[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>30bpDown</v>
+      </c>
+      <c r="C25" s="5" t="str">
+        <f ca="1">OFFSET('3_graph'!$K$30, 3 * QUOTIENT(Table69[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>sense</v>
+      </c>
+      <c r="D25" s="2" t="str">
+        <f ca="1">OFFSET('3_graph'!$B$30, 3 * QUOTIENT(Table69[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>WT_sgA_R1_sense_30bpDown</v>
+      </c>
+      <c r="E25" s="2" t="str">
+        <f ca="1">OFFSET('3_graph'!$K$30, 3 * QUOTIENT(Table69[[#This Row],[index]] - 1, 2) + 1 + MOD(Table69[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>branch</v>
+      </c>
+      <c r="F25" s="2" t="str">
+        <f ca="1">OFFSET('3_graph'!$B$30, 3 * QUOTIENT(Table69[[#This Row],[index]] - 1, 2) + 1 + MOD(Table69[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>WT_sgA_R1_branch_30bpDown</v>
+      </c>
+      <c r="G25" s="2" t="str">
+        <f ca="1">_xlfn.CONCAT(Table69[[#This Row],[treatment_1]], "_", Table69[[#This Row],[treatment_2]])</f>
+        <v>sense_branch</v>
+      </c>
+      <c r="H25" s="2" t="str">
+        <f ca="1">SUBSTITUTE(Table69[[#This Row],[dir_1]], Table69[[#This Row],[treatment_1]], Table69[[#This Row],[treatments_out]])</f>
+        <v>WT_sgA_R1_sense_branch_30bpDown</v>
+      </c>
+      <c r="I25" t="s">
+        <v>110</v>
+      </c>
+      <c r="J25" s="2" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", Table69[[#This Row],[dir_1]], " ", dirs!$A$4, "/", Table69[[#This Row],[dir_2]], " -o ", dirs!$A$4, "/", Table69[[#This Row],[dir_out]], " --subst_type ", Table69[[#This Row],[subst_type]])</f>
+        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgA_R1_sense_30bpDown libraries_4/WT_sgA_R1_branch_30bpDown -o libraries_4/WT_sgA_R1_sense_branch_30bpDown --subst_type without</v>
+      </c>
+      <c r="K25" s="2" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table69[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table69[[#This Row],[dir_out]])</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgA_R1_sense_branch_30bpDown</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>2</v>
+      </c>
+      <c r="B26" s="5" t="str">
+        <f ca="1">OFFSET('3_graph'!$C$30, 3 * QUOTIENT(Table69[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>30bpDown</v>
+      </c>
+      <c r="C26" s="5" t="str">
+        <f ca="1">OFFSET('3_graph'!$K$30, 3 * QUOTIENT(Table69[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>sense</v>
+      </c>
+      <c r="D26" s="2" t="str">
+        <f ca="1">OFFSET('3_graph'!$B$30, 3 * QUOTIENT(Table69[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>WT_sgA_R1_sense_30bpDown</v>
+      </c>
+      <c r="E26" s="2" t="str">
+        <f ca="1">OFFSET('3_graph'!$K$30, 3 * QUOTIENT(Table69[[#This Row],[index]] - 1, 2) + 1 + MOD(Table69[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>cmv</v>
+      </c>
+      <c r="F26" s="2" t="str">
+        <f ca="1">OFFSET('3_graph'!$B$30, 3 * QUOTIENT(Table69[[#This Row],[index]] - 1, 2) + 1 + MOD(Table69[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>WT_sgA_R1_cmv_30bpDown</v>
+      </c>
+      <c r="G26" s="2" t="str">
+        <f ca="1">_xlfn.CONCAT(Table69[[#This Row],[treatment_1]], "_", Table69[[#This Row],[treatment_2]])</f>
+        <v>sense_cmv</v>
+      </c>
+      <c r="H26" s="2" t="str">
+        <f ca="1">SUBSTITUTE(Table69[[#This Row],[dir_1]], Table69[[#This Row],[treatment_1]], Table69[[#This Row],[treatments_out]])</f>
+        <v>WT_sgA_R1_sense_cmv_30bpDown</v>
+      </c>
+      <c r="I26" t="s">
+        <v>110</v>
+      </c>
+      <c r="J26" s="2" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", Table69[[#This Row],[dir_1]], " ", dirs!$A$4, "/", Table69[[#This Row],[dir_2]], " -o ", dirs!$A$4, "/", Table69[[#This Row],[dir_out]], " --subst_type ", Table69[[#This Row],[subst_type]])</f>
+        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgA_R1_sense_30bpDown libraries_4/WT_sgA_R1_cmv_30bpDown -o libraries_4/WT_sgA_R1_sense_cmv_30bpDown --subst_type without</v>
+      </c>
+      <c r="K26" s="2" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table69[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table69[[#This Row],[dir_out]])</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgA_R1_sense_cmv_30bpDown</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>3</v>
+      </c>
+      <c r="B27" s="4" t="str">
+        <f ca="1">OFFSET('3_graph'!$C$30, 3 * QUOTIENT(Table69[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>30bpDown</v>
+      </c>
+      <c r="C27" s="4" t="str">
+        <f ca="1">OFFSET('3_graph'!$K$30, 3 * QUOTIENT(Table69[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>sense</v>
+      </c>
+      <c r="D27" t="str">
+        <f ca="1">OFFSET('3_graph'!$B$30, 3 * QUOTIENT(Table69[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>WT_sgB_R2_sense_30bpDown</v>
+      </c>
+      <c r="E27" t="str">
+        <f ca="1">OFFSET('3_graph'!$K$30, 3 * QUOTIENT(Table69[[#This Row],[index]] - 1, 2) + 1 + MOD(Table69[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>branch</v>
+      </c>
+      <c r="F27" t="str">
+        <f ca="1">OFFSET('3_graph'!$B$30, 3 * QUOTIENT(Table69[[#This Row],[index]] - 1, 2) + 1 + MOD(Table69[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>WT_sgB_R2_branch_30bpDown</v>
+      </c>
+      <c r="G27" t="str">
+        <f ca="1">_xlfn.CONCAT(Table69[[#This Row],[treatment_1]], "_", Table69[[#This Row],[treatment_2]])</f>
+        <v>sense_branch</v>
+      </c>
+      <c r="H27" t="str">
+        <f ca="1">SUBSTITUTE(Table69[[#This Row],[dir_1]], Table69[[#This Row],[treatment_1]], Table69[[#This Row],[treatments_out]])</f>
+        <v>WT_sgB_R2_sense_branch_30bpDown</v>
+      </c>
+      <c r="I27" t="s">
+        <v>110</v>
+      </c>
+      <c r="J27" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", Table69[[#This Row],[dir_1]], " ", dirs!$A$4, "/", Table69[[#This Row],[dir_2]], " -o ", dirs!$A$4, "/", Table69[[#This Row],[dir_out]], " --subst_type ", Table69[[#This Row],[subst_type]])</f>
+        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgB_R2_sense_30bpDown libraries_4/WT_sgB_R2_branch_30bpDown -o libraries_4/WT_sgB_R2_sense_branch_30bpDown --subst_type without</v>
+      </c>
+      <c r="K27" s="2" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table69[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table69[[#This Row],[dir_out]])</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgB_R2_sense_branch_30bpDown</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>4</v>
+      </c>
+      <c r="B28" s="4" t="str">
+        <f ca="1">OFFSET('3_graph'!$C$30, 3 * QUOTIENT(Table69[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>30bpDown</v>
+      </c>
+      <c r="C28" s="4" t="str">
+        <f ca="1">OFFSET('3_graph'!$K$30, 3 * QUOTIENT(Table69[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>sense</v>
+      </c>
+      <c r="D28" t="str">
+        <f ca="1">OFFSET('3_graph'!$B$30, 3 * QUOTIENT(Table69[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>WT_sgB_R2_sense_30bpDown</v>
+      </c>
+      <c r="E28" t="str">
+        <f ca="1">OFFSET('3_graph'!$K$30, 3 * QUOTIENT(Table69[[#This Row],[index]] - 1, 2) + 1 + MOD(Table69[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>cmv</v>
+      </c>
+      <c r="F28" t="str">
+        <f ca="1">OFFSET('3_graph'!$B$30, 3 * QUOTIENT(Table69[[#This Row],[index]] - 1, 2) + 1 + MOD(Table69[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>WT_sgB_R2_cmv_30bpDown</v>
+      </c>
+      <c r="G28" t="str">
+        <f ca="1">_xlfn.CONCAT(Table69[[#This Row],[treatment_1]], "_", Table69[[#This Row],[treatment_2]])</f>
+        <v>sense_cmv</v>
+      </c>
+      <c r="H28" t="str">
+        <f ca="1">SUBSTITUTE(Table69[[#This Row],[dir_1]], Table69[[#This Row],[treatment_1]], Table69[[#This Row],[treatments_out]])</f>
+        <v>WT_sgB_R2_sense_cmv_30bpDown</v>
+      </c>
+      <c r="I28" t="s">
+        <v>110</v>
+      </c>
+      <c r="J28" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", Table69[[#This Row],[dir_1]], " ", dirs!$A$4, "/", Table69[[#This Row],[dir_2]], " -o ", dirs!$A$4, "/", Table69[[#This Row],[dir_out]], " --subst_type ", Table69[[#This Row],[subst_type]])</f>
+        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgB_R2_sense_30bpDown libraries_4/WT_sgB_R2_cmv_30bpDown -o libraries_4/WT_sgB_R2_sense_cmv_30bpDown --subst_type without</v>
+      </c>
+      <c r="K28" s="2" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table69[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table69[[#This Row],[dir_out]])</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgB_R2_sense_cmv_30bpDown</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>5</v>
+      </c>
+      <c r="B29" s="4" t="str">
+        <f ca="1">OFFSET('3_graph'!$C$30, 3 * QUOTIENT(Table69[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>30bpDown</v>
+      </c>
+      <c r="C29" s="4" t="str">
+        <f ca="1">OFFSET('3_graph'!$K$30, 3 * QUOTIENT(Table69[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>sense</v>
+      </c>
+      <c r="D29" t="str">
+        <f ca="1">OFFSET('3_graph'!$B$30, 3 * QUOTIENT(Table69[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>KO_sgA_R1_sense_30bpDown</v>
+      </c>
+      <c r="E29" t="str">
+        <f ca="1">OFFSET('3_graph'!$K$30, 3 * QUOTIENT(Table69[[#This Row],[index]] - 1, 2) + 1 + MOD(Table69[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>branch</v>
+      </c>
+      <c r="F29" t="str">
+        <f ca="1">OFFSET('3_graph'!$B$30, 3 * QUOTIENT(Table69[[#This Row],[index]] - 1, 2) + 1 + MOD(Table69[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>KO_sgA_R1_branch_30bpDown</v>
+      </c>
+      <c r="G29" t="str">
+        <f ca="1">_xlfn.CONCAT(Table69[[#This Row],[treatment_1]], "_", Table69[[#This Row],[treatment_2]])</f>
+        <v>sense_branch</v>
+      </c>
+      <c r="H29" t="str">
+        <f ca="1">SUBSTITUTE(Table69[[#This Row],[dir_1]], Table69[[#This Row],[treatment_1]], Table69[[#This Row],[treatments_out]])</f>
+        <v>KO_sgA_R1_sense_branch_30bpDown</v>
+      </c>
+      <c r="I29" t="s">
+        <v>110</v>
+      </c>
+      <c r="J29" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", Table69[[#This Row],[dir_1]], " ", dirs!$A$4, "/", Table69[[#This Row],[dir_2]], " -o ", dirs!$A$4, "/", Table69[[#This Row],[dir_out]], " --subst_type ", Table69[[#This Row],[subst_type]])</f>
+        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/KO_sgA_R1_sense_30bpDown libraries_4/KO_sgA_R1_branch_30bpDown -o libraries_4/KO_sgA_R1_sense_branch_30bpDown --subst_type without</v>
+      </c>
+      <c r="K29" s="2" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table69[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table69[[#This Row],[dir_out]])</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgA_R1_sense_branch_30bpDown</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>6</v>
+      </c>
+      <c r="B30" s="4" t="str">
+        <f ca="1">OFFSET('3_graph'!$C$30, 3 * QUOTIENT(Table69[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>30bpDown</v>
+      </c>
+      <c r="C30" s="4" t="str">
+        <f ca="1">OFFSET('3_graph'!$K$30, 3 * QUOTIENT(Table69[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>sense</v>
+      </c>
+      <c r="D30" t="str">
+        <f ca="1">OFFSET('3_graph'!$B$30, 3 * QUOTIENT(Table69[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>KO_sgA_R1_sense_30bpDown</v>
+      </c>
+      <c r="E30" t="str">
+        <f ca="1">OFFSET('3_graph'!$K$30, 3 * QUOTIENT(Table69[[#This Row],[index]] - 1, 2) + 1 + MOD(Table69[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>cmv</v>
+      </c>
+      <c r="F30" t="str">
+        <f ca="1">OFFSET('3_graph'!$B$30, 3 * QUOTIENT(Table69[[#This Row],[index]] - 1, 2) + 1 + MOD(Table69[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>KO_sgA_R1_cmv_30bpDown</v>
+      </c>
+      <c r="G30" t="str">
+        <f ca="1">_xlfn.CONCAT(Table69[[#This Row],[treatment_1]], "_", Table69[[#This Row],[treatment_2]])</f>
+        <v>sense_cmv</v>
+      </c>
+      <c r="H30" t="str">
+        <f ca="1">SUBSTITUTE(Table69[[#This Row],[dir_1]], Table69[[#This Row],[treatment_1]], Table69[[#This Row],[treatments_out]])</f>
+        <v>KO_sgA_R1_sense_cmv_30bpDown</v>
+      </c>
+      <c r="I30" t="s">
+        <v>110</v>
+      </c>
+      <c r="J30" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", Table69[[#This Row],[dir_1]], " ", dirs!$A$4, "/", Table69[[#This Row],[dir_2]], " -o ", dirs!$A$4, "/", Table69[[#This Row],[dir_out]], " --subst_type ", Table69[[#This Row],[subst_type]])</f>
+        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/KO_sgA_R1_sense_30bpDown libraries_4/KO_sgA_R1_cmv_30bpDown -o libraries_4/KO_sgA_R1_sense_cmv_30bpDown --subst_type without</v>
+      </c>
+      <c r="K30" s="2" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table69[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table69[[#This Row],[dir_out]])</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgA_R1_sense_cmv_30bpDown</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>7</v>
+      </c>
+      <c r="B31" s="4" t="str">
+        <f ca="1">OFFSET('3_graph'!$C$30, 3 * QUOTIENT(Table69[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>30bpDown</v>
+      </c>
+      <c r="C31" s="4" t="str">
+        <f ca="1">OFFSET('3_graph'!$K$30, 3 * QUOTIENT(Table69[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>sense</v>
+      </c>
+      <c r="D31" t="str">
+        <f ca="1">OFFSET('3_graph'!$B$30, 3 * QUOTIENT(Table69[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>KO_sgB_R2_sense_30bpDown</v>
+      </c>
+      <c r="E31" t="str">
+        <f ca="1">OFFSET('3_graph'!$K$30, 3 * QUOTIENT(Table69[[#This Row],[index]] - 1, 2) + 1 + MOD(Table69[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>branch</v>
+      </c>
+      <c r="F31" t="str">
+        <f ca="1">OFFSET('3_graph'!$B$30, 3 * QUOTIENT(Table69[[#This Row],[index]] - 1, 2) + 1 + MOD(Table69[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>KO_sgB_R2_branch_30bpDown</v>
+      </c>
+      <c r="G31" t="str">
+        <f ca="1">_xlfn.CONCAT(Table69[[#This Row],[treatment_1]], "_", Table69[[#This Row],[treatment_2]])</f>
+        <v>sense_branch</v>
+      </c>
+      <c r="H31" t="str">
+        <f ca="1">SUBSTITUTE(Table69[[#This Row],[dir_1]], Table69[[#This Row],[treatment_1]], Table69[[#This Row],[treatments_out]])</f>
+        <v>KO_sgB_R2_sense_branch_30bpDown</v>
+      </c>
+      <c r="I31" t="s">
+        <v>110</v>
+      </c>
+      <c r="J31" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", Table69[[#This Row],[dir_1]], " ", dirs!$A$4, "/", Table69[[#This Row],[dir_2]], " -o ", dirs!$A$4, "/", Table69[[#This Row],[dir_out]], " --subst_type ", Table69[[#This Row],[subst_type]])</f>
+        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/KO_sgB_R2_sense_30bpDown libraries_4/KO_sgB_R2_branch_30bpDown -o libraries_4/KO_sgB_R2_sense_branch_30bpDown --subst_type without</v>
+      </c>
+      <c r="K31" s="2" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table69[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table69[[#This Row],[dir_out]])</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgB_R2_sense_branch_30bpDown</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>8</v>
+      </c>
+      <c r="B32" s="4" t="str">
+        <f ca="1">OFFSET('3_graph'!$C$30, 3 * QUOTIENT(Table69[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>30bpDown</v>
+      </c>
+      <c r="C32" s="4" t="str">
+        <f ca="1">OFFSET('3_graph'!$K$30, 3 * QUOTIENT(Table69[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>sense</v>
+      </c>
+      <c r="D32" t="str">
+        <f ca="1">OFFSET('3_graph'!$B$30, 3 * QUOTIENT(Table69[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>KO_sgB_R2_sense_30bpDown</v>
+      </c>
+      <c r="E32" t="str">
+        <f ca="1">OFFSET('3_graph'!$K$30, 3 * QUOTIENT(Table69[[#This Row],[index]] - 1, 2) + 1 + MOD(Table69[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>cmv</v>
+      </c>
+      <c r="F32" t="str">
+        <f ca="1">OFFSET('3_graph'!$B$30, 3 * QUOTIENT(Table69[[#This Row],[index]] - 1, 2) + 1 + MOD(Table69[[#This Row],[index]] - 1, 2), 0)</f>
+        <v>KO_sgB_R2_cmv_30bpDown</v>
+      </c>
+      <c r="G32" t="str">
+        <f ca="1">_xlfn.CONCAT(Table69[[#This Row],[treatment_1]], "_", Table69[[#This Row],[treatment_2]])</f>
+        <v>sense_cmv</v>
+      </c>
+      <c r="H32" t="str">
+        <f ca="1">SUBSTITUTE(Table69[[#This Row],[dir_1]], Table69[[#This Row],[treatment_1]], Table69[[#This Row],[treatments_out]])</f>
+        <v>KO_sgB_R2_sense_cmv_30bpDown</v>
+      </c>
+      <c r="I32" t="s">
+        <v>110</v>
+      </c>
+      <c r="J32" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", Table69[[#This Row],[dir_1]], " ", dirs!$A$4, "/", Table69[[#This Row],[dir_2]], " -o ", dirs!$A$4, "/", Table69[[#This Row],[dir_out]], " --subst_type ", Table69[[#This Row],[subst_type]])</f>
+        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/KO_sgB_R2_sense_30bpDown libraries_4/KO_sgB_R2_cmv_30bpDown -o libraries_4/KO_sgB_R2_sense_cmv_30bpDown --subst_type without</v>
+      </c>
+      <c r="K32" s="2" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table69[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table69[[#This Row],[dir_out]])</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgB_R2_sense_cmv_30bpDown</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="3">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AC74B07-ACD4-4AD0-8075-02C892CA7D65}">
-  <dimension ref="A1:N13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FCC207B-A9CD-4866-A17E-A3EE763F139F}">
+  <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17508,16 +19912,16 @@
     <col min="2" max="3" width="31.28515625" customWidth="1"/>
     <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" customWidth="1"/>
+    <col min="7" max="7" width="21" customWidth="1"/>
+    <col min="8" max="9" width="9.28515625" customWidth="1"/>
     <col min="10" max="10" width="12.140625" customWidth="1"/>
     <col min="11" max="11" width="12.85546875" customWidth="1"/>
     <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="51" customWidth="1"/>
-    <col min="14" max="14" width="13.28515625" customWidth="1"/>
+    <col min="14" max="14" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>116</v>
       </c>
@@ -17557,1163 +19961,2808 @@
       <c r="M1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" t="str">
-        <f>Table4[[#This Row],[output_dir]]</f>
-        <v>WT_sgA_R1_sense_nodsb</v>
+        <f ca="1">'2_combined'!J3</f>
+        <v>WT_sgAB_R1_sense</v>
       </c>
       <c r="C2" t="str">
-        <f>Table4[[#This Row],[control]]</f>
-        <v>nodsb</v>
+        <f ca="1">'2_combined'!C3</f>
+        <v>none</v>
       </c>
       <c r="D2" t="str">
-        <f>Table4[[#This Row],[ref]]</f>
-        <v>1DSB_R1_sense.fa</v>
+        <f ca="1">'2_combined'!B3</f>
+        <v>2DSB_R1_sense.fa</v>
       </c>
       <c r="E2">
         <f ca="1">'2_combined'!E3</f>
         <v>67</v>
       </c>
       <c r="F2" t="str">
-        <f>Table4[[#This Row],[dsb]]</f>
-        <v>1DSB</v>
+        <f ca="1">'2_combined'!D3</f>
+        <v>2DSB</v>
       </c>
       <c r="G2" t="str" cm="1">
-        <f t="array" ref="G2">IF(Table53[[#This Row],[dsb_type]]="2DSB", "2", IF(Table53[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table53[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
-        <v>1</v>
+        <f t="array" aca="1" ref="G2" ca="1">IF(Table513[[#This Row],[dsb_type]]="2DSB", "2", IF(Table513[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table513[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>2</v>
       </c>
       <c r="H2" t="str">
-        <f>Table4[[#This Row],[strand]]</f>
+        <f ca="1">'2_combined'!G3</f>
         <v>R1</v>
       </c>
       <c r="I2" t="str">
-        <f>MID(Table4[[#This Row],[hguide]], 3, 100)</f>
-        <v>A</v>
+        <f ca="1">MID('2_combined'!I3, 3, 100)</f>
+        <v>AB</v>
       </c>
       <c r="J2" t="str">
-        <f>Table4[[#This Row],[cell]]</f>
+        <f ca="1">'2_combined'!F3</f>
         <v>WT</v>
       </c>
       <c r="K2" t="str">
-        <f>Table4[[#This Row],[treatment]]</f>
+        <f ca="1">'2_combined'!H3</f>
         <v>sense</v>
       </c>
       <c r="L2" t="s">
         <v>110</v>
       </c>
       <c r="M2" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/",Table53[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table53[[#This Row],[dir]], " -ref ref_seq/", Table53[[#This Row],[ref]], " -dsb ", Table53[[#This Row],[dsb_pos]], " --dsb_type ",Table53[[#This Row],[dsb_type_command]], " --strand ", Table53[[#This Row],[strand]], " --hguide ", Table53[[#This Row],[hguide]], " --cell ", Table53[[#This Row],[cell]], " --treatment ", Table53[[#This Row],[treatment]], " --subst_type ", Table53[[#This Row],[subst_type]])</f>
-        <v>python 2_graph_processing/make_main_data.py -in libraries_3/WT_sgA_R1_sense_nodsb.tsv -o libraries_4/WT_sgA_R1_sense_nodsb -ref ref_seq/1DSB_R1_sense.fa -dsb 67 --dsb_type 1 --strand R1 --hguide A --cell WT --treatment sense --subst_type without</v>
-      </c>
-      <c r="N2" t="str">
-        <f>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without ",  " -dir ", dirs!$A$4, "/", Table53[[#This Row],[dir]])</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/WT_sgA_R1_sense_nodsb</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", dirs!$A$4, "/",Table513[[#This Row],[dir]], " -o ", dirs!$A$5, "/")</f>
+        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/WT_sgAB_R1_sense -o libraries_5/</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" t="str">
-        <f>Table4[[#This Row],[output_dir]]</f>
-        <v>WT_sgB_R2_sense_nodsb</v>
+        <f ca="1">'2_combined'!J4</f>
+        <v>WT_sgAB_R1_branch</v>
       </c>
       <c r="C3" t="str">
-        <f>Table4[[#This Row],[control]]</f>
-        <v>nodsb</v>
+        <f ca="1">'2_combined'!C4</f>
+        <v>none</v>
       </c>
       <c r="D3" t="str">
-        <f>Table4[[#This Row],[ref]]</f>
-        <v>1DSB_R2_sense.fa</v>
+        <f ca="1">'2_combined'!B4</f>
+        <v>2DSB_R1_branch.fa</v>
       </c>
       <c r="E3">
         <f ca="1">'2_combined'!E4</f>
         <v>67</v>
       </c>
       <c r="F3" t="str">
-        <f>Table4[[#This Row],[dsb]]</f>
-        <v>1DSB</v>
+        <f ca="1">'2_combined'!D4</f>
+        <v>2DSB</v>
       </c>
       <c r="G3" t="str" cm="1">
-        <f t="array" ref="G3">IF(Table53[[#This Row],[dsb_type]]="2DSB", "2", IF(Table53[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table53[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
-        <v>1</v>
+        <f t="array" aca="1" ref="G3" ca="1">IF(Table513[[#This Row],[dsb_type]]="2DSB", "2", IF(Table513[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table513[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>2</v>
       </c>
       <c r="H3" t="str">
-        <f>Table4[[#This Row],[strand]]</f>
-        <v>R2</v>
+        <f ca="1">'2_combined'!G4</f>
+        <v>R1</v>
       </c>
       <c r="I3" t="str">
-        <f>MID(Table4[[#This Row],[hguide]], 3, 100)</f>
-        <v>B</v>
+        <f ca="1">MID('2_combined'!I4, 3, 100)</f>
+        <v>AB</v>
       </c>
       <c r="J3" t="str">
-        <f>Table4[[#This Row],[cell]]</f>
+        <f ca="1">'2_combined'!F4</f>
         <v>WT</v>
       </c>
       <c r="K3" t="str">
-        <f>Table4[[#This Row],[treatment]]</f>
-        <v>sense</v>
+        <f ca="1">'2_combined'!H4</f>
+        <v>branch</v>
       </c>
       <c r="L3" t="s">
         <v>110</v>
       </c>
       <c r="M3" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/",Table53[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table53[[#This Row],[dir]], " -ref ref_seq/", Table53[[#This Row],[ref]], " -dsb ", Table53[[#This Row],[dsb_pos]], " --dsb_type ",Table53[[#This Row],[dsb_type_command]], " --strand ", Table53[[#This Row],[strand]], " --hguide ", Table53[[#This Row],[hguide]], " --cell ", Table53[[#This Row],[cell]], " --treatment ", Table53[[#This Row],[treatment]], " --subst_type ", Table53[[#This Row],[subst_type]])</f>
-        <v>python 2_graph_processing/make_main_data.py -in libraries_3/WT_sgB_R2_sense_nodsb.tsv -o libraries_4/WT_sgB_R2_sense_nodsb -ref ref_seq/1DSB_R2_sense.fa -dsb 67 --dsb_type 1 --strand R2 --hguide B --cell WT --treatment sense --subst_type without</v>
-      </c>
-      <c r="N3" t="str">
-        <f>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without ",  " -dir ", dirs!$A$4, "/", Table53[[#This Row],[dir]])</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/WT_sgB_R2_sense_nodsb</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", dirs!$A$4, "/",Table513[[#This Row],[dir]], " -o ", dirs!$A$5, "/")</f>
+        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/WT_sgAB_R1_branch -o libraries_5/</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" t="str">
-        <f>Table4[[#This Row],[output_dir]]</f>
-        <v>WT_sgA_R1_branch_nodsb</v>
+        <f ca="1">'2_combined'!J5</f>
+        <v>WT_sgAB_R1_cmv</v>
       </c>
       <c r="C4" t="str">
-        <f>Table4[[#This Row],[control]]</f>
-        <v>nodsb</v>
+        <f ca="1">'2_combined'!C5</f>
+        <v>none</v>
       </c>
       <c r="D4" t="str">
-        <f>Table4[[#This Row],[ref]]</f>
-        <v>1DSB_R1_branch.fa</v>
+        <f ca="1">'2_combined'!B5</f>
+        <v>2DSB_R1_cmv.fa</v>
       </c>
       <c r="E4">
         <f ca="1">'2_combined'!E5</f>
         <v>67</v>
       </c>
       <c r="F4" t="str">
-        <f>Table4[[#This Row],[dsb]]</f>
-        <v>1DSB</v>
+        <f ca="1">'2_combined'!D5</f>
+        <v>2DSB</v>
       </c>
       <c r="G4" t="str" cm="1">
-        <f t="array" ref="G4">IF(Table53[[#This Row],[dsb_type]]="2DSB", "2", IF(Table53[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table53[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
-        <v>1</v>
+        <f t="array" aca="1" ref="G4" ca="1">IF(Table513[[#This Row],[dsb_type]]="2DSB", "2", IF(Table513[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table513[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>2</v>
       </c>
       <c r="H4" t="str">
-        <f>Table4[[#This Row],[strand]]</f>
+        <f ca="1">'2_combined'!G5</f>
         <v>R1</v>
       </c>
       <c r="I4" t="str">
-        <f>MID(Table4[[#This Row],[hguide]], 3, 100)</f>
-        <v>A</v>
+        <f ca="1">MID('2_combined'!I5, 3, 100)</f>
+        <v>AB</v>
       </c>
       <c r="J4" t="str">
-        <f>Table4[[#This Row],[cell]]</f>
+        <f ca="1">'2_combined'!F5</f>
         <v>WT</v>
       </c>
       <c r="K4" t="str">
-        <f>Table4[[#This Row],[treatment]]</f>
-        <v>branch</v>
+        <f ca="1">'2_combined'!H5</f>
+        <v>cmv</v>
       </c>
       <c r="L4" t="s">
         <v>110</v>
       </c>
       <c r="M4" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/",Table53[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table53[[#This Row],[dir]], " -ref ref_seq/", Table53[[#This Row],[ref]], " -dsb ", Table53[[#This Row],[dsb_pos]], " --dsb_type ",Table53[[#This Row],[dsb_type_command]], " --strand ", Table53[[#This Row],[strand]], " --hguide ", Table53[[#This Row],[hguide]], " --cell ", Table53[[#This Row],[cell]], " --treatment ", Table53[[#This Row],[treatment]], " --subst_type ", Table53[[#This Row],[subst_type]])</f>
-        <v>python 2_graph_processing/make_main_data.py -in libraries_3/WT_sgA_R1_branch_nodsb.tsv -o libraries_4/WT_sgA_R1_branch_nodsb -ref ref_seq/1DSB_R1_branch.fa -dsb 67 --dsb_type 1 --strand R1 --hguide A --cell WT --treatment branch --subst_type without</v>
-      </c>
-      <c r="N4" t="str">
-        <f>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without ",  " -dir ", dirs!$A$4, "/", Table53[[#This Row],[dir]])</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/WT_sgA_R1_branch_nodsb</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", dirs!$A$4, "/",Table513[[#This Row],[dir]], " -o ", dirs!$A$5, "/")</f>
+        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/WT_sgAB_R1_cmv -o libraries_5/</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" t="str">
-        <f>Table4[[#This Row],[output_dir]]</f>
-        <v>WT_sgB_R2_branch_nodsb</v>
+        <f ca="1">'2_combined'!J6</f>
+        <v>KO_sgAB_R1_sense</v>
       </c>
       <c r="C5" t="str">
-        <f>Table4[[#This Row],[control]]</f>
-        <v>nodsb</v>
+        <f ca="1">'2_combined'!C6</f>
+        <v>none</v>
       </c>
       <c r="D5" t="str">
-        <f>Table4[[#This Row],[ref]]</f>
-        <v>1DSB_R2_branch.fa</v>
+        <f ca="1">'2_combined'!B6</f>
+        <v>2DSB_R1_sense.fa</v>
       </c>
       <c r="E5">
         <f ca="1">'2_combined'!E6</f>
         <v>67</v>
       </c>
       <c r="F5" t="str">
-        <f>Table4[[#This Row],[dsb]]</f>
-        <v>1DSB</v>
+        <f ca="1">'2_combined'!D6</f>
+        <v>2DSB</v>
       </c>
       <c r="G5" t="str" cm="1">
-        <f t="array" ref="G5">IF(Table53[[#This Row],[dsb_type]]="2DSB", "2", IF(Table53[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table53[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
-        <v>1</v>
+        <f t="array" aca="1" ref="G5" ca="1">IF(Table513[[#This Row],[dsb_type]]="2DSB", "2", IF(Table513[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table513[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>2</v>
       </c>
       <c r="H5" t="str">
-        <f>Table4[[#This Row],[strand]]</f>
-        <v>R2</v>
+        <f ca="1">'2_combined'!G6</f>
+        <v>R1</v>
       </c>
       <c r="I5" t="str">
-        <f>MID(Table4[[#This Row],[hguide]], 3, 100)</f>
-        <v>B</v>
+        <f ca="1">MID('2_combined'!I6, 3, 100)</f>
+        <v>AB</v>
       </c>
       <c r="J5" t="str">
-        <f>Table4[[#This Row],[cell]]</f>
-        <v>WT</v>
+        <f ca="1">'2_combined'!F6</f>
+        <v>KO</v>
       </c>
       <c r="K5" t="str">
-        <f>Table4[[#This Row],[treatment]]</f>
-        <v>branch</v>
+        <f ca="1">'2_combined'!H6</f>
+        <v>sense</v>
       </c>
       <c r="L5" t="s">
         <v>110</v>
       </c>
       <c r="M5" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/",Table53[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table53[[#This Row],[dir]], " -ref ref_seq/", Table53[[#This Row],[ref]], " -dsb ", Table53[[#This Row],[dsb_pos]], " --dsb_type ",Table53[[#This Row],[dsb_type_command]], " --strand ", Table53[[#This Row],[strand]], " --hguide ", Table53[[#This Row],[hguide]], " --cell ", Table53[[#This Row],[cell]], " --treatment ", Table53[[#This Row],[treatment]], " --subst_type ", Table53[[#This Row],[subst_type]])</f>
-        <v>python 2_graph_processing/make_main_data.py -in libraries_3/WT_sgB_R2_branch_nodsb.tsv -o libraries_4/WT_sgB_R2_branch_nodsb -ref ref_seq/1DSB_R2_branch.fa -dsb 67 --dsb_type 1 --strand R2 --hguide B --cell WT --treatment branch --subst_type without</v>
-      </c>
-      <c r="N5" t="str">
-        <f>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without ",  " -dir ", dirs!$A$4, "/", Table53[[#This Row],[dir]])</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/WT_sgB_R2_branch_nodsb</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", dirs!$A$4, "/",Table513[[#This Row],[dir]], " -o ", dirs!$A$5, "/")</f>
+        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/KO_sgAB_R1_sense -o libraries_5/</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" t="str">
-        <f>Table4[[#This Row],[output_dir]]</f>
-        <v>WT_sgA_R1_cmv_nodsb</v>
+        <f ca="1">'2_combined'!J7</f>
+        <v>KO_sgAB_R1_branch</v>
       </c>
       <c r="C6" t="str">
-        <f>Table4[[#This Row],[control]]</f>
-        <v>nodsb</v>
+        <f ca="1">'2_combined'!C7</f>
+        <v>none</v>
       </c>
       <c r="D6" t="str">
-        <f>Table4[[#This Row],[ref]]</f>
-        <v>1DSB_R1_cmv.fa</v>
+        <f ca="1">'2_combined'!B7</f>
+        <v>2DSB_R1_branch.fa</v>
       </c>
       <c r="E6">
         <f ca="1">'2_combined'!E7</f>
         <v>67</v>
       </c>
       <c r="F6" t="str">
-        <f>Table4[[#This Row],[dsb]]</f>
-        <v>1DSB</v>
+        <f ca="1">'2_combined'!D7</f>
+        <v>2DSB</v>
       </c>
       <c r="G6" t="str" cm="1">
-        <f t="array" ref="G6">IF(Table53[[#This Row],[dsb_type]]="2DSB", "2", IF(Table53[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table53[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
-        <v>1</v>
+        <f t="array" aca="1" ref="G6" ca="1">IF(Table513[[#This Row],[dsb_type]]="2DSB", "2", IF(Table513[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table513[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>2</v>
       </c>
       <c r="H6" t="str">
-        <f>Table4[[#This Row],[strand]]</f>
+        <f ca="1">'2_combined'!G7</f>
         <v>R1</v>
       </c>
       <c r="I6" t="str">
-        <f>MID(Table4[[#This Row],[hguide]], 3, 100)</f>
-        <v>A</v>
+        <f ca="1">MID('2_combined'!I7, 3, 100)</f>
+        <v>AB</v>
       </c>
       <c r="J6" t="str">
-        <f>Table4[[#This Row],[cell]]</f>
-        <v>WT</v>
+        <f ca="1">'2_combined'!F7</f>
+        <v>KO</v>
       </c>
       <c r="K6" t="str">
-        <f>Table4[[#This Row],[treatment]]</f>
-        <v>cmv</v>
+        <f ca="1">'2_combined'!H7</f>
+        <v>branch</v>
       </c>
       <c r="L6" t="s">
         <v>110</v>
       </c>
       <c r="M6" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/",Table53[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table53[[#This Row],[dir]], " -ref ref_seq/", Table53[[#This Row],[ref]], " -dsb ", Table53[[#This Row],[dsb_pos]], " --dsb_type ",Table53[[#This Row],[dsb_type_command]], " --strand ", Table53[[#This Row],[strand]], " --hguide ", Table53[[#This Row],[hguide]], " --cell ", Table53[[#This Row],[cell]], " --treatment ", Table53[[#This Row],[treatment]], " --subst_type ", Table53[[#This Row],[subst_type]])</f>
-        <v>python 2_graph_processing/make_main_data.py -in libraries_3/WT_sgA_R1_cmv_nodsb.tsv -o libraries_4/WT_sgA_R1_cmv_nodsb -ref ref_seq/1DSB_R1_cmv.fa -dsb 67 --dsb_type 1 --strand R1 --hguide A --cell WT --treatment cmv --subst_type without</v>
-      </c>
-      <c r="N6" t="str">
-        <f>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without ",  " -dir ", dirs!$A$4, "/", Table53[[#This Row],[dir]])</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/WT_sgA_R1_cmv_nodsb</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", dirs!$A$4, "/",Table513[[#This Row],[dir]], " -o ", dirs!$A$5, "/")</f>
+        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/KO_sgAB_R1_branch -o libraries_5/</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" t="str">
-        <f>Table4[[#This Row],[output_dir]]</f>
-        <v>WT_sgB_R2_cmv_nodsb</v>
+        <f ca="1">'2_combined'!J8</f>
+        <v>KO_sgAB_R1_cmv</v>
       </c>
       <c r="C7" t="str">
-        <f>Table4[[#This Row],[control]]</f>
-        <v>nodsb</v>
+        <f ca="1">'2_combined'!C8</f>
+        <v>none</v>
       </c>
       <c r="D7" t="str">
-        <f>Table4[[#This Row],[ref]]</f>
-        <v>1DSB_R2_cmv.fa</v>
+        <f ca="1">'2_combined'!B8</f>
+        <v>2DSB_R1_cmv.fa</v>
       </c>
       <c r="E7">
         <f ca="1">'2_combined'!E8</f>
         <v>67</v>
       </c>
       <c r="F7" t="str">
-        <f>Table4[[#This Row],[dsb]]</f>
-        <v>1DSB</v>
+        <f ca="1">'2_combined'!D8</f>
+        <v>2DSB</v>
       </c>
       <c r="G7" t="str" cm="1">
-        <f t="array" ref="G7">IF(Table53[[#This Row],[dsb_type]]="2DSB", "2", IF(Table53[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table53[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
-        <v>1</v>
+        <f t="array" aca="1" ref="G7" ca="1">IF(Table513[[#This Row],[dsb_type]]="2DSB", "2", IF(Table513[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table513[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>2</v>
       </c>
       <c r="H7" t="str">
-        <f>Table4[[#This Row],[strand]]</f>
-        <v>R2</v>
+        <f ca="1">'2_combined'!G8</f>
+        <v>R1</v>
       </c>
       <c r="I7" t="str">
-        <f>MID(Table4[[#This Row],[hguide]], 3, 100)</f>
-        <v>B</v>
+        <f ca="1">MID('2_combined'!I8, 3, 100)</f>
+        <v>AB</v>
       </c>
       <c r="J7" t="str">
-        <f>Table4[[#This Row],[cell]]</f>
-        <v>WT</v>
+        <f ca="1">'2_combined'!F8</f>
+        <v>KO</v>
       </c>
       <c r="K7" t="str">
-        <f>Table4[[#This Row],[treatment]]</f>
+        <f ca="1">'2_combined'!H8</f>
         <v>cmv</v>
       </c>
       <c r="L7" t="s">
         <v>110</v>
       </c>
       <c r="M7" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/",Table53[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table53[[#This Row],[dir]], " -ref ref_seq/", Table53[[#This Row],[ref]], " -dsb ", Table53[[#This Row],[dsb_pos]], " --dsb_type ",Table53[[#This Row],[dsb_type_command]], " --strand ", Table53[[#This Row],[strand]], " --hguide ", Table53[[#This Row],[hguide]], " --cell ", Table53[[#This Row],[cell]], " --treatment ", Table53[[#This Row],[treatment]], " --subst_type ", Table53[[#This Row],[subst_type]])</f>
-        <v>python 2_graph_processing/make_main_data.py -in libraries_3/WT_sgB_R2_cmv_nodsb.tsv -o libraries_4/WT_sgB_R2_cmv_nodsb -ref ref_seq/1DSB_R2_cmv.fa -dsb 67 --dsb_type 1 --strand R2 --hguide B --cell WT --treatment cmv --subst_type without</v>
-      </c>
-      <c r="N7" t="str">
-        <f>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without ",  " -dir ", dirs!$A$4, "/", Table53[[#This Row],[dir]])</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/WT_sgB_R2_cmv_nodsb</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", dirs!$A$4, "/",Table513[[#This Row],[dir]], " -o ", dirs!$A$5, "/")</f>
+        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/KO_sgAB_R1_cmv -o libraries_5/</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" t="str">
-        <f>Table4[[#This Row],[output_dir]]</f>
-        <v>KO_sgA_R1_sense_nodsb</v>
+        <f ca="1">'2_combined'!J9</f>
+        <v>WT_sgAB_R2_sense</v>
       </c>
       <c r="C8" t="str">
-        <f>Table4[[#This Row],[control]]</f>
-        <v>nodsb</v>
+        <f ca="1">'2_combined'!C9</f>
+        <v>none</v>
       </c>
       <c r="D8" t="str">
-        <f>Table4[[#This Row],[ref]]</f>
-        <v>1DSB_R1_sense.fa</v>
+        <f ca="1">'2_combined'!B9</f>
+        <v>2DSB_R2_sense.fa</v>
       </c>
       <c r="E8">
         <f ca="1">'2_combined'!E9</f>
         <v>46</v>
       </c>
       <c r="F8" t="str">
-        <f>Table4[[#This Row],[dsb]]</f>
-        <v>1DSB</v>
+        <f ca="1">'2_combined'!D9</f>
+        <v>2DSB</v>
       </c>
       <c r="G8" t="str" cm="1">
-        <f t="array" ref="G8">IF(Table53[[#This Row],[dsb_type]]="2DSB", "2", IF(Table53[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table53[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
-        <v>1</v>
+        <f t="array" aca="1" ref="G8" ca="1">IF(Table513[[#This Row],[dsb_type]]="2DSB", "2", IF(Table513[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table513[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>2</v>
       </c>
       <c r="H8" t="str">
-        <f>Table4[[#This Row],[strand]]</f>
-        <v>R1</v>
+        <f ca="1">'2_combined'!G9</f>
+        <v>R2</v>
       </c>
       <c r="I8" t="str">
-        <f>MID(Table4[[#This Row],[hguide]], 3, 100)</f>
-        <v>A</v>
+        <f ca="1">MID('2_combined'!I9, 3, 100)</f>
+        <v>AB</v>
       </c>
       <c r="J8" t="str">
-        <f>Table4[[#This Row],[cell]]</f>
-        <v>KO</v>
+        <f ca="1">'2_combined'!F9</f>
+        <v>WT</v>
       </c>
       <c r="K8" t="str">
-        <f>Table4[[#This Row],[treatment]]</f>
+        <f ca="1">'2_combined'!H9</f>
         <v>sense</v>
       </c>
       <c r="L8" t="s">
         <v>110</v>
       </c>
       <c r="M8" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/",Table53[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table53[[#This Row],[dir]], " -ref ref_seq/", Table53[[#This Row],[ref]], " -dsb ", Table53[[#This Row],[dsb_pos]], " --dsb_type ",Table53[[#This Row],[dsb_type_command]], " --strand ", Table53[[#This Row],[strand]], " --hguide ", Table53[[#This Row],[hguide]], " --cell ", Table53[[#This Row],[cell]], " --treatment ", Table53[[#This Row],[treatment]], " --subst_type ", Table53[[#This Row],[subst_type]])</f>
-        <v>python 2_graph_processing/make_main_data.py -in libraries_3/KO_sgA_R1_sense_nodsb.tsv -o libraries_4/KO_sgA_R1_sense_nodsb -ref ref_seq/1DSB_R1_sense.fa -dsb 46 --dsb_type 1 --strand R1 --hguide A --cell KO --treatment sense --subst_type without</v>
-      </c>
-      <c r="N8" t="str">
-        <f>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without ",  " -dir ", dirs!$A$4, "/", Table53[[#This Row],[dir]])</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/KO_sgA_R1_sense_nodsb</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", dirs!$A$4, "/",Table513[[#This Row],[dir]], " -o ", dirs!$A$5, "/")</f>
+        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/WT_sgAB_R2_sense -o libraries_5/</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" t="str">
-        <f>Table4[[#This Row],[output_dir]]</f>
-        <v>KO_sgB_R2_sense_nodsb</v>
+        <f ca="1">'2_combined'!J10</f>
+        <v>WT_sgAB_R2_branch</v>
       </c>
       <c r="C9" t="str">
-        <f>Table4[[#This Row],[control]]</f>
-        <v>nodsb</v>
+        <f ca="1">'2_combined'!C10</f>
+        <v>none</v>
       </c>
       <c r="D9" t="str">
-        <f>Table4[[#This Row],[ref]]</f>
-        <v>1DSB_R2_sense.fa</v>
+        <f ca="1">'2_combined'!B10</f>
+        <v>2DSB_R2_branch.fa</v>
       </c>
       <c r="E9">
         <f ca="1">'2_combined'!E10</f>
         <v>46</v>
       </c>
       <c r="F9" t="str">
-        <f>Table4[[#This Row],[dsb]]</f>
-        <v>1DSB</v>
+        <f ca="1">'2_combined'!D10</f>
+        <v>2DSB</v>
       </c>
       <c r="G9" t="str" cm="1">
-        <f t="array" ref="G9">IF(Table53[[#This Row],[dsb_type]]="2DSB", "2", IF(Table53[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table53[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
-        <v>1</v>
+        <f t="array" aca="1" ref="G9" ca="1">IF(Table513[[#This Row],[dsb_type]]="2DSB", "2", IF(Table513[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table513[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>2</v>
       </c>
       <c r="H9" t="str">
-        <f>Table4[[#This Row],[strand]]</f>
+        <f ca="1">'2_combined'!G10</f>
         <v>R2</v>
       </c>
       <c r="I9" t="str">
-        <f>MID(Table4[[#This Row],[hguide]], 3, 100)</f>
-        <v>B</v>
+        <f ca="1">MID('2_combined'!I10, 3, 100)</f>
+        <v>AB</v>
       </c>
       <c r="J9" t="str">
-        <f>Table4[[#This Row],[cell]]</f>
-        <v>KO</v>
+        <f ca="1">'2_combined'!F10</f>
+        <v>WT</v>
       </c>
       <c r="K9" t="str">
-        <f>Table4[[#This Row],[treatment]]</f>
-        <v>sense</v>
+        <f ca="1">'2_combined'!H10</f>
+        <v>branch</v>
       </c>
       <c r="L9" t="s">
         <v>110</v>
       </c>
       <c r="M9" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/",Table53[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table53[[#This Row],[dir]], " -ref ref_seq/", Table53[[#This Row],[ref]], " -dsb ", Table53[[#This Row],[dsb_pos]], " --dsb_type ",Table53[[#This Row],[dsb_type_command]], " --strand ", Table53[[#This Row],[strand]], " --hguide ", Table53[[#This Row],[hguide]], " --cell ", Table53[[#This Row],[cell]], " --treatment ", Table53[[#This Row],[treatment]], " --subst_type ", Table53[[#This Row],[subst_type]])</f>
-        <v>python 2_graph_processing/make_main_data.py -in libraries_3/KO_sgB_R2_sense_nodsb.tsv -o libraries_4/KO_sgB_R2_sense_nodsb -ref ref_seq/1DSB_R2_sense.fa -dsb 46 --dsb_type 1 --strand R2 --hguide B --cell KO --treatment sense --subst_type without</v>
-      </c>
-      <c r="N9" t="str">
-        <f>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without ",  " -dir ", dirs!$A$4, "/", Table53[[#This Row],[dir]])</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/KO_sgB_R2_sense_nodsb</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", dirs!$A$4, "/",Table513[[#This Row],[dir]], " -o ", dirs!$A$5, "/")</f>
+        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/WT_sgAB_R2_branch -o libraries_5/</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" t="str">
-        <f>Table4[[#This Row],[output_dir]]</f>
-        <v>KO_sgA_R1_branch_nodsb</v>
+        <f ca="1">'2_combined'!J11</f>
+        <v>WT_sgAB_R2_cmv</v>
       </c>
       <c r="C10" t="str">
-        <f>Table4[[#This Row],[control]]</f>
-        <v>nodsb</v>
+        <f ca="1">'2_combined'!C11</f>
+        <v>none</v>
       </c>
       <c r="D10" t="str">
-        <f>Table4[[#This Row],[ref]]</f>
-        <v>1DSB_R1_branch.fa</v>
+        <f ca="1">'2_combined'!B11</f>
+        <v>2DSB_R2_cmv.fa</v>
       </c>
       <c r="E10">
         <f ca="1">'2_combined'!E11</f>
         <v>46</v>
       </c>
       <c r="F10" t="str">
-        <f>Table4[[#This Row],[dsb]]</f>
-        <v>1DSB</v>
+        <f ca="1">'2_combined'!D11</f>
+        <v>2DSB</v>
       </c>
       <c r="G10" t="str" cm="1">
-        <f t="array" ref="G10">IF(Table53[[#This Row],[dsb_type]]="2DSB", "2", IF(Table53[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table53[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
-        <v>1</v>
+        <f t="array" aca="1" ref="G10" ca="1">IF(Table513[[#This Row],[dsb_type]]="2DSB", "2", IF(Table513[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table513[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>2</v>
       </c>
       <c r="H10" t="str">
-        <f>Table4[[#This Row],[strand]]</f>
-        <v>R1</v>
+        <f ca="1">'2_combined'!G11</f>
+        <v>R2</v>
       </c>
       <c r="I10" t="str">
-        <f>MID(Table4[[#This Row],[hguide]], 3, 100)</f>
-        <v>A</v>
+        <f ca="1">MID('2_combined'!I11, 3, 100)</f>
+        <v>AB</v>
       </c>
       <c r="J10" t="str">
-        <f>Table4[[#This Row],[cell]]</f>
-        <v>KO</v>
+        <f ca="1">'2_combined'!F11</f>
+        <v>WT</v>
       </c>
       <c r="K10" t="str">
-        <f>Table4[[#This Row],[treatment]]</f>
-        <v>branch</v>
+        <f ca="1">'2_combined'!H11</f>
+        <v>cmv</v>
       </c>
       <c r="L10" t="s">
         <v>110</v>
       </c>
       <c r="M10" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/",Table53[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table53[[#This Row],[dir]], " -ref ref_seq/", Table53[[#This Row],[ref]], " -dsb ", Table53[[#This Row],[dsb_pos]], " --dsb_type ",Table53[[#This Row],[dsb_type_command]], " --strand ", Table53[[#This Row],[strand]], " --hguide ", Table53[[#This Row],[hguide]], " --cell ", Table53[[#This Row],[cell]], " --treatment ", Table53[[#This Row],[treatment]], " --subst_type ", Table53[[#This Row],[subst_type]])</f>
-        <v>python 2_graph_processing/make_main_data.py -in libraries_3/KO_sgA_R1_branch_nodsb.tsv -o libraries_4/KO_sgA_R1_branch_nodsb -ref ref_seq/1DSB_R1_branch.fa -dsb 46 --dsb_type 1 --strand R1 --hguide A --cell KO --treatment branch --subst_type without</v>
-      </c>
-      <c r="N10" t="str">
-        <f>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without ",  " -dir ", dirs!$A$4, "/", Table53[[#This Row],[dir]])</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/KO_sgA_R1_branch_nodsb</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", dirs!$A$4, "/",Table513[[#This Row],[dir]], " -o ", dirs!$A$5, "/")</f>
+        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/WT_sgAB_R2_cmv -o libraries_5/</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" t="str">
-        <f>Table4[[#This Row],[output_dir]]</f>
-        <v>KO_sgB_R2_branch_nodsb</v>
+        <f ca="1">'2_combined'!J12</f>
+        <v>KO_sgAB_R2_sense</v>
       </c>
       <c r="C11" t="str">
-        <f>Table4[[#This Row],[control]]</f>
-        <v>nodsb</v>
+        <f ca="1">'2_combined'!C12</f>
+        <v>none</v>
       </c>
       <c r="D11" t="str">
-        <f>Table4[[#This Row],[ref]]</f>
-        <v>1DSB_R2_branch.fa</v>
+        <f ca="1">'2_combined'!B12</f>
+        <v>2DSB_R2_sense.fa</v>
       </c>
       <c r="E11">
         <f ca="1">'2_combined'!E12</f>
         <v>46</v>
       </c>
       <c r="F11" t="str">
-        <f>Table4[[#This Row],[dsb]]</f>
-        <v>1DSB</v>
+        <f ca="1">'2_combined'!D12</f>
+        <v>2DSB</v>
       </c>
       <c r="G11" t="str" cm="1">
-        <f t="array" ref="G11">IF(Table53[[#This Row],[dsb_type]]="2DSB", "2", IF(Table53[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table53[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
-        <v>1</v>
+        <f t="array" aca="1" ref="G11" ca="1">IF(Table513[[#This Row],[dsb_type]]="2DSB", "2", IF(Table513[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table513[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>2</v>
       </c>
       <c r="H11" t="str">
-        <f>Table4[[#This Row],[strand]]</f>
+        <f ca="1">'2_combined'!G12</f>
         <v>R2</v>
       </c>
       <c r="I11" t="str">
-        <f>MID(Table4[[#This Row],[hguide]], 3, 100)</f>
-        <v>B</v>
+        <f ca="1">MID('2_combined'!I12, 3, 100)</f>
+        <v>AB</v>
       </c>
       <c r="J11" t="str">
-        <f>Table4[[#This Row],[cell]]</f>
+        <f ca="1">'2_combined'!F12</f>
         <v>KO</v>
       </c>
       <c r="K11" t="str">
-        <f>Table4[[#This Row],[treatment]]</f>
-        <v>branch</v>
+        <f ca="1">'2_combined'!H12</f>
+        <v>sense</v>
       </c>
       <c r="L11" t="s">
         <v>110</v>
       </c>
       <c r="M11" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/",Table53[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table53[[#This Row],[dir]], " -ref ref_seq/", Table53[[#This Row],[ref]], " -dsb ", Table53[[#This Row],[dsb_pos]], " --dsb_type ",Table53[[#This Row],[dsb_type_command]], " --strand ", Table53[[#This Row],[strand]], " --hguide ", Table53[[#This Row],[hguide]], " --cell ", Table53[[#This Row],[cell]], " --treatment ", Table53[[#This Row],[treatment]], " --subst_type ", Table53[[#This Row],[subst_type]])</f>
-        <v>python 2_graph_processing/make_main_data.py -in libraries_3/KO_sgB_R2_branch_nodsb.tsv -o libraries_4/KO_sgB_R2_branch_nodsb -ref ref_seq/1DSB_R2_branch.fa -dsb 46 --dsb_type 1 --strand R2 --hguide B --cell KO --treatment branch --subst_type without</v>
-      </c>
-      <c r="N11" t="str">
-        <f>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without ",  " -dir ", dirs!$A$4, "/", Table53[[#This Row],[dir]])</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/KO_sgB_R2_branch_nodsb</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", dirs!$A$4, "/",Table513[[#This Row],[dir]], " -o ", dirs!$A$5, "/")</f>
+        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/KO_sgAB_R2_sense -o libraries_5/</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" t="str">
-        <f>Table4[[#This Row],[output_dir]]</f>
-        <v>KO_sgA_R1_cmv_nodsb</v>
+        <f ca="1">'2_combined'!J13</f>
+        <v>KO_sgAB_R2_branch</v>
       </c>
       <c r="C12" t="str">
-        <f>Table4[[#This Row],[control]]</f>
-        <v>nodsb</v>
+        <f ca="1">'2_combined'!C13</f>
+        <v>none</v>
       </c>
       <c r="D12" t="str">
-        <f>Table4[[#This Row],[ref]]</f>
-        <v>1DSB_R1_cmv.fa</v>
+        <f ca="1">'2_combined'!B13</f>
+        <v>2DSB_R2_branch.fa</v>
       </c>
       <c r="E12">
         <f ca="1">'2_combined'!E13</f>
         <v>46</v>
       </c>
       <c r="F12" t="str">
-        <f>Table4[[#This Row],[dsb]]</f>
-        <v>1DSB</v>
+        <f ca="1">'2_combined'!D13</f>
+        <v>2DSB</v>
       </c>
       <c r="G12" t="str" cm="1">
-        <f t="array" ref="G12">IF(Table53[[#This Row],[dsb_type]]="2DSB", "2", IF(Table53[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table53[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
-        <v>1</v>
+        <f t="array" aca="1" ref="G12" ca="1">IF(Table513[[#This Row],[dsb_type]]="2DSB", "2", IF(Table513[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table513[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>2</v>
       </c>
       <c r="H12" t="str">
-        <f>Table4[[#This Row],[strand]]</f>
-        <v>R1</v>
+        <f ca="1">'2_combined'!G13</f>
+        <v>R2</v>
       </c>
       <c r="I12" t="str">
-        <f>MID(Table4[[#This Row],[hguide]], 3, 100)</f>
-        <v>A</v>
+        <f ca="1">MID('2_combined'!I13, 3, 100)</f>
+        <v>AB</v>
       </c>
       <c r="J12" t="str">
-        <f>Table4[[#This Row],[cell]]</f>
+        <f ca="1">'2_combined'!F13</f>
         <v>KO</v>
       </c>
       <c r="K12" t="str">
-        <f>Table4[[#This Row],[treatment]]</f>
-        <v>cmv</v>
+        <f ca="1">'2_combined'!H13</f>
+        <v>branch</v>
       </c>
       <c r="L12" t="s">
         <v>110</v>
       </c>
       <c r="M12" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/",Table53[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table53[[#This Row],[dir]], " -ref ref_seq/", Table53[[#This Row],[ref]], " -dsb ", Table53[[#This Row],[dsb_pos]], " --dsb_type ",Table53[[#This Row],[dsb_type_command]], " --strand ", Table53[[#This Row],[strand]], " --hguide ", Table53[[#This Row],[hguide]], " --cell ", Table53[[#This Row],[cell]], " --treatment ", Table53[[#This Row],[treatment]], " --subst_type ", Table53[[#This Row],[subst_type]])</f>
-        <v>python 2_graph_processing/make_main_data.py -in libraries_3/KO_sgA_R1_cmv_nodsb.tsv -o libraries_4/KO_sgA_R1_cmv_nodsb -ref ref_seq/1DSB_R1_cmv.fa -dsb 46 --dsb_type 1 --strand R1 --hguide A --cell KO --treatment cmv --subst_type without</v>
-      </c>
-      <c r="N12" t="str">
-        <f>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without ",  " -dir ", dirs!$A$4, "/", Table53[[#This Row],[dir]])</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/KO_sgA_R1_cmv_nodsb</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", dirs!$A$4, "/",Table513[[#This Row],[dir]], " -o ", dirs!$A$5, "/")</f>
+        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/KO_sgAB_R2_branch -o libraries_5/</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" t="str">
-        <f>Table4[[#This Row],[output_dir]]</f>
-        <v>KO_sgB_R2_cmv_nodsb</v>
+        <f ca="1">'2_combined'!J14</f>
+        <v>KO_sgAB_R2_cmv</v>
       </c>
       <c r="C13" t="str">
-        <f>Table4[[#This Row],[control]]</f>
-        <v>nodsb</v>
+        <f ca="1">'2_combined'!C14</f>
+        <v>none</v>
       </c>
       <c r="D13" t="str">
-        <f>Table4[[#This Row],[ref]]</f>
-        <v>1DSB_R2_cmv.fa</v>
+        <f ca="1">'2_combined'!B14</f>
+        <v>2DSB_R2_cmv.fa</v>
       </c>
       <c r="E13">
         <f ca="1">'2_combined'!E14</f>
         <v>46</v>
       </c>
       <c r="F13" t="str">
-        <f>Table4[[#This Row],[dsb]]</f>
-        <v>1DSB</v>
+        <f ca="1">'2_combined'!D14</f>
+        <v>2DSB</v>
       </c>
       <c r="G13" t="str" cm="1">
-        <f t="array" ref="G13">IF(Table53[[#This Row],[dsb_type]]="2DSB", "2", IF(Table53[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table53[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
-        <v>1</v>
+        <f t="array" aca="1" ref="G13" ca="1">IF(Table513[[#This Row],[dsb_type]]="2DSB", "2", IF(Table513[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table513[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>2</v>
       </c>
       <c r="H13" t="str">
-        <f>Table4[[#This Row],[strand]]</f>
+        <f ca="1">'2_combined'!G14</f>
         <v>R2</v>
       </c>
       <c r="I13" t="str">
-        <f>MID(Table4[[#This Row],[hguide]], 3, 100)</f>
-        <v>B</v>
+        <f ca="1">MID('2_combined'!I14, 3, 100)</f>
+        <v>AB</v>
       </c>
       <c r="J13" t="str">
-        <f>Table4[[#This Row],[cell]]</f>
+        <f ca="1">'2_combined'!F14</f>
         <v>KO</v>
       </c>
       <c r="K13" t="str">
-        <f>Table4[[#This Row],[treatment]]</f>
+        <f ca="1">'2_combined'!H14</f>
         <v>cmv</v>
       </c>
       <c r="L13" t="s">
         <v>110</v>
       </c>
       <c r="M13" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/",Table53[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table53[[#This Row],[dir]], " -ref ref_seq/", Table53[[#This Row],[ref]], " -dsb ", Table53[[#This Row],[dsb_pos]], " --dsb_type ",Table53[[#This Row],[dsb_type_command]], " --strand ", Table53[[#This Row],[strand]], " --hguide ", Table53[[#This Row],[hguide]], " --cell ", Table53[[#This Row],[cell]], " --treatment ", Table53[[#This Row],[treatment]], " --subst_type ", Table53[[#This Row],[subst_type]])</f>
-        <v>python 2_graph_processing/make_main_data.py -in libraries_3/KO_sgB_R2_cmv_nodsb.tsv -o libraries_4/KO_sgB_R2_cmv_nodsb -ref ref_seq/1DSB_R2_cmv.fa -dsb 46 --dsb_type 1 --strand R2 --hguide B --cell KO --treatment cmv --subst_type without</v>
-      </c>
-      <c r="N13" t="str">
-        <f>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type without ",  " -dir ", dirs!$A$4, "/", Table53[[#This Row],[dir]])</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without  -dir libraries_4/KO_sgB_R2_cmv_nodsb</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", dirs!$A$4, "/",Table513[[#This Row],[dir]], " -o ", dirs!$A$5, "/")</f>
+        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/KO_sgAB_R2_cmv -o libraries_5/</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" t="str">
+        <f ca="1">'2_combined'!J15</f>
+        <v>WT_sgA_R1_sense</v>
+      </c>
+      <c r="C14" t="str">
+        <f ca="1">'2_combined'!C15</f>
+        <v>none</v>
+      </c>
+      <c r="D14" t="str">
+        <f ca="1">'2_combined'!B15</f>
+        <v>1DSB_R1_sense.fa</v>
+      </c>
+      <c r="E14">
+        <f ca="1">'2_combined'!E15</f>
+        <v>67</v>
+      </c>
+      <c r="F14" t="str">
+        <f ca="1">'2_combined'!D15</f>
+        <v>1DSB</v>
+      </c>
+      <c r="G14" t="str" cm="1">
+        <f t="array" aca="1" ref="G14" ca="1">IF(Table513[[#This Row],[dsb_type]]="2DSB", "2", IF(Table513[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table513[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>1</v>
+      </c>
+      <c r="H14" t="str">
+        <f ca="1">'2_combined'!G15</f>
+        <v>R1</v>
+      </c>
+      <c r="I14" t="str">
+        <f ca="1">MID('2_combined'!I15, 3, 100)</f>
+        <v>A</v>
+      </c>
+      <c r="J14" t="str">
+        <f ca="1">'2_combined'!F15</f>
+        <v>WT</v>
+      </c>
+      <c r="K14" t="str">
+        <f ca="1">'2_combined'!H15</f>
+        <v>sense</v>
+      </c>
+      <c r="L14" t="s">
+        <v>110</v>
+      </c>
+      <c r="M14" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", dirs!$A$4, "/",Table513[[#This Row],[dir]], " -o ", dirs!$A$5, "/")</f>
+        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/WT_sgA_R1_sense -o libraries_5/</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" t="str">
+        <f ca="1">'2_combined'!J16</f>
+        <v>WT_sgA_R1_branch</v>
+      </c>
+      <c r="C15" t="str">
+        <f ca="1">'2_combined'!C16</f>
+        <v>none</v>
+      </c>
+      <c r="D15" t="str">
+        <f ca="1">'2_combined'!B16</f>
+        <v>1DSB_R1_branch.fa</v>
+      </c>
+      <c r="E15">
+        <f ca="1">'2_combined'!E16</f>
+        <v>67</v>
+      </c>
+      <c r="F15" t="str">
+        <f ca="1">'2_combined'!D16</f>
+        <v>1DSB</v>
+      </c>
+      <c r="G15" t="str" cm="1">
+        <f t="array" aca="1" ref="G15" ca="1">IF(Table513[[#This Row],[dsb_type]]="2DSB", "2", IF(Table513[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table513[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>1</v>
+      </c>
+      <c r="H15" t="str">
+        <f ca="1">'2_combined'!G16</f>
+        <v>R1</v>
+      </c>
+      <c r="I15" t="str">
+        <f ca="1">MID('2_combined'!I16, 3, 100)</f>
+        <v>A</v>
+      </c>
+      <c r="J15" t="str">
+        <f ca="1">'2_combined'!F16</f>
+        <v>WT</v>
+      </c>
+      <c r="K15" t="str">
+        <f ca="1">'2_combined'!H16</f>
+        <v>branch</v>
+      </c>
+      <c r="L15" t="s">
+        <v>110</v>
+      </c>
+      <c r="M15" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", dirs!$A$4, "/",Table513[[#This Row],[dir]], " -o ", dirs!$A$5, "/")</f>
+        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/WT_sgA_R1_branch -o libraries_5/</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" t="str">
+        <f ca="1">'2_combined'!J17</f>
+        <v>WT_sgA_R1_cmv</v>
+      </c>
+      <c r="C16" t="str">
+        <f ca="1">'2_combined'!C17</f>
+        <v>none</v>
+      </c>
+      <c r="D16" t="str">
+        <f ca="1">'2_combined'!B17</f>
+        <v>1DSB_R1_cmv.fa</v>
+      </c>
+      <c r="E16">
+        <f ca="1">'2_combined'!E17</f>
+        <v>67</v>
+      </c>
+      <c r="F16" t="str">
+        <f ca="1">'2_combined'!D17</f>
+        <v>1DSB</v>
+      </c>
+      <c r="G16" t="str" cm="1">
+        <f t="array" aca="1" ref="G16" ca="1">IF(Table513[[#This Row],[dsb_type]]="2DSB", "2", IF(Table513[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table513[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>1</v>
+      </c>
+      <c r="H16" t="str">
+        <f ca="1">'2_combined'!G17</f>
+        <v>R1</v>
+      </c>
+      <c r="I16" t="str">
+        <f ca="1">MID('2_combined'!I17, 3, 100)</f>
+        <v>A</v>
+      </c>
+      <c r="J16" t="str">
+        <f ca="1">'2_combined'!F17</f>
+        <v>WT</v>
+      </c>
+      <c r="K16" t="str">
+        <f ca="1">'2_combined'!H17</f>
+        <v>cmv</v>
+      </c>
+      <c r="L16" t="s">
+        <v>110</v>
+      </c>
+      <c r="M16" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", dirs!$A$4, "/",Table513[[#This Row],[dir]], " -o ", dirs!$A$5, "/")</f>
+        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/WT_sgA_R1_cmv -o libraries_5/</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" t="str">
+        <f ca="1">'2_combined'!J18</f>
+        <v>WT_sgB_R2_sense</v>
+      </c>
+      <c r="C17" t="str">
+        <f ca="1">'2_combined'!C18</f>
+        <v>none</v>
+      </c>
+      <c r="D17" t="str">
+        <f ca="1">'2_combined'!B18</f>
+        <v>1DSB_R2_sense.fa</v>
+      </c>
+      <c r="E17">
+        <f ca="1">'2_combined'!E18</f>
+        <v>46</v>
+      </c>
+      <c r="F17" t="str">
+        <f ca="1">'2_combined'!D18</f>
+        <v>1DSB</v>
+      </c>
+      <c r="G17" t="str" cm="1">
+        <f t="array" aca="1" ref="G17" ca="1">IF(Table513[[#This Row],[dsb_type]]="2DSB", "2", IF(Table513[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table513[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>1</v>
+      </c>
+      <c r="H17" t="str">
+        <f ca="1">'2_combined'!G18</f>
+        <v>R2</v>
+      </c>
+      <c r="I17" t="str">
+        <f ca="1">MID('2_combined'!I18, 3, 100)</f>
+        <v>B</v>
+      </c>
+      <c r="J17" t="str">
+        <f ca="1">'2_combined'!F18</f>
+        <v>WT</v>
+      </c>
+      <c r="K17" t="str">
+        <f ca="1">'2_combined'!H18</f>
+        <v>sense</v>
+      </c>
+      <c r="L17" t="s">
+        <v>110</v>
+      </c>
+      <c r="M17" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", dirs!$A$4, "/",Table513[[#This Row],[dir]], " -o ", dirs!$A$5, "/")</f>
+        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/WT_sgB_R2_sense -o libraries_5/</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" t="str">
+        <f ca="1">'2_combined'!J19</f>
+        <v>WT_sgB_R2_branch</v>
+      </c>
+      <c r="C18" t="str">
+        <f ca="1">'2_combined'!C19</f>
+        <v>none</v>
+      </c>
+      <c r="D18" t="str">
+        <f ca="1">'2_combined'!B19</f>
+        <v>1DSB_R2_branch.fa</v>
+      </c>
+      <c r="E18">
+        <f ca="1">'2_combined'!E19</f>
+        <v>46</v>
+      </c>
+      <c r="F18" t="str">
+        <f ca="1">'2_combined'!D19</f>
+        <v>1DSB</v>
+      </c>
+      <c r="G18" t="str" cm="1">
+        <f t="array" aca="1" ref="G18" ca="1">IF(Table513[[#This Row],[dsb_type]]="2DSB", "2", IF(Table513[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table513[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>1</v>
+      </c>
+      <c r="H18" t="str">
+        <f ca="1">'2_combined'!G19</f>
+        <v>R2</v>
+      </c>
+      <c r="I18" t="str">
+        <f ca="1">MID('2_combined'!I19, 3, 100)</f>
+        <v>B</v>
+      </c>
+      <c r="J18" t="str">
+        <f ca="1">'2_combined'!F19</f>
+        <v>WT</v>
+      </c>
+      <c r="K18" t="str">
+        <f ca="1">'2_combined'!H19</f>
+        <v>branch</v>
+      </c>
+      <c r="L18" t="s">
+        <v>110</v>
+      </c>
+      <c r="M18" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", dirs!$A$4, "/",Table513[[#This Row],[dir]], " -o ", dirs!$A$5, "/")</f>
+        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/WT_sgB_R2_branch -o libraries_5/</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" t="str">
+        <f ca="1">'2_combined'!J20</f>
+        <v>WT_sgB_R2_cmv</v>
+      </c>
+      <c r="C19" t="str">
+        <f ca="1">'2_combined'!C20</f>
+        <v>none</v>
+      </c>
+      <c r="D19" t="str">
+        <f ca="1">'2_combined'!B20</f>
+        <v>1DSB_R2_cmv.fa</v>
+      </c>
+      <c r="E19">
+        <f ca="1">'2_combined'!E20</f>
+        <v>46</v>
+      </c>
+      <c r="F19" t="str">
+        <f ca="1">'2_combined'!D20</f>
+        <v>1DSB</v>
+      </c>
+      <c r="G19" t="str" cm="1">
+        <f t="array" aca="1" ref="G19" ca="1">IF(Table513[[#This Row],[dsb_type]]="2DSB", "2", IF(Table513[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table513[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>1</v>
+      </c>
+      <c r="H19" t="str">
+        <f ca="1">'2_combined'!G20</f>
+        <v>R2</v>
+      </c>
+      <c r="I19" t="str">
+        <f ca="1">MID('2_combined'!I20, 3, 100)</f>
+        <v>B</v>
+      </c>
+      <c r="J19" t="str">
+        <f ca="1">'2_combined'!F20</f>
+        <v>WT</v>
+      </c>
+      <c r="K19" t="str">
+        <f ca="1">'2_combined'!H20</f>
+        <v>cmv</v>
+      </c>
+      <c r="L19" t="s">
+        <v>110</v>
+      </c>
+      <c r="M19" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", dirs!$A$4, "/",Table513[[#This Row],[dir]], " -o ", dirs!$A$5, "/")</f>
+        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/WT_sgB_R2_cmv -o libraries_5/</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" t="str">
+        <f ca="1">'2_combined'!J21</f>
+        <v>KO_sgA_R1_sense</v>
+      </c>
+      <c r="C20" t="str">
+        <f ca="1">'2_combined'!C21</f>
+        <v>none</v>
+      </c>
+      <c r="D20" t="str">
+        <f ca="1">'2_combined'!B21</f>
+        <v>1DSB_R1_sense.fa</v>
+      </c>
+      <c r="E20">
+        <f ca="1">'2_combined'!E21</f>
+        <v>67</v>
+      </c>
+      <c r="F20" t="str">
+        <f ca="1">'2_combined'!D21</f>
+        <v>1DSB</v>
+      </c>
+      <c r="G20" t="str" cm="1">
+        <f t="array" aca="1" ref="G20" ca="1">IF(Table513[[#This Row],[dsb_type]]="2DSB", "2", IF(Table513[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table513[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>1</v>
+      </c>
+      <c r="H20" t="str">
+        <f ca="1">'2_combined'!G21</f>
+        <v>R1</v>
+      </c>
+      <c r="I20" t="str">
+        <f ca="1">MID('2_combined'!I21, 3, 100)</f>
+        <v>A</v>
+      </c>
+      <c r="J20" t="str">
+        <f ca="1">'2_combined'!F21</f>
+        <v>KO</v>
+      </c>
+      <c r="K20" t="str">
+        <f ca="1">'2_combined'!H21</f>
+        <v>sense</v>
+      </c>
+      <c r="L20" t="s">
+        <v>110</v>
+      </c>
+      <c r="M20" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", dirs!$A$4, "/",Table513[[#This Row],[dir]], " -o ", dirs!$A$5, "/")</f>
+        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/KO_sgA_R1_sense -o libraries_5/</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" t="str">
+        <f ca="1">'2_combined'!J22</f>
+        <v>KO_sgA_R1_branch</v>
+      </c>
+      <c r="C21" t="str">
+        <f ca="1">'2_combined'!C22</f>
+        <v>none</v>
+      </c>
+      <c r="D21" t="str">
+        <f ca="1">'2_combined'!B22</f>
+        <v>1DSB_R1_branch.fa</v>
+      </c>
+      <c r="E21">
+        <f ca="1">'2_combined'!E22</f>
+        <v>67</v>
+      </c>
+      <c r="F21" t="str">
+        <f ca="1">'2_combined'!D22</f>
+        <v>1DSB</v>
+      </c>
+      <c r="G21" t="str" cm="1">
+        <f t="array" aca="1" ref="G21" ca="1">IF(Table513[[#This Row],[dsb_type]]="2DSB", "2", IF(Table513[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table513[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>1</v>
+      </c>
+      <c r="H21" t="str">
+        <f ca="1">'2_combined'!G22</f>
+        <v>R1</v>
+      </c>
+      <c r="I21" t="str">
+        <f ca="1">MID('2_combined'!I22, 3, 100)</f>
+        <v>A</v>
+      </c>
+      <c r="J21" t="str">
+        <f ca="1">'2_combined'!F22</f>
+        <v>KO</v>
+      </c>
+      <c r="K21" t="str">
+        <f ca="1">'2_combined'!H22</f>
+        <v>branch</v>
+      </c>
+      <c r="L21" t="s">
+        <v>110</v>
+      </c>
+      <c r="M21" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", dirs!$A$4, "/",Table513[[#This Row],[dir]], " -o ", dirs!$A$5, "/")</f>
+        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/KO_sgA_R1_branch -o libraries_5/</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" t="str">
+        <f ca="1">'2_combined'!J23</f>
+        <v>KO_sgA_R1_cmv</v>
+      </c>
+      <c r="C22" t="str">
+        <f ca="1">'2_combined'!C23</f>
+        <v>none</v>
+      </c>
+      <c r="D22" t="str">
+        <f ca="1">'2_combined'!B23</f>
+        <v>1DSB_R1_cmv.fa</v>
+      </c>
+      <c r="E22">
+        <f ca="1">'2_combined'!E23</f>
+        <v>67</v>
+      </c>
+      <c r="F22" t="str">
+        <f ca="1">'2_combined'!D23</f>
+        <v>1DSB</v>
+      </c>
+      <c r="G22" t="str" cm="1">
+        <f t="array" aca="1" ref="G22" ca="1">IF(Table513[[#This Row],[dsb_type]]="2DSB", "2", IF(Table513[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table513[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>1</v>
+      </c>
+      <c r="H22" t="str">
+        <f ca="1">'2_combined'!G23</f>
+        <v>R1</v>
+      </c>
+      <c r="I22" t="str">
+        <f ca="1">MID('2_combined'!I23, 3, 100)</f>
+        <v>A</v>
+      </c>
+      <c r="J22" t="str">
+        <f ca="1">'2_combined'!F23</f>
+        <v>KO</v>
+      </c>
+      <c r="K22" t="str">
+        <f ca="1">'2_combined'!H23</f>
+        <v>cmv</v>
+      </c>
+      <c r="L22" t="s">
+        <v>110</v>
+      </c>
+      <c r="M22" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", dirs!$A$4, "/",Table513[[#This Row],[dir]], " -o ", dirs!$A$5, "/")</f>
+        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/KO_sgA_R1_cmv -o libraries_5/</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" t="str">
+        <f ca="1">'2_combined'!J24</f>
+        <v>KO_sgB_R2_sense</v>
+      </c>
+      <c r="C23" t="str">
+        <f ca="1">'2_combined'!C24</f>
+        <v>none</v>
+      </c>
+      <c r="D23" t="str">
+        <f ca="1">'2_combined'!B24</f>
+        <v>1DSB_R2_sense.fa</v>
+      </c>
+      <c r="E23">
+        <f ca="1">'2_combined'!E24</f>
+        <v>46</v>
+      </c>
+      <c r="F23" t="str">
+        <f ca="1">'2_combined'!D24</f>
+        <v>1DSB</v>
+      </c>
+      <c r="G23" t="str" cm="1">
+        <f t="array" aca="1" ref="G23" ca="1">IF(Table513[[#This Row],[dsb_type]]="2DSB", "2", IF(Table513[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table513[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>1</v>
+      </c>
+      <c r="H23" t="str">
+        <f ca="1">'2_combined'!G24</f>
+        <v>R2</v>
+      </c>
+      <c r="I23" t="str">
+        <f ca="1">MID('2_combined'!I24, 3, 100)</f>
+        <v>B</v>
+      </c>
+      <c r="J23" t="str">
+        <f ca="1">'2_combined'!F24</f>
+        <v>KO</v>
+      </c>
+      <c r="K23" t="str">
+        <f ca="1">'2_combined'!H24</f>
+        <v>sense</v>
+      </c>
+      <c r="L23" t="s">
+        <v>110</v>
+      </c>
+      <c r="M23" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", dirs!$A$4, "/",Table513[[#This Row],[dir]], " -o ", dirs!$A$5, "/")</f>
+        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/KO_sgB_R2_sense -o libraries_5/</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" t="str">
+        <f ca="1">'2_combined'!J25</f>
+        <v>KO_sgB_R2_branch</v>
+      </c>
+      <c r="C24" t="str">
+        <f ca="1">'2_combined'!C25</f>
+        <v>none</v>
+      </c>
+      <c r="D24" t="str">
+        <f ca="1">'2_combined'!B25</f>
+        <v>1DSB_R2_branch.fa</v>
+      </c>
+      <c r="E24">
+        <f ca="1">'2_combined'!E25</f>
+        <v>46</v>
+      </c>
+      <c r="F24" t="str">
+        <f ca="1">'2_combined'!D25</f>
+        <v>1DSB</v>
+      </c>
+      <c r="G24" t="str" cm="1">
+        <f t="array" aca="1" ref="G24" ca="1">IF(Table513[[#This Row],[dsb_type]]="2DSB", "2", IF(Table513[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table513[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>1</v>
+      </c>
+      <c r="H24" t="str">
+        <f ca="1">'2_combined'!G25</f>
+        <v>R2</v>
+      </c>
+      <c r="I24" t="str">
+        <f ca="1">MID('2_combined'!I25, 3, 100)</f>
+        <v>B</v>
+      </c>
+      <c r="J24" t="str">
+        <f ca="1">'2_combined'!F25</f>
+        <v>KO</v>
+      </c>
+      <c r="K24" t="str">
+        <f ca="1">'2_combined'!H25</f>
+        <v>branch</v>
+      </c>
+      <c r="L24" t="s">
+        <v>110</v>
+      </c>
+      <c r="M24" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", dirs!$A$4, "/",Table513[[#This Row],[dir]], " -o ", dirs!$A$5, "/")</f>
+        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/KO_sgB_R2_branch -o libraries_5/</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" t="str">
+        <f ca="1">'2_combined'!J26</f>
+        <v>KO_sgB_R2_cmv</v>
+      </c>
+      <c r="C25" t="str">
+        <f ca="1">'2_combined'!C26</f>
+        <v>none</v>
+      </c>
+      <c r="D25" t="str">
+        <f ca="1">'2_combined'!B26</f>
+        <v>1DSB_R2_cmv.fa</v>
+      </c>
+      <c r="E25">
+        <f ca="1">'2_combined'!E26</f>
+        <v>46</v>
+      </c>
+      <c r="F25" t="str">
+        <f ca="1">'2_combined'!D26</f>
+        <v>1DSB</v>
+      </c>
+      <c r="G25" t="str" cm="1">
+        <f t="array" aca="1" ref="G25" ca="1">IF(Table513[[#This Row],[dsb_type]]="2DSB", "2", IF(Table513[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table513[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>1</v>
+      </c>
+      <c r="H25" t="str">
+        <f ca="1">'2_combined'!G26</f>
+        <v>R2</v>
+      </c>
+      <c r="I25" t="str">
+        <f ca="1">MID('2_combined'!I26, 3, 100)</f>
+        <v>B</v>
+      </c>
+      <c r="J25" t="str">
+        <f ca="1">'2_combined'!F26</f>
+        <v>KO</v>
+      </c>
+      <c r="K25" t="str">
+        <f ca="1">'2_combined'!H26</f>
+        <v>cmv</v>
+      </c>
+      <c r="L25" t="s">
+        <v>110</v>
+      </c>
+      <c r="M25" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", dirs!$A$4, "/",Table513[[#This Row],[dir]], " -o ", dirs!$A$5, "/")</f>
+        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/KO_sgB_R2_cmv -o libraries_5/</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" t="str">
+        <f ca="1">'2_combined'!J27</f>
+        <v>WT_sgCD_R1_antisense</v>
+      </c>
+      <c r="C26" t="str">
+        <f ca="1">'2_combined'!C27</f>
+        <v>none</v>
+      </c>
+      <c r="D26" t="str">
+        <f ca="1">'2_combined'!B27</f>
+        <v>2DSBanti_R1_antisense.fa</v>
+      </c>
+      <c r="E26">
+        <f ca="1">'2_combined'!E27</f>
+        <v>50</v>
+      </c>
+      <c r="F26" t="str">
+        <f ca="1">'2_combined'!D27</f>
+        <v>2DSBanti</v>
+      </c>
+      <c r="G26" t="str" cm="1">
+        <f t="array" aca="1" ref="G26" ca="1">IF(Table513[[#This Row],[dsb_type]]="2DSB", "2", IF(Table513[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table513[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>2a</v>
+      </c>
+      <c r="H26" t="str">
+        <f ca="1">'2_combined'!G27</f>
+        <v>R1</v>
+      </c>
+      <c r="I26" t="str">
+        <f ca="1">MID('2_combined'!I27, 3, 100)</f>
+        <v>CD</v>
+      </c>
+      <c r="J26" t="str">
+        <f ca="1">'2_combined'!F27</f>
+        <v>WT</v>
+      </c>
+      <c r="K26" t="str">
+        <f ca="1">'2_combined'!H27</f>
+        <v>antisense</v>
+      </c>
+      <c r="L26" t="s">
+        <v>110</v>
+      </c>
+      <c r="M26" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", dirs!$A$4, "/",Table513[[#This Row],[dir]], " -o ", dirs!$A$5, "/")</f>
+        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/WT_sgCD_R1_antisense -o libraries_5/</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" t="str">
+        <f ca="1">'2_combined'!J28</f>
+        <v>WT_sgCD_R1_splicing</v>
+      </c>
+      <c r="C27" t="str">
+        <f ca="1">'2_combined'!C28</f>
+        <v>none</v>
+      </c>
+      <c r="D27" t="str">
+        <f ca="1">'2_combined'!B28</f>
+        <v>2DSBanti_R1_splicing.fa</v>
+      </c>
+      <c r="E27">
+        <f ca="1">'2_combined'!E28</f>
+        <v>50</v>
+      </c>
+      <c r="F27" t="str">
+        <f ca="1">'2_combined'!D28</f>
+        <v>2DSBanti</v>
+      </c>
+      <c r="G27" t="str" cm="1">
+        <f t="array" aca="1" ref="G27" ca="1">IF(Table513[[#This Row],[dsb_type]]="2DSB", "2", IF(Table513[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table513[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>2a</v>
+      </c>
+      <c r="H27" t="str">
+        <f ca="1">'2_combined'!G28</f>
+        <v>R1</v>
+      </c>
+      <c r="I27" t="str">
+        <f ca="1">MID('2_combined'!I28, 3, 100)</f>
+        <v>CD</v>
+      </c>
+      <c r="J27" t="str">
+        <f ca="1">'2_combined'!F28</f>
+        <v>WT</v>
+      </c>
+      <c r="K27" t="str">
+        <f ca="1">'2_combined'!H28</f>
+        <v>splicing</v>
+      </c>
+      <c r="L27" t="s">
+        <v>110</v>
+      </c>
+      <c r="M27" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", dirs!$A$4, "/",Table513[[#This Row],[dir]], " -o ", dirs!$A$5, "/")</f>
+        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/WT_sgCD_R1_splicing -o libraries_5/</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" t="str">
+        <f ca="1">'2_combined'!J29</f>
+        <v>WT_sgCD_R2_antisense</v>
+      </c>
+      <c r="C28" t="str">
+        <f ca="1">'2_combined'!C29</f>
+        <v>none</v>
+      </c>
+      <c r="D28" t="str">
+        <f ca="1">'2_combined'!B29</f>
+        <v>2DSBanti_R2_antisense.fa</v>
+      </c>
+      <c r="E28">
+        <f ca="1">'2_combined'!E29</f>
+        <v>47</v>
+      </c>
+      <c r="F28" t="str">
+        <f ca="1">'2_combined'!D29</f>
+        <v>2DSBanti</v>
+      </c>
+      <c r="G28" t="str" cm="1">
+        <f t="array" aca="1" ref="G28" ca="1">IF(Table513[[#This Row],[dsb_type]]="2DSB", "2", IF(Table513[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table513[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>2a</v>
+      </c>
+      <c r="H28" t="str">
+        <f ca="1">'2_combined'!G29</f>
+        <v>R2</v>
+      </c>
+      <c r="I28" t="str">
+        <f ca="1">MID('2_combined'!I29, 3, 100)</f>
+        <v>CD</v>
+      </c>
+      <c r="J28" t="str">
+        <f ca="1">'2_combined'!F29</f>
+        <v>WT</v>
+      </c>
+      <c r="K28" t="str">
+        <f ca="1">'2_combined'!H29</f>
+        <v>antisense</v>
+      </c>
+      <c r="L28" t="s">
+        <v>110</v>
+      </c>
+      <c r="M28" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", dirs!$A$4, "/",Table513[[#This Row],[dir]], " -o ", dirs!$A$5, "/")</f>
+        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/WT_sgCD_R2_antisense -o libraries_5/</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+      <c r="B29" t="str">
+        <f ca="1">'2_combined'!J30</f>
+        <v>WT_sgCD_R2_splicing</v>
+      </c>
+      <c r="C29" t="str">
+        <f ca="1">'2_combined'!C30</f>
+        <v>none</v>
+      </c>
+      <c r="D29" t="str">
+        <f ca="1">'2_combined'!B30</f>
+        <v>2DSBanti_R2_splicing.fa</v>
+      </c>
+      <c r="E29">
+        <f ca="1">'2_combined'!E30</f>
+        <v>47</v>
+      </c>
+      <c r="F29" t="str">
+        <f ca="1">'2_combined'!D30</f>
+        <v>2DSBanti</v>
+      </c>
+      <c r="G29" t="str" cm="1">
+        <f t="array" aca="1" ref="G29" ca="1">IF(Table513[[#This Row],[dsb_type]]="2DSB", "2", IF(Table513[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table513[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>2a</v>
+      </c>
+      <c r="H29" t="str">
+        <f ca="1">'2_combined'!G30</f>
+        <v>R2</v>
+      </c>
+      <c r="I29" t="str">
+        <f ca="1">MID('2_combined'!I30, 3, 100)</f>
+        <v>CD</v>
+      </c>
+      <c r="J29" t="str">
+        <f ca="1">'2_combined'!F30</f>
+        <v>WT</v>
+      </c>
+      <c r="K29" t="str">
+        <f ca="1">'2_combined'!H30</f>
+        <v>splicing</v>
+      </c>
+      <c r="L29" t="s">
+        <v>110</v>
+      </c>
+      <c r="M29" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", dirs!$A$4, "/",Table513[[#This Row],[dir]], " -o ", dirs!$A$5, "/")</f>
+        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/WT_sgCD_R2_splicing -o libraries_5/</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" t="str">
+        <f ca="1">'2_combined'!J31</f>
+        <v>WT_sgA_R1_sense_30bpDown</v>
+      </c>
+      <c r="C30" t="str">
+        <f ca="1">'2_combined'!C31</f>
+        <v>30bpDown</v>
+      </c>
+      <c r="D30" t="str">
+        <f ca="1">'2_combined'!B31</f>
+        <v>1DSB_R1_sense.fa</v>
+      </c>
+      <c r="E30">
+        <f ca="1">'2_combined'!E31</f>
+        <v>97</v>
+      </c>
+      <c r="F30" t="str">
+        <f ca="1">'2_combined'!D31</f>
+        <v>1DSB</v>
+      </c>
+      <c r="G30" t="str" cm="1">
+        <f t="array" aca="1" ref="G30" ca="1">IF(Table513[[#This Row],[dsb_type]]="2DSB", "2", IF(Table513[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table513[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>1</v>
+      </c>
+      <c r="H30" t="str">
+        <f ca="1">'2_combined'!G31</f>
+        <v>R1</v>
+      </c>
+      <c r="I30" t="str">
+        <f ca="1">MID('2_combined'!I31, 3, 100)</f>
+        <v>A</v>
+      </c>
+      <c r="J30" t="str">
+        <f ca="1">'2_combined'!F31</f>
+        <v>WT</v>
+      </c>
+      <c r="K30" t="str">
+        <f ca="1">'2_combined'!H31</f>
+        <v>sense</v>
+      </c>
+      <c r="L30" t="s">
+        <v>110</v>
+      </c>
+      <c r="M30" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", dirs!$A$4, "/",Table513[[#This Row],[dir]], " -o ", dirs!$A$5, "/")</f>
+        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/WT_sgA_R1_sense_30bpDown -o libraries_5/</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>30</v>
+      </c>
+      <c r="B31" t="str">
+        <f ca="1">'2_combined'!J32</f>
+        <v>WT_sgA_R1_branch_30bpDown</v>
+      </c>
+      <c r="C31" t="str">
+        <f ca="1">'2_combined'!C32</f>
+        <v>30bpDown</v>
+      </c>
+      <c r="D31" t="str">
+        <f ca="1">'2_combined'!B32</f>
+        <v>1DSB_R1_branch.fa</v>
+      </c>
+      <c r="E31">
+        <f ca="1">'2_combined'!E32</f>
+        <v>97</v>
+      </c>
+      <c r="F31" t="str">
+        <f ca="1">'2_combined'!D32</f>
+        <v>1DSB</v>
+      </c>
+      <c r="G31" t="str" cm="1">
+        <f t="array" aca="1" ref="G31" ca="1">IF(Table513[[#This Row],[dsb_type]]="2DSB", "2", IF(Table513[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table513[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>1</v>
+      </c>
+      <c r="H31" t="str">
+        <f ca="1">'2_combined'!G32</f>
+        <v>R1</v>
+      </c>
+      <c r="I31" t="str">
+        <f ca="1">MID('2_combined'!I32, 3, 100)</f>
+        <v>A</v>
+      </c>
+      <c r="J31" t="str">
+        <f ca="1">'2_combined'!F32</f>
+        <v>WT</v>
+      </c>
+      <c r="K31" t="str">
+        <f ca="1">'2_combined'!H32</f>
+        <v>branch</v>
+      </c>
+      <c r="L31" t="s">
+        <v>110</v>
+      </c>
+      <c r="M31" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", dirs!$A$4, "/",Table513[[#This Row],[dir]], " -o ", dirs!$A$5, "/")</f>
+        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/WT_sgA_R1_branch_30bpDown -o libraries_5/</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>31</v>
+      </c>
+      <c r="B32" t="str">
+        <f ca="1">'2_combined'!J33</f>
+        <v>WT_sgA_R1_cmv_30bpDown</v>
+      </c>
+      <c r="C32" t="str">
+        <f ca="1">'2_combined'!C33</f>
+        <v>30bpDown</v>
+      </c>
+      <c r="D32" t="str">
+        <f ca="1">'2_combined'!B33</f>
+        <v>1DSB_R1_cmv.fa</v>
+      </c>
+      <c r="E32">
+        <f ca="1">'2_combined'!E33</f>
+        <v>97</v>
+      </c>
+      <c r="F32" t="str">
+        <f ca="1">'2_combined'!D33</f>
+        <v>1DSB</v>
+      </c>
+      <c r="G32" t="str" cm="1">
+        <f t="array" aca="1" ref="G32" ca="1">IF(Table513[[#This Row],[dsb_type]]="2DSB", "2", IF(Table513[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table513[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>1</v>
+      </c>
+      <c r="H32" t="str">
+        <f ca="1">'2_combined'!G33</f>
+        <v>R1</v>
+      </c>
+      <c r="I32" t="str">
+        <f ca="1">MID('2_combined'!I33, 3, 100)</f>
+        <v>A</v>
+      </c>
+      <c r="J32" t="str">
+        <f ca="1">'2_combined'!F33</f>
+        <v>WT</v>
+      </c>
+      <c r="K32" t="str">
+        <f ca="1">'2_combined'!H33</f>
+        <v>cmv</v>
+      </c>
+      <c r="L32" t="s">
+        <v>110</v>
+      </c>
+      <c r="M32" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", dirs!$A$4, "/",Table513[[#This Row],[dir]], " -o ", dirs!$A$5, "/")</f>
+        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/WT_sgA_R1_cmv_30bpDown -o libraries_5/</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>32</v>
+      </c>
+      <c r="B33" t="str">
+        <f ca="1">'2_combined'!J34</f>
+        <v>WT_sgB_R2_sense_30bpDown</v>
+      </c>
+      <c r="C33" t="str">
+        <f ca="1">'2_combined'!C34</f>
+        <v>30bpDown</v>
+      </c>
+      <c r="D33" t="str">
+        <f ca="1">'2_combined'!B34</f>
+        <v>1DSB_R2_sense.fa</v>
+      </c>
+      <c r="E33">
+        <f ca="1">'2_combined'!E34</f>
+        <v>76</v>
+      </c>
+      <c r="F33" t="str">
+        <f ca="1">'2_combined'!D34</f>
+        <v>1DSB</v>
+      </c>
+      <c r="G33" t="str" cm="1">
+        <f t="array" aca="1" ref="G33" ca="1">IF(Table513[[#This Row],[dsb_type]]="2DSB", "2", IF(Table513[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table513[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>1</v>
+      </c>
+      <c r="H33" t="str">
+        <f ca="1">'2_combined'!G34</f>
+        <v>R2</v>
+      </c>
+      <c r="I33" t="str">
+        <f ca="1">MID('2_combined'!I34, 3, 100)</f>
+        <v>B</v>
+      </c>
+      <c r="J33" t="str">
+        <f ca="1">'2_combined'!F34</f>
+        <v>WT</v>
+      </c>
+      <c r="K33" t="str">
+        <f ca="1">'2_combined'!H34</f>
+        <v>sense</v>
+      </c>
+      <c r="L33" t="s">
+        <v>110</v>
+      </c>
+      <c r="M33" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", dirs!$A$4, "/",Table513[[#This Row],[dir]], " -o ", dirs!$A$5, "/")</f>
+        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/WT_sgB_R2_sense_30bpDown -o libraries_5/</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>33</v>
+      </c>
+      <c r="B34" t="str">
+        <f ca="1">'2_combined'!J35</f>
+        <v>WT_sgB_R2_branch_30bpDown</v>
+      </c>
+      <c r="C34" t="str">
+        <f ca="1">'2_combined'!C35</f>
+        <v>30bpDown</v>
+      </c>
+      <c r="D34" t="str">
+        <f ca="1">'2_combined'!B35</f>
+        <v>1DSB_R2_branch.fa</v>
+      </c>
+      <c r="E34">
+        <f ca="1">'2_combined'!E35</f>
+        <v>76</v>
+      </c>
+      <c r="F34" t="str">
+        <f ca="1">'2_combined'!D35</f>
+        <v>1DSB</v>
+      </c>
+      <c r="G34" t="str" cm="1">
+        <f t="array" aca="1" ref="G34" ca="1">IF(Table513[[#This Row],[dsb_type]]="2DSB", "2", IF(Table513[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table513[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>1</v>
+      </c>
+      <c r="H34" t="str">
+        <f ca="1">'2_combined'!G35</f>
+        <v>R2</v>
+      </c>
+      <c r="I34" t="str">
+        <f ca="1">MID('2_combined'!I35, 3, 100)</f>
+        <v>B</v>
+      </c>
+      <c r="J34" t="str">
+        <f ca="1">'2_combined'!F35</f>
+        <v>WT</v>
+      </c>
+      <c r="K34" t="str">
+        <f ca="1">'2_combined'!H35</f>
+        <v>branch</v>
+      </c>
+      <c r="L34" t="s">
+        <v>110</v>
+      </c>
+      <c r="M34" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", dirs!$A$4, "/",Table513[[#This Row],[dir]], " -o ", dirs!$A$5, "/")</f>
+        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/WT_sgB_R2_branch_30bpDown -o libraries_5/</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>34</v>
+      </c>
+      <c r="B35" t="str">
+        <f ca="1">'2_combined'!J36</f>
+        <v>WT_sgB_R2_cmv_30bpDown</v>
+      </c>
+      <c r="C35" t="str">
+        <f ca="1">'2_combined'!C36</f>
+        <v>30bpDown</v>
+      </c>
+      <c r="D35" t="str">
+        <f ca="1">'2_combined'!B36</f>
+        <v>1DSB_R2_cmv.fa</v>
+      </c>
+      <c r="E35">
+        <f ca="1">'2_combined'!E36</f>
+        <v>76</v>
+      </c>
+      <c r="F35" t="str">
+        <f ca="1">'2_combined'!D36</f>
+        <v>1DSB</v>
+      </c>
+      <c r="G35" t="str" cm="1">
+        <f t="array" aca="1" ref="G35" ca="1">IF(Table513[[#This Row],[dsb_type]]="2DSB", "2", IF(Table513[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table513[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>1</v>
+      </c>
+      <c r="H35" t="str">
+        <f ca="1">'2_combined'!G36</f>
+        <v>R2</v>
+      </c>
+      <c r="I35" t="str">
+        <f ca="1">MID('2_combined'!I36, 3, 100)</f>
+        <v>B</v>
+      </c>
+      <c r="J35" t="str">
+        <f ca="1">'2_combined'!F36</f>
+        <v>WT</v>
+      </c>
+      <c r="K35" t="str">
+        <f ca="1">'2_combined'!H36</f>
+        <v>cmv</v>
+      </c>
+      <c r="L35" t="s">
+        <v>110</v>
+      </c>
+      <c r="M35" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", dirs!$A$4, "/",Table513[[#This Row],[dir]], " -o ", dirs!$A$5, "/")</f>
+        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/WT_sgB_R2_cmv_30bpDown -o libraries_5/</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>35</v>
+      </c>
+      <c r="B36" t="str">
+        <f ca="1">'2_combined'!J37</f>
+        <v>KO_sgA_R1_sense_30bpDown</v>
+      </c>
+      <c r="C36" t="str">
+        <f ca="1">'2_combined'!C37</f>
+        <v>30bpDown</v>
+      </c>
+      <c r="D36" t="str">
+        <f ca="1">'2_combined'!B37</f>
+        <v>1DSB_R1_sense.fa</v>
+      </c>
+      <c r="E36">
+        <f ca="1">'2_combined'!E37</f>
+        <v>97</v>
+      </c>
+      <c r="F36" t="str">
+        <f ca="1">'2_combined'!D37</f>
+        <v>1DSB</v>
+      </c>
+      <c r="G36" t="str" cm="1">
+        <f t="array" aca="1" ref="G36" ca="1">IF(Table513[[#This Row],[dsb_type]]="2DSB", "2", IF(Table513[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table513[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>1</v>
+      </c>
+      <c r="H36" t="str">
+        <f ca="1">'2_combined'!G37</f>
+        <v>R1</v>
+      </c>
+      <c r="I36" t="str">
+        <f ca="1">MID('2_combined'!I37, 3, 100)</f>
+        <v>A</v>
+      </c>
+      <c r="J36" t="str">
+        <f ca="1">'2_combined'!F37</f>
+        <v>KO</v>
+      </c>
+      <c r="K36" t="str">
+        <f ca="1">'2_combined'!H37</f>
+        <v>sense</v>
+      </c>
+      <c r="L36" t="s">
+        <v>110</v>
+      </c>
+      <c r="M36" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", dirs!$A$4, "/",Table513[[#This Row],[dir]], " -o ", dirs!$A$5, "/")</f>
+        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/KO_sgA_R1_sense_30bpDown -o libraries_5/</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>36</v>
+      </c>
+      <c r="B37" t="str">
+        <f ca="1">'2_combined'!J38</f>
+        <v>KO_sgA_R1_branch_30bpDown</v>
+      </c>
+      <c r="C37" t="str">
+        <f ca="1">'2_combined'!C38</f>
+        <v>30bpDown</v>
+      </c>
+      <c r="D37" t="str">
+        <f ca="1">'2_combined'!B38</f>
+        <v>1DSB_R1_branch.fa</v>
+      </c>
+      <c r="E37">
+        <f ca="1">'2_combined'!E38</f>
+        <v>97</v>
+      </c>
+      <c r="F37" t="str">
+        <f ca="1">'2_combined'!D38</f>
+        <v>1DSB</v>
+      </c>
+      <c r="G37" t="str" cm="1">
+        <f t="array" aca="1" ref="G37" ca="1">IF(Table513[[#This Row],[dsb_type]]="2DSB", "2", IF(Table513[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table513[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>1</v>
+      </c>
+      <c r="H37" t="str">
+        <f ca="1">'2_combined'!G38</f>
+        <v>R1</v>
+      </c>
+      <c r="I37" t="str">
+        <f ca="1">MID('2_combined'!I38, 3, 100)</f>
+        <v>A</v>
+      </c>
+      <c r="J37" t="str">
+        <f ca="1">'2_combined'!F38</f>
+        <v>KO</v>
+      </c>
+      <c r="K37" t="str">
+        <f ca="1">'2_combined'!H38</f>
+        <v>branch</v>
+      </c>
+      <c r="L37" t="s">
+        <v>110</v>
+      </c>
+      <c r="M37" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", dirs!$A$4, "/",Table513[[#This Row],[dir]], " -o ", dirs!$A$5, "/")</f>
+        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/KO_sgA_R1_branch_30bpDown -o libraries_5/</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>37</v>
+      </c>
+      <c r="B38" t="str">
+        <f ca="1">'2_combined'!J39</f>
+        <v>KO_sgA_R1_cmv_30bpDown</v>
+      </c>
+      <c r="C38" t="str">
+        <f ca="1">'2_combined'!C39</f>
+        <v>30bpDown</v>
+      </c>
+      <c r="D38" t="str">
+        <f ca="1">'2_combined'!B39</f>
+        <v>1DSB_R1_cmv.fa</v>
+      </c>
+      <c r="E38">
+        <f ca="1">'2_combined'!E39</f>
+        <v>97</v>
+      </c>
+      <c r="F38" t="str">
+        <f ca="1">'2_combined'!D39</f>
+        <v>1DSB</v>
+      </c>
+      <c r="G38" t="str" cm="1">
+        <f t="array" aca="1" ref="G38" ca="1">IF(Table513[[#This Row],[dsb_type]]="2DSB", "2", IF(Table513[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table513[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>1</v>
+      </c>
+      <c r="H38" t="str">
+        <f ca="1">'2_combined'!G39</f>
+        <v>R1</v>
+      </c>
+      <c r="I38" t="str">
+        <f ca="1">MID('2_combined'!I39, 3, 100)</f>
+        <v>A</v>
+      </c>
+      <c r="J38" t="str">
+        <f ca="1">'2_combined'!F39</f>
+        <v>KO</v>
+      </c>
+      <c r="K38" t="str">
+        <f ca="1">'2_combined'!H39</f>
+        <v>cmv</v>
+      </c>
+      <c r="L38" t="s">
+        <v>110</v>
+      </c>
+      <c r="M38" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", dirs!$A$4, "/",Table513[[#This Row],[dir]], " -o ", dirs!$A$5, "/")</f>
+        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/KO_sgA_R1_cmv_30bpDown -o libraries_5/</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>38</v>
+      </c>
+      <c r="B39" t="str">
+        <f ca="1">'2_combined'!J40</f>
+        <v>KO_sgB_R2_sense_30bpDown</v>
+      </c>
+      <c r="C39" t="str">
+        <f ca="1">'2_combined'!C40</f>
+        <v>30bpDown</v>
+      </c>
+      <c r="D39" t="str">
+        <f ca="1">'2_combined'!B40</f>
+        <v>1DSB_R2_sense.fa</v>
+      </c>
+      <c r="E39">
+        <f ca="1">'2_combined'!E40</f>
+        <v>76</v>
+      </c>
+      <c r="F39" t="str">
+        <f ca="1">'2_combined'!D40</f>
+        <v>1DSB</v>
+      </c>
+      <c r="G39" t="str" cm="1">
+        <f t="array" aca="1" ref="G39" ca="1">IF(Table513[[#This Row],[dsb_type]]="2DSB", "2", IF(Table513[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table513[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>1</v>
+      </c>
+      <c r="H39" t="str">
+        <f ca="1">'2_combined'!G40</f>
+        <v>R2</v>
+      </c>
+      <c r="I39" t="str">
+        <f ca="1">MID('2_combined'!I40, 3, 100)</f>
+        <v>B</v>
+      </c>
+      <c r="J39" t="str">
+        <f ca="1">'2_combined'!F40</f>
+        <v>KO</v>
+      </c>
+      <c r="K39" t="str">
+        <f ca="1">'2_combined'!H40</f>
+        <v>sense</v>
+      </c>
+      <c r="L39" t="s">
+        <v>110</v>
+      </c>
+      <c r="M39" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", dirs!$A$4, "/",Table513[[#This Row],[dir]], " -o ", dirs!$A$5, "/")</f>
+        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/KO_sgB_R2_sense_30bpDown -o libraries_5/</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>39</v>
+      </c>
+      <c r="B40" t="str">
+        <f ca="1">'2_combined'!J41</f>
+        <v>KO_sgB_R2_branch_30bpDown</v>
+      </c>
+      <c r="C40" t="str">
+        <f ca="1">'2_combined'!C41</f>
+        <v>30bpDown</v>
+      </c>
+      <c r="D40" t="str">
+        <f ca="1">'2_combined'!B41</f>
+        <v>1DSB_R2_branch.fa</v>
+      </c>
+      <c r="E40">
+        <f ca="1">'2_combined'!E41</f>
+        <v>76</v>
+      </c>
+      <c r="F40" t="str">
+        <f ca="1">'2_combined'!D41</f>
+        <v>1DSB</v>
+      </c>
+      <c r="G40" t="str" cm="1">
+        <f t="array" aca="1" ref="G40" ca="1">IF(Table513[[#This Row],[dsb_type]]="2DSB", "2", IF(Table513[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table513[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>1</v>
+      </c>
+      <c r="H40" t="str">
+        <f ca="1">'2_combined'!G41</f>
+        <v>R2</v>
+      </c>
+      <c r="I40" t="str">
+        <f ca="1">MID('2_combined'!I41, 3, 100)</f>
+        <v>B</v>
+      </c>
+      <c r="J40" t="str">
+        <f ca="1">'2_combined'!F41</f>
+        <v>KO</v>
+      </c>
+      <c r="K40" t="str">
+        <f ca="1">'2_combined'!H41</f>
+        <v>branch</v>
+      </c>
+      <c r="L40" t="s">
+        <v>110</v>
+      </c>
+      <c r="M40" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", dirs!$A$4, "/",Table513[[#This Row],[dir]], " -o ", dirs!$A$5, "/")</f>
+        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/KO_sgB_R2_branch_30bpDown -o libraries_5/</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>40</v>
+      </c>
+      <c r="B41" t="str">
+        <f ca="1">'2_combined'!J42</f>
+        <v>KO_sgB_R2_cmv_30bpDown</v>
+      </c>
+      <c r="C41" t="str">
+        <f ca="1">'2_combined'!C42</f>
+        <v>30bpDown</v>
+      </c>
+      <c r="D41" t="str">
+        <f ca="1">'2_combined'!B42</f>
+        <v>1DSB_R2_cmv.fa</v>
+      </c>
+      <c r="E41">
+        <f ca="1">'2_combined'!E42</f>
+        <v>76</v>
+      </c>
+      <c r="F41" t="str">
+        <f ca="1">'2_combined'!D42</f>
+        <v>1DSB</v>
+      </c>
+      <c r="G41" t="str" cm="1">
+        <f t="array" aca="1" ref="G41" ca="1">IF(Table513[[#This Row],[dsb_type]]="2DSB", "2", IF(Table513[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table513[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>1</v>
+      </c>
+      <c r="H41" t="str">
+        <f ca="1">'2_combined'!G42</f>
+        <v>R2</v>
+      </c>
+      <c r="I41" t="str">
+        <f ca="1">MID('2_combined'!I42, 3, 100)</f>
+        <v>B</v>
+      </c>
+      <c r="J41" t="str">
+        <f ca="1">'2_combined'!F42</f>
+        <v>KO</v>
+      </c>
+      <c r="K41" t="str">
+        <f ca="1">'2_combined'!H42</f>
+        <v>cmv</v>
+      </c>
+      <c r="L41" t="s">
+        <v>110</v>
+      </c>
+      <c r="M41" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", dirs!$A$4, "/",Table513[[#This Row],[dir]], " -o ", dirs!$A$5, "/")</f>
+        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/KO_sgB_R2_cmv_30bpDown -o libraries_5/</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>116</v>
+      </c>
+      <c r="B43" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43" t="s">
+        <v>139</v>
+      </c>
+      <c r="D43" t="s">
+        <v>89</v>
+      </c>
+      <c r="E43" t="s">
+        <v>104</v>
+      </c>
+      <c r="F43" t="s">
+        <v>105</v>
+      </c>
+      <c r="G43" t="s">
+        <v>148</v>
+      </c>
+      <c r="H43" t="s">
+        <v>84</v>
+      </c>
+      <c r="I43" t="s">
+        <v>106</v>
+      </c>
+      <c r="J43" t="s">
+        <v>107</v>
+      </c>
+      <c r="K43" t="s">
+        <v>83</v>
+      </c>
+      <c r="L43" t="s">
+        <v>109</v>
+      </c>
+      <c r="M43" t="s">
+        <v>111</v>
+      </c>
+      <c r="N43" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44" t="str">
+        <f>'2_combined'!J45</f>
+        <v>WT_sgA_R1_sense_nodsb</v>
+      </c>
+      <c r="C44" t="str">
+        <f>SUBSTITUTE('2_combined'!C45, "dsb", "DSB")</f>
+        <v>noDSB</v>
+      </c>
+      <c r="D44" t="str">
+        <f>'2_combined'!B45</f>
+        <v>1DSB_R1_sense.fa</v>
+      </c>
+      <c r="E44">
+        <f>'2_combined'!E45</f>
+        <v>67</v>
+      </c>
+      <c r="F44" t="str">
+        <f>'2_combined'!D45</f>
+        <v>1DSB</v>
+      </c>
+      <c r="G44" t="str" cm="1">
+        <f t="array" ref="G44">IF(Table1014[[#This Row],[dsb_type]]="2DSB", "2", IF(Table1014[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table1014[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>1</v>
+      </c>
+      <c r="H44" t="str">
+        <f>'2_combined'!G45</f>
+        <v>R1</v>
+      </c>
+      <c r="I44" t="str">
+        <f>MID('2_combined'!I45, 3, 100)</f>
+        <v>A</v>
+      </c>
+      <c r="J44" t="str">
+        <f>'2_combined'!F45</f>
+        <v>WT</v>
+      </c>
+      <c r="K44" t="str">
+        <f>'2_combined'!H45</f>
+        <v>sense</v>
+      </c>
+      <c r="L44" t="s">
+        <v>110</v>
+      </c>
+      <c r="M44" t="str">
+        <f>_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/",Table1014[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table1014[[#This Row],[dir]], " -ref ref_seq/", Table1014[[#This Row],[ref]], " -dsb ", Table1014[[#This Row],[dsb_pos]], " --dsb_type ",Table1014[[#This Row],[dsb_type_command]], " --strand ", Table1014[[#This Row],[strand]], " --hguide ", Table1014[[#This Row],[hguide]], " --cell ", Table1014[[#This Row],[cell]], " --treatment ", Table1014[[#This Row],[treatment]], " --subst_type ", Table1014[[#This Row],[subst_type]], " --control ", Table1014[[#This Row],[control]])</f>
+        <v>python 2_graph_processing/make_main_data.py -in libraries_3/WT_sgA_R1_sense_nodsb.tsv -o libraries_4/WT_sgA_R1_sense_nodsb -ref ref_seq/1DSB_R1_sense.fa -dsb 67 --dsb_type 1 --strand R1 --hguide A --cell WT --treatment sense --subst_type without --control noDSB</v>
+      </c>
+      <c r="N44" t="str">
+        <f>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table1014[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table1014[[#This Row],[dir]])</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgA_R1_sense_nodsb</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>2</v>
+      </c>
+      <c r="B45" t="str">
+        <f>'2_combined'!J46</f>
+        <v>WT_sgA_R1_branch_nodsb</v>
+      </c>
+      <c r="C45" t="str">
+        <f>SUBSTITUTE('2_combined'!C46, "dsb", "DSB")</f>
+        <v>noDSB</v>
+      </c>
+      <c r="D45" t="str">
+        <f>'2_combined'!B46</f>
+        <v>1DSB_R1_branch.fa</v>
+      </c>
+      <c r="E45">
+        <f>'2_combined'!E46</f>
+        <v>67</v>
+      </c>
+      <c r="F45" t="str">
+        <f>'2_combined'!D46</f>
+        <v>1DSB</v>
+      </c>
+      <c r="G45" t="str" cm="1">
+        <f t="array" ref="G45">IF(Table1014[[#This Row],[dsb_type]]="2DSB", "2", IF(Table1014[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table1014[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>1</v>
+      </c>
+      <c r="H45" t="str">
+        <f>'2_combined'!G46</f>
+        <v>R1</v>
+      </c>
+      <c r="I45" t="str">
+        <f>MID('2_combined'!I46, 3, 100)</f>
+        <v>A</v>
+      </c>
+      <c r="J45" t="str">
+        <f>'2_combined'!F46</f>
+        <v>WT</v>
+      </c>
+      <c r="K45" t="str">
+        <f>'2_combined'!H46</f>
+        <v>branch</v>
+      </c>
+      <c r="L45" t="s">
+        <v>110</v>
+      </c>
+      <c r="M45" t="str">
+        <f>_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/",Table1014[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table1014[[#This Row],[dir]], " -ref ref_seq/", Table1014[[#This Row],[ref]], " -dsb ", Table1014[[#This Row],[dsb_pos]], " --dsb_type ",Table1014[[#This Row],[dsb_type_command]], " --strand ", Table1014[[#This Row],[strand]], " --hguide ", Table1014[[#This Row],[hguide]], " --cell ", Table1014[[#This Row],[cell]], " --treatment ", Table1014[[#This Row],[treatment]], " --subst_type ", Table1014[[#This Row],[subst_type]], " --control ", Table1014[[#This Row],[control]])</f>
+        <v>python 2_graph_processing/make_main_data.py -in libraries_3/WT_sgA_R1_branch_nodsb.tsv -o libraries_4/WT_sgA_R1_branch_nodsb -ref ref_seq/1DSB_R1_branch.fa -dsb 67 --dsb_type 1 --strand R1 --hguide A --cell WT --treatment branch --subst_type without --control noDSB</v>
+      </c>
+      <c r="N45" t="str">
+        <f>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table1014[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table1014[[#This Row],[dir]])</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgA_R1_branch_nodsb</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>3</v>
+      </c>
+      <c r="B46" t="str">
+        <f>'2_combined'!J47</f>
+        <v>WT_sgA_R1_cmv_nodsb</v>
+      </c>
+      <c r="C46" t="str">
+        <f>SUBSTITUTE('2_combined'!C47, "dsb", "DSB")</f>
+        <v>noDSB</v>
+      </c>
+      <c r="D46" t="str">
+        <f>'2_combined'!B47</f>
+        <v>1DSB_R1_cmv.fa</v>
+      </c>
+      <c r="E46">
+        <f>'2_combined'!E47</f>
+        <v>67</v>
+      </c>
+      <c r="F46" t="str">
+        <f>'2_combined'!D47</f>
+        <v>1DSB</v>
+      </c>
+      <c r="G46" t="str" cm="1">
+        <f t="array" ref="G46">IF(Table1014[[#This Row],[dsb_type]]="2DSB", "2", IF(Table1014[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table1014[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>1</v>
+      </c>
+      <c r="H46" t="str">
+        <f>'2_combined'!G47</f>
+        <v>R1</v>
+      </c>
+      <c r="I46" t="str">
+        <f>MID('2_combined'!I47, 3, 100)</f>
+        <v>A</v>
+      </c>
+      <c r="J46" t="str">
+        <f>'2_combined'!F47</f>
+        <v>WT</v>
+      </c>
+      <c r="K46" t="str">
+        <f>'2_combined'!H47</f>
+        <v>cmv</v>
+      </c>
+      <c r="L46" t="s">
+        <v>110</v>
+      </c>
+      <c r="M46" t="str">
+        <f>_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/",Table1014[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table1014[[#This Row],[dir]], " -ref ref_seq/", Table1014[[#This Row],[ref]], " -dsb ", Table1014[[#This Row],[dsb_pos]], " --dsb_type ",Table1014[[#This Row],[dsb_type_command]], " --strand ", Table1014[[#This Row],[strand]], " --hguide ", Table1014[[#This Row],[hguide]], " --cell ", Table1014[[#This Row],[cell]], " --treatment ", Table1014[[#This Row],[treatment]], " --subst_type ", Table1014[[#This Row],[subst_type]], " --control ", Table1014[[#This Row],[control]])</f>
+        <v>python 2_graph_processing/make_main_data.py -in libraries_3/WT_sgA_R1_cmv_nodsb.tsv -o libraries_4/WT_sgA_R1_cmv_nodsb -ref ref_seq/1DSB_R1_cmv.fa -dsb 67 --dsb_type 1 --strand R1 --hguide A --cell WT --treatment cmv --subst_type without --control noDSB</v>
+      </c>
+      <c r="N46" t="str">
+        <f>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table1014[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table1014[[#This Row],[dir]])</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgA_R1_cmv_nodsb</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>4</v>
+      </c>
+      <c r="B47" t="str">
+        <f>'2_combined'!J48</f>
+        <v>KO_sgA_R1_sense_nodsb</v>
+      </c>
+      <c r="C47" t="str">
+        <f>SUBSTITUTE('2_combined'!C48, "dsb", "DSB")</f>
+        <v>noDSB</v>
+      </c>
+      <c r="D47" t="str">
+        <f>'2_combined'!B48</f>
+        <v>1DSB_R1_sense.fa</v>
+      </c>
+      <c r="E47">
+        <f>'2_combined'!E48</f>
+        <v>67</v>
+      </c>
+      <c r="F47" t="str">
+        <f>'2_combined'!D48</f>
+        <v>1DSB</v>
+      </c>
+      <c r="G47" t="str" cm="1">
+        <f t="array" ref="G47">IF(Table1014[[#This Row],[dsb_type]]="2DSB", "2", IF(Table1014[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table1014[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>1</v>
+      </c>
+      <c r="H47" t="str">
+        <f>'2_combined'!G48</f>
+        <v>R1</v>
+      </c>
+      <c r="I47" t="str">
+        <f>MID('2_combined'!I48, 3, 100)</f>
+        <v>A</v>
+      </c>
+      <c r="J47" t="str">
+        <f>'2_combined'!F48</f>
+        <v>KO</v>
+      </c>
+      <c r="K47" t="str">
+        <f>'2_combined'!H48</f>
+        <v>sense</v>
+      </c>
+      <c r="L47" t="s">
+        <v>110</v>
+      </c>
+      <c r="M47" t="str">
+        <f>_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/",Table1014[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table1014[[#This Row],[dir]], " -ref ref_seq/", Table1014[[#This Row],[ref]], " -dsb ", Table1014[[#This Row],[dsb_pos]], " --dsb_type ",Table1014[[#This Row],[dsb_type_command]], " --strand ", Table1014[[#This Row],[strand]], " --hguide ", Table1014[[#This Row],[hguide]], " --cell ", Table1014[[#This Row],[cell]], " --treatment ", Table1014[[#This Row],[treatment]], " --subst_type ", Table1014[[#This Row],[subst_type]], " --control ", Table1014[[#This Row],[control]])</f>
+        <v>python 2_graph_processing/make_main_data.py -in libraries_3/KO_sgA_R1_sense_nodsb.tsv -o libraries_4/KO_sgA_R1_sense_nodsb -ref ref_seq/1DSB_R1_sense.fa -dsb 67 --dsb_type 1 --strand R1 --hguide A --cell KO --treatment sense --subst_type without --control noDSB</v>
+      </c>
+      <c r="N47" t="str">
+        <f>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table1014[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table1014[[#This Row],[dir]])</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgA_R1_sense_nodsb</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>5</v>
+      </c>
+      <c r="B48" t="str">
+        <f>'2_combined'!J49</f>
+        <v>KO_sgA_R1_branch_nodsb</v>
+      </c>
+      <c r="C48" t="str">
+        <f>SUBSTITUTE('2_combined'!C49, "dsb", "DSB")</f>
+        <v>noDSB</v>
+      </c>
+      <c r="D48" t="str">
+        <f>'2_combined'!B49</f>
+        <v>1DSB_R1_branch.fa</v>
+      </c>
+      <c r="E48">
+        <f>'2_combined'!E49</f>
+        <v>67</v>
+      </c>
+      <c r="F48" t="str">
+        <f>'2_combined'!D49</f>
+        <v>1DSB</v>
+      </c>
+      <c r="G48" t="str" cm="1">
+        <f t="array" ref="G48">IF(Table1014[[#This Row],[dsb_type]]="2DSB", "2", IF(Table1014[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table1014[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>1</v>
+      </c>
+      <c r="H48" t="str">
+        <f>'2_combined'!G49</f>
+        <v>R1</v>
+      </c>
+      <c r="I48" t="str">
+        <f>MID('2_combined'!I49, 3, 100)</f>
+        <v>A</v>
+      </c>
+      <c r="J48" t="str">
+        <f>'2_combined'!F49</f>
+        <v>KO</v>
+      </c>
+      <c r="K48" t="str">
+        <f>'2_combined'!H49</f>
+        <v>branch</v>
+      </c>
+      <c r="L48" t="s">
+        <v>110</v>
+      </c>
+      <c r="M48" t="str">
+        <f>_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/",Table1014[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table1014[[#This Row],[dir]], " -ref ref_seq/", Table1014[[#This Row],[ref]], " -dsb ", Table1014[[#This Row],[dsb_pos]], " --dsb_type ",Table1014[[#This Row],[dsb_type_command]], " --strand ", Table1014[[#This Row],[strand]], " --hguide ", Table1014[[#This Row],[hguide]], " --cell ", Table1014[[#This Row],[cell]], " --treatment ", Table1014[[#This Row],[treatment]], " --subst_type ", Table1014[[#This Row],[subst_type]], " --control ", Table1014[[#This Row],[control]])</f>
+        <v>python 2_graph_processing/make_main_data.py -in libraries_3/KO_sgA_R1_branch_nodsb.tsv -o libraries_4/KO_sgA_R1_branch_nodsb -ref ref_seq/1DSB_R1_branch.fa -dsb 67 --dsb_type 1 --strand R1 --hguide A --cell KO --treatment branch --subst_type without --control noDSB</v>
+      </c>
+      <c r="N48" t="str">
+        <f>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table1014[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table1014[[#This Row],[dir]])</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgA_R1_branch_nodsb</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>6</v>
+      </c>
+      <c r="B49" t="str">
+        <f>'2_combined'!J50</f>
+        <v>KO_sgA_R1_cmv_nodsb</v>
+      </c>
+      <c r="C49" t="str">
+        <f>SUBSTITUTE('2_combined'!C50, "dsb", "DSB")</f>
+        <v>noDSB</v>
+      </c>
+      <c r="D49" t="str">
+        <f>'2_combined'!B50</f>
+        <v>1DSB_R1_cmv.fa</v>
+      </c>
+      <c r="E49">
+        <f>'2_combined'!E50</f>
+        <v>67</v>
+      </c>
+      <c r="F49" t="str">
+        <f>'2_combined'!D50</f>
+        <v>1DSB</v>
+      </c>
+      <c r="G49" t="str" cm="1">
+        <f t="array" ref="G49">IF(Table1014[[#This Row],[dsb_type]]="2DSB", "2", IF(Table1014[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table1014[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>1</v>
+      </c>
+      <c r="H49" t="str">
+        <f>'2_combined'!G50</f>
+        <v>R1</v>
+      </c>
+      <c r="I49" t="str">
+        <f>MID('2_combined'!I50, 3, 100)</f>
+        <v>A</v>
+      </c>
+      <c r="J49" t="str">
+        <f>'2_combined'!F50</f>
+        <v>KO</v>
+      </c>
+      <c r="K49" t="str">
+        <f>'2_combined'!H50</f>
+        <v>cmv</v>
+      </c>
+      <c r="L49" t="s">
+        <v>110</v>
+      </c>
+      <c r="M49" t="str">
+        <f>_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/",Table1014[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table1014[[#This Row],[dir]], " -ref ref_seq/", Table1014[[#This Row],[ref]], " -dsb ", Table1014[[#This Row],[dsb_pos]], " --dsb_type ",Table1014[[#This Row],[dsb_type_command]], " --strand ", Table1014[[#This Row],[strand]], " --hguide ", Table1014[[#This Row],[hguide]], " --cell ", Table1014[[#This Row],[cell]], " --treatment ", Table1014[[#This Row],[treatment]], " --subst_type ", Table1014[[#This Row],[subst_type]], " --control ", Table1014[[#This Row],[control]])</f>
+        <v>python 2_graph_processing/make_main_data.py -in libraries_3/KO_sgA_R1_cmv_nodsb.tsv -o libraries_4/KO_sgA_R1_cmv_nodsb -ref ref_seq/1DSB_R1_cmv.fa -dsb 67 --dsb_type 1 --strand R1 --hguide A --cell KO --treatment cmv --subst_type without --control noDSB</v>
+      </c>
+      <c r="N49" t="str">
+        <f>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table1014[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table1014[[#This Row],[dir]])</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgA_R1_cmv_nodsb</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>7</v>
+      </c>
+      <c r="B50" t="str">
+        <f>'2_combined'!J51</f>
+        <v>WT_sgB_R2_sense_nodsb</v>
+      </c>
+      <c r="C50" t="str">
+        <f>SUBSTITUTE('2_combined'!C51, "dsb", "DSB")</f>
+        <v>noDSB</v>
+      </c>
+      <c r="D50" t="str">
+        <f>'2_combined'!B51</f>
+        <v>1DSB_R2_sense.fa</v>
+      </c>
+      <c r="E50">
+        <f>'2_combined'!E51</f>
+        <v>46</v>
+      </c>
+      <c r="F50" t="str">
+        <f>'2_combined'!D51</f>
+        <v>1DSB</v>
+      </c>
+      <c r="G50" t="str" cm="1">
+        <f t="array" ref="G50">IF(Table1014[[#This Row],[dsb_type]]="2DSB", "2", IF(Table1014[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table1014[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>1</v>
+      </c>
+      <c r="H50" t="str">
+        <f>'2_combined'!G51</f>
+        <v>R2</v>
+      </c>
+      <c r="I50" t="str">
+        <f>MID('2_combined'!I51, 3, 100)</f>
+        <v>B</v>
+      </c>
+      <c r="J50" t="str">
+        <f>'2_combined'!F51</f>
+        <v>WT</v>
+      </c>
+      <c r="K50" t="str">
+        <f>'2_combined'!H51</f>
+        <v>sense</v>
+      </c>
+      <c r="L50" t="s">
+        <v>110</v>
+      </c>
+      <c r="M50" t="str">
+        <f>_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/",Table1014[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table1014[[#This Row],[dir]], " -ref ref_seq/", Table1014[[#This Row],[ref]], " -dsb ", Table1014[[#This Row],[dsb_pos]], " --dsb_type ",Table1014[[#This Row],[dsb_type_command]], " --strand ", Table1014[[#This Row],[strand]], " --hguide ", Table1014[[#This Row],[hguide]], " --cell ", Table1014[[#This Row],[cell]], " --treatment ", Table1014[[#This Row],[treatment]], " --subst_type ", Table1014[[#This Row],[subst_type]], " --control ", Table1014[[#This Row],[control]])</f>
+        <v>python 2_graph_processing/make_main_data.py -in libraries_3/WT_sgB_R2_sense_nodsb.tsv -o libraries_4/WT_sgB_R2_sense_nodsb -ref ref_seq/1DSB_R2_sense.fa -dsb 46 --dsb_type 1 --strand R2 --hguide B --cell WT --treatment sense --subst_type without --control noDSB</v>
+      </c>
+      <c r="N50" t="str">
+        <f>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table1014[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table1014[[#This Row],[dir]])</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgB_R2_sense_nodsb</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>8</v>
+      </c>
+      <c r="B51" t="str">
+        <f>'2_combined'!J52</f>
+        <v>WT_sgB_R2_branch_nodsb</v>
+      </c>
+      <c r="C51" t="str">
+        <f>SUBSTITUTE('2_combined'!C52, "dsb", "DSB")</f>
+        <v>noDSB</v>
+      </c>
+      <c r="D51" t="str">
+        <f>'2_combined'!B52</f>
+        <v>1DSB_R2_branch.fa</v>
+      </c>
+      <c r="E51">
+        <f>'2_combined'!E52</f>
+        <v>46</v>
+      </c>
+      <c r="F51" t="str">
+        <f>'2_combined'!D52</f>
+        <v>1DSB</v>
+      </c>
+      <c r="G51" t="str" cm="1">
+        <f t="array" ref="G51">IF(Table1014[[#This Row],[dsb_type]]="2DSB", "2", IF(Table1014[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table1014[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>1</v>
+      </c>
+      <c r="H51" t="str">
+        <f>'2_combined'!G52</f>
+        <v>R2</v>
+      </c>
+      <c r="I51" t="str">
+        <f>MID('2_combined'!I52, 3, 100)</f>
+        <v>B</v>
+      </c>
+      <c r="J51" t="str">
+        <f>'2_combined'!F52</f>
+        <v>WT</v>
+      </c>
+      <c r="K51" t="str">
+        <f>'2_combined'!H52</f>
+        <v>branch</v>
+      </c>
+      <c r="L51" t="s">
+        <v>110</v>
+      </c>
+      <c r="M51" t="str">
+        <f>_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/",Table1014[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table1014[[#This Row],[dir]], " -ref ref_seq/", Table1014[[#This Row],[ref]], " -dsb ", Table1014[[#This Row],[dsb_pos]], " --dsb_type ",Table1014[[#This Row],[dsb_type_command]], " --strand ", Table1014[[#This Row],[strand]], " --hguide ", Table1014[[#This Row],[hguide]], " --cell ", Table1014[[#This Row],[cell]], " --treatment ", Table1014[[#This Row],[treatment]], " --subst_type ", Table1014[[#This Row],[subst_type]], " --control ", Table1014[[#This Row],[control]])</f>
+        <v>python 2_graph_processing/make_main_data.py -in libraries_3/WT_sgB_R2_branch_nodsb.tsv -o libraries_4/WT_sgB_R2_branch_nodsb -ref ref_seq/1DSB_R2_branch.fa -dsb 46 --dsb_type 1 --strand R2 --hguide B --cell WT --treatment branch --subst_type without --control noDSB</v>
+      </c>
+      <c r="N51" t="str">
+        <f>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table1014[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table1014[[#This Row],[dir]])</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgB_R2_branch_nodsb</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>9</v>
+      </c>
+      <c r="B52" t="str">
+        <f>'2_combined'!J53</f>
+        <v>WT_sgB_R2_cmv_nodsb</v>
+      </c>
+      <c r="C52" t="str">
+        <f>SUBSTITUTE('2_combined'!C53, "dsb", "DSB")</f>
+        <v>noDSB</v>
+      </c>
+      <c r="D52" t="str">
+        <f>'2_combined'!B53</f>
+        <v>1DSB_R2_cmv.fa</v>
+      </c>
+      <c r="E52">
+        <f>'2_combined'!E53</f>
+        <v>46</v>
+      </c>
+      <c r="F52" t="str">
+        <f>'2_combined'!D53</f>
+        <v>1DSB</v>
+      </c>
+      <c r="G52" t="str" cm="1">
+        <f t="array" ref="G52">IF(Table1014[[#This Row],[dsb_type]]="2DSB", "2", IF(Table1014[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table1014[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>1</v>
+      </c>
+      <c r="H52" t="str">
+        <f>'2_combined'!G53</f>
+        <v>R2</v>
+      </c>
+      <c r="I52" t="str">
+        <f>MID('2_combined'!I53, 3, 100)</f>
+        <v>B</v>
+      </c>
+      <c r="J52" t="str">
+        <f>'2_combined'!F53</f>
+        <v>WT</v>
+      </c>
+      <c r="K52" t="str">
+        <f>'2_combined'!H53</f>
+        <v>cmv</v>
+      </c>
+      <c r="L52" t="s">
+        <v>110</v>
+      </c>
+      <c r="M52" t="str">
+        <f>_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/",Table1014[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table1014[[#This Row],[dir]], " -ref ref_seq/", Table1014[[#This Row],[ref]], " -dsb ", Table1014[[#This Row],[dsb_pos]], " --dsb_type ",Table1014[[#This Row],[dsb_type_command]], " --strand ", Table1014[[#This Row],[strand]], " --hguide ", Table1014[[#This Row],[hguide]], " --cell ", Table1014[[#This Row],[cell]], " --treatment ", Table1014[[#This Row],[treatment]], " --subst_type ", Table1014[[#This Row],[subst_type]], " --control ", Table1014[[#This Row],[control]])</f>
+        <v>python 2_graph_processing/make_main_data.py -in libraries_3/WT_sgB_R2_cmv_nodsb.tsv -o libraries_4/WT_sgB_R2_cmv_nodsb -ref ref_seq/1DSB_R2_cmv.fa -dsb 46 --dsb_type 1 --strand R2 --hguide B --cell WT --treatment cmv --subst_type without --control noDSB</v>
+      </c>
+      <c r="N52" t="str">
+        <f>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table1014[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table1014[[#This Row],[dir]])</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgB_R2_cmv_nodsb</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>10</v>
+      </c>
+      <c r="B53" t="str">
+        <f>'2_combined'!J54</f>
+        <v>KO_sgB_R2_sense_nodsb</v>
+      </c>
+      <c r="C53" t="str">
+        <f>SUBSTITUTE('2_combined'!C54, "dsb", "DSB")</f>
+        <v>noDSB</v>
+      </c>
+      <c r="D53" t="str">
+        <f>'2_combined'!B54</f>
+        <v>1DSB_R2_sense.fa</v>
+      </c>
+      <c r="E53">
+        <f>'2_combined'!E54</f>
+        <v>46</v>
+      </c>
+      <c r="F53" t="str">
+        <f>'2_combined'!D54</f>
+        <v>1DSB</v>
+      </c>
+      <c r="G53" t="str" cm="1">
+        <f t="array" ref="G53">IF(Table1014[[#This Row],[dsb_type]]="2DSB", "2", IF(Table1014[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table1014[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>1</v>
+      </c>
+      <c r="H53" t="str">
+        <f>'2_combined'!G54</f>
+        <v>R2</v>
+      </c>
+      <c r="I53" t="str">
+        <f>MID('2_combined'!I54, 3, 100)</f>
+        <v>B</v>
+      </c>
+      <c r="J53" t="str">
+        <f>'2_combined'!F54</f>
+        <v>KO</v>
+      </c>
+      <c r="K53" t="str">
+        <f>'2_combined'!H54</f>
+        <v>sense</v>
+      </c>
+      <c r="L53" t="s">
+        <v>110</v>
+      </c>
+      <c r="M53" t="str">
+        <f>_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/",Table1014[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table1014[[#This Row],[dir]], " -ref ref_seq/", Table1014[[#This Row],[ref]], " -dsb ", Table1014[[#This Row],[dsb_pos]], " --dsb_type ",Table1014[[#This Row],[dsb_type_command]], " --strand ", Table1014[[#This Row],[strand]], " --hguide ", Table1014[[#This Row],[hguide]], " --cell ", Table1014[[#This Row],[cell]], " --treatment ", Table1014[[#This Row],[treatment]], " --subst_type ", Table1014[[#This Row],[subst_type]], " --control ", Table1014[[#This Row],[control]])</f>
+        <v>python 2_graph_processing/make_main_data.py -in libraries_3/KO_sgB_R2_sense_nodsb.tsv -o libraries_4/KO_sgB_R2_sense_nodsb -ref ref_seq/1DSB_R2_sense.fa -dsb 46 --dsb_type 1 --strand R2 --hguide B --cell KO --treatment sense --subst_type without --control noDSB</v>
+      </c>
+      <c r="N53" t="str">
+        <f>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table1014[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table1014[[#This Row],[dir]])</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgB_R2_sense_nodsb</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>11</v>
+      </c>
+      <c r="B54" t="str">
+        <f>'2_combined'!J55</f>
+        <v>KO_sgB_R2_branch_nodsb</v>
+      </c>
+      <c r="C54" t="str">
+        <f>SUBSTITUTE('2_combined'!C55, "dsb", "DSB")</f>
+        <v>noDSB</v>
+      </c>
+      <c r="D54" t="str">
+        <f>'2_combined'!B55</f>
+        <v>1DSB_R2_branch.fa</v>
+      </c>
+      <c r="E54">
+        <f>'2_combined'!E55</f>
+        <v>46</v>
+      </c>
+      <c r="F54" t="str">
+        <f>'2_combined'!D55</f>
+        <v>1DSB</v>
+      </c>
+      <c r="G54" t="str" cm="1">
+        <f t="array" ref="G54">IF(Table1014[[#This Row],[dsb_type]]="2DSB", "2", IF(Table1014[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table1014[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>1</v>
+      </c>
+      <c r="H54" t="str">
+        <f>'2_combined'!G55</f>
+        <v>R2</v>
+      </c>
+      <c r="I54" t="str">
+        <f>MID('2_combined'!I55, 3, 100)</f>
+        <v>B</v>
+      </c>
+      <c r="J54" t="str">
+        <f>'2_combined'!F55</f>
+        <v>KO</v>
+      </c>
+      <c r="K54" t="str">
+        <f>'2_combined'!H55</f>
+        <v>branch</v>
+      </c>
+      <c r="L54" t="s">
+        <v>110</v>
+      </c>
+      <c r="M54" t="str">
+        <f>_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/",Table1014[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table1014[[#This Row],[dir]], " -ref ref_seq/", Table1014[[#This Row],[ref]], " -dsb ", Table1014[[#This Row],[dsb_pos]], " --dsb_type ",Table1014[[#This Row],[dsb_type_command]], " --strand ", Table1014[[#This Row],[strand]], " --hguide ", Table1014[[#This Row],[hguide]], " --cell ", Table1014[[#This Row],[cell]], " --treatment ", Table1014[[#This Row],[treatment]], " --subst_type ", Table1014[[#This Row],[subst_type]], " --control ", Table1014[[#This Row],[control]])</f>
+        <v>python 2_graph_processing/make_main_data.py -in libraries_3/KO_sgB_R2_branch_nodsb.tsv -o libraries_4/KO_sgB_R2_branch_nodsb -ref ref_seq/1DSB_R2_branch.fa -dsb 46 --dsb_type 1 --strand R2 --hguide B --cell KO --treatment branch --subst_type without --control noDSB</v>
+      </c>
+      <c r="N54" t="str">
+        <f>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table1014[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table1014[[#This Row],[dir]])</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgB_R2_branch_nodsb</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>12</v>
+      </c>
+      <c r="B55" t="str">
+        <f>'2_combined'!J56</f>
+        <v>KO_sgB_R2_cmv_nodsb</v>
+      </c>
+      <c r="C55" t="str">
+        <f>SUBSTITUTE('2_combined'!C56, "dsb", "DSB")</f>
+        <v>noDSB</v>
+      </c>
+      <c r="D55" t="str">
+        <f>'2_combined'!B56</f>
+        <v>1DSB_R2_cmv.fa</v>
+      </c>
+      <c r="E55">
+        <f>'2_combined'!E56</f>
+        <v>46</v>
+      </c>
+      <c r="F55" t="str">
+        <f>'2_combined'!D56</f>
+        <v>1DSB</v>
+      </c>
+      <c r="G55" t="str" cm="1">
+        <f t="array" ref="G55">IF(Table1014[[#This Row],[dsb_type]]="2DSB", "2", IF(Table1014[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table1014[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>1</v>
+      </c>
+      <c r="H55" t="str">
+        <f>'2_combined'!G56</f>
+        <v>R2</v>
+      </c>
+      <c r="I55" t="str">
+        <f>MID('2_combined'!I56, 3, 100)</f>
+        <v>B</v>
+      </c>
+      <c r="J55" t="str">
+        <f>'2_combined'!F56</f>
+        <v>KO</v>
+      </c>
+      <c r="K55" t="str">
+        <f>'2_combined'!H56</f>
+        <v>cmv</v>
+      </c>
+      <c r="L55" t="s">
+        <v>110</v>
+      </c>
+      <c r="M55" t="str">
+        <f>_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/",Table1014[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table1014[[#This Row],[dir]], " -ref ref_seq/", Table1014[[#This Row],[ref]], " -dsb ", Table1014[[#This Row],[dsb_pos]], " --dsb_type ",Table1014[[#This Row],[dsb_type_command]], " --strand ", Table1014[[#This Row],[strand]], " --hguide ", Table1014[[#This Row],[hguide]], " --cell ", Table1014[[#This Row],[cell]], " --treatment ", Table1014[[#This Row],[treatment]], " --subst_type ", Table1014[[#This Row],[subst_type]], " --control ", Table1014[[#This Row],[control]])</f>
+        <v>python 2_graph_processing/make_main_data.py -in libraries_3/KO_sgB_R2_cmv_nodsb.tsv -o libraries_4/KO_sgB_R2_cmv_nodsb -ref ref_seq/1DSB_R2_cmv.fa -dsb 46 --dsb_type 1 --strand R2 --hguide B --cell KO --treatment cmv --subst_type without --control noDSB</v>
+      </c>
+      <c r="N55" t="str">
+        <f>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table1014[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table1014[[#This Row],[dir]])</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgB_R2_cmv_nodsb</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AFDA2BA-58B9-4C12-83E9-7C389A51814A}">
-  <dimension ref="A1:F19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1"/>
-    <col min="6" max="6" width="50.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" t="str">
-        <f ca="1">OFFSET('3_graph'!$B$2, 3 * (Table6[[#This Row],[index]] - 1), 0)</f>
-        <v>WT_sgAB_R1_sense</v>
-      </c>
-      <c r="C2" t="str">
-        <f ca="1">OFFSET('3_graph'!$B$2, 3 * (Table6[[#This Row],[index]] - 1) + 1, 0)</f>
-        <v>WT_sgAB_R1_branch</v>
-      </c>
-      <c r="D2" t="str">
-        <f ca="1">_xlfn.CONCAT(Table6[[#This Row],[dir_1]], "_", "branch")</f>
-        <v>WT_sgAB_R1_sense_branch</v>
-      </c>
-      <c r="E2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F2" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", Table6[[#This Row],[dir_1]], " ", dirs!$A$4, "/", Table6[[#This Row],[dir_2]], " -o ", dirs!$A$4, "/", Table6[[#This Row],[dir_out]], " --subst_type ", Table6[[#This Row],[subst_type]])</f>
-        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgAB_R1_sense libraries_4/WT_sgAB_R1_branch -o libraries_4/WT_sgAB_R1_sense_branch --subst_type without</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="str">
-        <f ca="1">OFFSET('3_graph'!$B$2, 3 * (Table6[[#This Row],[index]] - 1), 0)</f>
-        <v>WT_sgAB_R1_sense</v>
-      </c>
-      <c r="C3" t="str">
-        <f ca="1">OFFSET('3_graph'!$B$2, 3 * (Table6[[#This Row],[index]] - 1) + 2, 0)</f>
-        <v>WT_sgAB_R1_cmv</v>
-      </c>
-      <c r="D3" t="str">
-        <f ca="1">_xlfn.CONCAT(Table6[[#This Row],[dir_1]], "_", "branch")</f>
-        <v>WT_sgAB_R1_sense_branch</v>
-      </c>
-      <c r="E3" t="s">
-        <v>110</v>
-      </c>
-      <c r="F3" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", Table6[[#This Row],[dir_1]], " ", dirs!$A$4, "/", Table6[[#This Row],[dir_2]], " -o ", dirs!$A$4, "/", Table6[[#This Row],[dir_out]], " --subst_type ", Table6[[#This Row],[subst_type]])</f>
-        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgAB_R1_sense libraries_4/WT_sgAB_R1_cmv -o libraries_4/WT_sgAB_R1_sense_branch --subst_type without</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="str">
-        <f ca="1">OFFSET('3_graph'!$B$2, 3 * (Table6[[#This Row],[index]] - 1), 0)</f>
-        <v>KO_sgAB_R1_sense</v>
-      </c>
-      <c r="C4" t="str">
-        <f ca="1">OFFSET('3_graph'!$B$2, 3 * (Table6[[#This Row],[index]] - 1) + 1, 0)</f>
-        <v>KO_sgAB_R1_branch</v>
-      </c>
-      <c r="D4" t="str">
-        <f ca="1">_xlfn.CONCAT(Table6[[#This Row],[dir_1]], "_", "branch")</f>
-        <v>KO_sgAB_R1_sense_branch</v>
-      </c>
-      <c r="E4" t="s">
-        <v>110</v>
-      </c>
-      <c r="F4" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", Table6[[#This Row],[dir_1]], " ", dirs!$A$4, "/", Table6[[#This Row],[dir_2]], " -o ", dirs!$A$4, "/", Table6[[#This Row],[dir_out]], " --subst_type ", Table6[[#This Row],[subst_type]])</f>
-        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/KO_sgAB_R1_sense libraries_4/KO_sgAB_R1_branch -o libraries_4/KO_sgAB_R1_sense_branch --subst_type without</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>2</v>
-      </c>
-      <c r="B5" t="str">
-        <f ca="1">OFFSET('3_graph'!$B$2, 3 * (Table6[[#This Row],[index]] - 1), 0)</f>
-        <v>KO_sgAB_R1_sense</v>
-      </c>
-      <c r="C5" t="str">
-        <f ca="1">OFFSET('3_graph'!$B$2, 3 * (Table6[[#This Row],[index]] - 1) + 2, 0)</f>
-        <v>KO_sgAB_R1_cmv</v>
-      </c>
-      <c r="D5" t="str">
-        <f ca="1">_xlfn.CONCAT(Table6[[#This Row],[dir_1]], "_", "branch")</f>
-        <v>KO_sgAB_R1_sense_branch</v>
-      </c>
-      <c r="E5" t="s">
-        <v>110</v>
-      </c>
-      <c r="F5" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", Table6[[#This Row],[dir_1]], " ", dirs!$A$4, "/", Table6[[#This Row],[dir_2]], " -o ", dirs!$A$4, "/", Table6[[#This Row],[dir_out]], " --subst_type ", Table6[[#This Row],[subst_type]])</f>
-        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/KO_sgAB_R1_sense libraries_4/KO_sgAB_R1_cmv -o libraries_4/KO_sgAB_R1_sense_branch --subst_type without</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>3</v>
-      </c>
-      <c r="B6" t="str">
-        <f ca="1">OFFSET('3_graph'!$B$2, 3 * (Table6[[#This Row],[index]] - 1), 0)</f>
-        <v>WT_sgAB_R2_sense</v>
-      </c>
-      <c r="C6" t="str">
-        <f ca="1">OFFSET('3_graph'!$B$2, 3 * (Table6[[#This Row],[index]] - 1) + 1, 0)</f>
-        <v>WT_sgAB_R2_branch</v>
-      </c>
-      <c r="D6" t="str">
-        <f ca="1">_xlfn.CONCAT(Table6[[#This Row],[dir_1]], "_", "branch")</f>
-        <v>WT_sgAB_R2_sense_branch</v>
-      </c>
-      <c r="E6" t="s">
-        <v>110</v>
-      </c>
-      <c r="F6" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", Table6[[#This Row],[dir_1]], " ", dirs!$A$4, "/", Table6[[#This Row],[dir_2]], " -o ", dirs!$A$4, "/", Table6[[#This Row],[dir_out]], " --subst_type ", Table6[[#This Row],[subst_type]])</f>
-        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgAB_R2_sense libraries_4/WT_sgAB_R2_branch -o libraries_4/WT_sgAB_R2_sense_branch --subst_type without</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>3</v>
-      </c>
-      <c r="B7" t="str">
-        <f ca="1">OFFSET('3_graph'!$B$2, 3 * (Table6[[#This Row],[index]] - 1), 0)</f>
-        <v>WT_sgAB_R2_sense</v>
-      </c>
-      <c r="C7" t="str">
-        <f ca="1">OFFSET('3_graph'!$B$2, 3 * (Table6[[#This Row],[index]] - 1) + 2, 0)</f>
-        <v>WT_sgAB_R2_cmv</v>
-      </c>
-      <c r="D7" t="str">
-        <f ca="1">_xlfn.CONCAT(Table6[[#This Row],[dir_1]], "_", "branch")</f>
-        <v>WT_sgAB_R2_sense_branch</v>
-      </c>
-      <c r="E7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F7" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", Table6[[#This Row],[dir_1]], " ", dirs!$A$4, "/", Table6[[#This Row],[dir_2]], " -o ", dirs!$A$4, "/", Table6[[#This Row],[dir_out]], " --subst_type ", Table6[[#This Row],[subst_type]])</f>
-        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgAB_R2_sense libraries_4/WT_sgAB_R2_cmv -o libraries_4/WT_sgAB_R2_sense_branch --subst_type without</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>4</v>
-      </c>
-      <c r="B8" t="str">
-        <f ca="1">OFFSET('3_graph'!$B$2, 3 * (Table6[[#This Row],[index]] - 1), 0)</f>
-        <v>KO_sgAB_R2_sense</v>
-      </c>
-      <c r="C8" t="str">
-        <f ca="1">OFFSET('3_graph'!$B$2, 3 * (Table6[[#This Row],[index]] - 1) + 1, 0)</f>
-        <v>KO_sgAB_R2_branch</v>
-      </c>
-      <c r="D8" t="str">
-        <f ca="1">_xlfn.CONCAT(Table6[[#This Row],[dir_1]], "_", "branch")</f>
-        <v>KO_sgAB_R2_sense_branch</v>
-      </c>
-      <c r="E8" t="s">
-        <v>110</v>
-      </c>
-      <c r="F8" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", Table6[[#This Row],[dir_1]], " ", dirs!$A$4, "/", Table6[[#This Row],[dir_2]], " -o ", dirs!$A$4, "/", Table6[[#This Row],[dir_out]], " --subst_type ", Table6[[#This Row],[subst_type]])</f>
-        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/KO_sgAB_R2_sense libraries_4/KO_sgAB_R2_branch -o libraries_4/KO_sgAB_R2_sense_branch --subst_type without</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>4</v>
-      </c>
-      <c r="B9" t="str">
-        <f ca="1">OFFSET('3_graph'!$B$2, 3 * (Table6[[#This Row],[index]] - 1), 0)</f>
-        <v>KO_sgAB_R2_sense</v>
-      </c>
-      <c r="C9" t="str">
-        <f ca="1">OFFSET('3_graph'!$B$2, 3 * (Table6[[#This Row],[index]] - 1) + 2, 0)</f>
-        <v>KO_sgAB_R2_cmv</v>
-      </c>
-      <c r="D9" t="str">
-        <f ca="1">_xlfn.CONCAT(Table6[[#This Row],[dir_1]], "_", "branch")</f>
-        <v>KO_sgAB_R2_sense_branch</v>
-      </c>
-      <c r="E9" t="s">
-        <v>110</v>
-      </c>
-      <c r="F9" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", Table6[[#This Row],[dir_1]], " ", dirs!$A$4, "/", Table6[[#This Row],[dir_2]], " -o ", dirs!$A$4, "/", Table6[[#This Row],[dir_out]], " --subst_type ", Table6[[#This Row],[subst_type]])</f>
-        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/KO_sgAB_R2_sense libraries_4/KO_sgAB_R2_cmv -o libraries_4/KO_sgAB_R2_sense_branch --subst_type without</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>5</v>
-      </c>
-      <c r="B10" t="str">
-        <f ca="1">OFFSET('3_graph'!$B$2, 3 * (Table6[[#This Row],[index]] - 1), 0)</f>
-        <v>WT_sgA_R1_sense</v>
-      </c>
-      <c r="C10" t="str">
-        <f ca="1">OFFSET('3_graph'!$B$2, 3 * (Table6[[#This Row],[index]] - 1) + 1, 0)</f>
-        <v>WT_sgA_R1_branch</v>
-      </c>
-      <c r="D10" t="str">
-        <f ca="1">_xlfn.CONCAT(Table6[[#This Row],[dir_1]], "_", "branch")</f>
-        <v>WT_sgA_R1_sense_branch</v>
-      </c>
-      <c r="E10" t="s">
-        <v>110</v>
-      </c>
-      <c r="F10" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", Table6[[#This Row],[dir_1]], " ", dirs!$A$4, "/", Table6[[#This Row],[dir_2]], " -o ", dirs!$A$4, "/", Table6[[#This Row],[dir_out]], " --subst_type ", Table6[[#This Row],[subst_type]])</f>
-        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgA_R1_sense libraries_4/WT_sgA_R1_branch -o libraries_4/WT_sgA_R1_sense_branch --subst_type without</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>5</v>
-      </c>
-      <c r="B11" t="str">
-        <f ca="1">OFFSET('3_graph'!$B$2, 3 * (Table6[[#This Row],[index]] - 1), 0)</f>
-        <v>WT_sgA_R1_sense</v>
-      </c>
-      <c r="C11" t="str">
-        <f ca="1">OFFSET('3_graph'!$B$2, 3 * (Table6[[#This Row],[index]] - 1) + 2, 0)</f>
-        <v>WT_sgA_R1_cmv</v>
-      </c>
-      <c r="D11" t="str">
-        <f ca="1">_xlfn.CONCAT(Table6[[#This Row],[dir_1]], "_", "branch")</f>
-        <v>WT_sgA_R1_sense_branch</v>
-      </c>
-      <c r="E11" t="s">
-        <v>110</v>
-      </c>
-      <c r="F11" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", Table6[[#This Row],[dir_1]], " ", dirs!$A$4, "/", Table6[[#This Row],[dir_2]], " -o ", dirs!$A$4, "/", Table6[[#This Row],[dir_out]], " --subst_type ", Table6[[#This Row],[subst_type]])</f>
-        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgA_R1_sense libraries_4/WT_sgA_R1_cmv -o libraries_4/WT_sgA_R1_sense_branch --subst_type without</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>6</v>
-      </c>
-      <c r="B12" t="str">
-        <f ca="1">OFFSET('3_graph'!$B$2, 3 * (Table6[[#This Row],[index]] - 1), 0)</f>
-        <v>WT_sgB_R2_sense</v>
-      </c>
-      <c r="C12" t="str">
-        <f ca="1">OFFSET('3_graph'!$B$2, 3 * (Table6[[#This Row],[index]] - 1) + 1, 0)</f>
-        <v>WT_sgB_R2_branch</v>
-      </c>
-      <c r="D12" t="str">
-        <f ca="1">_xlfn.CONCAT(Table6[[#This Row],[dir_1]], "_", "branch")</f>
-        <v>WT_sgB_R2_sense_branch</v>
-      </c>
-      <c r="E12" t="s">
-        <v>110</v>
-      </c>
-      <c r="F12" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", Table6[[#This Row],[dir_1]], " ", dirs!$A$4, "/", Table6[[#This Row],[dir_2]], " -o ", dirs!$A$4, "/", Table6[[#This Row],[dir_out]], " --subst_type ", Table6[[#This Row],[subst_type]])</f>
-        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgB_R2_sense libraries_4/WT_sgB_R2_branch -o libraries_4/WT_sgB_R2_sense_branch --subst_type without</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>6</v>
-      </c>
-      <c r="B13" t="str">
-        <f ca="1">OFFSET('3_graph'!$B$2, 3 * (Table6[[#This Row],[index]] - 1), 0)</f>
-        <v>WT_sgB_R2_sense</v>
-      </c>
-      <c r="C13" t="str">
-        <f ca="1">OFFSET('3_graph'!$B$2, 3 * (Table6[[#This Row],[index]] - 1) + 2, 0)</f>
-        <v>WT_sgB_R2_cmv</v>
-      </c>
-      <c r="D13" t="str">
-        <f ca="1">_xlfn.CONCAT(Table6[[#This Row],[dir_1]], "_", "branch")</f>
-        <v>WT_sgB_R2_sense_branch</v>
-      </c>
-      <c r="E13" t="s">
-        <v>110</v>
-      </c>
-      <c r="F13" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", Table6[[#This Row],[dir_1]], " ", dirs!$A$4, "/", Table6[[#This Row],[dir_2]], " -o ", dirs!$A$4, "/", Table6[[#This Row],[dir_out]], " --subst_type ", Table6[[#This Row],[subst_type]])</f>
-        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgB_R2_sense libraries_4/WT_sgB_R2_cmv -o libraries_4/WT_sgB_R2_sense_branch --subst_type without</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>7</v>
-      </c>
-      <c r="B14" t="str">
-        <f ca="1">OFFSET('3_graph'!$B$2, 3 * (Table6[[#This Row],[index]] - 1), 0)</f>
-        <v>KO_sgA_R1_sense</v>
-      </c>
-      <c r="C14" t="str">
-        <f ca="1">OFFSET('3_graph'!$B$2, 3 * (Table6[[#This Row],[index]] - 1) + 1, 0)</f>
-        <v>KO_sgA_R1_branch</v>
-      </c>
-      <c r="D14" t="str">
-        <f ca="1">_xlfn.CONCAT(Table6[[#This Row],[dir_1]], "_", "branch")</f>
-        <v>KO_sgA_R1_sense_branch</v>
-      </c>
-      <c r="E14" t="s">
-        <v>110</v>
-      </c>
-      <c r="F14" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", Table6[[#This Row],[dir_1]], " ", dirs!$A$4, "/", Table6[[#This Row],[dir_2]], " -o ", dirs!$A$4, "/", Table6[[#This Row],[dir_out]], " --subst_type ", Table6[[#This Row],[subst_type]])</f>
-        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/KO_sgA_R1_sense libraries_4/KO_sgA_R1_branch -o libraries_4/KO_sgA_R1_sense_branch --subst_type without</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>7</v>
-      </c>
-      <c r="B15" t="str">
-        <f ca="1">OFFSET('3_graph'!$B$2, 3 * (Table6[[#This Row],[index]] - 1), 0)</f>
-        <v>KO_sgA_R1_sense</v>
-      </c>
-      <c r="C15" t="str">
-        <f ca="1">OFFSET('3_graph'!$B$2, 3 * (Table6[[#This Row],[index]] - 1) + 2, 0)</f>
-        <v>KO_sgA_R1_cmv</v>
-      </c>
-      <c r="D15" t="str">
-        <f ca="1">_xlfn.CONCAT(Table6[[#This Row],[dir_1]], "_", "branch")</f>
-        <v>KO_sgA_R1_sense_branch</v>
-      </c>
-      <c r="E15" t="s">
-        <v>110</v>
-      </c>
-      <c r="F15" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", Table6[[#This Row],[dir_1]], " ", dirs!$A$4, "/", Table6[[#This Row],[dir_2]], " -o ", dirs!$A$4, "/", Table6[[#This Row],[dir_out]], " --subst_type ", Table6[[#This Row],[subst_type]])</f>
-        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/KO_sgA_R1_sense libraries_4/KO_sgA_R1_cmv -o libraries_4/KO_sgA_R1_sense_branch --subst_type without</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>8</v>
-      </c>
-      <c r="B16" t="str">
-        <f ca="1">OFFSET('3_graph'!$B$2, 3 * (Table6[[#This Row],[index]] - 1), 0)</f>
-        <v>KO_sgB_R2_sense</v>
-      </c>
-      <c r="C16" t="str">
-        <f ca="1">OFFSET('3_graph'!$B$2, 3 * (Table6[[#This Row],[index]] - 1) + 1, 0)</f>
-        <v>KO_sgB_R2_branch</v>
-      </c>
-      <c r="D16" t="str">
-        <f ca="1">_xlfn.CONCAT(Table6[[#This Row],[dir_1]], "_", "branch")</f>
-        <v>KO_sgB_R2_sense_branch</v>
-      </c>
-      <c r="E16" t="s">
-        <v>110</v>
-      </c>
-      <c r="F16" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", Table6[[#This Row],[dir_1]], " ", dirs!$A$4, "/", Table6[[#This Row],[dir_2]], " -o ", dirs!$A$4, "/", Table6[[#This Row],[dir_out]], " --subst_type ", Table6[[#This Row],[subst_type]])</f>
-        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/KO_sgB_R2_sense libraries_4/KO_sgB_R2_branch -o libraries_4/KO_sgB_R2_sense_branch --subst_type without</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>8</v>
-      </c>
-      <c r="B17" t="str">
-        <f ca="1">OFFSET('3_graph'!$B$2, 3 * (Table6[[#This Row],[index]] - 1), 0)</f>
-        <v>KO_sgB_R2_sense</v>
-      </c>
-      <c r="C17" t="str">
-        <f ca="1">OFFSET('3_graph'!$B$2, 3 * (Table6[[#This Row],[index]] - 1) + 2, 0)</f>
-        <v>KO_sgB_R2_cmv</v>
-      </c>
-      <c r="D17" t="str">
-        <f ca="1">_xlfn.CONCAT(Table6[[#This Row],[dir_1]], "_", "branch")</f>
-        <v>KO_sgB_R2_sense_branch</v>
-      </c>
-      <c r="E17" t="s">
-        <v>110</v>
-      </c>
-      <c r="F17" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", Table6[[#This Row],[dir_1]], " ", dirs!$A$4, "/", Table6[[#This Row],[dir_2]], " -o ", dirs!$A$4, "/", Table6[[#This Row],[dir_out]], " --subst_type ", Table6[[#This Row],[subst_type]])</f>
-        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/KO_sgB_R2_sense libraries_4/KO_sgB_R2_cmv -o libraries_4/KO_sgB_R2_sense_branch --subst_type without</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>9</v>
-      </c>
-      <c r="B18" t="str">
-        <f ca="1">OFFSET('3_graph'!$B$2, 3 * (Table6[[#This Row],[index]] - 1), 0)</f>
-        <v>WT_sgCD_R1_antisense</v>
-      </c>
-      <c r="C18" t="str">
-        <f ca="1">OFFSET('3_graph'!$B$2, 3 * (Table6[[#This Row],[index]] - 1) + 1, 0)</f>
-        <v>WT_sgCD_R1_splicing</v>
-      </c>
-      <c r="D18" t="str">
-        <f ca="1">_xlfn.CONCAT(Table6[[#This Row],[dir_1]], "_", "branch")</f>
-        <v>WT_sgCD_R1_antisense_branch</v>
-      </c>
-      <c r="E18" t="s">
-        <v>110</v>
-      </c>
-      <c r="F18" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", Table6[[#This Row],[dir_1]], " ", dirs!$A$4, "/", Table6[[#This Row],[dir_2]], " -o ", dirs!$A$4, "/", Table6[[#This Row],[dir_out]], " --subst_type ", Table6[[#This Row],[subst_type]])</f>
-        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgCD_R1_antisense libraries_4/WT_sgCD_R1_splicing -o libraries_4/WT_sgCD_R1_antisense_branch --subst_type without</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>9</v>
-      </c>
-      <c r="B19" t="str">
-        <f ca="1">OFFSET('3_graph'!$B$2, 3 * (Table6[[#This Row],[index]] - 1), 0)</f>
-        <v>WT_sgCD_R1_antisense</v>
-      </c>
-      <c r="C19" t="str">
-        <f ca="1">OFFSET('3_graph'!$B$2, 3 * (Table6[[#This Row],[index]] - 1) + 2, 0)</f>
-        <v>WT_sgCD_R2_antisense</v>
-      </c>
-      <c r="D19" t="str">
-        <f ca="1">_xlfn.CONCAT(Table6[[#This Row],[dir_1]], "_", "branch")</f>
-        <v>WT_sgCD_R1_antisense_branch</v>
-      </c>
-      <c r="E19" t="s">
-        <v>110</v>
-      </c>
-      <c r="F19" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", Table6[[#This Row],[dir_1]], " ", dirs!$A$4, "/", Table6[[#This Row],[dir_2]], " -o ", dirs!$A$4, "/", Table6[[#This Row],[dir_out]], " --subst_type ", Table6[[#This Row],[subst_type]])</f>
-        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgCD_R1_antisense libraries_4/WT_sgCD_R2_antisense -o libraries_4/WT_sgCD_R1_antisense_branch --subst_type without</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/libinfo.xlsx
+++ b/libinfo.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tchan\Code\SCMB_Project\RNA-mediated_DSB_repair\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8673D43-8D4B-4F98-B8C5-6C941EF89D56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C2B7B77-686E-4572-9A8D-09DFE54C5CBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{2091B41C-DDD2-4E50-B30A-30FF3CA370E5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="6" xr2:uid="{2091B41C-DDD2-4E50-B30A-30FF3CA370E5}"/>
   </bookViews>
   <sheets>
-    <sheet name="dirs" sheetId="3" r:id="rId1"/>
+    <sheet name="globals" sheetId="3" r:id="rId1"/>
     <sheet name="1_repeats" sheetId="1" r:id="rId2"/>
     <sheet name="1_total_reads" sheetId="8" r:id="rId3"/>
     <sheet name="2_combined" sheetId="7" r:id="rId4"/>
@@ -23,6 +23,13 @@
   </sheets>
   <definedNames>
     <definedName name="dsb">'1_repeats'!$D:$D</definedName>
+    <definedName name="histogram_3d">globals!$A$6</definedName>
+    <definedName name="libraries_1">globals!$A$1</definedName>
+    <definedName name="libraries_2">globals!$A$2</definedName>
+    <definedName name="libraries_3">globals!$A$3</definedName>
+    <definedName name="libraries_4">globals!$A$4</definedName>
+    <definedName name="libraries_5">globals!$A$5</definedName>
+    <definedName name="subst_type">globals!$B$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -66,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1576" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1447" uniqueCount="176">
   <si>
     <t>yjl217</t>
   </si>
@@ -592,6 +599,9 @@
   <si>
     <t>plots/histogram_3d</t>
   </si>
+  <si>
+    <t>command</t>
+  </si>
 </sst>
 </file>
 
@@ -627,12 +637,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -648,19 +664,258 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{FFD19645-61C4-4244-A560-0232B787F38C}"/>
   </cellStyles>
-  <dxfs count="93">
+  <dxfs count="100">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -755,113 +1010,9 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <font>
         <b/>
       </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1018,9 +1169,6 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1135,9 +1283,6 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1189,9 +1334,6 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1223,7 +1365,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{22A90416-B904-4D3D-A6DB-EFCB9FD1EAED}" name="Table1" displayName="Table1" ref="A1:N173" totalsRowShown="0" headerRowDxfId="92">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{22A90416-B904-4D3D-A6DB-EFCB9FD1EAED}" name="Table1" displayName="Table1" ref="A1:N173" totalsRowShown="0" headerRowDxfId="99">
   <autoFilter ref="A1:N173" xr:uid="{22A90416-B904-4D3D-A6DB-EFCB9FD1EAED}"/>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{5C1CDEE9-AAC7-4E12-B88F-1314CF422335}" name="library"/>
@@ -1233,26 +1375,26 @@
     <tableColumn id="5" xr3:uid="{81A143FE-8E74-4182-8124-E697DD5A7C62}" name="hguide"/>
     <tableColumn id="6" xr3:uid="{4A316E6A-69F3-4B78-9C01-4675AEB656FA}" name="treatment"/>
     <tableColumn id="7" xr3:uid="{25B8E763-346D-4756-8B58-D3C8CB103545}" name="strand"/>
-    <tableColumn id="8" xr3:uid="{4B708639-BB19-4DC1-A57D-214FA0EFB1EA}" name="dsb_pos" dataDxfId="91">
+    <tableColumn id="8" xr3:uid="{4B708639-BB19-4DC1-A57D-214FA0EFB1EA}" name="dsb_pos" dataDxfId="98">
       <calculatedColumnFormula array="1">IF(D2="2DSB", IF(G2="R1", 67, 46), IF(D2="1DSB", IF(G2="R1", 67, 46), IF(D2="2DSBanti", IF(G2="R1", 50, 47), NA))) + IF(Table1[[#This Row],[control]]="30bpDown", 30, 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{CCF6021C-1B60-4954-A92E-3F2848564215}" name="file_in" dataDxfId="90">
+    <tableColumn id="9" xr3:uid="{CCF6021C-1B60-4954-A92E-3F2848564215}" name="file_in" dataDxfId="97">
       <calculatedColumnFormula>IF(OR(Table1[[#This Row],[control]]="none", Table1[[#This Row],[control]]="30bpDown"), _xlfn.CONCAT(Table1[[#This Row],[library]], IF(Table1[[#This Row],[dsb]] = "2DSBanti", "_anti", ""), "_",Table1[[#This Row],[strand]],"_", IF(LEFT(Table1[[#This Row],[dsb]], 1)="2","2DSBs", Table1[[#This Row],[hguide]]), ".sam"), _xlfn.CONCAT(Table1[[#This Row],[library]], "_NHEJ_", IF(Table1[[#This Row],[hguide]]="sgA", "hg39", IF(Table1[[#This Row],[hguide]]="sgB", "hg42", "2DSB")), "_", Table1[[#This Row],[strand]], ".sam"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{58220462-2A11-4DAD-A247-C0871AFCFDB4}" name="file_out" dataDxfId="89">
+    <tableColumn id="10" xr3:uid="{58220462-2A11-4DAD-A247-C0871AFCFDB4}" name="file_out" dataDxfId="96">
       <calculatedColumnFormula>_xlfn.CONCAT(Table1[[#This Row],[library]], "_", Table1[[#This Row],[cell_line]], "_", Table1[[#This Row],[hguide]], "_", Table1[[#This Row],[strand]], "_", Table1[[#This Row],[treatment]], IF(Table1[[#This Row],[control]]&lt;&gt;"none", _xlfn.CONCAT("_", Table1[[#This Row],[control]]), ""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{775EE7A9-3C78-4568-BF98-500DE451177C}" name="ref_file" dataDxfId="88">
+    <tableColumn id="11" xr3:uid="{775EE7A9-3C78-4568-BF98-500DE451177C}" name="ref_file" dataDxfId="95">
       <calculatedColumnFormula>_xlfn.CONCAT(Table1[[#This Row],[dsb]],"_", Table1[[#This Row],[strand]],"_", Table1[[#This Row],[treatment]], ".fa")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="12" xr3:uid="{5B945FB6-D054-40C4-AAEF-BB50B19F8936}" name="total_reads">
       <calculatedColumnFormula>VLOOKUP(Table1[[#This Row],[library]], Table9[#All], 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{66485B06-471E-47D3-BA91-FC751F58FA5A}" name="min_length" dataDxfId="87">
+    <tableColumn id="13" xr3:uid="{66485B06-471E-47D3-BA91-FC751F58FA5A}" name="min_length" dataDxfId="94">
       <calculatedColumnFormula>IF(LEFT(Table1[[#This Row],[dsb]], 1) = "2", 50, 130)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{DF3C46EA-690D-4E6A-99CF-BBC2B2F74AFF}" name="command_filter_nhej" dataDxfId="86">
-      <calculatedColumnFormula>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</calculatedColumnFormula>
+    <tableColumn id="14" xr3:uid="{DF3C46EA-690D-4E6A-99CF-BBC2B2F74AFF}" name="command_filter_nhej" dataDxfId="25">
+      <calculatedColumnFormula>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1260,43 +1402,45 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{73BF8355-0AB0-4422-8F65-2A32E222946E}" name="Table513" displayName="Table513" ref="A1:M41" totalsRowShown="0" headerRowDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{73BF8355-0AB0-4422-8F65-2A32E222946E}" name="Table513" displayName="Table513" ref="A1:M41" totalsRowShown="0" headerRowDxfId="41">
   <autoFilter ref="A1:M41" xr:uid="{73BF8355-0AB0-4422-8F65-2A32E222946E}"/>
   <tableColumns count="13">
-    <tableColumn id="25" xr3:uid="{43F57146-0E56-46F3-A0E3-717A41010F4A}" name="index" dataDxfId="16"/>
-    <tableColumn id="1" xr3:uid="{B0B3F6B0-7577-49AC-B865-1E873B4DC53C}" name="dir" dataDxfId="15">
+    <tableColumn id="25" xr3:uid="{43F57146-0E56-46F3-A0E3-717A41010F4A}" name="index" dataDxfId="40"/>
+    <tableColumn id="1" xr3:uid="{B0B3F6B0-7577-49AC-B865-1E873B4DC53C}" name="dir" dataDxfId="39">
       <calculatedColumnFormula>'2_combined'!J3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{D04F356F-9288-416D-ACDA-6BFE128B70D7}" name="control" dataDxfId="14">
+    <tableColumn id="13" xr3:uid="{D04F356F-9288-416D-ACDA-6BFE128B70D7}" name="control" dataDxfId="38">
       <calculatedColumnFormula>'2_combined'!C3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{9C168B22-F534-40D4-947C-918239C33FD9}" name="ref" dataDxfId="13">
+    <tableColumn id="2" xr3:uid="{9C168B22-F534-40D4-947C-918239C33FD9}" name="ref" dataDxfId="37">
       <calculatedColumnFormula>'2_combined'!B3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{6F64477B-0C66-4251-9156-22307A6D70A0}" name="dsb_pos" dataDxfId="12">
+    <tableColumn id="3" xr3:uid="{6F64477B-0C66-4251-9156-22307A6D70A0}" name="dsb_pos" dataDxfId="36">
       <calculatedColumnFormula>'2_combined'!E3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{D037F4F2-543F-4D7D-AB36-0B253FD61B0D}" name="dsb_type" dataDxfId="11">
+    <tableColumn id="4" xr3:uid="{D037F4F2-543F-4D7D-AB36-0B253FD61B0D}" name="dsb_type" dataDxfId="35">
       <calculatedColumnFormula>'2_combined'!D3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{407AC5E6-13CB-409A-8E78-64B8CC121882}" name="dsb_type_command" dataDxfId="10">
+    <tableColumn id="12" xr3:uid="{407AC5E6-13CB-409A-8E78-64B8CC121882}" name="dsb_type_command" dataDxfId="34">
       <calculatedColumnFormula array="1">IF(Table513[[#This Row],[dsb_type]]="2DSB", "2", IF(Table513[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table513[[#This Row],[dsb_type]]="1DSB", "1", NA)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{1A24C844-2A10-4394-818F-0C25A569B414}" name="strand" dataDxfId="9">
+    <tableColumn id="5" xr3:uid="{1A24C844-2A10-4394-818F-0C25A569B414}" name="strand" dataDxfId="33">
       <calculatedColumnFormula>'2_combined'!G3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{4F0A02F9-5555-489E-BA41-E3CBF81D1114}" name="hguide" dataDxfId="8">
+    <tableColumn id="6" xr3:uid="{4F0A02F9-5555-489E-BA41-E3CBF81D1114}" name="hguide" dataDxfId="32">
       <calculatedColumnFormula>MID('2_combined'!I3, 3, 100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{FAE741F2-7C1B-41F2-8875-9F7A2EF40A54}" name="cell" dataDxfId="7">
+    <tableColumn id="7" xr3:uid="{FAE741F2-7C1B-41F2-8875-9F7A2EF40A54}" name="cell" dataDxfId="31">
       <calculatedColumnFormula>'2_combined'!F3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{FE3ED128-2534-43D1-9244-11AB1FB57650}" name="treatment" dataDxfId="6">
+    <tableColumn id="8" xr3:uid="{FE3ED128-2534-43D1-9244-11AB1FB57650}" name="treatment" dataDxfId="30">
       <calculatedColumnFormula>'2_combined'!H3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{65ACBC9C-0EC8-4074-B310-05F4B70BFAD5}" name="subst_type"/>
-    <tableColumn id="10" xr3:uid="{F80F6FB9-4F35-4819-8285-D77131C6EFCE}" name="command_main_data" dataDxfId="3">
-      <calculatedColumnFormula>_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", dirs!$A$4, "/",Table513[[#This Row],[dir]], " -o ", dirs!$A$5, "/")</calculatedColumnFormula>
+    <tableColumn id="9" xr3:uid="{65ACBC9C-0EC8-4074-B310-05F4B70BFAD5}" name="subst_type" dataDxfId="18">
+      <calculatedColumnFormula>"with"</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{F80F6FB9-4F35-4819-8285-D77131C6EFCE}" name="command" dataDxfId="19">
+      <calculatedColumnFormula>_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", libraries_4, "/",Table513[[#This Row],[dir]], " -o ", histogram_3d, "/")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1311,7 +1455,7 @@
     <tableColumn id="2" xr3:uid="{77584C42-D70C-48A4-979A-F4DEA0B31542}" name="dir">
       <calculatedColumnFormula>'2_combined'!J45</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{483E3D73-4059-4B65-84EC-5DC4E7008F35}" name="control" dataDxfId="5">
+    <tableColumn id="3" xr3:uid="{483E3D73-4059-4B65-84EC-5DC4E7008F35}" name="control" dataDxfId="29">
       <calculatedColumnFormula>SUBSTITUTE('2_combined'!C45, "dsb", "DSB")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{5859A8DB-4C52-4451-BBB6-C6BEBF497540}" name="ref">
@@ -1338,12 +1482,14 @@
     <tableColumn id="11" xr3:uid="{0F1B5F9E-B10D-4258-9052-90BCDC89F0B0}" name="treatment">
       <calculatedColumnFormula>'2_combined'!H45</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{A2723EF6-80E8-4D8D-A6DC-7556C1996222}" name="subst_type"/>
-    <tableColumn id="13" xr3:uid="{02531CCA-6CDE-42BA-80E3-31C0F97A3546}" name="command_main_data">
-      <calculatedColumnFormula>_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/",Table1014[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table1014[[#This Row],[dir]], " -ref ref_seq/", Table1014[[#This Row],[ref]], " -dsb ", Table1014[[#This Row],[dsb_pos]], " --dsb_type ",Table1014[[#This Row],[dsb_type_command]], " --strand ", Table1014[[#This Row],[strand]], " --hguide ", Table1014[[#This Row],[hguide]], " --cell ", Table1014[[#This Row],[cell]], " --treatment ", Table1014[[#This Row],[treatment]], " --subst_type ", Table1014[[#This Row],[subst_type]], " --control ", Table1014[[#This Row],[control]])</calculatedColumnFormula>
+    <tableColumn id="12" xr3:uid="{A2723EF6-80E8-4D8D-A6DC-7556C1996222}" name="subst_type" dataDxfId="17">
+      <calculatedColumnFormula>"with"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{044D252B-8D18-4E92-82F7-0C8FAA410CB0}" name="command_graph_data" dataDxfId="4">
-      <calculatedColumnFormula>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table1014[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table1014[[#This Row],[dir]])</calculatedColumnFormula>
+    <tableColumn id="13" xr3:uid="{02531CCA-6CDE-42BA-80E3-31C0F97A3546}" name="command_main_data" dataDxfId="16">
+      <calculatedColumnFormula>_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", libraries_4, "/",Table1014[[#This Row],[dir]], " -o ", histogram_3d, "/")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="14" xr3:uid="{044D252B-8D18-4E92-82F7-0C8FAA410CB0}" name="command_graph_data" dataDxfId="28">
+      <calculatedColumnFormula>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table1014[[#This Row],[subst_type]], " -dir ", globals!$A$4, "/", Table1014[[#This Row],[dir]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1362,63 +1508,63 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DE05925F-1FF6-4367-AF1E-BAECCA464E36}" name="Table3" displayName="Table3" ref="A2:S42" totalsRowShown="0" headerRowDxfId="85">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DE05925F-1FF6-4367-AF1E-BAECCA464E36}" name="Table3" displayName="Table3" ref="A2:S42" totalsRowShown="0" headerRowDxfId="93">
   <autoFilter ref="A2:S42" xr:uid="{DE05925F-1FF6-4367-AF1E-BAECCA464E36}"/>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{C373869E-A92E-4B06-B8E5-C5A873420ED4}" name="index" dataDxfId="84"/>
-    <tableColumn id="2" xr3:uid="{A28AAC50-FA09-494A-B052-8489F07A5A70}" name="ref" dataDxfId="83">
+    <tableColumn id="1" xr3:uid="{C373869E-A92E-4B06-B8E5-C5A873420ED4}" name="index" dataDxfId="92"/>
+    <tableColumn id="2" xr3:uid="{A28AAC50-FA09-494A-B052-8489F07A5A70}" name="ref" dataDxfId="91">
       <calculatedColumnFormula>OFFSET('1_repeats'!$K$2, 4 * (Table3[[#This Row],[index]] - 1), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{07D57089-9737-4983-8884-C4ACCDCFF6CB}" name="control" dataDxfId="82">
+    <tableColumn id="18" xr3:uid="{07D57089-9737-4983-8884-C4ACCDCFF6CB}" name="control" dataDxfId="90">
       <calculatedColumnFormula>OFFSET('1_repeats'!$C$2, 4 * (Table3[[#This Row],[index]] - 1), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{C6423FEA-272F-48D3-BC6A-909FCA937DA9}" name="dsb" dataDxfId="81">
+    <tableColumn id="19" xr3:uid="{C6423FEA-272F-48D3-BC6A-909FCA937DA9}" name="dsb" dataDxfId="89">
       <calculatedColumnFormula>OFFSET('1_repeats'!$D$2, 4 * (Table3[[#This Row],[index]] - 1), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{B8F61088-5FFA-4860-BF4E-1BFB301A31D9}" name="dsb_pos" dataDxfId="80">
+    <tableColumn id="3" xr3:uid="{B8F61088-5FFA-4860-BF4E-1BFB301A31D9}" name="dsb_pos" dataDxfId="88">
       <calculatedColumnFormula>OFFSET('1_repeats'!$H$2, 4 * (Table3[[#This Row],[index]] - 1), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{524D5B3D-BB20-420D-B7E9-93A7F77CA728}" name="cell" dataDxfId="79">
+    <tableColumn id="4" xr3:uid="{524D5B3D-BB20-420D-B7E9-93A7F77CA728}" name="cell" dataDxfId="87">
       <calculatedColumnFormula>OFFSET('1_repeats'!$B$2, 4 * (Table3[[#This Row],[index]] - 1), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{CC918D20-5D79-4223-9717-2CA0EFFA213F}" name="strand" dataDxfId="78">
+    <tableColumn id="5" xr3:uid="{CC918D20-5D79-4223-9717-2CA0EFFA213F}" name="strand" dataDxfId="86">
       <calculatedColumnFormula>OFFSET('1_repeats'!$G$2, 4 * (Table3[[#This Row],[index]] - 1), 0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{B2851465-D533-4787-80C4-E844BB2ABB8C}" name="treatment">
       <calculatedColumnFormula>OFFSET('1_repeats'!$F$2, 4 * (A3 - 1), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{849BE448-7739-4815-A2C5-5843F62D83D7}" name="hguide" dataDxfId="77">
+    <tableColumn id="7" xr3:uid="{849BE448-7739-4815-A2C5-5843F62D83D7}" name="hguide" dataDxfId="85">
       <calculatedColumnFormula>OFFSET('1_repeats'!$E$2, 4 * (Table3[[#This Row],[index]]- 1), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{343716D9-C3A9-4F90-A58A-42B1B9C79EBF}" name="output_dir" dataDxfId="53">
+    <tableColumn id="8" xr3:uid="{343716D9-C3A9-4F90-A58A-42B1B9C79EBF}" name="output_dir" dataDxfId="63">
       <calculatedColumnFormula>_xlfn.CONCAT(Table3[[#This Row],[cell]], "_", Table3[[#This Row],[hguide]], "_", Table3[[#This Row],[strand]], "_", Table3[[#This Row],[treatment]], IF(Table3[[#This Row],[control]]&lt;&gt;"none",_xlfn.CONCAT("_", Table3[[#This Row],[control]]), ""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{D29558AA-D418-4CDD-81AE-A987E7BC501D}" name="input_1" dataDxfId="76">
+    <tableColumn id="9" xr3:uid="{D29558AA-D418-4CDD-81AE-A987E7BC501D}" name="input_1" dataDxfId="84">
       <calculatedColumnFormula>OFFSET('1_repeats'!$J$1, 4 * (Table3[[#This Row],[index]] - 1)  + ($K$1), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{E2ABF5A3-B032-47F7-9141-9F269EFD9D49}" name="total_reads_1" dataDxfId="75">
+    <tableColumn id="10" xr3:uid="{E2ABF5A3-B032-47F7-9141-9F269EFD9D49}" name="total_reads_1" dataDxfId="83">
       <calculatedColumnFormula array="1">OFFSET('1_repeats'!$L$1, 4 * (Table3[[#This Row],[index]] - 1)  + INDIRECT(ADDRESS(1, COLUMN())), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{6B1B21F6-1584-4712-844D-99F3DBE8B3D9}" name="input_2" dataDxfId="74">
+    <tableColumn id="11" xr3:uid="{6B1B21F6-1584-4712-844D-99F3DBE8B3D9}" name="input_2" dataDxfId="82">
       <calculatedColumnFormula>OFFSET('1_repeats'!$J$1, 4 * (Table3[[#This Row],[index]] - 1)  + ($M$1), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{C7B1BE14-3BD6-413B-8575-DE9712F9761A}" name="total_reads_2" dataDxfId="73">
+    <tableColumn id="12" xr3:uid="{C7B1BE14-3BD6-413B-8575-DE9712F9761A}" name="total_reads_2" dataDxfId="81">
       <calculatedColumnFormula array="1">OFFSET('1_repeats'!$L$1, 4 * (Table3[[#This Row],[index]] - 1)  + INDIRECT(ADDRESS(1, COLUMN())), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{6BE840C3-79BA-41DC-90D3-918C6C412936}" name="input_3" dataDxfId="72">
+    <tableColumn id="13" xr3:uid="{6BE840C3-79BA-41DC-90D3-918C6C412936}" name="input_3" dataDxfId="80">
       <calculatedColumnFormula>OFFSET('1_repeats'!$J$1, 4 * (Table3[[#This Row],[index]] - 1)  + ($O$1), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{6A8CE344-45B9-42E3-95D8-8EB6A485D968}" name="total_reads_3" dataDxfId="71">
+    <tableColumn id="14" xr3:uid="{6A8CE344-45B9-42E3-95D8-8EB6A485D968}" name="total_reads_3" dataDxfId="79">
       <calculatedColumnFormula array="1">OFFSET('1_repeats'!$L$1, 4 * (Table3[[#This Row],[index]] - 1)  + INDIRECT(ADDRESS(1, COLUMN())), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{17F598DE-E755-49D6-AFC6-70309C0348FD}" name="input_4" dataDxfId="70">
+    <tableColumn id="15" xr3:uid="{17F598DE-E755-49D6-AFC6-70309C0348FD}" name="input_4" dataDxfId="78">
       <calculatedColumnFormula>OFFSET('1_repeats'!$J$1, 4 * (Table3[[#This Row],[index]] - 1)  + ($Q$1), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{AC170216-9CAE-43B8-A8E2-8FE1529F6D55}" name="total_reads_4" dataDxfId="69">
+    <tableColumn id="16" xr3:uid="{AC170216-9CAE-43B8-A8E2-8FE1529F6D55}" name="total_reads_4" dataDxfId="77">
       <calculatedColumnFormula array="1">OFFSET('1_repeats'!$L$1, 4 * (Table3[[#This Row],[index]] - 1)  + INDIRECT(ADDRESS(1, COLUMN())), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{A285A0DD-6F6D-404D-AE2A-0D1FC3DDB459}" name="command_combine" dataDxfId="68">
-      <calculatedColumnFormula>_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", Table3[[#This Row],[input_1]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_2]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_3]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_4]], ".tsv --total_reads ", Table3[[#This Row],[total_reads_1]], " ", Table3[[#This Row],[total_reads_2]], " ", Table3[[#This Row],[total_reads_3]], " ", Table3[[#This Row],[total_reads_4]], " -o ", dirs!$A$3, "/", Table3[[#This Row],[output_dir]], ".tsv", " --quiet ")</calculatedColumnFormula>
+    <tableColumn id="17" xr3:uid="{A285A0DD-6F6D-404D-AE2A-0D1FC3DDB459}" name="command_combine" dataDxfId="15">
+      <calculatedColumnFormula>_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", libraries_2, "/", Table3[[#This Row],[input_1]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_2]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_3]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_4]], ".tsv --total_reads ", Table3[[#This Row],[total_reads_1]], " ", Table3[[#This Row],[total_reads_2]], " ", Table3[[#This Row],[total_reads_3]], " ", Table3[[#This Row],[total_reads_4]], " -o ", libraries_3, "/", Table3[[#This Row],[output_dir]], ".tsv", " --quiet ")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1429,7 +1575,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{7D969AC7-2D2F-45B0-BA99-D174130B0A52}" name="Table11" displayName="Table11" ref="A44:M56" totalsRowShown="0">
   <autoFilter ref="A44:M56" xr:uid="{7D969AC7-2D2F-45B0-BA99-D174130B0A52}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{D612E3DF-AA8E-4EE0-9306-7903B4821992}" name="index" dataDxfId="30"/>
+    <tableColumn id="1" xr3:uid="{D612E3DF-AA8E-4EE0-9306-7903B4821992}" name="index" dataDxfId="49"/>
     <tableColumn id="2" xr3:uid="{B00239B6-16E0-4472-B8C9-F25D625D21DD}" name="ref">
       <calculatedColumnFormula>'1_repeats'!K162</calculatedColumnFormula>
     </tableColumn>
@@ -1463,8 +1609,8 @@
     <tableColumn id="12" xr3:uid="{BB84920E-3487-4670-93ED-5671EACD3061}" name="total_reads">
       <calculatedColumnFormula>'1_repeats'!L162</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{0CE6DAF6-0C4C-4EC5-8FE5-9B3840A02412}" name="command_combine" dataDxfId="0">
-      <calculatedColumnFormula>_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -i ", dirs!$A$2, "/", Table11[[#This Row],[input]], ".tsv ", " --total_reads ", Table11[[#This Row],[total_reads]], " -o ", dirs!$A$3, "/", Table11[[#This Row],[output_dir]], ".tsv", " --quiet ")</calculatedColumnFormula>
+    <tableColumn id="13" xr3:uid="{0CE6DAF6-0C4C-4EC5-8FE5-9B3840A02412}" name="command_combine" dataDxfId="24">
+      <calculatedColumnFormula>_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -i ", libraries_2, "/", Table11[[#This Row],[input]], ".tsv ", " --total_reads ", Table11[[#This Row],[total_reads]], " -o ", libraries_3, "/", Table11[[#This Row],[output_dir]], ".tsv", " --quiet ")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1472,46 +1618,48 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{5C7BFDB7-8825-4FA5-A5E3-550303D41F99}" name="Table5" displayName="Table5" ref="A1:N41" totalsRowShown="0" headerRowDxfId="67">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{5C7BFDB7-8825-4FA5-A5E3-550303D41F99}" name="Table5" displayName="Table5" ref="A1:N41" totalsRowShown="0" headerRowDxfId="76">
   <autoFilter ref="A1:N41" xr:uid="{5C7BFDB7-8825-4FA5-A5E3-550303D41F99}"/>
   <tableColumns count="14">
-    <tableColumn id="25" xr3:uid="{93D2F09B-24D5-4FE1-BF34-C037E361889F}" name="index" dataDxfId="66"/>
-    <tableColumn id="1" xr3:uid="{2F28DC66-449D-4F81-AA63-8F24B25F33D1}" name="dir" dataDxfId="65">
+    <tableColumn id="25" xr3:uid="{93D2F09B-24D5-4FE1-BF34-C037E361889F}" name="index" dataDxfId="75"/>
+    <tableColumn id="1" xr3:uid="{2F28DC66-449D-4F81-AA63-8F24B25F33D1}" name="dir" dataDxfId="74">
       <calculatedColumnFormula>'2_combined'!J3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{3DF6F698-1F9A-4B05-A310-657CCFCE9F66}" name="control" dataDxfId="54">
+    <tableColumn id="13" xr3:uid="{3DF6F698-1F9A-4B05-A310-657CCFCE9F66}" name="control" dataDxfId="64">
       <calculatedColumnFormula>'2_combined'!C3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{362C2395-52F7-4A62-B7BA-2DD97ED5E6FB}" name="ref" dataDxfId="64">
+    <tableColumn id="2" xr3:uid="{362C2395-52F7-4A62-B7BA-2DD97ED5E6FB}" name="ref" dataDxfId="73">
       <calculatedColumnFormula>'2_combined'!B3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{5F0895D9-2EF2-4524-8BC7-15A33FE68636}" name="dsb_pos" dataDxfId="63">
+    <tableColumn id="3" xr3:uid="{5F0895D9-2EF2-4524-8BC7-15A33FE68636}" name="dsb_pos" dataDxfId="72">
       <calculatedColumnFormula>'2_combined'!E3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{C6D28829-46E6-4D97-8EA4-0AD12EF6CF10}" name="dsb_type" dataDxfId="62">
+    <tableColumn id="4" xr3:uid="{C6D28829-46E6-4D97-8EA4-0AD12EF6CF10}" name="dsb_type" dataDxfId="71">
       <calculatedColumnFormula>'2_combined'!D3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{E8B2E211-C273-4602-86F0-60EA4259B7A4}" name="dsb_type_command" dataDxfId="61">
+    <tableColumn id="12" xr3:uid="{E8B2E211-C273-4602-86F0-60EA4259B7A4}" name="dsb_type_command" dataDxfId="70">
       <calculatedColumnFormula array="1">IF(Table5[[#This Row],[dsb_type]]="2DSB", "2", IF(Table5[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table5[[#This Row],[dsb_type]]="1DSB", "1", NA)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{15578E86-B7BE-4D8E-8FD4-E6C9C4F35C9C}" name="strand" dataDxfId="60">
+    <tableColumn id="5" xr3:uid="{15578E86-B7BE-4D8E-8FD4-E6C9C4F35C9C}" name="strand" dataDxfId="69">
       <calculatedColumnFormula>'2_combined'!G3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{3366AC40-6578-4797-B607-19265E7DBF5C}" name="hguide" dataDxfId="59">
+    <tableColumn id="6" xr3:uid="{3366AC40-6578-4797-B607-19265E7DBF5C}" name="hguide" dataDxfId="68">
       <calculatedColumnFormula>MID('2_combined'!I3, 3, 100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{554F4E79-98DE-474B-A5C8-D4B536772E95}" name="cell" dataDxfId="58">
+    <tableColumn id="7" xr3:uid="{554F4E79-98DE-474B-A5C8-D4B536772E95}" name="cell" dataDxfId="67">
       <calculatedColumnFormula>'2_combined'!F3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{32FC5061-DD85-4234-9ED8-FEAF6D9E3BC0}" name="treatment" dataDxfId="57">
+    <tableColumn id="8" xr3:uid="{32FC5061-DD85-4234-9ED8-FEAF6D9E3BC0}" name="treatment" dataDxfId="66">
       <calculatedColumnFormula>'2_combined'!H3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{DB6998A3-1431-4DDD-8DA0-525B805BF436}" name="subst_type"/>
-    <tableColumn id="10" xr3:uid="{367B0912-E7A8-4430-962D-4F79EE14E5EA}" name="command_main_data" dataDxfId="2">
-      <calculatedColumnFormula>_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</calculatedColumnFormula>
+    <tableColumn id="9" xr3:uid="{DB6998A3-1431-4DDD-8DA0-525B805BF436}" name="subst_type">
+      <calculatedColumnFormula>subst_type</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{4A65279E-321E-4E3E-8383-26D448C2012F}" name="command_graph_data" dataDxfId="22">
-      <calculatedColumnFormula>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</calculatedColumnFormula>
+    <tableColumn id="10" xr3:uid="{367B0912-E7A8-4430-962D-4F79EE14E5EA}" name="command_main_data" dataDxfId="14">
+      <calculatedColumnFormula>_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", libraries_3, "/",Table5[[#This Row],[dir]], ".tsv -o ", libraries_4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{4A65279E-321E-4E3E-8383-26D448C2012F}" name="command_graph_data" dataDxfId="23">
+      <calculatedColumnFormula>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", libraries_4, "/", Table5[[#This Row],[dir]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1526,7 +1674,7 @@
     <tableColumn id="2" xr3:uid="{5B7F1A2A-EC69-4E5A-BEF9-DA0BB1F6D84F}" name="dir">
       <calculatedColumnFormula>'2_combined'!J45</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{5911EF6D-9D4A-4737-925D-230D175C0AD0}" name="control" dataDxfId="21">
+    <tableColumn id="3" xr3:uid="{5911EF6D-9D4A-4737-925D-230D175C0AD0}" name="control" dataDxfId="44">
       <calculatedColumnFormula>SUBSTITUTE('2_combined'!C45, "dsb", "DSB")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{8DB9ADE6-D3E8-4451-9780-7AC62CFAAC8A}" name="ref">
@@ -1553,12 +1701,14 @@
     <tableColumn id="11" xr3:uid="{08EAD756-AA31-4DE2-B500-71FE3AA9EA6F}" name="treatment">
       <calculatedColumnFormula>'2_combined'!H45</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{79869E15-3FDE-43F8-AD44-2CB6888FCFF5}" name="subst_type"/>
-    <tableColumn id="13" xr3:uid="{F52A28AD-B89A-419E-8DBE-A81D738193B6}" name="command_main_data" dataDxfId="1">
-      <calculatedColumnFormula>_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", dirs!$A$3, "/",Table10[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table10[[#This Row],[dir]], " -ref ref_seq/", Table10[[#This Row],[ref]], " -dsb ", Table10[[#This Row],[dsb_pos]], " --dsb_type ",Table10[[#This Row],[dsb_type_command]], " --strand ", Table10[[#This Row],[strand]], " --hguide ", Table10[[#This Row],[hguide]], " --cell ", Table10[[#This Row],[cell]], " --treatment ", Table10[[#This Row],[treatment]], " --subst_type ", Table10[[#This Row],[subst_type]], " --control ", Table10[[#This Row],[control]])</calculatedColumnFormula>
+    <tableColumn id="12" xr3:uid="{79869E15-3FDE-43F8-AD44-2CB6888FCFF5}" name="subst_type" dataDxfId="27">
+      <calculatedColumnFormula>subst_type</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{AC6F291F-482F-4B13-86D4-8C748D325E95}" name="command_graph_data" dataDxfId="23">
-      <calculatedColumnFormula>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table10[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table10[[#This Row],[dir]])</calculatedColumnFormula>
+    <tableColumn id="13" xr3:uid="{F52A28AD-B89A-419E-8DBE-A81D738193B6}" name="command_main_data" dataDxfId="13">
+      <calculatedColumnFormula>_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", libraries_3, "/",Table10[[#This Row],[dir]], ".tsv -o ", libraries_4, "/", Table10[[#This Row],[dir]], " -ref ref_seq/", Table10[[#This Row],[ref]], " -dsb ", Table10[[#This Row],[dsb_pos]], " --dsb_type ",Table10[[#This Row],[dsb_type_command]], " --strand ", Table10[[#This Row],[strand]], " --hguide ", Table10[[#This Row],[hguide]], " --cell ", Table10[[#This Row],[cell]], " --treatment ", Table10[[#This Row],[treatment]], " --subst_type ", Table10[[#This Row],[subst_type]], " --control ", Table10[[#This Row],[control]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="14" xr3:uid="{AC6F291F-482F-4B13-86D4-8C748D325E95}" name="command_graph_data" dataDxfId="22">
+      <calculatedColumnFormula>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table10[[#This Row],[subst_type]], " -dir ", libraries_4, "/", Table10[[#This Row],[dir]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1566,37 +1716,39 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{3ADBC687-3D92-491E-B36B-6CC1BB3B3380}" name="Table6" displayName="Table6" ref="A1:K17" totalsRowShown="0" headerRowDxfId="56">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{3ADBC687-3D92-491E-B36B-6CC1BB3B3380}" name="Table6" displayName="Table6" ref="A1:K17" totalsRowShown="0" headerRowDxfId="65">
   <autoFilter ref="A1:K17" xr:uid="{3ADBC687-3D92-491E-B36B-6CC1BB3B3380}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{B7EC223D-BA24-48F1-9EE3-DC56DEFDE4C2}" name="index" dataDxfId="51"/>
-    <tableColumn id="7" xr3:uid="{D9F1ADDA-18A2-4F81-862D-6B0F786079FF}" name="control" dataDxfId="49">
+    <tableColumn id="1" xr3:uid="{B7EC223D-BA24-48F1-9EE3-DC56DEFDE4C2}" name="index" dataDxfId="61"/>
+    <tableColumn id="7" xr3:uid="{D9F1ADDA-18A2-4F81-862D-6B0F786079FF}" name="control" dataDxfId="59">
       <calculatedColumnFormula>OFFSET('3_graph'!$C$3, 3 * QUOTIENT(Table6[[#This Row],[index]] - 1, 2), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{0EA5A81F-6EA1-4256-9717-03273165F7BF}" name="treatment_1" dataDxfId="48">
+    <tableColumn id="8" xr3:uid="{0EA5A81F-6EA1-4256-9717-03273165F7BF}" name="treatment_1" dataDxfId="58">
       <calculatedColumnFormula>OFFSET('3_graph'!$K$2, 3 * QUOTIENT(Table6[[#This Row],[index]] - 1, 2), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{5F6D005A-96D8-4801-93E2-101BAE551BA8}" name="dir_1" dataDxfId="50">
+    <tableColumn id="2" xr3:uid="{5F6D005A-96D8-4801-93E2-101BAE551BA8}" name="dir_1" dataDxfId="60">
       <calculatedColumnFormula>OFFSET('3_graph'!$B$2, 3 * QUOTIENT(Table6[[#This Row],[index]] - 1, 2), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{C21D1AF7-7ABE-4181-AA2A-42227869A8DD}" name="treatment_2" dataDxfId="47">
+    <tableColumn id="9" xr3:uid="{C21D1AF7-7ABE-4181-AA2A-42227869A8DD}" name="treatment_2" dataDxfId="57">
       <calculatedColumnFormula>OFFSET('3_graph'!$K$2, 3 * QUOTIENT(Table6[[#This Row],[index]] - 1, 2) + 1 + MOD(Table6[[#This Row],[index]] - 1, 2), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{D66426AC-E0B2-4B07-A4D4-5A74AA033E80}" name="dir_2" dataDxfId="52">
+    <tableColumn id="3" xr3:uid="{D66426AC-E0B2-4B07-A4D4-5A74AA033E80}" name="dir_2" dataDxfId="62">
       <calculatedColumnFormula>OFFSET('3_graph'!$B$2, 3 * QUOTIENT(Table6[[#This Row],[index]] - 1, 2) + 1 + MOD(Table6[[#This Row],[index]] - 1, 2), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{0C8146A0-DC77-4DC4-82FF-74F4C74CF33E}" name="treatments_out" dataDxfId="25">
+    <tableColumn id="10" xr3:uid="{0C8146A0-DC77-4DC4-82FF-74F4C74CF33E}" name="treatments_out" dataDxfId="46">
       <calculatedColumnFormula>_xlfn.CONCAT(Table6[[#This Row],[treatment_1]], "_", Table6[[#This Row],[treatment_2]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{519A6397-7A3C-4009-B8B9-A71C0B3A591B}" name="dir_out" dataDxfId="24">
+    <tableColumn id="4" xr3:uid="{519A6397-7A3C-4009-B8B9-A71C0B3A591B}" name="dir_out" dataDxfId="45">
       <calculatedColumnFormula>SUBSTITUTE(Table6[[#This Row],[dir_1]], Table6[[#This Row],[treatment_1]], Table6[[#This Row],[treatments_out]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{E1629355-7D02-4819-98A1-EEB3B5FADE18}" name="subst_type"/>
-    <tableColumn id="6" xr3:uid="{BC9117A0-CB6F-4D3C-A0E4-BF8395854D9A}" name="command_main_data_combined" dataDxfId="55">
-      <calculatedColumnFormula>_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", Table6[[#This Row],[dir_1]], " ", dirs!$A$4, "/", Table6[[#This Row],[dir_2]], " -o ", dirs!$A$4, "/", Table6[[#This Row],[dir_out]], " --subst_type ", Table6[[#This Row],[subst_type]])</calculatedColumnFormula>
+    <tableColumn id="5" xr3:uid="{E1629355-7D02-4819-98A1-EEB3B5FADE18}" name="subst_type" dataDxfId="26">
+      <calculatedColumnFormula>subst_type</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{D384013E-9937-4DD8-A36A-43325757359B}" name="command_graph_data" dataDxfId="20">
-      <calculatedColumnFormula>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table6[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table6[[#This Row],[dir_out]])</calculatedColumnFormula>
+    <tableColumn id="6" xr3:uid="{BC9117A0-CB6F-4D3C-A0E4-BF8395854D9A}" name="command_main_data_combined" dataDxfId="21">
+      <calculatedColumnFormula>_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", libraries_4, "/", Table6[[#This Row],[dir_1]], " ", libraries_4, "/", Table6[[#This Row],[dir_2]], " -o ", libraries_4, "/", Table6[[#This Row],[dir_out]], " --subst_type ", Table6[[#This Row],[subst_type]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{D384013E-9937-4DD8-A36A-43325757359B}" name="command_graph_data" dataDxfId="43">
+      <calculatedColumnFormula>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table6[[#This Row],[subst_type]], " -dir ", globals!$A$4, "/", Table6[[#This Row],[dir_out]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1604,37 +1756,39 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{44E39C67-02E4-4910-8670-BA7FFCEEEAF8}" name="Table68" displayName="Table68" ref="A19:K21" totalsRowShown="0" headerRowDxfId="46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{44E39C67-02E4-4910-8670-BA7FFCEEEAF8}" name="Table68" displayName="Table68" ref="A19:K21" totalsRowShown="0" headerRowDxfId="56">
   <autoFilter ref="A19:K21" xr:uid="{44E39C67-02E4-4910-8670-BA7FFCEEEAF8}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{7F5A3A15-751D-407C-A035-61B2605E693F}" name="index" dataDxfId="45"/>
-    <tableColumn id="7" xr3:uid="{45863AB0-FD32-49FE-B4BF-F8EE865F7604}" name="control" dataDxfId="44">
+    <tableColumn id="1" xr3:uid="{7F5A3A15-751D-407C-A035-61B2605E693F}" name="index" dataDxfId="55"/>
+    <tableColumn id="7" xr3:uid="{45863AB0-FD32-49FE-B4BF-F8EE865F7604}" name="control" dataDxfId="54">
       <calculatedColumnFormula>OFFSET('3_graph'!$C$26, 2 * (Table68[[#This Row],[index]] - 1), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{CD16648D-267E-410B-A366-3E12367C037C}" name="treatment_1" dataDxfId="43">
+    <tableColumn id="8" xr3:uid="{CD16648D-267E-410B-A366-3E12367C037C}" name="treatment_1" dataDxfId="53">
       <calculatedColumnFormula>OFFSET('3_graph'!$K$26, 2 * (Table68[[#This Row],[index]] - 1), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{10C9F90E-86FD-4BFE-939E-298FD6F69F12}" name="dir_1" dataDxfId="42">
+    <tableColumn id="2" xr3:uid="{10C9F90E-86FD-4BFE-939E-298FD6F69F12}" name="dir_1" dataDxfId="52">
       <calculatedColumnFormula>OFFSET('3_graph'!$B$26, 2 * (Table68[[#This Row],[index]] - 1), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{7AB3E4AB-F43B-4FDE-96D7-FBBB4A8B83BE}" name="treatment_2" dataDxfId="41">
+    <tableColumn id="9" xr3:uid="{7AB3E4AB-F43B-4FDE-96D7-FBBB4A8B83BE}" name="treatment_2" dataDxfId="51">
       <calculatedColumnFormula>OFFSET('3_graph'!$K$26, 2 * (Table68[[#This Row],[index]] - 1) + 1, 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{BF948A3E-9649-41BF-A7E7-57BFDE810FE9}" name="dir_2" dataDxfId="40">
+    <tableColumn id="3" xr3:uid="{BF948A3E-9649-41BF-A7E7-57BFDE810FE9}" name="dir_2" dataDxfId="50">
       <calculatedColumnFormula>OFFSET('3_graph'!$B$26, 2 * (Table68[[#This Row],[index]] - 1) + 1, 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{378119E5-F021-4785-A653-4D632F029AA6}" name="treatments_out" dataDxfId="26">
+    <tableColumn id="10" xr3:uid="{378119E5-F021-4785-A653-4D632F029AA6}" name="treatments_out" dataDxfId="47">
       <calculatedColumnFormula>_xlfn.CONCAT(Table68[[#This Row],[treatment_1]], "_", Table68[[#This Row],[treatment_2]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{AE1A14DC-D0C9-4818-B8CC-09A571E73BC2}" name="dir_out" dataDxfId="27">
+    <tableColumn id="4" xr3:uid="{AE1A14DC-D0C9-4818-B8CC-09A571E73BC2}" name="dir_out" dataDxfId="48">
       <calculatedColumnFormula>SUBSTITUTE(Table68[[#This Row],[dir_1]], Table68[[#This Row],[treatment_1]], Table68[[#This Row],[treatments_out]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{F29DAC4E-FEC5-4C1D-AAC1-7CE19E401F25}" name="subst_type"/>
-    <tableColumn id="6" xr3:uid="{DC4E99F4-97AB-4553-A5FB-D20D3D487947}" name="command_main_data_combined" dataDxfId="39">
-      <calculatedColumnFormula>_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", Table68[[#This Row],[dir_1]], " ", dirs!$A$4, "/", Table68[[#This Row],[dir_2]], " -o ", dirs!$A$4, "/", Table68[[#This Row],[dir_out]], " --subst_type ", Table68[[#This Row],[subst_type]])</calculatedColumnFormula>
+    <tableColumn id="5" xr3:uid="{F29DAC4E-FEC5-4C1D-AAC1-7CE19E401F25}" name="subst_type">
+      <calculatedColumnFormula>subst_type</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{E19D3001-2E76-4CC2-BF33-D0465C77D538}" name="command_graph_data" dataDxfId="19">
-      <calculatedColumnFormula>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table68[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table68[[#This Row],[dir_out]])</calculatedColumnFormula>
+    <tableColumn id="6" xr3:uid="{DC4E99F4-97AB-4553-A5FB-D20D3D487947}" name="command_main_data_combined" dataDxfId="20">
+      <calculatedColumnFormula>_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", libraries_4, "/", Table68[[#This Row],[dir_1]], " ", libraries_4, "/", Table68[[#This Row],[dir_2]], " -o ", libraries_4, "/", Table68[[#This Row],[dir_out]], " --subst_type ", Table68[[#This Row],[subst_type]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{E19D3001-2E76-4CC2-BF33-D0465C77D538}" name="command_graph_data" dataDxfId="42">
+      <calculatedColumnFormula>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table68[[#This Row],[subst_type]], " -dir ", globals!$A$4, "/", Table68[[#This Row],[dir_out]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1642,37 +1796,39 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{DF721F9E-54DB-422A-8466-77EDBF2287AF}" name="Table69" displayName="Table69" ref="A24:K32" totalsRowShown="0" headerRowDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{DF721F9E-54DB-422A-8466-77EDBF2287AF}" name="Table69" displayName="Table69" ref="A24:K32" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
   <autoFilter ref="A24:K32" xr:uid="{DF721F9E-54DB-422A-8466-77EDBF2287AF}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{4B2D38BB-C594-4CFF-A307-A134FF1DBF8B}" name="index" dataDxfId="37"/>
-    <tableColumn id="7" xr3:uid="{CC939230-FB0E-416F-B345-7A4DD4839870}" name="control" dataDxfId="35">
+    <tableColumn id="1" xr3:uid="{4B2D38BB-C594-4CFF-A307-A134FF1DBF8B}" name="index" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{CC939230-FB0E-416F-B345-7A4DD4839870}" name="control" dataDxfId="11">
       <calculatedColumnFormula>OFFSET('3_graph'!$C$30, 3 * QUOTIENT(Table69[[#This Row],[index]] - 1, 2), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{AF3BF10E-758C-4395-83F8-5F1B20B1ABB6}" name="treatment_1" dataDxfId="34">
+    <tableColumn id="8" xr3:uid="{AF3BF10E-758C-4395-83F8-5F1B20B1ABB6}" name="treatment_1" dataDxfId="10">
       <calculatedColumnFormula>OFFSET('3_graph'!$K$30, 3 * QUOTIENT(Table69[[#This Row],[index]] - 1, 2), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{0E2E8B48-A535-4A36-B8D0-3BC864F39FE8}" name="dir_1" dataDxfId="33">
+    <tableColumn id="2" xr3:uid="{0E2E8B48-A535-4A36-B8D0-3BC864F39FE8}" name="dir_1" dataDxfId="9">
       <calculatedColumnFormula>OFFSET('3_graph'!$B$30, 3 * QUOTIENT(Table69[[#This Row],[index]] - 1, 2), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{10535B63-D8B1-4531-B393-DEE364AD65FC}" name="treatment_2" dataDxfId="32">
+    <tableColumn id="9" xr3:uid="{10535B63-D8B1-4531-B393-DEE364AD65FC}" name="treatment_2" dataDxfId="8">
       <calculatedColumnFormula>OFFSET('3_graph'!$K$30, 3 * QUOTIENT(Table69[[#This Row],[index]] - 1, 2) + 1 + MOD(Table69[[#This Row],[index]] - 1, 2), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{38434F18-6E6B-4445-9468-F1AC68C767A1}" name="dir_2" dataDxfId="31">
+    <tableColumn id="3" xr3:uid="{38434F18-6E6B-4445-9468-F1AC68C767A1}" name="dir_2" dataDxfId="7">
       <calculatedColumnFormula>OFFSET('3_graph'!$B$30, 3 * QUOTIENT(Table69[[#This Row],[index]] - 1, 2) + 1 + MOD(Table69[[#This Row],[index]] - 1, 2), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{D8505D76-DFE0-404D-80FB-E23FCF6C4138}" name="treatments_out" dataDxfId="29">
+    <tableColumn id="10" xr3:uid="{D8505D76-DFE0-404D-80FB-E23FCF6C4138}" name="treatments_out" dataDxfId="6">
       <calculatedColumnFormula>_xlfn.CONCAT(Table69[[#This Row],[treatment_1]], "_", Table69[[#This Row],[treatment_2]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{40A7ED64-C4FB-4223-B672-132B923E0A05}" name="dir_out" dataDxfId="28">
+    <tableColumn id="4" xr3:uid="{40A7ED64-C4FB-4223-B672-132B923E0A05}" name="dir_out" dataDxfId="5">
       <calculatedColumnFormula>SUBSTITUTE(Table69[[#This Row],[dir_1]], Table69[[#This Row],[treatment_1]], Table69[[#This Row],[treatments_out]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{8212981C-68FE-482E-8379-C30BF6F1B4E7}" name="subst_type"/>
-    <tableColumn id="6" xr3:uid="{A4B6DFAC-3439-4952-AA76-E967563DEB87}" name="command_main_data_combined" dataDxfId="36">
-      <calculatedColumnFormula>_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", Table69[[#This Row],[dir_1]], " ", dirs!$A$4, "/", Table69[[#This Row],[dir_2]], " -o ", dirs!$A$4, "/", Table69[[#This Row],[dir_out]], " --subst_type ", Table69[[#This Row],[subst_type]])</calculatedColumnFormula>
+    <tableColumn id="5" xr3:uid="{8212981C-68FE-482E-8379-C30BF6F1B4E7}" name="subst_type" dataDxfId="4">
+      <calculatedColumnFormula>subst_type</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{C0DE1F11-E7E3-403F-A689-174A1F923BFE}" name="command_graph_data" dataDxfId="18">
-      <calculatedColumnFormula>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table69[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table69[[#This Row],[dir_out]])</calculatedColumnFormula>
+    <tableColumn id="6" xr3:uid="{A4B6DFAC-3439-4952-AA76-E967563DEB87}" name="command_main_data_combined" dataDxfId="3">
+      <calculatedColumnFormula>_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", libraries_4, "/", Table69[[#This Row],[dir_1]], " ", libraries_4, "/", Table69[[#This Row],[dir_2]], " -o ", libraries_4, "/", Table69[[#This Row],[dir_out]], " --subst_type ", Table69[[#This Row],[subst_type]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{C0DE1F11-E7E3-403F-A689-174A1F923BFE}" name="command_graph_data" dataDxfId="2">
+      <calculatedColumnFormula>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table69[[#This Row],[subst_type]], " -dir ", globals!$A$4, "/", Table69[[#This Row],[dir_out]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1976,10 +2132,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86129707-88BE-44BB-B759-1CA0FE147BD8}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1988,32 +2144,35 @@
     <col min="2" max="2" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>174</v>
       </c>
@@ -2027,8 +2186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40F1EACD-27DC-4973-8E3A-9162F610D9C4}">
   <dimension ref="A1:N173"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:N173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2140,7 +2299,7 @@
         <v>50</v>
       </c>
       <c r="N2" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl217_R1_2DSBs.sam -ref ref_seq/2DSB_R1_sense.fa -o libraries_2/yjl217_WT_sgAB_R1_sense.tsv --min_length 50 -dsb 67 --quiet</v>
       </c>
     </row>
@@ -2191,7 +2350,7 @@
         <v>50</v>
       </c>
       <c r="N3" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl218_R1_2DSBs.sam -ref ref_seq/2DSB_R1_sense.fa -o libraries_2/yjl218_WT_sgAB_R1_sense.tsv --min_length 50 -dsb 67 --quiet</v>
       </c>
     </row>
@@ -2242,7 +2401,7 @@
         <v>50</v>
       </c>
       <c r="N4" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl219_R1_2DSBs.sam -ref ref_seq/2DSB_R1_sense.fa -o libraries_2/yjl219_WT_sgAB_R1_sense.tsv --min_length 50 -dsb 67 --quiet</v>
       </c>
     </row>
@@ -2293,7 +2452,7 @@
         <v>50</v>
       </c>
       <c r="N5" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl220_R1_2DSBs.sam -ref ref_seq/2DSB_R1_sense.fa -o libraries_2/yjl220_WT_sgAB_R1_sense.tsv --min_length 50 -dsb 67 --quiet</v>
       </c>
     </row>
@@ -2344,7 +2503,7 @@
         <v>50</v>
       </c>
       <c r="N6" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl221_R1_2DSBs.sam -ref ref_seq/2DSB_R1_branch.fa -o libraries_2/yjl221_WT_sgAB_R1_branch.tsv --min_length 50 -dsb 67 --quiet</v>
       </c>
     </row>
@@ -2395,7 +2554,7 @@
         <v>50</v>
       </c>
       <c r="N7" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl222_R1_2DSBs.sam -ref ref_seq/2DSB_R1_branch.fa -o libraries_2/yjl222_WT_sgAB_R1_branch.tsv --min_length 50 -dsb 67 --quiet</v>
       </c>
     </row>
@@ -2446,7 +2605,7 @@
         <v>50</v>
       </c>
       <c r="N8" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl223_R1_2DSBs.sam -ref ref_seq/2DSB_R1_branch.fa -o libraries_2/yjl223_WT_sgAB_R1_branch.tsv --min_length 50 -dsb 67 --quiet</v>
       </c>
     </row>
@@ -2497,7 +2656,7 @@
         <v>50</v>
       </c>
       <c r="N9" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl224_R1_2DSBs.sam -ref ref_seq/2DSB_R1_branch.fa -o libraries_2/yjl224_WT_sgAB_R1_branch.tsv --min_length 50 -dsb 67 --quiet</v>
       </c>
     </row>
@@ -2548,7 +2707,7 @@
         <v>50</v>
       </c>
       <c r="N10" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl225_R1_2DSBs.sam -ref ref_seq/2DSB_R1_cmv.fa -o libraries_2/yjl225_WT_sgAB_R1_cmv.tsv --min_length 50 -dsb 67 --quiet</v>
       </c>
     </row>
@@ -2599,7 +2758,7 @@
         <v>50</v>
       </c>
       <c r="N11" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl226_R1_2DSBs.sam -ref ref_seq/2DSB_R1_cmv.fa -o libraries_2/yjl226_WT_sgAB_R1_cmv.tsv --min_length 50 -dsb 67 --quiet</v>
       </c>
     </row>
@@ -2650,7 +2809,7 @@
         <v>50</v>
       </c>
       <c r="N12" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl227_R1_2DSBs.sam -ref ref_seq/2DSB_R1_cmv.fa -o libraries_2/yjl227_WT_sgAB_R1_cmv.tsv --min_length 50 -dsb 67 --quiet</v>
       </c>
     </row>
@@ -2701,7 +2860,7 @@
         <v>50</v>
       </c>
       <c r="N13" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl228_R1_2DSBs.sam -ref ref_seq/2DSB_R1_cmv.fa -o libraries_2/yjl228_WT_sgAB_R1_cmv.tsv --min_length 50 -dsb 67 --quiet</v>
       </c>
     </row>
@@ -2752,7 +2911,7 @@
         <v>50</v>
       </c>
       <c r="N14" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl229_R1_2DSBs.sam -ref ref_seq/2DSB_R1_sense.fa -o libraries_2/yjl229_KO_sgAB_R1_sense.tsv --min_length 50 -dsb 67 --quiet</v>
       </c>
     </row>
@@ -2803,7 +2962,7 @@
         <v>50</v>
       </c>
       <c r="N15" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl230_R1_2DSBs.sam -ref ref_seq/2DSB_R1_sense.fa -o libraries_2/yjl230_KO_sgAB_R1_sense.tsv --min_length 50 -dsb 67 --quiet</v>
       </c>
     </row>
@@ -2854,7 +3013,7 @@
         <v>50</v>
       </c>
       <c r="N16" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl231_R1_2DSBs.sam -ref ref_seq/2DSB_R1_sense.fa -o libraries_2/yjl231_KO_sgAB_R1_sense.tsv --min_length 50 -dsb 67 --quiet</v>
       </c>
     </row>
@@ -2905,7 +3064,7 @@
         <v>50</v>
       </c>
       <c r="N17" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl232_R1_2DSBs.sam -ref ref_seq/2DSB_R1_sense.fa -o libraries_2/yjl232_KO_sgAB_R1_sense.tsv --min_length 50 -dsb 67 --quiet</v>
       </c>
     </row>
@@ -2956,7 +3115,7 @@
         <v>50</v>
       </c>
       <c r="N18" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl233_R1_2DSBs.sam -ref ref_seq/2DSB_R1_branch.fa -o libraries_2/yjl233_KO_sgAB_R1_branch.tsv --min_length 50 -dsb 67 --quiet</v>
       </c>
     </row>
@@ -3007,7 +3166,7 @@
         <v>50</v>
       </c>
       <c r="N19" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl234_R1_2DSBs.sam -ref ref_seq/2DSB_R1_branch.fa -o libraries_2/yjl234_KO_sgAB_R1_branch.tsv --min_length 50 -dsb 67 --quiet</v>
       </c>
     </row>
@@ -3058,7 +3217,7 @@
         <v>50</v>
       </c>
       <c r="N20" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl235_R1_2DSBs.sam -ref ref_seq/2DSB_R1_branch.fa -o libraries_2/yjl235_KO_sgAB_R1_branch.tsv --min_length 50 -dsb 67 --quiet</v>
       </c>
     </row>
@@ -3109,7 +3268,7 @@
         <v>50</v>
       </c>
       <c r="N21" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl236_R1_2DSBs.sam -ref ref_seq/2DSB_R1_branch.fa -o libraries_2/yjl236_KO_sgAB_R1_branch.tsv --min_length 50 -dsb 67 --quiet</v>
       </c>
     </row>
@@ -3160,7 +3319,7 @@
         <v>50</v>
       </c>
       <c r="N22" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl237_R1_2DSBs.sam -ref ref_seq/2DSB_R1_cmv.fa -o libraries_2/yjl237_KO_sgAB_R1_cmv.tsv --min_length 50 -dsb 67 --quiet</v>
       </c>
     </row>
@@ -3211,7 +3370,7 @@
         <v>50</v>
       </c>
       <c r="N23" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl238_R1_2DSBs.sam -ref ref_seq/2DSB_R1_cmv.fa -o libraries_2/yjl238_KO_sgAB_R1_cmv.tsv --min_length 50 -dsb 67 --quiet</v>
       </c>
     </row>
@@ -3262,7 +3421,7 @@
         <v>50</v>
       </c>
       <c r="N24" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl239_R1_2DSBs.sam -ref ref_seq/2DSB_R1_cmv.fa -o libraries_2/yjl239_KO_sgAB_R1_cmv.tsv --min_length 50 -dsb 67 --quiet</v>
       </c>
     </row>
@@ -3313,7 +3472,7 @@
         <v>50</v>
       </c>
       <c r="N25" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl240_R1_2DSBs.sam -ref ref_seq/2DSB_R1_cmv.fa -o libraries_2/yjl240_KO_sgAB_R1_cmv.tsv --min_length 50 -dsb 67 --quiet</v>
       </c>
     </row>
@@ -3364,7 +3523,7 @@
         <v>50</v>
       </c>
       <c r="N26" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl217_R2_2DSBs.sam -ref ref_seq/2DSB_R2_sense.fa -o libraries_2/yjl217_WT_sgAB_R2_sense.tsv --min_length 50 -dsb 46 --quiet</v>
       </c>
     </row>
@@ -3415,7 +3574,7 @@
         <v>50</v>
       </c>
       <c r="N27" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl218_R2_2DSBs.sam -ref ref_seq/2DSB_R2_sense.fa -o libraries_2/yjl218_WT_sgAB_R2_sense.tsv --min_length 50 -dsb 46 --quiet</v>
       </c>
     </row>
@@ -3466,7 +3625,7 @@
         <v>50</v>
       </c>
       <c r="N28" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl219_R2_2DSBs.sam -ref ref_seq/2DSB_R2_sense.fa -o libraries_2/yjl219_WT_sgAB_R2_sense.tsv --min_length 50 -dsb 46 --quiet</v>
       </c>
     </row>
@@ -3517,7 +3676,7 @@
         <v>50</v>
       </c>
       <c r="N29" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl220_R2_2DSBs.sam -ref ref_seq/2DSB_R2_sense.fa -o libraries_2/yjl220_WT_sgAB_R2_sense.tsv --min_length 50 -dsb 46 --quiet</v>
       </c>
     </row>
@@ -3568,7 +3727,7 @@
         <v>50</v>
       </c>
       <c r="N30" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl221_R2_2DSBs.sam -ref ref_seq/2DSB_R2_branch.fa -o libraries_2/yjl221_WT_sgAB_R2_branch.tsv --min_length 50 -dsb 46 --quiet</v>
       </c>
     </row>
@@ -3619,7 +3778,7 @@
         <v>50</v>
       </c>
       <c r="N31" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl222_R2_2DSBs.sam -ref ref_seq/2DSB_R2_branch.fa -o libraries_2/yjl222_WT_sgAB_R2_branch.tsv --min_length 50 -dsb 46 --quiet</v>
       </c>
     </row>
@@ -3670,7 +3829,7 @@
         <v>50</v>
       </c>
       <c r="N32" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl223_R2_2DSBs.sam -ref ref_seq/2DSB_R2_branch.fa -o libraries_2/yjl223_WT_sgAB_R2_branch.tsv --min_length 50 -dsb 46 --quiet</v>
       </c>
     </row>
@@ -3721,7 +3880,7 @@
         <v>50</v>
       </c>
       <c r="N33" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl224_R2_2DSBs.sam -ref ref_seq/2DSB_R2_branch.fa -o libraries_2/yjl224_WT_sgAB_R2_branch.tsv --min_length 50 -dsb 46 --quiet</v>
       </c>
     </row>
@@ -3772,7 +3931,7 @@
         <v>50</v>
       </c>
       <c r="N34" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl225_R2_2DSBs.sam -ref ref_seq/2DSB_R2_cmv.fa -o libraries_2/yjl225_WT_sgAB_R2_cmv.tsv --min_length 50 -dsb 46 --quiet</v>
       </c>
     </row>
@@ -3823,7 +3982,7 @@
         <v>50</v>
       </c>
       <c r="N35" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl226_R2_2DSBs.sam -ref ref_seq/2DSB_R2_cmv.fa -o libraries_2/yjl226_WT_sgAB_R2_cmv.tsv --min_length 50 -dsb 46 --quiet</v>
       </c>
     </row>
@@ -3874,7 +4033,7 @@
         <v>50</v>
       </c>
       <c r="N36" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl227_R2_2DSBs.sam -ref ref_seq/2DSB_R2_cmv.fa -o libraries_2/yjl227_WT_sgAB_R2_cmv.tsv --min_length 50 -dsb 46 --quiet</v>
       </c>
     </row>
@@ -3925,7 +4084,7 @@
         <v>50</v>
       </c>
       <c r="N37" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl228_R2_2DSBs.sam -ref ref_seq/2DSB_R2_cmv.fa -o libraries_2/yjl228_WT_sgAB_R2_cmv.tsv --min_length 50 -dsb 46 --quiet</v>
       </c>
     </row>
@@ -3976,7 +4135,7 @@
         <v>50</v>
       </c>
       <c r="N38" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl229_R2_2DSBs.sam -ref ref_seq/2DSB_R2_sense.fa -o libraries_2/yjl229_KO_sgAB_R2_sense.tsv --min_length 50 -dsb 46 --quiet</v>
       </c>
     </row>
@@ -4027,7 +4186,7 @@
         <v>50</v>
       </c>
       <c r="N39" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl230_R2_2DSBs.sam -ref ref_seq/2DSB_R2_sense.fa -o libraries_2/yjl230_KO_sgAB_R2_sense.tsv --min_length 50 -dsb 46 --quiet</v>
       </c>
     </row>
@@ -4078,7 +4237,7 @@
         <v>50</v>
       </c>
       <c r="N40" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl231_R2_2DSBs.sam -ref ref_seq/2DSB_R2_sense.fa -o libraries_2/yjl231_KO_sgAB_R2_sense.tsv --min_length 50 -dsb 46 --quiet</v>
       </c>
     </row>
@@ -4129,7 +4288,7 @@
         <v>50</v>
       </c>
       <c r="N41" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl232_R2_2DSBs.sam -ref ref_seq/2DSB_R2_sense.fa -o libraries_2/yjl232_KO_sgAB_R2_sense.tsv --min_length 50 -dsb 46 --quiet</v>
       </c>
     </row>
@@ -4180,7 +4339,7 @@
         <v>50</v>
       </c>
       <c r="N42" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl233_R2_2DSBs.sam -ref ref_seq/2DSB_R2_branch.fa -o libraries_2/yjl233_KO_sgAB_R2_branch.tsv --min_length 50 -dsb 46 --quiet</v>
       </c>
     </row>
@@ -4231,7 +4390,7 @@
         <v>50</v>
       </c>
       <c r="N43" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl234_R2_2DSBs.sam -ref ref_seq/2DSB_R2_branch.fa -o libraries_2/yjl234_KO_sgAB_R2_branch.tsv --min_length 50 -dsb 46 --quiet</v>
       </c>
     </row>
@@ -4282,7 +4441,7 @@
         <v>50</v>
       </c>
       <c r="N44" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl235_R2_2DSBs.sam -ref ref_seq/2DSB_R2_branch.fa -o libraries_2/yjl235_KO_sgAB_R2_branch.tsv --min_length 50 -dsb 46 --quiet</v>
       </c>
     </row>
@@ -4333,7 +4492,7 @@
         <v>50</v>
       </c>
       <c r="N45" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl236_R2_2DSBs.sam -ref ref_seq/2DSB_R2_branch.fa -o libraries_2/yjl236_KO_sgAB_R2_branch.tsv --min_length 50 -dsb 46 --quiet</v>
       </c>
     </row>
@@ -4384,7 +4543,7 @@
         <v>50</v>
       </c>
       <c r="N46" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl237_R2_2DSBs.sam -ref ref_seq/2DSB_R2_cmv.fa -o libraries_2/yjl237_KO_sgAB_R2_cmv.tsv --min_length 50 -dsb 46 --quiet</v>
       </c>
     </row>
@@ -4435,7 +4594,7 @@
         <v>50</v>
       </c>
       <c r="N47" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl238_R2_2DSBs.sam -ref ref_seq/2DSB_R2_cmv.fa -o libraries_2/yjl238_KO_sgAB_R2_cmv.tsv --min_length 50 -dsb 46 --quiet</v>
       </c>
     </row>
@@ -4486,7 +4645,7 @@
         <v>50</v>
       </c>
       <c r="N48" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl239_R2_2DSBs.sam -ref ref_seq/2DSB_R2_cmv.fa -o libraries_2/yjl239_KO_sgAB_R2_cmv.tsv --min_length 50 -dsb 46 --quiet</v>
       </c>
     </row>
@@ -4537,7 +4696,7 @@
         <v>50</v>
       </c>
       <c r="N49" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl240_R2_2DSBs.sam -ref ref_seq/2DSB_R2_cmv.fa -o libraries_2/yjl240_KO_sgAB_R2_cmv.tsv --min_length 50 -dsb 46 --quiet</v>
       </c>
     </row>
@@ -4588,7 +4747,7 @@
         <v>130</v>
       </c>
       <c r="N50" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl255_R1_sgA.sam -ref ref_seq/1DSB_R1_sense.fa -o libraries_2/yjl255_WT_sgA_R1_sense.tsv --min_length 130 -dsb 67 --quiet</v>
       </c>
     </row>
@@ -4639,7 +4798,7 @@
         <v>130</v>
       </c>
       <c r="N51" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl256_R1_sgA.sam -ref ref_seq/1DSB_R1_sense.fa -o libraries_2/yjl256_WT_sgA_R1_sense.tsv --min_length 130 -dsb 67 --quiet</v>
       </c>
     </row>
@@ -4690,7 +4849,7 @@
         <v>130</v>
       </c>
       <c r="N52" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl257_R1_sgA.sam -ref ref_seq/1DSB_R1_sense.fa -o libraries_2/yjl257_WT_sgA_R1_sense.tsv --min_length 130 -dsb 67 --quiet</v>
       </c>
     </row>
@@ -4741,7 +4900,7 @@
         <v>130</v>
       </c>
       <c r="N53" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl258_R1_sgA.sam -ref ref_seq/1DSB_R1_sense.fa -o libraries_2/yjl258_WT_sgA_R1_sense.tsv --min_length 130 -dsb 67 --quiet</v>
       </c>
     </row>
@@ -4792,7 +4951,7 @@
         <v>130</v>
       </c>
       <c r="N54" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl259_R1_sgA.sam -ref ref_seq/1DSB_R1_branch.fa -o libraries_2/yjl259_WT_sgA_R1_branch.tsv --min_length 130 -dsb 67 --quiet</v>
       </c>
     </row>
@@ -4843,7 +5002,7 @@
         <v>130</v>
       </c>
       <c r="N55" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl260_R1_sgA.sam -ref ref_seq/1DSB_R1_branch.fa -o libraries_2/yjl260_WT_sgA_R1_branch.tsv --min_length 130 -dsb 67 --quiet</v>
       </c>
     </row>
@@ -4894,7 +5053,7 @@
         <v>130</v>
       </c>
       <c r="N56" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl261_R1_sgA.sam -ref ref_seq/1DSB_R1_branch.fa -o libraries_2/yjl261_WT_sgA_R1_branch.tsv --min_length 130 -dsb 67 --quiet</v>
       </c>
     </row>
@@ -4945,7 +5104,7 @@
         <v>130</v>
       </c>
       <c r="N57" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl262_R1_sgA.sam -ref ref_seq/1DSB_R1_branch.fa -o libraries_2/yjl262_WT_sgA_R1_branch.tsv --min_length 130 -dsb 67 --quiet</v>
       </c>
     </row>
@@ -4996,7 +5155,7 @@
         <v>130</v>
       </c>
       <c r="N58" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl263_R1_sgA.sam -ref ref_seq/1DSB_R1_cmv.fa -o libraries_2/yjl263_WT_sgA_R1_cmv.tsv --min_length 130 -dsb 67 --quiet</v>
       </c>
     </row>
@@ -5047,7 +5206,7 @@
         <v>130</v>
       </c>
       <c r="N59" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl264_R1_sgA.sam -ref ref_seq/1DSB_R1_cmv.fa -o libraries_2/yjl264_WT_sgA_R1_cmv.tsv --min_length 130 -dsb 67 --quiet</v>
       </c>
     </row>
@@ -5098,7 +5257,7 @@
         <v>130</v>
       </c>
       <c r="N60" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl265_R1_sgA.sam -ref ref_seq/1DSB_R1_cmv.fa -o libraries_2/yjl265_WT_sgA_R1_cmv.tsv --min_length 130 -dsb 67 --quiet</v>
       </c>
     </row>
@@ -5149,7 +5308,7 @@
         <v>130</v>
       </c>
       <c r="N61" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl266_R1_sgA.sam -ref ref_seq/1DSB_R1_cmv.fa -o libraries_2/yjl266_WT_sgA_R1_cmv.tsv --min_length 130 -dsb 67 --quiet</v>
       </c>
     </row>
@@ -5200,7 +5359,7 @@
         <v>130</v>
       </c>
       <c r="N62" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl267_R2_sgB.sam -ref ref_seq/1DSB_R2_sense.fa -o libraries_2/yjl267_WT_sgB_R2_sense.tsv --min_length 130 -dsb 46 --quiet</v>
       </c>
     </row>
@@ -5251,7 +5410,7 @@
         <v>130</v>
       </c>
       <c r="N63" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl268_R2_sgB.sam -ref ref_seq/1DSB_R2_sense.fa -o libraries_2/yjl268_WT_sgB_R2_sense.tsv --min_length 130 -dsb 46 --quiet</v>
       </c>
     </row>
@@ -5302,7 +5461,7 @@
         <v>130</v>
       </c>
       <c r="N64" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl269_R2_sgB.sam -ref ref_seq/1DSB_R2_sense.fa -o libraries_2/yjl269_WT_sgB_R2_sense.tsv --min_length 130 -dsb 46 --quiet</v>
       </c>
     </row>
@@ -5353,7 +5512,7 @@
         <v>130</v>
       </c>
       <c r="N65" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl270_R2_sgB.sam -ref ref_seq/1DSB_R2_sense.fa -o libraries_2/yjl270_WT_sgB_R2_sense.tsv --min_length 130 -dsb 46 --quiet</v>
       </c>
     </row>
@@ -5404,7 +5563,7 @@
         <v>130</v>
       </c>
       <c r="N66" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl271_R2_sgB.sam -ref ref_seq/1DSB_R2_branch.fa -o libraries_2/yjl271_WT_sgB_R2_branch.tsv --min_length 130 -dsb 46 --quiet</v>
       </c>
     </row>
@@ -5455,7 +5614,7 @@
         <v>130</v>
       </c>
       <c r="N67" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl272_R2_sgB.sam -ref ref_seq/1DSB_R2_branch.fa -o libraries_2/yjl272_WT_sgB_R2_branch.tsv --min_length 130 -dsb 46 --quiet</v>
       </c>
     </row>
@@ -5506,7 +5665,7 @@
         <v>130</v>
       </c>
       <c r="N68" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl273_R2_sgB.sam -ref ref_seq/1DSB_R2_branch.fa -o libraries_2/yjl273_WT_sgB_R2_branch.tsv --min_length 130 -dsb 46 --quiet</v>
       </c>
     </row>
@@ -5557,7 +5716,7 @@
         <v>130</v>
       </c>
       <c r="N69" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl274_R2_sgB.sam -ref ref_seq/1DSB_R2_branch.fa -o libraries_2/yjl274_WT_sgB_R2_branch.tsv --min_length 130 -dsb 46 --quiet</v>
       </c>
     </row>
@@ -5608,7 +5767,7 @@
         <v>130</v>
       </c>
       <c r="N70" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl275_R2_sgB.sam -ref ref_seq/1DSB_R2_cmv.fa -o libraries_2/yjl275_WT_sgB_R2_cmv.tsv --min_length 130 -dsb 46 --quiet</v>
       </c>
     </row>
@@ -5659,7 +5818,7 @@
         <v>130</v>
       </c>
       <c r="N71" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl276_R2_sgB.sam -ref ref_seq/1DSB_R2_cmv.fa -o libraries_2/yjl276_WT_sgB_R2_cmv.tsv --min_length 130 -dsb 46 --quiet</v>
       </c>
     </row>
@@ -5710,7 +5869,7 @@
         <v>130</v>
       </c>
       <c r="N72" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl277_R2_sgB.sam -ref ref_seq/1DSB_R2_cmv.fa -o libraries_2/yjl277_WT_sgB_R2_cmv.tsv --min_length 130 -dsb 46 --quiet</v>
       </c>
     </row>
@@ -5761,7 +5920,7 @@
         <v>130</v>
       </c>
       <c r="N73" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl278_R2_sgB.sam -ref ref_seq/1DSB_R2_cmv.fa -o libraries_2/yjl278_WT_sgB_R2_cmv.tsv --min_length 130 -dsb 46 --quiet</v>
       </c>
     </row>
@@ -5812,7 +5971,7 @@
         <v>130</v>
       </c>
       <c r="N74" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl292_R1_sgA.sam -ref ref_seq/1DSB_R1_sense.fa -o libraries_2/yjl292_KO_sgA_R1_sense.tsv --min_length 130 -dsb 67 --quiet</v>
       </c>
     </row>
@@ -5863,7 +6022,7 @@
         <v>130</v>
       </c>
       <c r="N75" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl293_R1_sgA.sam -ref ref_seq/1DSB_R1_sense.fa -o libraries_2/yjl293_KO_sgA_R1_sense.tsv --min_length 130 -dsb 67 --quiet</v>
       </c>
     </row>
@@ -5914,7 +6073,7 @@
         <v>130</v>
       </c>
       <c r="N76" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl294_R1_sgA.sam -ref ref_seq/1DSB_R1_sense.fa -o libraries_2/yjl294_KO_sgA_R1_sense.tsv --min_length 130 -dsb 67 --quiet</v>
       </c>
     </row>
@@ -5965,7 +6124,7 @@
         <v>130</v>
       </c>
       <c r="N77" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl295_R1_sgA.sam -ref ref_seq/1DSB_R1_sense.fa -o libraries_2/yjl295_KO_sgA_R1_sense.tsv --min_length 130 -dsb 67 --quiet</v>
       </c>
     </row>
@@ -6016,7 +6175,7 @@
         <v>130</v>
       </c>
       <c r="N78" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl296_R1_sgA.sam -ref ref_seq/1DSB_R1_branch.fa -o libraries_2/yjl296_KO_sgA_R1_branch.tsv --min_length 130 -dsb 67 --quiet</v>
       </c>
     </row>
@@ -6067,7 +6226,7 @@
         <v>130</v>
       </c>
       <c r="N79" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl297_R1_sgA.sam -ref ref_seq/1DSB_R1_branch.fa -o libraries_2/yjl297_KO_sgA_R1_branch.tsv --min_length 130 -dsb 67 --quiet</v>
       </c>
     </row>
@@ -6118,7 +6277,7 @@
         <v>130</v>
       </c>
       <c r="N80" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl298_R1_sgA.sam -ref ref_seq/1DSB_R1_branch.fa -o libraries_2/yjl298_KO_sgA_R1_branch.tsv --min_length 130 -dsb 67 --quiet</v>
       </c>
     </row>
@@ -6169,7 +6328,7 @@
         <v>130</v>
       </c>
       <c r="N81" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl299_R1_sgA.sam -ref ref_seq/1DSB_R1_branch.fa -o libraries_2/yjl299_KO_sgA_R1_branch.tsv --min_length 130 -dsb 67 --quiet</v>
       </c>
     </row>
@@ -6220,7 +6379,7 @@
         <v>130</v>
       </c>
       <c r="N82" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl300_R1_sgA.sam -ref ref_seq/1DSB_R1_cmv.fa -o libraries_2/yjl300_KO_sgA_R1_cmv.tsv --min_length 130 -dsb 67 --quiet</v>
       </c>
     </row>
@@ -6271,7 +6430,7 @@
         <v>130</v>
       </c>
       <c r="N83" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl301_R1_sgA.sam -ref ref_seq/1DSB_R1_cmv.fa -o libraries_2/yjl301_KO_sgA_R1_cmv.tsv --min_length 130 -dsb 67 --quiet</v>
       </c>
     </row>
@@ -6322,7 +6481,7 @@
         <v>130</v>
       </c>
       <c r="N84" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl302_R1_sgA.sam -ref ref_seq/1DSB_R1_cmv.fa -o libraries_2/yjl302_KO_sgA_R1_cmv.tsv --min_length 130 -dsb 67 --quiet</v>
       </c>
     </row>
@@ -6373,7 +6532,7 @@
         <v>130</v>
       </c>
       <c r="N85" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl303_R1_sgA.sam -ref ref_seq/1DSB_R1_cmv.fa -o libraries_2/yjl303_KO_sgA_R1_cmv.tsv --min_length 130 -dsb 67 --quiet</v>
       </c>
     </row>
@@ -6424,7 +6583,7 @@
         <v>130</v>
       </c>
       <c r="N86" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl304_R2_sgB.sam -ref ref_seq/1DSB_R2_sense.fa -o libraries_2/yjl304_KO_sgB_R2_sense.tsv --min_length 130 -dsb 46 --quiet</v>
       </c>
     </row>
@@ -6475,7 +6634,7 @@
         <v>130</v>
       </c>
       <c r="N87" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl305_R2_sgB.sam -ref ref_seq/1DSB_R2_sense.fa -o libraries_2/yjl305_KO_sgB_R2_sense.tsv --min_length 130 -dsb 46 --quiet</v>
       </c>
     </row>
@@ -6526,7 +6685,7 @@
         <v>130</v>
       </c>
       <c r="N88" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl306_R2_sgB.sam -ref ref_seq/1DSB_R2_sense.fa -o libraries_2/yjl306_KO_sgB_R2_sense.tsv --min_length 130 -dsb 46 --quiet</v>
       </c>
     </row>
@@ -6577,7 +6736,7 @@
         <v>130</v>
       </c>
       <c r="N89" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl307_R2_sgB.sam -ref ref_seq/1DSB_R2_sense.fa -o libraries_2/yjl307_KO_sgB_R2_sense.tsv --min_length 130 -dsb 46 --quiet</v>
       </c>
     </row>
@@ -6628,7 +6787,7 @@
         <v>130</v>
       </c>
       <c r="N90" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl308_R2_sgB.sam -ref ref_seq/1DSB_R2_branch.fa -o libraries_2/yjl308_KO_sgB_R2_branch.tsv --min_length 130 -dsb 46 --quiet</v>
       </c>
     </row>
@@ -6679,7 +6838,7 @@
         <v>130</v>
       </c>
       <c r="N91" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl309_R2_sgB.sam -ref ref_seq/1DSB_R2_branch.fa -o libraries_2/yjl309_KO_sgB_R2_branch.tsv --min_length 130 -dsb 46 --quiet</v>
       </c>
     </row>
@@ -6730,7 +6889,7 @@
         <v>130</v>
       </c>
       <c r="N92" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl310_R2_sgB.sam -ref ref_seq/1DSB_R2_branch.fa -o libraries_2/yjl310_KO_sgB_R2_branch.tsv --min_length 130 -dsb 46 --quiet</v>
       </c>
     </row>
@@ -6781,7 +6940,7 @@
         <v>130</v>
       </c>
       <c r="N93" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl311_R2_sgB.sam -ref ref_seq/1DSB_R2_branch.fa -o libraries_2/yjl311_KO_sgB_R2_branch.tsv --min_length 130 -dsb 46 --quiet</v>
       </c>
     </row>
@@ -6832,7 +6991,7 @@
         <v>130</v>
       </c>
       <c r="N94" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl312_R2_sgB.sam -ref ref_seq/1DSB_R2_cmv.fa -o libraries_2/yjl312_KO_sgB_R2_cmv.tsv --min_length 130 -dsb 46 --quiet</v>
       </c>
     </row>
@@ -6883,7 +7042,7 @@
         <v>130</v>
       </c>
       <c r="N95" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl313_R2_sgB.sam -ref ref_seq/1DSB_R2_cmv.fa -o libraries_2/yjl313_KO_sgB_R2_cmv.tsv --min_length 130 -dsb 46 --quiet</v>
       </c>
     </row>
@@ -6934,7 +7093,7 @@
         <v>130</v>
       </c>
       <c r="N96" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl314_R2_sgB.sam -ref ref_seq/1DSB_R2_cmv.fa -o libraries_2/yjl314_KO_sgB_R2_cmv.tsv --min_length 130 -dsb 46 --quiet</v>
       </c>
     </row>
@@ -6985,7 +7144,7 @@
         <v>130</v>
       </c>
       <c r="N97" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl315_R2_sgB.sam -ref ref_seq/1DSB_R2_cmv.fa -o libraries_2/yjl315_KO_sgB_R2_cmv.tsv --min_length 130 -dsb 46 --quiet</v>
       </c>
     </row>
@@ -7036,7 +7195,7 @@
         <v>50</v>
       </c>
       <c r="N98" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl89_anti_R1_2DSBs.sam -ref ref_seq/2DSBanti_R1_antisense.fa -o libraries_2/yjl89_WT_sgCD_R1_antisense.tsv --min_length 50 -dsb 50 --quiet</v>
       </c>
     </row>
@@ -7087,7 +7246,7 @@
         <v>50</v>
       </c>
       <c r="N99" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl90_anti_R1_2DSBs.sam -ref ref_seq/2DSBanti_R1_antisense.fa -o libraries_2/yjl90_WT_sgCD_R1_antisense.tsv --min_length 50 -dsb 50 --quiet</v>
       </c>
     </row>
@@ -7138,7 +7297,7 @@
         <v>50</v>
       </c>
       <c r="N100" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl91_anti_R1_2DSBs.sam -ref ref_seq/2DSBanti_R1_antisense.fa -o libraries_2/yjl91_WT_sgCD_R1_antisense.tsv --min_length 50 -dsb 50 --quiet</v>
       </c>
     </row>
@@ -7189,7 +7348,7 @@
         <v>50</v>
       </c>
       <c r="N101" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl92_anti_R1_2DSBs.sam -ref ref_seq/2DSBanti_R1_antisense.fa -o libraries_2/yjl92_WT_sgCD_R1_antisense.tsv --min_length 50 -dsb 50 --quiet</v>
       </c>
     </row>
@@ -7240,7 +7399,7 @@
         <v>50</v>
       </c>
       <c r="N102" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl93_anti_R1_2DSBs.sam -ref ref_seq/2DSBanti_R1_splicing.fa -o libraries_2/yjl93_WT_sgCD_R1_splicing.tsv --min_length 50 -dsb 50 --quiet</v>
       </c>
     </row>
@@ -7291,7 +7450,7 @@
         <v>50</v>
       </c>
       <c r="N103" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl94_anti_R1_2DSBs.sam -ref ref_seq/2DSBanti_R1_splicing.fa -o libraries_2/yjl94_WT_sgCD_R1_splicing.tsv --min_length 50 -dsb 50 --quiet</v>
       </c>
     </row>
@@ -7342,7 +7501,7 @@
         <v>50</v>
       </c>
       <c r="N104" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl95_anti_R1_2DSBs.sam -ref ref_seq/2DSBanti_R1_splicing.fa -o libraries_2/yjl95_WT_sgCD_R1_splicing.tsv --min_length 50 -dsb 50 --quiet</v>
       </c>
     </row>
@@ -7393,7 +7552,7 @@
         <v>50</v>
       </c>
       <c r="N105" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl96_anti_R1_2DSBs.sam -ref ref_seq/2DSBanti_R1_splicing.fa -o libraries_2/yjl96_WT_sgCD_R1_splicing.tsv --min_length 50 -dsb 50 --quiet</v>
       </c>
     </row>
@@ -7444,7 +7603,7 @@
         <v>50</v>
       </c>
       <c r="N106" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl89_anti_R2_2DSBs.sam -ref ref_seq/2DSBanti_R2_antisense.fa -o libraries_2/yjl89_WT_sgCD_R2_antisense.tsv --min_length 50 -dsb 47 --quiet</v>
       </c>
     </row>
@@ -7495,7 +7654,7 @@
         <v>50</v>
       </c>
       <c r="N107" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl90_anti_R2_2DSBs.sam -ref ref_seq/2DSBanti_R2_antisense.fa -o libraries_2/yjl90_WT_sgCD_R2_antisense.tsv --min_length 50 -dsb 47 --quiet</v>
       </c>
     </row>
@@ -7546,7 +7705,7 @@
         <v>50</v>
       </c>
       <c r="N108" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl91_anti_R2_2DSBs.sam -ref ref_seq/2DSBanti_R2_antisense.fa -o libraries_2/yjl91_WT_sgCD_R2_antisense.tsv --min_length 50 -dsb 47 --quiet</v>
       </c>
     </row>
@@ -7597,7 +7756,7 @@
         <v>50</v>
       </c>
       <c r="N109" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl92_anti_R2_2DSBs.sam -ref ref_seq/2DSBanti_R2_antisense.fa -o libraries_2/yjl92_WT_sgCD_R2_antisense.tsv --min_length 50 -dsb 47 --quiet</v>
       </c>
     </row>
@@ -7648,7 +7807,7 @@
         <v>50</v>
       </c>
       <c r="N110" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl93_anti_R2_2DSBs.sam -ref ref_seq/2DSBanti_R2_splicing.fa -o libraries_2/yjl93_WT_sgCD_R2_splicing.tsv --min_length 50 -dsb 47 --quiet</v>
       </c>
     </row>
@@ -7699,7 +7858,7 @@
         <v>50</v>
       </c>
       <c r="N111" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl94_anti_R2_2DSBs.sam -ref ref_seq/2DSBanti_R2_splicing.fa -o libraries_2/yjl94_WT_sgCD_R2_splicing.tsv --min_length 50 -dsb 47 --quiet</v>
       </c>
     </row>
@@ -7750,7 +7909,7 @@
         <v>50</v>
       </c>
       <c r="N112" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl95_anti_R2_2DSBs.sam -ref ref_seq/2DSBanti_R2_splicing.fa -o libraries_2/yjl95_WT_sgCD_R2_splicing.tsv --min_length 50 -dsb 47 --quiet</v>
       </c>
     </row>
@@ -7801,7 +7960,7 @@
         <v>50</v>
       </c>
       <c r="N113" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl96_anti_R2_2DSBs.sam -ref ref_seq/2DSBanti_R2_splicing.fa -o libraries_2/yjl96_WT_sgCD_R2_splicing.tsv --min_length 50 -dsb 47 --quiet</v>
       </c>
     </row>
@@ -7852,7 +8011,7 @@
         <v>130</v>
       </c>
       <c r="N114" s="2" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl255_R1_sgA.sam -ref ref_seq/1DSB_R1_sense.fa -o libraries_2/yjl255_WT_sgA_R1_sense_30bpDown.tsv --min_length 130 -dsb 97 --quiet</v>
       </c>
     </row>
@@ -7903,7 +8062,7 @@
         <v>130</v>
       </c>
       <c r="N115" s="2" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl256_R1_sgA.sam -ref ref_seq/1DSB_R1_sense.fa -o libraries_2/yjl256_WT_sgA_R1_sense_30bpDown.tsv --min_length 130 -dsb 97 --quiet</v>
       </c>
     </row>
@@ -7954,7 +8113,7 @@
         <v>130</v>
       </c>
       <c r="N116" s="2" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl257_R1_sgA.sam -ref ref_seq/1DSB_R1_sense.fa -o libraries_2/yjl257_WT_sgA_R1_sense_30bpDown.tsv --min_length 130 -dsb 97 --quiet</v>
       </c>
     </row>
@@ -8005,7 +8164,7 @@
         <v>130</v>
       </c>
       <c r="N117" s="2" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl258_R1_sgA.sam -ref ref_seq/1DSB_R1_sense.fa -o libraries_2/yjl258_WT_sgA_R1_sense_30bpDown.tsv --min_length 130 -dsb 97 --quiet</v>
       </c>
     </row>
@@ -8056,7 +8215,7 @@
         <v>130</v>
       </c>
       <c r="N118" s="2" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl259_R1_sgA.sam -ref ref_seq/1DSB_R1_branch.fa -o libraries_2/yjl259_WT_sgA_R1_branch_30bpDown.tsv --min_length 130 -dsb 97 --quiet</v>
       </c>
     </row>
@@ -8107,7 +8266,7 @@
         <v>130</v>
       </c>
       <c r="N119" s="2" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl260_R1_sgA.sam -ref ref_seq/1DSB_R1_branch.fa -o libraries_2/yjl260_WT_sgA_R1_branch_30bpDown.tsv --min_length 130 -dsb 97 --quiet</v>
       </c>
     </row>
@@ -8158,7 +8317,7 @@
         <v>130</v>
       </c>
       <c r="N120" s="2" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl261_R1_sgA.sam -ref ref_seq/1DSB_R1_branch.fa -o libraries_2/yjl261_WT_sgA_R1_branch_30bpDown.tsv --min_length 130 -dsb 97 --quiet</v>
       </c>
     </row>
@@ -8209,7 +8368,7 @@
         <v>130</v>
       </c>
       <c r="N121" s="2" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl262_R1_sgA.sam -ref ref_seq/1DSB_R1_branch.fa -o libraries_2/yjl262_WT_sgA_R1_branch_30bpDown.tsv --min_length 130 -dsb 97 --quiet</v>
       </c>
     </row>
@@ -8260,7 +8419,7 @@
         <v>130</v>
       </c>
       <c r="N122" s="2" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl263_R1_sgA.sam -ref ref_seq/1DSB_R1_cmv.fa -o libraries_2/yjl263_WT_sgA_R1_cmv_30bpDown.tsv --min_length 130 -dsb 97 --quiet</v>
       </c>
     </row>
@@ -8311,7 +8470,7 @@
         <v>130</v>
       </c>
       <c r="N123" s="2" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl264_R1_sgA.sam -ref ref_seq/1DSB_R1_cmv.fa -o libraries_2/yjl264_WT_sgA_R1_cmv_30bpDown.tsv --min_length 130 -dsb 97 --quiet</v>
       </c>
     </row>
@@ -8362,7 +8521,7 @@
         <v>130</v>
       </c>
       <c r="N124" s="2" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl265_R1_sgA.sam -ref ref_seq/1DSB_R1_cmv.fa -o libraries_2/yjl265_WT_sgA_R1_cmv_30bpDown.tsv --min_length 130 -dsb 97 --quiet</v>
       </c>
     </row>
@@ -8413,7 +8572,7 @@
         <v>130</v>
       </c>
       <c r="N125" s="2" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl266_R1_sgA.sam -ref ref_seq/1DSB_R1_cmv.fa -o libraries_2/yjl266_WT_sgA_R1_cmv_30bpDown.tsv --min_length 130 -dsb 97 --quiet</v>
       </c>
     </row>
@@ -8464,7 +8623,7 @@
         <v>130</v>
       </c>
       <c r="N126" s="2" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl267_R2_sgB.sam -ref ref_seq/1DSB_R2_sense.fa -o libraries_2/yjl267_WT_sgB_R2_sense_30bpDown.tsv --min_length 130 -dsb 76 --quiet</v>
       </c>
     </row>
@@ -8515,7 +8674,7 @@
         <v>130</v>
       </c>
       <c r="N127" s="2" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl268_R2_sgB.sam -ref ref_seq/1DSB_R2_sense.fa -o libraries_2/yjl268_WT_sgB_R2_sense_30bpDown.tsv --min_length 130 -dsb 76 --quiet</v>
       </c>
     </row>
@@ -8566,7 +8725,7 @@
         <v>130</v>
       </c>
       <c r="N128" s="2" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl269_R2_sgB.sam -ref ref_seq/1DSB_R2_sense.fa -o libraries_2/yjl269_WT_sgB_R2_sense_30bpDown.tsv --min_length 130 -dsb 76 --quiet</v>
       </c>
     </row>
@@ -8617,7 +8776,7 @@
         <v>130</v>
       </c>
       <c r="N129" s="2" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl270_R2_sgB.sam -ref ref_seq/1DSB_R2_sense.fa -o libraries_2/yjl270_WT_sgB_R2_sense_30bpDown.tsv --min_length 130 -dsb 76 --quiet</v>
       </c>
     </row>
@@ -8668,7 +8827,7 @@
         <v>130</v>
       </c>
       <c r="N130" s="2" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl271_R2_sgB.sam -ref ref_seq/1DSB_R2_branch.fa -o libraries_2/yjl271_WT_sgB_R2_branch_30bpDown.tsv --min_length 130 -dsb 76 --quiet</v>
       </c>
     </row>
@@ -8719,7 +8878,7 @@
         <v>130</v>
       </c>
       <c r="N131" s="2" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl272_R2_sgB.sam -ref ref_seq/1DSB_R2_branch.fa -o libraries_2/yjl272_WT_sgB_R2_branch_30bpDown.tsv --min_length 130 -dsb 76 --quiet</v>
       </c>
     </row>
@@ -8770,7 +8929,7 @@
         <v>130</v>
       </c>
       <c r="N132" s="2" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl273_R2_sgB.sam -ref ref_seq/1DSB_R2_branch.fa -o libraries_2/yjl273_WT_sgB_R2_branch_30bpDown.tsv --min_length 130 -dsb 76 --quiet</v>
       </c>
     </row>
@@ -8821,7 +8980,7 @@
         <v>130</v>
       </c>
       <c r="N133" s="2" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl274_R2_sgB.sam -ref ref_seq/1DSB_R2_branch.fa -o libraries_2/yjl274_WT_sgB_R2_branch_30bpDown.tsv --min_length 130 -dsb 76 --quiet</v>
       </c>
     </row>
@@ -8872,7 +9031,7 @@
         <v>130</v>
       </c>
       <c r="N134" s="2" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl275_R2_sgB.sam -ref ref_seq/1DSB_R2_cmv.fa -o libraries_2/yjl275_WT_sgB_R2_cmv_30bpDown.tsv --min_length 130 -dsb 76 --quiet</v>
       </c>
     </row>
@@ -8923,7 +9082,7 @@
         <v>130</v>
       </c>
       <c r="N135" s="2" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl276_R2_sgB.sam -ref ref_seq/1DSB_R2_cmv.fa -o libraries_2/yjl276_WT_sgB_R2_cmv_30bpDown.tsv --min_length 130 -dsb 76 --quiet</v>
       </c>
     </row>
@@ -8974,7 +9133,7 @@
         <v>130</v>
       </c>
       <c r="N136" s="2" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl277_R2_sgB.sam -ref ref_seq/1DSB_R2_cmv.fa -o libraries_2/yjl277_WT_sgB_R2_cmv_30bpDown.tsv --min_length 130 -dsb 76 --quiet</v>
       </c>
     </row>
@@ -9025,7 +9184,7 @@
         <v>130</v>
       </c>
       <c r="N137" s="2" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl278_R2_sgB.sam -ref ref_seq/1DSB_R2_cmv.fa -o libraries_2/yjl278_WT_sgB_R2_cmv_30bpDown.tsv --min_length 130 -dsb 76 --quiet</v>
       </c>
     </row>
@@ -9076,7 +9235,7 @@
         <v>130</v>
       </c>
       <c r="N138" s="2" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl292_R1_sgA.sam -ref ref_seq/1DSB_R1_sense.fa -o libraries_2/yjl292_KO_sgA_R1_sense_30bpDown.tsv --min_length 130 -dsb 97 --quiet</v>
       </c>
     </row>
@@ -9127,7 +9286,7 @@
         <v>130</v>
       </c>
       <c r="N139" s="2" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl293_R1_sgA.sam -ref ref_seq/1DSB_R1_sense.fa -o libraries_2/yjl293_KO_sgA_R1_sense_30bpDown.tsv --min_length 130 -dsb 97 --quiet</v>
       </c>
     </row>
@@ -9178,7 +9337,7 @@
         <v>130</v>
       </c>
       <c r="N140" s="2" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl294_R1_sgA.sam -ref ref_seq/1DSB_R1_sense.fa -o libraries_2/yjl294_KO_sgA_R1_sense_30bpDown.tsv --min_length 130 -dsb 97 --quiet</v>
       </c>
     </row>
@@ -9229,7 +9388,7 @@
         <v>130</v>
       </c>
       <c r="N141" s="2" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl295_R1_sgA.sam -ref ref_seq/1DSB_R1_sense.fa -o libraries_2/yjl295_KO_sgA_R1_sense_30bpDown.tsv --min_length 130 -dsb 97 --quiet</v>
       </c>
     </row>
@@ -9280,7 +9439,7 @@
         <v>130</v>
       </c>
       <c r="N142" s="2" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl296_R1_sgA.sam -ref ref_seq/1DSB_R1_branch.fa -o libraries_2/yjl296_KO_sgA_R1_branch_30bpDown.tsv --min_length 130 -dsb 97 --quiet</v>
       </c>
     </row>
@@ -9331,7 +9490,7 @@
         <v>130</v>
       </c>
       <c r="N143" s="2" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl297_R1_sgA.sam -ref ref_seq/1DSB_R1_branch.fa -o libraries_2/yjl297_KO_sgA_R1_branch_30bpDown.tsv --min_length 130 -dsb 97 --quiet</v>
       </c>
     </row>
@@ -9382,7 +9541,7 @@
         <v>130</v>
       </c>
       <c r="N144" s="2" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl298_R1_sgA.sam -ref ref_seq/1DSB_R1_branch.fa -o libraries_2/yjl298_KO_sgA_R1_branch_30bpDown.tsv --min_length 130 -dsb 97 --quiet</v>
       </c>
     </row>
@@ -9433,7 +9592,7 @@
         <v>130</v>
       </c>
       <c r="N145" s="2" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl299_R1_sgA.sam -ref ref_seq/1DSB_R1_branch.fa -o libraries_2/yjl299_KO_sgA_R1_branch_30bpDown.tsv --min_length 130 -dsb 97 --quiet</v>
       </c>
     </row>
@@ -9484,7 +9643,7 @@
         <v>130</v>
       </c>
       <c r="N146" s="2" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl300_R1_sgA.sam -ref ref_seq/1DSB_R1_cmv.fa -o libraries_2/yjl300_KO_sgA_R1_cmv_30bpDown.tsv --min_length 130 -dsb 97 --quiet</v>
       </c>
     </row>
@@ -9535,7 +9694,7 @@
         <v>130</v>
       </c>
       <c r="N147" s="2" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl301_R1_sgA.sam -ref ref_seq/1DSB_R1_cmv.fa -o libraries_2/yjl301_KO_sgA_R1_cmv_30bpDown.tsv --min_length 130 -dsb 97 --quiet</v>
       </c>
     </row>
@@ -9586,7 +9745,7 @@
         <v>130</v>
       </c>
       <c r="N148" s="2" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl302_R1_sgA.sam -ref ref_seq/1DSB_R1_cmv.fa -o libraries_2/yjl302_KO_sgA_R1_cmv_30bpDown.tsv --min_length 130 -dsb 97 --quiet</v>
       </c>
     </row>
@@ -9637,7 +9796,7 @@
         <v>130</v>
       </c>
       <c r="N149" s="2" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl303_R1_sgA.sam -ref ref_seq/1DSB_R1_cmv.fa -o libraries_2/yjl303_KO_sgA_R1_cmv_30bpDown.tsv --min_length 130 -dsb 97 --quiet</v>
       </c>
     </row>
@@ -9688,7 +9847,7 @@
         <v>130</v>
       </c>
       <c r="N150" s="2" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl304_R2_sgB.sam -ref ref_seq/1DSB_R2_sense.fa -o libraries_2/yjl304_KO_sgB_R2_sense_30bpDown.tsv --min_length 130 -dsb 76 --quiet</v>
       </c>
     </row>
@@ -9739,7 +9898,7 @@
         <v>130</v>
       </c>
       <c r="N151" s="2" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl305_R2_sgB.sam -ref ref_seq/1DSB_R2_sense.fa -o libraries_2/yjl305_KO_sgB_R2_sense_30bpDown.tsv --min_length 130 -dsb 76 --quiet</v>
       </c>
     </row>
@@ -9790,7 +9949,7 @@
         <v>130</v>
       </c>
       <c r="N152" s="2" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl306_R2_sgB.sam -ref ref_seq/1DSB_R2_sense.fa -o libraries_2/yjl306_KO_sgB_R2_sense_30bpDown.tsv --min_length 130 -dsb 76 --quiet</v>
       </c>
     </row>
@@ -9841,7 +10000,7 @@
         <v>130</v>
       </c>
       <c r="N153" s="2" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl307_R2_sgB.sam -ref ref_seq/1DSB_R2_sense.fa -o libraries_2/yjl307_KO_sgB_R2_sense_30bpDown.tsv --min_length 130 -dsb 76 --quiet</v>
       </c>
     </row>
@@ -9892,7 +10051,7 @@
         <v>130</v>
       </c>
       <c r="N154" s="2" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl308_R2_sgB.sam -ref ref_seq/1DSB_R2_branch.fa -o libraries_2/yjl308_KO_sgB_R2_branch_30bpDown.tsv --min_length 130 -dsb 76 --quiet</v>
       </c>
     </row>
@@ -9943,7 +10102,7 @@
         <v>130</v>
       </c>
       <c r="N155" s="2" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl309_R2_sgB.sam -ref ref_seq/1DSB_R2_branch.fa -o libraries_2/yjl309_KO_sgB_R2_branch_30bpDown.tsv --min_length 130 -dsb 76 --quiet</v>
       </c>
     </row>
@@ -9994,7 +10153,7 @@
         <v>130</v>
       </c>
       <c r="N156" s="2" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl310_R2_sgB.sam -ref ref_seq/1DSB_R2_branch.fa -o libraries_2/yjl310_KO_sgB_R2_branch_30bpDown.tsv --min_length 130 -dsb 76 --quiet</v>
       </c>
     </row>
@@ -10045,7 +10204,7 @@
         <v>130</v>
       </c>
       <c r="N157" s="2" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl311_R2_sgB.sam -ref ref_seq/1DSB_R2_branch.fa -o libraries_2/yjl311_KO_sgB_R2_branch_30bpDown.tsv --min_length 130 -dsb 76 --quiet</v>
       </c>
     </row>
@@ -10096,7 +10255,7 @@
         <v>130</v>
       </c>
       <c r="N158" s="2" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl312_R2_sgB.sam -ref ref_seq/1DSB_R2_cmv.fa -o libraries_2/yjl312_KO_sgB_R2_cmv_30bpDown.tsv --min_length 130 -dsb 76 --quiet</v>
       </c>
     </row>
@@ -10147,7 +10306,7 @@
         <v>130</v>
       </c>
       <c r="N159" s="2" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl313_R2_sgB.sam -ref ref_seq/1DSB_R2_cmv.fa -o libraries_2/yjl313_KO_sgB_R2_cmv_30bpDown.tsv --min_length 130 -dsb 76 --quiet</v>
       </c>
     </row>
@@ -10198,7 +10357,7 @@
         <v>130</v>
       </c>
       <c r="N160" s="2" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl314_R2_sgB.sam -ref ref_seq/1DSB_R2_cmv.fa -o libraries_2/yjl314_KO_sgB_R2_cmv_30bpDown.tsv --min_length 130 -dsb 76 --quiet</v>
       </c>
     </row>
@@ -10249,7 +10408,7 @@
         <v>130</v>
       </c>
       <c r="N161" s="2" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl315_R2_sgB.sam -ref ref_seq/1DSB_R2_cmv.fa -o libraries_2/yjl315_KO_sgB_R2_cmv_30bpDown.tsv --min_length 130 -dsb 76 --quiet</v>
       </c>
     </row>
@@ -10300,7 +10459,7 @@
         <v>130</v>
       </c>
       <c r="N162" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl244_NHEJ_hg39_R1.sam -ref ref_seq/1DSB_R1_sense.fa -o libraries_2/yjl244_WT_sgA_R1_sense_nodsb.tsv --min_length 130 -dsb 67 --quiet</v>
       </c>
     </row>
@@ -10351,7 +10510,7 @@
         <v>130</v>
       </c>
       <c r="N163" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl245_NHEJ_hg39_R1.sam -ref ref_seq/1DSB_R1_branch.fa -o libraries_2/yjl245_WT_sgA_R1_branch_nodsb.tsv --min_length 130 -dsb 67 --quiet</v>
       </c>
     </row>
@@ -10402,7 +10561,7 @@
         <v>130</v>
       </c>
       <c r="N164" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl246_NHEJ_hg39_R1.sam -ref ref_seq/1DSB_R1_cmv.fa -o libraries_2/yjl246_WT_sgA_R1_cmv_nodsb.tsv --min_length 130 -dsb 67 --quiet</v>
       </c>
     </row>
@@ -10453,7 +10612,7 @@
         <v>130</v>
       </c>
       <c r="N165" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl281_NHEJ_hg39_R1.sam -ref ref_seq/1DSB_R1_sense.fa -o libraries_2/yjl281_KO_sgA_R1_sense_nodsb.tsv --min_length 130 -dsb 67 --quiet</v>
       </c>
     </row>
@@ -10504,7 +10663,7 @@
         <v>130</v>
       </c>
       <c r="N166" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl282_NHEJ_hg39_R1.sam -ref ref_seq/1DSB_R1_branch.fa -o libraries_2/yjl282_KO_sgA_R1_branch_nodsb.tsv --min_length 130 -dsb 67 --quiet</v>
       </c>
     </row>
@@ -10555,7 +10714,7 @@
         <v>130</v>
       </c>
       <c r="N167" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl283_NHEJ_hg39_R1.sam -ref ref_seq/1DSB_R1_cmv.fa -o libraries_2/yjl283_KO_sgA_R1_cmv_nodsb.tsv --min_length 130 -dsb 67 --quiet</v>
       </c>
     </row>
@@ -10606,7 +10765,7 @@
         <v>130</v>
       </c>
       <c r="N168" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl244_NHEJ_hg42_R2.sam -ref ref_seq/1DSB_R2_sense.fa -o libraries_2/yjl244_WT_sgB_R2_sense_nodsb.tsv --min_length 130 -dsb 46 --quiet</v>
       </c>
     </row>
@@ -10657,7 +10816,7 @@
         <v>130</v>
       </c>
       <c r="N169" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl245_NHEJ_hg42_R2.sam -ref ref_seq/1DSB_R2_branch.fa -o libraries_2/yjl245_WT_sgB_R2_branch_nodsb.tsv --min_length 130 -dsb 46 --quiet</v>
       </c>
     </row>
@@ -10708,7 +10867,7 @@
         <v>130</v>
       </c>
       <c r="N170" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl246_NHEJ_hg42_R2.sam -ref ref_seq/1DSB_R2_cmv.fa -o libraries_2/yjl246_WT_sgB_R2_cmv_nodsb.tsv --min_length 130 -dsb 46 --quiet</v>
       </c>
     </row>
@@ -10759,7 +10918,7 @@
         <v>130</v>
       </c>
       <c r="N171" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl281_NHEJ_hg42_R2.sam -ref ref_seq/1DSB_R2_sense.fa -o libraries_2/yjl281_KO_sgB_R2_sense_nodsb.tsv --min_length 130 -dsb 46 --quiet</v>
       </c>
     </row>
@@ -10810,7 +10969,7 @@
         <v>130</v>
       </c>
       <c r="N172" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl282_NHEJ_hg42_R2.sam -ref ref_seq/1DSB_R2_branch.fa -o libraries_2/yjl282_KO_sgB_R2_branch_nodsb.tsv --min_length 130 -dsb 46 --quiet</v>
       </c>
     </row>
@@ -10861,7 +11020,7 @@
         <v>130</v>
       </c>
       <c r="N173" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", dirs!$A$1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", dirs!$A$2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</f>
         <v>python 1_process_nhej/filter_nhej.py -sam libraries_1/yjl283_NHEJ_hg42_R2.sam -ref ref_seq/1DSB_R2_cmv.fa -o libraries_2/yjl283_KO_sgB_R2_cmv_nodsb.tsv --min_length 130 -dsb 46 --quiet</v>
       </c>
     </row>
@@ -11700,8 +11859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8D704B5-D01A-4D17-9252-416EA08BC871}">
   <dimension ref="A1:S56"/>
   <sheetViews>
-    <sheetView topLeftCell="G43" workbookViewId="0">
-      <selection activeCell="M46" sqref="M46"/>
+    <sheetView topLeftCell="G32" workbookViewId="0">
+      <selection activeCell="M45" sqref="M45:M56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11882,7 +12041,7 @@
         <v>7513691</v>
       </c>
       <c r="S3" t="str">
-        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", Table3[[#This Row],[input_1]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_2]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_3]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_4]], ".tsv --total_reads ", Table3[[#This Row],[total_reads_1]], " ", Table3[[#This Row],[total_reads_2]], " ", Table3[[#This Row],[total_reads_3]], " ", Table3[[#This Row],[total_reads_4]], " -o ", dirs!$A$3, "/", Table3[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
+        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", libraries_2, "/", Table3[[#This Row],[input_1]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_2]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_3]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_4]], ".tsv --total_reads ", Table3[[#This Row],[total_reads_1]], " ", Table3[[#This Row],[total_reads_2]], " ", Table3[[#This Row],[total_reads_3]], " ", Table3[[#This Row],[total_reads_4]], " -o ", libraries_3, "/", Table3[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
         <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl217_WT_sgAB_R1_sense.tsv libraries_2/yjl218_WT_sgAB_R1_sense.tsv libraries_2/yjl219_WT_sgAB_R1_sense.tsv libraries_2/yjl220_WT_sgAB_R1_sense.tsv --total_reads 6630053 7246619 8069391 7513691 -o libraries_3/WT_sgAB_R1_sense.tsv --quiet </v>
       </c>
     </row>
@@ -11959,7 +12118,7 @@
         <v>9192054</v>
       </c>
       <c r="S4" t="str">
-        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", Table3[[#This Row],[input_1]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_2]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_3]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_4]], ".tsv --total_reads ", Table3[[#This Row],[total_reads_1]], " ", Table3[[#This Row],[total_reads_2]], " ", Table3[[#This Row],[total_reads_3]], " ", Table3[[#This Row],[total_reads_4]], " -o ", dirs!$A$3, "/", Table3[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
+        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", libraries_2, "/", Table3[[#This Row],[input_1]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_2]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_3]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_4]], ".tsv --total_reads ", Table3[[#This Row],[total_reads_1]], " ", Table3[[#This Row],[total_reads_2]], " ", Table3[[#This Row],[total_reads_3]], " ", Table3[[#This Row],[total_reads_4]], " -o ", libraries_3, "/", Table3[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
         <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl221_WT_sgAB_R1_branch.tsv libraries_2/yjl222_WT_sgAB_R1_branch.tsv libraries_2/yjl223_WT_sgAB_R1_branch.tsv libraries_2/yjl224_WT_sgAB_R1_branch.tsv --total_reads 9021462 9430938 9051278 9192054 -o libraries_3/WT_sgAB_R1_branch.tsv --quiet </v>
       </c>
     </row>
@@ -12036,7 +12195,7 @@
         <v>7694818</v>
       </c>
       <c r="S5" t="str">
-        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", Table3[[#This Row],[input_1]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_2]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_3]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_4]], ".tsv --total_reads ", Table3[[#This Row],[total_reads_1]], " ", Table3[[#This Row],[total_reads_2]], " ", Table3[[#This Row],[total_reads_3]], " ", Table3[[#This Row],[total_reads_4]], " -o ", dirs!$A$3, "/", Table3[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
+        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", libraries_2, "/", Table3[[#This Row],[input_1]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_2]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_3]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_4]], ".tsv --total_reads ", Table3[[#This Row],[total_reads_1]], " ", Table3[[#This Row],[total_reads_2]], " ", Table3[[#This Row],[total_reads_3]], " ", Table3[[#This Row],[total_reads_4]], " -o ", libraries_3, "/", Table3[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
         <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl225_WT_sgAB_R1_cmv.tsv libraries_2/yjl226_WT_sgAB_R1_cmv.tsv libraries_2/yjl227_WT_sgAB_R1_cmv.tsv libraries_2/yjl228_WT_sgAB_R1_cmv.tsv --total_reads 7604379 8885716 8150455 7694818 -o libraries_3/WT_sgAB_R1_cmv.tsv --quiet </v>
       </c>
     </row>
@@ -12113,7 +12272,7 @@
         <v>12479012</v>
       </c>
       <c r="S6" t="str">
-        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", Table3[[#This Row],[input_1]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_2]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_3]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_4]], ".tsv --total_reads ", Table3[[#This Row],[total_reads_1]], " ", Table3[[#This Row],[total_reads_2]], " ", Table3[[#This Row],[total_reads_3]], " ", Table3[[#This Row],[total_reads_4]], " -o ", dirs!$A$3, "/", Table3[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
+        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", libraries_2, "/", Table3[[#This Row],[input_1]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_2]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_3]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_4]], ".tsv --total_reads ", Table3[[#This Row],[total_reads_1]], " ", Table3[[#This Row],[total_reads_2]], " ", Table3[[#This Row],[total_reads_3]], " ", Table3[[#This Row],[total_reads_4]], " -o ", libraries_3, "/", Table3[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
         <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl229_KO_sgAB_R1_sense.tsv libraries_2/yjl230_KO_sgAB_R1_sense.tsv libraries_2/yjl231_KO_sgAB_R1_sense.tsv libraries_2/yjl232_KO_sgAB_R1_sense.tsv --total_reads 11320509 12480734 12500966 12479012 -o libraries_3/KO_sgAB_R1_sense.tsv --quiet </v>
       </c>
     </row>
@@ -12190,7 +12349,7 @@
         <v>13493608</v>
       </c>
       <c r="S7" t="str">
-        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", Table3[[#This Row],[input_1]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_2]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_3]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_4]], ".tsv --total_reads ", Table3[[#This Row],[total_reads_1]], " ", Table3[[#This Row],[total_reads_2]], " ", Table3[[#This Row],[total_reads_3]], " ", Table3[[#This Row],[total_reads_4]], " -o ", dirs!$A$3, "/", Table3[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
+        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", libraries_2, "/", Table3[[#This Row],[input_1]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_2]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_3]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_4]], ".tsv --total_reads ", Table3[[#This Row],[total_reads_1]], " ", Table3[[#This Row],[total_reads_2]], " ", Table3[[#This Row],[total_reads_3]], " ", Table3[[#This Row],[total_reads_4]], " -o ", libraries_3, "/", Table3[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
         <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl233_KO_sgAB_R1_branch.tsv libraries_2/yjl234_KO_sgAB_R1_branch.tsv libraries_2/yjl235_KO_sgAB_R1_branch.tsv libraries_2/yjl236_KO_sgAB_R1_branch.tsv --total_reads 13912975 15839537 13872702 13493608 -o libraries_3/KO_sgAB_R1_branch.tsv --quiet </v>
       </c>
     </row>
@@ -12267,7 +12426,7 @@
         <v>9412394</v>
       </c>
       <c r="S8" t="str">
-        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", Table3[[#This Row],[input_1]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_2]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_3]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_4]], ".tsv --total_reads ", Table3[[#This Row],[total_reads_1]], " ", Table3[[#This Row],[total_reads_2]], " ", Table3[[#This Row],[total_reads_3]], " ", Table3[[#This Row],[total_reads_4]], " -o ", dirs!$A$3, "/", Table3[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
+        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", libraries_2, "/", Table3[[#This Row],[input_1]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_2]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_3]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_4]], ".tsv --total_reads ", Table3[[#This Row],[total_reads_1]], " ", Table3[[#This Row],[total_reads_2]], " ", Table3[[#This Row],[total_reads_3]], " ", Table3[[#This Row],[total_reads_4]], " -o ", libraries_3, "/", Table3[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
         <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl237_KO_sgAB_R1_cmv.tsv libraries_2/yjl238_KO_sgAB_R1_cmv.tsv libraries_2/yjl239_KO_sgAB_R1_cmv.tsv libraries_2/yjl240_KO_sgAB_R1_cmv.tsv --total_reads 11307677 11757615 10272339 9412394 -o libraries_3/KO_sgAB_R1_cmv.tsv --quiet </v>
       </c>
     </row>
@@ -12344,7 +12503,7 @@
         <v>7513691</v>
       </c>
       <c r="S9" t="str">
-        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", Table3[[#This Row],[input_1]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_2]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_3]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_4]], ".tsv --total_reads ", Table3[[#This Row],[total_reads_1]], " ", Table3[[#This Row],[total_reads_2]], " ", Table3[[#This Row],[total_reads_3]], " ", Table3[[#This Row],[total_reads_4]], " -o ", dirs!$A$3, "/", Table3[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
+        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", libraries_2, "/", Table3[[#This Row],[input_1]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_2]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_3]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_4]], ".tsv --total_reads ", Table3[[#This Row],[total_reads_1]], " ", Table3[[#This Row],[total_reads_2]], " ", Table3[[#This Row],[total_reads_3]], " ", Table3[[#This Row],[total_reads_4]], " -o ", libraries_3, "/", Table3[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
         <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl217_WT_sgAB_R2_sense.tsv libraries_2/yjl218_WT_sgAB_R2_sense.tsv libraries_2/yjl219_WT_sgAB_R2_sense.tsv libraries_2/yjl220_WT_sgAB_R2_sense.tsv --total_reads 6630053 7246619 8069391 7513691 -o libraries_3/WT_sgAB_R2_sense.tsv --quiet </v>
       </c>
     </row>
@@ -12421,7 +12580,7 @@
         <v>9192054</v>
       </c>
       <c r="S10" t="str">
-        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", Table3[[#This Row],[input_1]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_2]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_3]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_4]], ".tsv --total_reads ", Table3[[#This Row],[total_reads_1]], " ", Table3[[#This Row],[total_reads_2]], " ", Table3[[#This Row],[total_reads_3]], " ", Table3[[#This Row],[total_reads_4]], " -o ", dirs!$A$3, "/", Table3[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
+        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", libraries_2, "/", Table3[[#This Row],[input_1]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_2]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_3]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_4]], ".tsv --total_reads ", Table3[[#This Row],[total_reads_1]], " ", Table3[[#This Row],[total_reads_2]], " ", Table3[[#This Row],[total_reads_3]], " ", Table3[[#This Row],[total_reads_4]], " -o ", libraries_3, "/", Table3[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
         <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl221_WT_sgAB_R2_branch.tsv libraries_2/yjl222_WT_sgAB_R2_branch.tsv libraries_2/yjl223_WT_sgAB_R2_branch.tsv libraries_2/yjl224_WT_sgAB_R2_branch.tsv --total_reads 9021462 9430938 9051278 9192054 -o libraries_3/WT_sgAB_R2_branch.tsv --quiet </v>
       </c>
     </row>
@@ -12498,7 +12657,7 @@
         <v>7694818</v>
       </c>
       <c r="S11" t="str">
-        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", Table3[[#This Row],[input_1]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_2]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_3]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_4]], ".tsv --total_reads ", Table3[[#This Row],[total_reads_1]], " ", Table3[[#This Row],[total_reads_2]], " ", Table3[[#This Row],[total_reads_3]], " ", Table3[[#This Row],[total_reads_4]], " -o ", dirs!$A$3, "/", Table3[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
+        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", libraries_2, "/", Table3[[#This Row],[input_1]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_2]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_3]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_4]], ".tsv --total_reads ", Table3[[#This Row],[total_reads_1]], " ", Table3[[#This Row],[total_reads_2]], " ", Table3[[#This Row],[total_reads_3]], " ", Table3[[#This Row],[total_reads_4]], " -o ", libraries_3, "/", Table3[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
         <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl225_WT_sgAB_R2_cmv.tsv libraries_2/yjl226_WT_sgAB_R2_cmv.tsv libraries_2/yjl227_WT_sgAB_R2_cmv.tsv libraries_2/yjl228_WT_sgAB_R2_cmv.tsv --total_reads 7604379 8885716 8150455 7694818 -o libraries_3/WT_sgAB_R2_cmv.tsv --quiet </v>
       </c>
     </row>
@@ -12575,7 +12734,7 @@
         <v>12479012</v>
       </c>
       <c r="S12" t="str">
-        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", Table3[[#This Row],[input_1]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_2]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_3]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_4]], ".tsv --total_reads ", Table3[[#This Row],[total_reads_1]], " ", Table3[[#This Row],[total_reads_2]], " ", Table3[[#This Row],[total_reads_3]], " ", Table3[[#This Row],[total_reads_4]], " -o ", dirs!$A$3, "/", Table3[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
+        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", libraries_2, "/", Table3[[#This Row],[input_1]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_2]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_3]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_4]], ".tsv --total_reads ", Table3[[#This Row],[total_reads_1]], " ", Table3[[#This Row],[total_reads_2]], " ", Table3[[#This Row],[total_reads_3]], " ", Table3[[#This Row],[total_reads_4]], " -o ", libraries_3, "/", Table3[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
         <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl229_KO_sgAB_R2_sense.tsv libraries_2/yjl230_KO_sgAB_R2_sense.tsv libraries_2/yjl231_KO_sgAB_R2_sense.tsv libraries_2/yjl232_KO_sgAB_R2_sense.tsv --total_reads 11320509 12480734 12500966 12479012 -o libraries_3/KO_sgAB_R2_sense.tsv --quiet </v>
       </c>
     </row>
@@ -12652,7 +12811,7 @@
         <v>13493608</v>
       </c>
       <c r="S13" t="str">
-        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", Table3[[#This Row],[input_1]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_2]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_3]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_4]], ".tsv --total_reads ", Table3[[#This Row],[total_reads_1]], " ", Table3[[#This Row],[total_reads_2]], " ", Table3[[#This Row],[total_reads_3]], " ", Table3[[#This Row],[total_reads_4]], " -o ", dirs!$A$3, "/", Table3[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
+        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", libraries_2, "/", Table3[[#This Row],[input_1]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_2]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_3]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_4]], ".tsv --total_reads ", Table3[[#This Row],[total_reads_1]], " ", Table3[[#This Row],[total_reads_2]], " ", Table3[[#This Row],[total_reads_3]], " ", Table3[[#This Row],[total_reads_4]], " -o ", libraries_3, "/", Table3[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
         <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl233_KO_sgAB_R2_branch.tsv libraries_2/yjl234_KO_sgAB_R2_branch.tsv libraries_2/yjl235_KO_sgAB_R2_branch.tsv libraries_2/yjl236_KO_sgAB_R2_branch.tsv --total_reads 13912975 15839537 13872702 13493608 -o libraries_3/KO_sgAB_R2_branch.tsv --quiet </v>
       </c>
     </row>
@@ -12729,7 +12888,7 @@
         <v>9412394</v>
       </c>
       <c r="S14" t="str">
-        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", Table3[[#This Row],[input_1]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_2]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_3]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_4]], ".tsv --total_reads ", Table3[[#This Row],[total_reads_1]], " ", Table3[[#This Row],[total_reads_2]], " ", Table3[[#This Row],[total_reads_3]], " ", Table3[[#This Row],[total_reads_4]], " -o ", dirs!$A$3, "/", Table3[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
+        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", libraries_2, "/", Table3[[#This Row],[input_1]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_2]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_3]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_4]], ".tsv --total_reads ", Table3[[#This Row],[total_reads_1]], " ", Table3[[#This Row],[total_reads_2]], " ", Table3[[#This Row],[total_reads_3]], " ", Table3[[#This Row],[total_reads_4]], " -o ", libraries_3, "/", Table3[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
         <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl237_KO_sgAB_R2_cmv.tsv libraries_2/yjl238_KO_sgAB_R2_cmv.tsv libraries_2/yjl239_KO_sgAB_R2_cmv.tsv libraries_2/yjl240_KO_sgAB_R2_cmv.tsv --total_reads 11307677 11757615 10272339 9412394 -o libraries_3/KO_sgAB_R2_cmv.tsv --quiet </v>
       </c>
     </row>
@@ -12806,7 +12965,7 @@
         <v>7534924</v>
       </c>
       <c r="S15" t="str">
-        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", Table3[[#This Row],[input_1]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_2]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_3]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_4]], ".tsv --total_reads ", Table3[[#This Row],[total_reads_1]], " ", Table3[[#This Row],[total_reads_2]], " ", Table3[[#This Row],[total_reads_3]], " ", Table3[[#This Row],[total_reads_4]], " -o ", dirs!$A$3, "/", Table3[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
+        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", libraries_2, "/", Table3[[#This Row],[input_1]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_2]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_3]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_4]], ".tsv --total_reads ", Table3[[#This Row],[total_reads_1]], " ", Table3[[#This Row],[total_reads_2]], " ", Table3[[#This Row],[total_reads_3]], " ", Table3[[#This Row],[total_reads_4]], " -o ", libraries_3, "/", Table3[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
         <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl255_WT_sgA_R1_sense.tsv libraries_2/yjl256_WT_sgA_R1_sense.tsv libraries_2/yjl257_WT_sgA_R1_sense.tsv libraries_2/yjl258_WT_sgA_R1_sense.tsv --total_reads 7579965 7982725 7854740 7534924 -o libraries_3/WT_sgA_R1_sense.tsv --quiet </v>
       </c>
     </row>
@@ -12883,7 +13042,7 @@
         <v>8799841</v>
       </c>
       <c r="S16" t="str">
-        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", Table3[[#This Row],[input_1]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_2]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_3]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_4]], ".tsv --total_reads ", Table3[[#This Row],[total_reads_1]], " ", Table3[[#This Row],[total_reads_2]], " ", Table3[[#This Row],[total_reads_3]], " ", Table3[[#This Row],[total_reads_4]], " -o ", dirs!$A$3, "/", Table3[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
+        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", libraries_2, "/", Table3[[#This Row],[input_1]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_2]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_3]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_4]], ".tsv --total_reads ", Table3[[#This Row],[total_reads_1]], " ", Table3[[#This Row],[total_reads_2]], " ", Table3[[#This Row],[total_reads_3]], " ", Table3[[#This Row],[total_reads_4]], " -o ", libraries_3, "/", Table3[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
         <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl259_WT_sgA_R1_branch.tsv libraries_2/yjl260_WT_sgA_R1_branch.tsv libraries_2/yjl261_WT_sgA_R1_branch.tsv libraries_2/yjl262_WT_sgA_R1_branch.tsv --total_reads 8808358 9297647 9399483 8799841 -o libraries_3/WT_sgA_R1_branch.tsv --quiet </v>
       </c>
     </row>
@@ -12960,7 +13119,7 @@
         <v>8096639</v>
       </c>
       <c r="S17" t="str">
-        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", Table3[[#This Row],[input_1]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_2]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_3]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_4]], ".tsv --total_reads ", Table3[[#This Row],[total_reads_1]], " ", Table3[[#This Row],[total_reads_2]], " ", Table3[[#This Row],[total_reads_3]], " ", Table3[[#This Row],[total_reads_4]], " -o ", dirs!$A$3, "/", Table3[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
+        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", libraries_2, "/", Table3[[#This Row],[input_1]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_2]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_3]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_4]], ".tsv --total_reads ", Table3[[#This Row],[total_reads_1]], " ", Table3[[#This Row],[total_reads_2]], " ", Table3[[#This Row],[total_reads_3]], " ", Table3[[#This Row],[total_reads_4]], " -o ", libraries_3, "/", Table3[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
         <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl263_WT_sgA_R1_cmv.tsv libraries_2/yjl264_WT_sgA_R1_cmv.tsv libraries_2/yjl265_WT_sgA_R1_cmv.tsv libraries_2/yjl266_WT_sgA_R1_cmv.tsv --total_reads 8171224 8180897 8314116 8096639 -o libraries_3/WT_sgA_R1_cmv.tsv --quiet </v>
       </c>
     </row>
@@ -13037,7 +13196,7 @@
         <v>7626765</v>
       </c>
       <c r="S18" t="str">
-        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", Table3[[#This Row],[input_1]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_2]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_3]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_4]], ".tsv --total_reads ", Table3[[#This Row],[total_reads_1]], " ", Table3[[#This Row],[total_reads_2]], " ", Table3[[#This Row],[total_reads_3]], " ", Table3[[#This Row],[total_reads_4]], " -o ", dirs!$A$3, "/", Table3[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
+        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", libraries_2, "/", Table3[[#This Row],[input_1]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_2]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_3]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_4]], ".tsv --total_reads ", Table3[[#This Row],[total_reads_1]], " ", Table3[[#This Row],[total_reads_2]], " ", Table3[[#This Row],[total_reads_3]], " ", Table3[[#This Row],[total_reads_4]], " -o ", libraries_3, "/", Table3[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
         <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl267_WT_sgB_R2_sense.tsv libraries_2/yjl268_WT_sgB_R2_sense.tsv libraries_2/yjl269_WT_sgB_R2_sense.tsv libraries_2/yjl270_WT_sgB_R2_sense.tsv --total_reads 7439535 6937078 8644152 7626765 -o libraries_3/WT_sgB_R2_sense.tsv --quiet </v>
       </c>
     </row>
@@ -13114,7 +13273,7 @@
         <v>9780215</v>
       </c>
       <c r="S19" t="str">
-        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", Table3[[#This Row],[input_1]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_2]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_3]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_4]], ".tsv --total_reads ", Table3[[#This Row],[total_reads_1]], " ", Table3[[#This Row],[total_reads_2]], " ", Table3[[#This Row],[total_reads_3]], " ", Table3[[#This Row],[total_reads_4]], " -o ", dirs!$A$3, "/", Table3[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
+        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", libraries_2, "/", Table3[[#This Row],[input_1]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_2]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_3]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_4]], ".tsv --total_reads ", Table3[[#This Row],[total_reads_1]], " ", Table3[[#This Row],[total_reads_2]], " ", Table3[[#This Row],[total_reads_3]], " ", Table3[[#This Row],[total_reads_4]], " -o ", libraries_3, "/", Table3[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
         <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl271_WT_sgB_R2_branch.tsv libraries_2/yjl272_WT_sgB_R2_branch.tsv libraries_2/yjl273_WT_sgB_R2_branch.tsv libraries_2/yjl274_WT_sgB_R2_branch.tsv --total_reads 9677088 10357247 10347003 9780215 -o libraries_3/WT_sgB_R2_branch.tsv --quiet </v>
       </c>
     </row>
@@ -13191,7 +13350,7 @@
         <v>7319545</v>
       </c>
       <c r="S20" t="str">
-        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", Table3[[#This Row],[input_1]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_2]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_3]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_4]], ".tsv --total_reads ", Table3[[#This Row],[total_reads_1]], " ", Table3[[#This Row],[total_reads_2]], " ", Table3[[#This Row],[total_reads_3]], " ", Table3[[#This Row],[total_reads_4]], " -o ", dirs!$A$3, "/", Table3[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
+        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", libraries_2, "/", Table3[[#This Row],[input_1]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_2]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_3]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_4]], ".tsv --total_reads ", Table3[[#This Row],[total_reads_1]], " ", Table3[[#This Row],[total_reads_2]], " ", Table3[[#This Row],[total_reads_3]], " ", Table3[[#This Row],[total_reads_4]], " -o ", libraries_3, "/", Table3[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
         <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl275_WT_sgB_R2_cmv.tsv libraries_2/yjl276_WT_sgB_R2_cmv.tsv libraries_2/yjl277_WT_sgB_R2_cmv.tsv libraries_2/yjl278_WT_sgB_R2_cmv.tsv --total_reads 7530830 7081053 7065585 7319545 -o libraries_3/WT_sgB_R2_cmv.tsv --quiet </v>
       </c>
     </row>
@@ -13268,7 +13427,7 @@
         <v>9021103</v>
       </c>
       <c r="S21" t="str">
-        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", Table3[[#This Row],[input_1]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_2]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_3]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_4]], ".tsv --total_reads ", Table3[[#This Row],[total_reads_1]], " ", Table3[[#This Row],[total_reads_2]], " ", Table3[[#This Row],[total_reads_3]], " ", Table3[[#This Row],[total_reads_4]], " -o ", dirs!$A$3, "/", Table3[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
+        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", libraries_2, "/", Table3[[#This Row],[input_1]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_2]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_3]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_4]], ".tsv --total_reads ", Table3[[#This Row],[total_reads_1]], " ", Table3[[#This Row],[total_reads_2]], " ", Table3[[#This Row],[total_reads_3]], " ", Table3[[#This Row],[total_reads_4]], " -o ", libraries_3, "/", Table3[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
         <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl292_KO_sgA_R1_sense.tsv libraries_2/yjl293_KO_sgA_R1_sense.tsv libraries_2/yjl294_KO_sgA_R1_sense.tsv libraries_2/yjl295_KO_sgA_R1_sense.tsv --total_reads 8597510 10116623 8703707 9021103 -o libraries_3/KO_sgA_R1_sense.tsv --quiet </v>
       </c>
     </row>
@@ -13345,7 +13504,7 @@
         <v>11659042</v>
       </c>
       <c r="S22" t="str">
-        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", Table3[[#This Row],[input_1]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_2]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_3]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_4]], ".tsv --total_reads ", Table3[[#This Row],[total_reads_1]], " ", Table3[[#This Row],[total_reads_2]], " ", Table3[[#This Row],[total_reads_3]], " ", Table3[[#This Row],[total_reads_4]], " -o ", dirs!$A$3, "/", Table3[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
+        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", libraries_2, "/", Table3[[#This Row],[input_1]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_2]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_3]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_4]], ".tsv --total_reads ", Table3[[#This Row],[total_reads_1]], " ", Table3[[#This Row],[total_reads_2]], " ", Table3[[#This Row],[total_reads_3]], " ", Table3[[#This Row],[total_reads_4]], " -o ", libraries_3, "/", Table3[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
         <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl296_KO_sgA_R1_branch.tsv libraries_2/yjl297_KO_sgA_R1_branch.tsv libraries_2/yjl298_KO_sgA_R1_branch.tsv libraries_2/yjl299_KO_sgA_R1_branch.tsv --total_reads 11021111 11280773 12426852 11659042 -o libraries_3/KO_sgA_R1_branch.tsv --quiet </v>
       </c>
     </row>
@@ -13422,7 +13581,7 @@
         <v>8668198</v>
       </c>
       <c r="S23" t="str">
-        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", Table3[[#This Row],[input_1]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_2]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_3]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_4]], ".tsv --total_reads ", Table3[[#This Row],[total_reads_1]], " ", Table3[[#This Row],[total_reads_2]], " ", Table3[[#This Row],[total_reads_3]], " ", Table3[[#This Row],[total_reads_4]], " -o ", dirs!$A$3, "/", Table3[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
+        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", libraries_2, "/", Table3[[#This Row],[input_1]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_2]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_3]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_4]], ".tsv --total_reads ", Table3[[#This Row],[total_reads_1]], " ", Table3[[#This Row],[total_reads_2]], " ", Table3[[#This Row],[total_reads_3]], " ", Table3[[#This Row],[total_reads_4]], " -o ", libraries_3, "/", Table3[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
         <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl300_KO_sgA_R1_cmv.tsv libraries_2/yjl301_KO_sgA_R1_cmv.tsv libraries_2/yjl302_KO_sgA_R1_cmv.tsv libraries_2/yjl303_KO_sgA_R1_cmv.tsv --total_reads 9933546 10351309 9388188 8668198 -o libraries_3/KO_sgA_R1_cmv.tsv --quiet </v>
       </c>
     </row>
@@ -13499,7 +13658,7 @@
         <v>6678084</v>
       </c>
       <c r="S24" t="str">
-        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", Table3[[#This Row],[input_1]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_2]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_3]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_4]], ".tsv --total_reads ", Table3[[#This Row],[total_reads_1]], " ", Table3[[#This Row],[total_reads_2]], " ", Table3[[#This Row],[total_reads_3]], " ", Table3[[#This Row],[total_reads_4]], " -o ", dirs!$A$3, "/", Table3[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
+        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", libraries_2, "/", Table3[[#This Row],[input_1]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_2]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_3]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_4]], ".tsv --total_reads ", Table3[[#This Row],[total_reads_1]], " ", Table3[[#This Row],[total_reads_2]], " ", Table3[[#This Row],[total_reads_3]], " ", Table3[[#This Row],[total_reads_4]], " -o ", libraries_3, "/", Table3[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
         <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl304_KO_sgB_R2_sense.tsv libraries_2/yjl305_KO_sgB_R2_sense.tsv libraries_2/yjl306_KO_sgB_R2_sense.tsv libraries_2/yjl307_KO_sgB_R2_sense.tsv --total_reads 6589000 7135014 7262219 6678084 -o libraries_3/KO_sgB_R2_sense.tsv --quiet </v>
       </c>
     </row>
@@ -13576,7 +13735,7 @@
         <v>10459188</v>
       </c>
       <c r="S25" t="str">
-        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", Table3[[#This Row],[input_1]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_2]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_3]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_4]], ".tsv --total_reads ", Table3[[#This Row],[total_reads_1]], " ", Table3[[#This Row],[total_reads_2]], " ", Table3[[#This Row],[total_reads_3]], " ", Table3[[#This Row],[total_reads_4]], " -o ", dirs!$A$3, "/", Table3[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
+        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", libraries_2, "/", Table3[[#This Row],[input_1]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_2]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_3]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_4]], ".tsv --total_reads ", Table3[[#This Row],[total_reads_1]], " ", Table3[[#This Row],[total_reads_2]], " ", Table3[[#This Row],[total_reads_3]], " ", Table3[[#This Row],[total_reads_4]], " -o ", libraries_3, "/", Table3[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
         <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl308_KO_sgB_R2_branch.tsv libraries_2/yjl309_KO_sgB_R2_branch.tsv libraries_2/yjl310_KO_sgB_R2_branch.tsv libraries_2/yjl311_KO_sgB_R2_branch.tsv --total_reads 9837104 10611250 9883765 10459188 -o libraries_3/KO_sgB_R2_branch.tsv --quiet </v>
       </c>
     </row>
@@ -13653,7 +13812,7 @@
         <v>6462243</v>
       </c>
       <c r="S26" t="str">
-        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", Table3[[#This Row],[input_1]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_2]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_3]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_4]], ".tsv --total_reads ", Table3[[#This Row],[total_reads_1]], " ", Table3[[#This Row],[total_reads_2]], " ", Table3[[#This Row],[total_reads_3]], " ", Table3[[#This Row],[total_reads_4]], " -o ", dirs!$A$3, "/", Table3[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
+        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", libraries_2, "/", Table3[[#This Row],[input_1]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_2]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_3]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_4]], ".tsv --total_reads ", Table3[[#This Row],[total_reads_1]], " ", Table3[[#This Row],[total_reads_2]], " ", Table3[[#This Row],[total_reads_3]], " ", Table3[[#This Row],[total_reads_4]], " -o ", libraries_3, "/", Table3[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
         <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl312_KO_sgB_R2_cmv.tsv libraries_2/yjl313_KO_sgB_R2_cmv.tsv libraries_2/yjl314_KO_sgB_R2_cmv.tsv libraries_2/yjl315_KO_sgB_R2_cmv.tsv --total_reads 6846213 6511345 7387185 6462243 -o libraries_3/KO_sgB_R2_cmv.tsv --quiet </v>
       </c>
     </row>
@@ -13730,7 +13889,7 @@
         <v>6462243</v>
       </c>
       <c r="S27" t="str">
-        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", Table3[[#This Row],[input_1]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_2]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_3]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_4]], ".tsv --total_reads ", Table3[[#This Row],[total_reads_1]], " ", Table3[[#This Row],[total_reads_2]], " ", Table3[[#This Row],[total_reads_3]], " ", Table3[[#This Row],[total_reads_4]], " -o ", dirs!$A$3, "/", Table3[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
+        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", libraries_2, "/", Table3[[#This Row],[input_1]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_2]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_3]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_4]], ".tsv --total_reads ", Table3[[#This Row],[total_reads_1]], " ", Table3[[#This Row],[total_reads_2]], " ", Table3[[#This Row],[total_reads_3]], " ", Table3[[#This Row],[total_reads_4]], " -o ", libraries_3, "/", Table3[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
         <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl89_WT_sgCD_R1_antisense.tsv libraries_2/yjl90_WT_sgCD_R1_antisense.tsv libraries_2/yjl91_WT_sgCD_R1_antisense.tsv libraries_2/yjl92_WT_sgCD_R1_antisense.tsv --total_reads 6462243 6462243 6462243 6462243 -o libraries_3/WT_sgCD_R1_antisense.tsv --quiet </v>
       </c>
     </row>
@@ -13807,7 +13966,7 @@
         <v>6462243</v>
       </c>
       <c r="S28" t="str">
-        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", Table3[[#This Row],[input_1]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_2]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_3]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_4]], ".tsv --total_reads ", Table3[[#This Row],[total_reads_1]], " ", Table3[[#This Row],[total_reads_2]], " ", Table3[[#This Row],[total_reads_3]], " ", Table3[[#This Row],[total_reads_4]], " -o ", dirs!$A$3, "/", Table3[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
+        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", libraries_2, "/", Table3[[#This Row],[input_1]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_2]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_3]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_4]], ".tsv --total_reads ", Table3[[#This Row],[total_reads_1]], " ", Table3[[#This Row],[total_reads_2]], " ", Table3[[#This Row],[total_reads_3]], " ", Table3[[#This Row],[total_reads_4]], " -o ", libraries_3, "/", Table3[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
         <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl93_WT_sgCD_R1_splicing.tsv libraries_2/yjl94_WT_sgCD_R1_splicing.tsv libraries_2/yjl95_WT_sgCD_R1_splicing.tsv libraries_2/yjl96_WT_sgCD_R1_splicing.tsv --total_reads 6462243 6462243 6462243 6462243 -o libraries_3/WT_sgCD_R1_splicing.tsv --quiet </v>
       </c>
     </row>
@@ -13884,7 +14043,7 @@
         <v>6462243</v>
       </c>
       <c r="S29" t="str">
-        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", Table3[[#This Row],[input_1]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_2]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_3]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_4]], ".tsv --total_reads ", Table3[[#This Row],[total_reads_1]], " ", Table3[[#This Row],[total_reads_2]], " ", Table3[[#This Row],[total_reads_3]], " ", Table3[[#This Row],[total_reads_4]], " -o ", dirs!$A$3, "/", Table3[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
+        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", libraries_2, "/", Table3[[#This Row],[input_1]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_2]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_3]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_4]], ".tsv --total_reads ", Table3[[#This Row],[total_reads_1]], " ", Table3[[#This Row],[total_reads_2]], " ", Table3[[#This Row],[total_reads_3]], " ", Table3[[#This Row],[total_reads_4]], " -o ", libraries_3, "/", Table3[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
         <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl89_WT_sgCD_R2_antisense.tsv libraries_2/yjl90_WT_sgCD_R2_antisense.tsv libraries_2/yjl91_WT_sgCD_R2_antisense.tsv libraries_2/yjl92_WT_sgCD_R2_antisense.tsv --total_reads 6462243 6462243 6462243 6462243 -o libraries_3/WT_sgCD_R2_antisense.tsv --quiet </v>
       </c>
     </row>
@@ -13961,7 +14120,7 @@
         <v>6462243</v>
       </c>
       <c r="S30" t="str">
-        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", Table3[[#This Row],[input_1]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_2]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_3]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_4]], ".tsv --total_reads ", Table3[[#This Row],[total_reads_1]], " ", Table3[[#This Row],[total_reads_2]], " ", Table3[[#This Row],[total_reads_3]], " ", Table3[[#This Row],[total_reads_4]], " -o ", dirs!$A$3, "/", Table3[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
+        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", libraries_2, "/", Table3[[#This Row],[input_1]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_2]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_3]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_4]], ".tsv --total_reads ", Table3[[#This Row],[total_reads_1]], " ", Table3[[#This Row],[total_reads_2]], " ", Table3[[#This Row],[total_reads_3]], " ", Table3[[#This Row],[total_reads_4]], " -o ", libraries_3, "/", Table3[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
         <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl93_WT_sgCD_R2_splicing.tsv libraries_2/yjl94_WT_sgCD_R2_splicing.tsv libraries_2/yjl95_WT_sgCD_R2_splicing.tsv libraries_2/yjl96_WT_sgCD_R2_splicing.tsv --total_reads 6462243 6462243 6462243 6462243 -o libraries_3/WT_sgCD_R2_splicing.tsv --quiet </v>
       </c>
     </row>
@@ -14038,7 +14197,7 @@
         <v>7534924</v>
       </c>
       <c r="S31" t="str">
-        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", Table3[[#This Row],[input_1]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_2]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_3]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_4]], ".tsv --total_reads ", Table3[[#This Row],[total_reads_1]], " ", Table3[[#This Row],[total_reads_2]], " ", Table3[[#This Row],[total_reads_3]], " ", Table3[[#This Row],[total_reads_4]], " -o ", dirs!$A$3, "/", Table3[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
+        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", libraries_2, "/", Table3[[#This Row],[input_1]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_2]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_3]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_4]], ".tsv --total_reads ", Table3[[#This Row],[total_reads_1]], " ", Table3[[#This Row],[total_reads_2]], " ", Table3[[#This Row],[total_reads_3]], " ", Table3[[#This Row],[total_reads_4]], " -o ", libraries_3, "/", Table3[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
         <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl255_WT_sgA_R1_sense_30bpDown.tsv libraries_2/yjl256_WT_sgA_R1_sense_30bpDown.tsv libraries_2/yjl257_WT_sgA_R1_sense_30bpDown.tsv libraries_2/yjl258_WT_sgA_R1_sense_30bpDown.tsv --total_reads 7579965 7982725 7854740 7534924 -o libraries_3/WT_sgA_R1_sense_30bpDown.tsv --quiet </v>
       </c>
     </row>
@@ -14115,7 +14274,7 @@
         <v>8799841</v>
       </c>
       <c r="S32" t="str">
-        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", Table3[[#This Row],[input_1]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_2]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_3]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_4]], ".tsv --total_reads ", Table3[[#This Row],[total_reads_1]], " ", Table3[[#This Row],[total_reads_2]], " ", Table3[[#This Row],[total_reads_3]], " ", Table3[[#This Row],[total_reads_4]], " -o ", dirs!$A$3, "/", Table3[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
+        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", libraries_2, "/", Table3[[#This Row],[input_1]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_2]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_3]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_4]], ".tsv --total_reads ", Table3[[#This Row],[total_reads_1]], " ", Table3[[#This Row],[total_reads_2]], " ", Table3[[#This Row],[total_reads_3]], " ", Table3[[#This Row],[total_reads_4]], " -o ", libraries_3, "/", Table3[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
         <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl259_WT_sgA_R1_branch_30bpDown.tsv libraries_2/yjl260_WT_sgA_R1_branch_30bpDown.tsv libraries_2/yjl261_WT_sgA_R1_branch_30bpDown.tsv libraries_2/yjl262_WT_sgA_R1_branch_30bpDown.tsv --total_reads 8808358 9297647 9399483 8799841 -o libraries_3/WT_sgA_R1_branch_30bpDown.tsv --quiet </v>
       </c>
     </row>
@@ -14192,7 +14351,7 @@
         <v>8096639</v>
       </c>
       <c r="S33" t="str">
-        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", Table3[[#This Row],[input_1]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_2]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_3]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_4]], ".tsv --total_reads ", Table3[[#This Row],[total_reads_1]], " ", Table3[[#This Row],[total_reads_2]], " ", Table3[[#This Row],[total_reads_3]], " ", Table3[[#This Row],[total_reads_4]], " -o ", dirs!$A$3, "/", Table3[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
+        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", libraries_2, "/", Table3[[#This Row],[input_1]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_2]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_3]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_4]], ".tsv --total_reads ", Table3[[#This Row],[total_reads_1]], " ", Table3[[#This Row],[total_reads_2]], " ", Table3[[#This Row],[total_reads_3]], " ", Table3[[#This Row],[total_reads_4]], " -o ", libraries_3, "/", Table3[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
         <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl263_WT_sgA_R1_cmv_30bpDown.tsv libraries_2/yjl264_WT_sgA_R1_cmv_30bpDown.tsv libraries_2/yjl265_WT_sgA_R1_cmv_30bpDown.tsv libraries_2/yjl266_WT_sgA_R1_cmv_30bpDown.tsv --total_reads 8171224 8180897 8314116 8096639 -o libraries_3/WT_sgA_R1_cmv_30bpDown.tsv --quiet </v>
       </c>
     </row>
@@ -14269,7 +14428,7 @@
         <v>7626765</v>
       </c>
       <c r="S34" t="str">
-        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", Table3[[#This Row],[input_1]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_2]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_3]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_4]], ".tsv --total_reads ", Table3[[#This Row],[total_reads_1]], " ", Table3[[#This Row],[total_reads_2]], " ", Table3[[#This Row],[total_reads_3]], " ", Table3[[#This Row],[total_reads_4]], " -o ", dirs!$A$3, "/", Table3[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
+        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", libraries_2, "/", Table3[[#This Row],[input_1]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_2]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_3]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_4]], ".tsv --total_reads ", Table3[[#This Row],[total_reads_1]], " ", Table3[[#This Row],[total_reads_2]], " ", Table3[[#This Row],[total_reads_3]], " ", Table3[[#This Row],[total_reads_4]], " -o ", libraries_3, "/", Table3[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
         <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl267_WT_sgB_R2_sense_30bpDown.tsv libraries_2/yjl268_WT_sgB_R2_sense_30bpDown.tsv libraries_2/yjl269_WT_sgB_R2_sense_30bpDown.tsv libraries_2/yjl270_WT_sgB_R2_sense_30bpDown.tsv --total_reads 7439535 6937078 8644152 7626765 -o libraries_3/WT_sgB_R2_sense_30bpDown.tsv --quiet </v>
       </c>
     </row>
@@ -14346,7 +14505,7 @@
         <v>9780215</v>
       </c>
       <c r="S35" t="str">
-        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", Table3[[#This Row],[input_1]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_2]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_3]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_4]], ".tsv --total_reads ", Table3[[#This Row],[total_reads_1]], " ", Table3[[#This Row],[total_reads_2]], " ", Table3[[#This Row],[total_reads_3]], " ", Table3[[#This Row],[total_reads_4]], " -o ", dirs!$A$3, "/", Table3[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
+        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", libraries_2, "/", Table3[[#This Row],[input_1]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_2]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_3]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_4]], ".tsv --total_reads ", Table3[[#This Row],[total_reads_1]], " ", Table3[[#This Row],[total_reads_2]], " ", Table3[[#This Row],[total_reads_3]], " ", Table3[[#This Row],[total_reads_4]], " -o ", libraries_3, "/", Table3[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
         <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl271_WT_sgB_R2_branch_30bpDown.tsv libraries_2/yjl272_WT_sgB_R2_branch_30bpDown.tsv libraries_2/yjl273_WT_sgB_R2_branch_30bpDown.tsv libraries_2/yjl274_WT_sgB_R2_branch_30bpDown.tsv --total_reads 9677088 10357247 10347003 9780215 -o libraries_3/WT_sgB_R2_branch_30bpDown.tsv --quiet </v>
       </c>
     </row>
@@ -14423,7 +14582,7 @@
         <v>7319545</v>
       </c>
       <c r="S36" t="str">
-        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", Table3[[#This Row],[input_1]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_2]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_3]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_4]], ".tsv --total_reads ", Table3[[#This Row],[total_reads_1]], " ", Table3[[#This Row],[total_reads_2]], " ", Table3[[#This Row],[total_reads_3]], " ", Table3[[#This Row],[total_reads_4]], " -o ", dirs!$A$3, "/", Table3[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
+        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", libraries_2, "/", Table3[[#This Row],[input_1]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_2]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_3]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_4]], ".tsv --total_reads ", Table3[[#This Row],[total_reads_1]], " ", Table3[[#This Row],[total_reads_2]], " ", Table3[[#This Row],[total_reads_3]], " ", Table3[[#This Row],[total_reads_4]], " -o ", libraries_3, "/", Table3[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
         <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl275_WT_sgB_R2_cmv_30bpDown.tsv libraries_2/yjl276_WT_sgB_R2_cmv_30bpDown.tsv libraries_2/yjl277_WT_sgB_R2_cmv_30bpDown.tsv libraries_2/yjl278_WT_sgB_R2_cmv_30bpDown.tsv --total_reads 7530830 7081053 7065585 7319545 -o libraries_3/WT_sgB_R2_cmv_30bpDown.tsv --quiet </v>
       </c>
     </row>
@@ -14500,7 +14659,7 @@
         <v>9021103</v>
       </c>
       <c r="S37" t="str">
-        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", Table3[[#This Row],[input_1]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_2]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_3]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_4]], ".tsv --total_reads ", Table3[[#This Row],[total_reads_1]], " ", Table3[[#This Row],[total_reads_2]], " ", Table3[[#This Row],[total_reads_3]], " ", Table3[[#This Row],[total_reads_4]], " -o ", dirs!$A$3, "/", Table3[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
+        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", libraries_2, "/", Table3[[#This Row],[input_1]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_2]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_3]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_4]], ".tsv --total_reads ", Table3[[#This Row],[total_reads_1]], " ", Table3[[#This Row],[total_reads_2]], " ", Table3[[#This Row],[total_reads_3]], " ", Table3[[#This Row],[total_reads_4]], " -o ", libraries_3, "/", Table3[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
         <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl292_KO_sgA_R1_sense_30bpDown.tsv libraries_2/yjl293_KO_sgA_R1_sense_30bpDown.tsv libraries_2/yjl294_KO_sgA_R1_sense_30bpDown.tsv libraries_2/yjl295_KO_sgA_R1_sense_30bpDown.tsv --total_reads 8597510 10116623 8703707 9021103 -o libraries_3/KO_sgA_R1_sense_30bpDown.tsv --quiet </v>
       </c>
     </row>
@@ -14577,7 +14736,7 @@
         <v>11659042</v>
       </c>
       <c r="S38" t="str">
-        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", Table3[[#This Row],[input_1]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_2]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_3]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_4]], ".tsv --total_reads ", Table3[[#This Row],[total_reads_1]], " ", Table3[[#This Row],[total_reads_2]], " ", Table3[[#This Row],[total_reads_3]], " ", Table3[[#This Row],[total_reads_4]], " -o ", dirs!$A$3, "/", Table3[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
+        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", libraries_2, "/", Table3[[#This Row],[input_1]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_2]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_3]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_4]], ".tsv --total_reads ", Table3[[#This Row],[total_reads_1]], " ", Table3[[#This Row],[total_reads_2]], " ", Table3[[#This Row],[total_reads_3]], " ", Table3[[#This Row],[total_reads_4]], " -o ", libraries_3, "/", Table3[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
         <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl296_KO_sgA_R1_branch_30bpDown.tsv libraries_2/yjl297_KO_sgA_R1_branch_30bpDown.tsv libraries_2/yjl298_KO_sgA_R1_branch_30bpDown.tsv libraries_2/yjl299_KO_sgA_R1_branch_30bpDown.tsv --total_reads 11021111 11280773 12426852 11659042 -o libraries_3/KO_sgA_R1_branch_30bpDown.tsv --quiet </v>
       </c>
     </row>
@@ -14654,7 +14813,7 @@
         <v>8668198</v>
       </c>
       <c r="S39" t="str">
-        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", Table3[[#This Row],[input_1]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_2]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_3]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_4]], ".tsv --total_reads ", Table3[[#This Row],[total_reads_1]], " ", Table3[[#This Row],[total_reads_2]], " ", Table3[[#This Row],[total_reads_3]], " ", Table3[[#This Row],[total_reads_4]], " -o ", dirs!$A$3, "/", Table3[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
+        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", libraries_2, "/", Table3[[#This Row],[input_1]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_2]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_3]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_4]], ".tsv --total_reads ", Table3[[#This Row],[total_reads_1]], " ", Table3[[#This Row],[total_reads_2]], " ", Table3[[#This Row],[total_reads_3]], " ", Table3[[#This Row],[total_reads_4]], " -o ", libraries_3, "/", Table3[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
         <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl300_KO_sgA_R1_cmv_30bpDown.tsv libraries_2/yjl301_KO_sgA_R1_cmv_30bpDown.tsv libraries_2/yjl302_KO_sgA_R1_cmv_30bpDown.tsv libraries_2/yjl303_KO_sgA_R1_cmv_30bpDown.tsv --total_reads 9933546 10351309 9388188 8668198 -o libraries_3/KO_sgA_R1_cmv_30bpDown.tsv --quiet </v>
       </c>
     </row>
@@ -14731,7 +14890,7 @@
         <v>6678084</v>
       </c>
       <c r="S40" t="str">
-        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", Table3[[#This Row],[input_1]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_2]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_3]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_4]], ".tsv --total_reads ", Table3[[#This Row],[total_reads_1]], " ", Table3[[#This Row],[total_reads_2]], " ", Table3[[#This Row],[total_reads_3]], " ", Table3[[#This Row],[total_reads_4]], " -o ", dirs!$A$3, "/", Table3[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
+        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", libraries_2, "/", Table3[[#This Row],[input_1]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_2]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_3]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_4]], ".tsv --total_reads ", Table3[[#This Row],[total_reads_1]], " ", Table3[[#This Row],[total_reads_2]], " ", Table3[[#This Row],[total_reads_3]], " ", Table3[[#This Row],[total_reads_4]], " -o ", libraries_3, "/", Table3[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
         <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl304_KO_sgB_R2_sense_30bpDown.tsv libraries_2/yjl305_KO_sgB_R2_sense_30bpDown.tsv libraries_2/yjl306_KO_sgB_R2_sense_30bpDown.tsv libraries_2/yjl307_KO_sgB_R2_sense_30bpDown.tsv --total_reads 6589000 7135014 7262219 6678084 -o libraries_3/KO_sgB_R2_sense_30bpDown.tsv --quiet </v>
       </c>
     </row>
@@ -14808,7 +14967,7 @@
         <v>10459188</v>
       </c>
       <c r="S41" t="str">
-        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", Table3[[#This Row],[input_1]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_2]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_3]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_4]], ".tsv --total_reads ", Table3[[#This Row],[total_reads_1]], " ", Table3[[#This Row],[total_reads_2]], " ", Table3[[#This Row],[total_reads_3]], " ", Table3[[#This Row],[total_reads_4]], " -o ", dirs!$A$3, "/", Table3[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
+        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", libraries_2, "/", Table3[[#This Row],[input_1]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_2]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_3]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_4]], ".tsv --total_reads ", Table3[[#This Row],[total_reads_1]], " ", Table3[[#This Row],[total_reads_2]], " ", Table3[[#This Row],[total_reads_3]], " ", Table3[[#This Row],[total_reads_4]], " -o ", libraries_3, "/", Table3[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
         <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl308_KO_sgB_R2_branch_30bpDown.tsv libraries_2/yjl309_KO_sgB_R2_branch_30bpDown.tsv libraries_2/yjl310_KO_sgB_R2_branch_30bpDown.tsv libraries_2/yjl311_KO_sgB_R2_branch_30bpDown.tsv --total_reads 9837104 10611250 9883765 10459188 -o libraries_3/KO_sgB_R2_branch_30bpDown.tsv --quiet </v>
       </c>
     </row>
@@ -14885,7 +15044,7 @@
         <v>6462243</v>
       </c>
       <c r="S42" t="str">
-        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", dirs!$A$2, "/", Table3[[#This Row],[input_1]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_2]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_3]], ".tsv ", dirs!$A$2, "/", Table3[[#This Row],[input_4]], ".tsv --total_reads ", Table3[[#This Row],[total_reads_1]], " ", Table3[[#This Row],[total_reads_2]], " ", Table3[[#This Row],[total_reads_3]], " ", Table3[[#This Row],[total_reads_4]], " -o ", dirs!$A$3, "/", Table3[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
+        <f ca="1">_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", libraries_2, "/", Table3[[#This Row],[input_1]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_2]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_3]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_4]], ".tsv --total_reads ", Table3[[#This Row],[total_reads_1]], " ", Table3[[#This Row],[total_reads_2]], " ", Table3[[#This Row],[total_reads_3]], " ", Table3[[#This Row],[total_reads_4]], " -o ", libraries_3, "/", Table3[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
         <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -in libraries_2/yjl312_KO_sgB_R2_cmv_30bpDown.tsv libraries_2/yjl313_KO_sgB_R2_cmv_30bpDown.tsv libraries_2/yjl314_KO_sgB_R2_cmv_30bpDown.tsv libraries_2/yjl315_KO_sgB_R2_cmv_30bpDown.tsv --total_reads 6846213 6511345 7387185 6462243 -o libraries_3/KO_sgB_R2_cmv_30bpDown.tsv --quiet </v>
       </c>
     </row>
@@ -14979,7 +15138,7 @@
         <v>10005232</v>
       </c>
       <c r="M45" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -i ", dirs!$A$2, "/", Table11[[#This Row],[input]], ".tsv ", " --total_reads ", Table11[[#This Row],[total_reads]], " -o ", dirs!$A$3, "/", Table11[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -i ", libraries_2, "/", Table11[[#This Row],[input]], ".tsv ", " --total_reads ", Table11[[#This Row],[total_reads]], " -o ", libraries_3, "/", Table11[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
         <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -i libraries_2/yjl244_WT_sgA_R1_sense_nodsb.tsv  --total_reads 10005232 -o libraries_3/WT_sgA_R1_sense_nodsb.tsv --quiet </v>
       </c>
     </row>
@@ -15032,7 +15191,7 @@
         <v>12898941</v>
       </c>
       <c r="M46" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -i ", dirs!$A$2, "/", Table11[[#This Row],[input]], ".tsv ", " --total_reads ", Table11[[#This Row],[total_reads]], " -o ", dirs!$A$3, "/", Table11[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -i ", libraries_2, "/", Table11[[#This Row],[input]], ".tsv ", " --total_reads ", Table11[[#This Row],[total_reads]], " -o ", libraries_3, "/", Table11[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
         <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -i libraries_2/yjl245_WT_sgA_R1_branch_nodsb.tsv  --total_reads 12898941 -o libraries_3/WT_sgA_R1_branch_nodsb.tsv --quiet </v>
       </c>
     </row>
@@ -15085,7 +15244,7 @@
         <v>10217401</v>
       </c>
       <c r="M47" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -i ", dirs!$A$2, "/", Table11[[#This Row],[input]], ".tsv ", " --total_reads ", Table11[[#This Row],[total_reads]], " -o ", dirs!$A$3, "/", Table11[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -i ", libraries_2, "/", Table11[[#This Row],[input]], ".tsv ", " --total_reads ", Table11[[#This Row],[total_reads]], " -o ", libraries_3, "/", Table11[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
         <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -i libraries_2/yjl246_WT_sgA_R1_cmv_nodsb.tsv  --total_reads 10217401 -o libraries_3/WT_sgA_R1_cmv_nodsb.tsv --quiet </v>
       </c>
     </row>
@@ -15138,7 +15297,7 @@
         <v>7424148</v>
       </c>
       <c r="M48" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -i ", dirs!$A$2, "/", Table11[[#This Row],[input]], ".tsv ", " --total_reads ", Table11[[#This Row],[total_reads]], " -o ", dirs!$A$3, "/", Table11[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -i ", libraries_2, "/", Table11[[#This Row],[input]], ".tsv ", " --total_reads ", Table11[[#This Row],[total_reads]], " -o ", libraries_3, "/", Table11[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
         <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -i libraries_2/yjl281_KO_sgA_R1_sense_nodsb.tsv  --total_reads 7424148 -o libraries_3/KO_sgA_R1_sense_nodsb.tsv --quiet </v>
       </c>
     </row>
@@ -15191,7 +15350,7 @@
         <v>10190833</v>
       </c>
       <c r="M49" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -i ", dirs!$A$2, "/", Table11[[#This Row],[input]], ".tsv ", " --total_reads ", Table11[[#This Row],[total_reads]], " -o ", dirs!$A$3, "/", Table11[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -i ", libraries_2, "/", Table11[[#This Row],[input]], ".tsv ", " --total_reads ", Table11[[#This Row],[total_reads]], " -o ", libraries_3, "/", Table11[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
         <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -i libraries_2/yjl282_KO_sgA_R1_branch_nodsb.tsv  --total_reads 10190833 -o libraries_3/KO_sgA_R1_branch_nodsb.tsv --quiet </v>
       </c>
     </row>
@@ -15244,7 +15403,7 @@
         <v>7763439</v>
       </c>
       <c r="M50" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -i ", dirs!$A$2, "/", Table11[[#This Row],[input]], ".tsv ", " --total_reads ", Table11[[#This Row],[total_reads]], " -o ", dirs!$A$3, "/", Table11[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -i ", libraries_2, "/", Table11[[#This Row],[input]], ".tsv ", " --total_reads ", Table11[[#This Row],[total_reads]], " -o ", libraries_3, "/", Table11[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
         <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -i libraries_2/yjl283_KO_sgA_R1_cmv_nodsb.tsv  --total_reads 7763439 -o libraries_3/KO_sgA_R1_cmv_nodsb.tsv --quiet </v>
       </c>
     </row>
@@ -15297,7 +15456,7 @@
         <v>10005232</v>
       </c>
       <c r="M51" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -i ", dirs!$A$2, "/", Table11[[#This Row],[input]], ".tsv ", " --total_reads ", Table11[[#This Row],[total_reads]], " -o ", dirs!$A$3, "/", Table11[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -i ", libraries_2, "/", Table11[[#This Row],[input]], ".tsv ", " --total_reads ", Table11[[#This Row],[total_reads]], " -o ", libraries_3, "/", Table11[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
         <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -i libraries_2/yjl244_WT_sgB_R2_sense_nodsb.tsv  --total_reads 10005232 -o libraries_3/WT_sgB_R2_sense_nodsb.tsv --quiet </v>
       </c>
     </row>
@@ -15350,7 +15509,7 @@
         <v>12898941</v>
       </c>
       <c r="M52" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -i ", dirs!$A$2, "/", Table11[[#This Row],[input]], ".tsv ", " --total_reads ", Table11[[#This Row],[total_reads]], " -o ", dirs!$A$3, "/", Table11[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -i ", libraries_2, "/", Table11[[#This Row],[input]], ".tsv ", " --total_reads ", Table11[[#This Row],[total_reads]], " -o ", libraries_3, "/", Table11[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
         <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -i libraries_2/yjl245_WT_sgB_R2_branch_nodsb.tsv  --total_reads 12898941 -o libraries_3/WT_sgB_R2_branch_nodsb.tsv --quiet </v>
       </c>
     </row>
@@ -15403,7 +15562,7 @@
         <v>10217401</v>
       </c>
       <c r="M53" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -i ", dirs!$A$2, "/", Table11[[#This Row],[input]], ".tsv ", " --total_reads ", Table11[[#This Row],[total_reads]], " -o ", dirs!$A$3, "/", Table11[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -i ", libraries_2, "/", Table11[[#This Row],[input]], ".tsv ", " --total_reads ", Table11[[#This Row],[total_reads]], " -o ", libraries_3, "/", Table11[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
         <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -i libraries_2/yjl246_WT_sgB_R2_cmv_nodsb.tsv  --total_reads 10217401 -o libraries_3/WT_sgB_R2_cmv_nodsb.tsv --quiet </v>
       </c>
     </row>
@@ -15456,7 +15615,7 @@
         <v>7424148</v>
       </c>
       <c r="M54" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -i ", dirs!$A$2, "/", Table11[[#This Row],[input]], ".tsv ", " --total_reads ", Table11[[#This Row],[total_reads]], " -o ", dirs!$A$3, "/", Table11[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -i ", libraries_2, "/", Table11[[#This Row],[input]], ".tsv ", " --total_reads ", Table11[[#This Row],[total_reads]], " -o ", libraries_3, "/", Table11[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
         <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -i libraries_2/yjl281_KO_sgB_R2_sense_nodsb.tsv  --total_reads 7424148 -o libraries_3/KO_sgB_R2_sense_nodsb.tsv --quiet </v>
       </c>
     </row>
@@ -15509,7 +15668,7 @@
         <v>10190833</v>
       </c>
       <c r="M55" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -i ", dirs!$A$2, "/", Table11[[#This Row],[input]], ".tsv ", " --total_reads ", Table11[[#This Row],[total_reads]], " -o ", dirs!$A$3, "/", Table11[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -i ", libraries_2, "/", Table11[[#This Row],[input]], ".tsv ", " --total_reads ", Table11[[#This Row],[total_reads]], " -o ", libraries_3, "/", Table11[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
         <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -i libraries_2/yjl282_KO_sgB_R2_branch_nodsb.tsv  --total_reads 10190833 -o libraries_3/KO_sgB_R2_branch_nodsb.tsv --quiet </v>
       </c>
     </row>
@@ -15562,7 +15721,7 @@
         <v>7763439</v>
       </c>
       <c r="M56" t="str">
-        <f>_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -i ", dirs!$A$2, "/", Table11[[#This Row],[input]], ".tsv ", " --total_reads ", Table11[[#This Row],[total_reads]], " -o ", dirs!$A$3, "/", Table11[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
+        <f>_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -i ", libraries_2, "/", Table11[[#This Row],[input]], ".tsv ", " --total_reads ", Table11[[#This Row],[total_reads]], " -o ", libraries_3, "/", Table11[[#This Row],[output_dir]], ".tsv", " --quiet ")</f>
         <v xml:space="preserve">python 1_process_nhej/combine_repeats.py -i libraries_2/yjl283_KO_sgB_R2_cmv_nodsb.tsv  --total_reads 7763439 -o libraries_3/KO_sgB_R2_cmv_nodsb.tsv --quiet </v>
       </c>
     </row>
@@ -15580,8 +15739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7FB6E33-93C4-4971-BF44-23A0F65AADA0}">
   <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView topLeftCell="D25" workbookViewId="0">
-      <selection activeCell="M45" sqref="M45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15687,15 +15846,16 @@
         <f ca="1">'2_combined'!H3</f>
         <v>sense</v>
       </c>
-      <c r="L2" t="s">
-        <v>110</v>
+      <c r="L2" t="str">
+        <f>subst_type</f>
+        <v>without</v>
       </c>
       <c r="M2" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", libraries_3, "/",Table5[[#This Row],[dir]], ".tsv -o ", libraries_4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
         <v>python 2_graph_processing/make_main_data.py -i libraries_3/WT_sgAB_R1_sense.tsv -o libraries_4/WT_sgAB_R1_sense -ref ref_seq/2DSB_R1_sense.fa -dsb 67 --dsb_type 2 --strand R1 --hguide AB --cell WT --treatment sense --subst_type without --control none</v>
       </c>
       <c r="N2" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", libraries_4, "/", Table5[[#This Row],[dir]])</f>
         <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgAB_R1_sense</v>
       </c>
     </row>
@@ -15743,15 +15903,16 @@
         <f ca="1">'2_combined'!H4</f>
         <v>branch</v>
       </c>
-      <c r="L3" t="s">
-        <v>110</v>
+      <c r="L3" t="str">
+        <f>subst_type</f>
+        <v>without</v>
       </c>
       <c r="M3" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", libraries_3, "/",Table5[[#This Row],[dir]], ".tsv -o ", libraries_4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
         <v>python 2_graph_processing/make_main_data.py -i libraries_3/WT_sgAB_R1_branch.tsv -o libraries_4/WT_sgAB_R1_branch -ref ref_seq/2DSB_R1_branch.fa -dsb 67 --dsb_type 2 --strand R1 --hguide AB --cell WT --treatment branch --subst_type without --control none</v>
       </c>
       <c r="N3" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", libraries_4, "/", Table5[[#This Row],[dir]])</f>
         <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgAB_R1_branch</v>
       </c>
     </row>
@@ -15799,15 +15960,16 @@
         <f ca="1">'2_combined'!H5</f>
         <v>cmv</v>
       </c>
-      <c r="L4" t="s">
-        <v>110</v>
+      <c r="L4" t="str">
+        <f>subst_type</f>
+        <v>without</v>
       </c>
       <c r="M4" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", libraries_3, "/",Table5[[#This Row],[dir]], ".tsv -o ", libraries_4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
         <v>python 2_graph_processing/make_main_data.py -i libraries_3/WT_sgAB_R1_cmv.tsv -o libraries_4/WT_sgAB_R1_cmv -ref ref_seq/2DSB_R1_cmv.fa -dsb 67 --dsb_type 2 --strand R1 --hguide AB --cell WT --treatment cmv --subst_type without --control none</v>
       </c>
       <c r="N4" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", libraries_4, "/", Table5[[#This Row],[dir]])</f>
         <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgAB_R1_cmv</v>
       </c>
     </row>
@@ -15855,15 +16017,16 @@
         <f ca="1">'2_combined'!H6</f>
         <v>sense</v>
       </c>
-      <c r="L5" t="s">
-        <v>110</v>
+      <c r="L5" t="str">
+        <f>subst_type</f>
+        <v>without</v>
       </c>
       <c r="M5" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", libraries_3, "/",Table5[[#This Row],[dir]], ".tsv -o ", libraries_4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
         <v>python 2_graph_processing/make_main_data.py -i libraries_3/KO_sgAB_R1_sense.tsv -o libraries_4/KO_sgAB_R1_sense -ref ref_seq/2DSB_R1_sense.fa -dsb 67 --dsb_type 2 --strand R1 --hguide AB --cell KO --treatment sense --subst_type without --control none</v>
       </c>
       <c r="N5" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", libraries_4, "/", Table5[[#This Row],[dir]])</f>
         <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgAB_R1_sense</v>
       </c>
     </row>
@@ -15911,15 +16074,16 @@
         <f ca="1">'2_combined'!H7</f>
         <v>branch</v>
       </c>
-      <c r="L6" t="s">
-        <v>110</v>
+      <c r="L6" t="str">
+        <f>subst_type</f>
+        <v>without</v>
       </c>
       <c r="M6" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", libraries_3, "/",Table5[[#This Row],[dir]], ".tsv -o ", libraries_4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
         <v>python 2_graph_processing/make_main_data.py -i libraries_3/KO_sgAB_R1_branch.tsv -o libraries_4/KO_sgAB_R1_branch -ref ref_seq/2DSB_R1_branch.fa -dsb 67 --dsb_type 2 --strand R1 --hguide AB --cell KO --treatment branch --subst_type without --control none</v>
       </c>
       <c r="N6" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", libraries_4, "/", Table5[[#This Row],[dir]])</f>
         <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgAB_R1_branch</v>
       </c>
     </row>
@@ -15967,15 +16131,16 @@
         <f ca="1">'2_combined'!H8</f>
         <v>cmv</v>
       </c>
-      <c r="L7" t="s">
-        <v>110</v>
+      <c r="L7" t="str">
+        <f>subst_type</f>
+        <v>without</v>
       </c>
       <c r="M7" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", libraries_3, "/",Table5[[#This Row],[dir]], ".tsv -o ", libraries_4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
         <v>python 2_graph_processing/make_main_data.py -i libraries_3/KO_sgAB_R1_cmv.tsv -o libraries_4/KO_sgAB_R1_cmv -ref ref_seq/2DSB_R1_cmv.fa -dsb 67 --dsb_type 2 --strand R1 --hguide AB --cell KO --treatment cmv --subst_type without --control none</v>
       </c>
       <c r="N7" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", libraries_4, "/", Table5[[#This Row],[dir]])</f>
         <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgAB_R1_cmv</v>
       </c>
     </row>
@@ -16023,15 +16188,16 @@
         <f ca="1">'2_combined'!H9</f>
         <v>sense</v>
       </c>
-      <c r="L8" t="s">
-        <v>110</v>
+      <c r="L8" t="str">
+        <f>subst_type</f>
+        <v>without</v>
       </c>
       <c r="M8" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", libraries_3, "/",Table5[[#This Row],[dir]], ".tsv -o ", libraries_4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
         <v>python 2_graph_processing/make_main_data.py -i libraries_3/WT_sgAB_R2_sense.tsv -o libraries_4/WT_sgAB_R2_sense -ref ref_seq/2DSB_R2_sense.fa -dsb 46 --dsb_type 2 --strand R2 --hguide AB --cell WT --treatment sense --subst_type without --control none</v>
       </c>
       <c r="N8" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", libraries_4, "/", Table5[[#This Row],[dir]])</f>
         <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgAB_R2_sense</v>
       </c>
     </row>
@@ -16079,15 +16245,16 @@
         <f ca="1">'2_combined'!H10</f>
         <v>branch</v>
       </c>
-      <c r="L9" t="s">
-        <v>110</v>
+      <c r="L9" t="str">
+        <f>subst_type</f>
+        <v>without</v>
       </c>
       <c r="M9" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", libraries_3, "/",Table5[[#This Row],[dir]], ".tsv -o ", libraries_4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
         <v>python 2_graph_processing/make_main_data.py -i libraries_3/WT_sgAB_R2_branch.tsv -o libraries_4/WT_sgAB_R2_branch -ref ref_seq/2DSB_R2_branch.fa -dsb 46 --dsb_type 2 --strand R2 --hguide AB --cell WT --treatment branch --subst_type without --control none</v>
       </c>
       <c r="N9" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", libraries_4, "/", Table5[[#This Row],[dir]])</f>
         <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgAB_R2_branch</v>
       </c>
     </row>
@@ -16135,15 +16302,16 @@
         <f ca="1">'2_combined'!H11</f>
         <v>cmv</v>
       </c>
-      <c r="L10" t="s">
-        <v>110</v>
+      <c r="L10" t="str">
+        <f>subst_type</f>
+        <v>without</v>
       </c>
       <c r="M10" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", libraries_3, "/",Table5[[#This Row],[dir]], ".tsv -o ", libraries_4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
         <v>python 2_graph_processing/make_main_data.py -i libraries_3/WT_sgAB_R2_cmv.tsv -o libraries_4/WT_sgAB_R2_cmv -ref ref_seq/2DSB_R2_cmv.fa -dsb 46 --dsb_type 2 --strand R2 --hguide AB --cell WT --treatment cmv --subst_type without --control none</v>
       </c>
       <c r="N10" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", libraries_4, "/", Table5[[#This Row],[dir]])</f>
         <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgAB_R2_cmv</v>
       </c>
     </row>
@@ -16191,15 +16359,16 @@
         <f ca="1">'2_combined'!H12</f>
         <v>sense</v>
       </c>
-      <c r="L11" t="s">
-        <v>110</v>
+      <c r="L11" t="str">
+        <f>subst_type</f>
+        <v>without</v>
       </c>
       <c r="M11" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", libraries_3, "/",Table5[[#This Row],[dir]], ".tsv -o ", libraries_4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
         <v>python 2_graph_processing/make_main_data.py -i libraries_3/KO_sgAB_R2_sense.tsv -o libraries_4/KO_sgAB_R2_sense -ref ref_seq/2DSB_R2_sense.fa -dsb 46 --dsb_type 2 --strand R2 --hguide AB --cell KO --treatment sense --subst_type without --control none</v>
       </c>
       <c r="N11" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", libraries_4, "/", Table5[[#This Row],[dir]])</f>
         <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgAB_R2_sense</v>
       </c>
     </row>
@@ -16247,15 +16416,16 @@
         <f ca="1">'2_combined'!H13</f>
         <v>branch</v>
       </c>
-      <c r="L12" t="s">
-        <v>110</v>
+      <c r="L12" t="str">
+        <f>subst_type</f>
+        <v>without</v>
       </c>
       <c r="M12" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", libraries_3, "/",Table5[[#This Row],[dir]], ".tsv -o ", libraries_4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
         <v>python 2_graph_processing/make_main_data.py -i libraries_3/KO_sgAB_R2_branch.tsv -o libraries_4/KO_sgAB_R2_branch -ref ref_seq/2DSB_R2_branch.fa -dsb 46 --dsb_type 2 --strand R2 --hguide AB --cell KO --treatment branch --subst_type without --control none</v>
       </c>
       <c r="N12" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", libraries_4, "/", Table5[[#This Row],[dir]])</f>
         <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgAB_R2_branch</v>
       </c>
     </row>
@@ -16303,15 +16473,16 @@
         <f ca="1">'2_combined'!H14</f>
         <v>cmv</v>
       </c>
-      <c r="L13" t="s">
-        <v>110</v>
+      <c r="L13" t="str">
+        <f>subst_type</f>
+        <v>without</v>
       </c>
       <c r="M13" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", libraries_3, "/",Table5[[#This Row],[dir]], ".tsv -o ", libraries_4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
         <v>python 2_graph_processing/make_main_data.py -i libraries_3/KO_sgAB_R2_cmv.tsv -o libraries_4/KO_sgAB_R2_cmv -ref ref_seq/2DSB_R2_cmv.fa -dsb 46 --dsb_type 2 --strand R2 --hguide AB --cell KO --treatment cmv --subst_type without --control none</v>
       </c>
       <c r="N13" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", libraries_4, "/", Table5[[#This Row],[dir]])</f>
         <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgAB_R2_cmv</v>
       </c>
     </row>
@@ -16359,15 +16530,16 @@
         <f ca="1">'2_combined'!H15</f>
         <v>sense</v>
       </c>
-      <c r="L14" t="s">
-        <v>110</v>
+      <c r="L14" t="str">
+        <f>subst_type</f>
+        <v>without</v>
       </c>
       <c r="M14" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", libraries_3, "/",Table5[[#This Row],[dir]], ".tsv -o ", libraries_4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
         <v>python 2_graph_processing/make_main_data.py -i libraries_3/WT_sgA_R1_sense.tsv -o libraries_4/WT_sgA_R1_sense -ref ref_seq/1DSB_R1_sense.fa -dsb 67 --dsb_type 1 --strand R1 --hguide A --cell WT --treatment sense --subst_type without --control none</v>
       </c>
       <c r="N14" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", libraries_4, "/", Table5[[#This Row],[dir]])</f>
         <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgA_R1_sense</v>
       </c>
     </row>
@@ -16415,15 +16587,16 @@
         <f ca="1">'2_combined'!H16</f>
         <v>branch</v>
       </c>
-      <c r="L15" t="s">
-        <v>110</v>
+      <c r="L15" t="str">
+        <f>subst_type</f>
+        <v>without</v>
       </c>
       <c r="M15" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", libraries_3, "/",Table5[[#This Row],[dir]], ".tsv -o ", libraries_4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
         <v>python 2_graph_processing/make_main_data.py -i libraries_3/WT_sgA_R1_branch.tsv -o libraries_4/WT_sgA_R1_branch -ref ref_seq/1DSB_R1_branch.fa -dsb 67 --dsb_type 1 --strand R1 --hguide A --cell WT --treatment branch --subst_type without --control none</v>
       </c>
       <c r="N15" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", libraries_4, "/", Table5[[#This Row],[dir]])</f>
         <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgA_R1_branch</v>
       </c>
     </row>
@@ -16471,15 +16644,16 @@
         <f ca="1">'2_combined'!H17</f>
         <v>cmv</v>
       </c>
-      <c r="L16" t="s">
-        <v>110</v>
+      <c r="L16" t="str">
+        <f>subst_type</f>
+        <v>without</v>
       </c>
       <c r="M16" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", libraries_3, "/",Table5[[#This Row],[dir]], ".tsv -o ", libraries_4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
         <v>python 2_graph_processing/make_main_data.py -i libraries_3/WT_sgA_R1_cmv.tsv -o libraries_4/WT_sgA_R1_cmv -ref ref_seq/1DSB_R1_cmv.fa -dsb 67 --dsb_type 1 --strand R1 --hguide A --cell WT --treatment cmv --subst_type without --control none</v>
       </c>
       <c r="N16" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", libraries_4, "/", Table5[[#This Row],[dir]])</f>
         <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgA_R1_cmv</v>
       </c>
     </row>
@@ -16527,15 +16701,16 @@
         <f ca="1">'2_combined'!H18</f>
         <v>sense</v>
       </c>
-      <c r="L17" t="s">
-        <v>110</v>
+      <c r="L17" t="str">
+        <f>subst_type</f>
+        <v>without</v>
       </c>
       <c r="M17" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", libraries_3, "/",Table5[[#This Row],[dir]], ".tsv -o ", libraries_4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
         <v>python 2_graph_processing/make_main_data.py -i libraries_3/WT_sgB_R2_sense.tsv -o libraries_4/WT_sgB_R2_sense -ref ref_seq/1DSB_R2_sense.fa -dsb 46 --dsb_type 1 --strand R2 --hguide B --cell WT --treatment sense --subst_type without --control none</v>
       </c>
       <c r="N17" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", libraries_4, "/", Table5[[#This Row],[dir]])</f>
         <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgB_R2_sense</v>
       </c>
     </row>
@@ -16583,15 +16758,16 @@
         <f ca="1">'2_combined'!H19</f>
         <v>branch</v>
       </c>
-      <c r="L18" t="s">
-        <v>110</v>
+      <c r="L18" t="str">
+        <f>subst_type</f>
+        <v>without</v>
       </c>
       <c r="M18" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", libraries_3, "/",Table5[[#This Row],[dir]], ".tsv -o ", libraries_4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
         <v>python 2_graph_processing/make_main_data.py -i libraries_3/WT_sgB_R2_branch.tsv -o libraries_4/WT_sgB_R2_branch -ref ref_seq/1DSB_R2_branch.fa -dsb 46 --dsb_type 1 --strand R2 --hguide B --cell WT --treatment branch --subst_type without --control none</v>
       </c>
       <c r="N18" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", libraries_4, "/", Table5[[#This Row],[dir]])</f>
         <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgB_R2_branch</v>
       </c>
     </row>
@@ -16639,15 +16815,16 @@
         <f ca="1">'2_combined'!H20</f>
         <v>cmv</v>
       </c>
-      <c r="L19" t="s">
-        <v>110</v>
+      <c r="L19" t="str">
+        <f>subst_type</f>
+        <v>without</v>
       </c>
       <c r="M19" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", libraries_3, "/",Table5[[#This Row],[dir]], ".tsv -o ", libraries_4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
         <v>python 2_graph_processing/make_main_data.py -i libraries_3/WT_sgB_R2_cmv.tsv -o libraries_4/WT_sgB_R2_cmv -ref ref_seq/1DSB_R2_cmv.fa -dsb 46 --dsb_type 1 --strand R2 --hguide B --cell WT --treatment cmv --subst_type without --control none</v>
       </c>
       <c r="N19" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", libraries_4, "/", Table5[[#This Row],[dir]])</f>
         <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgB_R2_cmv</v>
       </c>
     </row>
@@ -16695,15 +16872,16 @@
         <f ca="1">'2_combined'!H21</f>
         <v>sense</v>
       </c>
-      <c r="L20" t="s">
-        <v>110</v>
+      <c r="L20" t="str">
+        <f>subst_type</f>
+        <v>without</v>
       </c>
       <c r="M20" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", libraries_3, "/",Table5[[#This Row],[dir]], ".tsv -o ", libraries_4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
         <v>python 2_graph_processing/make_main_data.py -i libraries_3/KO_sgA_R1_sense.tsv -o libraries_4/KO_sgA_R1_sense -ref ref_seq/1DSB_R1_sense.fa -dsb 67 --dsb_type 1 --strand R1 --hguide A --cell KO --treatment sense --subst_type without --control none</v>
       </c>
       <c r="N20" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", libraries_4, "/", Table5[[#This Row],[dir]])</f>
         <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgA_R1_sense</v>
       </c>
     </row>
@@ -16751,15 +16929,16 @@
         <f ca="1">'2_combined'!H22</f>
         <v>branch</v>
       </c>
-      <c r="L21" t="s">
-        <v>110</v>
+      <c r="L21" t="str">
+        <f>subst_type</f>
+        <v>without</v>
       </c>
       <c r="M21" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", libraries_3, "/",Table5[[#This Row],[dir]], ".tsv -o ", libraries_4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
         <v>python 2_graph_processing/make_main_data.py -i libraries_3/KO_sgA_R1_branch.tsv -o libraries_4/KO_sgA_R1_branch -ref ref_seq/1DSB_R1_branch.fa -dsb 67 --dsb_type 1 --strand R1 --hguide A --cell KO --treatment branch --subst_type without --control none</v>
       </c>
       <c r="N21" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", libraries_4, "/", Table5[[#This Row],[dir]])</f>
         <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgA_R1_branch</v>
       </c>
     </row>
@@ -16807,15 +16986,16 @@
         <f ca="1">'2_combined'!H23</f>
         <v>cmv</v>
       </c>
-      <c r="L22" t="s">
-        <v>110</v>
+      <c r="L22" t="str">
+        <f>subst_type</f>
+        <v>without</v>
       </c>
       <c r="M22" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", libraries_3, "/",Table5[[#This Row],[dir]], ".tsv -o ", libraries_4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
         <v>python 2_graph_processing/make_main_data.py -i libraries_3/KO_sgA_R1_cmv.tsv -o libraries_4/KO_sgA_R1_cmv -ref ref_seq/1DSB_R1_cmv.fa -dsb 67 --dsb_type 1 --strand R1 --hguide A --cell KO --treatment cmv --subst_type without --control none</v>
       </c>
       <c r="N22" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", libraries_4, "/", Table5[[#This Row],[dir]])</f>
         <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgA_R1_cmv</v>
       </c>
     </row>
@@ -16863,15 +17043,16 @@
         <f ca="1">'2_combined'!H24</f>
         <v>sense</v>
       </c>
-      <c r="L23" t="s">
-        <v>110</v>
+      <c r="L23" t="str">
+        <f>subst_type</f>
+        <v>without</v>
       </c>
       <c r="M23" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", libraries_3, "/",Table5[[#This Row],[dir]], ".tsv -o ", libraries_4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
         <v>python 2_graph_processing/make_main_data.py -i libraries_3/KO_sgB_R2_sense.tsv -o libraries_4/KO_sgB_R2_sense -ref ref_seq/1DSB_R2_sense.fa -dsb 46 --dsb_type 1 --strand R2 --hguide B --cell KO --treatment sense --subst_type without --control none</v>
       </c>
       <c r="N23" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", libraries_4, "/", Table5[[#This Row],[dir]])</f>
         <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgB_R2_sense</v>
       </c>
     </row>
@@ -16919,15 +17100,16 @@
         <f ca="1">'2_combined'!H25</f>
         <v>branch</v>
       </c>
-      <c r="L24" t="s">
-        <v>110</v>
+      <c r="L24" t="str">
+        <f>subst_type</f>
+        <v>without</v>
       </c>
       <c r="M24" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", libraries_3, "/",Table5[[#This Row],[dir]], ".tsv -o ", libraries_4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
         <v>python 2_graph_processing/make_main_data.py -i libraries_3/KO_sgB_R2_branch.tsv -o libraries_4/KO_sgB_R2_branch -ref ref_seq/1DSB_R2_branch.fa -dsb 46 --dsb_type 1 --strand R2 --hguide B --cell KO --treatment branch --subst_type without --control none</v>
       </c>
       <c r="N24" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", libraries_4, "/", Table5[[#This Row],[dir]])</f>
         <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgB_R2_branch</v>
       </c>
     </row>
@@ -16975,15 +17157,16 @@
         <f ca="1">'2_combined'!H26</f>
         <v>cmv</v>
       </c>
-      <c r="L25" t="s">
-        <v>110</v>
+      <c r="L25" t="str">
+        <f>subst_type</f>
+        <v>without</v>
       </c>
       <c r="M25" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", libraries_3, "/",Table5[[#This Row],[dir]], ".tsv -o ", libraries_4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
         <v>python 2_graph_processing/make_main_data.py -i libraries_3/KO_sgB_R2_cmv.tsv -o libraries_4/KO_sgB_R2_cmv -ref ref_seq/1DSB_R2_cmv.fa -dsb 46 --dsb_type 1 --strand R2 --hguide B --cell KO --treatment cmv --subst_type without --control none</v>
       </c>
       <c r="N25" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", libraries_4, "/", Table5[[#This Row],[dir]])</f>
         <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgB_R2_cmv</v>
       </c>
     </row>
@@ -17031,15 +17214,16 @@
         <f ca="1">'2_combined'!H27</f>
         <v>antisense</v>
       </c>
-      <c r="L26" t="s">
-        <v>110</v>
+      <c r="L26" t="str">
+        <f>subst_type</f>
+        <v>without</v>
       </c>
       <c r="M26" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", libraries_3, "/",Table5[[#This Row],[dir]], ".tsv -o ", libraries_4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
         <v>python 2_graph_processing/make_main_data.py -i libraries_3/WT_sgCD_R1_antisense.tsv -o libraries_4/WT_sgCD_R1_antisense -ref ref_seq/2DSBanti_R1_antisense.fa -dsb 50 --dsb_type 2a --strand R1 --hguide CD --cell WT --treatment antisense --subst_type without --control none</v>
       </c>
       <c r="N26" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", libraries_4, "/", Table5[[#This Row],[dir]])</f>
         <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgCD_R1_antisense</v>
       </c>
     </row>
@@ -17087,15 +17271,16 @@
         <f ca="1">'2_combined'!H28</f>
         <v>splicing</v>
       </c>
-      <c r="L27" t="s">
-        <v>110</v>
+      <c r="L27" t="str">
+        <f>subst_type</f>
+        <v>without</v>
       </c>
       <c r="M27" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", libraries_3, "/",Table5[[#This Row],[dir]], ".tsv -o ", libraries_4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
         <v>python 2_graph_processing/make_main_data.py -i libraries_3/WT_sgCD_R1_splicing.tsv -o libraries_4/WT_sgCD_R1_splicing -ref ref_seq/2DSBanti_R1_splicing.fa -dsb 50 --dsb_type 2a --strand R1 --hguide CD --cell WT --treatment splicing --subst_type without --control none</v>
       </c>
       <c r="N27" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", libraries_4, "/", Table5[[#This Row],[dir]])</f>
         <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgCD_R1_splicing</v>
       </c>
     </row>
@@ -17143,15 +17328,16 @@
         <f ca="1">'2_combined'!H29</f>
         <v>antisense</v>
       </c>
-      <c r="L28" t="s">
-        <v>110</v>
+      <c r="L28" t="str">
+        <f>subst_type</f>
+        <v>without</v>
       </c>
       <c r="M28" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", libraries_3, "/",Table5[[#This Row],[dir]], ".tsv -o ", libraries_4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
         <v>python 2_graph_processing/make_main_data.py -i libraries_3/WT_sgCD_R2_antisense.tsv -o libraries_4/WT_sgCD_R2_antisense -ref ref_seq/2DSBanti_R2_antisense.fa -dsb 47 --dsb_type 2a --strand R2 --hguide CD --cell WT --treatment antisense --subst_type without --control none</v>
       </c>
       <c r="N28" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", libraries_4, "/", Table5[[#This Row],[dir]])</f>
         <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgCD_R2_antisense</v>
       </c>
     </row>
@@ -17199,15 +17385,16 @@
         <f ca="1">'2_combined'!H30</f>
         <v>splicing</v>
       </c>
-      <c r="L29" t="s">
-        <v>110</v>
+      <c r="L29" t="str">
+        <f>subst_type</f>
+        <v>without</v>
       </c>
       <c r="M29" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", libraries_3, "/",Table5[[#This Row],[dir]], ".tsv -o ", libraries_4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
         <v>python 2_graph_processing/make_main_data.py -i libraries_3/WT_sgCD_R2_splicing.tsv -o libraries_4/WT_sgCD_R2_splicing -ref ref_seq/2DSBanti_R2_splicing.fa -dsb 47 --dsb_type 2a --strand R2 --hguide CD --cell WT --treatment splicing --subst_type without --control none</v>
       </c>
       <c r="N29" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", libraries_4, "/", Table5[[#This Row],[dir]])</f>
         <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgCD_R2_splicing</v>
       </c>
     </row>
@@ -17255,15 +17442,16 @@
         <f ca="1">'2_combined'!H31</f>
         <v>sense</v>
       </c>
-      <c r="L30" t="s">
-        <v>110</v>
+      <c r="L30" t="str">
+        <f>subst_type</f>
+        <v>without</v>
       </c>
       <c r="M30" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", libraries_3, "/",Table5[[#This Row],[dir]], ".tsv -o ", libraries_4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
         <v>python 2_graph_processing/make_main_data.py -i libraries_3/WT_sgA_R1_sense_30bpDown.tsv -o libraries_4/WT_sgA_R1_sense_30bpDown -ref ref_seq/1DSB_R1_sense.fa -dsb 97 --dsb_type 1 --strand R1 --hguide A --cell WT --treatment sense --subst_type without --control 30bpDown</v>
       </c>
       <c r="N30" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", libraries_4, "/", Table5[[#This Row],[dir]])</f>
         <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgA_R1_sense_30bpDown</v>
       </c>
     </row>
@@ -17311,15 +17499,16 @@
         <f ca="1">'2_combined'!H32</f>
         <v>branch</v>
       </c>
-      <c r="L31" t="s">
-        <v>110</v>
+      <c r="L31" t="str">
+        <f>subst_type</f>
+        <v>without</v>
       </c>
       <c r="M31" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", libraries_3, "/",Table5[[#This Row],[dir]], ".tsv -o ", libraries_4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
         <v>python 2_graph_processing/make_main_data.py -i libraries_3/WT_sgA_R1_branch_30bpDown.tsv -o libraries_4/WT_sgA_R1_branch_30bpDown -ref ref_seq/1DSB_R1_branch.fa -dsb 97 --dsb_type 1 --strand R1 --hguide A --cell WT --treatment branch --subst_type without --control 30bpDown</v>
       </c>
       <c r="N31" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", libraries_4, "/", Table5[[#This Row],[dir]])</f>
         <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgA_R1_branch_30bpDown</v>
       </c>
     </row>
@@ -17367,15 +17556,16 @@
         <f ca="1">'2_combined'!H33</f>
         <v>cmv</v>
       </c>
-      <c r="L32" t="s">
-        <v>110</v>
+      <c r="L32" t="str">
+        <f>subst_type</f>
+        <v>without</v>
       </c>
       <c r="M32" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", libraries_3, "/",Table5[[#This Row],[dir]], ".tsv -o ", libraries_4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
         <v>python 2_graph_processing/make_main_data.py -i libraries_3/WT_sgA_R1_cmv_30bpDown.tsv -o libraries_4/WT_sgA_R1_cmv_30bpDown -ref ref_seq/1DSB_R1_cmv.fa -dsb 97 --dsb_type 1 --strand R1 --hguide A --cell WT --treatment cmv --subst_type without --control 30bpDown</v>
       </c>
       <c r="N32" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", libraries_4, "/", Table5[[#This Row],[dir]])</f>
         <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgA_R1_cmv_30bpDown</v>
       </c>
     </row>
@@ -17423,15 +17613,16 @@
         <f ca="1">'2_combined'!H34</f>
         <v>sense</v>
       </c>
-      <c r="L33" t="s">
-        <v>110</v>
+      <c r="L33" t="str">
+        <f>subst_type</f>
+        <v>without</v>
       </c>
       <c r="M33" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", libraries_3, "/",Table5[[#This Row],[dir]], ".tsv -o ", libraries_4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
         <v>python 2_graph_processing/make_main_data.py -i libraries_3/WT_sgB_R2_sense_30bpDown.tsv -o libraries_4/WT_sgB_R2_sense_30bpDown -ref ref_seq/1DSB_R2_sense.fa -dsb 76 --dsb_type 1 --strand R2 --hguide B --cell WT --treatment sense --subst_type without --control 30bpDown</v>
       </c>
       <c r="N33" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", libraries_4, "/", Table5[[#This Row],[dir]])</f>
         <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgB_R2_sense_30bpDown</v>
       </c>
     </row>
@@ -17479,15 +17670,16 @@
         <f ca="1">'2_combined'!H35</f>
         <v>branch</v>
       </c>
-      <c r="L34" t="s">
-        <v>110</v>
+      <c r="L34" t="str">
+        <f>subst_type</f>
+        <v>without</v>
       </c>
       <c r="M34" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", libraries_3, "/",Table5[[#This Row],[dir]], ".tsv -o ", libraries_4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
         <v>python 2_graph_processing/make_main_data.py -i libraries_3/WT_sgB_R2_branch_30bpDown.tsv -o libraries_4/WT_sgB_R2_branch_30bpDown -ref ref_seq/1DSB_R2_branch.fa -dsb 76 --dsb_type 1 --strand R2 --hguide B --cell WT --treatment branch --subst_type without --control 30bpDown</v>
       </c>
       <c r="N34" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", libraries_4, "/", Table5[[#This Row],[dir]])</f>
         <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgB_R2_branch_30bpDown</v>
       </c>
     </row>
@@ -17535,15 +17727,16 @@
         <f ca="1">'2_combined'!H36</f>
         <v>cmv</v>
       </c>
-      <c r="L35" t="s">
-        <v>110</v>
+      <c r="L35" t="str">
+        <f>subst_type</f>
+        <v>without</v>
       </c>
       <c r="M35" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", libraries_3, "/",Table5[[#This Row],[dir]], ".tsv -o ", libraries_4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
         <v>python 2_graph_processing/make_main_data.py -i libraries_3/WT_sgB_R2_cmv_30bpDown.tsv -o libraries_4/WT_sgB_R2_cmv_30bpDown -ref ref_seq/1DSB_R2_cmv.fa -dsb 76 --dsb_type 1 --strand R2 --hguide B --cell WT --treatment cmv --subst_type without --control 30bpDown</v>
       </c>
       <c r="N35" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", libraries_4, "/", Table5[[#This Row],[dir]])</f>
         <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgB_R2_cmv_30bpDown</v>
       </c>
     </row>
@@ -17591,15 +17784,16 @@
         <f ca="1">'2_combined'!H37</f>
         <v>sense</v>
       </c>
-      <c r="L36" t="s">
-        <v>110</v>
+      <c r="L36" t="str">
+        <f>subst_type</f>
+        <v>without</v>
       </c>
       <c r="M36" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", libraries_3, "/",Table5[[#This Row],[dir]], ".tsv -o ", libraries_4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
         <v>python 2_graph_processing/make_main_data.py -i libraries_3/KO_sgA_R1_sense_30bpDown.tsv -o libraries_4/KO_sgA_R1_sense_30bpDown -ref ref_seq/1DSB_R1_sense.fa -dsb 97 --dsb_type 1 --strand R1 --hguide A --cell KO --treatment sense --subst_type without --control 30bpDown</v>
       </c>
       <c r="N36" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", libraries_4, "/", Table5[[#This Row],[dir]])</f>
         <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgA_R1_sense_30bpDown</v>
       </c>
     </row>
@@ -17647,15 +17841,16 @@
         <f ca="1">'2_combined'!H38</f>
         <v>branch</v>
       </c>
-      <c r="L37" t="s">
-        <v>110</v>
+      <c r="L37" t="str">
+        <f>subst_type</f>
+        <v>without</v>
       </c>
       <c r="M37" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", libraries_3, "/",Table5[[#This Row],[dir]], ".tsv -o ", libraries_4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
         <v>python 2_graph_processing/make_main_data.py -i libraries_3/KO_sgA_R1_branch_30bpDown.tsv -o libraries_4/KO_sgA_R1_branch_30bpDown -ref ref_seq/1DSB_R1_branch.fa -dsb 97 --dsb_type 1 --strand R1 --hguide A --cell KO --treatment branch --subst_type without --control 30bpDown</v>
       </c>
       <c r="N37" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", libraries_4, "/", Table5[[#This Row],[dir]])</f>
         <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgA_R1_branch_30bpDown</v>
       </c>
     </row>
@@ -17703,15 +17898,16 @@
         <f ca="1">'2_combined'!H39</f>
         <v>cmv</v>
       </c>
-      <c r="L38" t="s">
-        <v>110</v>
+      <c r="L38" t="str">
+        <f>subst_type</f>
+        <v>without</v>
       </c>
       <c r="M38" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", libraries_3, "/",Table5[[#This Row],[dir]], ".tsv -o ", libraries_4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
         <v>python 2_graph_processing/make_main_data.py -i libraries_3/KO_sgA_R1_cmv_30bpDown.tsv -o libraries_4/KO_sgA_R1_cmv_30bpDown -ref ref_seq/1DSB_R1_cmv.fa -dsb 97 --dsb_type 1 --strand R1 --hguide A --cell KO --treatment cmv --subst_type without --control 30bpDown</v>
       </c>
       <c r="N38" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", libraries_4, "/", Table5[[#This Row],[dir]])</f>
         <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgA_R1_cmv_30bpDown</v>
       </c>
     </row>
@@ -17759,15 +17955,16 @@
         <f ca="1">'2_combined'!H40</f>
         <v>sense</v>
       </c>
-      <c r="L39" t="s">
-        <v>110</v>
+      <c r="L39" t="str">
+        <f>subst_type</f>
+        <v>without</v>
       </c>
       <c r="M39" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", libraries_3, "/",Table5[[#This Row],[dir]], ".tsv -o ", libraries_4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
         <v>python 2_graph_processing/make_main_data.py -i libraries_3/KO_sgB_R2_sense_30bpDown.tsv -o libraries_4/KO_sgB_R2_sense_30bpDown -ref ref_seq/1DSB_R2_sense.fa -dsb 76 --dsb_type 1 --strand R2 --hguide B --cell KO --treatment sense --subst_type without --control 30bpDown</v>
       </c>
       <c r="N39" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", libraries_4, "/", Table5[[#This Row],[dir]])</f>
         <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgB_R2_sense_30bpDown</v>
       </c>
     </row>
@@ -17815,15 +18012,16 @@
         <f ca="1">'2_combined'!H41</f>
         <v>branch</v>
       </c>
-      <c r="L40" t="s">
-        <v>110</v>
+      <c r="L40" t="str">
+        <f>subst_type</f>
+        <v>without</v>
       </c>
       <c r="M40" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", libraries_3, "/",Table5[[#This Row],[dir]], ".tsv -o ", libraries_4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
         <v>python 2_graph_processing/make_main_data.py -i libraries_3/KO_sgB_R2_branch_30bpDown.tsv -o libraries_4/KO_sgB_R2_branch_30bpDown -ref ref_seq/1DSB_R2_branch.fa -dsb 76 --dsb_type 1 --strand R2 --hguide B --cell KO --treatment branch --subst_type without --control 30bpDown</v>
       </c>
       <c r="N40" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", libraries_4, "/", Table5[[#This Row],[dir]])</f>
         <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgB_R2_branch_30bpDown</v>
       </c>
     </row>
@@ -17871,15 +18069,16 @@
         <f ca="1">'2_combined'!H42</f>
         <v>cmv</v>
       </c>
-      <c r="L41" t="s">
-        <v>110</v>
+      <c r="L41" t="str">
+        <f>subst_type</f>
+        <v>without</v>
       </c>
       <c r="M41" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", dirs!$A$3, "/",Table5[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", libraries_3, "/",Table5[[#This Row],[dir]], ".tsv -o ", libraries_4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</f>
         <v>python 2_graph_processing/make_main_data.py -i libraries_3/KO_sgB_R2_cmv_30bpDown.tsv -o libraries_4/KO_sgB_R2_cmv_30bpDown -ref ref_seq/1DSB_R2_cmv.fa -dsb 76 --dsb_type 1 --strand R2 --hguide B --cell KO --treatment cmv --subst_type without --control 30bpDown</v>
       </c>
       <c r="N41" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table5[[#This Row],[dir]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", libraries_4, "/", Table5[[#This Row],[dir]])</f>
         <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgB_R2_cmv_30bpDown</v>
       </c>
     </row>
@@ -17971,15 +18170,16 @@
         <f>'2_combined'!H45</f>
         <v>sense</v>
       </c>
-      <c r="L44" t="s">
-        <v>110</v>
+      <c r="L44" t="str">
+        <f>subst_type</f>
+        <v>without</v>
       </c>
       <c r="M44" t="str">
-        <f>_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", dirs!$A$3, "/",Table10[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table10[[#This Row],[dir]], " -ref ref_seq/", Table10[[#This Row],[ref]], " -dsb ", Table10[[#This Row],[dsb_pos]], " --dsb_type ",Table10[[#This Row],[dsb_type_command]], " --strand ", Table10[[#This Row],[strand]], " --hguide ", Table10[[#This Row],[hguide]], " --cell ", Table10[[#This Row],[cell]], " --treatment ", Table10[[#This Row],[treatment]], " --subst_type ", Table10[[#This Row],[subst_type]], " --control ", Table10[[#This Row],[control]])</f>
+        <f>_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", libraries_3, "/",Table10[[#This Row],[dir]], ".tsv -o ", libraries_4, "/", Table10[[#This Row],[dir]], " -ref ref_seq/", Table10[[#This Row],[ref]], " -dsb ", Table10[[#This Row],[dsb_pos]], " --dsb_type ",Table10[[#This Row],[dsb_type_command]], " --strand ", Table10[[#This Row],[strand]], " --hguide ", Table10[[#This Row],[hguide]], " --cell ", Table10[[#This Row],[cell]], " --treatment ", Table10[[#This Row],[treatment]], " --subst_type ", Table10[[#This Row],[subst_type]], " --control ", Table10[[#This Row],[control]])</f>
         <v>python 2_graph_processing/make_main_data.py -i libraries_3/WT_sgA_R1_sense_nodsb.tsv -o libraries_4/WT_sgA_R1_sense_nodsb -ref ref_seq/1DSB_R1_sense.fa -dsb 67 --dsb_type 1 --strand R1 --hguide A --cell WT --treatment sense --subst_type without --control noDSB</v>
       </c>
       <c r="N44" t="str">
-        <f>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table10[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table10[[#This Row],[dir]])</f>
+        <f>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table10[[#This Row],[subst_type]], " -dir ", libraries_4, "/", Table10[[#This Row],[dir]])</f>
         <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgA_R1_sense_nodsb</v>
       </c>
     </row>
@@ -18027,15 +18227,16 @@
         <f>'2_combined'!H46</f>
         <v>branch</v>
       </c>
-      <c r="L45" t="s">
-        <v>110</v>
+      <c r="L45" t="str">
+        <f>subst_type</f>
+        <v>without</v>
       </c>
       <c r="M45" t="str">
-        <f>_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", dirs!$A$3, "/",Table10[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table10[[#This Row],[dir]], " -ref ref_seq/", Table10[[#This Row],[ref]], " -dsb ", Table10[[#This Row],[dsb_pos]], " --dsb_type ",Table10[[#This Row],[dsb_type_command]], " --strand ", Table10[[#This Row],[strand]], " --hguide ", Table10[[#This Row],[hguide]], " --cell ", Table10[[#This Row],[cell]], " --treatment ", Table10[[#This Row],[treatment]], " --subst_type ", Table10[[#This Row],[subst_type]], " --control ", Table10[[#This Row],[control]])</f>
+        <f>_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", libraries_3, "/",Table10[[#This Row],[dir]], ".tsv -o ", libraries_4, "/", Table10[[#This Row],[dir]], " -ref ref_seq/", Table10[[#This Row],[ref]], " -dsb ", Table10[[#This Row],[dsb_pos]], " --dsb_type ",Table10[[#This Row],[dsb_type_command]], " --strand ", Table10[[#This Row],[strand]], " --hguide ", Table10[[#This Row],[hguide]], " --cell ", Table10[[#This Row],[cell]], " --treatment ", Table10[[#This Row],[treatment]], " --subst_type ", Table10[[#This Row],[subst_type]], " --control ", Table10[[#This Row],[control]])</f>
         <v>python 2_graph_processing/make_main_data.py -i libraries_3/WT_sgA_R1_branch_nodsb.tsv -o libraries_4/WT_sgA_R1_branch_nodsb -ref ref_seq/1DSB_R1_branch.fa -dsb 67 --dsb_type 1 --strand R1 --hguide A --cell WT --treatment branch --subst_type without --control noDSB</v>
       </c>
       <c r="N45" t="str">
-        <f>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table10[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table10[[#This Row],[dir]])</f>
+        <f>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table10[[#This Row],[subst_type]], " -dir ", libraries_4, "/", Table10[[#This Row],[dir]])</f>
         <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgA_R1_branch_nodsb</v>
       </c>
     </row>
@@ -18083,15 +18284,16 @@
         <f>'2_combined'!H47</f>
         <v>cmv</v>
       </c>
-      <c r="L46" t="s">
-        <v>110</v>
+      <c r="L46" t="str">
+        <f>subst_type</f>
+        <v>without</v>
       </c>
       <c r="M46" t="str">
-        <f>_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", dirs!$A$3, "/",Table10[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table10[[#This Row],[dir]], " -ref ref_seq/", Table10[[#This Row],[ref]], " -dsb ", Table10[[#This Row],[dsb_pos]], " --dsb_type ",Table10[[#This Row],[dsb_type_command]], " --strand ", Table10[[#This Row],[strand]], " --hguide ", Table10[[#This Row],[hguide]], " --cell ", Table10[[#This Row],[cell]], " --treatment ", Table10[[#This Row],[treatment]], " --subst_type ", Table10[[#This Row],[subst_type]], " --control ", Table10[[#This Row],[control]])</f>
+        <f>_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", libraries_3, "/",Table10[[#This Row],[dir]], ".tsv -o ", libraries_4, "/", Table10[[#This Row],[dir]], " -ref ref_seq/", Table10[[#This Row],[ref]], " -dsb ", Table10[[#This Row],[dsb_pos]], " --dsb_type ",Table10[[#This Row],[dsb_type_command]], " --strand ", Table10[[#This Row],[strand]], " --hguide ", Table10[[#This Row],[hguide]], " --cell ", Table10[[#This Row],[cell]], " --treatment ", Table10[[#This Row],[treatment]], " --subst_type ", Table10[[#This Row],[subst_type]], " --control ", Table10[[#This Row],[control]])</f>
         <v>python 2_graph_processing/make_main_data.py -i libraries_3/WT_sgA_R1_cmv_nodsb.tsv -o libraries_4/WT_sgA_R1_cmv_nodsb -ref ref_seq/1DSB_R1_cmv.fa -dsb 67 --dsb_type 1 --strand R1 --hguide A --cell WT --treatment cmv --subst_type without --control noDSB</v>
       </c>
       <c r="N46" t="str">
-        <f>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table10[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table10[[#This Row],[dir]])</f>
+        <f>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table10[[#This Row],[subst_type]], " -dir ", libraries_4, "/", Table10[[#This Row],[dir]])</f>
         <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgA_R1_cmv_nodsb</v>
       </c>
     </row>
@@ -18139,15 +18341,16 @@
         <f>'2_combined'!H48</f>
         <v>sense</v>
       </c>
-      <c r="L47" t="s">
-        <v>110</v>
+      <c r="L47" t="str">
+        <f>subst_type</f>
+        <v>without</v>
       </c>
       <c r="M47" t="str">
-        <f>_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", dirs!$A$3, "/",Table10[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table10[[#This Row],[dir]], " -ref ref_seq/", Table10[[#This Row],[ref]], " -dsb ", Table10[[#This Row],[dsb_pos]], " --dsb_type ",Table10[[#This Row],[dsb_type_command]], " --strand ", Table10[[#This Row],[strand]], " --hguide ", Table10[[#This Row],[hguide]], " --cell ", Table10[[#This Row],[cell]], " --treatment ", Table10[[#This Row],[treatment]], " --subst_type ", Table10[[#This Row],[subst_type]], " --control ", Table10[[#This Row],[control]])</f>
+        <f>_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", libraries_3, "/",Table10[[#This Row],[dir]], ".tsv -o ", libraries_4, "/", Table10[[#This Row],[dir]], " -ref ref_seq/", Table10[[#This Row],[ref]], " -dsb ", Table10[[#This Row],[dsb_pos]], " --dsb_type ",Table10[[#This Row],[dsb_type_command]], " --strand ", Table10[[#This Row],[strand]], " --hguide ", Table10[[#This Row],[hguide]], " --cell ", Table10[[#This Row],[cell]], " --treatment ", Table10[[#This Row],[treatment]], " --subst_type ", Table10[[#This Row],[subst_type]], " --control ", Table10[[#This Row],[control]])</f>
         <v>python 2_graph_processing/make_main_data.py -i libraries_3/KO_sgA_R1_sense_nodsb.tsv -o libraries_4/KO_sgA_R1_sense_nodsb -ref ref_seq/1DSB_R1_sense.fa -dsb 67 --dsb_type 1 --strand R1 --hguide A --cell KO --treatment sense --subst_type without --control noDSB</v>
       </c>
       <c r="N47" t="str">
-        <f>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table10[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table10[[#This Row],[dir]])</f>
+        <f>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table10[[#This Row],[subst_type]], " -dir ", libraries_4, "/", Table10[[#This Row],[dir]])</f>
         <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgA_R1_sense_nodsb</v>
       </c>
     </row>
@@ -18195,15 +18398,16 @@
         <f>'2_combined'!H49</f>
         <v>branch</v>
       </c>
-      <c r="L48" t="s">
-        <v>110</v>
+      <c r="L48" t="str">
+        <f>subst_type</f>
+        <v>without</v>
       </c>
       <c r="M48" t="str">
-        <f>_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", dirs!$A$3, "/",Table10[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table10[[#This Row],[dir]], " -ref ref_seq/", Table10[[#This Row],[ref]], " -dsb ", Table10[[#This Row],[dsb_pos]], " --dsb_type ",Table10[[#This Row],[dsb_type_command]], " --strand ", Table10[[#This Row],[strand]], " --hguide ", Table10[[#This Row],[hguide]], " --cell ", Table10[[#This Row],[cell]], " --treatment ", Table10[[#This Row],[treatment]], " --subst_type ", Table10[[#This Row],[subst_type]], " --control ", Table10[[#This Row],[control]])</f>
+        <f>_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", libraries_3, "/",Table10[[#This Row],[dir]], ".tsv -o ", libraries_4, "/", Table10[[#This Row],[dir]], " -ref ref_seq/", Table10[[#This Row],[ref]], " -dsb ", Table10[[#This Row],[dsb_pos]], " --dsb_type ",Table10[[#This Row],[dsb_type_command]], " --strand ", Table10[[#This Row],[strand]], " --hguide ", Table10[[#This Row],[hguide]], " --cell ", Table10[[#This Row],[cell]], " --treatment ", Table10[[#This Row],[treatment]], " --subst_type ", Table10[[#This Row],[subst_type]], " --control ", Table10[[#This Row],[control]])</f>
         <v>python 2_graph_processing/make_main_data.py -i libraries_3/KO_sgA_R1_branch_nodsb.tsv -o libraries_4/KO_sgA_R1_branch_nodsb -ref ref_seq/1DSB_R1_branch.fa -dsb 67 --dsb_type 1 --strand R1 --hguide A --cell KO --treatment branch --subst_type without --control noDSB</v>
       </c>
       <c r="N48" t="str">
-        <f>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table10[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table10[[#This Row],[dir]])</f>
+        <f>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table10[[#This Row],[subst_type]], " -dir ", libraries_4, "/", Table10[[#This Row],[dir]])</f>
         <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgA_R1_branch_nodsb</v>
       </c>
     </row>
@@ -18251,15 +18455,16 @@
         <f>'2_combined'!H50</f>
         <v>cmv</v>
       </c>
-      <c r="L49" t="s">
-        <v>110</v>
+      <c r="L49" t="str">
+        <f>subst_type</f>
+        <v>without</v>
       </c>
       <c r="M49" t="str">
-        <f>_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", dirs!$A$3, "/",Table10[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table10[[#This Row],[dir]], " -ref ref_seq/", Table10[[#This Row],[ref]], " -dsb ", Table10[[#This Row],[dsb_pos]], " --dsb_type ",Table10[[#This Row],[dsb_type_command]], " --strand ", Table10[[#This Row],[strand]], " --hguide ", Table10[[#This Row],[hguide]], " --cell ", Table10[[#This Row],[cell]], " --treatment ", Table10[[#This Row],[treatment]], " --subst_type ", Table10[[#This Row],[subst_type]], " --control ", Table10[[#This Row],[control]])</f>
+        <f>_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", libraries_3, "/",Table10[[#This Row],[dir]], ".tsv -o ", libraries_4, "/", Table10[[#This Row],[dir]], " -ref ref_seq/", Table10[[#This Row],[ref]], " -dsb ", Table10[[#This Row],[dsb_pos]], " --dsb_type ",Table10[[#This Row],[dsb_type_command]], " --strand ", Table10[[#This Row],[strand]], " --hguide ", Table10[[#This Row],[hguide]], " --cell ", Table10[[#This Row],[cell]], " --treatment ", Table10[[#This Row],[treatment]], " --subst_type ", Table10[[#This Row],[subst_type]], " --control ", Table10[[#This Row],[control]])</f>
         <v>python 2_graph_processing/make_main_data.py -i libraries_3/KO_sgA_R1_cmv_nodsb.tsv -o libraries_4/KO_sgA_R1_cmv_nodsb -ref ref_seq/1DSB_R1_cmv.fa -dsb 67 --dsb_type 1 --strand R1 --hguide A --cell KO --treatment cmv --subst_type without --control noDSB</v>
       </c>
       <c r="N49" t="str">
-        <f>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table10[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table10[[#This Row],[dir]])</f>
+        <f>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table10[[#This Row],[subst_type]], " -dir ", libraries_4, "/", Table10[[#This Row],[dir]])</f>
         <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgA_R1_cmv_nodsb</v>
       </c>
     </row>
@@ -18307,15 +18512,16 @@
         <f>'2_combined'!H51</f>
         <v>sense</v>
       </c>
-      <c r="L50" t="s">
-        <v>110</v>
+      <c r="L50" t="str">
+        <f>subst_type</f>
+        <v>without</v>
       </c>
       <c r="M50" t="str">
-        <f>_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", dirs!$A$3, "/",Table10[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table10[[#This Row],[dir]], " -ref ref_seq/", Table10[[#This Row],[ref]], " -dsb ", Table10[[#This Row],[dsb_pos]], " --dsb_type ",Table10[[#This Row],[dsb_type_command]], " --strand ", Table10[[#This Row],[strand]], " --hguide ", Table10[[#This Row],[hguide]], " --cell ", Table10[[#This Row],[cell]], " --treatment ", Table10[[#This Row],[treatment]], " --subst_type ", Table10[[#This Row],[subst_type]], " --control ", Table10[[#This Row],[control]])</f>
+        <f>_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", libraries_3, "/",Table10[[#This Row],[dir]], ".tsv -o ", libraries_4, "/", Table10[[#This Row],[dir]], " -ref ref_seq/", Table10[[#This Row],[ref]], " -dsb ", Table10[[#This Row],[dsb_pos]], " --dsb_type ",Table10[[#This Row],[dsb_type_command]], " --strand ", Table10[[#This Row],[strand]], " --hguide ", Table10[[#This Row],[hguide]], " --cell ", Table10[[#This Row],[cell]], " --treatment ", Table10[[#This Row],[treatment]], " --subst_type ", Table10[[#This Row],[subst_type]], " --control ", Table10[[#This Row],[control]])</f>
         <v>python 2_graph_processing/make_main_data.py -i libraries_3/WT_sgB_R2_sense_nodsb.tsv -o libraries_4/WT_sgB_R2_sense_nodsb -ref ref_seq/1DSB_R2_sense.fa -dsb 46 --dsb_type 1 --strand R2 --hguide B --cell WT --treatment sense --subst_type without --control noDSB</v>
       </c>
       <c r="N50" t="str">
-        <f>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table10[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table10[[#This Row],[dir]])</f>
+        <f>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table10[[#This Row],[subst_type]], " -dir ", libraries_4, "/", Table10[[#This Row],[dir]])</f>
         <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgB_R2_sense_nodsb</v>
       </c>
     </row>
@@ -18363,15 +18569,16 @@
         <f>'2_combined'!H52</f>
         <v>branch</v>
       </c>
-      <c r="L51" t="s">
-        <v>110</v>
+      <c r="L51" t="str">
+        <f>subst_type</f>
+        <v>without</v>
       </c>
       <c r="M51" t="str">
-        <f>_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", dirs!$A$3, "/",Table10[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table10[[#This Row],[dir]], " -ref ref_seq/", Table10[[#This Row],[ref]], " -dsb ", Table10[[#This Row],[dsb_pos]], " --dsb_type ",Table10[[#This Row],[dsb_type_command]], " --strand ", Table10[[#This Row],[strand]], " --hguide ", Table10[[#This Row],[hguide]], " --cell ", Table10[[#This Row],[cell]], " --treatment ", Table10[[#This Row],[treatment]], " --subst_type ", Table10[[#This Row],[subst_type]], " --control ", Table10[[#This Row],[control]])</f>
+        <f>_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", libraries_3, "/",Table10[[#This Row],[dir]], ".tsv -o ", libraries_4, "/", Table10[[#This Row],[dir]], " -ref ref_seq/", Table10[[#This Row],[ref]], " -dsb ", Table10[[#This Row],[dsb_pos]], " --dsb_type ",Table10[[#This Row],[dsb_type_command]], " --strand ", Table10[[#This Row],[strand]], " --hguide ", Table10[[#This Row],[hguide]], " --cell ", Table10[[#This Row],[cell]], " --treatment ", Table10[[#This Row],[treatment]], " --subst_type ", Table10[[#This Row],[subst_type]], " --control ", Table10[[#This Row],[control]])</f>
         <v>python 2_graph_processing/make_main_data.py -i libraries_3/WT_sgB_R2_branch_nodsb.tsv -o libraries_4/WT_sgB_R2_branch_nodsb -ref ref_seq/1DSB_R2_branch.fa -dsb 46 --dsb_type 1 --strand R2 --hguide B --cell WT --treatment branch --subst_type without --control noDSB</v>
       </c>
       <c r="N51" t="str">
-        <f>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table10[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table10[[#This Row],[dir]])</f>
+        <f>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table10[[#This Row],[subst_type]], " -dir ", libraries_4, "/", Table10[[#This Row],[dir]])</f>
         <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgB_R2_branch_nodsb</v>
       </c>
     </row>
@@ -18419,15 +18626,16 @@
         <f>'2_combined'!H53</f>
         <v>cmv</v>
       </c>
-      <c r="L52" t="s">
-        <v>110</v>
+      <c r="L52" t="str">
+        <f>subst_type</f>
+        <v>without</v>
       </c>
       <c r="M52" t="str">
-        <f>_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", dirs!$A$3, "/",Table10[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table10[[#This Row],[dir]], " -ref ref_seq/", Table10[[#This Row],[ref]], " -dsb ", Table10[[#This Row],[dsb_pos]], " --dsb_type ",Table10[[#This Row],[dsb_type_command]], " --strand ", Table10[[#This Row],[strand]], " --hguide ", Table10[[#This Row],[hguide]], " --cell ", Table10[[#This Row],[cell]], " --treatment ", Table10[[#This Row],[treatment]], " --subst_type ", Table10[[#This Row],[subst_type]], " --control ", Table10[[#This Row],[control]])</f>
+        <f>_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", libraries_3, "/",Table10[[#This Row],[dir]], ".tsv -o ", libraries_4, "/", Table10[[#This Row],[dir]], " -ref ref_seq/", Table10[[#This Row],[ref]], " -dsb ", Table10[[#This Row],[dsb_pos]], " --dsb_type ",Table10[[#This Row],[dsb_type_command]], " --strand ", Table10[[#This Row],[strand]], " --hguide ", Table10[[#This Row],[hguide]], " --cell ", Table10[[#This Row],[cell]], " --treatment ", Table10[[#This Row],[treatment]], " --subst_type ", Table10[[#This Row],[subst_type]], " --control ", Table10[[#This Row],[control]])</f>
         <v>python 2_graph_processing/make_main_data.py -i libraries_3/WT_sgB_R2_cmv_nodsb.tsv -o libraries_4/WT_sgB_R2_cmv_nodsb -ref ref_seq/1DSB_R2_cmv.fa -dsb 46 --dsb_type 1 --strand R2 --hguide B --cell WT --treatment cmv --subst_type without --control noDSB</v>
       </c>
       <c r="N52" t="str">
-        <f>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table10[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table10[[#This Row],[dir]])</f>
+        <f>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table10[[#This Row],[subst_type]], " -dir ", libraries_4, "/", Table10[[#This Row],[dir]])</f>
         <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgB_R2_cmv_nodsb</v>
       </c>
     </row>
@@ -18475,15 +18683,16 @@
         <f>'2_combined'!H54</f>
         <v>sense</v>
       </c>
-      <c r="L53" t="s">
-        <v>110</v>
+      <c r="L53" t="str">
+        <f>subst_type</f>
+        <v>without</v>
       </c>
       <c r="M53" t="str">
-        <f>_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", dirs!$A$3, "/",Table10[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table10[[#This Row],[dir]], " -ref ref_seq/", Table10[[#This Row],[ref]], " -dsb ", Table10[[#This Row],[dsb_pos]], " --dsb_type ",Table10[[#This Row],[dsb_type_command]], " --strand ", Table10[[#This Row],[strand]], " --hguide ", Table10[[#This Row],[hguide]], " --cell ", Table10[[#This Row],[cell]], " --treatment ", Table10[[#This Row],[treatment]], " --subst_type ", Table10[[#This Row],[subst_type]], " --control ", Table10[[#This Row],[control]])</f>
+        <f>_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", libraries_3, "/",Table10[[#This Row],[dir]], ".tsv -o ", libraries_4, "/", Table10[[#This Row],[dir]], " -ref ref_seq/", Table10[[#This Row],[ref]], " -dsb ", Table10[[#This Row],[dsb_pos]], " --dsb_type ",Table10[[#This Row],[dsb_type_command]], " --strand ", Table10[[#This Row],[strand]], " --hguide ", Table10[[#This Row],[hguide]], " --cell ", Table10[[#This Row],[cell]], " --treatment ", Table10[[#This Row],[treatment]], " --subst_type ", Table10[[#This Row],[subst_type]], " --control ", Table10[[#This Row],[control]])</f>
         <v>python 2_graph_processing/make_main_data.py -i libraries_3/KO_sgB_R2_sense_nodsb.tsv -o libraries_4/KO_sgB_R2_sense_nodsb -ref ref_seq/1DSB_R2_sense.fa -dsb 46 --dsb_type 1 --strand R2 --hguide B --cell KO --treatment sense --subst_type without --control noDSB</v>
       </c>
       <c r="N53" t="str">
-        <f>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table10[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table10[[#This Row],[dir]])</f>
+        <f>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table10[[#This Row],[subst_type]], " -dir ", libraries_4, "/", Table10[[#This Row],[dir]])</f>
         <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgB_R2_sense_nodsb</v>
       </c>
     </row>
@@ -18531,15 +18740,16 @@
         <f>'2_combined'!H55</f>
         <v>branch</v>
       </c>
-      <c r="L54" t="s">
-        <v>110</v>
+      <c r="L54" t="str">
+        <f>subst_type</f>
+        <v>without</v>
       </c>
       <c r="M54" t="str">
-        <f>_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", dirs!$A$3, "/",Table10[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table10[[#This Row],[dir]], " -ref ref_seq/", Table10[[#This Row],[ref]], " -dsb ", Table10[[#This Row],[dsb_pos]], " --dsb_type ",Table10[[#This Row],[dsb_type_command]], " --strand ", Table10[[#This Row],[strand]], " --hguide ", Table10[[#This Row],[hguide]], " --cell ", Table10[[#This Row],[cell]], " --treatment ", Table10[[#This Row],[treatment]], " --subst_type ", Table10[[#This Row],[subst_type]], " --control ", Table10[[#This Row],[control]])</f>
+        <f>_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", libraries_3, "/",Table10[[#This Row],[dir]], ".tsv -o ", libraries_4, "/", Table10[[#This Row],[dir]], " -ref ref_seq/", Table10[[#This Row],[ref]], " -dsb ", Table10[[#This Row],[dsb_pos]], " --dsb_type ",Table10[[#This Row],[dsb_type_command]], " --strand ", Table10[[#This Row],[strand]], " --hguide ", Table10[[#This Row],[hguide]], " --cell ", Table10[[#This Row],[cell]], " --treatment ", Table10[[#This Row],[treatment]], " --subst_type ", Table10[[#This Row],[subst_type]], " --control ", Table10[[#This Row],[control]])</f>
         <v>python 2_graph_processing/make_main_data.py -i libraries_3/KO_sgB_R2_branch_nodsb.tsv -o libraries_4/KO_sgB_R2_branch_nodsb -ref ref_seq/1DSB_R2_branch.fa -dsb 46 --dsb_type 1 --strand R2 --hguide B --cell KO --treatment branch --subst_type without --control noDSB</v>
       </c>
       <c r="N54" t="str">
-        <f>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table10[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table10[[#This Row],[dir]])</f>
+        <f>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table10[[#This Row],[subst_type]], " -dir ", libraries_4, "/", Table10[[#This Row],[dir]])</f>
         <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgB_R2_branch_nodsb</v>
       </c>
     </row>
@@ -18587,15 +18797,16 @@
         <f>'2_combined'!H56</f>
         <v>cmv</v>
       </c>
-      <c r="L55" t="s">
-        <v>110</v>
+      <c r="L55" t="str">
+        <f>subst_type</f>
+        <v>without</v>
       </c>
       <c r="M55" t="str">
-        <f>_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", dirs!$A$3, "/",Table10[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table10[[#This Row],[dir]], " -ref ref_seq/", Table10[[#This Row],[ref]], " -dsb ", Table10[[#This Row],[dsb_pos]], " --dsb_type ",Table10[[#This Row],[dsb_type_command]], " --strand ", Table10[[#This Row],[strand]], " --hguide ", Table10[[#This Row],[hguide]], " --cell ", Table10[[#This Row],[cell]], " --treatment ", Table10[[#This Row],[treatment]], " --subst_type ", Table10[[#This Row],[subst_type]], " --control ", Table10[[#This Row],[control]])</f>
+        <f>_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", libraries_3, "/",Table10[[#This Row],[dir]], ".tsv -o ", libraries_4, "/", Table10[[#This Row],[dir]], " -ref ref_seq/", Table10[[#This Row],[ref]], " -dsb ", Table10[[#This Row],[dsb_pos]], " --dsb_type ",Table10[[#This Row],[dsb_type_command]], " --strand ", Table10[[#This Row],[strand]], " --hguide ", Table10[[#This Row],[hguide]], " --cell ", Table10[[#This Row],[cell]], " --treatment ", Table10[[#This Row],[treatment]], " --subst_type ", Table10[[#This Row],[subst_type]], " --control ", Table10[[#This Row],[control]])</f>
         <v>python 2_graph_processing/make_main_data.py -i libraries_3/KO_sgB_R2_cmv_nodsb.tsv -o libraries_4/KO_sgB_R2_cmv_nodsb -ref ref_seq/1DSB_R2_cmv.fa -dsb 46 --dsb_type 1 --strand R2 --hguide B --cell KO --treatment cmv --subst_type without --control noDSB</v>
       </c>
       <c r="N55" t="str">
-        <f>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table10[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table10[[#This Row],[dir]])</f>
+        <f>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table10[[#This Row],[subst_type]], " -dir ", libraries_4, "/", Table10[[#This Row],[dir]])</f>
         <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgB_R2_cmv_nodsb</v>
       </c>
     </row>
@@ -18614,8 +18825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AFDA2BA-58B9-4C12-83E9-7C389A51814A}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18698,15 +18909,16 @@
         <f ca="1">SUBSTITUTE(Table6[[#This Row],[dir_1]], Table6[[#This Row],[treatment_1]], Table6[[#This Row],[treatments_out]])</f>
         <v>WT_sgAB_R1_sense_branch</v>
       </c>
-      <c r="I2" t="s">
-        <v>110</v>
+      <c r="I2" t="str">
+        <f>subst_type</f>
+        <v>without</v>
       </c>
       <c r="J2" s="2" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", Table6[[#This Row],[dir_1]], " ", dirs!$A$4, "/", Table6[[#This Row],[dir_2]], " -o ", dirs!$A$4, "/", Table6[[#This Row],[dir_out]], " --subst_type ", Table6[[#This Row],[subst_type]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", libraries_4, "/", Table6[[#This Row],[dir_1]], " ", libraries_4, "/", Table6[[#This Row],[dir_2]], " -o ", libraries_4, "/", Table6[[#This Row],[dir_out]], " --subst_type ", Table6[[#This Row],[subst_type]])</f>
         <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgAB_R1_sense libraries_4/WT_sgAB_R1_branch -o libraries_4/WT_sgAB_R1_sense_branch --subst_type without</v>
       </c>
       <c r="K2" s="2" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table6[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table6[[#This Row],[dir_out]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table6[[#This Row],[subst_type]], " -dir ", globals!$A$4, "/", Table6[[#This Row],[dir_out]])</f>
         <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgAB_R1_sense_branch</v>
       </c>
     </row>
@@ -18742,15 +18954,16 @@
         <f ca="1">SUBSTITUTE(Table6[[#This Row],[dir_1]], Table6[[#This Row],[treatment_1]], Table6[[#This Row],[treatments_out]])</f>
         <v>WT_sgAB_R1_sense_cmv</v>
       </c>
-      <c r="I3" t="s">
-        <v>110</v>
+      <c r="I3" t="str">
+        <f>subst_type</f>
+        <v>without</v>
       </c>
       <c r="J3" s="2" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", Table6[[#This Row],[dir_1]], " ", dirs!$A$4, "/", Table6[[#This Row],[dir_2]], " -o ", dirs!$A$4, "/", Table6[[#This Row],[dir_out]], " --subst_type ", Table6[[#This Row],[subst_type]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", libraries_4, "/", Table6[[#This Row],[dir_1]], " ", libraries_4, "/", Table6[[#This Row],[dir_2]], " -o ", libraries_4, "/", Table6[[#This Row],[dir_out]], " --subst_type ", Table6[[#This Row],[subst_type]])</f>
         <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgAB_R1_sense libraries_4/WT_sgAB_R1_cmv -o libraries_4/WT_sgAB_R1_sense_cmv --subst_type without</v>
       </c>
       <c r="K3" s="2" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table6[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table6[[#This Row],[dir_out]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table6[[#This Row],[subst_type]], " -dir ", globals!$A$4, "/", Table6[[#This Row],[dir_out]])</f>
         <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgAB_R1_sense_cmv</v>
       </c>
     </row>
@@ -18786,15 +18999,16 @@
         <f ca="1">SUBSTITUTE(Table6[[#This Row],[dir_1]], Table6[[#This Row],[treatment_1]], Table6[[#This Row],[treatments_out]])</f>
         <v>KO_sgAB_R1_sense_branch</v>
       </c>
-      <c r="I4" t="s">
-        <v>110</v>
+      <c r="I4" t="str">
+        <f>subst_type</f>
+        <v>without</v>
       </c>
       <c r="J4" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", Table6[[#This Row],[dir_1]], " ", dirs!$A$4, "/", Table6[[#This Row],[dir_2]], " -o ", dirs!$A$4, "/", Table6[[#This Row],[dir_out]], " --subst_type ", Table6[[#This Row],[subst_type]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", libraries_4, "/", Table6[[#This Row],[dir_1]], " ", libraries_4, "/", Table6[[#This Row],[dir_2]], " -o ", libraries_4, "/", Table6[[#This Row],[dir_out]], " --subst_type ", Table6[[#This Row],[subst_type]])</f>
         <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/KO_sgAB_R1_sense libraries_4/KO_sgAB_R1_branch -o libraries_4/KO_sgAB_R1_sense_branch --subst_type without</v>
       </c>
       <c r="K4" s="2" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table6[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table6[[#This Row],[dir_out]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table6[[#This Row],[subst_type]], " -dir ", globals!$A$4, "/", Table6[[#This Row],[dir_out]])</f>
         <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgAB_R1_sense_branch</v>
       </c>
     </row>
@@ -18830,15 +19044,16 @@
         <f ca="1">SUBSTITUTE(Table6[[#This Row],[dir_1]], Table6[[#This Row],[treatment_1]], Table6[[#This Row],[treatments_out]])</f>
         <v>KO_sgAB_R1_sense_cmv</v>
       </c>
-      <c r="I5" t="s">
-        <v>110</v>
+      <c r="I5" t="str">
+        <f>subst_type</f>
+        <v>without</v>
       </c>
       <c r="J5" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", Table6[[#This Row],[dir_1]], " ", dirs!$A$4, "/", Table6[[#This Row],[dir_2]], " -o ", dirs!$A$4, "/", Table6[[#This Row],[dir_out]], " --subst_type ", Table6[[#This Row],[subst_type]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", libraries_4, "/", Table6[[#This Row],[dir_1]], " ", libraries_4, "/", Table6[[#This Row],[dir_2]], " -o ", libraries_4, "/", Table6[[#This Row],[dir_out]], " --subst_type ", Table6[[#This Row],[subst_type]])</f>
         <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/KO_sgAB_R1_sense libraries_4/KO_sgAB_R1_cmv -o libraries_4/KO_sgAB_R1_sense_cmv --subst_type without</v>
       </c>
       <c r="K5" s="2" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table6[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table6[[#This Row],[dir_out]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table6[[#This Row],[subst_type]], " -dir ", globals!$A$4, "/", Table6[[#This Row],[dir_out]])</f>
         <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgAB_R1_sense_cmv</v>
       </c>
     </row>
@@ -18874,15 +19089,16 @@
         <f ca="1">SUBSTITUTE(Table6[[#This Row],[dir_1]], Table6[[#This Row],[treatment_1]], Table6[[#This Row],[treatments_out]])</f>
         <v>WT_sgAB_R2_sense_branch</v>
       </c>
-      <c r="I6" t="s">
-        <v>110</v>
+      <c r="I6" t="str">
+        <f>subst_type</f>
+        <v>without</v>
       </c>
       <c r="J6" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", Table6[[#This Row],[dir_1]], " ", dirs!$A$4, "/", Table6[[#This Row],[dir_2]], " -o ", dirs!$A$4, "/", Table6[[#This Row],[dir_out]], " --subst_type ", Table6[[#This Row],[subst_type]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", libraries_4, "/", Table6[[#This Row],[dir_1]], " ", libraries_4, "/", Table6[[#This Row],[dir_2]], " -o ", libraries_4, "/", Table6[[#This Row],[dir_out]], " --subst_type ", Table6[[#This Row],[subst_type]])</f>
         <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgAB_R2_sense libraries_4/WT_sgAB_R2_branch -o libraries_4/WT_sgAB_R2_sense_branch --subst_type without</v>
       </c>
       <c r="K6" s="2" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table6[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table6[[#This Row],[dir_out]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table6[[#This Row],[subst_type]], " -dir ", globals!$A$4, "/", Table6[[#This Row],[dir_out]])</f>
         <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgAB_R2_sense_branch</v>
       </c>
     </row>
@@ -18918,15 +19134,16 @@
         <f ca="1">SUBSTITUTE(Table6[[#This Row],[dir_1]], Table6[[#This Row],[treatment_1]], Table6[[#This Row],[treatments_out]])</f>
         <v>WT_sgAB_R2_sense_cmv</v>
       </c>
-      <c r="I7" t="s">
-        <v>110</v>
+      <c r="I7" t="str">
+        <f>subst_type</f>
+        <v>without</v>
       </c>
       <c r="J7" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", Table6[[#This Row],[dir_1]], " ", dirs!$A$4, "/", Table6[[#This Row],[dir_2]], " -o ", dirs!$A$4, "/", Table6[[#This Row],[dir_out]], " --subst_type ", Table6[[#This Row],[subst_type]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", libraries_4, "/", Table6[[#This Row],[dir_1]], " ", libraries_4, "/", Table6[[#This Row],[dir_2]], " -o ", libraries_4, "/", Table6[[#This Row],[dir_out]], " --subst_type ", Table6[[#This Row],[subst_type]])</f>
         <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgAB_R2_sense libraries_4/WT_sgAB_R2_cmv -o libraries_4/WT_sgAB_R2_sense_cmv --subst_type without</v>
       </c>
       <c r="K7" s="2" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table6[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table6[[#This Row],[dir_out]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table6[[#This Row],[subst_type]], " -dir ", globals!$A$4, "/", Table6[[#This Row],[dir_out]])</f>
         <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgAB_R2_sense_cmv</v>
       </c>
     </row>
@@ -18962,15 +19179,16 @@
         <f ca="1">SUBSTITUTE(Table6[[#This Row],[dir_1]], Table6[[#This Row],[treatment_1]], Table6[[#This Row],[treatments_out]])</f>
         <v>KO_sgAB_R2_sense_branch</v>
       </c>
-      <c r="I8" t="s">
-        <v>110</v>
+      <c r="I8" t="str">
+        <f>subst_type</f>
+        <v>without</v>
       </c>
       <c r="J8" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", Table6[[#This Row],[dir_1]], " ", dirs!$A$4, "/", Table6[[#This Row],[dir_2]], " -o ", dirs!$A$4, "/", Table6[[#This Row],[dir_out]], " --subst_type ", Table6[[#This Row],[subst_type]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", libraries_4, "/", Table6[[#This Row],[dir_1]], " ", libraries_4, "/", Table6[[#This Row],[dir_2]], " -o ", libraries_4, "/", Table6[[#This Row],[dir_out]], " --subst_type ", Table6[[#This Row],[subst_type]])</f>
         <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/KO_sgAB_R2_sense libraries_4/KO_sgAB_R2_branch -o libraries_4/KO_sgAB_R2_sense_branch --subst_type without</v>
       </c>
       <c r="K8" s="2" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table6[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table6[[#This Row],[dir_out]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table6[[#This Row],[subst_type]], " -dir ", globals!$A$4, "/", Table6[[#This Row],[dir_out]])</f>
         <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgAB_R2_sense_branch</v>
       </c>
     </row>
@@ -19006,15 +19224,16 @@
         <f ca="1">SUBSTITUTE(Table6[[#This Row],[dir_1]], Table6[[#This Row],[treatment_1]], Table6[[#This Row],[treatments_out]])</f>
         <v>KO_sgAB_R2_sense_cmv</v>
       </c>
-      <c r="I9" t="s">
-        <v>110</v>
+      <c r="I9" t="str">
+        <f>subst_type</f>
+        <v>without</v>
       </c>
       <c r="J9" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", Table6[[#This Row],[dir_1]], " ", dirs!$A$4, "/", Table6[[#This Row],[dir_2]], " -o ", dirs!$A$4, "/", Table6[[#This Row],[dir_out]], " --subst_type ", Table6[[#This Row],[subst_type]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", libraries_4, "/", Table6[[#This Row],[dir_1]], " ", libraries_4, "/", Table6[[#This Row],[dir_2]], " -o ", libraries_4, "/", Table6[[#This Row],[dir_out]], " --subst_type ", Table6[[#This Row],[subst_type]])</f>
         <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/KO_sgAB_R2_sense libraries_4/KO_sgAB_R2_cmv -o libraries_4/KO_sgAB_R2_sense_cmv --subst_type without</v>
       </c>
       <c r="K9" s="2" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table6[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table6[[#This Row],[dir_out]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table6[[#This Row],[subst_type]], " -dir ", globals!$A$4, "/", Table6[[#This Row],[dir_out]])</f>
         <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgAB_R2_sense_cmv</v>
       </c>
     </row>
@@ -19050,15 +19269,16 @@
         <f ca="1">SUBSTITUTE(Table6[[#This Row],[dir_1]], Table6[[#This Row],[treatment_1]], Table6[[#This Row],[treatments_out]])</f>
         <v>WT_sgA_R1_sense_branch</v>
       </c>
-      <c r="I10" t="s">
-        <v>110</v>
+      <c r="I10" t="str">
+        <f>subst_type</f>
+        <v>without</v>
       </c>
       <c r="J10" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", Table6[[#This Row],[dir_1]], " ", dirs!$A$4, "/", Table6[[#This Row],[dir_2]], " -o ", dirs!$A$4, "/", Table6[[#This Row],[dir_out]], " --subst_type ", Table6[[#This Row],[subst_type]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", libraries_4, "/", Table6[[#This Row],[dir_1]], " ", libraries_4, "/", Table6[[#This Row],[dir_2]], " -o ", libraries_4, "/", Table6[[#This Row],[dir_out]], " --subst_type ", Table6[[#This Row],[subst_type]])</f>
         <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgA_R1_sense libraries_4/WT_sgA_R1_branch -o libraries_4/WT_sgA_R1_sense_branch --subst_type without</v>
       </c>
       <c r="K10" s="2" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table6[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table6[[#This Row],[dir_out]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table6[[#This Row],[subst_type]], " -dir ", globals!$A$4, "/", Table6[[#This Row],[dir_out]])</f>
         <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgA_R1_sense_branch</v>
       </c>
     </row>
@@ -19094,15 +19314,16 @@
         <f ca="1">SUBSTITUTE(Table6[[#This Row],[dir_1]], Table6[[#This Row],[treatment_1]], Table6[[#This Row],[treatments_out]])</f>
         <v>WT_sgA_R1_sense_cmv</v>
       </c>
-      <c r="I11" t="s">
-        <v>110</v>
+      <c r="I11" t="str">
+        <f>subst_type</f>
+        <v>without</v>
       </c>
       <c r="J11" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", Table6[[#This Row],[dir_1]], " ", dirs!$A$4, "/", Table6[[#This Row],[dir_2]], " -o ", dirs!$A$4, "/", Table6[[#This Row],[dir_out]], " --subst_type ", Table6[[#This Row],[subst_type]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", libraries_4, "/", Table6[[#This Row],[dir_1]], " ", libraries_4, "/", Table6[[#This Row],[dir_2]], " -o ", libraries_4, "/", Table6[[#This Row],[dir_out]], " --subst_type ", Table6[[#This Row],[subst_type]])</f>
         <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgA_R1_sense libraries_4/WT_sgA_R1_cmv -o libraries_4/WT_sgA_R1_sense_cmv --subst_type without</v>
       </c>
       <c r="K11" s="2" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table6[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table6[[#This Row],[dir_out]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table6[[#This Row],[subst_type]], " -dir ", globals!$A$4, "/", Table6[[#This Row],[dir_out]])</f>
         <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgA_R1_sense_cmv</v>
       </c>
     </row>
@@ -19138,15 +19359,16 @@
         <f ca="1">SUBSTITUTE(Table6[[#This Row],[dir_1]], Table6[[#This Row],[treatment_1]], Table6[[#This Row],[treatments_out]])</f>
         <v>WT_sgB_R2_sense_branch</v>
       </c>
-      <c r="I12" t="s">
-        <v>110</v>
+      <c r="I12" t="str">
+        <f>subst_type</f>
+        <v>without</v>
       </c>
       <c r="J12" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", Table6[[#This Row],[dir_1]], " ", dirs!$A$4, "/", Table6[[#This Row],[dir_2]], " -o ", dirs!$A$4, "/", Table6[[#This Row],[dir_out]], " --subst_type ", Table6[[#This Row],[subst_type]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", libraries_4, "/", Table6[[#This Row],[dir_1]], " ", libraries_4, "/", Table6[[#This Row],[dir_2]], " -o ", libraries_4, "/", Table6[[#This Row],[dir_out]], " --subst_type ", Table6[[#This Row],[subst_type]])</f>
         <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgB_R2_sense libraries_4/WT_sgB_R2_branch -o libraries_4/WT_sgB_R2_sense_branch --subst_type without</v>
       </c>
       <c r="K12" s="2" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table6[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table6[[#This Row],[dir_out]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table6[[#This Row],[subst_type]], " -dir ", globals!$A$4, "/", Table6[[#This Row],[dir_out]])</f>
         <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgB_R2_sense_branch</v>
       </c>
     </row>
@@ -19182,15 +19404,16 @@
         <f ca="1">SUBSTITUTE(Table6[[#This Row],[dir_1]], Table6[[#This Row],[treatment_1]], Table6[[#This Row],[treatments_out]])</f>
         <v>WT_sgB_R2_sense_cmv</v>
       </c>
-      <c r="I13" t="s">
-        <v>110</v>
+      <c r="I13" t="str">
+        <f>subst_type</f>
+        <v>without</v>
       </c>
       <c r="J13" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", Table6[[#This Row],[dir_1]], " ", dirs!$A$4, "/", Table6[[#This Row],[dir_2]], " -o ", dirs!$A$4, "/", Table6[[#This Row],[dir_out]], " --subst_type ", Table6[[#This Row],[subst_type]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", libraries_4, "/", Table6[[#This Row],[dir_1]], " ", libraries_4, "/", Table6[[#This Row],[dir_2]], " -o ", libraries_4, "/", Table6[[#This Row],[dir_out]], " --subst_type ", Table6[[#This Row],[subst_type]])</f>
         <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgB_R2_sense libraries_4/WT_sgB_R2_cmv -o libraries_4/WT_sgB_R2_sense_cmv --subst_type without</v>
       </c>
       <c r="K13" s="2" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table6[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table6[[#This Row],[dir_out]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table6[[#This Row],[subst_type]], " -dir ", globals!$A$4, "/", Table6[[#This Row],[dir_out]])</f>
         <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgB_R2_sense_cmv</v>
       </c>
     </row>
@@ -19226,15 +19449,16 @@
         <f ca="1">SUBSTITUTE(Table6[[#This Row],[dir_1]], Table6[[#This Row],[treatment_1]], Table6[[#This Row],[treatments_out]])</f>
         <v>KO_sgA_R1_sense_branch</v>
       </c>
-      <c r="I14" t="s">
-        <v>110</v>
+      <c r="I14" t="str">
+        <f>subst_type</f>
+        <v>without</v>
       </c>
       <c r="J14" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", Table6[[#This Row],[dir_1]], " ", dirs!$A$4, "/", Table6[[#This Row],[dir_2]], " -o ", dirs!$A$4, "/", Table6[[#This Row],[dir_out]], " --subst_type ", Table6[[#This Row],[subst_type]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", libraries_4, "/", Table6[[#This Row],[dir_1]], " ", libraries_4, "/", Table6[[#This Row],[dir_2]], " -o ", libraries_4, "/", Table6[[#This Row],[dir_out]], " --subst_type ", Table6[[#This Row],[subst_type]])</f>
         <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/KO_sgA_R1_sense libraries_4/KO_sgA_R1_branch -o libraries_4/KO_sgA_R1_sense_branch --subst_type without</v>
       </c>
       <c r="K14" s="2" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table6[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table6[[#This Row],[dir_out]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table6[[#This Row],[subst_type]], " -dir ", globals!$A$4, "/", Table6[[#This Row],[dir_out]])</f>
         <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgA_R1_sense_branch</v>
       </c>
     </row>
@@ -19270,15 +19494,16 @@
         <f ca="1">SUBSTITUTE(Table6[[#This Row],[dir_1]], Table6[[#This Row],[treatment_1]], Table6[[#This Row],[treatments_out]])</f>
         <v>KO_sgA_R1_sense_cmv</v>
       </c>
-      <c r="I15" t="s">
-        <v>110</v>
+      <c r="I15" t="str">
+        <f>subst_type</f>
+        <v>without</v>
       </c>
       <c r="J15" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", Table6[[#This Row],[dir_1]], " ", dirs!$A$4, "/", Table6[[#This Row],[dir_2]], " -o ", dirs!$A$4, "/", Table6[[#This Row],[dir_out]], " --subst_type ", Table6[[#This Row],[subst_type]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", libraries_4, "/", Table6[[#This Row],[dir_1]], " ", libraries_4, "/", Table6[[#This Row],[dir_2]], " -o ", libraries_4, "/", Table6[[#This Row],[dir_out]], " --subst_type ", Table6[[#This Row],[subst_type]])</f>
         <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/KO_sgA_R1_sense libraries_4/KO_sgA_R1_cmv -o libraries_4/KO_sgA_R1_sense_cmv --subst_type without</v>
       </c>
       <c r="K15" s="2" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table6[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table6[[#This Row],[dir_out]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table6[[#This Row],[subst_type]], " -dir ", globals!$A$4, "/", Table6[[#This Row],[dir_out]])</f>
         <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgA_R1_sense_cmv</v>
       </c>
     </row>
@@ -19314,15 +19539,16 @@
         <f ca="1">SUBSTITUTE(Table6[[#This Row],[dir_1]], Table6[[#This Row],[treatment_1]], Table6[[#This Row],[treatments_out]])</f>
         <v>KO_sgB_R2_sense_branch</v>
       </c>
-      <c r="I16" t="s">
-        <v>110</v>
+      <c r="I16" t="str">
+        <f>subst_type</f>
+        <v>without</v>
       </c>
       <c r="J16" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", Table6[[#This Row],[dir_1]], " ", dirs!$A$4, "/", Table6[[#This Row],[dir_2]], " -o ", dirs!$A$4, "/", Table6[[#This Row],[dir_out]], " --subst_type ", Table6[[#This Row],[subst_type]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", libraries_4, "/", Table6[[#This Row],[dir_1]], " ", libraries_4, "/", Table6[[#This Row],[dir_2]], " -o ", libraries_4, "/", Table6[[#This Row],[dir_out]], " --subst_type ", Table6[[#This Row],[subst_type]])</f>
         <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/KO_sgB_R2_sense libraries_4/KO_sgB_R2_branch -o libraries_4/KO_sgB_R2_sense_branch --subst_type without</v>
       </c>
       <c r="K16" s="2" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table6[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table6[[#This Row],[dir_out]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table6[[#This Row],[subst_type]], " -dir ", globals!$A$4, "/", Table6[[#This Row],[dir_out]])</f>
         <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgB_R2_sense_branch</v>
       </c>
     </row>
@@ -19358,15 +19584,16 @@
         <f ca="1">SUBSTITUTE(Table6[[#This Row],[dir_1]], Table6[[#This Row],[treatment_1]], Table6[[#This Row],[treatments_out]])</f>
         <v>KO_sgB_R2_sense_cmv</v>
       </c>
-      <c r="I17" t="s">
-        <v>110</v>
+      <c r="I17" t="str">
+        <f>subst_type</f>
+        <v>without</v>
       </c>
       <c r="J17" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", Table6[[#This Row],[dir_1]], " ", dirs!$A$4, "/", Table6[[#This Row],[dir_2]], " -o ", dirs!$A$4, "/", Table6[[#This Row],[dir_out]], " --subst_type ", Table6[[#This Row],[subst_type]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", libraries_4, "/", Table6[[#This Row],[dir_1]], " ", libraries_4, "/", Table6[[#This Row],[dir_2]], " -o ", libraries_4, "/", Table6[[#This Row],[dir_out]], " --subst_type ", Table6[[#This Row],[subst_type]])</f>
         <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/KO_sgB_R2_sense libraries_4/KO_sgB_R2_cmv -o libraries_4/KO_sgB_R2_sense_cmv --subst_type without</v>
       </c>
       <c r="K17" s="2" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table6[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table6[[#This Row],[dir_out]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table6[[#This Row],[subst_type]], " -dir ", globals!$A$4, "/", Table6[[#This Row],[dir_out]])</f>
         <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgB_R2_sense_cmv</v>
       </c>
     </row>
@@ -19437,15 +19664,16 @@
         <f ca="1">SUBSTITUTE(Table68[[#This Row],[dir_1]], Table68[[#This Row],[treatment_1]], Table68[[#This Row],[treatments_out]])</f>
         <v>WT_sgCD_R1_antisense_splicing</v>
       </c>
-      <c r="I20" t="s">
-        <v>110</v>
+      <c r="I20" t="str">
+        <f>subst_type</f>
+        <v>without</v>
       </c>
       <c r="J20" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", Table68[[#This Row],[dir_1]], " ", dirs!$A$4, "/", Table68[[#This Row],[dir_2]], " -o ", dirs!$A$4, "/", Table68[[#This Row],[dir_out]], " --subst_type ", Table68[[#This Row],[subst_type]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", libraries_4, "/", Table68[[#This Row],[dir_1]], " ", libraries_4, "/", Table68[[#This Row],[dir_2]], " -o ", libraries_4, "/", Table68[[#This Row],[dir_out]], " --subst_type ", Table68[[#This Row],[subst_type]])</f>
         <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgCD_R1_antisense libraries_4/WT_sgCD_R1_splicing -o libraries_4/WT_sgCD_R1_antisense_splicing --subst_type without</v>
       </c>
       <c r="K20" s="2" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table68[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table68[[#This Row],[dir_out]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table68[[#This Row],[subst_type]], " -dir ", globals!$A$4, "/", Table68[[#This Row],[dir_out]])</f>
         <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgCD_R1_antisense_splicing</v>
       </c>
     </row>
@@ -19481,15 +19709,16 @@
         <f ca="1">SUBSTITUTE(Table68[[#This Row],[dir_1]], Table68[[#This Row],[treatment_1]], Table68[[#This Row],[treatments_out]])</f>
         <v>WT_sgCD_R2_antisense_splicing</v>
       </c>
-      <c r="I21" t="s">
-        <v>110</v>
+      <c r="I21" t="str">
+        <f>subst_type</f>
+        <v>without</v>
       </c>
       <c r="J21" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", Table68[[#This Row],[dir_1]], " ", dirs!$A$4, "/", Table68[[#This Row],[dir_2]], " -o ", dirs!$A$4, "/", Table68[[#This Row],[dir_out]], " --subst_type ", Table68[[#This Row],[subst_type]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", libraries_4, "/", Table68[[#This Row],[dir_1]], " ", libraries_4, "/", Table68[[#This Row],[dir_2]], " -o ", libraries_4, "/", Table68[[#This Row],[dir_out]], " --subst_type ", Table68[[#This Row],[subst_type]])</f>
         <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgCD_R2_antisense libraries_4/WT_sgCD_R2_splicing -o libraries_4/WT_sgCD_R2_antisense_splicing --subst_type without</v>
       </c>
       <c r="K21" s="2" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table68[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table68[[#This Row],[dir_out]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table68[[#This Row],[subst_type]], " -dir ", globals!$A$4, "/", Table68[[#This Row],[dir_out]])</f>
         <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgCD_R2_antisense_splicing</v>
       </c>
     </row>
@@ -19500,389 +19729,397 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G24" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="H24" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="I24" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="J24" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="K24" s="1" t="s">
+      <c r="K24" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+      <c r="A25" s="6">
         <v>1</v>
       </c>
-      <c r="B25" s="5" t="str">
+      <c r="B25" s="7" t="str">
         <f ca="1">OFFSET('3_graph'!$C$30, 3 * QUOTIENT(Table69[[#This Row],[index]] - 1, 2), 0)</f>
         <v>30bpDown</v>
       </c>
-      <c r="C25" s="5" t="str">
+      <c r="C25" s="7" t="str">
         <f ca="1">OFFSET('3_graph'!$K$30, 3 * QUOTIENT(Table69[[#This Row],[index]] - 1, 2), 0)</f>
         <v>sense</v>
       </c>
-      <c r="D25" s="2" t="str">
+      <c r="D25" s="8" t="str">
         <f ca="1">OFFSET('3_graph'!$B$30, 3 * QUOTIENT(Table69[[#This Row],[index]] - 1, 2), 0)</f>
         <v>WT_sgA_R1_sense_30bpDown</v>
       </c>
-      <c r="E25" s="2" t="str">
+      <c r="E25" s="8" t="str">
         <f ca="1">OFFSET('3_graph'!$K$30, 3 * QUOTIENT(Table69[[#This Row],[index]] - 1, 2) + 1 + MOD(Table69[[#This Row],[index]] - 1, 2), 0)</f>
         <v>branch</v>
       </c>
-      <c r="F25" s="2" t="str">
+      <c r="F25" s="8" t="str">
         <f ca="1">OFFSET('3_graph'!$B$30, 3 * QUOTIENT(Table69[[#This Row],[index]] - 1, 2) + 1 + MOD(Table69[[#This Row],[index]] - 1, 2), 0)</f>
         <v>WT_sgA_R1_branch_30bpDown</v>
       </c>
-      <c r="G25" s="2" t="str">
+      <c r="G25" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(Table69[[#This Row],[treatment_1]], "_", Table69[[#This Row],[treatment_2]])</f>
         <v>sense_branch</v>
       </c>
-      <c r="H25" s="2" t="str">
+      <c r="H25" s="8" t="str">
         <f ca="1">SUBSTITUTE(Table69[[#This Row],[dir_1]], Table69[[#This Row],[treatment_1]], Table69[[#This Row],[treatments_out]])</f>
         <v>WT_sgA_R1_sense_branch_30bpDown</v>
       </c>
-      <c r="I25" t="s">
-        <v>110</v>
-      </c>
-      <c r="J25" s="2" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", Table69[[#This Row],[dir_1]], " ", dirs!$A$4, "/", Table69[[#This Row],[dir_2]], " -o ", dirs!$A$4, "/", Table69[[#This Row],[dir_out]], " --subst_type ", Table69[[#This Row],[subst_type]])</f>
+      <c r="I25" s="9" t="str">
+        <f>subst_type</f>
+        <v>without</v>
+      </c>
+      <c r="J25" s="8" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", libraries_4, "/", Table69[[#This Row],[dir_1]], " ", libraries_4, "/", Table69[[#This Row],[dir_2]], " -o ", libraries_4, "/", Table69[[#This Row],[dir_out]], " --subst_type ", Table69[[#This Row],[subst_type]])</f>
         <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgA_R1_sense_30bpDown libraries_4/WT_sgA_R1_branch_30bpDown -o libraries_4/WT_sgA_R1_sense_branch_30bpDown --subst_type without</v>
       </c>
-      <c r="K25" s="2" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table69[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table69[[#This Row],[dir_out]])</f>
+      <c r="K25" s="8" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table69[[#This Row],[subst_type]], " -dir ", globals!$A$4, "/", Table69[[#This Row],[dir_out]])</f>
         <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgA_R1_sense_branch_30bpDown</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+      <c r="A26" s="6">
         <v>2</v>
       </c>
-      <c r="B26" s="5" t="str">
+      <c r="B26" s="7" t="str">
         <f ca="1">OFFSET('3_graph'!$C$30, 3 * QUOTIENT(Table69[[#This Row],[index]] - 1, 2), 0)</f>
         <v>30bpDown</v>
       </c>
-      <c r="C26" s="5" t="str">
+      <c r="C26" s="7" t="str">
         <f ca="1">OFFSET('3_graph'!$K$30, 3 * QUOTIENT(Table69[[#This Row],[index]] - 1, 2), 0)</f>
         <v>sense</v>
       </c>
-      <c r="D26" s="2" t="str">
+      <c r="D26" s="8" t="str">
         <f ca="1">OFFSET('3_graph'!$B$30, 3 * QUOTIENT(Table69[[#This Row],[index]] - 1, 2), 0)</f>
         <v>WT_sgA_R1_sense_30bpDown</v>
       </c>
-      <c r="E26" s="2" t="str">
+      <c r="E26" s="8" t="str">
         <f ca="1">OFFSET('3_graph'!$K$30, 3 * QUOTIENT(Table69[[#This Row],[index]] - 1, 2) + 1 + MOD(Table69[[#This Row],[index]] - 1, 2), 0)</f>
         <v>cmv</v>
       </c>
-      <c r="F26" s="2" t="str">
+      <c r="F26" s="8" t="str">
         <f ca="1">OFFSET('3_graph'!$B$30, 3 * QUOTIENT(Table69[[#This Row],[index]] - 1, 2) + 1 + MOD(Table69[[#This Row],[index]] - 1, 2), 0)</f>
         <v>WT_sgA_R1_cmv_30bpDown</v>
       </c>
-      <c r="G26" s="2" t="str">
+      <c r="G26" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(Table69[[#This Row],[treatment_1]], "_", Table69[[#This Row],[treatment_2]])</f>
         <v>sense_cmv</v>
       </c>
-      <c r="H26" s="2" t="str">
+      <c r="H26" s="8" t="str">
         <f ca="1">SUBSTITUTE(Table69[[#This Row],[dir_1]], Table69[[#This Row],[treatment_1]], Table69[[#This Row],[treatments_out]])</f>
         <v>WT_sgA_R1_sense_cmv_30bpDown</v>
       </c>
-      <c r="I26" t="s">
-        <v>110</v>
-      </c>
-      <c r="J26" s="2" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", Table69[[#This Row],[dir_1]], " ", dirs!$A$4, "/", Table69[[#This Row],[dir_2]], " -o ", dirs!$A$4, "/", Table69[[#This Row],[dir_out]], " --subst_type ", Table69[[#This Row],[subst_type]])</f>
+      <c r="I26" s="9" t="str">
+        <f>subst_type</f>
+        <v>without</v>
+      </c>
+      <c r="J26" s="8" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", libraries_4, "/", Table69[[#This Row],[dir_1]], " ", libraries_4, "/", Table69[[#This Row],[dir_2]], " -o ", libraries_4, "/", Table69[[#This Row],[dir_out]], " --subst_type ", Table69[[#This Row],[subst_type]])</f>
         <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgA_R1_sense_30bpDown libraries_4/WT_sgA_R1_cmv_30bpDown -o libraries_4/WT_sgA_R1_sense_cmv_30bpDown --subst_type without</v>
       </c>
-      <c r="K26" s="2" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table69[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table69[[#This Row],[dir_out]])</f>
+      <c r="K26" s="8" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table69[[#This Row],[subst_type]], " -dir ", globals!$A$4, "/", Table69[[#This Row],[dir_out]])</f>
         <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgA_R1_sense_cmv_30bpDown</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+      <c r="A27" s="6">
         <v>3</v>
       </c>
-      <c r="B27" s="4" t="str">
+      <c r="B27" s="10" t="str">
         <f ca="1">OFFSET('3_graph'!$C$30, 3 * QUOTIENT(Table69[[#This Row],[index]] - 1, 2), 0)</f>
         <v>30bpDown</v>
       </c>
-      <c r="C27" s="4" t="str">
+      <c r="C27" s="10" t="str">
         <f ca="1">OFFSET('3_graph'!$K$30, 3 * QUOTIENT(Table69[[#This Row],[index]] - 1, 2), 0)</f>
         <v>sense</v>
       </c>
-      <c r="D27" t="str">
+      <c r="D27" s="9" t="str">
         <f ca="1">OFFSET('3_graph'!$B$30, 3 * QUOTIENT(Table69[[#This Row],[index]] - 1, 2), 0)</f>
         <v>WT_sgB_R2_sense_30bpDown</v>
       </c>
-      <c r="E27" t="str">
+      <c r="E27" s="9" t="str">
         <f ca="1">OFFSET('3_graph'!$K$30, 3 * QUOTIENT(Table69[[#This Row],[index]] - 1, 2) + 1 + MOD(Table69[[#This Row],[index]] - 1, 2), 0)</f>
         <v>branch</v>
       </c>
-      <c r="F27" t="str">
+      <c r="F27" s="9" t="str">
         <f ca="1">OFFSET('3_graph'!$B$30, 3 * QUOTIENT(Table69[[#This Row],[index]] - 1, 2) + 1 + MOD(Table69[[#This Row],[index]] - 1, 2), 0)</f>
         <v>WT_sgB_R2_branch_30bpDown</v>
       </c>
-      <c r="G27" t="str">
+      <c r="G27" s="9" t="str">
         <f ca="1">_xlfn.CONCAT(Table69[[#This Row],[treatment_1]], "_", Table69[[#This Row],[treatment_2]])</f>
         <v>sense_branch</v>
       </c>
-      <c r="H27" t="str">
+      <c r="H27" s="9" t="str">
         <f ca="1">SUBSTITUTE(Table69[[#This Row],[dir_1]], Table69[[#This Row],[treatment_1]], Table69[[#This Row],[treatments_out]])</f>
         <v>WT_sgB_R2_sense_branch_30bpDown</v>
       </c>
-      <c r="I27" t="s">
-        <v>110</v>
-      </c>
-      <c r="J27" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", Table69[[#This Row],[dir_1]], " ", dirs!$A$4, "/", Table69[[#This Row],[dir_2]], " -o ", dirs!$A$4, "/", Table69[[#This Row],[dir_out]], " --subst_type ", Table69[[#This Row],[subst_type]])</f>
+      <c r="I27" s="9" t="str">
+        <f>subst_type</f>
+        <v>without</v>
+      </c>
+      <c r="J27" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", libraries_4, "/", Table69[[#This Row],[dir_1]], " ", libraries_4, "/", Table69[[#This Row],[dir_2]], " -o ", libraries_4, "/", Table69[[#This Row],[dir_out]], " --subst_type ", Table69[[#This Row],[subst_type]])</f>
         <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgB_R2_sense_30bpDown libraries_4/WT_sgB_R2_branch_30bpDown -o libraries_4/WT_sgB_R2_sense_branch_30bpDown --subst_type without</v>
       </c>
-      <c r="K27" s="2" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table69[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table69[[#This Row],[dir_out]])</f>
+      <c r="K27" s="8" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table69[[#This Row],[subst_type]], " -dir ", globals!$A$4, "/", Table69[[#This Row],[dir_out]])</f>
         <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgB_R2_sense_branch_30bpDown</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+      <c r="A28" s="6">
         <v>4</v>
       </c>
-      <c r="B28" s="4" t="str">
+      <c r="B28" s="10" t="str">
         <f ca="1">OFFSET('3_graph'!$C$30, 3 * QUOTIENT(Table69[[#This Row],[index]] - 1, 2), 0)</f>
         <v>30bpDown</v>
       </c>
-      <c r="C28" s="4" t="str">
+      <c r="C28" s="10" t="str">
         <f ca="1">OFFSET('3_graph'!$K$30, 3 * QUOTIENT(Table69[[#This Row],[index]] - 1, 2), 0)</f>
         <v>sense</v>
       </c>
-      <c r="D28" t="str">
+      <c r="D28" s="9" t="str">
         <f ca="1">OFFSET('3_graph'!$B$30, 3 * QUOTIENT(Table69[[#This Row],[index]] - 1, 2), 0)</f>
         <v>WT_sgB_R2_sense_30bpDown</v>
       </c>
-      <c r="E28" t="str">
+      <c r="E28" s="9" t="str">
         <f ca="1">OFFSET('3_graph'!$K$30, 3 * QUOTIENT(Table69[[#This Row],[index]] - 1, 2) + 1 + MOD(Table69[[#This Row],[index]] - 1, 2), 0)</f>
         <v>cmv</v>
       </c>
-      <c r="F28" t="str">
+      <c r="F28" s="9" t="str">
         <f ca="1">OFFSET('3_graph'!$B$30, 3 * QUOTIENT(Table69[[#This Row],[index]] - 1, 2) + 1 + MOD(Table69[[#This Row],[index]] - 1, 2), 0)</f>
         <v>WT_sgB_R2_cmv_30bpDown</v>
       </c>
-      <c r="G28" t="str">
+      <c r="G28" s="9" t="str">
         <f ca="1">_xlfn.CONCAT(Table69[[#This Row],[treatment_1]], "_", Table69[[#This Row],[treatment_2]])</f>
         <v>sense_cmv</v>
       </c>
-      <c r="H28" t="str">
+      <c r="H28" s="9" t="str">
         <f ca="1">SUBSTITUTE(Table69[[#This Row],[dir_1]], Table69[[#This Row],[treatment_1]], Table69[[#This Row],[treatments_out]])</f>
         <v>WT_sgB_R2_sense_cmv_30bpDown</v>
       </c>
-      <c r="I28" t="s">
-        <v>110</v>
-      </c>
-      <c r="J28" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", Table69[[#This Row],[dir_1]], " ", dirs!$A$4, "/", Table69[[#This Row],[dir_2]], " -o ", dirs!$A$4, "/", Table69[[#This Row],[dir_out]], " --subst_type ", Table69[[#This Row],[subst_type]])</f>
+      <c r="I28" s="9" t="str">
+        <f>subst_type</f>
+        <v>without</v>
+      </c>
+      <c r="J28" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", libraries_4, "/", Table69[[#This Row],[dir_1]], " ", libraries_4, "/", Table69[[#This Row],[dir_2]], " -o ", libraries_4, "/", Table69[[#This Row],[dir_out]], " --subst_type ", Table69[[#This Row],[subst_type]])</f>
         <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgB_R2_sense_30bpDown libraries_4/WT_sgB_R2_cmv_30bpDown -o libraries_4/WT_sgB_R2_sense_cmv_30bpDown --subst_type without</v>
       </c>
-      <c r="K28" s="2" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table69[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table69[[#This Row],[dir_out]])</f>
+      <c r="K28" s="8" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table69[[#This Row],[subst_type]], " -dir ", globals!$A$4, "/", Table69[[#This Row],[dir_out]])</f>
         <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgB_R2_sense_cmv_30bpDown</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+      <c r="A29" s="6">
         <v>5</v>
       </c>
-      <c r="B29" s="4" t="str">
+      <c r="B29" s="10" t="str">
         <f ca="1">OFFSET('3_graph'!$C$30, 3 * QUOTIENT(Table69[[#This Row],[index]] - 1, 2), 0)</f>
         <v>30bpDown</v>
       </c>
-      <c r="C29" s="4" t="str">
+      <c r="C29" s="10" t="str">
         <f ca="1">OFFSET('3_graph'!$K$30, 3 * QUOTIENT(Table69[[#This Row],[index]] - 1, 2), 0)</f>
         <v>sense</v>
       </c>
-      <c r="D29" t="str">
+      <c r="D29" s="9" t="str">
         <f ca="1">OFFSET('3_graph'!$B$30, 3 * QUOTIENT(Table69[[#This Row],[index]] - 1, 2), 0)</f>
         <v>KO_sgA_R1_sense_30bpDown</v>
       </c>
-      <c r="E29" t="str">
+      <c r="E29" s="9" t="str">
         <f ca="1">OFFSET('3_graph'!$K$30, 3 * QUOTIENT(Table69[[#This Row],[index]] - 1, 2) + 1 + MOD(Table69[[#This Row],[index]] - 1, 2), 0)</f>
         <v>branch</v>
       </c>
-      <c r="F29" t="str">
+      <c r="F29" s="9" t="str">
         <f ca="1">OFFSET('3_graph'!$B$30, 3 * QUOTIENT(Table69[[#This Row],[index]] - 1, 2) + 1 + MOD(Table69[[#This Row],[index]] - 1, 2), 0)</f>
         <v>KO_sgA_R1_branch_30bpDown</v>
       </c>
-      <c r="G29" t="str">
+      <c r="G29" s="9" t="str">
         <f ca="1">_xlfn.CONCAT(Table69[[#This Row],[treatment_1]], "_", Table69[[#This Row],[treatment_2]])</f>
         <v>sense_branch</v>
       </c>
-      <c r="H29" t="str">
+      <c r="H29" s="9" t="str">
         <f ca="1">SUBSTITUTE(Table69[[#This Row],[dir_1]], Table69[[#This Row],[treatment_1]], Table69[[#This Row],[treatments_out]])</f>
         <v>KO_sgA_R1_sense_branch_30bpDown</v>
       </c>
-      <c r="I29" t="s">
-        <v>110</v>
-      </c>
-      <c r="J29" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", Table69[[#This Row],[dir_1]], " ", dirs!$A$4, "/", Table69[[#This Row],[dir_2]], " -o ", dirs!$A$4, "/", Table69[[#This Row],[dir_out]], " --subst_type ", Table69[[#This Row],[subst_type]])</f>
+      <c r="I29" s="9" t="str">
+        <f>subst_type</f>
+        <v>without</v>
+      </c>
+      <c r="J29" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", libraries_4, "/", Table69[[#This Row],[dir_1]], " ", libraries_4, "/", Table69[[#This Row],[dir_2]], " -o ", libraries_4, "/", Table69[[#This Row],[dir_out]], " --subst_type ", Table69[[#This Row],[subst_type]])</f>
         <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/KO_sgA_R1_sense_30bpDown libraries_4/KO_sgA_R1_branch_30bpDown -o libraries_4/KO_sgA_R1_sense_branch_30bpDown --subst_type without</v>
       </c>
-      <c r="K29" s="2" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table69[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table69[[#This Row],[dir_out]])</f>
+      <c r="K29" s="8" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table69[[#This Row],[subst_type]], " -dir ", globals!$A$4, "/", Table69[[#This Row],[dir_out]])</f>
         <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgA_R1_sense_branch_30bpDown</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+      <c r="A30" s="6">
         <v>6</v>
       </c>
-      <c r="B30" s="4" t="str">
+      <c r="B30" s="10" t="str">
         <f ca="1">OFFSET('3_graph'!$C$30, 3 * QUOTIENT(Table69[[#This Row],[index]] - 1, 2), 0)</f>
         <v>30bpDown</v>
       </c>
-      <c r="C30" s="4" t="str">
+      <c r="C30" s="10" t="str">
         <f ca="1">OFFSET('3_graph'!$K$30, 3 * QUOTIENT(Table69[[#This Row],[index]] - 1, 2), 0)</f>
         <v>sense</v>
       </c>
-      <c r="D30" t="str">
+      <c r="D30" s="9" t="str">
         <f ca="1">OFFSET('3_graph'!$B$30, 3 * QUOTIENT(Table69[[#This Row],[index]] - 1, 2), 0)</f>
         <v>KO_sgA_R1_sense_30bpDown</v>
       </c>
-      <c r="E30" t="str">
+      <c r="E30" s="9" t="str">
         <f ca="1">OFFSET('3_graph'!$K$30, 3 * QUOTIENT(Table69[[#This Row],[index]] - 1, 2) + 1 + MOD(Table69[[#This Row],[index]] - 1, 2), 0)</f>
         <v>cmv</v>
       </c>
-      <c r="F30" t="str">
+      <c r="F30" s="9" t="str">
         <f ca="1">OFFSET('3_graph'!$B$30, 3 * QUOTIENT(Table69[[#This Row],[index]] - 1, 2) + 1 + MOD(Table69[[#This Row],[index]] - 1, 2), 0)</f>
         <v>KO_sgA_R1_cmv_30bpDown</v>
       </c>
-      <c r="G30" t="str">
+      <c r="G30" s="9" t="str">
         <f ca="1">_xlfn.CONCAT(Table69[[#This Row],[treatment_1]], "_", Table69[[#This Row],[treatment_2]])</f>
         <v>sense_cmv</v>
       </c>
-      <c r="H30" t="str">
+      <c r="H30" s="9" t="str">
         <f ca="1">SUBSTITUTE(Table69[[#This Row],[dir_1]], Table69[[#This Row],[treatment_1]], Table69[[#This Row],[treatments_out]])</f>
         <v>KO_sgA_R1_sense_cmv_30bpDown</v>
       </c>
-      <c r="I30" t="s">
-        <v>110</v>
-      </c>
-      <c r="J30" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", Table69[[#This Row],[dir_1]], " ", dirs!$A$4, "/", Table69[[#This Row],[dir_2]], " -o ", dirs!$A$4, "/", Table69[[#This Row],[dir_out]], " --subst_type ", Table69[[#This Row],[subst_type]])</f>
+      <c r="I30" s="9" t="str">
+        <f>subst_type</f>
+        <v>without</v>
+      </c>
+      <c r="J30" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", libraries_4, "/", Table69[[#This Row],[dir_1]], " ", libraries_4, "/", Table69[[#This Row],[dir_2]], " -o ", libraries_4, "/", Table69[[#This Row],[dir_out]], " --subst_type ", Table69[[#This Row],[subst_type]])</f>
         <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/KO_sgA_R1_sense_30bpDown libraries_4/KO_sgA_R1_cmv_30bpDown -o libraries_4/KO_sgA_R1_sense_cmv_30bpDown --subst_type without</v>
       </c>
-      <c r="K30" s="2" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table69[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table69[[#This Row],[dir_out]])</f>
+      <c r="K30" s="8" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table69[[#This Row],[subst_type]], " -dir ", globals!$A$4, "/", Table69[[#This Row],[dir_out]])</f>
         <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgA_R1_sense_cmv_30bpDown</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+      <c r="A31" s="6">
         <v>7</v>
       </c>
-      <c r="B31" s="4" t="str">
+      <c r="B31" s="10" t="str">
         <f ca="1">OFFSET('3_graph'!$C$30, 3 * QUOTIENT(Table69[[#This Row],[index]] - 1, 2), 0)</f>
         <v>30bpDown</v>
       </c>
-      <c r="C31" s="4" t="str">
+      <c r="C31" s="10" t="str">
         <f ca="1">OFFSET('3_graph'!$K$30, 3 * QUOTIENT(Table69[[#This Row],[index]] - 1, 2), 0)</f>
         <v>sense</v>
       </c>
-      <c r="D31" t="str">
+      <c r="D31" s="9" t="str">
         <f ca="1">OFFSET('3_graph'!$B$30, 3 * QUOTIENT(Table69[[#This Row],[index]] - 1, 2), 0)</f>
         <v>KO_sgB_R2_sense_30bpDown</v>
       </c>
-      <c r="E31" t="str">
+      <c r="E31" s="9" t="str">
         <f ca="1">OFFSET('3_graph'!$K$30, 3 * QUOTIENT(Table69[[#This Row],[index]] - 1, 2) + 1 + MOD(Table69[[#This Row],[index]] - 1, 2), 0)</f>
         <v>branch</v>
       </c>
-      <c r="F31" t="str">
+      <c r="F31" s="9" t="str">
         <f ca="1">OFFSET('3_graph'!$B$30, 3 * QUOTIENT(Table69[[#This Row],[index]] - 1, 2) + 1 + MOD(Table69[[#This Row],[index]] - 1, 2), 0)</f>
         <v>KO_sgB_R2_branch_30bpDown</v>
       </c>
-      <c r="G31" t="str">
+      <c r="G31" s="9" t="str">
         <f ca="1">_xlfn.CONCAT(Table69[[#This Row],[treatment_1]], "_", Table69[[#This Row],[treatment_2]])</f>
         <v>sense_branch</v>
       </c>
-      <c r="H31" t="str">
+      <c r="H31" s="9" t="str">
         <f ca="1">SUBSTITUTE(Table69[[#This Row],[dir_1]], Table69[[#This Row],[treatment_1]], Table69[[#This Row],[treatments_out]])</f>
         <v>KO_sgB_R2_sense_branch_30bpDown</v>
       </c>
-      <c r="I31" t="s">
-        <v>110</v>
-      </c>
-      <c r="J31" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", Table69[[#This Row],[dir_1]], " ", dirs!$A$4, "/", Table69[[#This Row],[dir_2]], " -o ", dirs!$A$4, "/", Table69[[#This Row],[dir_out]], " --subst_type ", Table69[[#This Row],[subst_type]])</f>
+      <c r="I31" s="9" t="str">
+        <f>subst_type</f>
+        <v>without</v>
+      </c>
+      <c r="J31" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", libraries_4, "/", Table69[[#This Row],[dir_1]], " ", libraries_4, "/", Table69[[#This Row],[dir_2]], " -o ", libraries_4, "/", Table69[[#This Row],[dir_out]], " --subst_type ", Table69[[#This Row],[subst_type]])</f>
         <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/KO_sgB_R2_sense_30bpDown libraries_4/KO_sgB_R2_branch_30bpDown -o libraries_4/KO_sgB_R2_sense_branch_30bpDown --subst_type without</v>
       </c>
-      <c r="K31" s="2" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table69[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table69[[#This Row],[dir_out]])</f>
+      <c r="K31" s="8" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table69[[#This Row],[subst_type]], " -dir ", globals!$A$4, "/", Table69[[#This Row],[dir_out]])</f>
         <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgB_R2_sense_branch_30bpDown</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+      <c r="A32" s="6">
         <v>8</v>
       </c>
-      <c r="B32" s="4" t="str">
+      <c r="B32" s="10" t="str">
         <f ca="1">OFFSET('3_graph'!$C$30, 3 * QUOTIENT(Table69[[#This Row],[index]] - 1, 2), 0)</f>
         <v>30bpDown</v>
       </c>
-      <c r="C32" s="4" t="str">
+      <c r="C32" s="10" t="str">
         <f ca="1">OFFSET('3_graph'!$K$30, 3 * QUOTIENT(Table69[[#This Row],[index]] - 1, 2), 0)</f>
         <v>sense</v>
       </c>
-      <c r="D32" t="str">
+      <c r="D32" s="9" t="str">
         <f ca="1">OFFSET('3_graph'!$B$30, 3 * QUOTIENT(Table69[[#This Row],[index]] - 1, 2), 0)</f>
         <v>KO_sgB_R2_sense_30bpDown</v>
       </c>
-      <c r="E32" t="str">
+      <c r="E32" s="9" t="str">
         <f ca="1">OFFSET('3_graph'!$K$30, 3 * QUOTIENT(Table69[[#This Row],[index]] - 1, 2) + 1 + MOD(Table69[[#This Row],[index]] - 1, 2), 0)</f>
         <v>cmv</v>
       </c>
-      <c r="F32" t="str">
+      <c r="F32" s="9" t="str">
         <f ca="1">OFFSET('3_graph'!$B$30, 3 * QUOTIENT(Table69[[#This Row],[index]] - 1, 2) + 1 + MOD(Table69[[#This Row],[index]] - 1, 2), 0)</f>
         <v>KO_sgB_R2_cmv_30bpDown</v>
       </c>
-      <c r="G32" t="str">
+      <c r="G32" s="9" t="str">
         <f ca="1">_xlfn.CONCAT(Table69[[#This Row],[treatment_1]], "_", Table69[[#This Row],[treatment_2]])</f>
         <v>sense_cmv</v>
       </c>
-      <c r="H32" t="str">
+      <c r="H32" s="9" t="str">
         <f ca="1">SUBSTITUTE(Table69[[#This Row],[dir_1]], Table69[[#This Row],[treatment_1]], Table69[[#This Row],[treatments_out]])</f>
         <v>KO_sgB_R2_sense_cmv_30bpDown</v>
       </c>
-      <c r="I32" t="s">
-        <v>110</v>
-      </c>
-      <c r="J32" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", dirs!$A$4, "/", Table69[[#This Row],[dir_1]], " ", dirs!$A$4, "/", Table69[[#This Row],[dir_2]], " -o ", dirs!$A$4, "/", Table69[[#This Row],[dir_out]], " --subst_type ", Table69[[#This Row],[subst_type]])</f>
+      <c r="I32" s="9" t="str">
+        <f>subst_type</f>
+        <v>without</v>
+      </c>
+      <c r="J32" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", libraries_4, "/", Table69[[#This Row],[dir_1]], " ", libraries_4, "/", Table69[[#This Row],[dir_2]], " -o ", libraries_4, "/", Table69[[#This Row],[dir_out]], " --subst_type ", Table69[[#This Row],[subst_type]])</f>
         <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/KO_sgB_R2_sense_30bpDown libraries_4/KO_sgB_R2_cmv_30bpDown -o libraries_4/KO_sgB_R2_sense_cmv_30bpDown --subst_type without</v>
       </c>
-      <c r="K32" s="2" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table69[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table69[[#This Row],[dir_out]])</f>
+      <c r="K32" s="8" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table69[[#This Row],[subst_type]], " -dir ", globals!$A$4, "/", Table69[[#This Row],[dir_out]])</f>
         <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgB_R2_sense_cmv_30bpDown</v>
       </c>
     </row>
@@ -19902,8 +20139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FCC207B-A9CD-4866-A17E-A3EE763F139F}">
   <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="D35" workbookViewId="0">
+      <selection activeCell="M44" sqref="M44:M55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19959,7 +20196,7 @@
         <v>109</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>111</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -20006,12 +20243,13 @@
         <f ca="1">'2_combined'!H3</f>
         <v>sense</v>
       </c>
-      <c r="L2" t="s">
-        <v>110</v>
+      <c r="L2" t="str">
+        <f t="shared" ref="L2:L41" si="0">"with"</f>
+        <v>with</v>
       </c>
       <c r="M2" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", dirs!$A$4, "/",Table513[[#This Row],[dir]], " -o ", dirs!$A$5, "/")</f>
-        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/WT_sgAB_R1_sense -o libraries_5/</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", libraries_4, "/",Table513[[#This Row],[dir]], " -o ", histogram_3d, "/")</f>
+        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/WT_sgAB_R1_sense -o plots/histogram_3d/</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -20058,12 +20296,13 @@
         <f ca="1">'2_combined'!H4</f>
         <v>branch</v>
       </c>
-      <c r="L3" t="s">
-        <v>110</v>
+      <c r="L3" t="str">
+        <f t="shared" si="0"/>
+        <v>with</v>
       </c>
       <c r="M3" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", dirs!$A$4, "/",Table513[[#This Row],[dir]], " -o ", dirs!$A$5, "/")</f>
-        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/WT_sgAB_R1_branch -o libraries_5/</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", libraries_4, "/",Table513[[#This Row],[dir]], " -o ", histogram_3d, "/")</f>
+        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/WT_sgAB_R1_branch -o plots/histogram_3d/</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -20110,12 +20349,13 @@
         <f ca="1">'2_combined'!H5</f>
         <v>cmv</v>
       </c>
-      <c r="L4" t="s">
-        <v>110</v>
+      <c r="L4" t="str">
+        <f t="shared" si="0"/>
+        <v>with</v>
       </c>
       <c r="M4" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", dirs!$A$4, "/",Table513[[#This Row],[dir]], " -o ", dirs!$A$5, "/")</f>
-        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/WT_sgAB_R1_cmv -o libraries_5/</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", libraries_4, "/",Table513[[#This Row],[dir]], " -o ", histogram_3d, "/")</f>
+        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/WT_sgAB_R1_cmv -o plots/histogram_3d/</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -20162,12 +20402,13 @@
         <f ca="1">'2_combined'!H6</f>
         <v>sense</v>
       </c>
-      <c r="L5" t="s">
-        <v>110</v>
+      <c r="L5" t="str">
+        <f t="shared" si="0"/>
+        <v>with</v>
       </c>
       <c r="M5" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", dirs!$A$4, "/",Table513[[#This Row],[dir]], " -o ", dirs!$A$5, "/")</f>
-        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/KO_sgAB_R1_sense -o libraries_5/</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", libraries_4, "/",Table513[[#This Row],[dir]], " -o ", histogram_3d, "/")</f>
+        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/KO_sgAB_R1_sense -o plots/histogram_3d/</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -20214,12 +20455,13 @@
         <f ca="1">'2_combined'!H7</f>
         <v>branch</v>
       </c>
-      <c r="L6" t="s">
-        <v>110</v>
+      <c r="L6" t="str">
+        <f t="shared" si="0"/>
+        <v>with</v>
       </c>
       <c r="M6" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", dirs!$A$4, "/",Table513[[#This Row],[dir]], " -o ", dirs!$A$5, "/")</f>
-        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/KO_sgAB_R1_branch -o libraries_5/</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", libraries_4, "/",Table513[[#This Row],[dir]], " -o ", histogram_3d, "/")</f>
+        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/KO_sgAB_R1_branch -o plots/histogram_3d/</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -20266,12 +20508,13 @@
         <f ca="1">'2_combined'!H8</f>
         <v>cmv</v>
       </c>
-      <c r="L7" t="s">
-        <v>110</v>
+      <c r="L7" t="str">
+        <f t="shared" si="0"/>
+        <v>with</v>
       </c>
       <c r="M7" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", dirs!$A$4, "/",Table513[[#This Row],[dir]], " -o ", dirs!$A$5, "/")</f>
-        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/KO_sgAB_R1_cmv -o libraries_5/</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", libraries_4, "/",Table513[[#This Row],[dir]], " -o ", histogram_3d, "/")</f>
+        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/KO_sgAB_R1_cmv -o plots/histogram_3d/</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -20318,12 +20561,13 @@
         <f ca="1">'2_combined'!H9</f>
         <v>sense</v>
       </c>
-      <c r="L8" t="s">
-        <v>110</v>
+      <c r="L8" t="str">
+        <f t="shared" si="0"/>
+        <v>with</v>
       </c>
       <c r="M8" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", dirs!$A$4, "/",Table513[[#This Row],[dir]], " -o ", dirs!$A$5, "/")</f>
-        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/WT_sgAB_R2_sense -o libraries_5/</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", libraries_4, "/",Table513[[#This Row],[dir]], " -o ", histogram_3d, "/")</f>
+        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/WT_sgAB_R2_sense -o plots/histogram_3d/</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -20370,12 +20614,13 @@
         <f ca="1">'2_combined'!H10</f>
         <v>branch</v>
       </c>
-      <c r="L9" t="s">
-        <v>110</v>
+      <c r="L9" t="str">
+        <f t="shared" si="0"/>
+        <v>with</v>
       </c>
       <c r="M9" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", dirs!$A$4, "/",Table513[[#This Row],[dir]], " -o ", dirs!$A$5, "/")</f>
-        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/WT_sgAB_R2_branch -o libraries_5/</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", libraries_4, "/",Table513[[#This Row],[dir]], " -o ", histogram_3d, "/")</f>
+        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/WT_sgAB_R2_branch -o plots/histogram_3d/</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -20422,12 +20667,13 @@
         <f ca="1">'2_combined'!H11</f>
         <v>cmv</v>
       </c>
-      <c r="L10" t="s">
-        <v>110</v>
+      <c r="L10" t="str">
+        <f t="shared" si="0"/>
+        <v>with</v>
       </c>
       <c r="M10" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", dirs!$A$4, "/",Table513[[#This Row],[dir]], " -o ", dirs!$A$5, "/")</f>
-        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/WT_sgAB_R2_cmv -o libraries_5/</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", libraries_4, "/",Table513[[#This Row],[dir]], " -o ", histogram_3d, "/")</f>
+        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/WT_sgAB_R2_cmv -o plots/histogram_3d/</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -20474,12 +20720,13 @@
         <f ca="1">'2_combined'!H12</f>
         <v>sense</v>
       </c>
-      <c r="L11" t="s">
-        <v>110</v>
+      <c r="L11" t="str">
+        <f t="shared" si="0"/>
+        <v>with</v>
       </c>
       <c r="M11" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", dirs!$A$4, "/",Table513[[#This Row],[dir]], " -o ", dirs!$A$5, "/")</f>
-        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/KO_sgAB_R2_sense -o libraries_5/</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", libraries_4, "/",Table513[[#This Row],[dir]], " -o ", histogram_3d, "/")</f>
+        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/KO_sgAB_R2_sense -o plots/histogram_3d/</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -20526,12 +20773,13 @@
         <f ca="1">'2_combined'!H13</f>
         <v>branch</v>
       </c>
-      <c r="L12" t="s">
-        <v>110</v>
+      <c r="L12" t="str">
+        <f t="shared" si="0"/>
+        <v>with</v>
       </c>
       <c r="M12" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", dirs!$A$4, "/",Table513[[#This Row],[dir]], " -o ", dirs!$A$5, "/")</f>
-        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/KO_sgAB_R2_branch -o libraries_5/</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", libraries_4, "/",Table513[[#This Row],[dir]], " -o ", histogram_3d, "/")</f>
+        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/KO_sgAB_R2_branch -o plots/histogram_3d/</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -20578,12 +20826,13 @@
         <f ca="1">'2_combined'!H14</f>
         <v>cmv</v>
       </c>
-      <c r="L13" t="s">
-        <v>110</v>
+      <c r="L13" t="str">
+        <f t="shared" si="0"/>
+        <v>with</v>
       </c>
       <c r="M13" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", dirs!$A$4, "/",Table513[[#This Row],[dir]], " -o ", dirs!$A$5, "/")</f>
-        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/KO_sgAB_R2_cmv -o libraries_5/</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", libraries_4, "/",Table513[[#This Row],[dir]], " -o ", histogram_3d, "/")</f>
+        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/KO_sgAB_R2_cmv -o plots/histogram_3d/</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -20630,12 +20879,13 @@
         <f ca="1">'2_combined'!H15</f>
         <v>sense</v>
       </c>
-      <c r="L14" t="s">
-        <v>110</v>
+      <c r="L14" t="str">
+        <f t="shared" si="0"/>
+        <v>with</v>
       </c>
       <c r="M14" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", dirs!$A$4, "/",Table513[[#This Row],[dir]], " -o ", dirs!$A$5, "/")</f>
-        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/WT_sgA_R1_sense -o libraries_5/</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", libraries_4, "/",Table513[[#This Row],[dir]], " -o ", histogram_3d, "/")</f>
+        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/WT_sgA_R1_sense -o plots/histogram_3d/</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -20682,12 +20932,13 @@
         <f ca="1">'2_combined'!H16</f>
         <v>branch</v>
       </c>
-      <c r="L15" t="s">
-        <v>110</v>
+      <c r="L15" t="str">
+        <f t="shared" si="0"/>
+        <v>with</v>
       </c>
       <c r="M15" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", dirs!$A$4, "/",Table513[[#This Row],[dir]], " -o ", dirs!$A$5, "/")</f>
-        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/WT_sgA_R1_branch -o libraries_5/</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", libraries_4, "/",Table513[[#This Row],[dir]], " -o ", histogram_3d, "/")</f>
+        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/WT_sgA_R1_branch -o plots/histogram_3d/</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -20734,12 +20985,13 @@
         <f ca="1">'2_combined'!H17</f>
         <v>cmv</v>
       </c>
-      <c r="L16" t="s">
-        <v>110</v>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v>with</v>
       </c>
       <c r="M16" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", dirs!$A$4, "/",Table513[[#This Row],[dir]], " -o ", dirs!$A$5, "/")</f>
-        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/WT_sgA_R1_cmv -o libraries_5/</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", libraries_4, "/",Table513[[#This Row],[dir]], " -o ", histogram_3d, "/")</f>
+        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/WT_sgA_R1_cmv -o plots/histogram_3d/</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -20786,12 +21038,13 @@
         <f ca="1">'2_combined'!H18</f>
         <v>sense</v>
       </c>
-      <c r="L17" t="s">
-        <v>110</v>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v>with</v>
       </c>
       <c r="M17" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", dirs!$A$4, "/",Table513[[#This Row],[dir]], " -o ", dirs!$A$5, "/")</f>
-        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/WT_sgB_R2_sense -o libraries_5/</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", libraries_4, "/",Table513[[#This Row],[dir]], " -o ", histogram_3d, "/")</f>
+        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/WT_sgB_R2_sense -o plots/histogram_3d/</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -20838,12 +21091,13 @@
         <f ca="1">'2_combined'!H19</f>
         <v>branch</v>
       </c>
-      <c r="L18" t="s">
-        <v>110</v>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v>with</v>
       </c>
       <c r="M18" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", dirs!$A$4, "/",Table513[[#This Row],[dir]], " -o ", dirs!$A$5, "/")</f>
-        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/WT_sgB_R2_branch -o libraries_5/</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", libraries_4, "/",Table513[[#This Row],[dir]], " -o ", histogram_3d, "/")</f>
+        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/WT_sgB_R2_branch -o plots/histogram_3d/</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -20890,12 +21144,13 @@
         <f ca="1">'2_combined'!H20</f>
         <v>cmv</v>
       </c>
-      <c r="L19" t="s">
-        <v>110</v>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v>with</v>
       </c>
       <c r="M19" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", dirs!$A$4, "/",Table513[[#This Row],[dir]], " -o ", dirs!$A$5, "/")</f>
-        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/WT_sgB_R2_cmv -o libraries_5/</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", libraries_4, "/",Table513[[#This Row],[dir]], " -o ", histogram_3d, "/")</f>
+        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/WT_sgB_R2_cmv -o plots/histogram_3d/</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -20942,12 +21197,13 @@
         <f ca="1">'2_combined'!H21</f>
         <v>sense</v>
       </c>
-      <c r="L20" t="s">
-        <v>110</v>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v>with</v>
       </c>
       <c r="M20" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", dirs!$A$4, "/",Table513[[#This Row],[dir]], " -o ", dirs!$A$5, "/")</f>
-        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/KO_sgA_R1_sense -o libraries_5/</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", libraries_4, "/",Table513[[#This Row],[dir]], " -o ", histogram_3d, "/")</f>
+        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/KO_sgA_R1_sense -o plots/histogram_3d/</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -20994,12 +21250,13 @@
         <f ca="1">'2_combined'!H22</f>
         <v>branch</v>
       </c>
-      <c r="L21" t="s">
-        <v>110</v>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v>with</v>
       </c>
       <c r="M21" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", dirs!$A$4, "/",Table513[[#This Row],[dir]], " -o ", dirs!$A$5, "/")</f>
-        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/KO_sgA_R1_branch -o libraries_5/</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", libraries_4, "/",Table513[[#This Row],[dir]], " -o ", histogram_3d, "/")</f>
+        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/KO_sgA_R1_branch -o plots/histogram_3d/</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -21046,12 +21303,13 @@
         <f ca="1">'2_combined'!H23</f>
         <v>cmv</v>
       </c>
-      <c r="L22" t="s">
-        <v>110</v>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v>with</v>
       </c>
       <c r="M22" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", dirs!$A$4, "/",Table513[[#This Row],[dir]], " -o ", dirs!$A$5, "/")</f>
-        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/KO_sgA_R1_cmv -o libraries_5/</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", libraries_4, "/",Table513[[#This Row],[dir]], " -o ", histogram_3d, "/")</f>
+        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/KO_sgA_R1_cmv -o plots/histogram_3d/</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -21098,12 +21356,13 @@
         <f ca="1">'2_combined'!H24</f>
         <v>sense</v>
       </c>
-      <c r="L23" t="s">
-        <v>110</v>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v>with</v>
       </c>
       <c r="M23" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", dirs!$A$4, "/",Table513[[#This Row],[dir]], " -o ", dirs!$A$5, "/")</f>
-        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/KO_sgB_R2_sense -o libraries_5/</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", libraries_4, "/",Table513[[#This Row],[dir]], " -o ", histogram_3d, "/")</f>
+        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/KO_sgB_R2_sense -o plots/histogram_3d/</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -21150,12 +21409,13 @@
         <f ca="1">'2_combined'!H25</f>
         <v>branch</v>
       </c>
-      <c r="L24" t="s">
-        <v>110</v>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v>with</v>
       </c>
       <c r="M24" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", dirs!$A$4, "/",Table513[[#This Row],[dir]], " -o ", dirs!$A$5, "/")</f>
-        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/KO_sgB_R2_branch -o libraries_5/</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", libraries_4, "/",Table513[[#This Row],[dir]], " -o ", histogram_3d, "/")</f>
+        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/KO_sgB_R2_branch -o plots/histogram_3d/</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -21202,12 +21462,13 @@
         <f ca="1">'2_combined'!H26</f>
         <v>cmv</v>
       </c>
-      <c r="L25" t="s">
-        <v>110</v>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v>with</v>
       </c>
       <c r="M25" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", dirs!$A$4, "/",Table513[[#This Row],[dir]], " -o ", dirs!$A$5, "/")</f>
-        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/KO_sgB_R2_cmv -o libraries_5/</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", libraries_4, "/",Table513[[#This Row],[dir]], " -o ", histogram_3d, "/")</f>
+        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/KO_sgB_R2_cmv -o plots/histogram_3d/</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -21254,12 +21515,13 @@
         <f ca="1">'2_combined'!H27</f>
         <v>antisense</v>
       </c>
-      <c r="L26" t="s">
-        <v>110</v>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v>with</v>
       </c>
       <c r="M26" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", dirs!$A$4, "/",Table513[[#This Row],[dir]], " -o ", dirs!$A$5, "/")</f>
-        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/WT_sgCD_R1_antisense -o libraries_5/</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", libraries_4, "/",Table513[[#This Row],[dir]], " -o ", histogram_3d, "/")</f>
+        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/WT_sgCD_R1_antisense -o plots/histogram_3d/</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -21306,12 +21568,13 @@
         <f ca="1">'2_combined'!H28</f>
         <v>splicing</v>
       </c>
-      <c r="L27" t="s">
-        <v>110</v>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v>with</v>
       </c>
       <c r="M27" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", dirs!$A$4, "/",Table513[[#This Row],[dir]], " -o ", dirs!$A$5, "/")</f>
-        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/WT_sgCD_R1_splicing -o libraries_5/</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", libraries_4, "/",Table513[[#This Row],[dir]], " -o ", histogram_3d, "/")</f>
+        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/WT_sgCD_R1_splicing -o plots/histogram_3d/</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -21358,12 +21621,13 @@
         <f ca="1">'2_combined'!H29</f>
         <v>antisense</v>
       </c>
-      <c r="L28" t="s">
-        <v>110</v>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v>with</v>
       </c>
       <c r="M28" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", dirs!$A$4, "/",Table513[[#This Row],[dir]], " -o ", dirs!$A$5, "/")</f>
-        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/WT_sgCD_R2_antisense -o libraries_5/</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", libraries_4, "/",Table513[[#This Row],[dir]], " -o ", histogram_3d, "/")</f>
+        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/WT_sgCD_R2_antisense -o plots/histogram_3d/</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -21410,12 +21674,13 @@
         <f ca="1">'2_combined'!H30</f>
         <v>splicing</v>
       </c>
-      <c r="L29" t="s">
-        <v>110</v>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v>with</v>
       </c>
       <c r="M29" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", dirs!$A$4, "/",Table513[[#This Row],[dir]], " -o ", dirs!$A$5, "/")</f>
-        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/WT_sgCD_R2_splicing -o libraries_5/</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", libraries_4, "/",Table513[[#This Row],[dir]], " -o ", histogram_3d, "/")</f>
+        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/WT_sgCD_R2_splicing -o plots/histogram_3d/</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -21462,12 +21727,13 @@
         <f ca="1">'2_combined'!H31</f>
         <v>sense</v>
       </c>
-      <c r="L30" t="s">
-        <v>110</v>
+      <c r="L30" t="str">
+        <f t="shared" si="0"/>
+        <v>with</v>
       </c>
       <c r="M30" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", dirs!$A$4, "/",Table513[[#This Row],[dir]], " -o ", dirs!$A$5, "/")</f>
-        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/WT_sgA_R1_sense_30bpDown -o libraries_5/</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", libraries_4, "/",Table513[[#This Row],[dir]], " -o ", histogram_3d, "/")</f>
+        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/WT_sgA_R1_sense_30bpDown -o plots/histogram_3d/</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -21514,12 +21780,13 @@
         <f ca="1">'2_combined'!H32</f>
         <v>branch</v>
       </c>
-      <c r="L31" t="s">
-        <v>110</v>
+      <c r="L31" t="str">
+        <f t="shared" si="0"/>
+        <v>with</v>
       </c>
       <c r="M31" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", dirs!$A$4, "/",Table513[[#This Row],[dir]], " -o ", dirs!$A$5, "/")</f>
-        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/WT_sgA_R1_branch_30bpDown -o libraries_5/</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", libraries_4, "/",Table513[[#This Row],[dir]], " -o ", histogram_3d, "/")</f>
+        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/WT_sgA_R1_branch_30bpDown -o plots/histogram_3d/</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -21566,12 +21833,13 @@
         <f ca="1">'2_combined'!H33</f>
         <v>cmv</v>
       </c>
-      <c r="L32" t="s">
-        <v>110</v>
+      <c r="L32" t="str">
+        <f t="shared" si="0"/>
+        <v>with</v>
       </c>
       <c r="M32" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", dirs!$A$4, "/",Table513[[#This Row],[dir]], " -o ", dirs!$A$5, "/")</f>
-        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/WT_sgA_R1_cmv_30bpDown -o libraries_5/</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", libraries_4, "/",Table513[[#This Row],[dir]], " -o ", histogram_3d, "/")</f>
+        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/WT_sgA_R1_cmv_30bpDown -o plots/histogram_3d/</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
@@ -21618,12 +21886,13 @@
         <f ca="1">'2_combined'!H34</f>
         <v>sense</v>
       </c>
-      <c r="L33" t="s">
-        <v>110</v>
+      <c r="L33" t="str">
+        <f t="shared" si="0"/>
+        <v>with</v>
       </c>
       <c r="M33" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", dirs!$A$4, "/",Table513[[#This Row],[dir]], " -o ", dirs!$A$5, "/")</f>
-        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/WT_sgB_R2_sense_30bpDown -o libraries_5/</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", libraries_4, "/",Table513[[#This Row],[dir]], " -o ", histogram_3d, "/")</f>
+        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/WT_sgB_R2_sense_30bpDown -o plots/histogram_3d/</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
@@ -21670,12 +21939,13 @@
         <f ca="1">'2_combined'!H35</f>
         <v>branch</v>
       </c>
-      <c r="L34" t="s">
-        <v>110</v>
+      <c r="L34" t="str">
+        <f t="shared" si="0"/>
+        <v>with</v>
       </c>
       <c r="M34" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", dirs!$A$4, "/",Table513[[#This Row],[dir]], " -o ", dirs!$A$5, "/")</f>
-        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/WT_sgB_R2_branch_30bpDown -o libraries_5/</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", libraries_4, "/",Table513[[#This Row],[dir]], " -o ", histogram_3d, "/")</f>
+        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/WT_sgB_R2_branch_30bpDown -o plots/histogram_3d/</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
@@ -21722,12 +21992,13 @@
         <f ca="1">'2_combined'!H36</f>
         <v>cmv</v>
       </c>
-      <c r="L35" t="s">
-        <v>110</v>
+      <c r="L35" t="str">
+        <f t="shared" si="0"/>
+        <v>with</v>
       </c>
       <c r="M35" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", dirs!$A$4, "/",Table513[[#This Row],[dir]], " -o ", dirs!$A$5, "/")</f>
-        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/WT_sgB_R2_cmv_30bpDown -o libraries_5/</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", libraries_4, "/",Table513[[#This Row],[dir]], " -o ", histogram_3d, "/")</f>
+        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/WT_sgB_R2_cmv_30bpDown -o plots/histogram_3d/</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
@@ -21774,12 +22045,13 @@
         <f ca="1">'2_combined'!H37</f>
         <v>sense</v>
       </c>
-      <c r="L36" t="s">
-        <v>110</v>
+      <c r="L36" t="str">
+        <f t="shared" si="0"/>
+        <v>with</v>
       </c>
       <c r="M36" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", dirs!$A$4, "/",Table513[[#This Row],[dir]], " -o ", dirs!$A$5, "/")</f>
-        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/KO_sgA_R1_sense_30bpDown -o libraries_5/</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", libraries_4, "/",Table513[[#This Row],[dir]], " -o ", histogram_3d, "/")</f>
+        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/KO_sgA_R1_sense_30bpDown -o plots/histogram_3d/</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
@@ -21826,12 +22098,13 @@
         <f ca="1">'2_combined'!H38</f>
         <v>branch</v>
       </c>
-      <c r="L37" t="s">
-        <v>110</v>
+      <c r="L37" t="str">
+        <f t="shared" si="0"/>
+        <v>with</v>
       </c>
       <c r="M37" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", dirs!$A$4, "/",Table513[[#This Row],[dir]], " -o ", dirs!$A$5, "/")</f>
-        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/KO_sgA_R1_branch_30bpDown -o libraries_5/</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", libraries_4, "/",Table513[[#This Row],[dir]], " -o ", histogram_3d, "/")</f>
+        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/KO_sgA_R1_branch_30bpDown -o plots/histogram_3d/</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
@@ -21878,12 +22151,13 @@
         <f ca="1">'2_combined'!H39</f>
         <v>cmv</v>
       </c>
-      <c r="L38" t="s">
-        <v>110</v>
+      <c r="L38" t="str">
+        <f t="shared" si="0"/>
+        <v>with</v>
       </c>
       <c r="M38" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", dirs!$A$4, "/",Table513[[#This Row],[dir]], " -o ", dirs!$A$5, "/")</f>
-        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/KO_sgA_R1_cmv_30bpDown -o libraries_5/</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", libraries_4, "/",Table513[[#This Row],[dir]], " -o ", histogram_3d, "/")</f>
+        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/KO_sgA_R1_cmv_30bpDown -o plots/histogram_3d/</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
@@ -21930,12 +22204,13 @@
         <f ca="1">'2_combined'!H40</f>
         <v>sense</v>
       </c>
-      <c r="L39" t="s">
-        <v>110</v>
+      <c r="L39" t="str">
+        <f t="shared" si="0"/>
+        <v>with</v>
       </c>
       <c r="M39" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", dirs!$A$4, "/",Table513[[#This Row],[dir]], " -o ", dirs!$A$5, "/")</f>
-        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/KO_sgB_R2_sense_30bpDown -o libraries_5/</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", libraries_4, "/",Table513[[#This Row],[dir]], " -o ", histogram_3d, "/")</f>
+        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/KO_sgB_R2_sense_30bpDown -o plots/histogram_3d/</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
@@ -21982,12 +22257,13 @@
         <f ca="1">'2_combined'!H41</f>
         <v>branch</v>
       </c>
-      <c r="L40" t="s">
-        <v>110</v>
+      <c r="L40" t="str">
+        <f t="shared" si="0"/>
+        <v>with</v>
       </c>
       <c r="M40" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", dirs!$A$4, "/",Table513[[#This Row],[dir]], " -o ", dirs!$A$5, "/")</f>
-        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/KO_sgB_R2_branch_30bpDown -o libraries_5/</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", libraries_4, "/",Table513[[#This Row],[dir]], " -o ", histogram_3d, "/")</f>
+        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/KO_sgB_R2_branch_30bpDown -o plots/histogram_3d/</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
@@ -22034,12 +22310,13 @@
         <f ca="1">'2_combined'!H42</f>
         <v>cmv</v>
       </c>
-      <c r="L41" t="s">
-        <v>110</v>
+      <c r="L41" t="str">
+        <f t="shared" si="0"/>
+        <v>with</v>
       </c>
       <c r="M41" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", dirs!$A$4, "/",Table513[[#This Row],[dir]], " -o ", dirs!$A$5, "/")</f>
-        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/KO_sgB_R2_cmv_30bpDown -o libraries_5/</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", libraries_4, "/",Table513[[#This Row],[dir]], " -o ", histogram_3d, "/")</f>
+        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/KO_sgB_R2_cmv_30bpDown -o plots/histogram_3d/</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
@@ -22130,16 +22407,17 @@
         <f>'2_combined'!H45</f>
         <v>sense</v>
       </c>
-      <c r="L44" t="s">
-        <v>110</v>
+      <c r="L44" t="str">
+        <f t="shared" ref="L44:L55" si="1">"with"</f>
+        <v>with</v>
       </c>
       <c r="M44" t="str">
-        <f>_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/",Table1014[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table1014[[#This Row],[dir]], " -ref ref_seq/", Table1014[[#This Row],[ref]], " -dsb ", Table1014[[#This Row],[dsb_pos]], " --dsb_type ",Table1014[[#This Row],[dsb_type_command]], " --strand ", Table1014[[#This Row],[strand]], " --hguide ", Table1014[[#This Row],[hguide]], " --cell ", Table1014[[#This Row],[cell]], " --treatment ", Table1014[[#This Row],[treatment]], " --subst_type ", Table1014[[#This Row],[subst_type]], " --control ", Table1014[[#This Row],[control]])</f>
-        <v>python 2_graph_processing/make_main_data.py -in libraries_3/WT_sgA_R1_sense_nodsb.tsv -o libraries_4/WT_sgA_R1_sense_nodsb -ref ref_seq/1DSB_R1_sense.fa -dsb 67 --dsb_type 1 --strand R1 --hguide A --cell WT --treatment sense --subst_type without --control noDSB</v>
+        <f>_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", libraries_4, "/",Table1014[[#This Row],[dir]], " -o ", histogram_3d, "/")</f>
+        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/WT_sgA_R1_sense_nodsb -o plots/histogram_3d/</v>
       </c>
       <c r="N44" t="str">
-        <f>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table1014[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table1014[[#This Row],[dir]])</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgA_R1_sense_nodsb</v>
+        <f>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table1014[[#This Row],[subst_type]], " -dir ", globals!$A$4, "/", Table1014[[#This Row],[dir]])</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type with -dir libraries_4/WT_sgA_R1_sense_nodsb</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
@@ -22186,16 +22464,17 @@
         <f>'2_combined'!H46</f>
         <v>branch</v>
       </c>
-      <c r="L45" t="s">
-        <v>110</v>
+      <c r="L45" t="str">
+        <f t="shared" si="1"/>
+        <v>with</v>
       </c>
       <c r="M45" t="str">
-        <f>_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/",Table1014[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table1014[[#This Row],[dir]], " -ref ref_seq/", Table1014[[#This Row],[ref]], " -dsb ", Table1014[[#This Row],[dsb_pos]], " --dsb_type ",Table1014[[#This Row],[dsb_type_command]], " --strand ", Table1014[[#This Row],[strand]], " --hguide ", Table1014[[#This Row],[hguide]], " --cell ", Table1014[[#This Row],[cell]], " --treatment ", Table1014[[#This Row],[treatment]], " --subst_type ", Table1014[[#This Row],[subst_type]], " --control ", Table1014[[#This Row],[control]])</f>
-        <v>python 2_graph_processing/make_main_data.py -in libraries_3/WT_sgA_R1_branch_nodsb.tsv -o libraries_4/WT_sgA_R1_branch_nodsb -ref ref_seq/1DSB_R1_branch.fa -dsb 67 --dsb_type 1 --strand R1 --hguide A --cell WT --treatment branch --subst_type without --control noDSB</v>
+        <f>_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", libraries_4, "/",Table1014[[#This Row],[dir]], " -o ", histogram_3d, "/")</f>
+        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/WT_sgA_R1_branch_nodsb -o plots/histogram_3d/</v>
       </c>
       <c r="N45" t="str">
-        <f>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table1014[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table1014[[#This Row],[dir]])</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgA_R1_branch_nodsb</v>
+        <f>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table1014[[#This Row],[subst_type]], " -dir ", globals!$A$4, "/", Table1014[[#This Row],[dir]])</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type with -dir libraries_4/WT_sgA_R1_branch_nodsb</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
@@ -22242,16 +22521,17 @@
         <f>'2_combined'!H47</f>
         <v>cmv</v>
       </c>
-      <c r="L46" t="s">
-        <v>110</v>
+      <c r="L46" t="str">
+        <f t="shared" si="1"/>
+        <v>with</v>
       </c>
       <c r="M46" t="str">
-        <f>_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/",Table1014[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table1014[[#This Row],[dir]], " -ref ref_seq/", Table1014[[#This Row],[ref]], " -dsb ", Table1014[[#This Row],[dsb_pos]], " --dsb_type ",Table1014[[#This Row],[dsb_type_command]], " --strand ", Table1014[[#This Row],[strand]], " --hguide ", Table1014[[#This Row],[hguide]], " --cell ", Table1014[[#This Row],[cell]], " --treatment ", Table1014[[#This Row],[treatment]], " --subst_type ", Table1014[[#This Row],[subst_type]], " --control ", Table1014[[#This Row],[control]])</f>
-        <v>python 2_graph_processing/make_main_data.py -in libraries_3/WT_sgA_R1_cmv_nodsb.tsv -o libraries_4/WT_sgA_R1_cmv_nodsb -ref ref_seq/1DSB_R1_cmv.fa -dsb 67 --dsb_type 1 --strand R1 --hguide A --cell WT --treatment cmv --subst_type without --control noDSB</v>
+        <f>_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", libraries_4, "/",Table1014[[#This Row],[dir]], " -o ", histogram_3d, "/")</f>
+        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/WT_sgA_R1_cmv_nodsb -o plots/histogram_3d/</v>
       </c>
       <c r="N46" t="str">
-        <f>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table1014[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table1014[[#This Row],[dir]])</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgA_R1_cmv_nodsb</v>
+        <f>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table1014[[#This Row],[subst_type]], " -dir ", globals!$A$4, "/", Table1014[[#This Row],[dir]])</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type with -dir libraries_4/WT_sgA_R1_cmv_nodsb</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
@@ -22298,16 +22578,17 @@
         <f>'2_combined'!H48</f>
         <v>sense</v>
       </c>
-      <c r="L47" t="s">
-        <v>110</v>
+      <c r="L47" t="str">
+        <f t="shared" si="1"/>
+        <v>with</v>
       </c>
       <c r="M47" t="str">
-        <f>_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/",Table1014[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table1014[[#This Row],[dir]], " -ref ref_seq/", Table1014[[#This Row],[ref]], " -dsb ", Table1014[[#This Row],[dsb_pos]], " --dsb_type ",Table1014[[#This Row],[dsb_type_command]], " --strand ", Table1014[[#This Row],[strand]], " --hguide ", Table1014[[#This Row],[hguide]], " --cell ", Table1014[[#This Row],[cell]], " --treatment ", Table1014[[#This Row],[treatment]], " --subst_type ", Table1014[[#This Row],[subst_type]], " --control ", Table1014[[#This Row],[control]])</f>
-        <v>python 2_graph_processing/make_main_data.py -in libraries_3/KO_sgA_R1_sense_nodsb.tsv -o libraries_4/KO_sgA_R1_sense_nodsb -ref ref_seq/1DSB_R1_sense.fa -dsb 67 --dsb_type 1 --strand R1 --hguide A --cell KO --treatment sense --subst_type without --control noDSB</v>
+        <f>_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", libraries_4, "/",Table1014[[#This Row],[dir]], " -o ", histogram_3d, "/")</f>
+        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/KO_sgA_R1_sense_nodsb -o plots/histogram_3d/</v>
       </c>
       <c r="N47" t="str">
-        <f>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table1014[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table1014[[#This Row],[dir]])</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgA_R1_sense_nodsb</v>
+        <f>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table1014[[#This Row],[subst_type]], " -dir ", globals!$A$4, "/", Table1014[[#This Row],[dir]])</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type with -dir libraries_4/KO_sgA_R1_sense_nodsb</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
@@ -22354,16 +22635,17 @@
         <f>'2_combined'!H49</f>
         <v>branch</v>
       </c>
-      <c r="L48" t="s">
-        <v>110</v>
+      <c r="L48" t="str">
+        <f t="shared" si="1"/>
+        <v>with</v>
       </c>
       <c r="M48" t="str">
-        <f>_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/",Table1014[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table1014[[#This Row],[dir]], " -ref ref_seq/", Table1014[[#This Row],[ref]], " -dsb ", Table1014[[#This Row],[dsb_pos]], " --dsb_type ",Table1014[[#This Row],[dsb_type_command]], " --strand ", Table1014[[#This Row],[strand]], " --hguide ", Table1014[[#This Row],[hguide]], " --cell ", Table1014[[#This Row],[cell]], " --treatment ", Table1014[[#This Row],[treatment]], " --subst_type ", Table1014[[#This Row],[subst_type]], " --control ", Table1014[[#This Row],[control]])</f>
-        <v>python 2_graph_processing/make_main_data.py -in libraries_3/KO_sgA_R1_branch_nodsb.tsv -o libraries_4/KO_sgA_R1_branch_nodsb -ref ref_seq/1DSB_R1_branch.fa -dsb 67 --dsb_type 1 --strand R1 --hguide A --cell KO --treatment branch --subst_type without --control noDSB</v>
+        <f>_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", libraries_4, "/",Table1014[[#This Row],[dir]], " -o ", histogram_3d, "/")</f>
+        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/KO_sgA_R1_branch_nodsb -o plots/histogram_3d/</v>
       </c>
       <c r="N48" t="str">
-        <f>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table1014[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table1014[[#This Row],[dir]])</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgA_R1_branch_nodsb</v>
+        <f>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table1014[[#This Row],[subst_type]], " -dir ", globals!$A$4, "/", Table1014[[#This Row],[dir]])</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type with -dir libraries_4/KO_sgA_R1_branch_nodsb</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
@@ -22410,16 +22692,17 @@
         <f>'2_combined'!H50</f>
         <v>cmv</v>
       </c>
-      <c r="L49" t="s">
-        <v>110</v>
+      <c r="L49" t="str">
+        <f t="shared" si="1"/>
+        <v>with</v>
       </c>
       <c r="M49" t="str">
-        <f>_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/",Table1014[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table1014[[#This Row],[dir]], " -ref ref_seq/", Table1014[[#This Row],[ref]], " -dsb ", Table1014[[#This Row],[dsb_pos]], " --dsb_type ",Table1014[[#This Row],[dsb_type_command]], " --strand ", Table1014[[#This Row],[strand]], " --hguide ", Table1014[[#This Row],[hguide]], " --cell ", Table1014[[#This Row],[cell]], " --treatment ", Table1014[[#This Row],[treatment]], " --subst_type ", Table1014[[#This Row],[subst_type]], " --control ", Table1014[[#This Row],[control]])</f>
-        <v>python 2_graph_processing/make_main_data.py -in libraries_3/KO_sgA_R1_cmv_nodsb.tsv -o libraries_4/KO_sgA_R1_cmv_nodsb -ref ref_seq/1DSB_R1_cmv.fa -dsb 67 --dsb_type 1 --strand R1 --hguide A --cell KO --treatment cmv --subst_type without --control noDSB</v>
+        <f>_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", libraries_4, "/",Table1014[[#This Row],[dir]], " -o ", histogram_3d, "/")</f>
+        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/KO_sgA_R1_cmv_nodsb -o plots/histogram_3d/</v>
       </c>
       <c r="N49" t="str">
-        <f>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table1014[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table1014[[#This Row],[dir]])</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgA_R1_cmv_nodsb</v>
+        <f>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table1014[[#This Row],[subst_type]], " -dir ", globals!$A$4, "/", Table1014[[#This Row],[dir]])</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type with -dir libraries_4/KO_sgA_R1_cmv_nodsb</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
@@ -22466,16 +22749,17 @@
         <f>'2_combined'!H51</f>
         <v>sense</v>
       </c>
-      <c r="L50" t="s">
-        <v>110</v>
+      <c r="L50" t="str">
+        <f t="shared" si="1"/>
+        <v>with</v>
       </c>
       <c r="M50" t="str">
-        <f>_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/",Table1014[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table1014[[#This Row],[dir]], " -ref ref_seq/", Table1014[[#This Row],[ref]], " -dsb ", Table1014[[#This Row],[dsb_pos]], " --dsb_type ",Table1014[[#This Row],[dsb_type_command]], " --strand ", Table1014[[#This Row],[strand]], " --hguide ", Table1014[[#This Row],[hguide]], " --cell ", Table1014[[#This Row],[cell]], " --treatment ", Table1014[[#This Row],[treatment]], " --subst_type ", Table1014[[#This Row],[subst_type]], " --control ", Table1014[[#This Row],[control]])</f>
-        <v>python 2_graph_processing/make_main_data.py -in libraries_3/WT_sgB_R2_sense_nodsb.tsv -o libraries_4/WT_sgB_R2_sense_nodsb -ref ref_seq/1DSB_R2_sense.fa -dsb 46 --dsb_type 1 --strand R2 --hguide B --cell WT --treatment sense --subst_type without --control noDSB</v>
+        <f>_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", libraries_4, "/",Table1014[[#This Row],[dir]], " -o ", histogram_3d, "/")</f>
+        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/WT_sgB_R2_sense_nodsb -o plots/histogram_3d/</v>
       </c>
       <c r="N50" t="str">
-        <f>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table1014[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table1014[[#This Row],[dir]])</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgB_R2_sense_nodsb</v>
+        <f>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table1014[[#This Row],[subst_type]], " -dir ", globals!$A$4, "/", Table1014[[#This Row],[dir]])</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type with -dir libraries_4/WT_sgB_R2_sense_nodsb</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
@@ -22522,16 +22806,17 @@
         <f>'2_combined'!H52</f>
         <v>branch</v>
       </c>
-      <c r="L51" t="s">
-        <v>110</v>
+      <c r="L51" t="str">
+        <f t="shared" si="1"/>
+        <v>with</v>
       </c>
       <c r="M51" t="str">
-        <f>_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/",Table1014[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table1014[[#This Row],[dir]], " -ref ref_seq/", Table1014[[#This Row],[ref]], " -dsb ", Table1014[[#This Row],[dsb_pos]], " --dsb_type ",Table1014[[#This Row],[dsb_type_command]], " --strand ", Table1014[[#This Row],[strand]], " --hguide ", Table1014[[#This Row],[hguide]], " --cell ", Table1014[[#This Row],[cell]], " --treatment ", Table1014[[#This Row],[treatment]], " --subst_type ", Table1014[[#This Row],[subst_type]], " --control ", Table1014[[#This Row],[control]])</f>
-        <v>python 2_graph_processing/make_main_data.py -in libraries_3/WT_sgB_R2_branch_nodsb.tsv -o libraries_4/WT_sgB_R2_branch_nodsb -ref ref_seq/1DSB_R2_branch.fa -dsb 46 --dsb_type 1 --strand R2 --hguide B --cell WT --treatment branch --subst_type without --control noDSB</v>
+        <f>_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", libraries_4, "/",Table1014[[#This Row],[dir]], " -o ", histogram_3d, "/")</f>
+        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/WT_sgB_R2_branch_nodsb -o plots/histogram_3d/</v>
       </c>
       <c r="N51" t="str">
-        <f>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table1014[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table1014[[#This Row],[dir]])</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgB_R2_branch_nodsb</v>
+        <f>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table1014[[#This Row],[subst_type]], " -dir ", globals!$A$4, "/", Table1014[[#This Row],[dir]])</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type with -dir libraries_4/WT_sgB_R2_branch_nodsb</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
@@ -22578,16 +22863,17 @@
         <f>'2_combined'!H53</f>
         <v>cmv</v>
       </c>
-      <c r="L52" t="s">
-        <v>110</v>
+      <c r="L52" t="str">
+        <f t="shared" si="1"/>
+        <v>with</v>
       </c>
       <c r="M52" t="str">
-        <f>_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/",Table1014[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table1014[[#This Row],[dir]], " -ref ref_seq/", Table1014[[#This Row],[ref]], " -dsb ", Table1014[[#This Row],[dsb_pos]], " --dsb_type ",Table1014[[#This Row],[dsb_type_command]], " --strand ", Table1014[[#This Row],[strand]], " --hguide ", Table1014[[#This Row],[hguide]], " --cell ", Table1014[[#This Row],[cell]], " --treatment ", Table1014[[#This Row],[treatment]], " --subst_type ", Table1014[[#This Row],[subst_type]], " --control ", Table1014[[#This Row],[control]])</f>
-        <v>python 2_graph_processing/make_main_data.py -in libraries_3/WT_sgB_R2_cmv_nodsb.tsv -o libraries_4/WT_sgB_R2_cmv_nodsb -ref ref_seq/1DSB_R2_cmv.fa -dsb 46 --dsb_type 1 --strand R2 --hguide B --cell WT --treatment cmv --subst_type without --control noDSB</v>
+        <f>_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", libraries_4, "/",Table1014[[#This Row],[dir]], " -o ", histogram_3d, "/")</f>
+        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/WT_sgB_R2_cmv_nodsb -o plots/histogram_3d/</v>
       </c>
       <c r="N52" t="str">
-        <f>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table1014[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table1014[[#This Row],[dir]])</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgB_R2_cmv_nodsb</v>
+        <f>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table1014[[#This Row],[subst_type]], " -dir ", globals!$A$4, "/", Table1014[[#This Row],[dir]])</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type with -dir libraries_4/WT_sgB_R2_cmv_nodsb</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
@@ -22634,16 +22920,17 @@
         <f>'2_combined'!H54</f>
         <v>sense</v>
       </c>
-      <c r="L53" t="s">
-        <v>110</v>
+      <c r="L53" t="str">
+        <f t="shared" si="1"/>
+        <v>with</v>
       </c>
       <c r="M53" t="str">
-        <f>_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/",Table1014[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table1014[[#This Row],[dir]], " -ref ref_seq/", Table1014[[#This Row],[ref]], " -dsb ", Table1014[[#This Row],[dsb_pos]], " --dsb_type ",Table1014[[#This Row],[dsb_type_command]], " --strand ", Table1014[[#This Row],[strand]], " --hguide ", Table1014[[#This Row],[hguide]], " --cell ", Table1014[[#This Row],[cell]], " --treatment ", Table1014[[#This Row],[treatment]], " --subst_type ", Table1014[[#This Row],[subst_type]], " --control ", Table1014[[#This Row],[control]])</f>
-        <v>python 2_graph_processing/make_main_data.py -in libraries_3/KO_sgB_R2_sense_nodsb.tsv -o libraries_4/KO_sgB_R2_sense_nodsb -ref ref_seq/1DSB_R2_sense.fa -dsb 46 --dsb_type 1 --strand R2 --hguide B --cell KO --treatment sense --subst_type without --control noDSB</v>
+        <f>_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", libraries_4, "/",Table1014[[#This Row],[dir]], " -o ", histogram_3d, "/")</f>
+        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/KO_sgB_R2_sense_nodsb -o plots/histogram_3d/</v>
       </c>
       <c r="N53" t="str">
-        <f>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table1014[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table1014[[#This Row],[dir]])</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgB_R2_sense_nodsb</v>
+        <f>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table1014[[#This Row],[subst_type]], " -dir ", globals!$A$4, "/", Table1014[[#This Row],[dir]])</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type with -dir libraries_4/KO_sgB_R2_sense_nodsb</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
@@ -22690,16 +22977,17 @@
         <f>'2_combined'!H55</f>
         <v>branch</v>
       </c>
-      <c r="L54" t="s">
-        <v>110</v>
+      <c r="L54" t="str">
+        <f t="shared" si="1"/>
+        <v>with</v>
       </c>
       <c r="M54" t="str">
-        <f>_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/",Table1014[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table1014[[#This Row],[dir]], " -ref ref_seq/", Table1014[[#This Row],[ref]], " -dsb ", Table1014[[#This Row],[dsb_pos]], " --dsb_type ",Table1014[[#This Row],[dsb_type_command]], " --strand ", Table1014[[#This Row],[strand]], " --hguide ", Table1014[[#This Row],[hguide]], " --cell ", Table1014[[#This Row],[cell]], " --treatment ", Table1014[[#This Row],[treatment]], " --subst_type ", Table1014[[#This Row],[subst_type]], " --control ", Table1014[[#This Row],[control]])</f>
-        <v>python 2_graph_processing/make_main_data.py -in libraries_3/KO_sgB_R2_branch_nodsb.tsv -o libraries_4/KO_sgB_R2_branch_nodsb -ref ref_seq/1DSB_R2_branch.fa -dsb 46 --dsb_type 1 --strand R2 --hguide B --cell KO --treatment branch --subst_type without --control noDSB</v>
+        <f>_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", libraries_4, "/",Table1014[[#This Row],[dir]], " -o ", histogram_3d, "/")</f>
+        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/KO_sgB_R2_branch_nodsb -o plots/histogram_3d/</v>
       </c>
       <c r="N54" t="str">
-        <f>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table1014[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table1014[[#This Row],[dir]])</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgB_R2_branch_nodsb</v>
+        <f>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table1014[[#This Row],[subst_type]], " -dir ", globals!$A$4, "/", Table1014[[#This Row],[dir]])</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type with -dir libraries_4/KO_sgB_R2_branch_nodsb</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
@@ -22746,16 +23034,17 @@
         <f>'2_combined'!H56</f>
         <v>cmv</v>
       </c>
-      <c r="L55" t="s">
-        <v>110</v>
+      <c r="L55" t="str">
+        <f t="shared" si="1"/>
+        <v>with</v>
       </c>
       <c r="M55" t="str">
-        <f>_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-in ", dirs!$A$3, "/",Table1014[[#This Row],[dir]], ".tsv -o ", dirs!$A$4, "/", Table1014[[#This Row],[dir]], " -ref ref_seq/", Table1014[[#This Row],[ref]], " -dsb ", Table1014[[#This Row],[dsb_pos]], " --dsb_type ",Table1014[[#This Row],[dsb_type_command]], " --strand ", Table1014[[#This Row],[strand]], " --hguide ", Table1014[[#This Row],[hguide]], " --cell ", Table1014[[#This Row],[cell]], " --treatment ", Table1014[[#This Row],[treatment]], " --subst_type ", Table1014[[#This Row],[subst_type]], " --control ", Table1014[[#This Row],[control]])</f>
-        <v>python 2_graph_processing/make_main_data.py -in libraries_3/KO_sgB_R2_cmv_nodsb.tsv -o libraries_4/KO_sgB_R2_cmv_nodsb -ref ref_seq/1DSB_R2_cmv.fa -dsb 46 --dsb_type 1 --strand R2 --hguide B --cell KO --treatment cmv --subst_type without --control noDSB</v>
+        <f>_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", libraries_4, "/",Table1014[[#This Row],[dir]], " -o ", histogram_3d, "/")</f>
+        <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/KO_sgB_R2_cmv_nodsb -o plots/histogram_3d/</v>
       </c>
       <c r="N55" t="str">
-        <f>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table1014[[#This Row],[subst_type]], " -dir ", dirs!$A$4, "/", Table1014[[#This Row],[dir]])</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgB_R2_cmv_nodsb</v>
+        <f>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table1014[[#This Row],[subst_type]], " -dir ", globals!$A$4, "/", Table1014[[#This Row],[dir]])</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type with -dir libraries_4/KO_sgB_R2_cmv_nodsb</v>
       </c>
     </row>
   </sheetData>

--- a/libinfo.xlsx
+++ b/libinfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tchan\Code\SCMB_Project\RNA-mediated_DSB_repair\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C2B7B77-686E-4572-9A8D-09DFE54C5CBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A643F8D8-B727-4BDC-A863-1B6E854126FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="6" xr2:uid="{2091B41C-DDD2-4E50-B30A-30FF3CA370E5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="7" xr2:uid="{2091B41C-DDD2-4E50-B30A-30FF3CA370E5}"/>
   </bookViews>
   <sheets>
     <sheet name="globals" sheetId="3" r:id="rId1"/>
@@ -20,9 +20,11 @@
     <sheet name="3_graph" sheetId="4" r:id="rId5"/>
     <sheet name="4_graph_combined" sheetId="5" r:id="rId6"/>
     <sheet name="5_histogram_3d" sheetId="11" r:id="rId7"/>
+    <sheet name="6_plot_graph" sheetId="13" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="dsb">'1_repeats'!$D:$D</definedName>
+    <definedName name="graph">globals!$A$7</definedName>
     <definedName name="histogram_3d">globals!$A$6</definedName>
     <definedName name="libraries_1">globals!$A$1</definedName>
     <definedName name="libraries_2">globals!$A$2</definedName>
@@ -73,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1447" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="177">
   <si>
     <t>yjl217</t>
   </si>
@@ -602,6 +604,9 @@
   <si>
     <t>command</t>
   </si>
+  <si>
+    <t>plots/graphs</t>
+  </si>
 </sst>
 </file>
 
@@ -691,7 +696,76 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{FFD19645-61C4-4244-A560-0232B787F38C}"/>
   </cellStyles>
-  <dxfs count="100">
+  <dxfs count="116">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -882,9 +956,6 @@
         </patternFill>
       </fill>
       <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1365,7 +1436,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{22A90416-B904-4D3D-A6DB-EFCB9FD1EAED}" name="Table1" displayName="Table1" ref="A1:N173" totalsRowShown="0" headerRowDxfId="99">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{22A90416-B904-4D3D-A6DB-EFCB9FD1EAED}" name="Table1" displayName="Table1" ref="A1:N173" totalsRowShown="0" headerRowDxfId="115">
   <autoFilter ref="A1:N173" xr:uid="{22A90416-B904-4D3D-A6DB-EFCB9FD1EAED}"/>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{5C1CDEE9-AAC7-4E12-B88F-1314CF422335}" name="library"/>
@@ -1375,25 +1446,25 @@
     <tableColumn id="5" xr3:uid="{81A143FE-8E74-4182-8124-E697DD5A7C62}" name="hguide"/>
     <tableColumn id="6" xr3:uid="{4A316E6A-69F3-4B78-9C01-4675AEB656FA}" name="treatment"/>
     <tableColumn id="7" xr3:uid="{25B8E763-346D-4756-8B58-D3C8CB103545}" name="strand"/>
-    <tableColumn id="8" xr3:uid="{4B708639-BB19-4DC1-A57D-214FA0EFB1EA}" name="dsb_pos" dataDxfId="98">
+    <tableColumn id="8" xr3:uid="{4B708639-BB19-4DC1-A57D-214FA0EFB1EA}" name="dsb_pos" dataDxfId="114">
       <calculatedColumnFormula array="1">IF(D2="2DSB", IF(G2="R1", 67, 46), IF(D2="1DSB", IF(G2="R1", 67, 46), IF(D2="2DSBanti", IF(G2="R1", 50, 47), NA))) + IF(Table1[[#This Row],[control]]="30bpDown", 30, 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{CCF6021C-1B60-4954-A92E-3F2848564215}" name="file_in" dataDxfId="97">
+    <tableColumn id="9" xr3:uid="{CCF6021C-1B60-4954-A92E-3F2848564215}" name="file_in" dataDxfId="113">
       <calculatedColumnFormula>IF(OR(Table1[[#This Row],[control]]="none", Table1[[#This Row],[control]]="30bpDown"), _xlfn.CONCAT(Table1[[#This Row],[library]], IF(Table1[[#This Row],[dsb]] = "2DSBanti", "_anti", ""), "_",Table1[[#This Row],[strand]],"_", IF(LEFT(Table1[[#This Row],[dsb]], 1)="2","2DSBs", Table1[[#This Row],[hguide]]), ".sam"), _xlfn.CONCAT(Table1[[#This Row],[library]], "_NHEJ_", IF(Table1[[#This Row],[hguide]]="sgA", "hg39", IF(Table1[[#This Row],[hguide]]="sgB", "hg42", "2DSB")), "_", Table1[[#This Row],[strand]], ".sam"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{58220462-2A11-4DAD-A247-C0871AFCFDB4}" name="file_out" dataDxfId="96">
+    <tableColumn id="10" xr3:uid="{58220462-2A11-4DAD-A247-C0871AFCFDB4}" name="file_out" dataDxfId="112">
       <calculatedColumnFormula>_xlfn.CONCAT(Table1[[#This Row],[library]], "_", Table1[[#This Row],[cell_line]], "_", Table1[[#This Row],[hguide]], "_", Table1[[#This Row],[strand]], "_", Table1[[#This Row],[treatment]], IF(Table1[[#This Row],[control]]&lt;&gt;"none", _xlfn.CONCAT("_", Table1[[#This Row],[control]]), ""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{775EE7A9-3C78-4568-BF98-500DE451177C}" name="ref_file" dataDxfId="95">
+    <tableColumn id="11" xr3:uid="{775EE7A9-3C78-4568-BF98-500DE451177C}" name="ref_file" dataDxfId="111">
       <calculatedColumnFormula>_xlfn.CONCAT(Table1[[#This Row],[dsb]],"_", Table1[[#This Row],[strand]],"_", Table1[[#This Row],[treatment]], ".fa")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="12" xr3:uid="{5B945FB6-D054-40C4-AAEF-BB50B19F8936}" name="total_reads">
       <calculatedColumnFormula>VLOOKUP(Table1[[#This Row],[library]], Table9[#All], 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{66485B06-471E-47D3-BA91-FC751F58FA5A}" name="min_length" dataDxfId="94">
+    <tableColumn id="13" xr3:uid="{66485B06-471E-47D3-BA91-FC751F58FA5A}" name="min_length" dataDxfId="110">
       <calculatedColumnFormula>IF(LEFT(Table1[[#This Row],[dsb]], 1) = "2", 50, 130)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{DF3C46EA-690D-4E6A-99CF-BBC2B2F74AFF}" name="command_filter_nhej" dataDxfId="25">
+    <tableColumn id="14" xr3:uid="{DF3C46EA-690D-4E6A-99CF-BBC2B2F74AFF}" name="command_filter_nhej" dataDxfId="42">
       <calculatedColumnFormula>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", Table1[[#This Row],[file_in]], " -ref ref_seq/", Table1[[#This Row],[ref_file]], " -o ", libraries_2, "/", Table1[[#This Row],[file_out]], ".tsv", " --min_length ", Table1[[#This Row],[min_length]], " -dsb ", Table1[[#This Row],[dsb_pos]], " --quiet")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1402,44 +1473,44 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{73BF8355-0AB0-4422-8F65-2A32E222946E}" name="Table513" displayName="Table513" ref="A1:M41" totalsRowShown="0" headerRowDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{73BF8355-0AB0-4422-8F65-2A32E222946E}" name="Table513" displayName="Table513" ref="A1:M41" totalsRowShown="0" headerRowDxfId="57">
   <autoFilter ref="A1:M41" xr:uid="{73BF8355-0AB0-4422-8F65-2A32E222946E}"/>
   <tableColumns count="13">
-    <tableColumn id="25" xr3:uid="{43F57146-0E56-46F3-A0E3-717A41010F4A}" name="index" dataDxfId="40"/>
-    <tableColumn id="1" xr3:uid="{B0B3F6B0-7577-49AC-B865-1E873B4DC53C}" name="dir" dataDxfId="39">
+    <tableColumn id="25" xr3:uid="{43F57146-0E56-46F3-A0E3-717A41010F4A}" name="index" dataDxfId="56"/>
+    <tableColumn id="1" xr3:uid="{B0B3F6B0-7577-49AC-B865-1E873B4DC53C}" name="dir" dataDxfId="55">
       <calculatedColumnFormula>'2_combined'!J3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{D04F356F-9288-416D-ACDA-6BFE128B70D7}" name="control" dataDxfId="38">
+    <tableColumn id="13" xr3:uid="{D04F356F-9288-416D-ACDA-6BFE128B70D7}" name="control" dataDxfId="54">
       <calculatedColumnFormula>'2_combined'!C3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{9C168B22-F534-40D4-947C-918239C33FD9}" name="ref" dataDxfId="37">
+    <tableColumn id="2" xr3:uid="{9C168B22-F534-40D4-947C-918239C33FD9}" name="ref" dataDxfId="53">
       <calculatedColumnFormula>'2_combined'!B3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{6F64477B-0C66-4251-9156-22307A6D70A0}" name="dsb_pos" dataDxfId="36">
+    <tableColumn id="3" xr3:uid="{6F64477B-0C66-4251-9156-22307A6D70A0}" name="dsb_pos" dataDxfId="52">
       <calculatedColumnFormula>'2_combined'!E3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{D037F4F2-543F-4D7D-AB36-0B253FD61B0D}" name="dsb_type" dataDxfId="35">
+    <tableColumn id="4" xr3:uid="{D037F4F2-543F-4D7D-AB36-0B253FD61B0D}" name="dsb_type" dataDxfId="51">
       <calculatedColumnFormula>'2_combined'!D3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{407AC5E6-13CB-409A-8E78-64B8CC121882}" name="dsb_type_command" dataDxfId="34">
+    <tableColumn id="12" xr3:uid="{407AC5E6-13CB-409A-8E78-64B8CC121882}" name="dsb_type_command" dataDxfId="50">
       <calculatedColumnFormula array="1">IF(Table513[[#This Row],[dsb_type]]="2DSB", "2", IF(Table513[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table513[[#This Row],[dsb_type]]="1DSB", "1", NA)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{1A24C844-2A10-4394-818F-0C25A569B414}" name="strand" dataDxfId="33">
+    <tableColumn id="5" xr3:uid="{1A24C844-2A10-4394-818F-0C25A569B414}" name="strand" dataDxfId="49">
       <calculatedColumnFormula>'2_combined'!G3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{4F0A02F9-5555-489E-BA41-E3CBF81D1114}" name="hguide" dataDxfId="32">
+    <tableColumn id="6" xr3:uid="{4F0A02F9-5555-489E-BA41-E3CBF81D1114}" name="hguide" dataDxfId="48">
       <calculatedColumnFormula>MID('2_combined'!I3, 3, 100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{FAE741F2-7C1B-41F2-8875-9F7A2EF40A54}" name="cell" dataDxfId="31">
+    <tableColumn id="7" xr3:uid="{FAE741F2-7C1B-41F2-8875-9F7A2EF40A54}" name="cell" dataDxfId="47">
       <calculatedColumnFormula>'2_combined'!F3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{FE3ED128-2534-43D1-9244-11AB1FB57650}" name="treatment" dataDxfId="30">
+    <tableColumn id="8" xr3:uid="{FE3ED128-2534-43D1-9244-11AB1FB57650}" name="treatment" dataDxfId="46">
       <calculatedColumnFormula>'2_combined'!H3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{65ACBC9C-0EC8-4074-B310-05F4B70BFAD5}" name="subst_type" dataDxfId="18">
+    <tableColumn id="9" xr3:uid="{65ACBC9C-0EC8-4074-B310-05F4B70BFAD5}" name="subst_type" dataDxfId="35">
       <calculatedColumnFormula>"with"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{F80F6FB9-4F35-4819-8285-D77131C6EFCE}" name="command" dataDxfId="19">
+    <tableColumn id="10" xr3:uid="{F80F6FB9-4F35-4819-8285-D77131C6EFCE}" name="command" dataDxfId="36">
       <calculatedColumnFormula>_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", libraries_4, "/",Table513[[#This Row],[dir]], " -o ", histogram_3d, "/")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1448,14 +1519,14 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{D74A5276-1A50-4DA1-9131-9669404C8622}" name="Table1014" displayName="Table1014" ref="A43:N55" totalsRowShown="0">
-  <autoFilter ref="A43:N55" xr:uid="{D74A5276-1A50-4DA1-9131-9669404C8622}"/>
-  <tableColumns count="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{D74A5276-1A50-4DA1-9131-9669404C8622}" name="Table1014" displayName="Table1014" ref="A43:M55" totalsRowShown="0">
+  <autoFilter ref="A43:M55" xr:uid="{D74A5276-1A50-4DA1-9131-9669404C8622}"/>
+  <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{8AC09A63-4226-4C75-8801-68CF93C0F078}" name="index"/>
     <tableColumn id="2" xr3:uid="{77584C42-D70C-48A4-979A-F4DEA0B31542}" name="dir">
       <calculatedColumnFormula>'2_combined'!J45</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{483E3D73-4059-4B65-84EC-5DC4E7008F35}" name="control" dataDxfId="29">
+    <tableColumn id="3" xr3:uid="{483E3D73-4059-4B65-84EC-5DC4E7008F35}" name="control" dataDxfId="45">
       <calculatedColumnFormula>SUBSTITUTE('2_combined'!C45, "dsb", "DSB")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{5859A8DB-4C52-4451-BBB6-C6BEBF497540}" name="ref">
@@ -1482,14 +1553,103 @@
     <tableColumn id="11" xr3:uid="{0F1B5F9E-B10D-4258-9052-90BCDC89F0B0}" name="treatment">
       <calculatedColumnFormula>'2_combined'!H45</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{A2723EF6-80E8-4D8D-A6DC-7556C1996222}" name="subst_type" dataDxfId="17">
+    <tableColumn id="12" xr3:uid="{A2723EF6-80E8-4D8D-A6DC-7556C1996222}" name="subst_type" dataDxfId="34">
       <calculatedColumnFormula>"with"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{02531CCA-6CDE-42BA-80E3-31C0F97A3546}" name="command_main_data" dataDxfId="16">
+    <tableColumn id="13" xr3:uid="{02531CCA-6CDE-42BA-80E3-31C0F97A3546}" name="command" dataDxfId="33">
       <calculatedColumnFormula>_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", libraries_4, "/",Table1014[[#This Row],[dir]], " -o ", histogram_3d, "/")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{044D252B-8D18-4E92-82F7-0C8FAA410CB0}" name="command_graph_data" dataDxfId="28">
-      <calculatedColumnFormula>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table1014[[#This Row],[subst_type]], " -dir ", globals!$A$4, "/", Table1014[[#This Row],[dir]])</calculatedColumnFormula>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{86CE8E4A-18BF-427A-81F0-F9655767A016}" name="Table51315" displayName="Table51315" ref="A1:M41" totalsRowShown="0" headerRowDxfId="16">
+  <autoFilter ref="A1:M41" xr:uid="{73BF8355-0AB0-4422-8F65-2A32E222946E}"/>
+  <tableColumns count="13">
+    <tableColumn id="25" xr3:uid="{C323C376-24D3-4404-9E0F-6E9361862271}" name="index" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{AC070029-7A36-442E-A851-71CD7EB80F28}" name="dir" dataDxfId="14">
+      <calculatedColumnFormula>'2_combined'!J3</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{6A4B6748-6DA2-44B2-95C1-9C2BF9C21AC6}" name="control" dataDxfId="13">
+      <calculatedColumnFormula>'2_combined'!C3</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{46183BCF-754C-4289-9E28-8DB2FB5F3E2E}" name="ref" dataDxfId="12">
+      <calculatedColumnFormula>'2_combined'!B3</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{01CE35D5-BD5A-4DBE-911A-523BA86E9558}" name="dsb_pos" dataDxfId="11">
+      <calculatedColumnFormula>'2_combined'!E3</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{0171B01F-9599-42EC-9AD8-75EE9608FE15}" name="dsb_type" dataDxfId="10">
+      <calculatedColumnFormula>'2_combined'!D3</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{2D9967F2-F905-4DDC-BC13-BE494C96FD78}" name="dsb_type_command" dataDxfId="9">
+      <calculatedColumnFormula array="1">IF(Table51315[[#This Row],[dsb_type]]="2DSB", "2", IF(Table51315[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table51315[[#This Row],[dsb_type]]="1DSB", "1", NA)))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{B8E237AE-E973-40A0-86E3-7BF5DEC7FC87}" name="strand" dataDxfId="8">
+      <calculatedColumnFormula>'2_combined'!G3</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{647E20CB-AEBC-4627-AE45-391FD9784E21}" name="hguide" dataDxfId="7">
+      <calculatedColumnFormula>MID('2_combined'!I3, 3, 100)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{EAED7BDD-3E55-428C-8CC0-D27D2F2EF394}" name="cell" dataDxfId="6">
+      <calculatedColumnFormula>'2_combined'!F3</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{8D720D5E-95C1-4847-85D5-656085769184}" name="treatment" dataDxfId="5">
+      <calculatedColumnFormula>'2_combined'!H3</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{D6F4320B-CD2D-4288-B9EC-64E8C7BA2DDE}" name="subst_type" dataDxfId="4">
+      <calculatedColumnFormula>"with"</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{927D810C-70D6-4266-8FCE-04D49787D147}" name="command" dataDxfId="1">
+      <calculatedColumnFormula>_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/",Table51315[[#This Row],[dir]], " -o ", graph, "/")</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{B47D9508-D874-40FC-B6F6-C106B48F6A94}" name="Table101416" displayName="Table101416" ref="A43:M55" totalsRowShown="0">
+  <autoFilter ref="A43:M55" xr:uid="{D74A5276-1A50-4DA1-9131-9669404C8622}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{488C5146-A746-4F74-BCC8-806E4DC740CE}" name="index"/>
+    <tableColumn id="2" xr3:uid="{C2A88DF4-2444-4C4C-A089-6CF9ADE79BD8}" name="dir">
+      <calculatedColumnFormula>'2_combined'!J45</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{7698ACE3-2351-400D-B00F-5A70184F8A33}" name="control" dataDxfId="3">
+      <calculatedColumnFormula>SUBSTITUTE('2_combined'!C45, "dsb", "DSB")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{5E82B04C-FF09-492C-8A23-7E43B5990149}" name="ref">
+      <calculatedColumnFormula>'2_combined'!B45</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{F4D36A0E-549B-4F3A-BCA9-75E151448998}" name="dsb_pos">
+      <calculatedColumnFormula>'2_combined'!E45</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{AEBBBB88-8CE2-409D-AE19-9C23263250A9}" name="dsb_type">
+      <calculatedColumnFormula>'2_combined'!D45</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{3E71E7D2-0FA5-4FD5-BDC3-2955A091A9E6}" name="dsb_type_command">
+      <calculatedColumnFormula array="1">IF(Table101416[[#This Row],[dsb_type]]="2DSB", "2", IF(Table101416[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table101416[[#This Row],[dsb_type]]="1DSB", "1", NA)))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{EBD35881-E696-4202-9149-75A4EFFFAAD6}" name="strand">
+      <calculatedColumnFormula>'2_combined'!G45</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{123CA279-0CB6-41C1-9CD8-20D375B9B66D}" name="hguide">
+      <calculatedColumnFormula>MID('2_combined'!I45, 3, 100)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{3DCE3F3A-187D-411E-93FC-8C6C3EE9CAA2}" name="cell">
+      <calculatedColumnFormula>'2_combined'!F45</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{9E585D29-AB3E-4D04-8C1D-24F78339C9A3}" name="treatment">
+      <calculatedColumnFormula>'2_combined'!H45</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{928286B8-23FB-4375-B52B-617DD59D6098}" name="subst_type" dataDxfId="2">
+      <calculatedColumnFormula>"with"</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{0917AB98-1545-4642-9BE8-618AAA1E404A}" name="command" dataDxfId="0">
+      <calculatedColumnFormula>_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/",Table101416[[#This Row],[dir]], " -o ", graph, "/")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1508,62 +1668,62 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DE05925F-1FF6-4367-AF1E-BAECCA464E36}" name="Table3" displayName="Table3" ref="A2:S42" totalsRowShown="0" headerRowDxfId="93">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DE05925F-1FF6-4367-AF1E-BAECCA464E36}" name="Table3" displayName="Table3" ref="A2:S42" totalsRowShown="0" headerRowDxfId="109">
   <autoFilter ref="A2:S42" xr:uid="{DE05925F-1FF6-4367-AF1E-BAECCA464E36}"/>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{C373869E-A92E-4B06-B8E5-C5A873420ED4}" name="index" dataDxfId="92"/>
-    <tableColumn id="2" xr3:uid="{A28AAC50-FA09-494A-B052-8489F07A5A70}" name="ref" dataDxfId="91">
+    <tableColumn id="1" xr3:uid="{C373869E-A92E-4B06-B8E5-C5A873420ED4}" name="index" dataDxfId="108"/>
+    <tableColumn id="2" xr3:uid="{A28AAC50-FA09-494A-B052-8489F07A5A70}" name="ref" dataDxfId="107">
       <calculatedColumnFormula>OFFSET('1_repeats'!$K$2, 4 * (Table3[[#This Row],[index]] - 1), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{07D57089-9737-4983-8884-C4ACCDCFF6CB}" name="control" dataDxfId="90">
+    <tableColumn id="18" xr3:uid="{07D57089-9737-4983-8884-C4ACCDCFF6CB}" name="control" dataDxfId="106">
       <calculatedColumnFormula>OFFSET('1_repeats'!$C$2, 4 * (Table3[[#This Row],[index]] - 1), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{C6423FEA-272F-48D3-BC6A-909FCA937DA9}" name="dsb" dataDxfId="89">
+    <tableColumn id="19" xr3:uid="{C6423FEA-272F-48D3-BC6A-909FCA937DA9}" name="dsb" dataDxfId="105">
       <calculatedColumnFormula>OFFSET('1_repeats'!$D$2, 4 * (Table3[[#This Row],[index]] - 1), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{B8F61088-5FFA-4860-BF4E-1BFB301A31D9}" name="dsb_pos" dataDxfId="88">
+    <tableColumn id="3" xr3:uid="{B8F61088-5FFA-4860-BF4E-1BFB301A31D9}" name="dsb_pos" dataDxfId="104">
       <calculatedColumnFormula>OFFSET('1_repeats'!$H$2, 4 * (Table3[[#This Row],[index]] - 1), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{524D5B3D-BB20-420D-B7E9-93A7F77CA728}" name="cell" dataDxfId="87">
+    <tableColumn id="4" xr3:uid="{524D5B3D-BB20-420D-B7E9-93A7F77CA728}" name="cell" dataDxfId="103">
       <calculatedColumnFormula>OFFSET('1_repeats'!$B$2, 4 * (Table3[[#This Row],[index]] - 1), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{CC918D20-5D79-4223-9717-2CA0EFFA213F}" name="strand" dataDxfId="86">
+    <tableColumn id="5" xr3:uid="{CC918D20-5D79-4223-9717-2CA0EFFA213F}" name="strand" dataDxfId="102">
       <calculatedColumnFormula>OFFSET('1_repeats'!$G$2, 4 * (Table3[[#This Row],[index]] - 1), 0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{B2851465-D533-4787-80C4-E844BB2ABB8C}" name="treatment">
       <calculatedColumnFormula>OFFSET('1_repeats'!$F$2, 4 * (A3 - 1), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{849BE448-7739-4815-A2C5-5843F62D83D7}" name="hguide" dataDxfId="85">
+    <tableColumn id="7" xr3:uid="{849BE448-7739-4815-A2C5-5843F62D83D7}" name="hguide" dataDxfId="101">
       <calculatedColumnFormula>OFFSET('1_repeats'!$E$2, 4 * (Table3[[#This Row],[index]]- 1), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{343716D9-C3A9-4F90-A58A-42B1B9C79EBF}" name="output_dir" dataDxfId="63">
+    <tableColumn id="8" xr3:uid="{343716D9-C3A9-4F90-A58A-42B1B9C79EBF}" name="output_dir" dataDxfId="79">
       <calculatedColumnFormula>_xlfn.CONCAT(Table3[[#This Row],[cell]], "_", Table3[[#This Row],[hguide]], "_", Table3[[#This Row],[strand]], "_", Table3[[#This Row],[treatment]], IF(Table3[[#This Row],[control]]&lt;&gt;"none",_xlfn.CONCAT("_", Table3[[#This Row],[control]]), ""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{D29558AA-D418-4CDD-81AE-A987E7BC501D}" name="input_1" dataDxfId="84">
+    <tableColumn id="9" xr3:uid="{D29558AA-D418-4CDD-81AE-A987E7BC501D}" name="input_1" dataDxfId="100">
       <calculatedColumnFormula>OFFSET('1_repeats'!$J$1, 4 * (Table3[[#This Row],[index]] - 1)  + ($K$1), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{E2ABF5A3-B032-47F7-9141-9F269EFD9D49}" name="total_reads_1" dataDxfId="83">
+    <tableColumn id="10" xr3:uid="{E2ABF5A3-B032-47F7-9141-9F269EFD9D49}" name="total_reads_1" dataDxfId="99">
       <calculatedColumnFormula array="1">OFFSET('1_repeats'!$L$1, 4 * (Table3[[#This Row],[index]] - 1)  + INDIRECT(ADDRESS(1, COLUMN())), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{6B1B21F6-1584-4712-844D-99F3DBE8B3D9}" name="input_2" dataDxfId="82">
+    <tableColumn id="11" xr3:uid="{6B1B21F6-1584-4712-844D-99F3DBE8B3D9}" name="input_2" dataDxfId="98">
       <calculatedColumnFormula>OFFSET('1_repeats'!$J$1, 4 * (Table3[[#This Row],[index]] - 1)  + ($M$1), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{C7B1BE14-3BD6-413B-8575-DE9712F9761A}" name="total_reads_2" dataDxfId="81">
+    <tableColumn id="12" xr3:uid="{C7B1BE14-3BD6-413B-8575-DE9712F9761A}" name="total_reads_2" dataDxfId="97">
       <calculatedColumnFormula array="1">OFFSET('1_repeats'!$L$1, 4 * (Table3[[#This Row],[index]] - 1)  + INDIRECT(ADDRESS(1, COLUMN())), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{6BE840C3-79BA-41DC-90D3-918C6C412936}" name="input_3" dataDxfId="80">
+    <tableColumn id="13" xr3:uid="{6BE840C3-79BA-41DC-90D3-918C6C412936}" name="input_3" dataDxfId="96">
       <calculatedColumnFormula>OFFSET('1_repeats'!$J$1, 4 * (Table3[[#This Row],[index]] - 1)  + ($O$1), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{6A8CE344-45B9-42E3-95D8-8EB6A485D968}" name="total_reads_3" dataDxfId="79">
+    <tableColumn id="14" xr3:uid="{6A8CE344-45B9-42E3-95D8-8EB6A485D968}" name="total_reads_3" dataDxfId="95">
       <calculatedColumnFormula array="1">OFFSET('1_repeats'!$L$1, 4 * (Table3[[#This Row],[index]] - 1)  + INDIRECT(ADDRESS(1, COLUMN())), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{17F598DE-E755-49D6-AFC6-70309C0348FD}" name="input_4" dataDxfId="78">
+    <tableColumn id="15" xr3:uid="{17F598DE-E755-49D6-AFC6-70309C0348FD}" name="input_4" dataDxfId="94">
       <calculatedColumnFormula>OFFSET('1_repeats'!$J$1, 4 * (Table3[[#This Row],[index]] - 1)  + ($Q$1), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{AC170216-9CAE-43B8-A8E2-8FE1529F6D55}" name="total_reads_4" dataDxfId="77">
+    <tableColumn id="16" xr3:uid="{AC170216-9CAE-43B8-A8E2-8FE1529F6D55}" name="total_reads_4" dataDxfId="93">
       <calculatedColumnFormula array="1">OFFSET('1_repeats'!$L$1, 4 * (Table3[[#This Row],[index]] - 1)  + INDIRECT(ADDRESS(1, COLUMN())), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{A285A0DD-6F6D-404D-AE2A-0D1FC3DDB459}" name="command_combine" dataDxfId="15">
+    <tableColumn id="17" xr3:uid="{A285A0DD-6F6D-404D-AE2A-0D1FC3DDB459}" name="command_combine" dataDxfId="32">
       <calculatedColumnFormula>_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -in ", libraries_2, "/", Table3[[#This Row],[input_1]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_2]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_3]], ".tsv ", libraries_2, "/", Table3[[#This Row],[input_4]], ".tsv --total_reads ", Table3[[#This Row],[total_reads_1]], " ", Table3[[#This Row],[total_reads_2]], " ", Table3[[#This Row],[total_reads_3]], " ", Table3[[#This Row],[total_reads_4]], " -o ", libraries_3, "/", Table3[[#This Row],[output_dir]], ".tsv", " --quiet ")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1575,7 +1735,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{7D969AC7-2D2F-45B0-BA99-D174130B0A52}" name="Table11" displayName="Table11" ref="A44:M56" totalsRowShown="0">
   <autoFilter ref="A44:M56" xr:uid="{7D969AC7-2D2F-45B0-BA99-D174130B0A52}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{D612E3DF-AA8E-4EE0-9306-7903B4821992}" name="index" dataDxfId="49"/>
+    <tableColumn id="1" xr3:uid="{D612E3DF-AA8E-4EE0-9306-7903B4821992}" name="index" dataDxfId="65"/>
     <tableColumn id="2" xr3:uid="{B00239B6-16E0-4472-B8C9-F25D625D21DD}" name="ref">
       <calculatedColumnFormula>'1_repeats'!K162</calculatedColumnFormula>
     </tableColumn>
@@ -1609,7 +1769,7 @@
     <tableColumn id="12" xr3:uid="{BB84920E-3487-4670-93ED-5671EACD3061}" name="total_reads">
       <calculatedColumnFormula>'1_repeats'!L162</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{0CE6DAF6-0C4C-4EC5-8FE5-9B3840A02412}" name="command_combine" dataDxfId="24">
+    <tableColumn id="13" xr3:uid="{0CE6DAF6-0C4C-4EC5-8FE5-9B3840A02412}" name="command_combine" dataDxfId="41">
       <calculatedColumnFormula>_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -i ", libraries_2, "/", Table11[[#This Row],[input]], ".tsv ", " --total_reads ", Table11[[#This Row],[total_reads]], " -o ", libraries_3, "/", Table11[[#This Row],[output_dir]], ".tsv", " --quiet ")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1618,47 +1778,47 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{5C7BFDB7-8825-4FA5-A5E3-550303D41F99}" name="Table5" displayName="Table5" ref="A1:N41" totalsRowShown="0" headerRowDxfId="76">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{5C7BFDB7-8825-4FA5-A5E3-550303D41F99}" name="Table5" displayName="Table5" ref="A1:N41" totalsRowShown="0" headerRowDxfId="92">
   <autoFilter ref="A1:N41" xr:uid="{5C7BFDB7-8825-4FA5-A5E3-550303D41F99}"/>
   <tableColumns count="14">
-    <tableColumn id="25" xr3:uid="{93D2F09B-24D5-4FE1-BF34-C037E361889F}" name="index" dataDxfId="75"/>
-    <tableColumn id="1" xr3:uid="{2F28DC66-449D-4F81-AA63-8F24B25F33D1}" name="dir" dataDxfId="74">
+    <tableColumn id="25" xr3:uid="{93D2F09B-24D5-4FE1-BF34-C037E361889F}" name="index" dataDxfId="91"/>
+    <tableColumn id="1" xr3:uid="{2F28DC66-449D-4F81-AA63-8F24B25F33D1}" name="dir" dataDxfId="90">
       <calculatedColumnFormula>'2_combined'!J3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{3DF6F698-1F9A-4B05-A310-657CCFCE9F66}" name="control" dataDxfId="64">
+    <tableColumn id="13" xr3:uid="{3DF6F698-1F9A-4B05-A310-657CCFCE9F66}" name="control" dataDxfId="80">
       <calculatedColumnFormula>'2_combined'!C3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{362C2395-52F7-4A62-B7BA-2DD97ED5E6FB}" name="ref" dataDxfId="73">
+    <tableColumn id="2" xr3:uid="{362C2395-52F7-4A62-B7BA-2DD97ED5E6FB}" name="ref" dataDxfId="89">
       <calculatedColumnFormula>'2_combined'!B3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{5F0895D9-2EF2-4524-8BC7-15A33FE68636}" name="dsb_pos" dataDxfId="72">
+    <tableColumn id="3" xr3:uid="{5F0895D9-2EF2-4524-8BC7-15A33FE68636}" name="dsb_pos" dataDxfId="88">
       <calculatedColumnFormula>'2_combined'!E3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{C6D28829-46E6-4D97-8EA4-0AD12EF6CF10}" name="dsb_type" dataDxfId="71">
+    <tableColumn id="4" xr3:uid="{C6D28829-46E6-4D97-8EA4-0AD12EF6CF10}" name="dsb_type" dataDxfId="87">
       <calculatedColumnFormula>'2_combined'!D3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{E8B2E211-C273-4602-86F0-60EA4259B7A4}" name="dsb_type_command" dataDxfId="70">
+    <tableColumn id="12" xr3:uid="{E8B2E211-C273-4602-86F0-60EA4259B7A4}" name="dsb_type_command" dataDxfId="86">
       <calculatedColumnFormula array="1">IF(Table5[[#This Row],[dsb_type]]="2DSB", "2", IF(Table5[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table5[[#This Row],[dsb_type]]="1DSB", "1", NA)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{15578E86-B7BE-4D8E-8FD4-E6C9C4F35C9C}" name="strand" dataDxfId="69">
+    <tableColumn id="5" xr3:uid="{15578E86-B7BE-4D8E-8FD4-E6C9C4F35C9C}" name="strand" dataDxfId="85">
       <calculatedColumnFormula>'2_combined'!G3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{3366AC40-6578-4797-B607-19265E7DBF5C}" name="hguide" dataDxfId="68">
+    <tableColumn id="6" xr3:uid="{3366AC40-6578-4797-B607-19265E7DBF5C}" name="hguide" dataDxfId="84">
       <calculatedColumnFormula>MID('2_combined'!I3, 3, 100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{554F4E79-98DE-474B-A5C8-D4B536772E95}" name="cell" dataDxfId="67">
+    <tableColumn id="7" xr3:uid="{554F4E79-98DE-474B-A5C8-D4B536772E95}" name="cell" dataDxfId="83">
       <calculatedColumnFormula>'2_combined'!F3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{32FC5061-DD85-4234-9ED8-FEAF6D9E3BC0}" name="treatment" dataDxfId="66">
+    <tableColumn id="8" xr3:uid="{32FC5061-DD85-4234-9ED8-FEAF6D9E3BC0}" name="treatment" dataDxfId="82">
       <calculatedColumnFormula>'2_combined'!H3</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" xr3:uid="{DB6998A3-1431-4DDD-8DA0-525B805BF436}" name="subst_type">
       <calculatedColumnFormula>subst_type</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{367B0912-E7A8-4430-962D-4F79EE14E5EA}" name="command_main_data" dataDxfId="14">
+    <tableColumn id="10" xr3:uid="{367B0912-E7A8-4430-962D-4F79EE14E5EA}" name="command_main_data" dataDxfId="31">
       <calculatedColumnFormula>_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", libraries_3, "/",Table5[[#This Row],[dir]], ".tsv -o ", libraries_4, "/", Table5[[#This Row],[dir]], " -ref ref_seq/", Table5[[#This Row],[ref]], " -dsb ", Table5[[#This Row],[dsb_pos]], " --dsb_type ",Table5[[#This Row],[dsb_type_command]], " --strand ", Table5[[#This Row],[strand]], " --hguide ", Table5[[#This Row],[hguide]], " --cell ", Table5[[#This Row],[cell]], " --treatment ", Table5[[#This Row],[treatment]], " --subst_type ", Table5[[#This Row],[subst_type]], " --control ", Table5[[#This Row],[control]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{4A65279E-321E-4E3E-8383-26D448C2012F}" name="command_graph_data" dataDxfId="23">
+    <tableColumn id="11" xr3:uid="{4A65279E-321E-4E3E-8383-26D448C2012F}" name="command_graph_data" dataDxfId="40">
       <calculatedColumnFormula>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table5[[#This Row],[subst_type]], " -dir ", libraries_4, "/", Table5[[#This Row],[dir]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1674,7 +1834,7 @@
     <tableColumn id="2" xr3:uid="{5B7F1A2A-EC69-4E5A-BEF9-DA0BB1F6D84F}" name="dir">
       <calculatedColumnFormula>'2_combined'!J45</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{5911EF6D-9D4A-4737-925D-230D175C0AD0}" name="control" dataDxfId="44">
+    <tableColumn id="3" xr3:uid="{5911EF6D-9D4A-4737-925D-230D175C0AD0}" name="control" dataDxfId="60">
       <calculatedColumnFormula>SUBSTITUTE('2_combined'!C45, "dsb", "DSB")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{8DB9ADE6-D3E8-4451-9780-7AC62CFAAC8A}" name="ref">
@@ -1701,13 +1861,13 @@
     <tableColumn id="11" xr3:uid="{08EAD756-AA31-4DE2-B500-71FE3AA9EA6F}" name="treatment">
       <calculatedColumnFormula>'2_combined'!H45</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{79869E15-3FDE-43F8-AD44-2CB6888FCFF5}" name="subst_type" dataDxfId="27">
+    <tableColumn id="12" xr3:uid="{79869E15-3FDE-43F8-AD44-2CB6888FCFF5}" name="subst_type" dataDxfId="44">
       <calculatedColumnFormula>subst_type</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{F52A28AD-B89A-419E-8DBE-A81D738193B6}" name="command_main_data" dataDxfId="13">
+    <tableColumn id="13" xr3:uid="{F52A28AD-B89A-419E-8DBE-A81D738193B6}" name="command_main_data" dataDxfId="30">
       <calculatedColumnFormula>_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", libraries_3, "/",Table10[[#This Row],[dir]], ".tsv -o ", libraries_4, "/", Table10[[#This Row],[dir]], " -ref ref_seq/", Table10[[#This Row],[ref]], " -dsb ", Table10[[#This Row],[dsb_pos]], " --dsb_type ",Table10[[#This Row],[dsb_type_command]], " --strand ", Table10[[#This Row],[strand]], " --hguide ", Table10[[#This Row],[hguide]], " --cell ", Table10[[#This Row],[cell]], " --treatment ", Table10[[#This Row],[treatment]], " --subst_type ", Table10[[#This Row],[subst_type]], " --control ", Table10[[#This Row],[control]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{AC6F291F-482F-4B13-86D4-8C748D325E95}" name="command_graph_data" dataDxfId="22">
+    <tableColumn id="14" xr3:uid="{AC6F291F-482F-4B13-86D4-8C748D325E95}" name="command_graph_data" dataDxfId="39">
       <calculatedColumnFormula>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table10[[#This Row],[subst_type]], " -dir ", libraries_4, "/", Table10[[#This Row],[dir]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1716,38 +1876,38 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{3ADBC687-3D92-491E-B36B-6CC1BB3B3380}" name="Table6" displayName="Table6" ref="A1:K17" totalsRowShown="0" headerRowDxfId="65">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{3ADBC687-3D92-491E-B36B-6CC1BB3B3380}" name="Table6" displayName="Table6" ref="A1:K17" totalsRowShown="0" headerRowDxfId="81">
   <autoFilter ref="A1:K17" xr:uid="{3ADBC687-3D92-491E-B36B-6CC1BB3B3380}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{B7EC223D-BA24-48F1-9EE3-DC56DEFDE4C2}" name="index" dataDxfId="61"/>
-    <tableColumn id="7" xr3:uid="{D9F1ADDA-18A2-4F81-862D-6B0F786079FF}" name="control" dataDxfId="59">
+    <tableColumn id="1" xr3:uid="{B7EC223D-BA24-48F1-9EE3-DC56DEFDE4C2}" name="index" dataDxfId="77"/>
+    <tableColumn id="7" xr3:uid="{D9F1ADDA-18A2-4F81-862D-6B0F786079FF}" name="control" dataDxfId="75">
       <calculatedColumnFormula>OFFSET('3_graph'!$C$3, 3 * QUOTIENT(Table6[[#This Row],[index]] - 1, 2), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{0EA5A81F-6EA1-4256-9717-03273165F7BF}" name="treatment_1" dataDxfId="58">
+    <tableColumn id="8" xr3:uid="{0EA5A81F-6EA1-4256-9717-03273165F7BF}" name="treatment_1" dataDxfId="74">
       <calculatedColumnFormula>OFFSET('3_graph'!$K$2, 3 * QUOTIENT(Table6[[#This Row],[index]] - 1, 2), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{5F6D005A-96D8-4801-93E2-101BAE551BA8}" name="dir_1" dataDxfId="60">
+    <tableColumn id="2" xr3:uid="{5F6D005A-96D8-4801-93E2-101BAE551BA8}" name="dir_1" dataDxfId="76">
       <calculatedColumnFormula>OFFSET('3_graph'!$B$2, 3 * QUOTIENT(Table6[[#This Row],[index]] - 1, 2), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{C21D1AF7-7ABE-4181-AA2A-42227869A8DD}" name="treatment_2" dataDxfId="57">
+    <tableColumn id="9" xr3:uid="{C21D1AF7-7ABE-4181-AA2A-42227869A8DD}" name="treatment_2" dataDxfId="73">
       <calculatedColumnFormula>OFFSET('3_graph'!$K$2, 3 * QUOTIENT(Table6[[#This Row],[index]] - 1, 2) + 1 + MOD(Table6[[#This Row],[index]] - 1, 2), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{D66426AC-E0B2-4B07-A4D4-5A74AA033E80}" name="dir_2" dataDxfId="62">
+    <tableColumn id="3" xr3:uid="{D66426AC-E0B2-4B07-A4D4-5A74AA033E80}" name="dir_2" dataDxfId="78">
       <calculatedColumnFormula>OFFSET('3_graph'!$B$2, 3 * QUOTIENT(Table6[[#This Row],[index]] - 1, 2) + 1 + MOD(Table6[[#This Row],[index]] - 1, 2), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{0C8146A0-DC77-4DC4-82FF-74F4C74CF33E}" name="treatments_out" dataDxfId="46">
+    <tableColumn id="10" xr3:uid="{0C8146A0-DC77-4DC4-82FF-74F4C74CF33E}" name="treatments_out" dataDxfId="62">
       <calculatedColumnFormula>_xlfn.CONCAT(Table6[[#This Row],[treatment_1]], "_", Table6[[#This Row],[treatment_2]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{519A6397-7A3C-4009-B8B9-A71C0B3A591B}" name="dir_out" dataDxfId="45">
+    <tableColumn id="4" xr3:uid="{519A6397-7A3C-4009-B8B9-A71C0B3A591B}" name="dir_out" dataDxfId="61">
       <calculatedColumnFormula>SUBSTITUTE(Table6[[#This Row],[dir_1]], Table6[[#This Row],[treatment_1]], Table6[[#This Row],[treatments_out]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{E1629355-7D02-4819-98A1-EEB3B5FADE18}" name="subst_type" dataDxfId="26">
+    <tableColumn id="5" xr3:uid="{E1629355-7D02-4819-98A1-EEB3B5FADE18}" name="subst_type" dataDxfId="43">
       <calculatedColumnFormula>subst_type</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{BC9117A0-CB6F-4D3C-A0E4-BF8395854D9A}" name="command_main_data_combined" dataDxfId="21">
+    <tableColumn id="6" xr3:uid="{BC9117A0-CB6F-4D3C-A0E4-BF8395854D9A}" name="command_main_data_combined" dataDxfId="38">
       <calculatedColumnFormula>_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", libraries_4, "/", Table6[[#This Row],[dir_1]], " ", libraries_4, "/", Table6[[#This Row],[dir_2]], " -o ", libraries_4, "/", Table6[[#This Row],[dir_out]], " --subst_type ", Table6[[#This Row],[subst_type]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{D384013E-9937-4DD8-A36A-43325757359B}" name="command_graph_data" dataDxfId="43">
+    <tableColumn id="11" xr3:uid="{D384013E-9937-4DD8-A36A-43325757359B}" name="command_graph_data" dataDxfId="59">
       <calculatedColumnFormula>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table6[[#This Row],[subst_type]], " -dir ", globals!$A$4, "/", Table6[[#This Row],[dir_out]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1756,38 +1916,38 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{44E39C67-02E4-4910-8670-BA7FFCEEEAF8}" name="Table68" displayName="Table68" ref="A19:K21" totalsRowShown="0" headerRowDxfId="56">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{44E39C67-02E4-4910-8670-BA7FFCEEEAF8}" name="Table68" displayName="Table68" ref="A19:K21" totalsRowShown="0" headerRowDxfId="72">
   <autoFilter ref="A19:K21" xr:uid="{44E39C67-02E4-4910-8670-BA7FFCEEEAF8}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{7F5A3A15-751D-407C-A035-61B2605E693F}" name="index" dataDxfId="55"/>
-    <tableColumn id="7" xr3:uid="{45863AB0-FD32-49FE-B4BF-F8EE865F7604}" name="control" dataDxfId="54">
+    <tableColumn id="1" xr3:uid="{7F5A3A15-751D-407C-A035-61B2605E693F}" name="index" dataDxfId="71"/>
+    <tableColumn id="7" xr3:uid="{45863AB0-FD32-49FE-B4BF-F8EE865F7604}" name="control" dataDxfId="70">
       <calculatedColumnFormula>OFFSET('3_graph'!$C$26, 2 * (Table68[[#This Row],[index]] - 1), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{CD16648D-267E-410B-A366-3E12367C037C}" name="treatment_1" dataDxfId="53">
+    <tableColumn id="8" xr3:uid="{CD16648D-267E-410B-A366-3E12367C037C}" name="treatment_1" dataDxfId="69">
       <calculatedColumnFormula>OFFSET('3_graph'!$K$26, 2 * (Table68[[#This Row],[index]] - 1), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{10C9F90E-86FD-4BFE-939E-298FD6F69F12}" name="dir_1" dataDxfId="52">
+    <tableColumn id="2" xr3:uid="{10C9F90E-86FD-4BFE-939E-298FD6F69F12}" name="dir_1" dataDxfId="68">
       <calculatedColumnFormula>OFFSET('3_graph'!$B$26, 2 * (Table68[[#This Row],[index]] - 1), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{7AB3E4AB-F43B-4FDE-96D7-FBBB4A8B83BE}" name="treatment_2" dataDxfId="51">
+    <tableColumn id="9" xr3:uid="{7AB3E4AB-F43B-4FDE-96D7-FBBB4A8B83BE}" name="treatment_2" dataDxfId="67">
       <calculatedColumnFormula>OFFSET('3_graph'!$K$26, 2 * (Table68[[#This Row],[index]] - 1) + 1, 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{BF948A3E-9649-41BF-A7E7-57BFDE810FE9}" name="dir_2" dataDxfId="50">
+    <tableColumn id="3" xr3:uid="{BF948A3E-9649-41BF-A7E7-57BFDE810FE9}" name="dir_2" dataDxfId="66">
       <calculatedColumnFormula>OFFSET('3_graph'!$B$26, 2 * (Table68[[#This Row],[index]] - 1) + 1, 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{378119E5-F021-4785-A653-4D632F029AA6}" name="treatments_out" dataDxfId="47">
+    <tableColumn id="10" xr3:uid="{378119E5-F021-4785-A653-4D632F029AA6}" name="treatments_out" dataDxfId="63">
       <calculatedColumnFormula>_xlfn.CONCAT(Table68[[#This Row],[treatment_1]], "_", Table68[[#This Row],[treatment_2]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{AE1A14DC-D0C9-4818-B8CC-09A571E73BC2}" name="dir_out" dataDxfId="48">
+    <tableColumn id="4" xr3:uid="{AE1A14DC-D0C9-4818-B8CC-09A571E73BC2}" name="dir_out" dataDxfId="64">
       <calculatedColumnFormula>SUBSTITUTE(Table68[[#This Row],[dir_1]], Table68[[#This Row],[treatment_1]], Table68[[#This Row],[treatments_out]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{F29DAC4E-FEC5-4C1D-AAC1-7CE19E401F25}" name="subst_type">
       <calculatedColumnFormula>subst_type</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{DC4E99F4-97AB-4553-A5FB-D20D3D487947}" name="command_main_data_combined" dataDxfId="20">
+    <tableColumn id="6" xr3:uid="{DC4E99F4-97AB-4553-A5FB-D20D3D487947}" name="command_main_data_combined" dataDxfId="37">
       <calculatedColumnFormula>_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", libraries_4, "/", Table68[[#This Row],[dir_1]], " ", libraries_4, "/", Table68[[#This Row],[dir_2]], " -o ", libraries_4, "/", Table68[[#This Row],[dir_out]], " --subst_type ", Table68[[#This Row],[subst_type]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{E19D3001-2E76-4CC2-BF33-D0465C77D538}" name="command_graph_data" dataDxfId="42">
+    <tableColumn id="11" xr3:uid="{E19D3001-2E76-4CC2-BF33-D0465C77D538}" name="command_graph_data" dataDxfId="58">
       <calculatedColumnFormula>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table68[[#This Row],[subst_type]], " -dir ", globals!$A$4, "/", Table68[[#This Row],[dir_out]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1796,38 +1956,38 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{DF721F9E-54DB-422A-8466-77EDBF2287AF}" name="Table69" displayName="Table69" ref="A24:K32" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{DF721F9E-54DB-422A-8466-77EDBF2287AF}" name="Table69" displayName="Table69" ref="A24:K32" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
   <autoFilter ref="A24:K32" xr:uid="{DF721F9E-54DB-422A-8466-77EDBF2287AF}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{4B2D38BB-C594-4CFF-A307-A134FF1DBF8B}" name="index" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{CC939230-FB0E-416F-B345-7A4DD4839870}" name="control" dataDxfId="11">
+    <tableColumn id="1" xr3:uid="{4B2D38BB-C594-4CFF-A307-A134FF1DBF8B}" name="index" dataDxfId="29"/>
+    <tableColumn id="7" xr3:uid="{CC939230-FB0E-416F-B345-7A4DD4839870}" name="control" dataDxfId="28">
       <calculatedColumnFormula>OFFSET('3_graph'!$C$30, 3 * QUOTIENT(Table69[[#This Row],[index]] - 1, 2), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{AF3BF10E-758C-4395-83F8-5F1B20B1ABB6}" name="treatment_1" dataDxfId="10">
+    <tableColumn id="8" xr3:uid="{AF3BF10E-758C-4395-83F8-5F1B20B1ABB6}" name="treatment_1" dataDxfId="27">
       <calculatedColumnFormula>OFFSET('3_graph'!$K$30, 3 * QUOTIENT(Table69[[#This Row],[index]] - 1, 2), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{0E2E8B48-A535-4A36-B8D0-3BC864F39FE8}" name="dir_1" dataDxfId="9">
+    <tableColumn id="2" xr3:uid="{0E2E8B48-A535-4A36-B8D0-3BC864F39FE8}" name="dir_1" dataDxfId="26">
       <calculatedColumnFormula>OFFSET('3_graph'!$B$30, 3 * QUOTIENT(Table69[[#This Row],[index]] - 1, 2), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{10535B63-D8B1-4531-B393-DEE364AD65FC}" name="treatment_2" dataDxfId="8">
+    <tableColumn id="9" xr3:uid="{10535B63-D8B1-4531-B393-DEE364AD65FC}" name="treatment_2" dataDxfId="25">
       <calculatedColumnFormula>OFFSET('3_graph'!$K$30, 3 * QUOTIENT(Table69[[#This Row],[index]] - 1, 2) + 1 + MOD(Table69[[#This Row],[index]] - 1, 2), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{38434F18-6E6B-4445-9468-F1AC68C767A1}" name="dir_2" dataDxfId="7">
+    <tableColumn id="3" xr3:uid="{38434F18-6E6B-4445-9468-F1AC68C767A1}" name="dir_2" dataDxfId="24">
       <calculatedColumnFormula>OFFSET('3_graph'!$B$30, 3 * QUOTIENT(Table69[[#This Row],[index]] - 1, 2) + 1 + MOD(Table69[[#This Row],[index]] - 1, 2), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{D8505D76-DFE0-404D-80FB-E23FCF6C4138}" name="treatments_out" dataDxfId="6">
+    <tableColumn id="10" xr3:uid="{D8505D76-DFE0-404D-80FB-E23FCF6C4138}" name="treatments_out" dataDxfId="23">
       <calculatedColumnFormula>_xlfn.CONCAT(Table69[[#This Row],[treatment_1]], "_", Table69[[#This Row],[treatment_2]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{40A7ED64-C4FB-4223-B672-132B923E0A05}" name="dir_out" dataDxfId="5">
+    <tableColumn id="4" xr3:uid="{40A7ED64-C4FB-4223-B672-132B923E0A05}" name="dir_out" dataDxfId="22">
       <calculatedColumnFormula>SUBSTITUTE(Table69[[#This Row],[dir_1]], Table69[[#This Row],[treatment_1]], Table69[[#This Row],[treatments_out]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{8212981C-68FE-482E-8379-C30BF6F1B4E7}" name="subst_type" dataDxfId="4">
+    <tableColumn id="5" xr3:uid="{8212981C-68FE-482E-8379-C30BF6F1B4E7}" name="subst_type" dataDxfId="21">
       <calculatedColumnFormula>subst_type</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{A4B6DFAC-3439-4952-AA76-E967563DEB87}" name="command_main_data_combined" dataDxfId="3">
+    <tableColumn id="6" xr3:uid="{A4B6DFAC-3439-4952-AA76-E967563DEB87}" name="command_main_data_combined" dataDxfId="20">
       <calculatedColumnFormula>_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", libraries_4, "/", Table69[[#This Row],[dir_1]], " ", libraries_4, "/", Table69[[#This Row],[dir_2]], " -o ", libraries_4, "/", Table69[[#This Row],[dir_out]], " --subst_type ", Table69[[#This Row],[subst_type]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{C0DE1F11-E7E3-403F-A689-174A1F923BFE}" name="command_graph_data" dataDxfId="2">
+    <tableColumn id="11" xr3:uid="{C0DE1F11-E7E3-403F-A689-174A1F923BFE}" name="command_graph_data" dataDxfId="19">
       <calculatedColumnFormula>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table69[[#This Row],[subst_type]], " -dir ", globals!$A$4, "/", Table69[[#This Row],[dir_out]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2132,10 +2292,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86129707-88BE-44BB-B759-1CA0FE147BD8}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2175,6 +2335,11 @@
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -20137,10 +20302,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FCC207B-A9CD-4866-A17E-A3EE763F139F}">
-  <dimension ref="A1:N55"/>
+  <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D35" workbookViewId="0">
-      <selection activeCell="M44" sqref="M44:M55"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21842,7 +22007,7 @@
         <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/WT_sgA_R1_cmv_30bpDown -o plots/histogram_3d/</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -21895,7 +22060,7 @@
         <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/WT_sgB_R2_sense_30bpDown -o plots/histogram_3d/</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -21948,7 +22113,7 @@
         <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/WT_sgB_R2_branch_30bpDown -o plots/histogram_3d/</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -22001,7 +22166,7 @@
         <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/WT_sgB_R2_cmv_30bpDown -o plots/histogram_3d/</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -22054,7 +22219,7 @@
         <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/KO_sgA_R1_sense_30bpDown -o plots/histogram_3d/</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -22107,7 +22272,7 @@
         <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/KO_sgA_R1_branch_30bpDown -o plots/histogram_3d/</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -22160,7 +22325,7 @@
         <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/KO_sgA_R1_cmv_30bpDown -o plots/histogram_3d/</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -22213,7 +22378,7 @@
         <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/KO_sgB_R2_sense_30bpDown -o plots/histogram_3d/</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -22266,7 +22431,7 @@
         <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/KO_sgB_R2_branch_30bpDown -o plots/histogram_3d/</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -22319,7 +22484,7 @@
         <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/KO_sgB_R2_cmv_30bpDown -o plots/histogram_3d/</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>116</v>
       </c>
@@ -22357,13 +22522,10 @@
         <v>109</v>
       </c>
       <c r="M43" t="s">
-        <v>111</v>
-      </c>
-      <c r="N43" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1</v>
       </c>
@@ -22415,12 +22577,8 @@
         <f>_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", libraries_4, "/",Table1014[[#This Row],[dir]], " -o ", histogram_3d, "/")</f>
         <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/WT_sgA_R1_sense_nodsb -o plots/histogram_3d/</v>
       </c>
-      <c r="N44" t="str">
-        <f>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table1014[[#This Row],[subst_type]], " -dir ", globals!$A$4, "/", Table1014[[#This Row],[dir]])</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type with -dir libraries_4/WT_sgA_R1_sense_nodsb</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2</v>
       </c>
@@ -22472,12 +22630,8 @@
         <f>_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", libraries_4, "/",Table1014[[#This Row],[dir]], " -o ", histogram_3d, "/")</f>
         <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/WT_sgA_R1_branch_nodsb -o plots/histogram_3d/</v>
       </c>
-      <c r="N45" t="str">
-        <f>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table1014[[#This Row],[subst_type]], " -dir ", globals!$A$4, "/", Table1014[[#This Row],[dir]])</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type with -dir libraries_4/WT_sgA_R1_branch_nodsb</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>3</v>
       </c>
@@ -22529,12 +22683,8 @@
         <f>_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", libraries_4, "/",Table1014[[#This Row],[dir]], " -o ", histogram_3d, "/")</f>
         <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/WT_sgA_R1_cmv_nodsb -o plots/histogram_3d/</v>
       </c>
-      <c r="N46" t="str">
-        <f>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table1014[[#This Row],[subst_type]], " -dir ", globals!$A$4, "/", Table1014[[#This Row],[dir]])</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type with -dir libraries_4/WT_sgA_R1_cmv_nodsb</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>4</v>
       </c>
@@ -22586,12 +22736,8 @@
         <f>_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", libraries_4, "/",Table1014[[#This Row],[dir]], " -o ", histogram_3d, "/")</f>
         <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/KO_sgA_R1_sense_nodsb -o plots/histogram_3d/</v>
       </c>
-      <c r="N47" t="str">
-        <f>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table1014[[#This Row],[subst_type]], " -dir ", globals!$A$4, "/", Table1014[[#This Row],[dir]])</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type with -dir libraries_4/KO_sgA_R1_sense_nodsb</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>5</v>
       </c>
@@ -22643,12 +22789,8 @@
         <f>_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", libraries_4, "/",Table1014[[#This Row],[dir]], " -o ", histogram_3d, "/")</f>
         <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/KO_sgA_R1_branch_nodsb -o plots/histogram_3d/</v>
       </c>
-      <c r="N48" t="str">
-        <f>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table1014[[#This Row],[subst_type]], " -dir ", globals!$A$4, "/", Table1014[[#This Row],[dir]])</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type with -dir libraries_4/KO_sgA_R1_branch_nodsb</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>6</v>
       </c>
@@ -22700,12 +22842,8 @@
         <f>_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", libraries_4, "/",Table1014[[#This Row],[dir]], " -o ", histogram_3d, "/")</f>
         <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/KO_sgA_R1_cmv_nodsb -o plots/histogram_3d/</v>
       </c>
-      <c r="N49" t="str">
-        <f>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table1014[[#This Row],[subst_type]], " -dir ", globals!$A$4, "/", Table1014[[#This Row],[dir]])</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type with -dir libraries_4/KO_sgA_R1_cmv_nodsb</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>7</v>
       </c>
@@ -22757,12 +22895,8 @@
         <f>_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", libraries_4, "/",Table1014[[#This Row],[dir]], " -o ", histogram_3d, "/")</f>
         <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/WT_sgB_R2_sense_nodsb -o plots/histogram_3d/</v>
       </c>
-      <c r="N50" t="str">
-        <f>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table1014[[#This Row],[subst_type]], " -dir ", globals!$A$4, "/", Table1014[[#This Row],[dir]])</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type with -dir libraries_4/WT_sgB_R2_sense_nodsb</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>8</v>
       </c>
@@ -22814,12 +22948,8 @@
         <f>_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", libraries_4, "/",Table1014[[#This Row],[dir]], " -o ", histogram_3d, "/")</f>
         <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/WT_sgB_R2_branch_nodsb -o plots/histogram_3d/</v>
       </c>
-      <c r="N51" t="str">
-        <f>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table1014[[#This Row],[subst_type]], " -dir ", globals!$A$4, "/", Table1014[[#This Row],[dir]])</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type with -dir libraries_4/WT_sgB_R2_branch_nodsb</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>9</v>
       </c>
@@ -22871,12 +23001,8 @@
         <f>_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", libraries_4, "/",Table1014[[#This Row],[dir]], " -o ", histogram_3d, "/")</f>
         <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/WT_sgB_R2_cmv_nodsb -o plots/histogram_3d/</v>
       </c>
-      <c r="N52" t="str">
-        <f>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table1014[[#This Row],[subst_type]], " -dir ", globals!$A$4, "/", Table1014[[#This Row],[dir]])</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type with -dir libraries_4/WT_sgB_R2_cmv_nodsb</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>10</v>
       </c>
@@ -22928,12 +23054,8 @@
         <f>_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", libraries_4, "/",Table1014[[#This Row],[dir]], " -o ", histogram_3d, "/")</f>
         <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/KO_sgB_R2_sense_nodsb -o plots/histogram_3d/</v>
       </c>
-      <c r="N53" t="str">
-        <f>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table1014[[#This Row],[subst_type]], " -dir ", globals!$A$4, "/", Table1014[[#This Row],[dir]])</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type with -dir libraries_4/KO_sgB_R2_sense_nodsb</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>11</v>
       </c>
@@ -22985,12 +23107,8 @@
         <f>_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", libraries_4, "/",Table1014[[#This Row],[dir]], " -o ", histogram_3d, "/")</f>
         <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/KO_sgB_R2_branch_nodsb -o plots/histogram_3d/</v>
       </c>
-      <c r="N54" t="str">
-        <f>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table1014[[#This Row],[subst_type]], " -dir ", globals!$A$4, "/", Table1014[[#This Row],[dir]])</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type with -dir libraries_4/KO_sgB_R2_branch_nodsb</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>12</v>
       </c>
@@ -23042,9 +23160,2875 @@
         <f>_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", libraries_4, "/",Table1014[[#This Row],[dir]], " -o ", histogram_3d, "/")</f>
         <v>python 2_graph_processing/make_histogram_3d.py -i libraries_4/KO_sgB_R2_cmv_nodsb -o plots/histogram_3d/</v>
       </c>
-      <c r="N55" t="str">
-        <f>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", Table1014[[#This Row],[subst_type]], " -dir ", globals!$A$4, "/", Table1014[[#This Row],[dir]])</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type with -dir libraries_4/KO_sgB_R2_cmv_nodsb</v>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1375107-D76A-4386-B771-6693BBF75061}">
+  <dimension ref="A1:M55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M45" sqref="M45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="31.28515625" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="21" customWidth="1"/>
+    <col min="8" max="9" width="9.28515625" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" customWidth="1"/>
+    <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="51" customWidth="1"/>
+    <col min="14" max="14" width="22.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" t="str">
+        <f ca="1">'2_combined'!J3</f>
+        <v>WT_sgAB_R1_sense</v>
+      </c>
+      <c r="C2" t="str">
+        <f ca="1">'2_combined'!C3</f>
+        <v>none</v>
+      </c>
+      <c r="D2" t="str">
+        <f ca="1">'2_combined'!B3</f>
+        <v>2DSB_R1_sense.fa</v>
+      </c>
+      <c r="E2">
+        <f ca="1">'2_combined'!E3</f>
+        <v>67</v>
+      </c>
+      <c r="F2" t="str">
+        <f ca="1">'2_combined'!D3</f>
+        <v>2DSB</v>
+      </c>
+      <c r="G2" t="str" cm="1">
+        <f t="array" aca="1" ref="G2" ca="1">IF(Table51315[[#This Row],[dsb_type]]="2DSB", "2", IF(Table51315[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table51315[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>2</v>
+      </c>
+      <c r="H2" t="str">
+        <f ca="1">'2_combined'!G3</f>
+        <v>R1</v>
+      </c>
+      <c r="I2" t="str">
+        <f ca="1">MID('2_combined'!I3, 3, 100)</f>
+        <v>AB</v>
+      </c>
+      <c r="J2" t="str">
+        <f ca="1">'2_combined'!F3</f>
+        <v>WT</v>
+      </c>
+      <c r="K2" t="str">
+        <f ca="1">'2_combined'!H3</f>
+        <v>sense</v>
+      </c>
+      <c r="L2" t="str">
+        <f t="shared" ref="L2:L41" si="0">"with"</f>
+        <v>with</v>
+      </c>
+      <c r="M2" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/",Table51315[[#This Row],[dir]], " -o ", graph, "/")</f>
+        <v>python 2_graph_processing/plot_graph.py -i libraries_4/WT_sgAB_R1_sense -o plots/graphs/</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="str">
+        <f ca="1">'2_combined'!J4</f>
+        <v>WT_sgAB_R1_branch</v>
+      </c>
+      <c r="C3" t="str">
+        <f ca="1">'2_combined'!C4</f>
+        <v>none</v>
+      </c>
+      <c r="D3" t="str">
+        <f ca="1">'2_combined'!B4</f>
+        <v>2DSB_R1_branch.fa</v>
+      </c>
+      <c r="E3">
+        <f ca="1">'2_combined'!E4</f>
+        <v>67</v>
+      </c>
+      <c r="F3" t="str">
+        <f ca="1">'2_combined'!D4</f>
+        <v>2DSB</v>
+      </c>
+      <c r="G3" t="str" cm="1">
+        <f t="array" aca="1" ref="G3" ca="1">IF(Table51315[[#This Row],[dsb_type]]="2DSB", "2", IF(Table51315[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table51315[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>2</v>
+      </c>
+      <c r="H3" t="str">
+        <f ca="1">'2_combined'!G4</f>
+        <v>R1</v>
+      </c>
+      <c r="I3" t="str">
+        <f ca="1">MID('2_combined'!I4, 3, 100)</f>
+        <v>AB</v>
+      </c>
+      <c r="J3" t="str">
+        <f ca="1">'2_combined'!F4</f>
+        <v>WT</v>
+      </c>
+      <c r="K3" t="str">
+        <f ca="1">'2_combined'!H4</f>
+        <v>branch</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" si="0"/>
+        <v>with</v>
+      </c>
+      <c r="M3" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/",Table51315[[#This Row],[dir]], " -o ", graph, "/")</f>
+        <v>python 2_graph_processing/plot_graph.py -i libraries_4/WT_sgAB_R1_branch -o plots/graphs/</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" t="str">
+        <f ca="1">'2_combined'!J5</f>
+        <v>WT_sgAB_R1_cmv</v>
+      </c>
+      <c r="C4" t="str">
+        <f ca="1">'2_combined'!C5</f>
+        <v>none</v>
+      </c>
+      <c r="D4" t="str">
+        <f ca="1">'2_combined'!B5</f>
+        <v>2DSB_R1_cmv.fa</v>
+      </c>
+      <c r="E4">
+        <f ca="1">'2_combined'!E5</f>
+        <v>67</v>
+      </c>
+      <c r="F4" t="str">
+        <f ca="1">'2_combined'!D5</f>
+        <v>2DSB</v>
+      </c>
+      <c r="G4" t="str" cm="1">
+        <f t="array" aca="1" ref="G4" ca="1">IF(Table51315[[#This Row],[dsb_type]]="2DSB", "2", IF(Table51315[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table51315[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>2</v>
+      </c>
+      <c r="H4" t="str">
+        <f ca="1">'2_combined'!G5</f>
+        <v>R1</v>
+      </c>
+      <c r="I4" t="str">
+        <f ca="1">MID('2_combined'!I5, 3, 100)</f>
+        <v>AB</v>
+      </c>
+      <c r="J4" t="str">
+        <f ca="1">'2_combined'!F5</f>
+        <v>WT</v>
+      </c>
+      <c r="K4" t="str">
+        <f ca="1">'2_combined'!H5</f>
+        <v>cmv</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="0"/>
+        <v>with</v>
+      </c>
+      <c r="M4" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/",Table51315[[#This Row],[dir]], " -o ", graph, "/")</f>
+        <v>python 2_graph_processing/plot_graph.py -i libraries_4/WT_sgAB_R1_cmv -o plots/graphs/</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" t="str">
+        <f ca="1">'2_combined'!J6</f>
+        <v>KO_sgAB_R1_sense</v>
+      </c>
+      <c r="C5" t="str">
+        <f ca="1">'2_combined'!C6</f>
+        <v>none</v>
+      </c>
+      <c r="D5" t="str">
+        <f ca="1">'2_combined'!B6</f>
+        <v>2DSB_R1_sense.fa</v>
+      </c>
+      <c r="E5">
+        <f ca="1">'2_combined'!E6</f>
+        <v>67</v>
+      </c>
+      <c r="F5" t="str">
+        <f ca="1">'2_combined'!D6</f>
+        <v>2DSB</v>
+      </c>
+      <c r="G5" t="str" cm="1">
+        <f t="array" aca="1" ref="G5" ca="1">IF(Table51315[[#This Row],[dsb_type]]="2DSB", "2", IF(Table51315[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table51315[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>2</v>
+      </c>
+      <c r="H5" t="str">
+        <f ca="1">'2_combined'!G6</f>
+        <v>R1</v>
+      </c>
+      <c r="I5" t="str">
+        <f ca="1">MID('2_combined'!I6, 3, 100)</f>
+        <v>AB</v>
+      </c>
+      <c r="J5" t="str">
+        <f ca="1">'2_combined'!F6</f>
+        <v>KO</v>
+      </c>
+      <c r="K5" t="str">
+        <f ca="1">'2_combined'!H6</f>
+        <v>sense</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="0"/>
+        <v>with</v>
+      </c>
+      <c r="M5" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/",Table51315[[#This Row],[dir]], " -o ", graph, "/")</f>
+        <v>python 2_graph_processing/plot_graph.py -i libraries_4/KO_sgAB_R1_sense -o plots/graphs/</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" t="str">
+        <f ca="1">'2_combined'!J7</f>
+        <v>KO_sgAB_R1_branch</v>
+      </c>
+      <c r="C6" t="str">
+        <f ca="1">'2_combined'!C7</f>
+        <v>none</v>
+      </c>
+      <c r="D6" t="str">
+        <f ca="1">'2_combined'!B7</f>
+        <v>2DSB_R1_branch.fa</v>
+      </c>
+      <c r="E6">
+        <f ca="1">'2_combined'!E7</f>
+        <v>67</v>
+      </c>
+      <c r="F6" t="str">
+        <f ca="1">'2_combined'!D7</f>
+        <v>2DSB</v>
+      </c>
+      <c r="G6" t="str" cm="1">
+        <f t="array" aca="1" ref="G6" ca="1">IF(Table51315[[#This Row],[dsb_type]]="2DSB", "2", IF(Table51315[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table51315[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>2</v>
+      </c>
+      <c r="H6" t="str">
+        <f ca="1">'2_combined'!G7</f>
+        <v>R1</v>
+      </c>
+      <c r="I6" t="str">
+        <f ca="1">MID('2_combined'!I7, 3, 100)</f>
+        <v>AB</v>
+      </c>
+      <c r="J6" t="str">
+        <f ca="1">'2_combined'!F7</f>
+        <v>KO</v>
+      </c>
+      <c r="K6" t="str">
+        <f ca="1">'2_combined'!H7</f>
+        <v>branch</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="0"/>
+        <v>with</v>
+      </c>
+      <c r="M6" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/",Table51315[[#This Row],[dir]], " -o ", graph, "/")</f>
+        <v>python 2_graph_processing/plot_graph.py -i libraries_4/KO_sgAB_R1_branch -o plots/graphs/</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" t="str">
+        <f ca="1">'2_combined'!J8</f>
+        <v>KO_sgAB_R1_cmv</v>
+      </c>
+      <c r="C7" t="str">
+        <f ca="1">'2_combined'!C8</f>
+        <v>none</v>
+      </c>
+      <c r="D7" t="str">
+        <f ca="1">'2_combined'!B8</f>
+        <v>2DSB_R1_cmv.fa</v>
+      </c>
+      <c r="E7">
+        <f ca="1">'2_combined'!E8</f>
+        <v>67</v>
+      </c>
+      <c r="F7" t="str">
+        <f ca="1">'2_combined'!D8</f>
+        <v>2DSB</v>
+      </c>
+      <c r="G7" t="str" cm="1">
+        <f t="array" aca="1" ref="G7" ca="1">IF(Table51315[[#This Row],[dsb_type]]="2DSB", "2", IF(Table51315[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table51315[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>2</v>
+      </c>
+      <c r="H7" t="str">
+        <f ca="1">'2_combined'!G8</f>
+        <v>R1</v>
+      </c>
+      <c r="I7" t="str">
+        <f ca="1">MID('2_combined'!I8, 3, 100)</f>
+        <v>AB</v>
+      </c>
+      <c r="J7" t="str">
+        <f ca="1">'2_combined'!F8</f>
+        <v>KO</v>
+      </c>
+      <c r="K7" t="str">
+        <f ca="1">'2_combined'!H8</f>
+        <v>cmv</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="0"/>
+        <v>with</v>
+      </c>
+      <c r="M7" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/",Table51315[[#This Row],[dir]], " -o ", graph, "/")</f>
+        <v>python 2_graph_processing/plot_graph.py -i libraries_4/KO_sgAB_R1_cmv -o plots/graphs/</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" t="str">
+        <f ca="1">'2_combined'!J9</f>
+        <v>WT_sgAB_R2_sense</v>
+      </c>
+      <c r="C8" t="str">
+        <f ca="1">'2_combined'!C9</f>
+        <v>none</v>
+      </c>
+      <c r="D8" t="str">
+        <f ca="1">'2_combined'!B9</f>
+        <v>2DSB_R2_sense.fa</v>
+      </c>
+      <c r="E8">
+        <f ca="1">'2_combined'!E9</f>
+        <v>46</v>
+      </c>
+      <c r="F8" t="str">
+        <f ca="1">'2_combined'!D9</f>
+        <v>2DSB</v>
+      </c>
+      <c r="G8" t="str" cm="1">
+        <f t="array" aca="1" ref="G8" ca="1">IF(Table51315[[#This Row],[dsb_type]]="2DSB", "2", IF(Table51315[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table51315[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>2</v>
+      </c>
+      <c r="H8" t="str">
+        <f ca="1">'2_combined'!G9</f>
+        <v>R2</v>
+      </c>
+      <c r="I8" t="str">
+        <f ca="1">MID('2_combined'!I9, 3, 100)</f>
+        <v>AB</v>
+      </c>
+      <c r="J8" t="str">
+        <f ca="1">'2_combined'!F9</f>
+        <v>WT</v>
+      </c>
+      <c r="K8" t="str">
+        <f ca="1">'2_combined'!H9</f>
+        <v>sense</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="0"/>
+        <v>with</v>
+      </c>
+      <c r="M8" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/",Table51315[[#This Row],[dir]], " -o ", graph, "/")</f>
+        <v>python 2_graph_processing/plot_graph.py -i libraries_4/WT_sgAB_R2_sense -o plots/graphs/</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" t="str">
+        <f ca="1">'2_combined'!J10</f>
+        <v>WT_sgAB_R2_branch</v>
+      </c>
+      <c r="C9" t="str">
+        <f ca="1">'2_combined'!C10</f>
+        <v>none</v>
+      </c>
+      <c r="D9" t="str">
+        <f ca="1">'2_combined'!B10</f>
+        <v>2DSB_R2_branch.fa</v>
+      </c>
+      <c r="E9">
+        <f ca="1">'2_combined'!E10</f>
+        <v>46</v>
+      </c>
+      <c r="F9" t="str">
+        <f ca="1">'2_combined'!D10</f>
+        <v>2DSB</v>
+      </c>
+      <c r="G9" t="str" cm="1">
+        <f t="array" aca="1" ref="G9" ca="1">IF(Table51315[[#This Row],[dsb_type]]="2DSB", "2", IF(Table51315[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table51315[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>2</v>
+      </c>
+      <c r="H9" t="str">
+        <f ca="1">'2_combined'!G10</f>
+        <v>R2</v>
+      </c>
+      <c r="I9" t="str">
+        <f ca="1">MID('2_combined'!I10, 3, 100)</f>
+        <v>AB</v>
+      </c>
+      <c r="J9" t="str">
+        <f ca="1">'2_combined'!F10</f>
+        <v>WT</v>
+      </c>
+      <c r="K9" t="str">
+        <f ca="1">'2_combined'!H10</f>
+        <v>branch</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="0"/>
+        <v>with</v>
+      </c>
+      <c r="M9" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/",Table51315[[#This Row],[dir]], " -o ", graph, "/")</f>
+        <v>python 2_graph_processing/plot_graph.py -i libraries_4/WT_sgAB_R2_branch -o plots/graphs/</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" t="str">
+        <f ca="1">'2_combined'!J11</f>
+        <v>WT_sgAB_R2_cmv</v>
+      </c>
+      <c r="C10" t="str">
+        <f ca="1">'2_combined'!C11</f>
+        <v>none</v>
+      </c>
+      <c r="D10" t="str">
+        <f ca="1">'2_combined'!B11</f>
+        <v>2DSB_R2_cmv.fa</v>
+      </c>
+      <c r="E10">
+        <f ca="1">'2_combined'!E11</f>
+        <v>46</v>
+      </c>
+      <c r="F10" t="str">
+        <f ca="1">'2_combined'!D11</f>
+        <v>2DSB</v>
+      </c>
+      <c r="G10" t="str" cm="1">
+        <f t="array" aca="1" ref="G10" ca="1">IF(Table51315[[#This Row],[dsb_type]]="2DSB", "2", IF(Table51315[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table51315[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>2</v>
+      </c>
+      <c r="H10" t="str">
+        <f ca="1">'2_combined'!G11</f>
+        <v>R2</v>
+      </c>
+      <c r="I10" t="str">
+        <f ca="1">MID('2_combined'!I11, 3, 100)</f>
+        <v>AB</v>
+      </c>
+      <c r="J10" t="str">
+        <f ca="1">'2_combined'!F11</f>
+        <v>WT</v>
+      </c>
+      <c r="K10" t="str">
+        <f ca="1">'2_combined'!H11</f>
+        <v>cmv</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="0"/>
+        <v>with</v>
+      </c>
+      <c r="M10" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/",Table51315[[#This Row],[dir]], " -o ", graph, "/")</f>
+        <v>python 2_graph_processing/plot_graph.py -i libraries_4/WT_sgAB_R2_cmv -o plots/graphs/</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" t="str">
+        <f ca="1">'2_combined'!J12</f>
+        <v>KO_sgAB_R2_sense</v>
+      </c>
+      <c r="C11" t="str">
+        <f ca="1">'2_combined'!C12</f>
+        <v>none</v>
+      </c>
+      <c r="D11" t="str">
+        <f ca="1">'2_combined'!B12</f>
+        <v>2DSB_R2_sense.fa</v>
+      </c>
+      <c r="E11">
+        <f ca="1">'2_combined'!E12</f>
+        <v>46</v>
+      </c>
+      <c r="F11" t="str">
+        <f ca="1">'2_combined'!D12</f>
+        <v>2DSB</v>
+      </c>
+      <c r="G11" t="str" cm="1">
+        <f t="array" aca="1" ref="G11" ca="1">IF(Table51315[[#This Row],[dsb_type]]="2DSB", "2", IF(Table51315[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table51315[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>2</v>
+      </c>
+      <c r="H11" t="str">
+        <f ca="1">'2_combined'!G12</f>
+        <v>R2</v>
+      </c>
+      <c r="I11" t="str">
+        <f ca="1">MID('2_combined'!I12, 3, 100)</f>
+        <v>AB</v>
+      </c>
+      <c r="J11" t="str">
+        <f ca="1">'2_combined'!F12</f>
+        <v>KO</v>
+      </c>
+      <c r="K11" t="str">
+        <f ca="1">'2_combined'!H12</f>
+        <v>sense</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="0"/>
+        <v>with</v>
+      </c>
+      <c r="M11" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/",Table51315[[#This Row],[dir]], " -o ", graph, "/")</f>
+        <v>python 2_graph_processing/plot_graph.py -i libraries_4/KO_sgAB_R2_sense -o plots/graphs/</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" t="str">
+        <f ca="1">'2_combined'!J13</f>
+        <v>KO_sgAB_R2_branch</v>
+      </c>
+      <c r="C12" t="str">
+        <f ca="1">'2_combined'!C13</f>
+        <v>none</v>
+      </c>
+      <c r="D12" t="str">
+        <f ca="1">'2_combined'!B13</f>
+        <v>2DSB_R2_branch.fa</v>
+      </c>
+      <c r="E12">
+        <f ca="1">'2_combined'!E13</f>
+        <v>46</v>
+      </c>
+      <c r="F12" t="str">
+        <f ca="1">'2_combined'!D13</f>
+        <v>2DSB</v>
+      </c>
+      <c r="G12" t="str" cm="1">
+        <f t="array" aca="1" ref="G12" ca="1">IF(Table51315[[#This Row],[dsb_type]]="2DSB", "2", IF(Table51315[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table51315[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>2</v>
+      </c>
+      <c r="H12" t="str">
+        <f ca="1">'2_combined'!G13</f>
+        <v>R2</v>
+      </c>
+      <c r="I12" t="str">
+        <f ca="1">MID('2_combined'!I13, 3, 100)</f>
+        <v>AB</v>
+      </c>
+      <c r="J12" t="str">
+        <f ca="1">'2_combined'!F13</f>
+        <v>KO</v>
+      </c>
+      <c r="K12" t="str">
+        <f ca="1">'2_combined'!H13</f>
+        <v>branch</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="0"/>
+        <v>with</v>
+      </c>
+      <c r="M12" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/",Table51315[[#This Row],[dir]], " -o ", graph, "/")</f>
+        <v>python 2_graph_processing/plot_graph.py -i libraries_4/KO_sgAB_R2_branch -o plots/graphs/</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" t="str">
+        <f ca="1">'2_combined'!J14</f>
+        <v>KO_sgAB_R2_cmv</v>
+      </c>
+      <c r="C13" t="str">
+        <f ca="1">'2_combined'!C14</f>
+        <v>none</v>
+      </c>
+      <c r="D13" t="str">
+        <f ca="1">'2_combined'!B14</f>
+        <v>2DSB_R2_cmv.fa</v>
+      </c>
+      <c r="E13">
+        <f ca="1">'2_combined'!E14</f>
+        <v>46</v>
+      </c>
+      <c r="F13" t="str">
+        <f ca="1">'2_combined'!D14</f>
+        <v>2DSB</v>
+      </c>
+      <c r="G13" t="str" cm="1">
+        <f t="array" aca="1" ref="G13" ca="1">IF(Table51315[[#This Row],[dsb_type]]="2DSB", "2", IF(Table51315[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table51315[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>2</v>
+      </c>
+      <c r="H13" t="str">
+        <f ca="1">'2_combined'!G14</f>
+        <v>R2</v>
+      </c>
+      <c r="I13" t="str">
+        <f ca="1">MID('2_combined'!I14, 3, 100)</f>
+        <v>AB</v>
+      </c>
+      <c r="J13" t="str">
+        <f ca="1">'2_combined'!F14</f>
+        <v>KO</v>
+      </c>
+      <c r="K13" t="str">
+        <f ca="1">'2_combined'!H14</f>
+        <v>cmv</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="0"/>
+        <v>with</v>
+      </c>
+      <c r="M13" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/",Table51315[[#This Row],[dir]], " -o ", graph, "/")</f>
+        <v>python 2_graph_processing/plot_graph.py -i libraries_4/KO_sgAB_R2_cmv -o plots/graphs/</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" t="str">
+        <f ca="1">'2_combined'!J15</f>
+        <v>WT_sgA_R1_sense</v>
+      </c>
+      <c r="C14" t="str">
+        <f ca="1">'2_combined'!C15</f>
+        <v>none</v>
+      </c>
+      <c r="D14" t="str">
+        <f ca="1">'2_combined'!B15</f>
+        <v>1DSB_R1_sense.fa</v>
+      </c>
+      <c r="E14">
+        <f ca="1">'2_combined'!E15</f>
+        <v>67</v>
+      </c>
+      <c r="F14" t="str">
+        <f ca="1">'2_combined'!D15</f>
+        <v>1DSB</v>
+      </c>
+      <c r="G14" t="str" cm="1">
+        <f t="array" aca="1" ref="G14" ca="1">IF(Table51315[[#This Row],[dsb_type]]="2DSB", "2", IF(Table51315[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table51315[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>1</v>
+      </c>
+      <c r="H14" t="str">
+        <f ca="1">'2_combined'!G15</f>
+        <v>R1</v>
+      </c>
+      <c r="I14" t="str">
+        <f ca="1">MID('2_combined'!I15, 3, 100)</f>
+        <v>A</v>
+      </c>
+      <c r="J14" t="str">
+        <f ca="1">'2_combined'!F15</f>
+        <v>WT</v>
+      </c>
+      <c r="K14" t="str">
+        <f ca="1">'2_combined'!H15</f>
+        <v>sense</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="0"/>
+        <v>with</v>
+      </c>
+      <c r="M14" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/",Table51315[[#This Row],[dir]], " -o ", graph, "/")</f>
+        <v>python 2_graph_processing/plot_graph.py -i libraries_4/WT_sgA_R1_sense -o plots/graphs/</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" t="str">
+        <f ca="1">'2_combined'!J16</f>
+        <v>WT_sgA_R1_branch</v>
+      </c>
+      <c r="C15" t="str">
+        <f ca="1">'2_combined'!C16</f>
+        <v>none</v>
+      </c>
+      <c r="D15" t="str">
+        <f ca="1">'2_combined'!B16</f>
+        <v>1DSB_R1_branch.fa</v>
+      </c>
+      <c r="E15">
+        <f ca="1">'2_combined'!E16</f>
+        <v>67</v>
+      </c>
+      <c r="F15" t="str">
+        <f ca="1">'2_combined'!D16</f>
+        <v>1DSB</v>
+      </c>
+      <c r="G15" t="str" cm="1">
+        <f t="array" aca="1" ref="G15" ca="1">IF(Table51315[[#This Row],[dsb_type]]="2DSB", "2", IF(Table51315[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table51315[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>1</v>
+      </c>
+      <c r="H15" t="str">
+        <f ca="1">'2_combined'!G16</f>
+        <v>R1</v>
+      </c>
+      <c r="I15" t="str">
+        <f ca="1">MID('2_combined'!I16, 3, 100)</f>
+        <v>A</v>
+      </c>
+      <c r="J15" t="str">
+        <f ca="1">'2_combined'!F16</f>
+        <v>WT</v>
+      </c>
+      <c r="K15" t="str">
+        <f ca="1">'2_combined'!H16</f>
+        <v>branch</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" si="0"/>
+        <v>with</v>
+      </c>
+      <c r="M15" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/",Table51315[[#This Row],[dir]], " -o ", graph, "/")</f>
+        <v>python 2_graph_processing/plot_graph.py -i libraries_4/WT_sgA_R1_branch -o plots/graphs/</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" t="str">
+        <f ca="1">'2_combined'!J17</f>
+        <v>WT_sgA_R1_cmv</v>
+      </c>
+      <c r="C16" t="str">
+        <f ca="1">'2_combined'!C17</f>
+        <v>none</v>
+      </c>
+      <c r="D16" t="str">
+        <f ca="1">'2_combined'!B17</f>
+        <v>1DSB_R1_cmv.fa</v>
+      </c>
+      <c r="E16">
+        <f ca="1">'2_combined'!E17</f>
+        <v>67</v>
+      </c>
+      <c r="F16" t="str">
+        <f ca="1">'2_combined'!D17</f>
+        <v>1DSB</v>
+      </c>
+      <c r="G16" t="str" cm="1">
+        <f t="array" aca="1" ref="G16" ca="1">IF(Table51315[[#This Row],[dsb_type]]="2DSB", "2", IF(Table51315[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table51315[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>1</v>
+      </c>
+      <c r="H16" t="str">
+        <f ca="1">'2_combined'!G17</f>
+        <v>R1</v>
+      </c>
+      <c r="I16" t="str">
+        <f ca="1">MID('2_combined'!I17, 3, 100)</f>
+        <v>A</v>
+      </c>
+      <c r="J16" t="str">
+        <f ca="1">'2_combined'!F17</f>
+        <v>WT</v>
+      </c>
+      <c r="K16" t="str">
+        <f ca="1">'2_combined'!H17</f>
+        <v>cmv</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v>with</v>
+      </c>
+      <c r="M16" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/",Table51315[[#This Row],[dir]], " -o ", graph, "/")</f>
+        <v>python 2_graph_processing/plot_graph.py -i libraries_4/WT_sgA_R1_cmv -o plots/graphs/</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" t="str">
+        <f ca="1">'2_combined'!J18</f>
+        <v>WT_sgB_R2_sense</v>
+      </c>
+      <c r="C17" t="str">
+        <f ca="1">'2_combined'!C18</f>
+        <v>none</v>
+      </c>
+      <c r="D17" t="str">
+        <f ca="1">'2_combined'!B18</f>
+        <v>1DSB_R2_sense.fa</v>
+      </c>
+      <c r="E17">
+        <f ca="1">'2_combined'!E18</f>
+        <v>46</v>
+      </c>
+      <c r="F17" t="str">
+        <f ca="1">'2_combined'!D18</f>
+        <v>1DSB</v>
+      </c>
+      <c r="G17" t="str" cm="1">
+        <f t="array" aca="1" ref="G17" ca="1">IF(Table51315[[#This Row],[dsb_type]]="2DSB", "2", IF(Table51315[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table51315[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>1</v>
+      </c>
+      <c r="H17" t="str">
+        <f ca="1">'2_combined'!G18</f>
+        <v>R2</v>
+      </c>
+      <c r="I17" t="str">
+        <f ca="1">MID('2_combined'!I18, 3, 100)</f>
+        <v>B</v>
+      </c>
+      <c r="J17" t="str">
+        <f ca="1">'2_combined'!F18</f>
+        <v>WT</v>
+      </c>
+      <c r="K17" t="str">
+        <f ca="1">'2_combined'!H18</f>
+        <v>sense</v>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v>with</v>
+      </c>
+      <c r="M17" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/",Table51315[[#This Row],[dir]], " -o ", graph, "/")</f>
+        <v>python 2_graph_processing/plot_graph.py -i libraries_4/WT_sgB_R2_sense -o plots/graphs/</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" t="str">
+        <f ca="1">'2_combined'!J19</f>
+        <v>WT_sgB_R2_branch</v>
+      </c>
+      <c r="C18" t="str">
+        <f ca="1">'2_combined'!C19</f>
+        <v>none</v>
+      </c>
+      <c r="D18" t="str">
+        <f ca="1">'2_combined'!B19</f>
+        <v>1DSB_R2_branch.fa</v>
+      </c>
+      <c r="E18">
+        <f ca="1">'2_combined'!E19</f>
+        <v>46</v>
+      </c>
+      <c r="F18" t="str">
+        <f ca="1">'2_combined'!D19</f>
+        <v>1DSB</v>
+      </c>
+      <c r="G18" t="str" cm="1">
+        <f t="array" aca="1" ref="G18" ca="1">IF(Table51315[[#This Row],[dsb_type]]="2DSB", "2", IF(Table51315[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table51315[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>1</v>
+      </c>
+      <c r="H18" t="str">
+        <f ca="1">'2_combined'!G19</f>
+        <v>R2</v>
+      </c>
+      <c r="I18" t="str">
+        <f ca="1">MID('2_combined'!I19, 3, 100)</f>
+        <v>B</v>
+      </c>
+      <c r="J18" t="str">
+        <f ca="1">'2_combined'!F19</f>
+        <v>WT</v>
+      </c>
+      <c r="K18" t="str">
+        <f ca="1">'2_combined'!H19</f>
+        <v>branch</v>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v>with</v>
+      </c>
+      <c r="M18" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/",Table51315[[#This Row],[dir]], " -o ", graph, "/")</f>
+        <v>python 2_graph_processing/plot_graph.py -i libraries_4/WT_sgB_R2_branch -o plots/graphs/</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" t="str">
+        <f ca="1">'2_combined'!J20</f>
+        <v>WT_sgB_R2_cmv</v>
+      </c>
+      <c r="C19" t="str">
+        <f ca="1">'2_combined'!C20</f>
+        <v>none</v>
+      </c>
+      <c r="D19" t="str">
+        <f ca="1">'2_combined'!B20</f>
+        <v>1DSB_R2_cmv.fa</v>
+      </c>
+      <c r="E19">
+        <f ca="1">'2_combined'!E20</f>
+        <v>46</v>
+      </c>
+      <c r="F19" t="str">
+        <f ca="1">'2_combined'!D20</f>
+        <v>1DSB</v>
+      </c>
+      <c r="G19" t="str" cm="1">
+        <f t="array" aca="1" ref="G19" ca="1">IF(Table51315[[#This Row],[dsb_type]]="2DSB", "2", IF(Table51315[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table51315[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>1</v>
+      </c>
+      <c r="H19" t="str">
+        <f ca="1">'2_combined'!G20</f>
+        <v>R2</v>
+      </c>
+      <c r="I19" t="str">
+        <f ca="1">MID('2_combined'!I20, 3, 100)</f>
+        <v>B</v>
+      </c>
+      <c r="J19" t="str">
+        <f ca="1">'2_combined'!F20</f>
+        <v>WT</v>
+      </c>
+      <c r="K19" t="str">
+        <f ca="1">'2_combined'!H20</f>
+        <v>cmv</v>
+      </c>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v>with</v>
+      </c>
+      <c r="M19" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/",Table51315[[#This Row],[dir]], " -o ", graph, "/")</f>
+        <v>python 2_graph_processing/plot_graph.py -i libraries_4/WT_sgB_R2_cmv -o plots/graphs/</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" t="str">
+        <f ca="1">'2_combined'!J21</f>
+        <v>KO_sgA_R1_sense</v>
+      </c>
+      <c r="C20" t="str">
+        <f ca="1">'2_combined'!C21</f>
+        <v>none</v>
+      </c>
+      <c r="D20" t="str">
+        <f ca="1">'2_combined'!B21</f>
+        <v>1DSB_R1_sense.fa</v>
+      </c>
+      <c r="E20">
+        <f ca="1">'2_combined'!E21</f>
+        <v>67</v>
+      </c>
+      <c r="F20" t="str">
+        <f ca="1">'2_combined'!D21</f>
+        <v>1DSB</v>
+      </c>
+      <c r="G20" t="str" cm="1">
+        <f t="array" aca="1" ref="G20" ca="1">IF(Table51315[[#This Row],[dsb_type]]="2DSB", "2", IF(Table51315[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table51315[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>1</v>
+      </c>
+      <c r="H20" t="str">
+        <f ca="1">'2_combined'!G21</f>
+        <v>R1</v>
+      </c>
+      <c r="I20" t="str">
+        <f ca="1">MID('2_combined'!I21, 3, 100)</f>
+        <v>A</v>
+      </c>
+      <c r="J20" t="str">
+        <f ca="1">'2_combined'!F21</f>
+        <v>KO</v>
+      </c>
+      <c r="K20" t="str">
+        <f ca="1">'2_combined'!H21</f>
+        <v>sense</v>
+      </c>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v>with</v>
+      </c>
+      <c r="M20" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/",Table51315[[#This Row],[dir]], " -o ", graph, "/")</f>
+        <v>python 2_graph_processing/plot_graph.py -i libraries_4/KO_sgA_R1_sense -o plots/graphs/</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" t="str">
+        <f ca="1">'2_combined'!J22</f>
+        <v>KO_sgA_R1_branch</v>
+      </c>
+      <c r="C21" t="str">
+        <f ca="1">'2_combined'!C22</f>
+        <v>none</v>
+      </c>
+      <c r="D21" t="str">
+        <f ca="1">'2_combined'!B22</f>
+        <v>1DSB_R1_branch.fa</v>
+      </c>
+      <c r="E21">
+        <f ca="1">'2_combined'!E22</f>
+        <v>67</v>
+      </c>
+      <c r="F21" t="str">
+        <f ca="1">'2_combined'!D22</f>
+        <v>1DSB</v>
+      </c>
+      <c r="G21" t="str" cm="1">
+        <f t="array" aca="1" ref="G21" ca="1">IF(Table51315[[#This Row],[dsb_type]]="2DSB", "2", IF(Table51315[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table51315[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>1</v>
+      </c>
+      <c r="H21" t="str">
+        <f ca="1">'2_combined'!G22</f>
+        <v>R1</v>
+      </c>
+      <c r="I21" t="str">
+        <f ca="1">MID('2_combined'!I22, 3, 100)</f>
+        <v>A</v>
+      </c>
+      <c r="J21" t="str">
+        <f ca="1">'2_combined'!F22</f>
+        <v>KO</v>
+      </c>
+      <c r="K21" t="str">
+        <f ca="1">'2_combined'!H22</f>
+        <v>branch</v>
+      </c>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v>with</v>
+      </c>
+      <c r="M21" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/",Table51315[[#This Row],[dir]], " -o ", graph, "/")</f>
+        <v>python 2_graph_processing/plot_graph.py -i libraries_4/KO_sgA_R1_branch -o plots/graphs/</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" t="str">
+        <f ca="1">'2_combined'!J23</f>
+        <v>KO_sgA_R1_cmv</v>
+      </c>
+      <c r="C22" t="str">
+        <f ca="1">'2_combined'!C23</f>
+        <v>none</v>
+      </c>
+      <c r="D22" t="str">
+        <f ca="1">'2_combined'!B23</f>
+        <v>1DSB_R1_cmv.fa</v>
+      </c>
+      <c r="E22">
+        <f ca="1">'2_combined'!E23</f>
+        <v>67</v>
+      </c>
+      <c r="F22" t="str">
+        <f ca="1">'2_combined'!D23</f>
+        <v>1DSB</v>
+      </c>
+      <c r="G22" t="str" cm="1">
+        <f t="array" aca="1" ref="G22" ca="1">IF(Table51315[[#This Row],[dsb_type]]="2DSB", "2", IF(Table51315[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table51315[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>1</v>
+      </c>
+      <c r="H22" t="str">
+        <f ca="1">'2_combined'!G23</f>
+        <v>R1</v>
+      </c>
+      <c r="I22" t="str">
+        <f ca="1">MID('2_combined'!I23, 3, 100)</f>
+        <v>A</v>
+      </c>
+      <c r="J22" t="str">
+        <f ca="1">'2_combined'!F23</f>
+        <v>KO</v>
+      </c>
+      <c r="K22" t="str">
+        <f ca="1">'2_combined'!H23</f>
+        <v>cmv</v>
+      </c>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v>with</v>
+      </c>
+      <c r="M22" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/",Table51315[[#This Row],[dir]], " -o ", graph, "/")</f>
+        <v>python 2_graph_processing/plot_graph.py -i libraries_4/KO_sgA_R1_cmv -o plots/graphs/</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" t="str">
+        <f ca="1">'2_combined'!J24</f>
+        <v>KO_sgB_R2_sense</v>
+      </c>
+      <c r="C23" t="str">
+        <f ca="1">'2_combined'!C24</f>
+        <v>none</v>
+      </c>
+      <c r="D23" t="str">
+        <f ca="1">'2_combined'!B24</f>
+        <v>1DSB_R2_sense.fa</v>
+      </c>
+      <c r="E23">
+        <f ca="1">'2_combined'!E24</f>
+        <v>46</v>
+      </c>
+      <c r="F23" t="str">
+        <f ca="1">'2_combined'!D24</f>
+        <v>1DSB</v>
+      </c>
+      <c r="G23" t="str" cm="1">
+        <f t="array" aca="1" ref="G23" ca="1">IF(Table51315[[#This Row],[dsb_type]]="2DSB", "2", IF(Table51315[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table51315[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>1</v>
+      </c>
+      <c r="H23" t="str">
+        <f ca="1">'2_combined'!G24</f>
+        <v>R2</v>
+      </c>
+      <c r="I23" t="str">
+        <f ca="1">MID('2_combined'!I24, 3, 100)</f>
+        <v>B</v>
+      </c>
+      <c r="J23" t="str">
+        <f ca="1">'2_combined'!F24</f>
+        <v>KO</v>
+      </c>
+      <c r="K23" t="str">
+        <f ca="1">'2_combined'!H24</f>
+        <v>sense</v>
+      </c>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v>with</v>
+      </c>
+      <c r="M23" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/",Table51315[[#This Row],[dir]], " -o ", graph, "/")</f>
+        <v>python 2_graph_processing/plot_graph.py -i libraries_4/KO_sgB_R2_sense -o plots/graphs/</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" t="str">
+        <f ca="1">'2_combined'!J25</f>
+        <v>KO_sgB_R2_branch</v>
+      </c>
+      <c r="C24" t="str">
+        <f ca="1">'2_combined'!C25</f>
+        <v>none</v>
+      </c>
+      <c r="D24" t="str">
+        <f ca="1">'2_combined'!B25</f>
+        <v>1DSB_R2_branch.fa</v>
+      </c>
+      <c r="E24">
+        <f ca="1">'2_combined'!E25</f>
+        <v>46</v>
+      </c>
+      <c r="F24" t="str">
+        <f ca="1">'2_combined'!D25</f>
+        <v>1DSB</v>
+      </c>
+      <c r="G24" t="str" cm="1">
+        <f t="array" aca="1" ref="G24" ca="1">IF(Table51315[[#This Row],[dsb_type]]="2DSB", "2", IF(Table51315[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table51315[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>1</v>
+      </c>
+      <c r="H24" t="str">
+        <f ca="1">'2_combined'!G25</f>
+        <v>R2</v>
+      </c>
+      <c r="I24" t="str">
+        <f ca="1">MID('2_combined'!I25, 3, 100)</f>
+        <v>B</v>
+      </c>
+      <c r="J24" t="str">
+        <f ca="1">'2_combined'!F25</f>
+        <v>KO</v>
+      </c>
+      <c r="K24" t="str">
+        <f ca="1">'2_combined'!H25</f>
+        <v>branch</v>
+      </c>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v>with</v>
+      </c>
+      <c r="M24" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/",Table51315[[#This Row],[dir]], " -o ", graph, "/")</f>
+        <v>python 2_graph_processing/plot_graph.py -i libraries_4/KO_sgB_R2_branch -o plots/graphs/</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" t="str">
+        <f ca="1">'2_combined'!J26</f>
+        <v>KO_sgB_R2_cmv</v>
+      </c>
+      <c r="C25" t="str">
+        <f ca="1">'2_combined'!C26</f>
+        <v>none</v>
+      </c>
+      <c r="D25" t="str">
+        <f ca="1">'2_combined'!B26</f>
+        <v>1DSB_R2_cmv.fa</v>
+      </c>
+      <c r="E25">
+        <f ca="1">'2_combined'!E26</f>
+        <v>46</v>
+      </c>
+      <c r="F25" t="str">
+        <f ca="1">'2_combined'!D26</f>
+        <v>1DSB</v>
+      </c>
+      <c r="G25" t="str" cm="1">
+        <f t="array" aca="1" ref="G25" ca="1">IF(Table51315[[#This Row],[dsb_type]]="2DSB", "2", IF(Table51315[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table51315[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>1</v>
+      </c>
+      <c r="H25" t="str">
+        <f ca="1">'2_combined'!G26</f>
+        <v>R2</v>
+      </c>
+      <c r="I25" t="str">
+        <f ca="1">MID('2_combined'!I26, 3, 100)</f>
+        <v>B</v>
+      </c>
+      <c r="J25" t="str">
+        <f ca="1">'2_combined'!F26</f>
+        <v>KO</v>
+      </c>
+      <c r="K25" t="str">
+        <f ca="1">'2_combined'!H26</f>
+        <v>cmv</v>
+      </c>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v>with</v>
+      </c>
+      <c r="M25" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/",Table51315[[#This Row],[dir]], " -o ", graph, "/")</f>
+        <v>python 2_graph_processing/plot_graph.py -i libraries_4/KO_sgB_R2_cmv -o plots/graphs/</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" t="str">
+        <f ca="1">'2_combined'!J27</f>
+        <v>WT_sgCD_R1_antisense</v>
+      </c>
+      <c r="C26" t="str">
+        <f ca="1">'2_combined'!C27</f>
+        <v>none</v>
+      </c>
+      <c r="D26" t="str">
+        <f ca="1">'2_combined'!B27</f>
+        <v>2DSBanti_R1_antisense.fa</v>
+      </c>
+      <c r="E26">
+        <f ca="1">'2_combined'!E27</f>
+        <v>50</v>
+      </c>
+      <c r="F26" t="str">
+        <f ca="1">'2_combined'!D27</f>
+        <v>2DSBanti</v>
+      </c>
+      <c r="G26" t="str" cm="1">
+        <f t="array" aca="1" ref="G26" ca="1">IF(Table51315[[#This Row],[dsb_type]]="2DSB", "2", IF(Table51315[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table51315[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>2a</v>
+      </c>
+      <c r="H26" t="str">
+        <f ca="1">'2_combined'!G27</f>
+        <v>R1</v>
+      </c>
+      <c r="I26" t="str">
+        <f ca="1">MID('2_combined'!I27, 3, 100)</f>
+        <v>CD</v>
+      </c>
+      <c r="J26" t="str">
+        <f ca="1">'2_combined'!F27</f>
+        <v>WT</v>
+      </c>
+      <c r="K26" t="str">
+        <f ca="1">'2_combined'!H27</f>
+        <v>antisense</v>
+      </c>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v>with</v>
+      </c>
+      <c r="M26" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/",Table51315[[#This Row],[dir]], " -o ", graph, "/")</f>
+        <v>python 2_graph_processing/plot_graph.py -i libraries_4/WT_sgCD_R1_antisense -o plots/graphs/</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" t="str">
+        <f ca="1">'2_combined'!J28</f>
+        <v>WT_sgCD_R1_splicing</v>
+      </c>
+      <c r="C27" t="str">
+        <f ca="1">'2_combined'!C28</f>
+        <v>none</v>
+      </c>
+      <c r="D27" t="str">
+        <f ca="1">'2_combined'!B28</f>
+        <v>2DSBanti_R1_splicing.fa</v>
+      </c>
+      <c r="E27">
+        <f ca="1">'2_combined'!E28</f>
+        <v>50</v>
+      </c>
+      <c r="F27" t="str">
+        <f ca="1">'2_combined'!D28</f>
+        <v>2DSBanti</v>
+      </c>
+      <c r="G27" t="str" cm="1">
+        <f t="array" aca="1" ref="G27" ca="1">IF(Table51315[[#This Row],[dsb_type]]="2DSB", "2", IF(Table51315[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table51315[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>2a</v>
+      </c>
+      <c r="H27" t="str">
+        <f ca="1">'2_combined'!G28</f>
+        <v>R1</v>
+      </c>
+      <c r="I27" t="str">
+        <f ca="1">MID('2_combined'!I28, 3, 100)</f>
+        <v>CD</v>
+      </c>
+      <c r="J27" t="str">
+        <f ca="1">'2_combined'!F28</f>
+        <v>WT</v>
+      </c>
+      <c r="K27" t="str">
+        <f ca="1">'2_combined'!H28</f>
+        <v>splicing</v>
+      </c>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v>with</v>
+      </c>
+      <c r="M27" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/",Table51315[[#This Row],[dir]], " -o ", graph, "/")</f>
+        <v>python 2_graph_processing/plot_graph.py -i libraries_4/WT_sgCD_R1_splicing -o plots/graphs/</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" t="str">
+        <f ca="1">'2_combined'!J29</f>
+        <v>WT_sgCD_R2_antisense</v>
+      </c>
+      <c r="C28" t="str">
+        <f ca="1">'2_combined'!C29</f>
+        <v>none</v>
+      </c>
+      <c r="D28" t="str">
+        <f ca="1">'2_combined'!B29</f>
+        <v>2DSBanti_R2_antisense.fa</v>
+      </c>
+      <c r="E28">
+        <f ca="1">'2_combined'!E29</f>
+        <v>47</v>
+      </c>
+      <c r="F28" t="str">
+        <f ca="1">'2_combined'!D29</f>
+        <v>2DSBanti</v>
+      </c>
+      <c r="G28" t="str" cm="1">
+        <f t="array" aca="1" ref="G28" ca="1">IF(Table51315[[#This Row],[dsb_type]]="2DSB", "2", IF(Table51315[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table51315[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>2a</v>
+      </c>
+      <c r="H28" t="str">
+        <f ca="1">'2_combined'!G29</f>
+        <v>R2</v>
+      </c>
+      <c r="I28" t="str">
+        <f ca="1">MID('2_combined'!I29, 3, 100)</f>
+        <v>CD</v>
+      </c>
+      <c r="J28" t="str">
+        <f ca="1">'2_combined'!F29</f>
+        <v>WT</v>
+      </c>
+      <c r="K28" t="str">
+        <f ca="1">'2_combined'!H29</f>
+        <v>antisense</v>
+      </c>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v>with</v>
+      </c>
+      <c r="M28" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/",Table51315[[#This Row],[dir]], " -o ", graph, "/")</f>
+        <v>python 2_graph_processing/plot_graph.py -i libraries_4/WT_sgCD_R2_antisense -o plots/graphs/</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+      <c r="B29" t="str">
+        <f ca="1">'2_combined'!J30</f>
+        <v>WT_sgCD_R2_splicing</v>
+      </c>
+      <c r="C29" t="str">
+        <f ca="1">'2_combined'!C30</f>
+        <v>none</v>
+      </c>
+      <c r="D29" t="str">
+        <f ca="1">'2_combined'!B30</f>
+        <v>2DSBanti_R2_splicing.fa</v>
+      </c>
+      <c r="E29">
+        <f ca="1">'2_combined'!E30</f>
+        <v>47</v>
+      </c>
+      <c r="F29" t="str">
+        <f ca="1">'2_combined'!D30</f>
+        <v>2DSBanti</v>
+      </c>
+      <c r="G29" t="str" cm="1">
+        <f t="array" aca="1" ref="G29" ca="1">IF(Table51315[[#This Row],[dsb_type]]="2DSB", "2", IF(Table51315[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table51315[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>2a</v>
+      </c>
+      <c r="H29" t="str">
+        <f ca="1">'2_combined'!G30</f>
+        <v>R2</v>
+      </c>
+      <c r="I29" t="str">
+        <f ca="1">MID('2_combined'!I30, 3, 100)</f>
+        <v>CD</v>
+      </c>
+      <c r="J29" t="str">
+        <f ca="1">'2_combined'!F30</f>
+        <v>WT</v>
+      </c>
+      <c r="K29" t="str">
+        <f ca="1">'2_combined'!H30</f>
+        <v>splicing</v>
+      </c>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v>with</v>
+      </c>
+      <c r="M29" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/",Table51315[[#This Row],[dir]], " -o ", graph, "/")</f>
+        <v>python 2_graph_processing/plot_graph.py -i libraries_4/WT_sgCD_R2_splicing -o plots/graphs/</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" t="str">
+        <f ca="1">'2_combined'!J31</f>
+        <v>WT_sgA_R1_sense_30bpDown</v>
+      </c>
+      <c r="C30" t="str">
+        <f ca="1">'2_combined'!C31</f>
+        <v>30bpDown</v>
+      </c>
+      <c r="D30" t="str">
+        <f ca="1">'2_combined'!B31</f>
+        <v>1DSB_R1_sense.fa</v>
+      </c>
+      <c r="E30">
+        <f ca="1">'2_combined'!E31</f>
+        <v>97</v>
+      </c>
+      <c r="F30" t="str">
+        <f ca="1">'2_combined'!D31</f>
+        <v>1DSB</v>
+      </c>
+      <c r="G30" t="str" cm="1">
+        <f t="array" aca="1" ref="G30" ca="1">IF(Table51315[[#This Row],[dsb_type]]="2DSB", "2", IF(Table51315[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table51315[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>1</v>
+      </c>
+      <c r="H30" t="str">
+        <f ca="1">'2_combined'!G31</f>
+        <v>R1</v>
+      </c>
+      <c r="I30" t="str">
+        <f ca="1">MID('2_combined'!I31, 3, 100)</f>
+        <v>A</v>
+      </c>
+      <c r="J30" t="str">
+        <f ca="1">'2_combined'!F31</f>
+        <v>WT</v>
+      </c>
+      <c r="K30" t="str">
+        <f ca="1">'2_combined'!H31</f>
+        <v>sense</v>
+      </c>
+      <c r="L30" t="str">
+        <f t="shared" si="0"/>
+        <v>with</v>
+      </c>
+      <c r="M30" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/",Table51315[[#This Row],[dir]], " -o ", graph, "/")</f>
+        <v>python 2_graph_processing/plot_graph.py -i libraries_4/WT_sgA_R1_sense_30bpDown -o plots/graphs/</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>30</v>
+      </c>
+      <c r="B31" t="str">
+        <f ca="1">'2_combined'!J32</f>
+        <v>WT_sgA_R1_branch_30bpDown</v>
+      </c>
+      <c r="C31" t="str">
+        <f ca="1">'2_combined'!C32</f>
+        <v>30bpDown</v>
+      </c>
+      <c r="D31" t="str">
+        <f ca="1">'2_combined'!B32</f>
+        <v>1DSB_R1_branch.fa</v>
+      </c>
+      <c r="E31">
+        <f ca="1">'2_combined'!E32</f>
+        <v>97</v>
+      </c>
+      <c r="F31" t="str">
+        <f ca="1">'2_combined'!D32</f>
+        <v>1DSB</v>
+      </c>
+      <c r="G31" t="str" cm="1">
+        <f t="array" aca="1" ref="G31" ca="1">IF(Table51315[[#This Row],[dsb_type]]="2DSB", "2", IF(Table51315[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table51315[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>1</v>
+      </c>
+      <c r="H31" t="str">
+        <f ca="1">'2_combined'!G32</f>
+        <v>R1</v>
+      </c>
+      <c r="I31" t="str">
+        <f ca="1">MID('2_combined'!I32, 3, 100)</f>
+        <v>A</v>
+      </c>
+      <c r="J31" t="str">
+        <f ca="1">'2_combined'!F32</f>
+        <v>WT</v>
+      </c>
+      <c r="K31" t="str">
+        <f ca="1">'2_combined'!H32</f>
+        <v>branch</v>
+      </c>
+      <c r="L31" t="str">
+        <f t="shared" si="0"/>
+        <v>with</v>
+      </c>
+      <c r="M31" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/",Table51315[[#This Row],[dir]], " -o ", graph, "/")</f>
+        <v>python 2_graph_processing/plot_graph.py -i libraries_4/WT_sgA_R1_branch_30bpDown -o plots/graphs/</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>31</v>
+      </c>
+      <c r="B32" t="str">
+        <f ca="1">'2_combined'!J33</f>
+        <v>WT_sgA_R1_cmv_30bpDown</v>
+      </c>
+      <c r="C32" t="str">
+        <f ca="1">'2_combined'!C33</f>
+        <v>30bpDown</v>
+      </c>
+      <c r="D32" t="str">
+        <f ca="1">'2_combined'!B33</f>
+        <v>1DSB_R1_cmv.fa</v>
+      </c>
+      <c r="E32">
+        <f ca="1">'2_combined'!E33</f>
+        <v>97</v>
+      </c>
+      <c r="F32" t="str">
+        <f ca="1">'2_combined'!D33</f>
+        <v>1DSB</v>
+      </c>
+      <c r="G32" t="str" cm="1">
+        <f t="array" aca="1" ref="G32" ca="1">IF(Table51315[[#This Row],[dsb_type]]="2DSB", "2", IF(Table51315[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table51315[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>1</v>
+      </c>
+      <c r="H32" t="str">
+        <f ca="1">'2_combined'!G33</f>
+        <v>R1</v>
+      </c>
+      <c r="I32" t="str">
+        <f ca="1">MID('2_combined'!I33, 3, 100)</f>
+        <v>A</v>
+      </c>
+      <c r="J32" t="str">
+        <f ca="1">'2_combined'!F33</f>
+        <v>WT</v>
+      </c>
+      <c r="K32" t="str">
+        <f ca="1">'2_combined'!H33</f>
+        <v>cmv</v>
+      </c>
+      <c r="L32" t="str">
+        <f t="shared" si="0"/>
+        <v>with</v>
+      </c>
+      <c r="M32" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/",Table51315[[#This Row],[dir]], " -o ", graph, "/")</f>
+        <v>python 2_graph_processing/plot_graph.py -i libraries_4/WT_sgA_R1_cmv_30bpDown -o plots/graphs/</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>32</v>
+      </c>
+      <c r="B33" t="str">
+        <f ca="1">'2_combined'!J34</f>
+        <v>WT_sgB_R2_sense_30bpDown</v>
+      </c>
+      <c r="C33" t="str">
+        <f ca="1">'2_combined'!C34</f>
+        <v>30bpDown</v>
+      </c>
+      <c r="D33" t="str">
+        <f ca="1">'2_combined'!B34</f>
+        <v>1DSB_R2_sense.fa</v>
+      </c>
+      <c r="E33">
+        <f ca="1">'2_combined'!E34</f>
+        <v>76</v>
+      </c>
+      <c r="F33" t="str">
+        <f ca="1">'2_combined'!D34</f>
+        <v>1DSB</v>
+      </c>
+      <c r="G33" t="str" cm="1">
+        <f t="array" aca="1" ref="G33" ca="1">IF(Table51315[[#This Row],[dsb_type]]="2DSB", "2", IF(Table51315[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table51315[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>1</v>
+      </c>
+      <c r="H33" t="str">
+        <f ca="1">'2_combined'!G34</f>
+        <v>R2</v>
+      </c>
+      <c r="I33" t="str">
+        <f ca="1">MID('2_combined'!I34, 3, 100)</f>
+        <v>B</v>
+      </c>
+      <c r="J33" t="str">
+        <f ca="1">'2_combined'!F34</f>
+        <v>WT</v>
+      </c>
+      <c r="K33" t="str">
+        <f ca="1">'2_combined'!H34</f>
+        <v>sense</v>
+      </c>
+      <c r="L33" t="str">
+        <f t="shared" si="0"/>
+        <v>with</v>
+      </c>
+      <c r="M33" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/",Table51315[[#This Row],[dir]], " -o ", graph, "/")</f>
+        <v>python 2_graph_processing/plot_graph.py -i libraries_4/WT_sgB_R2_sense_30bpDown -o plots/graphs/</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>33</v>
+      </c>
+      <c r="B34" t="str">
+        <f ca="1">'2_combined'!J35</f>
+        <v>WT_sgB_R2_branch_30bpDown</v>
+      </c>
+      <c r="C34" t="str">
+        <f ca="1">'2_combined'!C35</f>
+        <v>30bpDown</v>
+      </c>
+      <c r="D34" t="str">
+        <f ca="1">'2_combined'!B35</f>
+        <v>1DSB_R2_branch.fa</v>
+      </c>
+      <c r="E34">
+        <f ca="1">'2_combined'!E35</f>
+        <v>76</v>
+      </c>
+      <c r="F34" t="str">
+        <f ca="1">'2_combined'!D35</f>
+        <v>1DSB</v>
+      </c>
+      <c r="G34" t="str" cm="1">
+        <f t="array" aca="1" ref="G34" ca="1">IF(Table51315[[#This Row],[dsb_type]]="2DSB", "2", IF(Table51315[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table51315[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>1</v>
+      </c>
+      <c r="H34" t="str">
+        <f ca="1">'2_combined'!G35</f>
+        <v>R2</v>
+      </c>
+      <c r="I34" t="str">
+        <f ca="1">MID('2_combined'!I35, 3, 100)</f>
+        <v>B</v>
+      </c>
+      <c r="J34" t="str">
+        <f ca="1">'2_combined'!F35</f>
+        <v>WT</v>
+      </c>
+      <c r="K34" t="str">
+        <f ca="1">'2_combined'!H35</f>
+        <v>branch</v>
+      </c>
+      <c r="L34" t="str">
+        <f t="shared" si="0"/>
+        <v>with</v>
+      </c>
+      <c r="M34" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/",Table51315[[#This Row],[dir]], " -o ", graph, "/")</f>
+        <v>python 2_graph_processing/plot_graph.py -i libraries_4/WT_sgB_R2_branch_30bpDown -o plots/graphs/</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>34</v>
+      </c>
+      <c r="B35" t="str">
+        <f ca="1">'2_combined'!J36</f>
+        <v>WT_sgB_R2_cmv_30bpDown</v>
+      </c>
+      <c r="C35" t="str">
+        <f ca="1">'2_combined'!C36</f>
+        <v>30bpDown</v>
+      </c>
+      <c r="D35" t="str">
+        <f ca="1">'2_combined'!B36</f>
+        <v>1DSB_R2_cmv.fa</v>
+      </c>
+      <c r="E35">
+        <f ca="1">'2_combined'!E36</f>
+        <v>76</v>
+      </c>
+      <c r="F35" t="str">
+        <f ca="1">'2_combined'!D36</f>
+        <v>1DSB</v>
+      </c>
+      <c r="G35" t="str" cm="1">
+        <f t="array" aca="1" ref="G35" ca="1">IF(Table51315[[#This Row],[dsb_type]]="2DSB", "2", IF(Table51315[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table51315[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>1</v>
+      </c>
+      <c r="H35" t="str">
+        <f ca="1">'2_combined'!G36</f>
+        <v>R2</v>
+      </c>
+      <c r="I35" t="str">
+        <f ca="1">MID('2_combined'!I36, 3, 100)</f>
+        <v>B</v>
+      </c>
+      <c r="J35" t="str">
+        <f ca="1">'2_combined'!F36</f>
+        <v>WT</v>
+      </c>
+      <c r="K35" t="str">
+        <f ca="1">'2_combined'!H36</f>
+        <v>cmv</v>
+      </c>
+      <c r="L35" t="str">
+        <f t="shared" si="0"/>
+        <v>with</v>
+      </c>
+      <c r="M35" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/",Table51315[[#This Row],[dir]], " -o ", graph, "/")</f>
+        <v>python 2_graph_processing/plot_graph.py -i libraries_4/WT_sgB_R2_cmv_30bpDown -o plots/graphs/</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>35</v>
+      </c>
+      <c r="B36" t="str">
+        <f ca="1">'2_combined'!J37</f>
+        <v>KO_sgA_R1_sense_30bpDown</v>
+      </c>
+      <c r="C36" t="str">
+        <f ca="1">'2_combined'!C37</f>
+        <v>30bpDown</v>
+      </c>
+      <c r="D36" t="str">
+        <f ca="1">'2_combined'!B37</f>
+        <v>1DSB_R1_sense.fa</v>
+      </c>
+      <c r="E36">
+        <f ca="1">'2_combined'!E37</f>
+        <v>97</v>
+      </c>
+      <c r="F36" t="str">
+        <f ca="1">'2_combined'!D37</f>
+        <v>1DSB</v>
+      </c>
+      <c r="G36" t="str" cm="1">
+        <f t="array" aca="1" ref="G36" ca="1">IF(Table51315[[#This Row],[dsb_type]]="2DSB", "2", IF(Table51315[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table51315[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>1</v>
+      </c>
+      <c r="H36" t="str">
+        <f ca="1">'2_combined'!G37</f>
+        <v>R1</v>
+      </c>
+      <c r="I36" t="str">
+        <f ca="1">MID('2_combined'!I37, 3, 100)</f>
+        <v>A</v>
+      </c>
+      <c r="J36" t="str">
+        <f ca="1">'2_combined'!F37</f>
+        <v>KO</v>
+      </c>
+      <c r="K36" t="str">
+        <f ca="1">'2_combined'!H37</f>
+        <v>sense</v>
+      </c>
+      <c r="L36" t="str">
+        <f t="shared" si="0"/>
+        <v>with</v>
+      </c>
+      <c r="M36" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/",Table51315[[#This Row],[dir]], " -o ", graph, "/")</f>
+        <v>python 2_graph_processing/plot_graph.py -i libraries_4/KO_sgA_R1_sense_30bpDown -o plots/graphs/</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>36</v>
+      </c>
+      <c r="B37" t="str">
+        <f ca="1">'2_combined'!J38</f>
+        <v>KO_sgA_R1_branch_30bpDown</v>
+      </c>
+      <c r="C37" t="str">
+        <f ca="1">'2_combined'!C38</f>
+        <v>30bpDown</v>
+      </c>
+      <c r="D37" t="str">
+        <f ca="1">'2_combined'!B38</f>
+        <v>1DSB_R1_branch.fa</v>
+      </c>
+      <c r="E37">
+        <f ca="1">'2_combined'!E38</f>
+        <v>97</v>
+      </c>
+      <c r="F37" t="str">
+        <f ca="1">'2_combined'!D38</f>
+        <v>1DSB</v>
+      </c>
+      <c r="G37" t="str" cm="1">
+        <f t="array" aca="1" ref="G37" ca="1">IF(Table51315[[#This Row],[dsb_type]]="2DSB", "2", IF(Table51315[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table51315[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>1</v>
+      </c>
+      <c r="H37" t="str">
+        <f ca="1">'2_combined'!G38</f>
+        <v>R1</v>
+      </c>
+      <c r="I37" t="str">
+        <f ca="1">MID('2_combined'!I38, 3, 100)</f>
+        <v>A</v>
+      </c>
+      <c r="J37" t="str">
+        <f ca="1">'2_combined'!F38</f>
+        <v>KO</v>
+      </c>
+      <c r="K37" t="str">
+        <f ca="1">'2_combined'!H38</f>
+        <v>branch</v>
+      </c>
+      <c r="L37" t="str">
+        <f t="shared" si="0"/>
+        <v>with</v>
+      </c>
+      <c r="M37" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/",Table51315[[#This Row],[dir]], " -o ", graph, "/")</f>
+        <v>python 2_graph_processing/plot_graph.py -i libraries_4/KO_sgA_R1_branch_30bpDown -o plots/graphs/</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>37</v>
+      </c>
+      <c r="B38" t="str">
+        <f ca="1">'2_combined'!J39</f>
+        <v>KO_sgA_R1_cmv_30bpDown</v>
+      </c>
+      <c r="C38" t="str">
+        <f ca="1">'2_combined'!C39</f>
+        <v>30bpDown</v>
+      </c>
+      <c r="D38" t="str">
+        <f ca="1">'2_combined'!B39</f>
+        <v>1DSB_R1_cmv.fa</v>
+      </c>
+      <c r="E38">
+        <f ca="1">'2_combined'!E39</f>
+        <v>97</v>
+      </c>
+      <c r="F38" t="str">
+        <f ca="1">'2_combined'!D39</f>
+        <v>1DSB</v>
+      </c>
+      <c r="G38" t="str" cm="1">
+        <f t="array" aca="1" ref="G38" ca="1">IF(Table51315[[#This Row],[dsb_type]]="2DSB", "2", IF(Table51315[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table51315[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>1</v>
+      </c>
+      <c r="H38" t="str">
+        <f ca="1">'2_combined'!G39</f>
+        <v>R1</v>
+      </c>
+      <c r="I38" t="str">
+        <f ca="1">MID('2_combined'!I39, 3, 100)</f>
+        <v>A</v>
+      </c>
+      <c r="J38" t="str">
+        <f ca="1">'2_combined'!F39</f>
+        <v>KO</v>
+      </c>
+      <c r="K38" t="str">
+        <f ca="1">'2_combined'!H39</f>
+        <v>cmv</v>
+      </c>
+      <c r="L38" t="str">
+        <f t="shared" si="0"/>
+        <v>with</v>
+      </c>
+      <c r="M38" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/",Table51315[[#This Row],[dir]], " -o ", graph, "/")</f>
+        <v>python 2_graph_processing/plot_graph.py -i libraries_4/KO_sgA_R1_cmv_30bpDown -o plots/graphs/</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>38</v>
+      </c>
+      <c r="B39" t="str">
+        <f ca="1">'2_combined'!J40</f>
+        <v>KO_sgB_R2_sense_30bpDown</v>
+      </c>
+      <c r="C39" t="str">
+        <f ca="1">'2_combined'!C40</f>
+        <v>30bpDown</v>
+      </c>
+      <c r="D39" t="str">
+        <f ca="1">'2_combined'!B40</f>
+        <v>1DSB_R2_sense.fa</v>
+      </c>
+      <c r="E39">
+        <f ca="1">'2_combined'!E40</f>
+        <v>76</v>
+      </c>
+      <c r="F39" t="str">
+        <f ca="1">'2_combined'!D40</f>
+        <v>1DSB</v>
+      </c>
+      <c r="G39" t="str" cm="1">
+        <f t="array" aca="1" ref="G39" ca="1">IF(Table51315[[#This Row],[dsb_type]]="2DSB", "2", IF(Table51315[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table51315[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>1</v>
+      </c>
+      <c r="H39" t="str">
+        <f ca="1">'2_combined'!G40</f>
+        <v>R2</v>
+      </c>
+      <c r="I39" t="str">
+        <f ca="1">MID('2_combined'!I40, 3, 100)</f>
+        <v>B</v>
+      </c>
+      <c r="J39" t="str">
+        <f ca="1">'2_combined'!F40</f>
+        <v>KO</v>
+      </c>
+      <c r="K39" t="str">
+        <f ca="1">'2_combined'!H40</f>
+        <v>sense</v>
+      </c>
+      <c r="L39" t="str">
+        <f t="shared" si="0"/>
+        <v>with</v>
+      </c>
+      <c r="M39" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/",Table51315[[#This Row],[dir]], " -o ", graph, "/")</f>
+        <v>python 2_graph_processing/plot_graph.py -i libraries_4/KO_sgB_R2_sense_30bpDown -o plots/graphs/</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>39</v>
+      </c>
+      <c r="B40" t="str">
+        <f ca="1">'2_combined'!J41</f>
+        <v>KO_sgB_R2_branch_30bpDown</v>
+      </c>
+      <c r="C40" t="str">
+        <f ca="1">'2_combined'!C41</f>
+        <v>30bpDown</v>
+      </c>
+      <c r="D40" t="str">
+        <f ca="1">'2_combined'!B41</f>
+        <v>1DSB_R2_branch.fa</v>
+      </c>
+      <c r="E40">
+        <f ca="1">'2_combined'!E41</f>
+        <v>76</v>
+      </c>
+      <c r="F40" t="str">
+        <f ca="1">'2_combined'!D41</f>
+        <v>1DSB</v>
+      </c>
+      <c r="G40" t="str" cm="1">
+        <f t="array" aca="1" ref="G40" ca="1">IF(Table51315[[#This Row],[dsb_type]]="2DSB", "2", IF(Table51315[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table51315[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>1</v>
+      </c>
+      <c r="H40" t="str">
+        <f ca="1">'2_combined'!G41</f>
+        <v>R2</v>
+      </c>
+      <c r="I40" t="str">
+        <f ca="1">MID('2_combined'!I41, 3, 100)</f>
+        <v>B</v>
+      </c>
+      <c r="J40" t="str">
+        <f ca="1">'2_combined'!F41</f>
+        <v>KO</v>
+      </c>
+      <c r="K40" t="str">
+        <f ca="1">'2_combined'!H41</f>
+        <v>branch</v>
+      </c>
+      <c r="L40" t="str">
+        <f t="shared" si="0"/>
+        <v>with</v>
+      </c>
+      <c r="M40" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/",Table51315[[#This Row],[dir]], " -o ", graph, "/")</f>
+        <v>python 2_graph_processing/plot_graph.py -i libraries_4/KO_sgB_R2_branch_30bpDown -o plots/graphs/</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>40</v>
+      </c>
+      <c r="B41" t="str">
+        <f ca="1">'2_combined'!J42</f>
+        <v>KO_sgB_R2_cmv_30bpDown</v>
+      </c>
+      <c r="C41" t="str">
+        <f ca="1">'2_combined'!C42</f>
+        <v>30bpDown</v>
+      </c>
+      <c r="D41" t="str">
+        <f ca="1">'2_combined'!B42</f>
+        <v>1DSB_R2_cmv.fa</v>
+      </c>
+      <c r="E41">
+        <f ca="1">'2_combined'!E42</f>
+        <v>76</v>
+      </c>
+      <c r="F41" t="str">
+        <f ca="1">'2_combined'!D42</f>
+        <v>1DSB</v>
+      </c>
+      <c r="G41" t="str" cm="1">
+        <f t="array" aca="1" ref="G41" ca="1">IF(Table51315[[#This Row],[dsb_type]]="2DSB", "2", IF(Table51315[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table51315[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>1</v>
+      </c>
+      <c r="H41" t="str">
+        <f ca="1">'2_combined'!G42</f>
+        <v>R2</v>
+      </c>
+      <c r="I41" t="str">
+        <f ca="1">MID('2_combined'!I42, 3, 100)</f>
+        <v>B</v>
+      </c>
+      <c r="J41" t="str">
+        <f ca="1">'2_combined'!F42</f>
+        <v>KO</v>
+      </c>
+      <c r="K41" t="str">
+        <f ca="1">'2_combined'!H42</f>
+        <v>cmv</v>
+      </c>
+      <c r="L41" t="str">
+        <f t="shared" si="0"/>
+        <v>with</v>
+      </c>
+      <c r="M41" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/",Table51315[[#This Row],[dir]], " -o ", graph, "/")</f>
+        <v>python 2_graph_processing/plot_graph.py -i libraries_4/KO_sgB_R2_cmv_30bpDown -o plots/graphs/</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>116</v>
+      </c>
+      <c r="B43" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43" t="s">
+        <v>139</v>
+      </c>
+      <c r="D43" t="s">
+        <v>89</v>
+      </c>
+      <c r="E43" t="s">
+        <v>104</v>
+      </c>
+      <c r="F43" t="s">
+        <v>105</v>
+      </c>
+      <c r="G43" t="s">
+        <v>148</v>
+      </c>
+      <c r="H43" t="s">
+        <v>84</v>
+      </c>
+      <c r="I43" t="s">
+        <v>106</v>
+      </c>
+      <c r="J43" t="s">
+        <v>107</v>
+      </c>
+      <c r="K43" t="s">
+        <v>83</v>
+      </c>
+      <c r="L43" t="s">
+        <v>109</v>
+      </c>
+      <c r="M43" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44" t="str">
+        <f>'2_combined'!J45</f>
+        <v>WT_sgA_R1_sense_nodsb</v>
+      </c>
+      <c r="C44" t="str">
+        <f>SUBSTITUTE('2_combined'!C45, "dsb", "DSB")</f>
+        <v>noDSB</v>
+      </c>
+      <c r="D44" t="str">
+        <f>'2_combined'!B45</f>
+        <v>1DSB_R1_sense.fa</v>
+      </c>
+      <c r="E44">
+        <f>'2_combined'!E45</f>
+        <v>67</v>
+      </c>
+      <c r="F44" t="str">
+        <f>'2_combined'!D45</f>
+        <v>1DSB</v>
+      </c>
+      <c r="G44" t="str" cm="1">
+        <f t="array" ref="G44">IF(Table101416[[#This Row],[dsb_type]]="2DSB", "2", IF(Table101416[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table101416[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>1</v>
+      </c>
+      <c r="H44" t="str">
+        <f>'2_combined'!G45</f>
+        <v>R1</v>
+      </c>
+      <c r="I44" t="str">
+        <f>MID('2_combined'!I45, 3, 100)</f>
+        <v>A</v>
+      </c>
+      <c r="J44" t="str">
+        <f>'2_combined'!F45</f>
+        <v>WT</v>
+      </c>
+      <c r="K44" t="str">
+        <f>'2_combined'!H45</f>
+        <v>sense</v>
+      </c>
+      <c r="L44" t="str">
+        <f t="shared" ref="L44:L55" si="1">"with"</f>
+        <v>with</v>
+      </c>
+      <c r="M44" t="str">
+        <f>_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/",Table101416[[#This Row],[dir]], " -o ", graph, "/")</f>
+        <v>python 2_graph_processing/plot_graph.py -i libraries_4/WT_sgA_R1_sense_nodsb -o plots/graphs/</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>2</v>
+      </c>
+      <c r="B45" t="str">
+        <f>'2_combined'!J46</f>
+        <v>WT_sgA_R1_branch_nodsb</v>
+      </c>
+      <c r="C45" t="str">
+        <f>SUBSTITUTE('2_combined'!C46, "dsb", "DSB")</f>
+        <v>noDSB</v>
+      </c>
+      <c r="D45" t="str">
+        <f>'2_combined'!B46</f>
+        <v>1DSB_R1_branch.fa</v>
+      </c>
+      <c r="E45">
+        <f>'2_combined'!E46</f>
+        <v>67</v>
+      </c>
+      <c r="F45" t="str">
+        <f>'2_combined'!D46</f>
+        <v>1DSB</v>
+      </c>
+      <c r="G45" t="str" cm="1">
+        <f t="array" ref="G45">IF(Table101416[[#This Row],[dsb_type]]="2DSB", "2", IF(Table101416[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table101416[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>1</v>
+      </c>
+      <c r="H45" t="str">
+        <f>'2_combined'!G46</f>
+        <v>R1</v>
+      </c>
+      <c r="I45" t="str">
+        <f>MID('2_combined'!I46, 3, 100)</f>
+        <v>A</v>
+      </c>
+      <c r="J45" t="str">
+        <f>'2_combined'!F46</f>
+        <v>WT</v>
+      </c>
+      <c r="K45" t="str">
+        <f>'2_combined'!H46</f>
+        <v>branch</v>
+      </c>
+      <c r="L45" t="str">
+        <f t="shared" si="1"/>
+        <v>with</v>
+      </c>
+      <c r="M45" t="str">
+        <f>_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/",Table101416[[#This Row],[dir]], " -o ", graph, "/")</f>
+        <v>python 2_graph_processing/plot_graph.py -i libraries_4/WT_sgA_R1_branch_nodsb -o plots/graphs/</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>3</v>
+      </c>
+      <c r="B46" t="str">
+        <f>'2_combined'!J47</f>
+        <v>WT_sgA_R1_cmv_nodsb</v>
+      </c>
+      <c r="C46" t="str">
+        <f>SUBSTITUTE('2_combined'!C47, "dsb", "DSB")</f>
+        <v>noDSB</v>
+      </c>
+      <c r="D46" t="str">
+        <f>'2_combined'!B47</f>
+        <v>1DSB_R1_cmv.fa</v>
+      </c>
+      <c r="E46">
+        <f>'2_combined'!E47</f>
+        <v>67</v>
+      </c>
+      <c r="F46" t="str">
+        <f>'2_combined'!D47</f>
+        <v>1DSB</v>
+      </c>
+      <c r="G46" t="str" cm="1">
+        <f t="array" ref="G46">IF(Table101416[[#This Row],[dsb_type]]="2DSB", "2", IF(Table101416[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table101416[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>1</v>
+      </c>
+      <c r="H46" t="str">
+        <f>'2_combined'!G47</f>
+        <v>R1</v>
+      </c>
+      <c r="I46" t="str">
+        <f>MID('2_combined'!I47, 3, 100)</f>
+        <v>A</v>
+      </c>
+      <c r="J46" t="str">
+        <f>'2_combined'!F47</f>
+        <v>WT</v>
+      </c>
+      <c r="K46" t="str">
+        <f>'2_combined'!H47</f>
+        <v>cmv</v>
+      </c>
+      <c r="L46" t="str">
+        <f t="shared" si="1"/>
+        <v>with</v>
+      </c>
+      <c r="M46" t="str">
+        <f>_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/",Table101416[[#This Row],[dir]], " -o ", graph, "/")</f>
+        <v>python 2_graph_processing/plot_graph.py -i libraries_4/WT_sgA_R1_cmv_nodsb -o plots/graphs/</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>4</v>
+      </c>
+      <c r="B47" t="str">
+        <f>'2_combined'!J48</f>
+        <v>KO_sgA_R1_sense_nodsb</v>
+      </c>
+      <c r="C47" t="str">
+        <f>SUBSTITUTE('2_combined'!C48, "dsb", "DSB")</f>
+        <v>noDSB</v>
+      </c>
+      <c r="D47" t="str">
+        <f>'2_combined'!B48</f>
+        <v>1DSB_R1_sense.fa</v>
+      </c>
+      <c r="E47">
+        <f>'2_combined'!E48</f>
+        <v>67</v>
+      </c>
+      <c r="F47" t="str">
+        <f>'2_combined'!D48</f>
+        <v>1DSB</v>
+      </c>
+      <c r="G47" t="str" cm="1">
+        <f t="array" ref="G47">IF(Table101416[[#This Row],[dsb_type]]="2DSB", "2", IF(Table101416[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table101416[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>1</v>
+      </c>
+      <c r="H47" t="str">
+        <f>'2_combined'!G48</f>
+        <v>R1</v>
+      </c>
+      <c r="I47" t="str">
+        <f>MID('2_combined'!I48, 3, 100)</f>
+        <v>A</v>
+      </c>
+      <c r="J47" t="str">
+        <f>'2_combined'!F48</f>
+        <v>KO</v>
+      </c>
+      <c r="K47" t="str">
+        <f>'2_combined'!H48</f>
+        <v>sense</v>
+      </c>
+      <c r="L47" t="str">
+        <f t="shared" si="1"/>
+        <v>with</v>
+      </c>
+      <c r="M47" t="str">
+        <f>_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/",Table101416[[#This Row],[dir]], " -o ", graph, "/")</f>
+        <v>python 2_graph_processing/plot_graph.py -i libraries_4/KO_sgA_R1_sense_nodsb -o plots/graphs/</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>5</v>
+      </c>
+      <c r="B48" t="str">
+        <f>'2_combined'!J49</f>
+        <v>KO_sgA_R1_branch_nodsb</v>
+      </c>
+      <c r="C48" t="str">
+        <f>SUBSTITUTE('2_combined'!C49, "dsb", "DSB")</f>
+        <v>noDSB</v>
+      </c>
+      <c r="D48" t="str">
+        <f>'2_combined'!B49</f>
+        <v>1DSB_R1_branch.fa</v>
+      </c>
+      <c r="E48">
+        <f>'2_combined'!E49</f>
+        <v>67</v>
+      </c>
+      <c r="F48" t="str">
+        <f>'2_combined'!D49</f>
+        <v>1DSB</v>
+      </c>
+      <c r="G48" t="str" cm="1">
+        <f t="array" ref="G48">IF(Table101416[[#This Row],[dsb_type]]="2DSB", "2", IF(Table101416[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table101416[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>1</v>
+      </c>
+      <c r="H48" t="str">
+        <f>'2_combined'!G49</f>
+        <v>R1</v>
+      </c>
+      <c r="I48" t="str">
+        <f>MID('2_combined'!I49, 3, 100)</f>
+        <v>A</v>
+      </c>
+      <c r="J48" t="str">
+        <f>'2_combined'!F49</f>
+        <v>KO</v>
+      </c>
+      <c r="K48" t="str">
+        <f>'2_combined'!H49</f>
+        <v>branch</v>
+      </c>
+      <c r="L48" t="str">
+        <f t="shared" si="1"/>
+        <v>with</v>
+      </c>
+      <c r="M48" t="str">
+        <f>_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/",Table101416[[#This Row],[dir]], " -o ", graph, "/")</f>
+        <v>python 2_graph_processing/plot_graph.py -i libraries_4/KO_sgA_R1_branch_nodsb -o plots/graphs/</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>6</v>
+      </c>
+      <c r="B49" t="str">
+        <f>'2_combined'!J50</f>
+        <v>KO_sgA_R1_cmv_nodsb</v>
+      </c>
+      <c r="C49" t="str">
+        <f>SUBSTITUTE('2_combined'!C50, "dsb", "DSB")</f>
+        <v>noDSB</v>
+      </c>
+      <c r="D49" t="str">
+        <f>'2_combined'!B50</f>
+        <v>1DSB_R1_cmv.fa</v>
+      </c>
+      <c r="E49">
+        <f>'2_combined'!E50</f>
+        <v>67</v>
+      </c>
+      <c r="F49" t="str">
+        <f>'2_combined'!D50</f>
+        <v>1DSB</v>
+      </c>
+      <c r="G49" t="str" cm="1">
+        <f t="array" ref="G49">IF(Table101416[[#This Row],[dsb_type]]="2DSB", "2", IF(Table101416[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table101416[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>1</v>
+      </c>
+      <c r="H49" t="str">
+        <f>'2_combined'!G50</f>
+        <v>R1</v>
+      </c>
+      <c r="I49" t="str">
+        <f>MID('2_combined'!I50, 3, 100)</f>
+        <v>A</v>
+      </c>
+      <c r="J49" t="str">
+        <f>'2_combined'!F50</f>
+        <v>KO</v>
+      </c>
+      <c r="K49" t="str">
+        <f>'2_combined'!H50</f>
+        <v>cmv</v>
+      </c>
+      <c r="L49" t="str">
+        <f t="shared" si="1"/>
+        <v>with</v>
+      </c>
+      <c r="M49" t="str">
+        <f>_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/",Table101416[[#This Row],[dir]], " -o ", graph, "/")</f>
+        <v>python 2_graph_processing/plot_graph.py -i libraries_4/KO_sgA_R1_cmv_nodsb -o plots/graphs/</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>7</v>
+      </c>
+      <c r="B50" t="str">
+        <f>'2_combined'!J51</f>
+        <v>WT_sgB_R2_sense_nodsb</v>
+      </c>
+      <c r="C50" t="str">
+        <f>SUBSTITUTE('2_combined'!C51, "dsb", "DSB")</f>
+        <v>noDSB</v>
+      </c>
+      <c r="D50" t="str">
+        <f>'2_combined'!B51</f>
+        <v>1DSB_R2_sense.fa</v>
+      </c>
+      <c r="E50">
+        <f>'2_combined'!E51</f>
+        <v>46</v>
+      </c>
+      <c r="F50" t="str">
+        <f>'2_combined'!D51</f>
+        <v>1DSB</v>
+      </c>
+      <c r="G50" t="str" cm="1">
+        <f t="array" ref="G50">IF(Table101416[[#This Row],[dsb_type]]="2DSB", "2", IF(Table101416[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table101416[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>1</v>
+      </c>
+      <c r="H50" t="str">
+        <f>'2_combined'!G51</f>
+        <v>R2</v>
+      </c>
+      <c r="I50" t="str">
+        <f>MID('2_combined'!I51, 3, 100)</f>
+        <v>B</v>
+      </c>
+      <c r="J50" t="str">
+        <f>'2_combined'!F51</f>
+        <v>WT</v>
+      </c>
+      <c r="K50" t="str">
+        <f>'2_combined'!H51</f>
+        <v>sense</v>
+      </c>
+      <c r="L50" t="str">
+        <f t="shared" si="1"/>
+        <v>with</v>
+      </c>
+      <c r="M50" t="str">
+        <f>_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/",Table101416[[#This Row],[dir]], " -o ", graph, "/")</f>
+        <v>python 2_graph_processing/plot_graph.py -i libraries_4/WT_sgB_R2_sense_nodsb -o plots/graphs/</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>8</v>
+      </c>
+      <c r="B51" t="str">
+        <f>'2_combined'!J52</f>
+        <v>WT_sgB_R2_branch_nodsb</v>
+      </c>
+      <c r="C51" t="str">
+        <f>SUBSTITUTE('2_combined'!C52, "dsb", "DSB")</f>
+        <v>noDSB</v>
+      </c>
+      <c r="D51" t="str">
+        <f>'2_combined'!B52</f>
+        <v>1DSB_R2_branch.fa</v>
+      </c>
+      <c r="E51">
+        <f>'2_combined'!E52</f>
+        <v>46</v>
+      </c>
+      <c r="F51" t="str">
+        <f>'2_combined'!D52</f>
+        <v>1DSB</v>
+      </c>
+      <c r="G51" t="str" cm="1">
+        <f t="array" ref="G51">IF(Table101416[[#This Row],[dsb_type]]="2DSB", "2", IF(Table101416[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table101416[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>1</v>
+      </c>
+      <c r="H51" t="str">
+        <f>'2_combined'!G52</f>
+        <v>R2</v>
+      </c>
+      <c r="I51" t="str">
+        <f>MID('2_combined'!I52, 3, 100)</f>
+        <v>B</v>
+      </c>
+      <c r="J51" t="str">
+        <f>'2_combined'!F52</f>
+        <v>WT</v>
+      </c>
+      <c r="K51" t="str">
+        <f>'2_combined'!H52</f>
+        <v>branch</v>
+      </c>
+      <c r="L51" t="str">
+        <f t="shared" si="1"/>
+        <v>with</v>
+      </c>
+      <c r="M51" t="str">
+        <f>_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/",Table101416[[#This Row],[dir]], " -o ", graph, "/")</f>
+        <v>python 2_graph_processing/plot_graph.py -i libraries_4/WT_sgB_R2_branch_nodsb -o plots/graphs/</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>9</v>
+      </c>
+      <c r="B52" t="str">
+        <f>'2_combined'!J53</f>
+        <v>WT_sgB_R2_cmv_nodsb</v>
+      </c>
+      <c r="C52" t="str">
+        <f>SUBSTITUTE('2_combined'!C53, "dsb", "DSB")</f>
+        <v>noDSB</v>
+      </c>
+      <c r="D52" t="str">
+        <f>'2_combined'!B53</f>
+        <v>1DSB_R2_cmv.fa</v>
+      </c>
+      <c r="E52">
+        <f>'2_combined'!E53</f>
+        <v>46</v>
+      </c>
+      <c r="F52" t="str">
+        <f>'2_combined'!D53</f>
+        <v>1DSB</v>
+      </c>
+      <c r="G52" t="str" cm="1">
+        <f t="array" ref="G52">IF(Table101416[[#This Row],[dsb_type]]="2DSB", "2", IF(Table101416[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table101416[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>1</v>
+      </c>
+      <c r="H52" t="str">
+        <f>'2_combined'!G53</f>
+        <v>R2</v>
+      </c>
+      <c r="I52" t="str">
+        <f>MID('2_combined'!I53, 3, 100)</f>
+        <v>B</v>
+      </c>
+      <c r="J52" t="str">
+        <f>'2_combined'!F53</f>
+        <v>WT</v>
+      </c>
+      <c r="K52" t="str">
+        <f>'2_combined'!H53</f>
+        <v>cmv</v>
+      </c>
+      <c r="L52" t="str">
+        <f t="shared" si="1"/>
+        <v>with</v>
+      </c>
+      <c r="M52" t="str">
+        <f>_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/",Table101416[[#This Row],[dir]], " -o ", graph, "/")</f>
+        <v>python 2_graph_processing/plot_graph.py -i libraries_4/WT_sgB_R2_cmv_nodsb -o plots/graphs/</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>10</v>
+      </c>
+      <c r="B53" t="str">
+        <f>'2_combined'!J54</f>
+        <v>KO_sgB_R2_sense_nodsb</v>
+      </c>
+      <c r="C53" t="str">
+        <f>SUBSTITUTE('2_combined'!C54, "dsb", "DSB")</f>
+        <v>noDSB</v>
+      </c>
+      <c r="D53" t="str">
+        <f>'2_combined'!B54</f>
+        <v>1DSB_R2_sense.fa</v>
+      </c>
+      <c r="E53">
+        <f>'2_combined'!E54</f>
+        <v>46</v>
+      </c>
+      <c r="F53" t="str">
+        <f>'2_combined'!D54</f>
+        <v>1DSB</v>
+      </c>
+      <c r="G53" t="str" cm="1">
+        <f t="array" ref="G53">IF(Table101416[[#This Row],[dsb_type]]="2DSB", "2", IF(Table101416[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table101416[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>1</v>
+      </c>
+      <c r="H53" t="str">
+        <f>'2_combined'!G54</f>
+        <v>R2</v>
+      </c>
+      <c r="I53" t="str">
+        <f>MID('2_combined'!I54, 3, 100)</f>
+        <v>B</v>
+      </c>
+      <c r="J53" t="str">
+        <f>'2_combined'!F54</f>
+        <v>KO</v>
+      </c>
+      <c r="K53" t="str">
+        <f>'2_combined'!H54</f>
+        <v>sense</v>
+      </c>
+      <c r="L53" t="str">
+        <f t="shared" si="1"/>
+        <v>with</v>
+      </c>
+      <c r="M53" t="str">
+        <f>_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/",Table101416[[#This Row],[dir]], " -o ", graph, "/")</f>
+        <v>python 2_graph_processing/plot_graph.py -i libraries_4/KO_sgB_R2_sense_nodsb -o plots/graphs/</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>11</v>
+      </c>
+      <c r="B54" t="str">
+        <f>'2_combined'!J55</f>
+        <v>KO_sgB_R2_branch_nodsb</v>
+      </c>
+      <c r="C54" t="str">
+        <f>SUBSTITUTE('2_combined'!C55, "dsb", "DSB")</f>
+        <v>noDSB</v>
+      </c>
+      <c r="D54" t="str">
+        <f>'2_combined'!B55</f>
+        <v>1DSB_R2_branch.fa</v>
+      </c>
+      <c r="E54">
+        <f>'2_combined'!E55</f>
+        <v>46</v>
+      </c>
+      <c r="F54" t="str">
+        <f>'2_combined'!D55</f>
+        <v>1DSB</v>
+      </c>
+      <c r="G54" t="str" cm="1">
+        <f t="array" ref="G54">IF(Table101416[[#This Row],[dsb_type]]="2DSB", "2", IF(Table101416[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table101416[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>1</v>
+      </c>
+      <c r="H54" t="str">
+        <f>'2_combined'!G55</f>
+        <v>R2</v>
+      </c>
+      <c r="I54" t="str">
+        <f>MID('2_combined'!I55, 3, 100)</f>
+        <v>B</v>
+      </c>
+      <c r="J54" t="str">
+        <f>'2_combined'!F55</f>
+        <v>KO</v>
+      </c>
+      <c r="K54" t="str">
+        <f>'2_combined'!H55</f>
+        <v>branch</v>
+      </c>
+      <c r="L54" t="str">
+        <f t="shared" si="1"/>
+        <v>with</v>
+      </c>
+      <c r="M54" t="str">
+        <f>_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/",Table101416[[#This Row],[dir]], " -o ", graph, "/")</f>
+        <v>python 2_graph_processing/plot_graph.py -i libraries_4/KO_sgB_R2_branch_nodsb -o plots/graphs/</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>12</v>
+      </c>
+      <c r="B55" t="str">
+        <f>'2_combined'!J56</f>
+        <v>KO_sgB_R2_cmv_nodsb</v>
+      </c>
+      <c r="C55" t="str">
+        <f>SUBSTITUTE('2_combined'!C56, "dsb", "DSB")</f>
+        <v>noDSB</v>
+      </c>
+      <c r="D55" t="str">
+        <f>'2_combined'!B56</f>
+        <v>1DSB_R2_cmv.fa</v>
+      </c>
+      <c r="E55">
+        <f>'2_combined'!E56</f>
+        <v>46</v>
+      </c>
+      <c r="F55" t="str">
+        <f>'2_combined'!D56</f>
+        <v>1DSB</v>
+      </c>
+      <c r="G55" t="str" cm="1">
+        <f t="array" ref="G55">IF(Table101416[[#This Row],[dsb_type]]="2DSB", "2", IF(Table101416[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(Table101416[[#This Row],[dsb_type]]="1DSB", "1", NA)))</f>
+        <v>1</v>
+      </c>
+      <c r="H55" t="str">
+        <f>'2_combined'!G56</f>
+        <v>R2</v>
+      </c>
+      <c r="I55" t="str">
+        <f>MID('2_combined'!I56, 3, 100)</f>
+        <v>B</v>
+      </c>
+      <c r="J55" t="str">
+        <f>'2_combined'!F56</f>
+        <v>KO</v>
+      </c>
+      <c r="K55" t="str">
+        <f>'2_combined'!H56</f>
+        <v>cmv</v>
+      </c>
+      <c r="L55" t="str">
+        <f t="shared" si="1"/>
+        <v>with</v>
+      </c>
+      <c r="M55" t="str">
+        <f>_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/",Table101416[[#This Row],[dir]], " -o ", graph, "/")</f>
+        <v>python 2_graph_processing/plot_graph.py -i libraries_4/KO_sgB_R2_cmv_nodsb -o plots/graphs/</v>
       </c>
     </row>
   </sheetData>

--- a/libinfo.xlsx
+++ b/libinfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tchan\Code\SCMB_Project\RNA-mediated_DSB_repair\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0CE06BA-2CFF-4936-B4FA-434BD50C919C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7846DFB1-D5A3-414F-A90D-1DBAC17AB621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" firstSheet="4" activeTab="8" xr2:uid="{2091B41C-DDD2-4E50-B30A-30FF3CA370E5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" firstSheet="4" activeTab="9" xr2:uid="{2091B41C-DDD2-4E50-B30A-30FF3CA370E5}"/>
   </bookViews>
   <sheets>
     <sheet name="globals" sheetId="3" r:id="rId1"/>
@@ -20,25 +20,24 @@
     <sheet name="3_graph" sheetId="4" r:id="rId5"/>
     <sheet name="4_graph_combined" sheetId="5" r:id="rId6"/>
     <sheet name="5_histogram_3d" sheetId="11" r:id="rId7"/>
-    <sheet name="7_common_layout" sheetId="14" r:id="rId8"/>
-    <sheet name="6_plot_graph" sheetId="13" r:id="rId9"/>
-    <sheet name="6_plot_graph_combined" sheetId="15" r:id="rId10"/>
+    <sheet name="6_common_layout" sheetId="14" r:id="rId8"/>
+    <sheet name="7_plot_graph" sheetId="13" r:id="rId9"/>
+    <sheet name="7_plot_graph_combined" sheetId="15" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="dsb">'1_repeats'!$D:$D</definedName>
-    <definedName name="graph">globals!$A$7</definedName>
-    <definedName name="histogram_3d">globals!$A$6</definedName>
+    <definedName name="graphs_combined">globals!$A$7</definedName>
+    <definedName name="graphs_individual">globals!$A$6</definedName>
+    <definedName name="histogram_3d">globals!$A$5</definedName>
     <definedName name="layouts">globals!$A$8</definedName>
     <definedName name="libraries_1">globals!$A$1</definedName>
     <definedName name="libraries_2">globals!$A$2</definedName>
     <definedName name="libraries_3">globals!$A$3</definedName>
     <definedName name="libraries_4">globals!$A$4</definedName>
-    <definedName name="libraries_5">globals!$A$5</definedName>
     <definedName name="subst_type">globals!$B$1</definedName>
     <definedName name="var_2_nodsb_offset">'2_combine'!$A$43</definedName>
-    <definedName name="var_4_anti_offset">'4_graph_combined'!$A$27</definedName>
-    <definedName name="var_7_anti_offset">'7_common_layout'!$A$9</definedName>
-    <definedName name="var_7_anti_ofsfset">'7_common_layout'!$A$9</definedName>
+    <definedName name="var_4_anti_offset">'4_graph_combined'!$A$19</definedName>
+    <definedName name="var_6_anti_offset">'6_common_layout'!$A$9</definedName>
+    <definedName name="var_6_anti_ofsfset">'6_common_layout'!$A$9</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -82,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1533" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="185">
   <si>
     <t>yjl217</t>
   </si>
@@ -399,9 +398,6 @@
     <t>cell</t>
   </si>
   <si>
-    <t>libraries_5</t>
-  </si>
-  <si>
     <t>subst_type</t>
   </si>
   <si>
@@ -582,6 +578,9 @@
     <t>yjl241</t>
   </si>
   <si>
+    <t>dir_12</t>
+  </si>
+  <si>
     <t>treatment_1</t>
   </si>
   <si>
@@ -600,9 +599,6 @@
     <t>command</t>
   </si>
   <si>
-    <t>plots/graphs</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -619,6 +615,27 @@
   </si>
   <si>
     <t>common_layout_dir</t>
+  </si>
+  <si>
+    <t>dir_7</t>
+  </si>
+  <si>
+    <t>dir_8</t>
+  </si>
+  <si>
+    <t>dir_9</t>
+  </si>
+  <si>
+    <t>dir_10</t>
+  </si>
+  <si>
+    <t>dir_11</t>
+  </si>
+  <si>
+    <t>plots/graphs/individual</t>
+  </si>
+  <si>
+    <t>plots/graphs/combined</t>
   </si>
 </sst>
 </file>
@@ -733,7 +750,213 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{FFD19645-61C4-4244-A560-0232B787F38C}"/>
   </cellStyles>
-  <dxfs count="211">
+  <dxfs count="202">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -850,46 +1073,6 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -990,33 +1173,6 @@
       </font>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -1055,137 +1211,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -1644,9 +1669,6 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1681,34 +1703,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -1826,12 +1820,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -2047,7 +2035,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{70502F2F-AE2C-4D63-ADF7-F65702652EBF}" name="table_1_2" displayName="table_1_2" ref="A1:D108" totalsRowShown="0">
   <autoFilter ref="A1:D108" xr:uid="{70502F2F-AE2C-4D63-ADF7-F65702652EBF}"/>
   <tableColumns count="4">
-    <tableColumn id="2" xr3:uid="{BB99DCDA-08D4-474A-ABC3-5229CEAF80CF}" name="id" dataDxfId="169">
+    <tableColumn id="2" xr3:uid="{BB99DCDA-08D4-474A-ABC3-5229CEAF80CF}" name="id" dataDxfId="162">
       <calculatedColumnFormula>INT(MID(table_1_2[[#This Row],[library]], 4, 10))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{5F63B290-093A-48A3-9AFC-EB2FE27DE630}" name="library"/>
@@ -2059,44 +2047,44 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{73BF8355-0AB0-4422-8F65-2A32E222946E}" name="table_5_1" displayName="table_5_1" ref="A1:M41" totalsRowShown="0" headerRowDxfId="184">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{73BF8355-0AB0-4422-8F65-2A32E222946E}" name="table_5_1" displayName="table_5_1" ref="A1:M41" totalsRowShown="0" headerRowDxfId="177">
   <autoFilter ref="A1:M41" xr:uid="{73BF8355-0AB0-4422-8F65-2A32E222946E}"/>
   <tableColumns count="13">
-    <tableColumn id="25" xr3:uid="{43F57146-0E56-46F3-A0E3-717A41010F4A}" name="index" dataDxfId="183"/>
-    <tableColumn id="1" xr3:uid="{B0B3F6B0-7577-49AC-B865-1E873B4DC53C}" name="dir" dataDxfId="101">
+    <tableColumn id="25" xr3:uid="{43F57146-0E56-46F3-A0E3-717A41010F4A}" name="index" dataDxfId="176"/>
+    <tableColumn id="1" xr3:uid="{B0B3F6B0-7577-49AC-B865-1E873B4DC53C}" name="dir" dataDxfId="99">
       <calculatedColumnFormula>table_3_1[[#This Row],[dir]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{D04F356F-9288-416D-ACDA-6BFE128B70D7}" name="control" dataDxfId="100">
+    <tableColumn id="13" xr3:uid="{D04F356F-9288-416D-ACDA-6BFE128B70D7}" name="control" dataDxfId="98">
       <calculatedColumnFormula>table_3_1[[#This Row],[control]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{9C168B22-F534-40D4-947C-918239C33FD9}" name="ref" dataDxfId="99">
+    <tableColumn id="2" xr3:uid="{9C168B22-F534-40D4-947C-918239C33FD9}" name="ref" dataDxfId="97">
       <calculatedColumnFormula>table_3_1[[#This Row],[ref]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{6F64477B-0C66-4251-9156-22307A6D70A0}" name="dsb_pos" dataDxfId="98">
+    <tableColumn id="3" xr3:uid="{6F64477B-0C66-4251-9156-22307A6D70A0}" name="dsb_pos" dataDxfId="96">
       <calculatedColumnFormula>table_3_1[[#This Row],[dsb_pos]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{D037F4F2-543F-4D7D-AB36-0B253FD61B0D}" name="dsb_type" dataDxfId="97">
+    <tableColumn id="4" xr3:uid="{D037F4F2-543F-4D7D-AB36-0B253FD61B0D}" name="dsb_type" dataDxfId="95">
       <calculatedColumnFormula>table_3_1[[#This Row],[dsb_type]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{407AC5E6-13CB-409A-8E78-64B8CC121882}" name="dsb_type_command" dataDxfId="96">
+    <tableColumn id="12" xr3:uid="{407AC5E6-13CB-409A-8E78-64B8CC121882}" name="dsb_type_command" dataDxfId="94">
       <calculatedColumnFormula>table_3_1[[#This Row],[dsb_type_command]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{1A24C844-2A10-4394-818F-0C25A569B414}" name="strand" dataDxfId="95">
+    <tableColumn id="5" xr3:uid="{1A24C844-2A10-4394-818F-0C25A569B414}" name="strand" dataDxfId="93">
       <calculatedColumnFormula>table_3_1[[#This Row],[strand]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{4F0A02F9-5555-489E-BA41-E3CBF81D1114}" name="hguide" dataDxfId="94">
+    <tableColumn id="6" xr3:uid="{4F0A02F9-5555-489E-BA41-E3CBF81D1114}" name="hguide" dataDxfId="92">
       <calculatedColumnFormula>table_3_1[[#This Row],[hguide]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{FAE741F2-7C1B-41F2-8875-9F7A2EF40A54}" name="cell" dataDxfId="93">
+    <tableColumn id="7" xr3:uid="{FAE741F2-7C1B-41F2-8875-9F7A2EF40A54}" name="cell" dataDxfId="91">
       <calculatedColumnFormula>table_3_1[[#This Row],[cell]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{FE3ED128-2534-43D1-9244-11AB1FB57650}" name="treatment" dataDxfId="92">
+    <tableColumn id="8" xr3:uid="{FE3ED128-2534-43D1-9244-11AB1FB57650}" name="treatment" dataDxfId="90">
       <calculatedColumnFormula>table_3_1[[#This Row],[treatment]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{65ACBC9C-0EC8-4074-B310-05F4B70BFAD5}" name="subst_type" dataDxfId="176">
+    <tableColumn id="9" xr3:uid="{65ACBC9C-0EC8-4074-B310-05F4B70BFAD5}" name="subst_type" dataDxfId="169">
       <calculatedColumnFormula>"with"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{F80F6FB9-4F35-4819-8285-D77131C6EFCE}" name="command" dataDxfId="80">
+    <tableColumn id="10" xr3:uid="{F80F6FB9-4F35-4819-8285-D77131C6EFCE}" name="command" dataDxfId="78">
       <calculatedColumnFormula>_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", libraries_4, "/", table_5_1[[#This Row],[dir]], " -o ", histogram_3d, "/")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2109,40 +2097,40 @@
   <autoFilter ref="A43:M55" xr:uid="{D74A5276-1A50-4DA1-9131-9669404C8622}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{8AC09A63-4226-4C75-8801-68CF93C0F078}" name="index"/>
-    <tableColumn id="2" xr3:uid="{77584C42-D70C-48A4-979A-F4DEA0B31542}" name="dir" dataDxfId="91">
+    <tableColumn id="2" xr3:uid="{77584C42-D70C-48A4-979A-F4DEA0B31542}" name="dir" dataDxfId="89">
       <calculatedColumnFormula>table_3_2[[#This Row],[dir]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{483E3D73-4059-4B65-84EC-5DC4E7008F35}" name="control" dataDxfId="90">
+    <tableColumn id="3" xr3:uid="{483E3D73-4059-4B65-84EC-5DC4E7008F35}" name="control" dataDxfId="88">
       <calculatedColumnFormula>table_3_2[[#This Row],[control]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{5859A8DB-4C52-4451-BBB6-C6BEBF497540}" name="ref" dataDxfId="89">
+    <tableColumn id="4" xr3:uid="{5859A8DB-4C52-4451-BBB6-C6BEBF497540}" name="ref" dataDxfId="87">
       <calculatedColumnFormula>table_3_2[[#This Row],[ref]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{06FC4099-C18C-436C-B1E6-9739B71C7F22}" name="dsb_pos" dataDxfId="88">
+    <tableColumn id="5" xr3:uid="{06FC4099-C18C-436C-B1E6-9739B71C7F22}" name="dsb_pos" dataDxfId="86">
       <calculatedColumnFormula>table_3_2[[#This Row],[dsb_pos]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{8F043A8E-C5E7-4596-AE13-3E495C6DB33E}" name="dsb_type" dataDxfId="87">
+    <tableColumn id="6" xr3:uid="{8F043A8E-C5E7-4596-AE13-3E495C6DB33E}" name="dsb_type" dataDxfId="85">
       <calculatedColumnFormula>table_3_2[[#This Row],[dsb_type]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{E2DB136E-6FA9-4095-8B91-F094974333AF}" name="dsb_type_command" dataDxfId="86">
+    <tableColumn id="7" xr3:uid="{E2DB136E-6FA9-4095-8B91-F094974333AF}" name="dsb_type_command" dataDxfId="84">
       <calculatedColumnFormula>table_3_2[[#This Row],[dsb_type_command]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{55CDC54E-3E43-4365-B1C9-5359F747A157}" name="strand" dataDxfId="85">
+    <tableColumn id="8" xr3:uid="{55CDC54E-3E43-4365-B1C9-5359F747A157}" name="strand" dataDxfId="83">
       <calculatedColumnFormula>table_3_2[[#This Row],[strand]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{056BD8A0-CC40-4C61-9F22-EE7382045F66}" name="hguide" dataDxfId="84">
+    <tableColumn id="9" xr3:uid="{056BD8A0-CC40-4C61-9F22-EE7382045F66}" name="hguide" dataDxfId="82">
       <calculatedColumnFormula>table_3_2[[#This Row],[hguide]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{489E156D-888A-4DDC-BB23-A4721D588249}" name="cell" dataDxfId="83">
+    <tableColumn id="10" xr3:uid="{489E156D-888A-4DDC-BB23-A4721D588249}" name="cell" dataDxfId="81">
       <calculatedColumnFormula>table_3_2[[#This Row],[cell]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{0F1B5F9E-B10D-4258-9052-90BCDC89F0B0}" name="treatment" dataDxfId="82">
+    <tableColumn id="11" xr3:uid="{0F1B5F9E-B10D-4258-9052-90BCDC89F0B0}" name="treatment" dataDxfId="80">
       <calculatedColumnFormula>table_3_2[[#This Row],[treatment]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{A2723EF6-80E8-4D8D-A6DC-7556C1996222}" name="subst_type" dataDxfId="175">
+    <tableColumn id="12" xr3:uid="{A2723EF6-80E8-4D8D-A6DC-7556C1996222}" name="subst_type" dataDxfId="168">
       <calculatedColumnFormula>"with"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{02531CCA-6CDE-42BA-80E3-31C0F97A3546}" name="command" dataDxfId="81">
+    <tableColumn id="13" xr3:uid="{02531CCA-6CDE-42BA-80E3-31C0F97A3546}" name="command" dataDxfId="79">
       <calculatedColumnFormula>_xlfn.CONCAT("python 2_graph_processing/make_histogram_3d.py ", "-i ", libraries_4, "/", table_5_2[[#This Row],[dir]], " -o ", histogram_3d, "/")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2151,48 +2139,66 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{E39D37F2-5006-44FB-A873-CCC98F8BA522}" name="table_7_1" displayName="table_7_1" ref="A1:N7" totalsRowShown="0" headerRowDxfId="29">
-  <autoFilter ref="A1:N7" xr:uid="{E39D37F2-5006-44FB-A873-CCC98F8BA522}"/>
-  <tableColumns count="14">
-    <tableColumn id="25" xr3:uid="{CD5CCC3B-8B5B-4C20-98D1-63A7E1FB075B}" name="index" dataDxfId="28"/>
-    <tableColumn id="18" xr3:uid="{A6E432BE-5846-48EE-948A-BE81A4E2B6F5}" name="dir_1" dataDxfId="27">
-      <calculatedColumnFormula array="1">_xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_1[[dir]:[dir]], 6 * (table_7_1[[#This Row],[index]:[index]] - 1) + COLUMN() - 2, 0, 1, 1))</calculatedColumnFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{E39D37F2-5006-44FB-A873-CCC98F8BA522}" name="table_6_1" displayName="table_6_1" ref="A1:T7" totalsRowShown="0" headerRowDxfId="47">
+  <autoFilter ref="A1:T7" xr:uid="{E39D37F2-5006-44FB-A873-CCC98F8BA522}"/>
+  <tableColumns count="20">
+    <tableColumn id="25" xr3:uid="{CD5CCC3B-8B5B-4C20-98D1-63A7E1FB075B}" name="index" dataDxfId="46"/>
+    <tableColumn id="18" xr3:uid="{A6E432BE-5846-48EE-948A-BE81A4E2B6F5}" name="dir_1" dataDxfId="17">
+      <calculatedColumnFormula array="1">_xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_1[[dir]:[dir]], 6 * (table_6_1[[#This Row],[index]:[index]] - 1) + COLUMN(table_6_1[dir_1]) - COLUMN(table_6_1[[dir_1]:[dir_1]]), 0, 1, 1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{A826EC7B-673B-4DCB-8792-35762AD6C5ED}" name="dir_2" dataDxfId="26">
-      <calculatedColumnFormula array="1">_xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_1[[dir]:[dir]], 6 * (table_7_1[[#This Row],[index]:[index]] - 1) + COLUMN() - 2, 0, 1, 1))</calculatedColumnFormula>
+    <tableColumn id="17" xr3:uid="{A826EC7B-673B-4DCB-8792-35762AD6C5ED}" name="dir_2" dataDxfId="45">
+      <calculatedColumnFormula array="1">_xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_1[[dir]:[dir]], 6 * (table_6_1[[#This Row],[index]:[index]] - 1) + COLUMN(table_6_1[dir_2]) - COLUMN(table_6_1[[dir_1]:[dir_1]]), 0, 1, 1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{F6910118-048E-4746-9072-727F3B1847FE}" name="dir_3" dataDxfId="25">
-      <calculatedColumnFormula array="1">_xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_1[[dir]:[dir]], 6 * (table_7_1[[#This Row],[index]:[index]] - 1) + COLUMN() - 2, 0, 1, 1))</calculatedColumnFormula>
+    <tableColumn id="16" xr3:uid="{F6910118-048E-4746-9072-727F3B1847FE}" name="dir_3" dataDxfId="44">
+      <calculatedColumnFormula array="1">_xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_1[[dir]:[dir]], 6 * (table_6_1[[#This Row],[index]:[index]] - 1) + COLUMN(table_6_1[dir_3]) - COLUMN(table_6_1[[dir_1]:[dir_1]]), 0, 1, 1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{0BBECB52-3A0A-4374-9C43-DA21C4CA365C}" name="dir_4" dataDxfId="24">
-      <calculatedColumnFormula array="1">_xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_1[[dir]:[dir]], 6 * (table_7_1[[#This Row],[index]:[index]] - 1) + COLUMN() - 2, 0, 1, 1))</calculatedColumnFormula>
+    <tableColumn id="15" xr3:uid="{0BBECB52-3A0A-4374-9C43-DA21C4CA365C}" name="dir_4" dataDxfId="43">
+      <calculatedColumnFormula array="1">_xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_1[[dir]:[dir]], 6 * (table_6_1[[#This Row],[index]:[index]] - 1) + COLUMN(table_6_1[dir_4]) - COLUMN(table_6_1[[dir_1]:[dir_1]]), 0, 1, 1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{6E2A95BE-29B1-4454-9E5B-BED35BBC5239}" name="dir_5" dataDxfId="23">
-      <calculatedColumnFormula array="1">_xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_1[[dir]:[dir]], 6 * (table_7_1[[#This Row],[index]:[index]] - 1) + COLUMN() - 2, 0, 1, 1))</calculatedColumnFormula>
+    <tableColumn id="14" xr3:uid="{6E2A95BE-29B1-4454-9E5B-BED35BBC5239}" name="dir_5" dataDxfId="42">
+      <calculatedColumnFormula array="1">_xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_1[[dir]:[dir]], 6 * (table_6_1[[#This Row],[index]:[index]] - 1) + COLUMN(table_6_1[dir_5]) - COLUMN(table_6_1[[dir_1]:[dir_1]]), 0, 1, 1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{4BDBAB17-9D30-4F82-92E5-FBABD10C580E}" name="dir_6" dataDxfId="22">
-      <calculatedColumnFormula array="1">_xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_1[[dir]:[dir]], 6 * (table_7_1[[#This Row],[index]:[index]] - 1) + COLUMN() - 2, 0, 1, 1))</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{4BDBAB17-9D30-4F82-92E5-FBABD10C580E}" name="dir_6" dataDxfId="41">
+      <calculatedColumnFormula array="1">_xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_1[[dir]:[dir]], 6 * (table_6_1[[#This Row],[index]:[index]] - 1) + COLUMN(table_6_1[dir_6]) - COLUMN(table_6_1[[dir_1]:[dir_1]]), 0, 1, 1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{991CDA96-8100-4EC0-BA2D-509D87E3B77E}" name="control" dataDxfId="21">
-      <calculatedColumnFormula>OFFSET(table_3_1[control], 6 * (table_7_1[[#This Row],[index]] - 1), 0, 1, 1)</calculatedColumnFormula>
+    <tableColumn id="21" xr3:uid="{8377C5E1-81CB-41A4-9754-5BDCCCB5D946}" name="dir_7" dataDxfId="15">
+      <calculatedColumnFormula array="1">IF(AND(table_6_1[[#This Row],[dsb_type]:[dsb_type]]="1DSB", table_6_1[[#This Row],[control]:[control]]="none"), _xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_2[[dir]:[dir]], 6 * (table_6_1[[#This Row],[index]:[index]] - 3) + COLUMN(table_6_1[[#This Row],[dir_7]]) -COLUMN(table_6_1[[#This Row],[dir_7]:[dir_7]]), 0, 1, 1)), "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{AB636280-F214-4141-A265-B2AC639CF4A7}" name="dsb_type" dataDxfId="20">
-      <calculatedColumnFormula>OFFSET(table_3_1[dsb_type], 6 * (table_7_1[[#This Row],[index]] - 1), 0, 1, 1)</calculatedColumnFormula>
+    <tableColumn id="23" xr3:uid="{0BBDCF08-0538-454A-A8A3-33839702EB7D}" name="dir_8" dataDxfId="22">
+      <calculatedColumnFormula array="1">IF(AND(table_6_1[[#This Row],[dsb_type]:[dsb_type]]="1DSB", table_6_1[[#This Row],[control]:[control]]="none"), _xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_2[[dir]:[dir]], 6 * (table_6_1[[#This Row],[index]:[index]] - 3) + COLUMN(table_6_1[[#This Row],[dir_8]]) -COLUMN(table_6_1[[#This Row],[dir_7]:[dir_7]]), 0, 1, 1)), "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{56C39C59-71CD-4F29-9AA2-7C1BE588DDCF}" name="strand" dataDxfId="19">
-      <calculatedColumnFormula>OFFSET(table_3_1[strand], 6 * (table_7_1[[#This Row],[index]] - 1), 0, 1, 1)</calculatedColumnFormula>
+    <tableColumn id="24" xr3:uid="{362AFBD7-D8FE-484B-A796-99C68A4873AF}" name="dir_9" dataDxfId="21">
+      <calculatedColumnFormula array="1">IF(AND(table_6_1[[#This Row],[dsb_type]:[dsb_type]]="1DSB", table_6_1[[#This Row],[control]:[control]]="none"), _xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_2[[dir]:[dir]], 6 * (table_6_1[[#This Row],[index]:[index]] - 3) + COLUMN(table_6_1[[#This Row],[dir_9]]) -COLUMN(table_6_1[[#This Row],[dir_7]:[dir_7]]), 0, 1, 1)), "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{77B8B06C-E91A-4366-BAAD-4D98914358E6}" name="hguide" dataDxfId="18">
-      <calculatedColumnFormula>OFFSET(table_3_1[hguide], 6 * (table_7_1[[#This Row],[index]] - 1), 0, 1, 1)</calculatedColumnFormula>
+    <tableColumn id="26" xr3:uid="{F8401415-A0F2-4302-B6F1-2F4769D22B7D}" name="dir_10" dataDxfId="20">
+      <calculatedColumnFormula array="1">IF(AND(table_6_1[[#This Row],[dsb_type]:[dsb_type]]="1DSB", table_6_1[[#This Row],[control]:[control]]="none"), _xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_2[[dir]:[dir]], 6 * (table_6_1[[#This Row],[index]:[index]] - 3) + COLUMN(table_6_1[[#This Row],[dir_10]]) -COLUMN(table_6_1[[#This Row],[dir_7]:[dir_7]]), 0, 1, 1)), "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{64A9E7E6-7F9F-4F61-9A23-E4157ABDCFAC}" name="subst_type" dataDxfId="17">
+    <tableColumn id="27" xr3:uid="{EB5FA985-8547-4A83-8A97-6BDBC99AFC75}" name="dir_11" dataDxfId="19">
+      <calculatedColumnFormula array="1">IF(AND(table_6_1[[#This Row],[dsb_type]:[dsb_type]]="1DSB", table_6_1[[#This Row],[control]:[control]]="none"), _xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_2[[dir]:[dir]], 6 * (table_6_1[[#This Row],[index]:[index]] - 3) + COLUMN(table_6_1[[#This Row],[dir_11]]) -COLUMN(table_6_1[[#This Row],[dir_7]:[dir_7]]), 0, 1, 1)), "")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="28" xr3:uid="{531860AE-4501-4DFE-ABC6-8AEC03CA2891}" name="dir_12" dataDxfId="18">
+      <calculatedColumnFormula array="1">IF(AND(table_6_1[[#This Row],[dsb_type]:[dsb_type]]="1DSB", table_6_1[[#This Row],[control]:[control]]="none"), _xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_2[[dir]:[dir]], 6 * (table_6_1[[#This Row],[index]:[index]] - 3) + COLUMN(table_6_1[[#This Row],[dir_12]]) -COLUMN(table_6_1[[#This Row],[dir_7]:[dir_7]]), 0, 1, 1)), "")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{991CDA96-8100-4EC0-BA2D-509D87E3B77E}" name="control" dataDxfId="28">
+      <calculatedColumnFormula>OFFSET(table_3_1[control], 6 * (table_6_1[[#This Row],[index]] - 1), 0, 1, 1)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{AB636280-F214-4141-A265-B2AC639CF4A7}" name="dsb_type" dataDxfId="27">
+      <calculatedColumnFormula>OFFSET(table_3_1[dsb_type], 6 * (table_6_1[[#This Row],[index]] - 1), 0, 1, 1)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{56C39C59-71CD-4F29-9AA2-7C1BE588DDCF}" name="strand" dataDxfId="26">
+      <calculatedColumnFormula>OFFSET(table_3_1[strand], 6 * (table_6_1[[#This Row],[index]] - 1), 0, 1, 1)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{77B8B06C-E91A-4366-BAAD-4D98914358E6}" name="hguide" dataDxfId="25">
+      <calculatedColumnFormula>OFFSET(table_3_1[hguide], 6 * (table_6_1[[#This Row],[index]] - 1), 0, 1, 1)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{64A9E7E6-7F9F-4F61-9A23-E4157ABDCFAC}" name="subst_type" dataDxfId="24">
       <calculatedColumnFormula>subst_type</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{B53E652A-5D37-4D63-8F38-4B8DBDB37226}" name="dir_out" dataDxfId="16">
-      <calculatedColumnFormula>_xlfn.CONCAT(table_7_1[[#This Row],[dsb_type]], "_", table_7_1[[#This Row],[strand]], IF(table_7_1[[#This Row],[control]]&lt;&gt;"none", _xlfn.CONCAT("_", table_7_1[[#This Row],[control]]), ""))</calculatedColumnFormula>
+    <tableColumn id="19" xr3:uid="{B53E652A-5D37-4D63-8F38-4B8DBDB37226}" name="dir_out" dataDxfId="23">
+      <calculatedColumnFormula>_xlfn.CONCAT(table_6_1[[#This Row],[dsb_type]], "_", table_6_1[[#This Row],[strand]], IF(table_6_1[[#This Row],[control]]&lt;&gt;"none", _xlfn.CONCAT("_", table_6_1[[#This Row],[control]]), ""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{9C3C4C97-49A2-40B9-BCC3-5739C07213CD}" name="command" dataDxfId="15">
-      <calculatedColumnFormula>_xlfn.CONCAT("python 2_graph_processing/make_common_layout.py ", "-i ", _xlfn.TEXTJOIN(" ", TRUE, table_7_1[[#This Row],[dir_1]:[dir_6]]), " -o ", layouts, "/", table_7_1[[#This Row],[dir_out]], " --subst_type ", table_7_1[[#This Row],[subst_type]])</calculatedColumnFormula>
+    <tableColumn id="10" xr3:uid="{9C3C4C97-49A2-40B9-BCC3-5739C07213CD}" name="command" dataDxfId="16">
+      <calculatedColumnFormula>_xlfn.CONCAT("python 2_graph_processing/make_common_layout.py ", "-i ", _xlfn.TEXTJOIN(" ", TRUE, table_6_1[[#This Row],[dir_1]:[dir_12]]), " -o ", layouts, "/", table_6_1[[#This Row],[dir_out]], " --subst_type ", table_6_1[[#This Row],[subst_type]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2200,48 +2206,36 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{6E628958-7BA5-4BDD-B47D-D4557C1E2AB9}" name="table_7_3" displayName="table_7_3" ref="A14:N16" totalsRowShown="0" headerRowDxfId="30">
-  <autoFilter ref="A14:N16" xr:uid="{6E628958-7BA5-4BDD-B47D-D4557C1E2AB9}"/>
-  <tableColumns count="14">
-    <tableColumn id="25" xr3:uid="{F65CCE33-1C02-4528-AEFB-410D8B6707EF}" name="index" dataDxfId="44"/>
-    <tableColumn id="18" xr3:uid="{EA273D72-B239-48D7-9001-6F41539B49DC}" name="dir_1" dataDxfId="36">
-      <calculatedColumnFormula array="1">_xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_2[[dir]:[dir]], 6 * (table_7_3[[#This Row],[index]:[index]] - 1) + COLUMN() - 2, 0, 1, 1))</calculatedColumnFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{5FFA4758-C47A-4F1C-9890-69E7F39BE130}" name="table_6_2" displayName="table_6_2" ref="A10:J12" totalsRowShown="0" headerRowDxfId="37" headerRowBorderDxfId="39" tableBorderDxfId="40">
+  <autoFilter ref="A10:J12" xr:uid="{5FFA4758-C47A-4F1C-9890-69E7F39BE130}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{40A0667B-C93C-4531-B41F-A65EDE89F51E}" name="index"/>
+    <tableColumn id="2" xr3:uid="{A54C9A1D-E384-4C87-B6DD-98A7ADBAD240}" name="dir_1" dataDxfId="36">
+      <calculatedColumnFormula array="1">_xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_1[[dir]:[dir]], var_6_anti_offset - 1 + COLUMN() - 2 + 2 * (table_6_2[[#This Row],[index]:[index]] - 1), 0, 1, 1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{F02185A1-7373-4921-987E-6151D773DBC6}" name="dir_2" dataDxfId="35">
-      <calculatedColumnFormula array="1">_xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_2[[dir]:[dir]], 6 * (table_7_3[[#This Row],[index]:[index]] - 1) + COLUMN() - 2, 0, 1, 1))</calculatedColumnFormula>
+    <tableColumn id="3" xr3:uid="{7CACC7DC-6834-41E4-A17F-74F62473FF4D}" name="dir_2" dataDxfId="38">
+      <calculatedColumnFormula array="1">_xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_1[[dir]:[dir]], var_6_anti_offset - 1 + COLUMN() - 2 + 2 * (table_6_2[[#This Row],[index]:[index]] - 1), 0, 1, 1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{00BFFB2A-F4C7-4DB9-AE6F-ABF6BBAA4B11}" name="dir_3" dataDxfId="43">
-      <calculatedColumnFormula array="1">_xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_2[[dir]:[dir]], 6 * (table_7_3[[#This Row],[index]:[index]] - 1) + COLUMN() - 2, 0, 1, 1))</calculatedColumnFormula>
+    <tableColumn id="4" xr3:uid="{BEB4CA3E-14C3-4D70-BAFF-DBFFE398E04E}" name="control" dataDxfId="31">
+      <calculatedColumnFormula>OFFSET(table_3_1[control], var_6_anti_offset - 1 + 2 * (table_6_2[[#This Row],[index]] - 1), 0, 1, 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{5C14DC64-12C9-4BB2-B906-F430F84309AF}" name="dir_4" dataDxfId="42">
-      <calculatedColumnFormula array="1">_xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_2[[dir]:[dir]], 6 * (table_7_3[[#This Row],[index]:[index]] - 1) + COLUMN() - 2, 0, 1, 1))</calculatedColumnFormula>
+    <tableColumn id="5" xr3:uid="{08F18E8F-5127-4F55-95E0-05877340A45E}" name="dsb_type" dataDxfId="32">
+      <calculatedColumnFormula>OFFSET(table_3_1[dsb_type], var_6_anti_offset - 1 + 2 * (table_6_2[[#This Row],[index]] - 1), 0, 1, 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{054997E0-4CDC-4CA7-9394-BAA031E1952E}" name="dir_5" dataDxfId="41">
-      <calculatedColumnFormula array="1">_xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_2[[dir]:[dir]], 6 * (table_7_3[[#This Row],[index]:[index]] - 1) + COLUMN() - 2, 0, 1, 1))</calculatedColumnFormula>
+    <tableColumn id="6" xr3:uid="{B0010190-2798-4D5F-A1DA-8D1F1A867502}" name="strand" dataDxfId="33">
+      <calculatedColumnFormula array="1">OFFSET(table_3_1[strand], var_6_anti_offset - 1 + 2 * (table_6_2[[#This Row],[index]:[index]] - 1), 0, 1, 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{F3B51E14-CD08-4C8E-ACCF-D91ED4756999}" name="dir_6" dataDxfId="40">
-      <calculatedColumnFormula array="1">_xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_2[[dir]:[dir]], 6 * (table_7_3[[#This Row],[index]:[index]] - 1) + COLUMN() - 2, 0, 1, 1))</calculatedColumnFormula>
+    <tableColumn id="7" xr3:uid="{689C42CC-8508-4116-808A-19A0641C3F05}" name="hguide" dataDxfId="30">
+      <calculatedColumnFormula>OFFSET(table_3_1[hguide], var_6_anti_offset - 1 + 2 * (table_6_2[[#This Row],[index]] - 1), 0, 1, 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{B2763BB3-2B78-427B-A2B5-7632A727B5CC}" name="control" dataDxfId="34">
-      <calculatedColumnFormula>OFFSET(table_3_2[control], 6 * (table_7_3[[#This Row],[index]] - 1), 0, 1, 1)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" xr3:uid="{1F66F949-5751-4B3F-9326-1F7B173133D9}" name="dsb_type" dataDxfId="33">
-      <calculatedColumnFormula>OFFSET(table_3_2[dsb_type], 6 * (table_7_3[[#This Row],[index]] - 1), 0, 1, 1)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="5" xr3:uid="{7D14347A-46AA-4EF0-A3CD-5C44A2ED97A6}" name="strand" dataDxfId="32">
-      <calculatedColumnFormula>OFFSET(table_3_2[strand], 6 * (table_7_3[[#This Row],[index]] - 1), 0, 1, 1)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="6" xr3:uid="{794AD6D7-D8BE-4C19-A808-A3DCAB469F8E}" name="hguide" dataDxfId="31">
-      <calculatedColumnFormula>OFFSET(table_3_2[hguide], 6 * (table_7_3[[#This Row],[index]] - 1), 0, 1, 1)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="9" xr3:uid="{5D3557DC-4CF3-45B6-9B67-60F5872F1989}" name="subst_type" dataDxfId="39">
+    <tableColumn id="8" xr3:uid="{48005280-1CD9-4496-941A-723AEDDD9036}" name="subst_type">
       <calculatedColumnFormula>subst_type</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{69B880EB-A349-4746-8AC4-10F8300E3F1E}" name="dir_out" dataDxfId="38">
-      <calculatedColumnFormula>_xlfn.CONCAT(table_7_3[[#This Row],[dsb_type]], "_", table_7_3[[#This Row],[strand]], IF(table_7_3[[#This Row],[control]]&lt;&gt;"none", _xlfn.CONCAT("_", table_7_3[[#This Row],[control]]), ""))</calculatedColumnFormula>
+    <tableColumn id="9" xr3:uid="{5F8C6AF1-A602-4306-A909-592B4268C611}" name="dir_out" dataDxfId="35">
+      <calculatedColumnFormula>_xlfn.CONCAT(table_6_2[[#This Row],[dsb_type]], "_", table_6_2[[#This Row],[strand]], IF(table_6_2[[#This Row],[control]]&lt;&gt;"none", _xlfn.CONCAT("_", table_6_2[[#This Row],[control]]), ""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{0358FD4D-0021-4B96-B734-4E25C902E4A4}" name="command" dataDxfId="37">
-      <calculatedColumnFormula>_xlfn.CONCAT("python 2_graph_processing/make_common_layout.py ", "-i ", _xlfn.TEXTJOIN(" ", TRUE, table_7_3[[#This Row],[dir_1]:[dir_6]]), " -o ", layouts, "/", table_7_3[[#This Row],[dir_out]], " --subst_type ", table_7_3[[#This Row],[subst_type]])</calculatedColumnFormula>
+    <tableColumn id="10" xr3:uid="{3AEE0650-E928-4CB1-8CCF-22F967A16636}" name="command" dataDxfId="34">
+      <calculatedColumnFormula>_xlfn.CONCAT("python 2_graph_processing/make_common_layout.py ", "-i ", _xlfn.TEXTJOIN(" ", TRUE, table_6_2[[#This Row],[dir_1]:[dir_2]]), " -o ", layouts, "/", table_6_2[[#This Row],[dir_out]], " --subst_type ", table_6_2[[#This Row],[subst_type]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2249,36 +2243,48 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{5FFA4758-C47A-4F1C-9890-69E7F39BE130}" name="table_7_2" displayName="table_7_2" ref="A10:J12" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="13" tableBorderDxfId="14">
-  <autoFilter ref="A10:J12" xr:uid="{5FFA4758-C47A-4F1C-9890-69E7F39BE130}"/>
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{40A0667B-C93C-4531-B41F-A65EDE89F51E}" name="index"/>
-    <tableColumn id="2" xr3:uid="{A54C9A1D-E384-4C87-B6DD-98A7ADBAD240}" name="dir_1" dataDxfId="10">
-      <calculatedColumnFormula array="1">_xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_1[[dir]:[dir]], var_7_anti_offset - 1 + COLUMN() - 2 + 2 * (table_7_2[[#This Row],[index]:[index]] - 1), 0, 1, 1))</calculatedColumnFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{86CE8E4A-18BF-427A-81F0-F9655767A016}" name="table_7_1" displayName="table_7_1" ref="A1:N41" totalsRowShown="0" headerRowDxfId="166">
+  <autoFilter ref="A1:N41" xr:uid="{73BF8355-0AB0-4422-8F65-2A32E222946E}"/>
+  <tableColumns count="14">
+    <tableColumn id="25" xr3:uid="{C323C376-24D3-4404-9E0F-6E9361862271}" name="index" dataDxfId="165"/>
+    <tableColumn id="1" xr3:uid="{AC070029-7A36-442E-A851-71CD7EB80F28}" name="dir" dataDxfId="77">
+      <calculatedColumnFormula>table_3_1[[#This Row],[dir]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{7CACC7DC-6834-41E4-A17F-74F62473FF4D}" name="dir_2" dataDxfId="12">
-      <calculatedColumnFormula array="1">_xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_1[[dir]:[dir]], var_7_anti_offset - 1 + COLUMN() - 2 + 2 * (table_7_2[[#This Row],[index]:[index]] - 1), 0, 1, 1))</calculatedColumnFormula>
+    <tableColumn id="13" xr3:uid="{6A4B6748-6DA2-44B2-95C1-9C2BF9C21AC6}" name="control" dataDxfId="76">
+      <calculatedColumnFormula>table_3_1[[#This Row],[control]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{BEB4CA3E-14C3-4D70-BAFF-DBFFE398E04E}" name="control" dataDxfId="5">
-      <calculatedColumnFormula>OFFSET(table_3_1[control], var_7_anti_offset - 1 + 2 * (table_7_2[[#This Row],[index]] - 1), 0, 1, 1)</calculatedColumnFormula>
+    <tableColumn id="2" xr3:uid="{46183BCF-754C-4289-9E28-8DB2FB5F3E2E}" name="ref" dataDxfId="75">
+      <calculatedColumnFormula>table_3_1[[#This Row],[ref]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{08F18E8F-5127-4F55-95E0-05877340A45E}" name="dsb_type" dataDxfId="6">
-      <calculatedColumnFormula>OFFSET(table_3_1[dsb_type], var_7_anti_offset - 1 + 2 * (table_7_2[[#This Row],[index]] - 1), 0, 1, 1)</calculatedColumnFormula>
+    <tableColumn id="3" xr3:uid="{01CE35D5-BD5A-4DBE-911A-523BA86E9558}" name="dsb_pos" dataDxfId="74">
+      <calculatedColumnFormula>table_3_1[[#This Row],[dsb_pos]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{B0010190-2798-4D5F-A1DA-8D1F1A867502}" name="strand" dataDxfId="7">
-      <calculatedColumnFormula array="1">OFFSET(table_3_1[strand], var_7_anti_offset - 1 + 2 * (table_7_2[[#This Row],[index]:[index]] - 1), 0, 1, 1)</calculatedColumnFormula>
+    <tableColumn id="4" xr3:uid="{0171B01F-9599-42EC-9AD8-75EE9608FE15}" name="dsb_type" dataDxfId="73">
+      <calculatedColumnFormula>table_3_1[[#This Row],[dsb_type]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{689C42CC-8508-4116-808A-19A0641C3F05}" name="hguide" dataDxfId="4">
-      <calculatedColumnFormula>OFFSET(table_3_1[hguide], var_7_anti_offset - 1 + 2 * (table_7_2[[#This Row],[index]] - 1), 0, 1, 1)</calculatedColumnFormula>
+    <tableColumn id="12" xr3:uid="{2D9967F2-F905-4DDC-BC13-BE494C96FD78}" name="dsb_type_command" dataDxfId="72">
+      <calculatedColumnFormula>table_3_1[[#This Row],[dsb_type_command]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{48005280-1CD9-4496-941A-723AEDDD9036}" name="subst_type">
-      <calculatedColumnFormula>subst_type</calculatedColumnFormula>
+    <tableColumn id="5" xr3:uid="{B8E237AE-E973-40A0-86E3-7BF5DEC7FC87}" name="strand" dataDxfId="71">
+      <calculatedColumnFormula>table_3_1[[#This Row],[strand]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{5F8C6AF1-A602-4306-A909-592B4268C611}" name="dir_out" dataDxfId="9">
-      <calculatedColumnFormula>_xlfn.CONCAT(table_7_2[[#This Row],[dsb_type]], "_", table_7_2[[#This Row],[strand]], IF(table_7_2[[#This Row],[control]]&lt;&gt;"none", _xlfn.CONCAT("_", table_7_2[[#This Row],[control]]), ""))</calculatedColumnFormula>
+    <tableColumn id="6" xr3:uid="{647E20CB-AEBC-4627-AE45-391FD9784E21}" name="hguide" dataDxfId="70">
+      <calculatedColumnFormula>table_3_1[[#This Row],[hguide]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{3AEE0650-E928-4CB1-8CCF-22F967A16636}" name="command" dataDxfId="8">
-      <calculatedColumnFormula>_xlfn.CONCAT("python 2_graph_processing/make_common_layout.py ", "-i ", _xlfn.TEXTJOIN(" ", TRUE, table_7_2[[#This Row],[dir_1]:[dir_2]]), " -o ", layouts, "/", table_7_2[[#This Row],[dir_out]], " --subst_type ", table_7_2[[#This Row],[subst_type]])</calculatedColumnFormula>
+    <tableColumn id="7" xr3:uid="{EAED7BDD-3E55-428C-8CC0-D27D2F2EF394}" name="cell" dataDxfId="69">
+      <calculatedColumnFormula>table_3_1[[#This Row],[cell]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{8D720D5E-95C1-4847-85D5-656085769184}" name="treatment" dataDxfId="68">
+      <calculatedColumnFormula>table_3_1[[#This Row],[treatment]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{D6F4320B-CD2D-4288-B9EC-64E8C7BA2DDE}" name="subst_type" dataDxfId="164">
+      <calculatedColumnFormula>"with"</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="14" xr3:uid="{C107BDC5-6E3A-4EAC-9D60-3D3C790CFE24}" name="common_layout_dir" dataDxfId="29">
+      <calculatedColumnFormula>IF(table_7_1[[#This Row],[dsb_type]]="2DSBanti", OFFSET(table_6_2[dir_out],QUOTIENT( table_7_1[[#This Row],[index]] - 37, 2), 0, 1, 1), OFFSET(table_6_1[dir_out], QUOTIENT(table_7_1[[#This Row],[index]] - 1, 6), 0, 1, 1))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{927D810C-70D6-4266-8FCE-04D49787D147}" name="command" dataDxfId="13">
+      <calculatedColumnFormula>_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/", table_7_1[[#This Row],[dir]], " -o ", graphs_individual, " ", " --layout_dir ", layouts, "/", table_7_1[[#This Row],[common_layout_dir]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2286,48 +2292,48 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{86CE8E4A-18BF-427A-81F0-F9655767A016}" name="table_6_1" displayName="table_6_1" ref="A1:N41" totalsRowShown="0" headerRowDxfId="173">
-  <autoFilter ref="A1:N41" xr:uid="{73BF8355-0AB0-4422-8F65-2A32E222946E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{B47D9508-D874-40FC-B6F6-C106B48F6A94}" name="table_7_2" displayName="table_7_2" ref="A43:N55" totalsRowShown="0">
+  <autoFilter ref="A43:N55" xr:uid="{D74A5276-1A50-4DA1-9131-9669404C8622}"/>
   <tableColumns count="14">
-    <tableColumn id="25" xr3:uid="{C323C376-24D3-4404-9E0F-6E9361862271}" name="index" dataDxfId="172"/>
-    <tableColumn id="1" xr3:uid="{AC070029-7A36-442E-A851-71CD7EB80F28}" name="dir" dataDxfId="79">
-      <calculatedColumnFormula>table_3_1[[#This Row],[dir]]</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{488C5146-A746-4F74-BCC8-806E4DC740CE}" name="index" dataDxfId="160"/>
+    <tableColumn id="2" xr3:uid="{C2A88DF4-2444-4C4C-A089-6CF9ADE79BD8}" name="dir" dataDxfId="67">
+      <calculatedColumnFormula>table_3_2[[#This Row],[dir]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{6A4B6748-6DA2-44B2-95C1-9C2BF9C21AC6}" name="control" dataDxfId="78">
-      <calculatedColumnFormula>table_3_1[[#This Row],[control]]</calculatedColumnFormula>
+    <tableColumn id="3" xr3:uid="{7698ACE3-2351-400D-B00F-5A70184F8A33}" name="control" dataDxfId="66">
+      <calculatedColumnFormula>table_3_2[[#This Row],[control]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{46183BCF-754C-4289-9E28-8DB2FB5F3E2E}" name="ref" dataDxfId="77">
-      <calculatedColumnFormula>table_3_1[[#This Row],[ref]]</calculatedColumnFormula>
+    <tableColumn id="4" xr3:uid="{5E82B04C-FF09-492C-8A23-7E43B5990149}" name="ref" dataDxfId="65">
+      <calculatedColumnFormula>table_3_2[[#This Row],[ref]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{01CE35D5-BD5A-4DBE-911A-523BA86E9558}" name="dsb_pos" dataDxfId="76">
-      <calculatedColumnFormula>table_3_1[[#This Row],[dsb_pos]]</calculatedColumnFormula>
+    <tableColumn id="5" xr3:uid="{F4D36A0E-549B-4F3A-BCA9-75E151448998}" name="dsb_pos" dataDxfId="64">
+      <calculatedColumnFormula>table_3_2[[#This Row],[dsb_pos]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{0171B01F-9599-42EC-9AD8-75EE9608FE15}" name="dsb_type" dataDxfId="75">
-      <calculatedColumnFormula>table_3_1[[#This Row],[dsb_type]]</calculatedColumnFormula>
+    <tableColumn id="6" xr3:uid="{AEBBBB88-8CE2-409D-AE19-9C23263250A9}" name="dsb_type" dataDxfId="63">
+      <calculatedColumnFormula>table_3_2[[#This Row],[dsb_type]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{2D9967F2-F905-4DDC-BC13-BE494C96FD78}" name="dsb_type_command" dataDxfId="74">
-      <calculatedColumnFormula>table_3_1[[#This Row],[dsb_type_command]]</calculatedColumnFormula>
+    <tableColumn id="7" xr3:uid="{3E71E7D2-0FA5-4FD5-BDC3-2955A091A9E6}" name="dsb_type_command" dataDxfId="62">
+      <calculatedColumnFormula>table_3_2[[#This Row],[dsb_type_command]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{B8E237AE-E973-40A0-86E3-7BF5DEC7FC87}" name="strand" dataDxfId="73">
-      <calculatedColumnFormula>table_3_1[[#This Row],[strand]]</calculatedColumnFormula>
+    <tableColumn id="8" xr3:uid="{EBD35881-E696-4202-9149-75A4EFFFAAD6}" name="strand" dataDxfId="61">
+      <calculatedColumnFormula>table_3_2[[#This Row],[strand]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{647E20CB-AEBC-4627-AE45-391FD9784E21}" name="hguide" dataDxfId="72">
-      <calculatedColumnFormula>table_3_1[[#This Row],[hguide]]</calculatedColumnFormula>
+    <tableColumn id="9" xr3:uid="{123CA279-0CB6-41C1-9CD8-20D375B9B66D}" name="hguide" dataDxfId="60">
+      <calculatedColumnFormula>table_3_2[[#This Row],[hguide]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{EAED7BDD-3E55-428C-8CC0-D27D2F2EF394}" name="cell" dataDxfId="71">
-      <calculatedColumnFormula>table_3_1[[#This Row],[cell]]</calculatedColumnFormula>
+    <tableColumn id="10" xr3:uid="{3DCE3F3A-187D-411E-93FC-8C6C3EE9CAA2}" name="cell" dataDxfId="59">
+      <calculatedColumnFormula>table_3_2[[#This Row],[cell]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{8D720D5E-95C1-4847-85D5-656085769184}" name="treatment" dataDxfId="70">
-      <calculatedColumnFormula>table_3_1[[#This Row],[treatment]]</calculatedColumnFormula>
+    <tableColumn id="11" xr3:uid="{9E585D29-AB3E-4D04-8C1D-24F78339C9A3}" name="treatment" dataDxfId="58">
+      <calculatedColumnFormula>table_3_2[[#This Row],[treatment]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{D6F4320B-CD2D-4288-B9EC-64E8C7BA2DDE}" name="subst_type" dataDxfId="171">
+    <tableColumn id="12" xr3:uid="{928286B8-23FB-4375-B52B-617DD59D6098}" name="subst_type" dataDxfId="163">
       <calculatedColumnFormula>"with"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{C107BDC5-6E3A-4EAC-9D60-3D3C790CFE24}" name="common_layout_dir" dataDxfId="3">
-      <calculatedColumnFormula>IF(table_6_1[[#This Row],[dsb_type]]="2DSBanti", OFFSET(table_7_2[dir_out],QUOTIENT( table_6_1[[#This Row],[index]] - 37, 2), 0, 1, 1), OFFSET(table_7_1[dir_out], QUOTIENT(table_6_1[[#This Row],[index]] - 1, 6), 0, 1, 1))</calculatedColumnFormula>
+    <tableColumn id="15" xr3:uid="{E18D2025-56E8-4128-9201-9E0BF8A67AC0}" name="common_layout_dir" dataDxfId="14">
+      <calculatedColumnFormula>OFFSET(table_6_1[[dir_out]:[dir_out]], QUOTIENT(table_7_2[[#This Row],[index]] - 1, 6) + 2, 0, 1, 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{927D810C-70D6-4266-8FCE-04D49787D147}" name="command" dataDxfId="1">
-      <calculatedColumnFormula>_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/", table_6_1[[#This Row],[dir]], " -o ", graph, " --crop_y 0.15,0.85", " --layout_dir ", layouts, "/", table_6_1[[#This Row],[common_layout_dir]])</calculatedColumnFormula>
+    <tableColumn id="13" xr3:uid="{0917AB98-1545-4642-9BE8-618AAA1E404A}" name="command" dataDxfId="12">
+      <calculatedColumnFormula>_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/", table_7_2[[#This Row],[dir]], " -o ", graphs_individual, " ", " --layout_dir ", layouts, "/", table_7_2[[#This Row],[common_layout_dir]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2335,48 +2341,15 @@
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{B47D9508-D874-40FC-B6F6-C106B48F6A94}" name="table_6_2" displayName="table_6_2" ref="A43:N55" totalsRowShown="0">
-  <autoFilter ref="A43:N55" xr:uid="{D74A5276-1A50-4DA1-9131-9669404C8622}"/>
-  <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{488C5146-A746-4F74-BCC8-806E4DC740CE}" name="index" dataDxfId="167"/>
-    <tableColumn id="2" xr3:uid="{C2A88DF4-2444-4C4C-A089-6CF9ADE79BD8}" name="dir" dataDxfId="69">
-      <calculatedColumnFormula>table_3_2[[#This Row],[dir]]</calculatedColumnFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{B76EEC45-4FC3-44D5-9B2E-9183DF724F60}" name="table_7_3" displayName="table_7_3" ref="A1:C17" totalsRowShown="0" headerRowDxfId="57">
+  <autoFilter ref="A1:C17" xr:uid="{B76EEC45-4FC3-44D5-9B2E-9183DF724F60}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{FAFADB73-BF3B-401A-8C48-9FCB5D3C4CB6}" name="index" dataDxfId="56"/>
+    <tableColumn id="4" xr3:uid="{8541A14E-3250-4B9C-B315-969FC11BE60A}" name="dir" dataDxfId="51">
+      <calculatedColumnFormula>table_4_1[[#This Row],[dir_out]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{7698ACE3-2351-400D-B00F-5A70184F8A33}" name="control" dataDxfId="68">
-      <calculatedColumnFormula>table_3_2[[#This Row],[control]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" xr3:uid="{5E82B04C-FF09-492C-8A23-7E43B5990149}" name="ref" dataDxfId="67">
-      <calculatedColumnFormula>table_3_2[[#This Row],[ref]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="5" xr3:uid="{F4D36A0E-549B-4F3A-BCA9-75E151448998}" name="dsb_pos" dataDxfId="66">
-      <calculatedColumnFormula>table_3_2[[#This Row],[dsb_pos]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="6" xr3:uid="{AEBBBB88-8CE2-409D-AE19-9C23263250A9}" name="dsb_type" dataDxfId="65">
-      <calculatedColumnFormula>table_3_2[[#This Row],[dsb_type]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="7" xr3:uid="{3E71E7D2-0FA5-4FD5-BDC3-2955A091A9E6}" name="dsb_type_command" dataDxfId="64">
-      <calculatedColumnFormula>table_3_2[[#This Row],[dsb_type_command]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="8" xr3:uid="{EBD35881-E696-4202-9149-75A4EFFFAAD6}" name="strand" dataDxfId="63">
-      <calculatedColumnFormula>table_3_2[[#This Row],[strand]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="9" xr3:uid="{123CA279-0CB6-41C1-9CD8-20D375B9B66D}" name="hguide" dataDxfId="62">
-      <calculatedColumnFormula>table_3_2[[#This Row],[hguide]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="10" xr3:uid="{3DCE3F3A-187D-411E-93FC-8C6C3EE9CAA2}" name="cell" dataDxfId="61">
-      <calculatedColumnFormula>table_3_2[[#This Row],[cell]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="11" xr3:uid="{9E585D29-AB3E-4D04-8C1D-24F78339C9A3}" name="treatment" dataDxfId="60">
-      <calculatedColumnFormula>table_3_2[[#This Row],[treatment]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="12" xr3:uid="{928286B8-23FB-4375-B52B-617DD59D6098}" name="subst_type" dataDxfId="170">
-      <calculatedColumnFormula>"with"</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="15" xr3:uid="{E18D2025-56E8-4128-9201-9E0BF8A67AC0}" name="common_layout_dir" dataDxfId="2">
-      <calculatedColumnFormula>OFFSET(table_7_3[dir_out], QUOTIENT(table_6_2[[#This Row],[index]] - 1, 6), 0, 1, 1)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="13" xr3:uid="{0917AB98-1545-4642-9BE8-618AAA1E404A}" name="command" dataDxfId="0">
-      <calculatedColumnFormula>_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/", table_6_2[[#This Row],[dir]], " -o ", graph, " --crop_y 0.15,0.85", " --layout_dir ", table_6_2[[#This Row],[common_layout_dir]])</calculatedColumnFormula>
+    <tableColumn id="6" xr3:uid="{EAD6D5EC-B61E-4A98-B4FD-4932757CFEA3}" name="command" dataDxfId="5">
+      <calculatedColumnFormula>_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/", table_7_3[[#This Row],[dir]], " -o ", graphs_combined, " --layout_dir ", layouts, "/", OFFSET(table_6_1[[dir_out]:[dir_out]], QUOTIENT(table_7_3[[#This Row],[index]] - 1, 4), 0, 1, 1))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2384,15 +2357,15 @@
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{B76EEC45-4FC3-44D5-9B2E-9183DF724F60}" name="table_6_3" displayName="table_6_3" ref="A1:C25" totalsRowShown="0" headerRowDxfId="59">
-  <autoFilter ref="A1:C25" xr:uid="{B76EEC45-4FC3-44D5-9B2E-9183DF724F60}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{8B4E853A-A4F1-4022-B857-226C57559A5F}" name="table_7_4" displayName="table_7_4" ref="A19:C21" totalsRowShown="0" headerRowDxfId="55">
+  <autoFilter ref="A19:C21" xr:uid="{8B4E853A-A4F1-4022-B857-226C57559A5F}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{FAFADB73-BF3B-401A-8C48-9FCB5D3C4CB6}" name="index" dataDxfId="58"/>
-    <tableColumn id="4" xr3:uid="{8541A14E-3250-4B9C-B315-969FC11BE60A}" name="dir" dataDxfId="52">
-      <calculatedColumnFormula>table_4_1[[#This Row],[dir_out]]</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{1ECF32A2-E353-4754-B4C5-11C46AACF6C0}" name="index" dataDxfId="54"/>
+    <tableColumn id="4" xr3:uid="{181C59FC-364D-4421-8E54-98DFF4CA7C05}" name="dir" dataDxfId="7">
+      <calculatedColumnFormula>OFFSET(table_4_2[[dir_out]:[dir_out]], table_7_4[[#This Row],[index]] - 1, 0, 1, 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{EAD6D5EC-B61E-4A98-B4FD-4932757CFEA3}" name="command" dataDxfId="53">
-      <calculatedColumnFormula>_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/", table_6_3[[#This Row],[dir]], " -o ", graph, " --crop_y 0.15,0.85")</calculatedColumnFormula>
+    <tableColumn id="6" xr3:uid="{6D8CC942-572B-44F2-BCA6-4D31A25A4067}" name="command" dataDxfId="4">
+      <calculatedColumnFormula>_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/", table_7_4[[#This Row],[dir]], " -o ", graphs_combined, " --layout_dir ", layouts, "/", OFFSET(table_6_2[[dir_out]:[dir_out]],table_7_4[[#This Row],[index]] - 1, 0, 1, 1))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2400,31 +2373,15 @@
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{8B4E853A-A4F1-4022-B857-226C57559A5F}" name="table_6_4" displayName="table_6_4" ref="A28:C30" totalsRowShown="0" headerRowDxfId="57">
-  <autoFilter ref="A28:C30" xr:uid="{8B4E853A-A4F1-4022-B857-226C57559A5F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{58F5EC27-BD76-45AE-8D38-F4E705EF79E9}" name="table_7_5" displayName="table_7_5" ref="A24:C32" totalsRowShown="0" headerRowDxfId="53">
+  <autoFilter ref="A24:C32" xr:uid="{58F5EC27-BD76-45AE-8D38-F4E705EF79E9}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{1ECF32A2-E353-4754-B4C5-11C46AACF6C0}" name="index" dataDxfId="56"/>
-    <tableColumn id="4" xr3:uid="{181C59FC-364D-4421-8E54-98DFF4CA7C05}" name="dir" dataDxfId="49">
-      <calculatedColumnFormula>table_4_2[[#This Row],[dir_out]]</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{AAC1476C-44CE-49FD-8254-50BAEAA6929C}" name="index" dataDxfId="52"/>
+    <tableColumn id="4" xr3:uid="{1222E48F-ED5C-48AA-BA39-1443B841BC9F}" name="dir" dataDxfId="6">
+      <calculatedColumnFormula>OFFSET(table_4_3[[dir_out]:[dir_out]], table_7_5[[#This Row],[index]] - 1, 0, 1, 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{6D8CC942-572B-44F2-BCA6-4D31A25A4067}" name="command" dataDxfId="48">
-      <calculatedColumnFormula>_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/", table_6_4[[#This Row],[dir]], " -o ", graph, " --crop_y 0.15,0.85")</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{58F5EC27-BD76-45AE-8D38-F4E705EF79E9}" name="table_6_5" displayName="table_6_5" ref="A33:C41" totalsRowShown="0" headerRowDxfId="55">
-  <autoFilter ref="A33:C41" xr:uid="{58F5EC27-BD76-45AE-8D38-F4E705EF79E9}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{AAC1476C-44CE-49FD-8254-50BAEAA6929C}" name="index" dataDxfId="54"/>
-    <tableColumn id="4" xr3:uid="{1222E48F-ED5C-48AA-BA39-1443B841BC9F}" name="dir" dataDxfId="47">
-      <calculatedColumnFormula>table_4_3[[#This Row],[dir_out]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="6" xr3:uid="{89B7E589-2097-43FC-B96B-19D2EF777E97}" name="command_main_data_combined" dataDxfId="46">
-      <calculatedColumnFormula>_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/", table_6_5[[#This Row],[dir]], " -o ", graph, " --crop_y 0.15,0.85")</calculatedColumnFormula>
+    <tableColumn id="6" xr3:uid="{89B7E589-2097-43FC-B96B-19D2EF777E97}" name="command_main_data_combined" dataDxfId="3">
+      <calculatedColumnFormula>_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/", table_7_5[[#This Row],[dir]], " -o ", graphs_combined, " --layout_dir ", layouts, "/", OFFSET(table_6_1[[dir_out]:[dir_out]], 2 + QUOTIENT(table_7_5[[#This Row],[index]] - 1, 4), 0, 1, 1))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2432,10 +2389,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{22A90416-B904-4D3D-A6DB-EFCB9FD1EAED}" name="table_1" displayName="table_1" ref="A1:O173" totalsRowShown="0" headerRowDxfId="210">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{22A90416-B904-4D3D-A6DB-EFCB9FD1EAED}" name="table_1" displayName="table_1" ref="A1:O173" totalsRowShown="0" headerRowDxfId="201">
   <autoFilter ref="A1:O173" xr:uid="{22A90416-B904-4D3D-A6DB-EFCB9FD1EAED}"/>
   <tableColumns count="15">
-    <tableColumn id="15" xr3:uid="{A06DA701-31D6-44A5-8655-82CAD7E3082B}" name="index" dataDxfId="117"/>
+    <tableColumn id="15" xr3:uid="{A06DA701-31D6-44A5-8655-82CAD7E3082B}" name="index" dataDxfId="115"/>
     <tableColumn id="1" xr3:uid="{5C1CDEE9-AAC7-4E12-B88F-1314CF422335}" name="library"/>
     <tableColumn id="2" xr3:uid="{D4B174CF-F774-4DA7-B75D-573BC94EE10F}" name="cell"/>
     <tableColumn id="3" xr3:uid="{83898EC9-96DA-46D4-B0B8-F68C7607DCF2}" name="control"/>
@@ -2443,25 +2400,25 @@
     <tableColumn id="5" xr3:uid="{81A143FE-8E74-4182-8124-E697DD5A7C62}" name="hguide"/>
     <tableColumn id="6" xr3:uid="{4A316E6A-69F3-4B78-9C01-4675AEB656FA}" name="treatment"/>
     <tableColumn id="7" xr3:uid="{25B8E763-346D-4756-8B58-D3C8CB103545}" name="strand"/>
-    <tableColumn id="8" xr3:uid="{4B708639-BB19-4DC1-A57D-214FA0EFB1EA}" name="dsb_pos" dataDxfId="209">
+    <tableColumn id="8" xr3:uid="{4B708639-BB19-4DC1-A57D-214FA0EFB1EA}" name="dsb_pos" dataDxfId="200">
       <calculatedColumnFormula array="1">IF(E2="2DSB", IF(H2="R1", 67, 46), IF(E2="1DSB", IF(H2="R1", 67, 46), IF(E2="2DSBanti", IF(H2="R1", 50, 47), NA))) + IF(table_1[[#This Row],[control]]="30bpDown", 30, 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{CCF6021C-1B60-4954-A92E-3F2848564215}" name="file_in" dataDxfId="208">
+    <tableColumn id="9" xr3:uid="{CCF6021C-1B60-4954-A92E-3F2848564215}" name="file_in" dataDxfId="199">
       <calculatedColumnFormula>IF(OR(table_1[[#This Row],[control]]="none", table_1[[#This Row],[control]]="30bpDown"), _xlfn.CONCAT(table_1[[#This Row],[library]], IF(table_1[[#This Row],[dsb_type]] = "2DSBanti", "_anti", ""), "_",table_1[[#This Row],[strand]],"_", IF(LEFT(table_1[[#This Row],[dsb_type]], 1)="2","2DSBs", table_1[[#This Row],[hguide]]), ".sam"), _xlfn.CONCAT(table_1[[#This Row],[library]], "_NHEJ_", IF(table_1[[#This Row],[hguide]]="sgA", "hg39", IF(table_1[[#This Row],[hguide]]="sgB", "hg42", "2DSB")), "_", table_1[[#This Row],[strand]], ".sam"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{58220462-2A11-4DAD-A247-C0871AFCFDB4}" name="file_out" dataDxfId="207">
+    <tableColumn id="10" xr3:uid="{58220462-2A11-4DAD-A247-C0871AFCFDB4}" name="file_out" dataDxfId="198">
       <calculatedColumnFormula>_xlfn.CONCAT(table_1[[#This Row],[library]], "_", table_1[[#This Row],[cell]], "_", table_1[[#This Row],[hguide]], "_", table_1[[#This Row],[strand]], "_", table_1[[#This Row],[treatment]], IF(table_1[[#This Row],[control]]&lt;&gt;"none", _xlfn.CONCAT("_", table_1[[#This Row],[control]]), ""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{775EE7A9-3C78-4568-BF98-500DE451177C}" name="ref" dataDxfId="206">
+    <tableColumn id="11" xr3:uid="{775EE7A9-3C78-4568-BF98-500DE451177C}" name="ref" dataDxfId="197">
       <calculatedColumnFormula>_xlfn.CONCAT(table_1[[#This Row],[dsb_type]],"_", table_1[[#This Row],[strand]],"_", table_1[[#This Row],[treatment]], ".fa")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{5B945FB6-D054-40C4-AAEF-BB50B19F8936}" name="total_reads" dataDxfId="168">
+    <tableColumn id="12" xr3:uid="{5B945FB6-D054-40C4-AAEF-BB50B19F8936}" name="total_reads" dataDxfId="161">
       <calculatedColumnFormula>VLOOKUP(INT(MID(table_1[[#This Row],[library]], 4, 10)), table_1_2[#All], IF(table_1[[#This Row],[strand]]="R1", 3, 4))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{66485B06-471E-47D3-BA91-FC751F58FA5A}" name="min_length" dataDxfId="205">
+    <tableColumn id="13" xr3:uid="{66485B06-471E-47D3-BA91-FC751F58FA5A}" name="min_length" dataDxfId="196">
       <calculatedColumnFormula>IF(LEFT(table_1[[#This Row],[dsb_type]], 1) = "2", 50, 130)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{DF3C46EA-690D-4E6A-99CF-BBC2B2F74AFF}" name="command_filter_nhej" dataDxfId="181">
+    <tableColumn id="14" xr3:uid="{DF3C46EA-690D-4E6A-99CF-BBC2B2F74AFF}" name="command_filter_nhej" dataDxfId="174">
       <calculatedColumnFormula>_xlfn.CONCAT("python 1_process_nhej/filter_nhej.py", " -sam ", libraries_1, "/", table_1[[#This Row],[file_in]], " -ref ref_seq/", table_1[[#This Row],[ref]], " -o ", libraries_2, "/", table_1[[#This Row],[file_out]], ".tsv", " --min_length ", table_1[[#This Row],[min_length]], " -dsb ", table_1[[#This Row],[dsb_pos]], " --quiet")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2470,38 +2427,38 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DE05925F-1FF6-4367-AF1E-BAECCA464E36}" name="table_2_1" displayName="table_2_1" ref="A1:S41" totalsRowShown="0" headerRowDxfId="204">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DE05925F-1FF6-4367-AF1E-BAECCA464E36}" name="table_2_1" displayName="table_2_1" ref="A1:S41" totalsRowShown="0" headerRowDxfId="195">
   <autoFilter ref="A1:S41" xr:uid="{DE05925F-1FF6-4367-AF1E-BAECCA464E36}"/>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{C373869E-A92E-4B06-B8E5-C5A873420ED4}" name="index" dataDxfId="203"/>
-    <tableColumn id="2" xr3:uid="{A28AAC50-FA09-494A-B052-8489F07A5A70}" name="ref" dataDxfId="128">
+    <tableColumn id="1" xr3:uid="{C373869E-A92E-4B06-B8E5-C5A873420ED4}" name="index" dataDxfId="194"/>
+    <tableColumn id="2" xr3:uid="{A28AAC50-FA09-494A-B052-8489F07A5A70}" name="ref" dataDxfId="126">
       <calculatedColumnFormula>OFFSET(table_1[ref], 4 * (table_2_1[[#This Row],[index]] - 1), 0, 1, 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{07D57089-9737-4983-8884-C4ACCDCFF6CB}" name="control" dataDxfId="127">
+    <tableColumn id="18" xr3:uid="{07D57089-9737-4983-8884-C4ACCDCFF6CB}" name="control" dataDxfId="125">
       <calculatedColumnFormula>OFFSET(table_1[control], 4 * (table_2_1[[#This Row],[index]] - 1), 0, 1, 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{C6423FEA-272F-48D3-BC6A-909FCA937DA9}" name="dsb_type" dataDxfId="126">
+    <tableColumn id="19" xr3:uid="{C6423FEA-272F-48D3-BC6A-909FCA937DA9}" name="dsb_type" dataDxfId="124">
       <calculatedColumnFormula>OFFSET(table_1[dsb_type], 4 * (table_2_1[[#This Row],[index]] - 1), 0, 1, 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{B8F61088-5FFA-4860-BF4E-1BFB301A31D9}" name="dsb_pos" dataDxfId="125">
+    <tableColumn id="3" xr3:uid="{B8F61088-5FFA-4860-BF4E-1BFB301A31D9}" name="dsb_pos" dataDxfId="123">
       <calculatedColumnFormula>OFFSET(table_1[dsb_pos], 4 * (table_2_1[[#This Row],[index]] - 1), 0, 1, 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{524D5B3D-BB20-420D-B7E9-93A7F77CA728}" name="cell" dataDxfId="124">
+    <tableColumn id="4" xr3:uid="{524D5B3D-BB20-420D-B7E9-93A7F77CA728}" name="cell" dataDxfId="122">
       <calculatedColumnFormula>OFFSET(table_1[cell], 4 * (table_2_1[[#This Row],[index]] - 1), 0, 1, 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{CC918D20-5D79-4223-9717-2CA0EFFA213F}" name="strand" dataDxfId="123">
+    <tableColumn id="5" xr3:uid="{CC918D20-5D79-4223-9717-2CA0EFFA213F}" name="strand" dataDxfId="121">
       <calculatedColumnFormula>OFFSET(table_1[strand], 4 * (table_2_1[[#This Row],[index]] - 1), 0, 1, 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{B2851465-D533-4787-80C4-E844BB2ABB8C}" name="treatment" dataDxfId="122">
+    <tableColumn id="6" xr3:uid="{B2851465-D533-4787-80C4-E844BB2ABB8C}" name="treatment" dataDxfId="120">
       <calculatedColumnFormula>OFFSET(table_1[treatment], 4 * (table_2_1[[#This Row],[index]] - 1), 0, 1, 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{849BE448-7739-4815-A2C5-5843F62D83D7}" name="hguide" dataDxfId="121">
+    <tableColumn id="7" xr3:uid="{849BE448-7739-4815-A2C5-5843F62D83D7}" name="hguide" dataDxfId="119">
       <calculatedColumnFormula>OFFSET(table_1[hguide], 4 * (table_2_1[[#This Row],[index]] - 1), 0, 1, 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{343716D9-C3A9-4F90-A58A-42B1B9C79EBF}" name="output_dir" dataDxfId="195">
+    <tableColumn id="8" xr3:uid="{343716D9-C3A9-4F90-A58A-42B1B9C79EBF}" name="output_dir" dataDxfId="186">
       <calculatedColumnFormula>_xlfn.CONCAT(table_2_1[[#This Row],[cell]], "_", table_2_1[[#This Row],[hguide]], "_", table_2_1[[#This Row],[strand]], "_", table_2_1[[#This Row],[treatment]], IF(table_2_1[[#This Row],[control]]&lt;&gt;"none",_xlfn.CONCAT("_", table_2_1[[#This Row],[control]]), ""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{D29558AA-D418-4CDD-81AE-A987E7BC501D}" name="input_1" dataDxfId="120">
+    <tableColumn id="9" xr3:uid="{D29558AA-D418-4CDD-81AE-A987E7BC501D}" name="input_1" dataDxfId="118">
       <calculatedColumnFormula array="1">OFFSET(table_1[[file_out]:[file_out]], 4 * (table_2_1[[#This Row],[index]:[index]] - 1) + COLUMN() - 11, 0, 1, 1)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="22" xr3:uid="{3F29C0D1-58A3-430E-AAAA-9F679DCA46D6}" name="input_2">
@@ -2513,19 +2470,19 @@
     <tableColumn id="20" xr3:uid="{28521A62-94B3-4C7C-AF90-F4E2F4163D29}" name="input_4">
       <calculatedColumnFormula array="1">OFFSET(table_1[[file_out]:[file_out]], 4 * (table_2_1[[#This Row],[index]:[index]] - 1) + COLUMN() - 11, 0, 1, 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{E2ABF5A3-B032-47F7-9141-9F269EFD9D49}" name="total_reads_1" dataDxfId="119">
+    <tableColumn id="10" xr3:uid="{E2ABF5A3-B032-47F7-9141-9F269EFD9D49}" name="total_reads_1" dataDxfId="117">
       <calculatedColumnFormula array="1">OFFSET(table_1[[total_reads]:[total_reads]], 4 * (table_2_1[[#This Row],[index]:[index]] - 1) + COLUMN() - 15, 0, 1, 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{C7B1BE14-3BD6-413B-8575-DE9712F9761A}" name="total_reads_2" dataDxfId="202">
+    <tableColumn id="12" xr3:uid="{C7B1BE14-3BD6-413B-8575-DE9712F9761A}" name="total_reads_2" dataDxfId="193">
       <calculatedColumnFormula array="1">OFFSET(table_1[[total_reads]:[total_reads]], 4 * (table_2_1[[#This Row],[index]:[index]] - 1) + COLUMN() - 15, 0, 1, 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{6A8CE344-45B9-42E3-95D8-8EB6A485D968}" name="total_reads_3" dataDxfId="201">
+    <tableColumn id="14" xr3:uid="{6A8CE344-45B9-42E3-95D8-8EB6A485D968}" name="total_reads_3" dataDxfId="192">
       <calculatedColumnFormula array="1">OFFSET(table_1[[total_reads]:[total_reads]], 4 * (table_2_1[[#This Row],[index]:[index]] - 1) + COLUMN() - 15, 0, 1, 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{AC170216-9CAE-43B8-A8E2-8FE1529F6D55}" name="total_reads_4" dataDxfId="200">
+    <tableColumn id="16" xr3:uid="{AC170216-9CAE-43B8-A8E2-8FE1529F6D55}" name="total_reads_4" dataDxfId="191">
       <calculatedColumnFormula array="1">OFFSET(table_1[[total_reads]:[total_reads]], 4 * (table_2_1[[#This Row],[index]:[index]] - 1) + COLUMN() - 15, 0, 1, 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{A285A0DD-6F6D-404D-AE2A-0D1FC3DDB459}" name="command" dataDxfId="118">
+    <tableColumn id="17" xr3:uid="{A285A0DD-6F6D-404D-AE2A-0D1FC3DDB459}" name="command" dataDxfId="116">
       <calculatedColumnFormula>_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -i ", libraries_2, "/", table_2_1[[#This Row],[input_1]], ".tsv ", libraries_2, "/",table_2_1[[#This Row],[input_2]], ".tsv ", libraries_2, "/", table_2_1[[#This Row],[input_3]], ".tsv ", libraries_4, "/", table_2_1[[#This Row],[input_4]], ".tsv --total_reads ", table_2_1[[#This Row],[total_reads_1]], " ", table_2_1[[#This Row],[total_reads_2]], " ", table_2_1[[#This Row],[total_reads_3]], " ", table_2_1[[#This Row],[total_reads_4]], " -o ", libraries_3, "/", table_2_1[[#This Row],[output_dir]], ".tsv", " --quiet ")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2537,41 +2494,41 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{7D969AC7-2D2F-45B0-BA99-D174130B0A52}" name="table_2_2" displayName="table_2_2" ref="A44:M56" totalsRowShown="0">
   <autoFilter ref="A44:M56" xr:uid="{7D969AC7-2D2F-45B0-BA99-D174130B0A52}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{D612E3DF-AA8E-4EE0-9306-7903B4821992}" name="index" dataDxfId="191"/>
-    <tableColumn id="2" xr3:uid="{B00239B6-16E0-4472-B8C9-F25D625D21DD}" name="ref" dataDxfId="116">
+    <tableColumn id="1" xr3:uid="{D612E3DF-AA8E-4EE0-9306-7903B4821992}" name="index" dataDxfId="182"/>
+    <tableColumn id="2" xr3:uid="{B00239B6-16E0-4472-B8C9-F25D625D21DD}" name="ref" dataDxfId="114">
       <calculatedColumnFormula>OFFSET(table_1[ref], table_2_2[[#This Row],[index]] +  var_2_nodsb_offset - 1, 0, 1, 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{47FE94A7-C208-4138-B063-127D4AE215A0}" name="control" dataDxfId="115">
+    <tableColumn id="3" xr3:uid="{47FE94A7-C208-4138-B063-127D4AE215A0}" name="control" dataDxfId="113">
       <calculatedColumnFormula>OFFSET(table_1[control], table_2_2[[#This Row],[index]] +  var_2_nodsb_offset - 1, 0, 1, 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{43B4F550-AB35-4206-AAAB-820BBA723DEA}" name="dsb_type" dataDxfId="114">
+    <tableColumn id="4" xr3:uid="{43B4F550-AB35-4206-AAAB-820BBA723DEA}" name="dsb_type" dataDxfId="112">
       <calculatedColumnFormula>OFFSET(table_1[dsb_type], table_2_2[[#This Row],[index]] +  var_2_nodsb_offset - 1, 0, 1, 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{7233C674-8249-48C9-814C-599A94DF6097}" name="dsb_pos" dataDxfId="113">
+    <tableColumn id="5" xr3:uid="{7233C674-8249-48C9-814C-599A94DF6097}" name="dsb_pos" dataDxfId="111">
       <calculatedColumnFormula>OFFSET(table_1[dsb_pos], table_2_2[[#This Row],[index]] +  var_2_nodsb_offset - 1, 0, 1, 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{8FD419DF-3888-4BC8-ACF7-F31E7AB24754}" name="cell" dataDxfId="112">
+    <tableColumn id="6" xr3:uid="{8FD419DF-3888-4BC8-ACF7-F31E7AB24754}" name="cell" dataDxfId="110">
       <calculatedColumnFormula>OFFSET(table_1[cell], table_2_2[[#This Row],[index]] +  var_2_nodsb_offset - 1, 0, 1, 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{612FF909-1004-49E1-BC8F-F65A8C97EEFC}" name="strand" dataDxfId="111">
+    <tableColumn id="7" xr3:uid="{612FF909-1004-49E1-BC8F-F65A8C97EEFC}" name="strand" dataDxfId="109">
       <calculatedColumnFormula>OFFSET(table_1[strand], table_2_2[[#This Row],[index]] +  var_2_nodsb_offset - 1, 0, 1, 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{C57AB4D7-F308-46D6-8F19-069619F8CF1B}" name="treatment" dataDxfId="110">
+    <tableColumn id="8" xr3:uid="{C57AB4D7-F308-46D6-8F19-069619F8CF1B}" name="treatment" dataDxfId="108">
       <calculatedColumnFormula>OFFSET(table_1[treatment], table_2_2[[#This Row],[index]] +  var_2_nodsb_offset - 1, 0, 1, 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{27DAC4C9-BDB2-4621-A4F1-0094D063284E}" name="hguide" dataDxfId="109">
+    <tableColumn id="9" xr3:uid="{27DAC4C9-BDB2-4621-A4F1-0094D063284E}" name="hguide" dataDxfId="107">
       <calculatedColumnFormula>OFFSET(table_1[hguide], table_2_2[[#This Row],[index]] +  var_2_nodsb_offset - 1, 0, 1, 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{E0E9E8C1-4E85-4EFB-8220-84140FBAAF8E}" name="output_dir" dataDxfId="108">
+    <tableColumn id="10" xr3:uid="{E0E9E8C1-4E85-4EFB-8220-84140FBAAF8E}" name="output_dir" dataDxfId="106">
       <calculatedColumnFormula>_xlfn.CONCAT(table_2_2[[#This Row],[cell]], "_", table_2_2[[#This Row],[hguide]], "_", table_2_2[[#This Row],[strand]], "_", table_2_2[[#This Row],[treatment]], "_nodsb")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{CAC474F1-3930-4766-B491-65C86C5752E8}" name="input" dataDxfId="107">
+    <tableColumn id="11" xr3:uid="{CAC474F1-3930-4766-B491-65C86C5752E8}" name="input" dataDxfId="105">
       <calculatedColumnFormula>OFFSET(table_1[file_out], table_2_2[[#This Row],[index]] +  var_2_nodsb_offset - 1, 0, 1, 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{BB84920E-3487-4670-93ED-5671EACD3061}" name="total_reads" dataDxfId="106">
+    <tableColumn id="12" xr3:uid="{BB84920E-3487-4670-93ED-5671EACD3061}" name="total_reads" dataDxfId="104">
       <calculatedColumnFormula>OFFSET(table_1[total_reads], table_2_2[[#This Row],[index]] +  var_2_nodsb_offset - 1, 0, 1, 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{0CE6DAF6-0C4C-4EC5-8FE5-9B3840A02412}" name="command" dataDxfId="180">
+    <tableColumn id="13" xr3:uid="{0CE6DAF6-0C4C-4EC5-8FE5-9B3840A02412}" name="command" dataDxfId="173">
       <calculatedColumnFormula>_xlfn.CONCAT("python 1_process_nhej/combine_repeats.py -i ", libraries_2, "/", table_2_2[[#This Row],[input]], ".tsv ", " --total_reads ", table_2_2[[#This Row],[total_reads]], " -o ", libraries_3, "/", table_2_2[[#This Row],[output_dir]], ".tsv", " --quiet ")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2580,47 +2537,47 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{5C7BFDB7-8825-4FA5-A5E3-550303D41F99}" name="table_3_1" displayName="table_3_1" ref="A1:N41" totalsRowShown="0" headerRowDxfId="199">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{5C7BFDB7-8825-4FA5-A5E3-550303D41F99}" name="table_3_1" displayName="table_3_1" ref="A1:N41" totalsRowShown="0" headerRowDxfId="190">
   <autoFilter ref="A1:N41" xr:uid="{5C7BFDB7-8825-4FA5-A5E3-550303D41F99}"/>
   <tableColumns count="14">
-    <tableColumn id="25" xr3:uid="{93D2F09B-24D5-4FE1-BF34-C037E361889F}" name="index" dataDxfId="198"/>
-    <tableColumn id="1" xr3:uid="{2F28DC66-449D-4F81-AA63-8F24B25F33D1}" name="dir" dataDxfId="151">
+    <tableColumn id="25" xr3:uid="{93D2F09B-24D5-4FE1-BF34-C037E361889F}" name="index" dataDxfId="189"/>
+    <tableColumn id="1" xr3:uid="{2F28DC66-449D-4F81-AA63-8F24B25F33D1}" name="dir" dataDxfId="149">
       <calculatedColumnFormula>OFFSET(table_2_1[output_dir], table_3_1[[#This Row],[index]] - 1, 0, 1, 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{3DF6F698-1F9A-4B05-A310-657CCFCE9F66}" name="control" dataDxfId="150">
+    <tableColumn id="13" xr3:uid="{3DF6F698-1F9A-4B05-A310-657CCFCE9F66}" name="control" dataDxfId="148">
       <calculatedColumnFormula>OFFSET(table_2_1[control], table_3_1[[#This Row],[index]] - 1, 0, 1, 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{362C2395-52F7-4A62-B7BA-2DD97ED5E6FB}" name="ref" dataDxfId="149">
+    <tableColumn id="2" xr3:uid="{362C2395-52F7-4A62-B7BA-2DD97ED5E6FB}" name="ref" dataDxfId="147">
       <calculatedColumnFormula>OFFSET(table_2_1[ref], table_3_1[[#This Row],[index]] - 1, 0, 1, 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{5F0895D9-2EF2-4524-8BC7-15A33FE68636}" name="dsb_pos" dataDxfId="148">
+    <tableColumn id="3" xr3:uid="{5F0895D9-2EF2-4524-8BC7-15A33FE68636}" name="dsb_pos" dataDxfId="146">
       <calculatedColumnFormula>OFFSET(table_2_1[dsb_pos], table_3_1[[#This Row],[index]] - 1, 0, 1, 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{C6D28829-46E6-4D97-8EA4-0AD12EF6CF10}" name="dsb_type" dataDxfId="147">
+    <tableColumn id="4" xr3:uid="{C6D28829-46E6-4D97-8EA4-0AD12EF6CF10}" name="dsb_type" dataDxfId="145">
       <calculatedColumnFormula>OFFSET(table_2_1[dsb_type], table_3_1[[#This Row],[index]] - 1, 0, 1, 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{E8B2E211-C273-4602-86F0-60EA4259B7A4}" name="dsb_type_command" dataDxfId="197">
+    <tableColumn id="12" xr3:uid="{E8B2E211-C273-4602-86F0-60EA4259B7A4}" name="dsb_type_command" dataDxfId="188">
       <calculatedColumnFormula array="1">IF(table_3_1[[#This Row],[dsb_type]]="2DSB", "2", IF(table_3_1[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(table_3_1[[#This Row],[dsb_type]]="1DSB", "1", NA)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{15578E86-B7BE-4D8E-8FD4-E6C9C4F35C9C}" name="strand" dataDxfId="146">
+    <tableColumn id="5" xr3:uid="{15578E86-B7BE-4D8E-8FD4-E6C9C4F35C9C}" name="strand" dataDxfId="144">
       <calculatedColumnFormula>OFFSET(table_2_1[strand], table_3_1[[#This Row],[index]] - 1, 0, 1, 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{3366AC40-6578-4797-B607-19265E7DBF5C}" name="hguide" dataDxfId="145">
+    <tableColumn id="6" xr3:uid="{3366AC40-6578-4797-B607-19265E7DBF5C}" name="hguide" dataDxfId="143">
       <calculatedColumnFormula>MID(OFFSET(table_2_1[hguide], table_3_1[[#This Row],[index]] - 1, 0, 1, 1), 3, 100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{554F4E79-98DE-474B-A5C8-D4B536772E95}" name="cell" dataDxfId="144">
+    <tableColumn id="7" xr3:uid="{554F4E79-98DE-474B-A5C8-D4B536772E95}" name="cell" dataDxfId="142">
       <calculatedColumnFormula>OFFSET(table_2_1[cell], table_3_1[[#This Row],[index]] - 1, 0, 1, 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{32FC5061-DD85-4234-9ED8-FEAF6D9E3BC0}" name="treatment" dataDxfId="143">
+    <tableColumn id="8" xr3:uid="{32FC5061-DD85-4234-9ED8-FEAF6D9E3BC0}" name="treatment" dataDxfId="141">
       <calculatedColumnFormula>OFFSET(table_2_1[treatment], table_3_1[[#This Row],[index]] - 1, 0, 1, 1)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" xr3:uid="{DB6998A3-1431-4DDD-8DA0-525B805BF436}" name="subst_type">
       <calculatedColumnFormula>subst_type</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{367B0912-E7A8-4430-962D-4F79EE14E5EA}" name="command_main_data" dataDxfId="174">
+    <tableColumn id="10" xr3:uid="{367B0912-E7A8-4430-962D-4F79EE14E5EA}" name="command_main_data" dataDxfId="167">
       <calculatedColumnFormula>_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", libraries_3, "/",table_3_1[[#This Row],[dir]], ".tsv -o ", libraries_4, "/", table_3_1[[#This Row],[dir]], " -ref ref_seq/", table_3_1[[#This Row],[ref]], " -dsb ", table_3_1[[#This Row],[dsb_pos]], " --dsb_type ",table_3_1[[#This Row],[dsb_type_command]], " --strand ", table_3_1[[#This Row],[strand]], " --hguide ", table_3_1[[#This Row],[hguide]], " --cell ", table_3_1[[#This Row],[cell]], " --treatment ", table_3_1[[#This Row],[treatment]], " --subst_type ", table_3_1[[#This Row],[subst_type]], " --control ", table_3_1[[#This Row],[control]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{4A65279E-321E-4E3E-8383-26D448C2012F}" name="command_graph_data" dataDxfId="179">
+    <tableColumn id="11" xr3:uid="{4A65279E-321E-4E3E-8383-26D448C2012F}" name="command_graph_data" dataDxfId="172">
       <calculatedColumnFormula>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", table_3_1[[#This Row],[subst_type]], " -dir ", libraries_4, "/", table_3_1[[#This Row],[dir]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2629,47 +2586,47 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{D5160C95-D2BA-47CB-B22B-E91EC7D3F498}" name="table_3_2" displayName="table_3_2" ref="A43:N55" totalsRowShown="0" headerRowDxfId="142">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{D5160C95-D2BA-47CB-B22B-E91EC7D3F498}" name="table_3_2" displayName="table_3_2" ref="A43:N55" totalsRowShown="0" headerRowDxfId="140">
   <autoFilter ref="A43:N55" xr:uid="{D5160C95-D2BA-47CB-B22B-E91EC7D3F498}"/>
   <tableColumns count="14">
-    <tableColumn id="25" xr3:uid="{B2894846-EBB9-47DC-8DE1-7F1DA571A0B9}" name="index" dataDxfId="141"/>
-    <tableColumn id="1" xr3:uid="{98269DFC-71F0-4066-B063-59597431C1C3}" name="dir" dataDxfId="137">
+    <tableColumn id="25" xr3:uid="{B2894846-EBB9-47DC-8DE1-7F1DA571A0B9}" name="index" dataDxfId="139"/>
+    <tableColumn id="1" xr3:uid="{98269DFC-71F0-4066-B063-59597431C1C3}" name="dir" dataDxfId="135">
       <calculatedColumnFormula>OFFSET(table_2_2[output_dir], table_3_2[[#This Row],[index]] - 1, 0, 1, 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{EB55B964-D8E2-4E0C-B7CF-07043E026664}" name="control" dataDxfId="136">
+    <tableColumn id="13" xr3:uid="{EB55B964-D8E2-4E0C-B7CF-07043E026664}" name="control" dataDxfId="134">
       <calculatedColumnFormula>OFFSET(table_2_2[control], table_3_2[[#This Row],[index]] - 1, 0, 1, 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{7A83EC55-03CE-4608-92D6-6F1C53B539FE}" name="ref" dataDxfId="135">
+    <tableColumn id="2" xr3:uid="{7A83EC55-03CE-4608-92D6-6F1C53B539FE}" name="ref" dataDxfId="133">
       <calculatedColumnFormula>OFFSET(table_2_2[ref], table_3_2[[#This Row],[index]] - 1, 0, 1, 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{13E984FC-9FD2-479F-AB4C-B74DDF5FD234}" name="dsb_pos" dataDxfId="134">
+    <tableColumn id="3" xr3:uid="{13E984FC-9FD2-479F-AB4C-B74DDF5FD234}" name="dsb_pos" dataDxfId="132">
       <calculatedColumnFormula>OFFSET(table_2_2[dsb_pos], table_3_2[[#This Row],[index]] - 1, 0, 1, 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{EF0F2447-2FA1-4517-A5CE-D8DDAAC8D3F2}" name="dsb_type" dataDxfId="133">
+    <tableColumn id="4" xr3:uid="{EF0F2447-2FA1-4517-A5CE-D8DDAAC8D3F2}" name="dsb_type" dataDxfId="131">
       <calculatedColumnFormula>OFFSET(table_2_2[dsb_type], table_3_2[[#This Row],[index]] - 1, 0, 1, 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{A1849AE1-952B-42B5-99EE-20BD2E4C5A6A}" name="dsb_type_command" dataDxfId="140">
+    <tableColumn id="12" xr3:uid="{A1849AE1-952B-42B5-99EE-20BD2E4C5A6A}" name="dsb_type_command" dataDxfId="138">
       <calculatedColumnFormula array="1">IF(table_3_2[[#This Row],[dsb_type]]="2DSB", "2", IF(table_3_2[[#This Row],[dsb_type]]="2DSBanti", "2a", IF(table_3_2[[#This Row],[dsb_type]]="1DSB", "1", NA)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{625E12FC-BF17-4E65-99DB-EDD53FEF055D}" name="strand" dataDxfId="132">
+    <tableColumn id="5" xr3:uid="{625E12FC-BF17-4E65-99DB-EDD53FEF055D}" name="strand" dataDxfId="130">
       <calculatedColumnFormula>OFFSET(table_2_2[strand], table_3_2[[#This Row],[index]] - 1, 0, 1, 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{0ABF747E-328F-4A80-85AA-4AF871C860C1}" name="hguide" dataDxfId="131">
+    <tableColumn id="6" xr3:uid="{0ABF747E-328F-4A80-85AA-4AF871C860C1}" name="hguide" dataDxfId="129">
       <calculatedColumnFormula>MID(OFFSET(table_2_2[hguide], table_3_2[[#This Row],[index]] - 1, 0, 1, 1), 3, 100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{29D6C48B-05B8-42C6-88A9-0939BC454FE0}" name="cell" dataDxfId="130">
+    <tableColumn id="7" xr3:uid="{29D6C48B-05B8-42C6-88A9-0939BC454FE0}" name="cell" dataDxfId="128">
       <calculatedColumnFormula>OFFSET(table_2_2[cell], table_3_2[[#This Row],[index]] - 1, 0, 1, 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{BD269EBE-94A9-4B57-B984-C7566AC259DE}" name="treatment" dataDxfId="129">
+    <tableColumn id="8" xr3:uid="{BD269EBE-94A9-4B57-B984-C7566AC259DE}" name="treatment" dataDxfId="127">
       <calculatedColumnFormula>OFFSET(table_2_2[treatment], table_3_2[[#This Row],[index]] - 1, 0, 1, 1)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" xr3:uid="{142C480D-E258-4979-A008-3940A3FE78E4}" name="subst_type">
       <calculatedColumnFormula>subst_type</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{19804410-83AB-479E-A819-2D7449105C25}" name="command_main_data" dataDxfId="139">
+    <tableColumn id="10" xr3:uid="{19804410-83AB-479E-A819-2D7449105C25}" name="command_main_data" dataDxfId="137">
       <calculatedColumnFormula>_xlfn.CONCAT("python 2_graph_processing/make_main_data.py ", "-i ", libraries_3, "/",table_3_2[[#This Row],[dir]], ".tsv -o ", libraries_4, "/", table_3_2[[#This Row],[dir]], " -ref ref_seq/", table_3_2[[#This Row],[ref]], " -dsb ", table_3_2[[#This Row],[dsb_pos]], " --dsb_type ",table_3_2[[#This Row],[dsb_type_command]], " --strand ", table_3_2[[#This Row],[strand]], " --hguide ", table_3_2[[#This Row],[hguide]], " --cell ", table_3_2[[#This Row],[cell]], " --treatment ", table_3_2[[#This Row],[treatment]], " --subst_type ", table_3_2[[#This Row],[subst_type]], " --control ", table_3_2[[#This Row],[control]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{212A69BD-0F88-401C-957F-8B6EC8E55AED}" name="command_graph_data" dataDxfId="138">
+    <tableColumn id="11" xr3:uid="{212A69BD-0F88-401C-957F-8B6EC8E55AED}" name="command_graph_data" dataDxfId="136">
       <calculatedColumnFormula>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", table_3_2[[#This Row],[subst_type]], " -dir ", libraries_4, "/", table_3_2[[#This Row],[dir]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2678,39 +2635,39 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{3ADBC687-3D92-491E-B36B-6CC1BB3B3380}" name="table_4_1" displayName="table_4_1" ref="A1:K25" totalsRowShown="0" headerRowDxfId="196">
-  <autoFilter ref="A1:K25" xr:uid="{3ADBC687-3D92-491E-B36B-6CC1BB3B3380}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{3ADBC687-3D92-491E-B36B-6CC1BB3B3380}" name="table_4_1" displayName="table_4_1" ref="A1:K17" totalsRowShown="0" headerRowDxfId="187">
+  <autoFilter ref="A1:K17" xr:uid="{3ADBC687-3D92-491E-B36B-6CC1BB3B3380}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{B7EC223D-BA24-48F1-9EE3-DC56DEFDE4C2}" name="index" dataDxfId="194"/>
-    <tableColumn id="7" xr3:uid="{D9F1ADDA-18A2-4F81-862D-6B0F786079FF}" name="control" dataDxfId="51">
+    <tableColumn id="1" xr3:uid="{B7EC223D-BA24-48F1-9EE3-DC56DEFDE4C2}" name="index" dataDxfId="185"/>
+    <tableColumn id="7" xr3:uid="{D9F1ADDA-18A2-4F81-862D-6B0F786079FF}" name="control" dataDxfId="50">
       <calculatedColumnFormula>OFFSET(table_3_1[control], 3 * QUOTIENT(table_4_1[[#This Row],[index]] - 1, 2), 0, 1, 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{0EA5A81F-6EA1-4256-9717-03273165F7BF}" name="treatment_1" dataDxfId="160">
+    <tableColumn id="8" xr3:uid="{0EA5A81F-6EA1-4256-9717-03273165F7BF}" name="treatment_1" dataDxfId="157">
       <calculatedColumnFormula>OFFSET(table_3_1[treatment], 3 * QUOTIENT(table_4_1[[#This Row],[index]] - 1, 2), 0, 1, 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{5F6D005A-96D8-4801-93E2-101BAE551BA8}" name="dir_1" dataDxfId="166">
+    <tableColumn id="2" xr3:uid="{5F6D005A-96D8-4801-93E2-101BAE551BA8}" name="dir_1" dataDxfId="159">
       <calculatedColumnFormula>OFFSET(table_3_1[dir], 3 * QUOTIENT(table_4_1[[#This Row],[index]] - 1, 2), 0, 1, 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{C21D1AF7-7ABE-4181-AA2A-42227869A8DD}" name="treatment_2" dataDxfId="152">
+    <tableColumn id="9" xr3:uid="{C21D1AF7-7ABE-4181-AA2A-42227869A8DD}" name="treatment_2" dataDxfId="150">
       <calculatedColumnFormula>OFFSET(table_3_1[treatment], 3 * QUOTIENT(table_4_1[[#This Row],[index]] - 1, 2) + 1 + MOD(table_4_1[[#This Row],[index]] - 1, 2), 0, 1, 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{D66426AC-E0B2-4B07-A4D4-5A74AA033E80}" name="dir_2" dataDxfId="165">
+    <tableColumn id="3" xr3:uid="{D66426AC-E0B2-4B07-A4D4-5A74AA033E80}" name="dir_2" dataDxfId="158">
       <calculatedColumnFormula>OFFSET(table_3_1[dir], 3 * QUOTIENT(table_4_1[[#This Row],[index]] - 1, 2) + 1 + MOD(table_4_1[[#This Row],[index]] - 1, 2), 0, 1, 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{0C8146A0-DC77-4DC4-82FF-74F4C74CF33E}" name="treatments_out" dataDxfId="188">
+    <tableColumn id="10" xr3:uid="{0C8146A0-DC77-4DC4-82FF-74F4C74CF33E}" name="treatments_out" dataDxfId="179">
       <calculatedColumnFormula>_xlfn.CONCAT(table_4_1[[#This Row],[treatment_1]], "_", table_4_1[[#This Row],[treatment_2]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{519A6397-7A3C-4009-B8B9-A71C0B3A591B}" name="dir_out" dataDxfId="187">
+    <tableColumn id="4" xr3:uid="{519A6397-7A3C-4009-B8B9-A71C0B3A591B}" name="dir_out" dataDxfId="178">
       <calculatedColumnFormula>SUBSTITUTE(table_4_1[[#This Row],[dir_1]], table_4_1[[#This Row],[treatment_1]], table_4_1[[#This Row],[treatments_out]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{E1629355-7D02-4819-98A1-EEB3B5FADE18}" name="subst_type" dataDxfId="182">
+    <tableColumn id="5" xr3:uid="{E1629355-7D02-4819-98A1-EEB3B5FADE18}" name="subst_type" dataDxfId="175">
       <calculatedColumnFormula>subst_type</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{BC9117A0-CB6F-4D3C-A0E4-BF8395854D9A}" name="command_main_data_combined" dataDxfId="178">
+    <tableColumn id="6" xr3:uid="{BC9117A0-CB6F-4D3C-A0E4-BF8395854D9A}" name="command_main_data_combined" dataDxfId="171">
       <calculatedColumnFormula>_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", libraries_4, "/", table_4_1[[#This Row],[dir_1]], " ", libraries_4, "/", table_4_1[[#This Row],[dir_2]], " -o ", libraries_4, "/", table_4_1[[#This Row],[dir_out]], " --subst_type ", table_4_1[[#This Row],[subst_type]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{D384013E-9937-4DD8-A36A-43325757359B}" name="command_graph_data" dataDxfId="186">
-      <calculatedColumnFormula>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", table_4_1[[#This Row],[subst_type]], " -dir ", globals!$A$4, "/", table_4_1[[#This Row],[dir_out]])</calculatedColumnFormula>
+    <tableColumn id="11" xr3:uid="{D384013E-9937-4DD8-A36A-43325757359B}" name="command_graph_data" dataDxfId="0">
+      <calculatedColumnFormula>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", table_4_1[[#This Row],[subst_type]], " -dir ", libraries_4, "/", table_4_1[[#This Row],[dir_out]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2718,39 +2675,39 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{44E39C67-02E4-4910-8670-BA7FFCEEEAF8}" name="table_4_2" displayName="table_4_2" ref="A28:K30" totalsRowShown="0" headerRowDxfId="193">
-  <autoFilter ref="A28:K30" xr:uid="{44E39C67-02E4-4910-8670-BA7FFCEEEAF8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{44E39C67-02E4-4910-8670-BA7FFCEEEAF8}" name="table_4_2" displayName="table_4_2" ref="A20:K22" totalsRowShown="0" headerRowDxfId="184">
+  <autoFilter ref="A20:K22" xr:uid="{44E39C67-02E4-4910-8670-BA7FFCEEEAF8}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{7F5A3A15-751D-407C-A035-61B2605E693F}" name="index" dataDxfId="192"/>
-    <tableColumn id="7" xr3:uid="{45863AB0-FD32-49FE-B4BF-F8EE865F7604}" name="control" dataDxfId="50">
+    <tableColumn id="1" xr3:uid="{7F5A3A15-751D-407C-A035-61B2605E693F}" name="index" dataDxfId="183"/>
+    <tableColumn id="7" xr3:uid="{45863AB0-FD32-49FE-B4BF-F8EE865F7604}" name="control" dataDxfId="49">
       <calculatedColumnFormula>OFFSET(table_3_1[control], var_4_anti_offset + 2 * (table_4_2[[#This Row],[index]] - 1), 0, 1, 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{CD16648D-267E-410B-A366-3E12367C037C}" name="treatment_1" dataDxfId="164">
-      <calculatedColumnFormula>OFFSET(table_3_1[treatment], var_4_anti_offset + 2 * (table_4_2[[#This Row],[index]] - 1), 0, 1, 1)</calculatedColumnFormula>
+    <tableColumn id="8" xr3:uid="{CD16648D-267E-410B-A366-3E12367C037C}" name="treatment_1" dataDxfId="11">
+      <calculatedColumnFormula>OFFSET(table_3_1[treatment], var_4_anti_offset - 1 + 2 * (table_4_2[[#This Row],[index]] - 1), 0, 1, 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{10C9F90E-86FD-4BFE-939E-298FD6F69F12}" name="dir_1" dataDxfId="161">
-      <calculatedColumnFormula>OFFSET(table_3_1[dir], var_4_anti_offset + 2 * (table_4_2[[#This Row],[index]] - 1), 0, 1, 1)</calculatedColumnFormula>
+    <tableColumn id="2" xr3:uid="{10C9F90E-86FD-4BFE-939E-298FD6F69F12}" name="dir_1" dataDxfId="10">
+      <calculatedColumnFormula>OFFSET(table_3_1[dir], var_4_anti_offset - 1 + 2 * (table_4_2[[#This Row],[index]] - 1), 0, 1, 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{7AB3E4AB-F43B-4FDE-96D7-FBBB4A8B83BE}" name="treatment_2" dataDxfId="163">
-      <calculatedColumnFormula>OFFSET(table_3_1[treatment], var_4_anti_offset + 2 * (table_4_2[[#This Row],[index]] - 1) + 1, 0, 1, 1)</calculatedColumnFormula>
+    <tableColumn id="9" xr3:uid="{7AB3E4AB-F43B-4FDE-96D7-FBBB4A8B83BE}" name="treatment_2" dataDxfId="9">
+      <calculatedColumnFormula>OFFSET(table_3_1[treatment], var_4_anti_offset - 1 + 2 * (table_4_2[[#This Row],[index]] - 1) + 1, 0, 1, 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{BF948A3E-9649-41BF-A7E7-57BFDE810FE9}" name="dir_2" dataDxfId="162">
-      <calculatedColumnFormula>OFFSET(table_3_1[dir], var_4_anti_offset + 2 * (table_4_2[[#This Row],[index]] - 1) + 1, 0, 1, 1)</calculatedColumnFormula>
+    <tableColumn id="3" xr3:uid="{BF948A3E-9649-41BF-A7E7-57BFDE810FE9}" name="dir_2" dataDxfId="8">
+      <calculatedColumnFormula>OFFSET(table_3_1[dir], var_4_anti_offset - 1 + 2 * (table_4_2[[#This Row],[index]] - 1) + 1, 0, 1, 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{378119E5-F021-4785-A653-4D632F029AA6}" name="treatments_out" dataDxfId="189">
+    <tableColumn id="10" xr3:uid="{378119E5-F021-4785-A653-4D632F029AA6}" name="treatments_out" dataDxfId="180">
       <calculatedColumnFormula>_xlfn.CONCAT(table_4_2[[#This Row],[treatment_1]], "_", table_4_2[[#This Row],[treatment_2]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{AE1A14DC-D0C9-4818-B8CC-09A571E73BC2}" name="dir_out" dataDxfId="190">
+    <tableColumn id="4" xr3:uid="{AE1A14DC-D0C9-4818-B8CC-09A571E73BC2}" name="dir_out" dataDxfId="181">
       <calculatedColumnFormula>SUBSTITUTE(table_4_2[[#This Row],[dir_1]], table_4_2[[#This Row],[treatment_1]], table_4_2[[#This Row],[treatments_out]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{F29DAC4E-FEC5-4C1D-AAC1-7CE19E401F25}" name="subst_type">
       <calculatedColumnFormula>subst_type</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{DC4E99F4-97AB-4553-A5FB-D20D3D487947}" name="command_main_data_combined" dataDxfId="177">
+    <tableColumn id="6" xr3:uid="{DC4E99F4-97AB-4553-A5FB-D20D3D487947}" name="command_main_data_combined" dataDxfId="170">
       <calculatedColumnFormula>_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", libraries_4, "/", table_4_2[[#This Row],[dir_1]], " ", libraries_4, "/", table_4_2[[#This Row],[dir_2]], " -o ", libraries_4, "/", table_4_2[[#This Row],[dir_out]], " --subst_type ", table_4_2[[#This Row],[subst_type]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{E19D3001-2E76-4CC2-BF33-D0465C77D538}" name="command_graph_data" dataDxfId="185">
-      <calculatedColumnFormula>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", table_4_2[[#This Row],[subst_type]], " -dir ", globals!$A$4, "/", table_4_2[[#This Row],[dir_out]])</calculatedColumnFormula>
+    <tableColumn id="11" xr3:uid="{E19D3001-2E76-4CC2-BF33-D0465C77D538}" name="command_graph_data" dataDxfId="2">
+      <calculatedColumnFormula>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", table_4_2[[#This Row],[subst_type]], " -dir ", libraries_4, "/", table_4_2[[#This Row],[dir_out]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2758,39 +2715,39 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{7D35E6FC-E7CD-464B-90E4-DB03DC258109}" name="table_4_3" displayName="table_4_3" ref="A33:K41" totalsRowShown="0" headerRowDxfId="159">
-  <autoFilter ref="A33:K41" xr:uid="{7D35E6FC-E7CD-464B-90E4-DB03DC258109}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{7D35E6FC-E7CD-464B-90E4-DB03DC258109}" name="table_4_3" displayName="table_4_3" ref="A25:K33" totalsRowShown="0" headerRowDxfId="156">
+  <autoFilter ref="A25:K33" xr:uid="{7D35E6FC-E7CD-464B-90E4-DB03DC258109}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{33AF3495-7432-4F03-9832-525A370EADEC}" name="index" dataDxfId="158"/>
-    <tableColumn id="7" xr3:uid="{3D66515C-5022-4D48-A834-4320DA4E73F6}" name="control" dataDxfId="102">
+    <tableColumn id="1" xr3:uid="{33AF3495-7432-4F03-9832-525A370EADEC}" name="index" dataDxfId="155"/>
+    <tableColumn id="7" xr3:uid="{3D66515C-5022-4D48-A834-4320DA4E73F6}" name="control" dataDxfId="100">
       <calculatedColumnFormula>OFFSET(table_3_2[control], 3 * QUOTIENT(table_4_3[[#This Row],[index]] - 1, 2), 0, 1, 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{294B17A9-F0F9-42CA-8342-55C00648E3A5}" name="treatment_1" dataDxfId="105">
+    <tableColumn id="8" xr3:uid="{294B17A9-F0F9-42CA-8342-55C00648E3A5}" name="treatment_1" dataDxfId="103">
       <calculatedColumnFormula>OFFSET(table_3_2[treatment], 3 * QUOTIENT(table_4_3[[#This Row],[index]] - 1, 2), 0, 1, 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{E13C38CF-C105-4AB5-8602-7D32E688C737}" name="dir_1" dataDxfId="104">
+    <tableColumn id="2" xr3:uid="{E13C38CF-C105-4AB5-8602-7D32E688C737}" name="dir_1" dataDxfId="102">
       <calculatedColumnFormula>OFFSET(table_3_2[dir], 3 * QUOTIENT(table_4_3[[#This Row],[index]] - 1, 2), 0, 1, 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{15B3CC7F-2A3C-4026-8417-A9DD21E4F004}" name="treatment_2" dataDxfId="45">
+    <tableColumn id="9" xr3:uid="{15B3CC7F-2A3C-4026-8417-A9DD21E4F004}" name="treatment_2" dataDxfId="48">
       <calculatedColumnFormula>OFFSET(table_3_2[treatment], 3 * QUOTIENT(table_4_3[[#This Row],[index]] - 1, 2) + 1 + MOD(table_4_3[[#This Row],[index]] - 1, 2), 0, 1, 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{FF7D9AD3-1A35-4013-88AE-0C00465033CD}" name="dir_2" dataDxfId="103">
+    <tableColumn id="3" xr3:uid="{FF7D9AD3-1A35-4013-88AE-0C00465033CD}" name="dir_2" dataDxfId="101">
       <calculatedColumnFormula>OFFSET(table_3_2[dir], 3 * QUOTIENT(table_4_3[[#This Row],[index]] - 1, 2) + 1 + MOD(table_4_3[[#This Row],[index]] - 1, 2), 0, 1, 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{9353B2D3-0D23-4FBB-AFEC-EB68549160F4}" name="treatments_out" dataDxfId="157">
+    <tableColumn id="10" xr3:uid="{9353B2D3-0D23-4FBB-AFEC-EB68549160F4}" name="treatments_out" dataDxfId="154">
       <calculatedColumnFormula>_xlfn.CONCAT(table_4_3[[#This Row],[treatment_1]], "_", table_4_3[[#This Row],[treatment_2]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{77F1D6F0-DE95-4E63-9E7E-D3CA3CF85F37}" name="dir_out" dataDxfId="156">
+    <tableColumn id="4" xr3:uid="{77F1D6F0-DE95-4E63-9E7E-D3CA3CF85F37}" name="dir_out" dataDxfId="153">
       <calculatedColumnFormula>SUBSTITUTE(table_4_3[[#This Row],[dir_1]], table_4_3[[#This Row],[treatment_1]], table_4_3[[#This Row],[treatments_out]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{BBF4F840-178E-461E-8C17-36D699EDE038}" name="subst_type" dataDxfId="155">
+    <tableColumn id="5" xr3:uid="{BBF4F840-178E-461E-8C17-36D699EDE038}" name="subst_type" dataDxfId="152">
       <calculatedColumnFormula>subst_type</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{9434BF8B-81C5-43DF-BCB7-FA7146BF2FE8}" name="command_main_data_combined" dataDxfId="154">
+    <tableColumn id="6" xr3:uid="{9434BF8B-81C5-43DF-BCB7-FA7146BF2FE8}" name="command_main_data_combined" dataDxfId="151">
       <calculatedColumnFormula>_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", libraries_4, "/", table_4_3[[#This Row],[dir_1]], " ", libraries_4, "/", table_4_3[[#This Row],[dir_2]], " -o ", libraries_4, "/", table_4_3[[#This Row],[dir_out]], " --subst_type ", table_4_3[[#This Row],[subst_type]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{1ABF0B7B-4ECE-42BF-A7D8-EA13E98144EE}" name="command_graph_data" dataDxfId="153">
-      <calculatedColumnFormula>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", table_4_3[[#This Row],[subst_type]], " -dir ", globals!$A$4, "/", table_4_3[[#This Row],[dir_out]])</calculatedColumnFormula>
+    <tableColumn id="11" xr3:uid="{1ABF0B7B-4ECE-42BF-A7D8-EA13E98144EE}" name="command_graph_data" dataDxfId="1">
+      <calculatedColumnFormula>_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", table_4_3[[#This Row],[subst_type]], " -dir ", libraries_4, "/", table_4_3[[#This Row],[dir_out]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3097,7 +3054,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3111,7 +3068,7 @@
         <v>88</v>
       </c>
       <c r="B1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -3131,22 +3088,22 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>105</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -3156,10 +3113,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DFB1CC9-23C4-4E30-93CF-6F31CFACE92F}">
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3178,7 +3135,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>87</v>
@@ -3196,8 +3153,8 @@
         <v>WT_sgAB_R1_sense_branch</v>
       </c>
       <c r="C2" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/", table_6_3[[#This Row],[dir]], " -o ", graph, " --crop_y 0.15,0.85")</f>
-        <v>python 2_graph_processing/plot_graph.py -i libraries_4/WT_sgAB_R1_sense_branch -o plots/graphs --crop_y 0.15,0.85</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/", table_7_3[[#This Row],[dir]], " -o ", graphs_combined, " --layout_dir ", layouts, "/", OFFSET(table_6_1[[dir_out]:[dir_out]], QUOTIENT(table_7_3[[#This Row],[index]] - 1, 4), 0, 1, 1))</f>
+        <v>python 2_graph_processing/plot_graph.py -i libraries_4/WT_sgAB_R1_sense_branch -o plots/graphs/combined --layout_dir layouts/2DSB_R1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -3209,8 +3166,8 @@
         <v>WT_sgAB_R1_sense_cmv</v>
       </c>
       <c r="C3" s="2" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/", table_6_3[[#This Row],[dir]], " -o ", graph, " --crop_y 0.15,0.85")</f>
-        <v>python 2_graph_processing/plot_graph.py -i libraries_4/WT_sgAB_R1_sense_cmv -o plots/graphs --crop_y 0.15,0.85</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/", table_7_3[[#This Row],[dir]], " -o ", graphs_combined, " --layout_dir ", layouts, "/", OFFSET(table_6_1[[dir_out]:[dir_out]], QUOTIENT(table_7_3[[#This Row],[index]] - 1, 4), 0, 1, 1))</f>
+        <v>python 2_graph_processing/plot_graph.py -i libraries_4/WT_sgAB_R1_sense_cmv -o plots/graphs/combined --layout_dir layouts/2DSB_R1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -3222,8 +3179,8 @@
         <v>KO_sgAB_R1_sense_branch</v>
       </c>
       <c r="C4" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/", table_6_3[[#This Row],[dir]], " -o ", graph, " --crop_y 0.15,0.85")</f>
-        <v>python 2_graph_processing/plot_graph.py -i libraries_4/KO_sgAB_R1_sense_branch -o plots/graphs --crop_y 0.15,0.85</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/", table_7_3[[#This Row],[dir]], " -o ", graphs_combined, " --layout_dir ", layouts, "/", OFFSET(table_6_1[[dir_out]:[dir_out]], QUOTIENT(table_7_3[[#This Row],[index]] - 1, 4), 0, 1, 1))</f>
+        <v>python 2_graph_processing/plot_graph.py -i libraries_4/KO_sgAB_R1_sense_branch -o plots/graphs/combined --layout_dir layouts/2DSB_R1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -3235,8 +3192,8 @@
         <v>KO_sgAB_R1_sense_cmv</v>
       </c>
       <c r="C5" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/", table_6_3[[#This Row],[dir]], " -o ", graph, " --crop_y 0.15,0.85")</f>
-        <v>python 2_graph_processing/plot_graph.py -i libraries_4/KO_sgAB_R1_sense_cmv -o plots/graphs --crop_y 0.15,0.85</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/", table_7_3[[#This Row],[dir]], " -o ", graphs_combined, " --layout_dir ", layouts, "/", OFFSET(table_6_1[[dir_out]:[dir_out]], QUOTIENT(table_7_3[[#This Row],[index]] - 1, 4), 0, 1, 1))</f>
+        <v>python 2_graph_processing/plot_graph.py -i libraries_4/KO_sgAB_R1_sense_cmv -o plots/graphs/combined --layout_dir layouts/2DSB_R1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -3248,8 +3205,8 @@
         <v>WT_sgAB_R2_sense_branch</v>
       </c>
       <c r="C6" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/", table_6_3[[#This Row],[dir]], " -o ", graph, " --crop_y 0.15,0.85")</f>
-        <v>python 2_graph_processing/plot_graph.py -i libraries_4/WT_sgAB_R2_sense_branch -o plots/graphs --crop_y 0.15,0.85</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/", table_7_3[[#This Row],[dir]], " -o ", graphs_combined, " --layout_dir ", layouts, "/", OFFSET(table_6_1[[dir_out]:[dir_out]], QUOTIENT(table_7_3[[#This Row],[index]] - 1, 4), 0, 1, 1))</f>
+        <v>python 2_graph_processing/plot_graph.py -i libraries_4/WT_sgAB_R2_sense_branch -o plots/graphs/combined --layout_dir layouts/2DSB_R2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -3261,8 +3218,8 @@
         <v>WT_sgAB_R2_sense_cmv</v>
       </c>
       <c r="C7" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/", table_6_3[[#This Row],[dir]], " -o ", graph, " --crop_y 0.15,0.85")</f>
-        <v>python 2_graph_processing/plot_graph.py -i libraries_4/WT_sgAB_R2_sense_cmv -o plots/graphs --crop_y 0.15,0.85</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/", table_7_3[[#This Row],[dir]], " -o ", graphs_combined, " --layout_dir ", layouts, "/", OFFSET(table_6_1[[dir_out]:[dir_out]], QUOTIENT(table_7_3[[#This Row],[index]] - 1, 4), 0, 1, 1))</f>
+        <v>python 2_graph_processing/plot_graph.py -i libraries_4/WT_sgAB_R2_sense_cmv -o plots/graphs/combined --layout_dir layouts/2DSB_R2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -3274,8 +3231,8 @@
         <v>KO_sgAB_R2_sense_branch</v>
       </c>
       <c r="C8" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/", table_6_3[[#This Row],[dir]], " -o ", graph, " --crop_y 0.15,0.85")</f>
-        <v>python 2_graph_processing/plot_graph.py -i libraries_4/KO_sgAB_R2_sense_branch -o plots/graphs --crop_y 0.15,0.85</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/", table_7_3[[#This Row],[dir]], " -o ", graphs_combined, " --layout_dir ", layouts, "/", OFFSET(table_6_1[[dir_out]:[dir_out]], QUOTIENT(table_7_3[[#This Row],[index]] - 1, 4), 0, 1, 1))</f>
+        <v>python 2_graph_processing/plot_graph.py -i libraries_4/KO_sgAB_R2_sense_branch -o plots/graphs/combined --layout_dir layouts/2DSB_R2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -3287,8 +3244,8 @@
         <v>KO_sgAB_R2_sense_cmv</v>
       </c>
       <c r="C9" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/", table_6_3[[#This Row],[dir]], " -o ", graph, " --crop_y 0.15,0.85")</f>
-        <v>python 2_graph_processing/plot_graph.py -i libraries_4/KO_sgAB_R2_sense_cmv -o plots/graphs --crop_y 0.15,0.85</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/", table_7_3[[#This Row],[dir]], " -o ", graphs_combined, " --layout_dir ", layouts, "/", OFFSET(table_6_1[[dir_out]:[dir_out]], QUOTIENT(table_7_3[[#This Row],[index]] - 1, 4), 0, 1, 1))</f>
+        <v>python 2_graph_processing/plot_graph.py -i libraries_4/KO_sgAB_R2_sense_cmv -o plots/graphs/combined --layout_dir layouts/2DSB_R2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -3300,8 +3257,8 @@
         <v>WT_sgA_R1_sense_branch</v>
       </c>
       <c r="C10" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/", table_6_3[[#This Row],[dir]], " -o ", graph, " --crop_y 0.15,0.85")</f>
-        <v>python 2_graph_processing/plot_graph.py -i libraries_4/WT_sgA_R1_sense_branch -o plots/graphs --crop_y 0.15,0.85</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/", table_7_3[[#This Row],[dir]], " -o ", graphs_combined, " --layout_dir ", layouts, "/", OFFSET(table_6_1[[dir_out]:[dir_out]], QUOTIENT(table_7_3[[#This Row],[index]] - 1, 4), 0, 1, 1))</f>
+        <v>python 2_graph_processing/plot_graph.py -i libraries_4/WT_sgA_R1_sense_branch -o plots/graphs/combined --layout_dir layouts/1DSB_R1</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -3313,8 +3270,8 @@
         <v>WT_sgA_R1_sense_cmv</v>
       </c>
       <c r="C11" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/", table_6_3[[#This Row],[dir]], " -o ", graph, " --crop_y 0.15,0.85")</f>
-        <v>python 2_graph_processing/plot_graph.py -i libraries_4/WT_sgA_R1_sense_cmv -o plots/graphs --crop_y 0.15,0.85</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/", table_7_3[[#This Row],[dir]], " -o ", graphs_combined, " --layout_dir ", layouts, "/", OFFSET(table_6_1[[dir_out]:[dir_out]], QUOTIENT(table_7_3[[#This Row],[index]] - 1, 4), 0, 1, 1))</f>
+        <v>python 2_graph_processing/plot_graph.py -i libraries_4/WT_sgA_R1_sense_cmv -o plots/graphs/combined --layout_dir layouts/1DSB_R1</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -3326,8 +3283,8 @@
         <v>KO_sgA_R1_sense_branch</v>
       </c>
       <c r="C12" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/", table_6_3[[#This Row],[dir]], " -o ", graph, " --crop_y 0.15,0.85")</f>
-        <v>python 2_graph_processing/plot_graph.py -i libraries_4/KO_sgA_R1_sense_branch -o plots/graphs --crop_y 0.15,0.85</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/", table_7_3[[#This Row],[dir]], " -o ", graphs_combined, " --layout_dir ", layouts, "/", OFFSET(table_6_1[[dir_out]:[dir_out]], QUOTIENT(table_7_3[[#This Row],[index]] - 1, 4), 0, 1, 1))</f>
+        <v>python 2_graph_processing/plot_graph.py -i libraries_4/KO_sgA_R1_sense_branch -o plots/graphs/combined --layout_dir layouts/1DSB_R1</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -3339,8 +3296,8 @@
         <v>KO_sgA_R1_sense_cmv</v>
       </c>
       <c r="C13" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/", table_6_3[[#This Row],[dir]], " -o ", graph, " --crop_y 0.15,0.85")</f>
-        <v>python 2_graph_processing/plot_graph.py -i libraries_4/KO_sgA_R1_sense_cmv -o plots/graphs --crop_y 0.15,0.85</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/", table_7_3[[#This Row],[dir]], " -o ", graphs_combined, " --layout_dir ", layouts, "/", OFFSET(table_6_1[[dir_out]:[dir_out]], QUOTIENT(table_7_3[[#This Row],[index]] - 1, 4), 0, 1, 1))</f>
+        <v>python 2_graph_processing/plot_graph.py -i libraries_4/KO_sgA_R1_sense_cmv -o plots/graphs/combined --layout_dir layouts/1DSB_R1</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -3352,8 +3309,8 @@
         <v>WT_sgB_R2_sense_branch</v>
       </c>
       <c r="C14" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/", table_6_3[[#This Row],[dir]], " -o ", graph, " --crop_y 0.15,0.85")</f>
-        <v>python 2_graph_processing/plot_graph.py -i libraries_4/WT_sgB_R2_sense_branch -o plots/graphs --crop_y 0.15,0.85</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/", table_7_3[[#This Row],[dir]], " -o ", graphs_combined, " --layout_dir ", layouts, "/", OFFSET(table_6_1[[dir_out]:[dir_out]], QUOTIENT(table_7_3[[#This Row],[index]] - 1, 4), 0, 1, 1))</f>
+        <v>python 2_graph_processing/plot_graph.py -i libraries_4/WT_sgB_R2_sense_branch -o plots/graphs/combined --layout_dir layouts/1DSB_R2</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -3365,8 +3322,8 @@
         <v>WT_sgB_R2_sense_cmv</v>
       </c>
       <c r="C15" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/", table_6_3[[#This Row],[dir]], " -o ", graph, " --crop_y 0.15,0.85")</f>
-        <v>python 2_graph_processing/plot_graph.py -i libraries_4/WT_sgB_R2_sense_cmv -o plots/graphs --crop_y 0.15,0.85</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/", table_7_3[[#This Row],[dir]], " -o ", graphs_combined, " --layout_dir ", layouts, "/", OFFSET(table_6_1[[dir_out]:[dir_out]], QUOTIENT(table_7_3[[#This Row],[index]] - 1, 4), 0, 1, 1))</f>
+        <v>python 2_graph_processing/plot_graph.py -i libraries_4/WT_sgB_R2_sense_cmv -o plots/graphs/combined --layout_dir layouts/1DSB_R2</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -3378,8 +3335,8 @@
         <v>KO_sgB_R2_sense_branch</v>
       </c>
       <c r="C16" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/", table_6_3[[#This Row],[dir]], " -o ", graph, " --crop_y 0.15,0.85")</f>
-        <v>python 2_graph_processing/plot_graph.py -i libraries_4/KO_sgB_R2_sense_branch -o plots/graphs --crop_y 0.15,0.85</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/", table_7_3[[#This Row],[dir]], " -o ", graphs_combined, " --layout_dir ", layouts, "/", OFFSET(table_6_1[[dir_out]:[dir_out]], QUOTIENT(table_7_3[[#This Row],[index]] - 1, 4), 0, 1, 1))</f>
+        <v>python 2_graph_processing/plot_graph.py -i libraries_4/KO_sgB_R2_sense_branch -o plots/graphs/combined --layout_dir layouts/1DSB_R2</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -3391,275 +3348,166 @@
         <v>KO_sgB_R2_sense_cmv</v>
       </c>
       <c r="C17" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/", table_6_3[[#This Row],[dir]], " -o ", graph, " --crop_y 0.15,0.85")</f>
-        <v>python 2_graph_processing/plot_graph.py -i libraries_4/KO_sgB_R2_sense_cmv -o plots/graphs --crop_y 0.15,0.85</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" t="str">
-        <f ca="1">table_4_1[[#This Row],[dir_out]]</f>
-        <v>WT_sgA_R1_sense_branch_30bpDown</v>
-      </c>
-      <c r="C18" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/", table_6_3[[#This Row],[dir]], " -o ", graph, " --crop_y 0.15,0.85")</f>
-        <v>python 2_graph_processing/plot_graph.py -i libraries_4/WT_sgA_R1_sense_branch_30bpDown -o plots/graphs --crop_y 0.15,0.85</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" t="str">
-        <f ca="1">table_4_1[[#This Row],[dir_out]]</f>
-        <v>WT_sgA_R1_sense_cmv_30bpDown</v>
-      </c>
-      <c r="C19" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/", table_6_3[[#This Row],[dir]], " -o ", graph, " --crop_y 0.15,0.85")</f>
-        <v>python 2_graph_processing/plot_graph.py -i libraries_4/WT_sgA_R1_sense_cmv_30bpDown -o plots/graphs --crop_y 0.15,0.85</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/", table_7_3[[#This Row],[dir]], " -o ", graphs_combined, " --layout_dir ", layouts, "/", OFFSET(table_6_1[[dir_out]:[dir_out]], QUOTIENT(table_7_3[[#This Row],[index]] - 1, 4), 0, 1, 1))</f>
+        <v>python 2_graph_processing/plot_graph.py -i libraries_4/KO_sgB_R2_sense_cmv -o plots/graphs/combined --layout_dir layouts/1DSB_R2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="B20" t="str">
-        <f ca="1">table_4_1[[#This Row],[dir_out]]</f>
-        <v>KO_sgA_R1_sense_branch_30bpDown</v>
+        <f ca="1">OFFSET(table_4_2[[dir_out]:[dir_out]], table_7_4[[#This Row],[index]] - 1, 0, 1, 1)</f>
+        <v>WT_sgCD_R1_antisense_splicing</v>
       </c>
       <c r="C20" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/", table_6_3[[#This Row],[dir]], " -o ", graph, " --crop_y 0.15,0.85")</f>
-        <v>python 2_graph_processing/plot_graph.py -i libraries_4/KO_sgA_R1_sense_branch_30bpDown -o plots/graphs --crop_y 0.15,0.85</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/", table_7_4[[#This Row],[dir]], " -o ", graphs_combined, " --layout_dir ", layouts, "/", OFFSET(table_6_2[[dir_out]:[dir_out]],table_7_4[[#This Row],[index]] - 1, 0, 1, 1))</f>
+        <v>python 2_graph_processing/plot_graph.py -i libraries_4/WT_sgCD_R1_antisense_splicing -o plots/graphs/combined --layout_dir layouts/2DSBanti_R1</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="B21" t="str">
-        <f ca="1">table_4_1[[#This Row],[dir_out]]</f>
-        <v>KO_sgA_R1_sense_cmv_30bpDown</v>
+        <f ca="1">OFFSET(table_4_2[[dir_out]:[dir_out]], table_7_4[[#This Row],[index]] - 1, 0, 1, 1)</f>
+        <v>WT_sgCD_R2_antisense_splicing</v>
       </c>
       <c r="C21" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/", table_6_3[[#This Row],[dir]], " -o ", graph, " --crop_y 0.15,0.85")</f>
-        <v>python 2_graph_processing/plot_graph.py -i libraries_4/KO_sgA_R1_sense_cmv_30bpDown -o plots/graphs --crop_y 0.15,0.85</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/", table_7_4[[#This Row],[dir]], " -o ", graphs_combined, " --layout_dir ", layouts, "/", OFFSET(table_6_2[[dir_out]:[dir_out]],table_7_4[[#This Row],[index]] - 1, 0, 1, 1))</f>
+        <v>python 2_graph_processing/plot_graph.py -i libraries_4/WT_sgCD_R2_antisense_splicing -o plots/graphs/combined --layout_dir layouts/2DSBanti_R2</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" t="str">
-        <f ca="1">table_4_1[[#This Row],[dir_out]]</f>
-        <v>WT_sgB_R2_sense_branch_30bpDown</v>
-      </c>
-      <c r="C22" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/", table_6_3[[#This Row],[dir]], " -o ", graph, " --crop_y 0.15,0.85")</f>
-        <v>python 2_graph_processing/plot_graph.py -i libraries_4/WT_sgB_R2_sense_branch_30bpDown -o plots/graphs --crop_y 0.15,0.85</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23" t="str">
-        <f ca="1">table_4_1[[#This Row],[dir_out]]</f>
-        <v>WT_sgB_R2_sense_cmv_30bpDown</v>
-      </c>
-      <c r="C23" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/", table_6_3[[#This Row],[dir]], " -o ", graph, " --crop_y 0.15,0.85")</f>
-        <v>python 2_graph_processing/plot_graph.py -i libraries_4/WT_sgB_R2_sense_cmv_30bpDown -o plots/graphs --crop_y 0.15,0.85</v>
-      </c>
+      <c r="A22" s="1"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="K22" s="2"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="B24" t="str">
-        <f ca="1">table_4_1[[#This Row],[dir_out]]</f>
-        <v>KO_sgB_R2_sense_branch_30bpDown</v>
-      </c>
-      <c r="C24" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/", table_6_3[[#This Row],[dir]], " -o ", graph, " --crop_y 0.15,0.85")</f>
-        <v>python 2_graph_processing/plot_graph.py -i libraries_4/KO_sgB_R2_sense_branch_30bpDown -o plots/graphs --crop_y 0.15,0.85</v>
+      <c r="A24" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="B25" t="str">
-        <f ca="1">table_4_1[[#This Row],[dir_out]]</f>
-        <v>KO_sgB_R2_sense_cmv_30bpDown</v>
+        <f ca="1">OFFSET(table_4_3[[dir_out]:[dir_out]], table_7_5[[#This Row],[index]] - 1, 0, 1, 1)</f>
+        <v>WT_sgA_R1_sense_branch_nodsb</v>
       </c>
       <c r="C25" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/", table_6_3[[#This Row],[dir]], " -o ", graph, " --crop_y 0.15,0.85")</f>
-        <v>python 2_graph_processing/plot_graph.py -i libraries_4/KO_sgB_R2_sense_cmv_30bpDown -o plots/graphs --crop_y 0.15,0.85</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/", table_7_5[[#This Row],[dir]], " -o ", graphs_combined, " --layout_dir ", layouts, "/", OFFSET(table_6_1[[dir_out]:[dir_out]], 2 + QUOTIENT(table_7_5[[#This Row],[index]] - 1, 4), 0, 1, 1))</f>
+        <v>python 2_graph_processing/plot_graph.py -i libraries_4/WT_sgA_R1_sense_branch_nodsb -o plots/graphs/combined --layout_dir layouts/1DSB_R1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>2</v>
+      </c>
+      <c r="B26" s="2" t="str">
+        <f ca="1">OFFSET(table_4_3[[dir_out]:[dir_out]], table_7_5[[#This Row],[index]] - 1, 0, 1, 1)</f>
+        <v>WT_sgA_R1_sense_cmv_nodsb</v>
+      </c>
+      <c r="C26" s="2" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/", table_7_5[[#This Row],[dir]], " -o ", graphs_combined, " --layout_dir ", layouts, "/", OFFSET(table_6_1[[dir_out]:[dir_out]], 2 + QUOTIENT(table_7_5[[#This Row],[index]] - 1, 4), 0, 1, 1))</f>
+        <v>python 2_graph_processing/plot_graph.py -i libraries_4/WT_sgA_R1_sense_cmv_nodsb -o plots/graphs/combined --layout_dir layouts/1DSB_R1</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>36</v>
+      <c r="A27" s="1">
+        <v>3</v>
+      </c>
+      <c r="B27" t="str">
+        <f ca="1">OFFSET(table_4_3[[dir_out]:[dir_out]], table_7_5[[#This Row],[index]] - 1, 0, 1, 1)</f>
+        <v>KO_sgA_R1_sense_branch_nodsb</v>
+      </c>
+      <c r="C27" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/", table_7_5[[#This Row],[dir]], " -o ", graphs_combined, " --layout_dir ", layouts, "/", OFFSET(table_6_1[[dir_out]:[dir_out]], 2 + QUOTIENT(table_7_5[[#This Row],[index]] - 1, 4), 0, 1, 1))</f>
+        <v>python 2_graph_processing/plot_graph.py -i libraries_4/KO_sgA_R1_sense_branch_nodsb -o plots/graphs/combined --layout_dir layouts/1DSB_R1</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>171</v>
+      <c r="A28" s="1">
+        <v>4</v>
+      </c>
+      <c r="B28" t="str">
+        <f ca="1">OFFSET(table_4_3[[dir_out]:[dir_out]], table_7_5[[#This Row],[index]] - 1, 0, 1, 1)</f>
+        <v>KO_sgA_R1_sense_cmv_nodsb</v>
+      </c>
+      <c r="C28" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/", table_7_5[[#This Row],[dir]], " -o ", graphs_combined, " --layout_dir ", layouts, "/", OFFSET(table_6_1[[dir_out]:[dir_out]], 2 + QUOTIENT(table_7_5[[#This Row],[index]] - 1, 4), 0, 1, 1))</f>
+        <v>python 2_graph_processing/plot_graph.py -i libraries_4/KO_sgA_R1_sense_cmv_nodsb -o plots/graphs/combined --layout_dir layouts/1DSB_R1</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B29" t="str">
-        <f ca="1">table_4_2[[#This Row],[dir_out]]</f>
-        <v>WT_sgCD_R1_antisense_splicing</v>
+        <f ca="1">OFFSET(table_4_3[[dir_out]:[dir_out]], table_7_5[[#This Row],[index]] - 1, 0, 1, 1)</f>
+        <v>WT_sgB_R2_sense_branch_nodsb</v>
       </c>
       <c r="C29" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/", table_6_4[[#This Row],[dir]], " -o ", graph, " --crop_y 0.15,0.85")</f>
-        <v>python 2_graph_processing/plot_graph.py -i libraries_4/WT_sgCD_R1_antisense_splicing -o plots/graphs --crop_y 0.15,0.85</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/", table_7_5[[#This Row],[dir]], " -o ", graphs_combined, " --layout_dir ", layouts, "/", OFFSET(table_6_1[[dir_out]:[dir_out]], 2 + QUOTIENT(table_7_5[[#This Row],[index]] - 1, 4), 0, 1, 1))</f>
+        <v>python 2_graph_processing/plot_graph.py -i libraries_4/WT_sgB_R2_sense_branch_nodsb -o plots/graphs/combined --layout_dir layouts/1DSB_R2</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B30" t="str">
-        <f ca="1">table_4_2[[#This Row],[dir_out]]</f>
-        <v>WT_sgCD_R2_antisense_splicing</v>
+        <f ca="1">OFFSET(table_4_3[[dir_out]:[dir_out]], table_7_5[[#This Row],[index]] - 1, 0, 1, 1)</f>
+        <v>WT_sgB_R2_sense_cmv_nodsb</v>
       </c>
       <c r="C30" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/", table_6_4[[#This Row],[dir]], " -o ", graph, " --crop_y 0.15,0.85")</f>
-        <v>python 2_graph_processing/plot_graph.py -i libraries_4/WT_sgCD_R2_antisense_splicing -o plots/graphs --crop_y 0.15,0.85</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/", table_7_5[[#This Row],[dir]], " -o ", graphs_combined, " --layout_dir ", layouts, "/", OFFSET(table_6_1[[dir_out]:[dir_out]], 2 + QUOTIENT(table_7_5[[#This Row],[index]] - 1, 4), 0, 1, 1))</f>
+        <v>python 2_graph_processing/plot_graph.py -i libraries_4/WT_sgB_R2_sense_cmv_nodsb -o plots/graphs/combined --layout_dir layouts/1DSB_R2</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="K31" s="2"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>1</v>
-      </c>
-      <c r="B34" t="str">
-        <f ca="1">table_4_3[[#This Row],[dir_out]]</f>
-        <v>WT_sgA_R1_sense_branch_nodsb</v>
-      </c>
-      <c r="C34" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/", table_6_5[[#This Row],[dir]], " -o ", graph, " --crop_y 0.15,0.85")</f>
-        <v>python 2_graph_processing/plot_graph.py -i libraries_4/WT_sgA_R1_sense_branch_nodsb -o plots/graphs --crop_y 0.15,0.85</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>2</v>
-      </c>
-      <c r="B35" s="2" t="str">
-        <f ca="1">table_4_3[[#This Row],[dir_out]]</f>
-        <v>WT_sgA_R1_sense_cmv_nodsb</v>
-      </c>
-      <c r="C35" s="2" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/", table_6_5[[#This Row],[dir]], " -o ", graph, " --crop_y 0.15,0.85")</f>
-        <v>python 2_graph_processing/plot_graph.py -i libraries_4/WT_sgA_R1_sense_cmv_nodsb -o plots/graphs --crop_y 0.15,0.85</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>3</v>
-      </c>
-      <c r="B36" t="str">
-        <f ca="1">table_4_3[[#This Row],[dir_out]]</f>
-        <v>KO_sgA_R1_sense_branch_nodsb</v>
-      </c>
-      <c r="C36" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/", table_6_5[[#This Row],[dir]], " -o ", graph, " --crop_y 0.15,0.85")</f>
-        <v>python 2_graph_processing/plot_graph.py -i libraries_4/KO_sgA_R1_sense_branch_nodsb -o plots/graphs --crop_y 0.15,0.85</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>4</v>
-      </c>
-      <c r="B37" t="str">
-        <f ca="1">table_4_3[[#This Row],[dir_out]]</f>
-        <v>KO_sgA_R1_sense_cmv_nodsb</v>
-      </c>
-      <c r="C37" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/", table_6_5[[#This Row],[dir]], " -o ", graph, " --crop_y 0.15,0.85")</f>
-        <v>python 2_graph_processing/plot_graph.py -i libraries_4/KO_sgA_R1_sense_cmv_nodsb -o plots/graphs --crop_y 0.15,0.85</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>5</v>
-      </c>
-      <c r="B38" t="str">
-        <f ca="1">table_4_3[[#This Row],[dir_out]]</f>
-        <v>WT_sgB_R2_sense_branch_nodsb</v>
-      </c>
-      <c r="C38" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/", table_6_5[[#This Row],[dir]], " -o ", graph, " --crop_y 0.15,0.85")</f>
-        <v>python 2_graph_processing/plot_graph.py -i libraries_4/WT_sgB_R2_sense_branch_nodsb -o plots/graphs --crop_y 0.15,0.85</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>6</v>
-      </c>
-      <c r="B39" t="str">
-        <f ca="1">table_4_3[[#This Row],[dir_out]]</f>
-        <v>WT_sgB_R2_sense_cmv_nodsb</v>
-      </c>
-      <c r="C39" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/", table_6_5[[#This Row],[dir]], " -o ", graph, " --crop_y 0.15,0.85")</f>
-        <v>python 2_graph_processing/plot_graph.py -i libraries_4/WT_sgB_R2_sense_cmv_nodsb -o plots/graphs --crop_y 0.15,0.85</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
+      <c r="A31" s="1">
         <v>7</v>
       </c>
-      <c r="B40" t="str">
-        <f ca="1">table_4_3[[#This Row],[dir_out]]</f>
+      <c r="B31" t="str">
+        <f ca="1">OFFSET(table_4_3[[dir_out]:[dir_out]], table_7_5[[#This Row],[index]] - 1, 0, 1, 1)</f>
         <v>KO_sgB_R2_sense_branch_nodsb</v>
       </c>
-      <c r="C40" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/", table_6_5[[#This Row],[dir]], " -o ", graph, " --crop_y 0.15,0.85")</f>
-        <v>python 2_graph_processing/plot_graph.py -i libraries_4/KO_sgB_R2_sense_branch_nodsb -o plots/graphs --crop_y 0.15,0.85</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
+      <c r="C31" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/", table_7_5[[#This Row],[dir]], " -o ", graphs_combined, " --layout_dir ", layouts, "/", OFFSET(table_6_1[[dir_out]:[dir_out]], 2 + QUOTIENT(table_7_5[[#This Row],[index]] - 1, 4), 0, 1, 1))</f>
+        <v>python 2_graph_processing/plot_graph.py -i libraries_4/KO_sgB_R2_sense_branch_nodsb -o plots/graphs/combined --layout_dir layouts/1DSB_R2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
         <v>8</v>
       </c>
-      <c r="B41" t="str">
-        <f ca="1">table_4_3[[#This Row],[dir_out]]</f>
+      <c r="B32" t="str">
+        <f ca="1">OFFSET(table_4_3[[dir_out]:[dir_out]], table_7_5[[#This Row],[index]] - 1, 0, 1, 1)</f>
         <v>KO_sgB_R2_sense_cmv_nodsb</v>
       </c>
-      <c r="C41" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/", table_6_5[[#This Row],[dir]], " -o ", graph, " --crop_y 0.15,0.85")</f>
-        <v>python 2_graph_processing/plot_graph.py -i libraries_4/KO_sgB_R2_sense_cmv_nodsb -o plots/graphs --crop_y 0.15,0.85</v>
+      <c r="C32" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/plot_graph.py ", "-i ", libraries_4, "/", table_7_5[[#This Row],[dir]], " -o ", graphs_combined, " --layout_dir ", layouts, "/", OFFSET(table_6_1[[dir_out]:[dir_out]], 2 + QUOTIENT(table_7_5[[#This Row],[index]] - 1, 4), 0, 1, 1))</f>
+        <v>python 2_graph_processing/plot_graph.py -i libraries_4/KO_sgB_R2_sense_cmv_nodsb -o plots/graphs/combined --layout_dir layouts/1DSB_R2</v>
       </c>
     </row>
   </sheetData>
@@ -3676,7 +3524,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5334D33C-3E16-4C4F-BA76-1F06B33FAC0B}">
   <dimension ref="A1:D108"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A109" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3685,7 +3533,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B1" t="s">
         <v>80</v>
@@ -3703,7 +3551,7 @@
         <v>89</v>
       </c>
       <c r="B2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C2">
         <v>7813781</v>
@@ -3718,7 +3566,7 @@
         <v>90</v>
       </c>
       <c r="B3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C3">
         <v>7486736</v>
@@ -3733,7 +3581,7 @@
         <v>91</v>
       </c>
       <c r="B4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C4">
         <v>8114856</v>
@@ -3748,7 +3596,7 @@
         <v>92</v>
       </c>
       <c r="B5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C5">
         <v>6586577</v>
@@ -3763,7 +3611,7 @@
         <v>93</v>
       </c>
       <c r="B6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C6">
         <v>9334492</v>
@@ -3778,7 +3626,7 @@
         <v>94</v>
       </c>
       <c r="B7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C7">
         <v>9142001</v>
@@ -3793,7 +3641,7 @@
         <v>95</v>
       </c>
       <c r="B8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C8">
         <v>8497185</v>
@@ -3808,7 +3656,7 @@
         <v>96</v>
       </c>
       <c r="B9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C9">
         <v>8346242</v>
@@ -4183,7 +4031,7 @@
         <v>241</v>
       </c>
       <c r="B34" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C34">
         <v>12353899</v>
@@ -4198,7 +4046,7 @@
         <v>242</v>
       </c>
       <c r="B35" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C35">
         <v>8729055</v>
@@ -4213,7 +4061,7 @@
         <v>243</v>
       </c>
       <c r="B36" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C36">
         <v>9194763</v>
@@ -4228,7 +4076,7 @@
         <v>244</v>
       </c>
       <c r="B37" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C37">
         <v>10005232</v>
@@ -4243,7 +4091,7 @@
         <v>245</v>
       </c>
       <c r="B38" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C38">
         <v>12898941</v>
@@ -4258,7 +4106,7 @@
         <v>246</v>
       </c>
       <c r="B39" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C39">
         <v>10217401</v>
@@ -4273,7 +4121,7 @@
         <v>247</v>
       </c>
       <c r="B40" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C40">
         <v>8496668</v>
@@ -4288,7 +4136,7 @@
         <v>248</v>
       </c>
       <c r="B41" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C41">
         <v>8842556</v>
@@ -4303,7 +4151,7 @@
         <v>249</v>
       </c>
       <c r="B42" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C42">
         <v>8994367</v>
@@ -4318,7 +4166,7 @@
         <v>250</v>
       </c>
       <c r="B43" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C43">
         <v>7898524</v>
@@ -4333,7 +4181,7 @@
         <v>251</v>
       </c>
       <c r="B44" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C44">
         <v>8711046</v>
@@ -4348,7 +4196,7 @@
         <v>252</v>
       </c>
       <c r="B45" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C45">
         <v>8055418</v>
@@ -4363,7 +4211,7 @@
         <v>253</v>
       </c>
       <c r="B46" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C46">
         <v>8697160</v>
@@ -4378,7 +4226,7 @@
         <v>254</v>
       </c>
       <c r="B47" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C47">
         <v>8748510</v>
@@ -4753,7 +4601,7 @@
         <v>279</v>
       </c>
       <c r="B72" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C72">
         <v>7179482</v>
@@ -4768,7 +4616,7 @@
         <v>280</v>
       </c>
       <c r="B73" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C73">
         <v>8143045</v>
@@ -4783,7 +4631,7 @@
         <v>281</v>
       </c>
       <c r="B74" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C74">
         <v>7424148</v>
@@ -4798,7 +4646,7 @@
         <v>282</v>
       </c>
       <c r="B75" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C75">
         <v>10190833</v>
@@ -4813,7 +4661,7 @@
         <v>283</v>
       </c>
       <c r="B76" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C76">
         <v>7763439</v>
@@ -4828,7 +4676,7 @@
         <v>284</v>
       </c>
       <c r="B77" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C77">
         <v>6747088</v>
@@ -4843,7 +4691,7 @@
         <v>285</v>
       </c>
       <c r="B78" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C78">
         <v>7603110</v>
@@ -4858,7 +4706,7 @@
         <v>286</v>
       </c>
       <c r="B79" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C79">
         <v>6540897</v>
@@ -4873,7 +4721,7 @@
         <v>287</v>
       </c>
       <c r="B80" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C80">
         <v>6213540</v>
@@ -4888,7 +4736,7 @@
         <v>288</v>
       </c>
       <c r="B81" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C81">
         <v>6775774</v>
@@ -4903,7 +4751,7 @@
         <v>289</v>
       </c>
       <c r="B82" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C82">
         <v>6586903</v>
@@ -4918,7 +4766,7 @@
         <v>290</v>
       </c>
       <c r="B83" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C83">
         <v>6492202</v>
@@ -4933,7 +4781,7 @@
         <v>291</v>
       </c>
       <c r="B84" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C84">
         <v>6473393</v>
@@ -5314,7 +5162,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40F1EACD-27DC-4973-8E3A-9162F610D9C4}">
   <dimension ref="A1:O173"/>
   <sheetViews>
-    <sheetView topLeftCell="A184" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -5338,7 +5186,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>80</v>
@@ -5347,7 +5195,7 @@
         <v>104</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>102</v>
@@ -5365,7 +5213,7 @@
         <v>101</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>85</v>
@@ -5377,10 +5225,10 @@
         <v>92</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -5394,13 +5242,13 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E2" t="s">
         <v>74</v>
       </c>
       <c r="F2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G2" t="s">
         <v>75</v>
@@ -5448,13 +5296,13 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E3" t="s">
         <v>74</v>
       </c>
       <c r="F3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G3" t="s">
         <v>75</v>
@@ -5502,13 +5350,13 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E4" t="s">
         <v>74</v>
       </c>
       <c r="F4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G4" t="s">
         <v>75</v>
@@ -5556,13 +5404,13 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E5" t="s">
         <v>74</v>
       </c>
       <c r="F5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G5" t="s">
         <v>75</v>
@@ -5610,13 +5458,13 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E6" t="s">
         <v>74</v>
       </c>
       <c r="F6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G6" t="s">
         <v>76</v>
@@ -5664,13 +5512,13 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E7" t="s">
         <v>74</v>
       </c>
       <c r="F7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G7" t="s">
         <v>76</v>
@@ -5718,13 +5566,13 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E8" t="s">
         <v>74</v>
       </c>
       <c r="F8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G8" t="s">
         <v>76</v>
@@ -5772,13 +5620,13 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E9" t="s">
         <v>74</v>
       </c>
       <c r="F9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G9" t="s">
         <v>76</v>
@@ -5826,13 +5674,13 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E10" t="s">
         <v>74</v>
       </c>
       <c r="F10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G10" t="s">
         <v>77</v>
@@ -5880,13 +5728,13 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E11" t="s">
         <v>74</v>
       </c>
       <c r="F11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G11" t="s">
         <v>77</v>
@@ -5934,13 +5782,13 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E12" t="s">
         <v>74</v>
       </c>
       <c r="F12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G12" t="s">
         <v>77</v>
@@ -5988,13 +5836,13 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E13" t="s">
         <v>74</v>
       </c>
       <c r="F13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G13" t="s">
         <v>77</v>
@@ -6042,13 +5890,13 @@
         <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E14" t="s">
         <v>74</v>
       </c>
       <c r="F14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G14" t="s">
         <v>75</v>
@@ -6096,13 +5944,13 @@
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E15" t="s">
         <v>74</v>
       </c>
       <c r="F15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G15" t="s">
         <v>75</v>
@@ -6150,13 +5998,13 @@
         <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E16" t="s">
         <v>74</v>
       </c>
       <c r="F16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G16" t="s">
         <v>75</v>
@@ -6204,13 +6052,13 @@
         <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E17" t="s">
         <v>74</v>
       </c>
       <c r="F17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G17" t="s">
         <v>75</v>
@@ -6258,13 +6106,13 @@
         <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E18" t="s">
         <v>74</v>
       </c>
       <c r="F18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G18" t="s">
         <v>76</v>
@@ -6312,13 +6160,13 @@
         <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E19" t="s">
         <v>74</v>
       </c>
       <c r="F19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G19" t="s">
         <v>76</v>
@@ -6366,13 +6214,13 @@
         <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E20" t="s">
         <v>74</v>
       </c>
       <c r="F20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G20" t="s">
         <v>76</v>
@@ -6420,13 +6268,13 @@
         <v>14</v>
       </c>
       <c r="D21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E21" t="s">
         <v>74</v>
       </c>
       <c r="F21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G21" t="s">
         <v>76</v>
@@ -6474,13 +6322,13 @@
         <v>14</v>
       </c>
       <c r="D22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E22" t="s">
         <v>74</v>
       </c>
       <c r="F22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G22" t="s">
         <v>77</v>
@@ -6528,13 +6376,13 @@
         <v>14</v>
       </c>
       <c r="D23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E23" t="s">
         <v>74</v>
       </c>
       <c r="F23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G23" t="s">
         <v>77</v>
@@ -6582,13 +6430,13 @@
         <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E24" t="s">
         <v>74</v>
       </c>
       <c r="F24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G24" t="s">
         <v>77</v>
@@ -6636,13 +6484,13 @@
         <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E25" t="s">
         <v>74</v>
       </c>
       <c r="F25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G25" t="s">
         <v>77</v>
@@ -6690,13 +6538,13 @@
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E26" t="s">
         <v>74</v>
       </c>
       <c r="F26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G26" t="s">
         <v>75</v>
@@ -6744,13 +6592,13 @@
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E27" t="s">
         <v>74</v>
       </c>
       <c r="F27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G27" t="s">
         <v>75</v>
@@ -6798,13 +6646,13 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E28" t="s">
         <v>74</v>
       </c>
       <c r="F28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G28" t="s">
         <v>75</v>
@@ -6852,13 +6700,13 @@
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E29" t="s">
         <v>74</v>
       </c>
       <c r="F29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G29" t="s">
         <v>75</v>
@@ -6906,13 +6754,13 @@
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E30" t="s">
         <v>74</v>
       </c>
       <c r="F30" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G30" t="s">
         <v>76</v>
@@ -6960,13 +6808,13 @@
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E31" t="s">
         <v>74</v>
       </c>
       <c r="F31" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G31" t="s">
         <v>76</v>
@@ -7014,13 +6862,13 @@
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E32" t="s">
         <v>74</v>
       </c>
       <c r="F32" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G32" t="s">
         <v>76</v>
@@ -7068,13 +6916,13 @@
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E33" t="s">
         <v>74</v>
       </c>
       <c r="F33" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G33" t="s">
         <v>76</v>
@@ -7122,13 +6970,13 @@
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E34" t="s">
         <v>74</v>
       </c>
       <c r="F34" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G34" t="s">
         <v>77</v>
@@ -7176,13 +7024,13 @@
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E35" t="s">
         <v>74</v>
       </c>
       <c r="F35" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G35" t="s">
         <v>77</v>
@@ -7230,13 +7078,13 @@
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E36" t="s">
         <v>74</v>
       </c>
       <c r="F36" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G36" t="s">
         <v>77</v>
@@ -7284,13 +7132,13 @@
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E37" t="s">
         <v>74</v>
       </c>
       <c r="F37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G37" t="s">
         <v>77</v>
@@ -7338,13 +7186,13 @@
         <v>14</v>
       </c>
       <c r="D38" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E38" t="s">
         <v>74</v>
       </c>
       <c r="F38" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G38" t="s">
         <v>75</v>
@@ -7392,13 +7240,13 @@
         <v>14</v>
       </c>
       <c r="D39" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E39" t="s">
         <v>74</v>
       </c>
       <c r="F39" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G39" t="s">
         <v>75</v>
@@ -7446,13 +7294,13 @@
         <v>14</v>
       </c>
       <c r="D40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E40" t="s">
         <v>74</v>
       </c>
       <c r="F40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G40" t="s">
         <v>75</v>
@@ -7500,13 +7348,13 @@
         <v>14</v>
       </c>
       <c r="D41" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E41" t="s">
         <v>74</v>
       </c>
       <c r="F41" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G41" t="s">
         <v>75</v>
@@ -7554,13 +7402,13 @@
         <v>14</v>
       </c>
       <c r="D42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E42" t="s">
         <v>74</v>
       </c>
       <c r="F42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G42" t="s">
         <v>76</v>
@@ -7608,13 +7456,13 @@
         <v>14</v>
       </c>
       <c r="D43" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E43" t="s">
         <v>74</v>
       </c>
       <c r="F43" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G43" t="s">
         <v>76</v>
@@ -7662,13 +7510,13 @@
         <v>14</v>
       </c>
       <c r="D44" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E44" t="s">
         <v>74</v>
       </c>
       <c r="F44" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G44" t="s">
         <v>76</v>
@@ -7716,13 +7564,13 @@
         <v>14</v>
       </c>
       <c r="D45" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E45" t="s">
         <v>74</v>
       </c>
       <c r="F45" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G45" t="s">
         <v>76</v>
@@ -7770,13 +7618,13 @@
         <v>14</v>
       </c>
       <c r="D46" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E46" t="s">
         <v>74</v>
       </c>
       <c r="F46" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G46" t="s">
         <v>77</v>
@@ -7824,13 +7672,13 @@
         <v>14</v>
       </c>
       <c r="D47" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E47" t="s">
         <v>74</v>
       </c>
       <c r="F47" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G47" t="s">
         <v>77</v>
@@ -7878,13 +7726,13 @@
         <v>14</v>
       </c>
       <c r="D48" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E48" t="s">
         <v>74</v>
       </c>
       <c r="F48" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G48" t="s">
         <v>77</v>
@@ -7932,13 +7780,13 @@
         <v>14</v>
       </c>
       <c r="D49" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E49" t="s">
         <v>74</v>
       </c>
       <c r="F49" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G49" t="s">
         <v>77</v>
@@ -7986,10 +7834,10 @@
         <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E50" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F50" t="s">
         <v>78</v>
@@ -8040,10 +7888,10 @@
         <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E51" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F51" t="s">
         <v>78</v>
@@ -8094,10 +7942,10 @@
         <v>1</v>
       </c>
       <c r="D52" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E52" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F52" t="s">
         <v>78</v>
@@ -8148,10 +7996,10 @@
         <v>1</v>
       </c>
       <c r="D53" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E53" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F53" t="s">
         <v>78</v>
@@ -8202,10 +8050,10 @@
         <v>1</v>
       </c>
       <c r="D54" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E54" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F54" t="s">
         <v>78</v>
@@ -8256,10 +8104,10 @@
         <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E55" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F55" t="s">
         <v>78</v>
@@ -8310,10 +8158,10 @@
         <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E56" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F56" t="s">
         <v>78</v>
@@ -8364,10 +8212,10 @@
         <v>1</v>
       </c>
       <c r="D57" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E57" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F57" t="s">
         <v>78</v>
@@ -8418,10 +8266,10 @@
         <v>1</v>
       </c>
       <c r="D58" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E58" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F58" t="s">
         <v>78</v>
@@ -8472,10 +8320,10 @@
         <v>1</v>
       </c>
       <c r="D59" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E59" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F59" t="s">
         <v>78</v>
@@ -8526,10 +8374,10 @@
         <v>1</v>
       </c>
       <c r="D60" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E60" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F60" t="s">
         <v>78</v>
@@ -8580,10 +8428,10 @@
         <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E61" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F61" t="s">
         <v>78</v>
@@ -8634,10 +8482,10 @@
         <v>14</v>
       </c>
       <c r="D62" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E62" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F62" t="s">
         <v>78</v>
@@ -8688,10 +8536,10 @@
         <v>14</v>
       </c>
       <c r="D63" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E63" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F63" t="s">
         <v>78</v>
@@ -8742,10 +8590,10 @@
         <v>14</v>
       </c>
       <c r="D64" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E64" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F64" t="s">
         <v>78</v>
@@ -8796,10 +8644,10 @@
         <v>14</v>
       </c>
       <c r="D65" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E65" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F65" t="s">
         <v>78</v>
@@ -8850,10 +8698,10 @@
         <v>14</v>
       </c>
       <c r="D66" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E66" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F66" t="s">
         <v>78</v>
@@ -8904,10 +8752,10 @@
         <v>14</v>
       </c>
       <c r="D67" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E67" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F67" t="s">
         <v>78</v>
@@ -8958,10 +8806,10 @@
         <v>14</v>
       </c>
       <c r="D68" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E68" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F68" t="s">
         <v>78</v>
@@ -9012,10 +8860,10 @@
         <v>14</v>
       </c>
       <c r="D69" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E69" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F69" t="s">
         <v>78</v>
@@ -9066,10 +8914,10 @@
         <v>14</v>
       </c>
       <c r="D70" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E70" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F70" t="s">
         <v>78</v>
@@ -9120,10 +8968,10 @@
         <v>14</v>
       </c>
       <c r="D71" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E71" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F71" t="s">
         <v>78</v>
@@ -9174,10 +9022,10 @@
         <v>14</v>
       </c>
       <c r="D72" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E72" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F72" t="s">
         <v>78</v>
@@ -9228,10 +9076,10 @@
         <v>14</v>
       </c>
       <c r="D73" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E73" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F73" t="s">
         <v>78</v>
@@ -9282,10 +9130,10 @@
         <v>1</v>
       </c>
       <c r="D74" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E74" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F74" t="s">
         <v>79</v>
@@ -9336,10 +9184,10 @@
         <v>1</v>
       </c>
       <c r="D75" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E75" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F75" t="s">
         <v>79</v>
@@ -9390,10 +9238,10 @@
         <v>1</v>
       </c>
       <c r="D76" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E76" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F76" t="s">
         <v>79</v>
@@ -9444,10 +9292,10 @@
         <v>1</v>
       </c>
       <c r="D77" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E77" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F77" t="s">
         <v>79</v>
@@ -9498,10 +9346,10 @@
         <v>1</v>
       </c>
       <c r="D78" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E78" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F78" t="s">
         <v>79</v>
@@ -9552,10 +9400,10 @@
         <v>1</v>
       </c>
       <c r="D79" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E79" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F79" t="s">
         <v>79</v>
@@ -9606,10 +9454,10 @@
         <v>1</v>
       </c>
       <c r="D80" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E80" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F80" t="s">
         <v>79</v>
@@ -9660,10 +9508,10 @@
         <v>1</v>
       </c>
       <c r="D81" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E81" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F81" t="s">
         <v>79</v>
@@ -9714,10 +9562,10 @@
         <v>1</v>
       </c>
       <c r="D82" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E82" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F82" t="s">
         <v>79</v>
@@ -9768,10 +9616,10 @@
         <v>1</v>
       </c>
       <c r="D83" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E83" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F83" t="s">
         <v>79</v>
@@ -9822,10 +9670,10 @@
         <v>1</v>
       </c>
       <c r="D84" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E84" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F84" t="s">
         <v>79</v>
@@ -9876,10 +9724,10 @@
         <v>1</v>
       </c>
       <c r="D85" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E85" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F85" t="s">
         <v>79</v>
@@ -9930,10 +9778,10 @@
         <v>14</v>
       </c>
       <c r="D86" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E86" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F86" t="s">
         <v>79</v>
@@ -9984,10 +9832,10 @@
         <v>14</v>
       </c>
       <c r="D87" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E87" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F87" t="s">
         <v>79</v>
@@ -10038,10 +9886,10 @@
         <v>14</v>
       </c>
       <c r="D88" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E88" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F88" t="s">
         <v>79</v>
@@ -10092,10 +9940,10 @@
         <v>14</v>
       </c>
       <c r="D89" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E89" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F89" t="s">
         <v>79</v>
@@ -10146,10 +9994,10 @@
         <v>14</v>
       </c>
       <c r="D90" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E90" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F90" t="s">
         <v>79</v>
@@ -10200,10 +10048,10 @@
         <v>14</v>
       </c>
       <c r="D91" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E91" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F91" t="s">
         <v>79</v>
@@ -10254,10 +10102,10 @@
         <v>14</v>
       </c>
       <c r="D92" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E92" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F92" t="s">
         <v>79</v>
@@ -10308,10 +10156,10 @@
         <v>14</v>
       </c>
       <c r="D93" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E93" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F93" t="s">
         <v>79</v>
@@ -10362,10 +10210,10 @@
         <v>14</v>
       </c>
       <c r="D94" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E94" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F94" t="s">
         <v>79</v>
@@ -10416,10 +10264,10 @@
         <v>14</v>
       </c>
       <c r="D95" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E95" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F95" t="s">
         <v>79</v>
@@ -10470,10 +10318,10 @@
         <v>14</v>
       </c>
       <c r="D96" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E96" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F96" t="s">
         <v>79</v>
@@ -10524,10 +10372,10 @@
         <v>14</v>
       </c>
       <c r="D97" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E97" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F97" t="s">
         <v>79</v>
@@ -10578,10 +10426,10 @@
         <v>1</v>
       </c>
       <c r="D98" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E98" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F98" t="s">
         <v>78</v>
@@ -10632,10 +10480,10 @@
         <v>1</v>
       </c>
       <c r="D99" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E99" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F99" t="s">
         <v>78</v>
@@ -10686,10 +10534,10 @@
         <v>1</v>
       </c>
       <c r="D100" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E100" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F100" t="s">
         <v>78</v>
@@ -10740,10 +10588,10 @@
         <v>1</v>
       </c>
       <c r="D101" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E101" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F101" t="s">
         <v>78</v>
@@ -10794,10 +10642,10 @@
         <v>1</v>
       </c>
       <c r="D102" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E102" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F102" t="s">
         <v>78</v>
@@ -10848,10 +10696,10 @@
         <v>1</v>
       </c>
       <c r="D103" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E103" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F103" t="s">
         <v>78</v>
@@ -10902,10 +10750,10 @@
         <v>1</v>
       </c>
       <c r="D104" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E104" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F104" t="s">
         <v>78</v>
@@ -10956,10 +10804,10 @@
         <v>1</v>
       </c>
       <c r="D105" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E105" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F105" t="s">
         <v>78</v>
@@ -11010,10 +10858,10 @@
         <v>1</v>
       </c>
       <c r="D106" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E106" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F106" t="s">
         <v>78</v>
@@ -11064,10 +10912,10 @@
         <v>1</v>
       </c>
       <c r="D107" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E107" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F107" t="s">
         <v>78</v>
@@ -11118,10 +10966,10 @@
         <v>1</v>
       </c>
       <c r="D108" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E108" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F108" t="s">
         <v>78</v>
@@ -11172,10 +11020,10 @@
         <v>1</v>
       </c>
       <c r="D109" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E109" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F109" t="s">
         <v>78</v>
@@ -11226,10 +11074,10 @@
         <v>14</v>
       </c>
       <c r="D110" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E110" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F110" t="s">
         <v>78</v>
@@ -11280,10 +11128,10 @@
         <v>14</v>
       </c>
       <c r="D111" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E111" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F111" t="s">
         <v>78</v>
@@ -11334,10 +11182,10 @@
         <v>14</v>
       </c>
       <c r="D112" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E112" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F112" t="s">
         <v>78</v>
@@ -11388,10 +11236,10 @@
         <v>14</v>
       </c>
       <c r="D113" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E113" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F113" t="s">
         <v>78</v>
@@ -11442,10 +11290,10 @@
         <v>14</v>
       </c>
       <c r="D114" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E114" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F114" t="s">
         <v>78</v>
@@ -11496,10 +11344,10 @@
         <v>14</v>
       </c>
       <c r="D115" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E115" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F115" t="s">
         <v>78</v>
@@ -11550,10 +11398,10 @@
         <v>14</v>
       </c>
       <c r="D116" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E116" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F116" t="s">
         <v>78</v>
@@ -11604,10 +11452,10 @@
         <v>14</v>
       </c>
       <c r="D117" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E117" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F117" t="s">
         <v>78</v>
@@ -11658,10 +11506,10 @@
         <v>14</v>
       </c>
       <c r="D118" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E118" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F118" t="s">
         <v>78</v>
@@ -11712,10 +11560,10 @@
         <v>14</v>
       </c>
       <c r="D119" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E119" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F119" t="s">
         <v>78</v>
@@ -11766,10 +11614,10 @@
         <v>14</v>
       </c>
       <c r="D120" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E120" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F120" t="s">
         <v>78</v>
@@ -11820,10 +11668,10 @@
         <v>14</v>
       </c>
       <c r="D121" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E121" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F121" t="s">
         <v>78</v>
@@ -11874,10 +11722,10 @@
         <v>1</v>
       </c>
       <c r="D122" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E122" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F122" t="s">
         <v>79</v>
@@ -11928,10 +11776,10 @@
         <v>1</v>
       </c>
       <c r="D123" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E123" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F123" t="s">
         <v>79</v>
@@ -11982,10 +11830,10 @@
         <v>1</v>
       </c>
       <c r="D124" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E124" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F124" t="s">
         <v>79</v>
@@ -12036,10 +11884,10 @@
         <v>1</v>
       </c>
       <c r="D125" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E125" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F125" t="s">
         <v>79</v>
@@ -12090,10 +11938,10 @@
         <v>1</v>
       </c>
       <c r="D126" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E126" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F126" t="s">
         <v>79</v>
@@ -12144,10 +11992,10 @@
         <v>1</v>
       </c>
       <c r="D127" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E127" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F127" t="s">
         <v>79</v>
@@ -12198,10 +12046,10 @@
         <v>1</v>
       </c>
       <c r="D128" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E128" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F128" t="s">
         <v>79</v>
@@ -12252,10 +12100,10 @@
         <v>1</v>
       </c>
       <c r="D129" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E129" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F129" t="s">
         <v>79</v>
@@ -12306,10 +12154,10 @@
         <v>1</v>
       </c>
       <c r="D130" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E130" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F130" t="s">
         <v>79</v>
@@ -12360,10 +12208,10 @@
         <v>1</v>
       </c>
       <c r="D131" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E131" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F131" t="s">
         <v>79</v>
@@ -12414,10 +12262,10 @@
         <v>1</v>
       </c>
       <c r="D132" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E132" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F132" t="s">
         <v>79</v>
@@ -12468,10 +12316,10 @@
         <v>1</v>
       </c>
       <c r="D133" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E133" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F133" t="s">
         <v>79</v>
@@ -12522,10 +12370,10 @@
         <v>14</v>
       </c>
       <c r="D134" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E134" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F134" t="s">
         <v>79</v>
@@ -12576,10 +12424,10 @@
         <v>14</v>
       </c>
       <c r="D135" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E135" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F135" t="s">
         <v>79</v>
@@ -12630,10 +12478,10 @@
         <v>14</v>
       </c>
       <c r="D136" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E136" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F136" t="s">
         <v>79</v>
@@ -12684,10 +12532,10 @@
         <v>14</v>
       </c>
       <c r="D137" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E137" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F137" t="s">
         <v>79</v>
@@ -12738,10 +12586,10 @@
         <v>14</v>
       </c>
       <c r="D138" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E138" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F138" t="s">
         <v>79</v>
@@ -12792,10 +12640,10 @@
         <v>14</v>
       </c>
       <c r="D139" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E139" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F139" t="s">
         <v>79</v>
@@ -12846,10 +12694,10 @@
         <v>14</v>
       </c>
       <c r="D140" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E140" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F140" t="s">
         <v>79</v>
@@ -12900,10 +12748,10 @@
         <v>14</v>
       </c>
       <c r="D141" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E141" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F141" t="s">
         <v>79</v>
@@ -12954,10 +12802,10 @@
         <v>14</v>
       </c>
       <c r="D142" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E142" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F142" t="s">
         <v>79</v>
@@ -13008,10 +12856,10 @@
         <v>14</v>
       </c>
       <c r="D143" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F143" t="s">
         <v>79</v>
@@ -13062,10 +12910,10 @@
         <v>14</v>
       </c>
       <c r="D144" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E144" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F144" t="s">
         <v>79</v>
@@ -13116,10 +12964,10 @@
         <v>14</v>
       </c>
       <c r="D145" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E145" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F145" t="s">
         <v>79</v>
@@ -13164,22 +13012,22 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C146" t="s">
         <v>1</v>
       </c>
       <c r="D146" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E146" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F146" t="s">
+        <v>113</v>
+      </c>
+      <c r="G146" t="s">
         <v>114</v>
-      </c>
-      <c r="G146" t="s">
-        <v>115</v>
       </c>
       <c r="H146" t="s">
         <v>83</v>
@@ -13218,22 +13066,22 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C147" t="s">
         <v>1</v>
       </c>
       <c r="D147" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E147" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F147" t="s">
+        <v>113</v>
+      </c>
+      <c r="G147" t="s">
         <v>114</v>
-      </c>
-      <c r="G147" t="s">
-        <v>115</v>
       </c>
       <c r="H147" t="s">
         <v>83</v>
@@ -13272,22 +13120,22 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C148" t="s">
         <v>1</v>
       </c>
       <c r="D148" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E148" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F148" t="s">
+        <v>113</v>
+      </c>
+      <c r="G148" t="s">
         <v>114</v>
-      </c>
-      <c r="G148" t="s">
-        <v>115</v>
       </c>
       <c r="H148" t="s">
         <v>83</v>
@@ -13326,22 +13174,22 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C149" t="s">
         <v>1</v>
       </c>
       <c r="D149" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E149" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F149" t="s">
+        <v>113</v>
+      </c>
+      <c r="G149" t="s">
         <v>114</v>
-      </c>
-      <c r="G149" t="s">
-        <v>115</v>
       </c>
       <c r="H149" t="s">
         <v>83</v>
@@ -13380,22 +13228,22 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C150" t="s">
         <v>1</v>
       </c>
       <c r="D150" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E150" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F150" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G150" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H150" t="s">
         <v>83</v>
@@ -13434,22 +13282,22 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C151" t="s">
         <v>1</v>
       </c>
       <c r="D151" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E151" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F151" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G151" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H151" t="s">
         <v>83</v>
@@ -13488,22 +13336,22 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C152" t="s">
         <v>1</v>
       </c>
       <c r="D152" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E152" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F152" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G152" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H152" t="s">
         <v>83</v>
@@ -13542,22 +13390,22 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C153" t="s">
         <v>1</v>
       </c>
       <c r="D153" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E153" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F153" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G153" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H153" t="s">
         <v>83</v>
@@ -13596,22 +13444,22 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C154" t="s">
         <v>1</v>
       </c>
       <c r="D154" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E154" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F154" t="s">
+        <v>113</v>
+      </c>
+      <c r="G154" t="s">
         <v>114</v>
-      </c>
-      <c r="G154" t="s">
-        <v>115</v>
       </c>
       <c r="H154" t="s">
         <v>84</v>
@@ -13650,22 +13498,22 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C155" t="s">
         <v>1</v>
       </c>
       <c r="D155" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E155" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F155" t="s">
+        <v>113</v>
+      </c>
+      <c r="G155" t="s">
         <v>114</v>
-      </c>
-      <c r="G155" t="s">
-        <v>115</v>
       </c>
       <c r="H155" t="s">
         <v>84</v>
@@ -13704,22 +13552,22 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C156" t="s">
         <v>1</v>
       </c>
       <c r="D156" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E156" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F156" t="s">
+        <v>113</v>
+      </c>
+      <c r="G156" t="s">
         <v>114</v>
-      </c>
-      <c r="G156" t="s">
-        <v>115</v>
       </c>
       <c r="H156" t="s">
         <v>84</v>
@@ -13758,22 +13606,22 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C157" t="s">
         <v>1</v>
       </c>
       <c r="D157" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E157" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F157" t="s">
+        <v>113</v>
+      </c>
+      <c r="G157" t="s">
         <v>114</v>
-      </c>
-      <c r="G157" t="s">
-        <v>115</v>
       </c>
       <c r="H157" t="s">
         <v>84</v>
@@ -13812,22 +13660,22 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C158" t="s">
         <v>1</v>
       </c>
       <c r="D158" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E158" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F158" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G158" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H158" t="s">
         <v>84</v>
@@ -13866,22 +13714,22 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C159" t="s">
         <v>1</v>
       </c>
       <c r="D159" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E159" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F159" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G159" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H159" t="s">
         <v>84</v>
@@ -13920,22 +13768,22 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C160" t="s">
         <v>1</v>
       </c>
       <c r="D160" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E160" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F160" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G160" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H160" t="s">
         <v>84</v>
@@ -13974,22 +13822,22 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C161" t="s">
         <v>1</v>
       </c>
       <c r="D161" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E161" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F161" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G161" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H161" t="s">
         <v>84</v>
@@ -14028,16 +13876,16 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C162" t="s">
         <v>1</v>
       </c>
       <c r="D162" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E162" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F162" t="s">
         <v>78</v>
@@ -14082,16 +13930,16 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C163" t="s">
         <v>1</v>
       </c>
       <c r="D163" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E163" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F163" t="s">
         <v>78</v>
@@ -14136,16 +13984,16 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C164" t="s">
         <v>1</v>
       </c>
       <c r="D164" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E164" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F164" t="s">
         <v>78</v>
@@ -14190,16 +14038,16 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C165" t="s">
         <v>14</v>
       </c>
       <c r="D165" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E165" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F165" t="s">
         <v>78</v>
@@ -14244,16 +14092,16 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C166" t="s">
         <v>14</v>
       </c>
       <c r="D166" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E166" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F166" t="s">
         <v>78</v>
@@ -14298,16 +14146,16 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C167" t="s">
         <v>14</v>
       </c>
       <c r="D167" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E167" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F167" t="s">
         <v>78</v>
@@ -14352,16 +14200,16 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C168" t="s">
         <v>1</v>
       </c>
       <c r="D168" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E168" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F168" t="s">
         <v>79</v>
@@ -14406,16 +14254,16 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C169" t="s">
         <v>1</v>
       </c>
       <c r="D169" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E169" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F169" t="s">
         <v>79</v>
@@ -14460,16 +14308,16 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C170" t="s">
         <v>1</v>
       </c>
       <c r="D170" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E170" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F170" t="s">
         <v>79</v>
@@ -14514,16 +14362,16 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C171" t="s">
         <v>14</v>
       </c>
       <c r="D171" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E171" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F171" t="s">
         <v>79</v>
@@ -14568,16 +14416,16 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C172" t="s">
         <v>14</v>
       </c>
       <c r="D172" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E172" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F172" t="s">
         <v>79</v>
@@ -14622,16 +14470,16 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C173" t="s">
         <v>14</v>
       </c>
       <c r="D173" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E173" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F173" t="s">
         <v>79</v>
@@ -14685,8 +14533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8D704B5-D01A-4D17-9252-416EA08BC871}">
   <dimension ref="A1:S56"/>
   <sheetViews>
-    <sheetView topLeftCell="D37" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView topLeftCell="H58" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14707,13 +14555,13 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>102</v>
@@ -14734,7 +14582,7 @@
         <v>103</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>93</v>
@@ -17854,13 +17702,13 @@
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B44" t="s">
         <v>86</v>
       </c>
       <c r="C44" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D44" t="s">
         <v>102</v>
@@ -17881,10 +17729,10 @@
         <v>103</v>
       </c>
       <c r="J44" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K44" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L44" t="s">
         <v>92</v>
@@ -18544,8 +18392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7FB6E33-93C4-4971-BF44-23A0F65AADA0}">
   <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18565,13 +18413,13 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>86</v>
@@ -18583,7 +18431,7 @@
         <v>102</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>82</v>
@@ -18598,13 +18446,13 @@
         <v>81</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -20889,13 +20737,13 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>86</v>
@@ -20907,7 +20755,7 @@
         <v>102</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>82</v>
@@ -20922,13 +20770,13 @@
         <v>81</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M43" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="N43" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="N43" s="1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
@@ -21628,10 +21476,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AFDA2BA-58B9-4C12-83E9-7C389A51814A}">
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K33" sqref="K26:K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21650,37 +21498,37 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>166</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>167</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>169</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -21724,7 +21572,7 @@
         <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgAB_R1_sense libraries_4/WT_sgAB_R1_branch -o libraries_4/WT_sgAB_R1_sense_branch --subst_type without</v>
       </c>
       <c r="K2" s="2" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", table_4_1[[#This Row],[subst_type]], " -dir ", globals!$A$4, "/", table_4_1[[#This Row],[dir_out]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", table_4_1[[#This Row],[subst_type]], " -dir ", libraries_4, "/", table_4_1[[#This Row],[dir_out]])</f>
         <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgAB_R1_sense_branch</v>
       </c>
     </row>
@@ -21769,7 +21617,7 @@
         <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgAB_R1_sense libraries_4/WT_sgAB_R1_cmv -o libraries_4/WT_sgAB_R1_sense_cmv --subst_type without</v>
       </c>
       <c r="K3" s="2" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", table_4_1[[#This Row],[subst_type]], " -dir ", globals!$A$4, "/", table_4_1[[#This Row],[dir_out]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", table_4_1[[#This Row],[subst_type]], " -dir ", libraries_4, "/", table_4_1[[#This Row],[dir_out]])</f>
         <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgAB_R1_sense_cmv</v>
       </c>
     </row>
@@ -21814,7 +21662,7 @@
         <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/KO_sgAB_R1_sense libraries_4/KO_sgAB_R1_branch -o libraries_4/KO_sgAB_R1_sense_branch --subst_type without</v>
       </c>
       <c r="K4" s="2" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", table_4_1[[#This Row],[subst_type]], " -dir ", globals!$A$4, "/", table_4_1[[#This Row],[dir_out]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", table_4_1[[#This Row],[subst_type]], " -dir ", libraries_4, "/", table_4_1[[#This Row],[dir_out]])</f>
         <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgAB_R1_sense_branch</v>
       </c>
     </row>
@@ -21859,7 +21707,7 @@
         <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/KO_sgAB_R1_sense libraries_4/KO_sgAB_R1_cmv -o libraries_4/KO_sgAB_R1_sense_cmv --subst_type without</v>
       </c>
       <c r="K5" s="2" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", table_4_1[[#This Row],[subst_type]], " -dir ", globals!$A$4, "/", table_4_1[[#This Row],[dir_out]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", table_4_1[[#This Row],[subst_type]], " -dir ", libraries_4, "/", table_4_1[[#This Row],[dir_out]])</f>
         <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgAB_R1_sense_cmv</v>
       </c>
     </row>
@@ -21904,7 +21752,7 @@
         <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgAB_R2_sense libraries_4/WT_sgAB_R2_branch -o libraries_4/WT_sgAB_R2_sense_branch --subst_type without</v>
       </c>
       <c r="K6" s="2" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", table_4_1[[#This Row],[subst_type]], " -dir ", globals!$A$4, "/", table_4_1[[#This Row],[dir_out]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", table_4_1[[#This Row],[subst_type]], " -dir ", libraries_4, "/", table_4_1[[#This Row],[dir_out]])</f>
         <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgAB_R2_sense_branch</v>
       </c>
     </row>
@@ -21949,7 +21797,7 @@
         <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgAB_R2_sense libraries_4/WT_sgAB_R2_cmv -o libraries_4/WT_sgAB_R2_sense_cmv --subst_type without</v>
       </c>
       <c r="K7" s="2" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", table_4_1[[#This Row],[subst_type]], " -dir ", globals!$A$4, "/", table_4_1[[#This Row],[dir_out]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", table_4_1[[#This Row],[subst_type]], " -dir ", libraries_4, "/", table_4_1[[#This Row],[dir_out]])</f>
         <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgAB_R2_sense_cmv</v>
       </c>
     </row>
@@ -21994,7 +21842,7 @@
         <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/KO_sgAB_R2_sense libraries_4/KO_sgAB_R2_branch -o libraries_4/KO_sgAB_R2_sense_branch --subst_type without</v>
       </c>
       <c r="K8" s="2" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", table_4_1[[#This Row],[subst_type]], " -dir ", globals!$A$4, "/", table_4_1[[#This Row],[dir_out]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", table_4_1[[#This Row],[subst_type]], " -dir ", libraries_4, "/", table_4_1[[#This Row],[dir_out]])</f>
         <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgAB_R2_sense_branch</v>
       </c>
     </row>
@@ -22039,7 +21887,7 @@
         <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/KO_sgAB_R2_sense libraries_4/KO_sgAB_R2_cmv -o libraries_4/KO_sgAB_R2_sense_cmv --subst_type without</v>
       </c>
       <c r="K9" s="2" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", table_4_1[[#This Row],[subst_type]], " -dir ", globals!$A$4, "/", table_4_1[[#This Row],[dir_out]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", table_4_1[[#This Row],[subst_type]], " -dir ", libraries_4, "/", table_4_1[[#This Row],[dir_out]])</f>
         <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgAB_R2_sense_cmv</v>
       </c>
     </row>
@@ -22084,7 +21932,7 @@
         <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgA_R1_sense libraries_4/WT_sgA_R1_branch -o libraries_4/WT_sgA_R1_sense_branch --subst_type without</v>
       </c>
       <c r="K10" s="2" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", table_4_1[[#This Row],[subst_type]], " -dir ", globals!$A$4, "/", table_4_1[[#This Row],[dir_out]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", table_4_1[[#This Row],[subst_type]], " -dir ", libraries_4, "/", table_4_1[[#This Row],[dir_out]])</f>
         <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgA_R1_sense_branch</v>
       </c>
     </row>
@@ -22129,7 +21977,7 @@
         <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgA_R1_sense libraries_4/WT_sgA_R1_cmv -o libraries_4/WT_sgA_R1_sense_cmv --subst_type without</v>
       </c>
       <c r="K11" s="2" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", table_4_1[[#This Row],[subst_type]], " -dir ", globals!$A$4, "/", table_4_1[[#This Row],[dir_out]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", table_4_1[[#This Row],[subst_type]], " -dir ", libraries_4, "/", table_4_1[[#This Row],[dir_out]])</f>
         <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgA_R1_sense_cmv</v>
       </c>
     </row>
@@ -22174,7 +22022,7 @@
         <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/KO_sgA_R1_sense libraries_4/KO_sgA_R1_branch -o libraries_4/KO_sgA_R1_sense_branch --subst_type without</v>
       </c>
       <c r="K12" s="2" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", table_4_1[[#This Row],[subst_type]], " -dir ", globals!$A$4, "/", table_4_1[[#This Row],[dir_out]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", table_4_1[[#This Row],[subst_type]], " -dir ", libraries_4, "/", table_4_1[[#This Row],[dir_out]])</f>
         <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgA_R1_sense_branch</v>
       </c>
     </row>
@@ -22219,7 +22067,7 @@
         <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/KO_sgA_R1_sense libraries_4/KO_sgA_R1_cmv -o libraries_4/KO_sgA_R1_sense_cmv --subst_type without</v>
       </c>
       <c r="K13" s="2" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", table_4_1[[#This Row],[subst_type]], " -dir ", globals!$A$4, "/", table_4_1[[#This Row],[dir_out]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", table_4_1[[#This Row],[subst_type]], " -dir ", libraries_4, "/", table_4_1[[#This Row],[dir_out]])</f>
         <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgA_R1_sense_cmv</v>
       </c>
     </row>
@@ -22264,7 +22112,7 @@
         <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgB_R2_sense libraries_4/WT_sgB_R2_branch -o libraries_4/WT_sgB_R2_sense_branch --subst_type without</v>
       </c>
       <c r="K14" s="2" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", table_4_1[[#This Row],[subst_type]], " -dir ", globals!$A$4, "/", table_4_1[[#This Row],[dir_out]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", table_4_1[[#This Row],[subst_type]], " -dir ", libraries_4, "/", table_4_1[[#This Row],[dir_out]])</f>
         <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgB_R2_sense_branch</v>
       </c>
     </row>
@@ -22309,7 +22157,7 @@
         <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgB_R2_sense libraries_4/WT_sgB_R2_cmv -o libraries_4/WT_sgB_R2_sense_cmv --subst_type without</v>
       </c>
       <c r="K15" s="2" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", table_4_1[[#This Row],[subst_type]], " -dir ", globals!$A$4, "/", table_4_1[[#This Row],[dir_out]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", table_4_1[[#This Row],[subst_type]], " -dir ", libraries_4, "/", table_4_1[[#This Row],[dir_out]])</f>
         <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgB_R2_sense_cmv</v>
       </c>
     </row>
@@ -22354,7 +22202,7 @@
         <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/KO_sgB_R2_sense libraries_4/KO_sgB_R2_branch -o libraries_4/KO_sgB_R2_sense_branch --subst_type without</v>
       </c>
       <c r="K16" s="2" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", table_4_1[[#This Row],[subst_type]], " -dir ", globals!$A$4, "/", table_4_1[[#This Row],[dir_out]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", table_4_1[[#This Row],[subst_type]], " -dir ", libraries_4, "/", table_4_1[[#This Row],[dir_out]])</f>
         <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgB_R2_sense_branch</v>
       </c>
     </row>
@@ -22399,898 +22247,538 @@
         <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/KO_sgB_R2_sense libraries_4/KO_sgB_R2_cmv -o libraries_4/KO_sgB_R2_sense_cmv --subst_type without</v>
       </c>
       <c r="K17" s="2" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", table_4_1[[#This Row],[subst_type]], " -dir ", globals!$A$4, "/", table_4_1[[#This Row],[dir_out]])</f>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", table_4_1[[#This Row],[subst_type]], " -dir ", libraries_4, "/", table_4_1[[#This Row],[dir_out]])</f>
         <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgB_R2_sense_cmv</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="6" t="str">
-        <f ca="1">OFFSET(table_3_1[control], 3 * QUOTIENT(table_4_1[[#This Row],[index]] - 1, 2), 0, 1, 1)</f>
-        <v>30bpDown</v>
-      </c>
-      <c r="C18" s="6" t="str">
-        <f ca="1">OFFSET(table_3_1[treatment], 3 * QUOTIENT(table_4_1[[#This Row],[index]] - 1, 2), 0, 1, 1)</f>
-        <v>sense</v>
-      </c>
-      <c r="D18" t="str">
-        <f ca="1">OFFSET(table_3_1[dir], 3 * QUOTIENT(table_4_1[[#This Row],[index]] - 1, 2), 0, 1, 1)</f>
-        <v>WT_sgA_R1_sense_30bpDown</v>
-      </c>
-      <c r="E18" t="str">
-        <f ca="1">OFFSET(table_3_1[treatment], 3 * QUOTIENT(table_4_1[[#This Row],[index]] - 1, 2) + 1 + MOD(table_4_1[[#This Row],[index]] - 1, 2), 0, 1, 1)</f>
-        <v>branch</v>
-      </c>
-      <c r="F18" t="str">
-        <f ca="1">OFFSET(table_3_1[dir], 3 * QUOTIENT(table_4_1[[#This Row],[index]] - 1, 2) + 1 + MOD(table_4_1[[#This Row],[index]] - 1, 2), 0, 1, 1)</f>
-        <v>WT_sgA_R1_branch_30bpDown</v>
-      </c>
-      <c r="G18" t="str">
-        <f ca="1">_xlfn.CONCAT(table_4_1[[#This Row],[treatment_1]], "_", table_4_1[[#This Row],[treatment_2]])</f>
-        <v>sense_branch</v>
-      </c>
-      <c r="H18" t="str">
-        <f ca="1">SUBSTITUTE(table_4_1[[#This Row],[dir_1]], table_4_1[[#This Row],[treatment_1]], table_4_1[[#This Row],[treatments_out]])</f>
-        <v>WT_sgA_R1_sense_branch_30bpDown</v>
-      </c>
-      <c r="I18" t="str">
-        <f>subst_type</f>
-        <v>without</v>
-      </c>
-      <c r="J18" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", libraries_4, "/", table_4_1[[#This Row],[dir_1]], " ", libraries_4, "/", table_4_1[[#This Row],[dir_2]], " -o ", libraries_4, "/", table_4_1[[#This Row],[dir_out]], " --subst_type ", table_4_1[[#This Row],[subst_type]])</f>
-        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgA_R1_sense_30bpDown libraries_4/WT_sgA_R1_branch_30bpDown -o libraries_4/WT_sgA_R1_sense_branch_30bpDown --subst_type without</v>
-      </c>
-      <c r="K18" s="2" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", table_4_1[[#This Row],[subst_type]], " -dir ", globals!$A$4, "/", table_4_1[[#This Row],[dir_out]])</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgA_R1_sense_branch_30bpDown</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="6" t="str">
-        <f ca="1">OFFSET(table_3_1[control], 3 * QUOTIENT(table_4_1[[#This Row],[index]] - 1, 2), 0, 1, 1)</f>
-        <v>30bpDown</v>
-      </c>
-      <c r="C19" s="6" t="str">
-        <f ca="1">OFFSET(table_3_1[treatment], 3 * QUOTIENT(table_4_1[[#This Row],[index]] - 1, 2), 0, 1, 1)</f>
-        <v>sense</v>
-      </c>
-      <c r="D19" t="str">
-        <f ca="1">OFFSET(table_3_1[dir], 3 * QUOTIENT(table_4_1[[#This Row],[index]] - 1, 2), 0, 1, 1)</f>
-        <v>WT_sgA_R1_sense_30bpDown</v>
-      </c>
-      <c r="E19" t="str">
-        <f ca="1">OFFSET(table_3_1[treatment], 3 * QUOTIENT(table_4_1[[#This Row],[index]] - 1, 2) + 1 + MOD(table_4_1[[#This Row],[index]] - 1, 2), 0, 1, 1)</f>
-        <v>cmv</v>
-      </c>
-      <c r="F19" t="str">
-        <f ca="1">OFFSET(table_3_1[dir], 3 * QUOTIENT(table_4_1[[#This Row],[index]] - 1, 2) + 1 + MOD(table_4_1[[#This Row],[index]] - 1, 2), 0, 1, 1)</f>
-        <v>WT_sgA_R1_cmv_30bpDown</v>
-      </c>
-      <c r="G19" t="str">
-        <f ca="1">_xlfn.CONCAT(table_4_1[[#This Row],[treatment_1]], "_", table_4_1[[#This Row],[treatment_2]])</f>
-        <v>sense_cmv</v>
-      </c>
-      <c r="H19" t="str">
-        <f ca="1">SUBSTITUTE(table_4_1[[#This Row],[dir_1]], table_4_1[[#This Row],[treatment_1]], table_4_1[[#This Row],[treatments_out]])</f>
-        <v>WT_sgA_R1_sense_cmv_30bpDown</v>
-      </c>
-      <c r="I19" t="str">
-        <f>subst_type</f>
-        <v>without</v>
-      </c>
-      <c r="J19" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", libraries_4, "/", table_4_1[[#This Row],[dir_1]], " ", libraries_4, "/", table_4_1[[#This Row],[dir_2]], " -o ", libraries_4, "/", table_4_1[[#This Row],[dir_out]], " --subst_type ", table_4_1[[#This Row],[subst_type]])</f>
-        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgA_R1_sense_30bpDown libraries_4/WT_sgA_R1_cmv_30bpDown -o libraries_4/WT_sgA_R1_sense_cmv_30bpDown --subst_type without</v>
-      </c>
-      <c r="K19" s="2" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", table_4_1[[#This Row],[subst_type]], " -dir ", globals!$A$4, "/", table_4_1[[#This Row],[dir_out]])</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgA_R1_sense_cmv_30bpDown</v>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="6" t="str">
-        <f ca="1">OFFSET(table_3_1[control], 3 * QUOTIENT(table_4_1[[#This Row],[index]] - 1, 2), 0, 1, 1)</f>
-        <v>30bpDown</v>
-      </c>
-      <c r="C20" s="6" t="str">
-        <f ca="1">OFFSET(table_3_1[treatment], 3 * QUOTIENT(table_4_1[[#This Row],[index]] - 1, 2), 0, 1, 1)</f>
-        <v>sense</v>
-      </c>
-      <c r="D20" t="str">
-        <f ca="1">OFFSET(table_3_1[dir], 3 * QUOTIENT(table_4_1[[#This Row],[index]] - 1, 2), 0, 1, 1)</f>
-        <v>KO_sgA_R1_sense_30bpDown</v>
-      </c>
-      <c r="E20" t="str">
-        <f ca="1">OFFSET(table_3_1[treatment], 3 * QUOTIENT(table_4_1[[#This Row],[index]] - 1, 2) + 1 + MOD(table_4_1[[#This Row],[index]] - 1, 2), 0, 1, 1)</f>
-        <v>branch</v>
-      </c>
-      <c r="F20" t="str">
-        <f ca="1">OFFSET(table_3_1[dir], 3 * QUOTIENT(table_4_1[[#This Row],[index]] - 1, 2) + 1 + MOD(table_4_1[[#This Row],[index]] - 1, 2), 0, 1, 1)</f>
-        <v>KO_sgA_R1_branch_30bpDown</v>
-      </c>
-      <c r="G20" t="str">
-        <f ca="1">_xlfn.CONCAT(table_4_1[[#This Row],[treatment_1]], "_", table_4_1[[#This Row],[treatment_2]])</f>
-        <v>sense_branch</v>
-      </c>
-      <c r="H20" t="str">
-        <f ca="1">SUBSTITUTE(table_4_1[[#This Row],[dir_1]], table_4_1[[#This Row],[treatment_1]], table_4_1[[#This Row],[treatments_out]])</f>
-        <v>KO_sgA_R1_sense_branch_30bpDown</v>
-      </c>
-      <c r="I20" t="str">
-        <f>subst_type</f>
-        <v>without</v>
-      </c>
-      <c r="J20" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", libraries_4, "/", table_4_1[[#This Row],[dir_1]], " ", libraries_4, "/", table_4_1[[#This Row],[dir_2]], " -o ", libraries_4, "/", table_4_1[[#This Row],[dir_out]], " --subst_type ", table_4_1[[#This Row],[subst_type]])</f>
-        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/KO_sgA_R1_sense_30bpDown libraries_4/KO_sgA_R1_branch_30bpDown -o libraries_4/KO_sgA_R1_sense_branch_30bpDown --subst_type without</v>
-      </c>
-      <c r="K20" s="2" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", table_4_1[[#This Row],[subst_type]], " -dir ", globals!$A$4, "/", table_4_1[[#This Row],[dir_out]])</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgA_R1_sense_branch_30bpDown</v>
+      <c r="A20" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="B21" s="6" t="str">
-        <f ca="1">OFFSET(table_3_1[control], 3 * QUOTIENT(table_4_1[[#This Row],[index]] - 1, 2), 0, 1, 1)</f>
-        <v>30bpDown</v>
+        <f ca="1">OFFSET(table_3_1[control], var_4_anti_offset + 2 * (table_4_2[[#This Row],[index]] - 1), 0, 1, 1)</f>
+        <v>none</v>
       </c>
       <c r="C21" s="6" t="str">
-        <f ca="1">OFFSET(table_3_1[treatment], 3 * QUOTIENT(table_4_1[[#This Row],[index]] - 1, 2), 0, 1, 1)</f>
-        <v>sense</v>
+        <f ca="1">OFFSET(table_3_1[treatment], var_4_anti_offset - 1 + 2 * (table_4_2[[#This Row],[index]] - 1), 0, 1, 1)</f>
+        <v>antisense</v>
       </c>
       <c r="D21" t="str">
-        <f ca="1">OFFSET(table_3_1[dir], 3 * QUOTIENT(table_4_1[[#This Row],[index]] - 1, 2), 0, 1, 1)</f>
-        <v>KO_sgA_R1_sense_30bpDown</v>
+        <f ca="1">OFFSET(table_3_1[dir], var_4_anti_offset - 1 + 2 * (table_4_2[[#This Row],[index]] - 1), 0, 1, 1)</f>
+        <v>WT_sgCD_R1_antisense</v>
       </c>
       <c r="E21" t="str">
-        <f ca="1">OFFSET(table_3_1[treatment], 3 * QUOTIENT(table_4_1[[#This Row],[index]] - 1, 2) + 1 + MOD(table_4_1[[#This Row],[index]] - 1, 2), 0, 1, 1)</f>
-        <v>cmv</v>
+        <f ca="1">OFFSET(table_3_1[treatment], var_4_anti_offset - 1 + 2 * (table_4_2[[#This Row],[index]] - 1) + 1, 0, 1, 1)</f>
+        <v>splicing</v>
       </c>
       <c r="F21" t="str">
-        <f ca="1">OFFSET(table_3_1[dir], 3 * QUOTIENT(table_4_1[[#This Row],[index]] - 1, 2) + 1 + MOD(table_4_1[[#This Row],[index]] - 1, 2), 0, 1, 1)</f>
-        <v>KO_sgA_R1_cmv_30bpDown</v>
+        <f ca="1">OFFSET(table_3_1[dir], var_4_anti_offset - 1 + 2 * (table_4_2[[#This Row],[index]] - 1) + 1, 0, 1, 1)</f>
+        <v>WT_sgCD_R1_splicing</v>
       </c>
       <c r="G21" t="str">
-        <f ca="1">_xlfn.CONCAT(table_4_1[[#This Row],[treatment_1]], "_", table_4_1[[#This Row],[treatment_2]])</f>
-        <v>sense_cmv</v>
+        <f ca="1">_xlfn.CONCAT(table_4_2[[#This Row],[treatment_1]], "_", table_4_2[[#This Row],[treatment_2]])</f>
+        <v>antisense_splicing</v>
       </c>
       <c r="H21" t="str">
-        <f ca="1">SUBSTITUTE(table_4_1[[#This Row],[dir_1]], table_4_1[[#This Row],[treatment_1]], table_4_1[[#This Row],[treatments_out]])</f>
-        <v>KO_sgA_R1_sense_cmv_30bpDown</v>
+        <f ca="1">SUBSTITUTE(table_4_2[[#This Row],[dir_1]], table_4_2[[#This Row],[treatment_1]], table_4_2[[#This Row],[treatments_out]])</f>
+        <v>WT_sgCD_R1_antisense_splicing</v>
       </c>
       <c r="I21" t="str">
         <f>subst_type</f>
         <v>without</v>
       </c>
       <c r="J21" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", libraries_4, "/", table_4_1[[#This Row],[dir_1]], " ", libraries_4, "/", table_4_1[[#This Row],[dir_2]], " -o ", libraries_4, "/", table_4_1[[#This Row],[dir_out]], " --subst_type ", table_4_1[[#This Row],[subst_type]])</f>
-        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/KO_sgA_R1_sense_30bpDown libraries_4/KO_sgA_R1_cmv_30bpDown -o libraries_4/KO_sgA_R1_sense_cmv_30bpDown --subst_type without</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", libraries_4, "/", table_4_2[[#This Row],[dir_1]], " ", libraries_4, "/", table_4_2[[#This Row],[dir_2]], " -o ", libraries_4, "/", table_4_2[[#This Row],[dir_out]], " --subst_type ", table_4_2[[#This Row],[subst_type]])</f>
+        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgCD_R1_antisense libraries_4/WT_sgCD_R1_splicing -o libraries_4/WT_sgCD_R1_antisense_splicing --subst_type without</v>
       </c>
       <c r="K21" s="2" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", table_4_1[[#This Row],[subst_type]], " -dir ", globals!$A$4, "/", table_4_1[[#This Row],[dir_out]])</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgA_R1_sense_cmv_30bpDown</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", table_4_2[[#This Row],[subst_type]], " -dir ", libraries_4, "/", table_4_2[[#This Row],[dir_out]])</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgCD_R1_antisense_splicing</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B22" s="6" t="str">
-        <f ca="1">OFFSET(table_3_1[control], 3 * QUOTIENT(table_4_1[[#This Row],[index]] - 1, 2), 0, 1, 1)</f>
-        <v>30bpDown</v>
+        <f ca="1">OFFSET(table_3_1[control], var_4_anti_offset + 2 * (table_4_2[[#This Row],[index]] - 1), 0, 1, 1)</f>
+        <v>none</v>
       </c>
       <c r="C22" s="6" t="str">
-        <f ca="1">OFFSET(table_3_1[treatment], 3 * QUOTIENT(table_4_1[[#This Row],[index]] - 1, 2), 0, 1, 1)</f>
-        <v>sense</v>
+        <f ca="1">OFFSET(table_3_1[treatment], var_4_anti_offset - 1 + 2 * (table_4_2[[#This Row],[index]] - 1), 0, 1, 1)</f>
+        <v>antisense</v>
       </c>
       <c r="D22" t="str">
-        <f ca="1">OFFSET(table_3_1[dir], 3 * QUOTIENT(table_4_1[[#This Row],[index]] - 1, 2), 0, 1, 1)</f>
-        <v>WT_sgB_R2_sense_30bpDown</v>
+        <f ca="1">OFFSET(table_3_1[dir], var_4_anti_offset - 1 + 2 * (table_4_2[[#This Row],[index]] - 1), 0, 1, 1)</f>
+        <v>WT_sgCD_R2_antisense</v>
       </c>
       <c r="E22" t="str">
-        <f ca="1">OFFSET(table_3_1[treatment], 3 * QUOTIENT(table_4_1[[#This Row],[index]] - 1, 2) + 1 + MOD(table_4_1[[#This Row],[index]] - 1, 2), 0, 1, 1)</f>
-        <v>branch</v>
+        <f ca="1">OFFSET(table_3_1[treatment], var_4_anti_offset - 1 + 2 * (table_4_2[[#This Row],[index]] - 1) + 1, 0, 1, 1)</f>
+        <v>splicing</v>
       </c>
       <c r="F22" t="str">
-        <f ca="1">OFFSET(table_3_1[dir], 3 * QUOTIENT(table_4_1[[#This Row],[index]] - 1, 2) + 1 + MOD(table_4_1[[#This Row],[index]] - 1, 2), 0, 1, 1)</f>
-        <v>WT_sgB_R2_branch_30bpDown</v>
+        <f ca="1">OFFSET(table_3_1[dir], var_4_anti_offset - 1 + 2 * (table_4_2[[#This Row],[index]] - 1) + 1, 0, 1, 1)</f>
+        <v>WT_sgCD_R2_splicing</v>
       </c>
       <c r="G22" t="str">
-        <f ca="1">_xlfn.CONCAT(table_4_1[[#This Row],[treatment_1]], "_", table_4_1[[#This Row],[treatment_2]])</f>
-        <v>sense_branch</v>
+        <f ca="1">_xlfn.CONCAT(table_4_2[[#This Row],[treatment_1]], "_", table_4_2[[#This Row],[treatment_2]])</f>
+        <v>antisense_splicing</v>
       </c>
       <c r="H22" t="str">
-        <f ca="1">SUBSTITUTE(table_4_1[[#This Row],[dir_1]], table_4_1[[#This Row],[treatment_1]], table_4_1[[#This Row],[treatments_out]])</f>
-        <v>WT_sgB_R2_sense_branch_30bpDown</v>
+        <f ca="1">SUBSTITUTE(table_4_2[[#This Row],[dir_1]], table_4_2[[#This Row],[treatment_1]], table_4_2[[#This Row],[treatments_out]])</f>
+        <v>WT_sgCD_R2_antisense_splicing</v>
       </c>
       <c r="I22" t="str">
         <f>subst_type</f>
         <v>without</v>
       </c>
       <c r="J22" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", libraries_4, "/", table_4_1[[#This Row],[dir_1]], " ", libraries_4, "/", table_4_1[[#This Row],[dir_2]], " -o ", libraries_4, "/", table_4_1[[#This Row],[dir_out]], " --subst_type ", table_4_1[[#This Row],[subst_type]])</f>
-        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgB_R2_sense_30bpDown libraries_4/WT_sgB_R2_branch_30bpDown -o libraries_4/WT_sgB_R2_sense_branch_30bpDown --subst_type without</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", libraries_4, "/", table_4_2[[#This Row],[dir_1]], " ", libraries_4, "/", table_4_2[[#This Row],[dir_2]], " -o ", libraries_4, "/", table_4_2[[#This Row],[dir_out]], " --subst_type ", table_4_2[[#This Row],[subst_type]])</f>
+        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgCD_R2_antisense libraries_4/WT_sgCD_R2_splicing -o libraries_4/WT_sgCD_R2_antisense_splicing --subst_type without</v>
       </c>
       <c r="K22" s="2" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", table_4_1[[#This Row],[subst_type]], " -dir ", globals!$A$4, "/", table_4_1[[#This Row],[dir_out]])</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgB_R2_sense_branch_30bpDown</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", table_4_2[[#This Row],[subst_type]], " -dir ", libraries_4, "/", table_4_2[[#This Row],[dir_out]])</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgCD_R2_antisense_splicing</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23" s="6" t="str">
-        <f ca="1">OFFSET(table_3_1[control], 3 * QUOTIENT(table_4_1[[#This Row],[index]] - 1, 2), 0, 1, 1)</f>
-        <v>30bpDown</v>
-      </c>
-      <c r="C23" s="6" t="str">
-        <f ca="1">OFFSET(table_3_1[treatment], 3 * QUOTIENT(table_4_1[[#This Row],[index]] - 1, 2), 0, 1, 1)</f>
+      <c r="A23" s="1"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="K23" s="2"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>1</v>
+      </c>
+      <c r="B26" s="7" t="str">
+        <f ca="1">OFFSET(table_3_2[control], 3 * QUOTIENT(table_4_3[[#This Row],[index]] - 1, 2), 0, 1, 1)</f>
+        <v>nodsb</v>
+      </c>
+      <c r="C26" s="7" t="str">
+        <f ca="1">OFFSET(table_3_2[treatment], 3 * QUOTIENT(table_4_3[[#This Row],[index]] - 1, 2), 0, 1, 1)</f>
         <v>sense</v>
       </c>
-      <c r="D23" t="str">
-        <f ca="1">OFFSET(table_3_1[dir], 3 * QUOTIENT(table_4_1[[#This Row],[index]] - 1, 2), 0, 1, 1)</f>
-        <v>WT_sgB_R2_sense_30bpDown</v>
-      </c>
-      <c r="E23" t="str">
-        <f ca="1">OFFSET(table_3_1[treatment], 3 * QUOTIENT(table_4_1[[#This Row],[index]] - 1, 2) + 1 + MOD(table_4_1[[#This Row],[index]] - 1, 2), 0, 1, 1)</f>
-        <v>cmv</v>
-      </c>
-      <c r="F23" t="str">
-        <f ca="1">OFFSET(table_3_1[dir], 3 * QUOTIENT(table_4_1[[#This Row],[index]] - 1, 2) + 1 + MOD(table_4_1[[#This Row],[index]] - 1, 2), 0, 1, 1)</f>
-        <v>WT_sgB_R2_cmv_30bpDown</v>
-      </c>
-      <c r="G23" t="str">
-        <f ca="1">_xlfn.CONCAT(table_4_1[[#This Row],[treatment_1]], "_", table_4_1[[#This Row],[treatment_2]])</f>
-        <v>sense_cmv</v>
-      </c>
-      <c r="H23" t="str">
-        <f ca="1">SUBSTITUTE(table_4_1[[#This Row],[dir_1]], table_4_1[[#This Row],[treatment_1]], table_4_1[[#This Row],[treatments_out]])</f>
-        <v>WT_sgB_R2_sense_cmv_30bpDown</v>
-      </c>
-      <c r="I23" t="str">
+      <c r="D26" s="2" t="str">
+        <f ca="1">OFFSET(table_3_2[dir], 3 * QUOTIENT(table_4_3[[#This Row],[index]] - 1, 2), 0, 1, 1)</f>
+        <v>WT_sgA_R1_sense_nodsb</v>
+      </c>
+      <c r="E26" s="2" t="str">
+        <f ca="1">OFFSET(table_3_2[treatment], 3 * QUOTIENT(table_4_3[[#This Row],[index]] - 1, 2) + 1 + MOD(table_4_3[[#This Row],[index]] - 1, 2), 0, 1, 1)</f>
+        <v>branch</v>
+      </c>
+      <c r="F26" s="2" t="str">
+        <f ca="1">OFFSET(table_3_2[dir], 3 * QUOTIENT(table_4_3[[#This Row],[index]] - 1, 2) + 1 + MOD(table_4_3[[#This Row],[index]] - 1, 2), 0, 1, 1)</f>
+        <v>WT_sgA_R1_branch_nodsb</v>
+      </c>
+      <c r="G26" s="2" t="str">
+        <f ca="1">_xlfn.CONCAT(table_4_3[[#This Row],[treatment_1]], "_", table_4_3[[#This Row],[treatment_2]])</f>
+        <v>sense_branch</v>
+      </c>
+      <c r="H26" s="2" t="str">
+        <f ca="1">SUBSTITUTE(table_4_3[[#This Row],[dir_1]], table_4_3[[#This Row],[treatment_1]], table_4_3[[#This Row],[treatments_out]])</f>
+        <v>WT_sgA_R1_sense_branch_nodsb</v>
+      </c>
+      <c r="I26" t="str">
         <f>subst_type</f>
         <v>without</v>
       </c>
-      <c r="J23" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", libraries_4, "/", table_4_1[[#This Row],[dir_1]], " ", libraries_4, "/", table_4_1[[#This Row],[dir_2]], " -o ", libraries_4, "/", table_4_1[[#This Row],[dir_out]], " --subst_type ", table_4_1[[#This Row],[subst_type]])</f>
-        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgB_R2_sense_30bpDown libraries_4/WT_sgB_R2_cmv_30bpDown -o libraries_4/WT_sgB_R2_sense_cmv_30bpDown --subst_type without</v>
-      </c>
-      <c r="K23" s="2" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", table_4_1[[#This Row],[subst_type]], " -dir ", globals!$A$4, "/", table_4_1[[#This Row],[dir_out]])</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgB_R2_sense_cmv_30bpDown</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="B24" s="6" t="str">
-        <f ca="1">OFFSET(table_3_1[control], 3 * QUOTIENT(table_4_1[[#This Row],[index]] - 1, 2), 0, 1, 1)</f>
-        <v>30bpDown</v>
-      </c>
-      <c r="C24" s="6" t="str">
-        <f ca="1">OFFSET(table_3_1[treatment], 3 * QUOTIENT(table_4_1[[#This Row],[index]] - 1, 2), 0, 1, 1)</f>
+      <c r="J26" s="2" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", libraries_4, "/", table_4_3[[#This Row],[dir_1]], " ", libraries_4, "/", table_4_3[[#This Row],[dir_2]], " -o ", libraries_4, "/", table_4_3[[#This Row],[dir_out]], " --subst_type ", table_4_3[[#This Row],[subst_type]])</f>
+        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgA_R1_sense_nodsb libraries_4/WT_sgA_R1_branch_nodsb -o libraries_4/WT_sgA_R1_sense_branch_nodsb --subst_type without</v>
+      </c>
+      <c r="K26" s="2" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", table_4_3[[#This Row],[subst_type]], " -dir ", libraries_4, "/", table_4_3[[#This Row],[dir_out]])</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgA_R1_sense_branch_nodsb</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>2</v>
+      </c>
+      <c r="B27" s="7" t="str">
+        <f ca="1">OFFSET(table_3_2[control], 3 * QUOTIENT(table_4_3[[#This Row],[index]] - 1, 2), 0, 1, 1)</f>
+        <v>nodsb</v>
+      </c>
+      <c r="C27" s="7" t="str">
+        <f ca="1">OFFSET(table_3_2[treatment], 3 * QUOTIENT(table_4_3[[#This Row],[index]] - 1, 2), 0, 1, 1)</f>
         <v>sense</v>
       </c>
-      <c r="D24" t="str">
-        <f ca="1">OFFSET(table_3_1[dir], 3 * QUOTIENT(table_4_1[[#This Row],[index]] - 1, 2), 0, 1, 1)</f>
-        <v>KO_sgB_R2_sense_30bpDown</v>
-      </c>
-      <c r="E24" t="str">
-        <f ca="1">OFFSET(table_3_1[treatment], 3 * QUOTIENT(table_4_1[[#This Row],[index]] - 1, 2) + 1 + MOD(table_4_1[[#This Row],[index]] - 1, 2), 0, 1, 1)</f>
-        <v>branch</v>
-      </c>
-      <c r="F24" t="str">
-        <f ca="1">OFFSET(table_3_1[dir], 3 * QUOTIENT(table_4_1[[#This Row],[index]] - 1, 2) + 1 + MOD(table_4_1[[#This Row],[index]] - 1, 2), 0, 1, 1)</f>
-        <v>KO_sgB_R2_branch_30bpDown</v>
-      </c>
-      <c r="G24" t="str">
-        <f ca="1">_xlfn.CONCAT(table_4_1[[#This Row],[treatment_1]], "_", table_4_1[[#This Row],[treatment_2]])</f>
-        <v>sense_branch</v>
-      </c>
-      <c r="H24" t="str">
-        <f ca="1">SUBSTITUTE(table_4_1[[#This Row],[dir_1]], table_4_1[[#This Row],[treatment_1]], table_4_1[[#This Row],[treatments_out]])</f>
-        <v>KO_sgB_R2_sense_branch_30bpDown</v>
-      </c>
-      <c r="I24" t="str">
+      <c r="D27" s="2" t="str">
+        <f ca="1">OFFSET(table_3_2[dir], 3 * QUOTIENT(table_4_3[[#This Row],[index]] - 1, 2), 0, 1, 1)</f>
+        <v>WT_sgA_R1_sense_nodsb</v>
+      </c>
+      <c r="E27" s="2" t="str">
+        <f ca="1">OFFSET(table_3_2[treatment], 3 * QUOTIENT(table_4_3[[#This Row],[index]] - 1, 2) + 1 + MOD(table_4_3[[#This Row],[index]] - 1, 2), 0, 1, 1)</f>
+        <v>cmv</v>
+      </c>
+      <c r="F27" s="2" t="str">
+        <f ca="1">OFFSET(table_3_2[dir], 3 * QUOTIENT(table_4_3[[#This Row],[index]] - 1, 2) + 1 + MOD(table_4_3[[#This Row],[index]] - 1, 2), 0, 1, 1)</f>
+        <v>WT_sgA_R1_cmv_nodsb</v>
+      </c>
+      <c r="G27" s="2" t="str">
+        <f ca="1">_xlfn.CONCAT(table_4_3[[#This Row],[treatment_1]], "_", table_4_3[[#This Row],[treatment_2]])</f>
+        <v>sense_cmv</v>
+      </c>
+      <c r="H27" s="2" t="str">
+        <f ca="1">SUBSTITUTE(table_4_3[[#This Row],[dir_1]], table_4_3[[#This Row],[treatment_1]], table_4_3[[#This Row],[treatments_out]])</f>
+        <v>WT_sgA_R1_sense_cmv_nodsb</v>
+      </c>
+      <c r="I27" t="str">
         <f>subst_type</f>
         <v>without</v>
       </c>
-      <c r="J24" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", libraries_4, "/", table_4_1[[#This Row],[dir_1]], " ", libraries_4, "/", table_4_1[[#This Row],[dir_2]], " -o ", libraries_4, "/", table_4_1[[#This Row],[dir_out]], " --subst_type ", table_4_1[[#This Row],[subst_type]])</f>
-        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/KO_sgB_R2_sense_30bpDown libraries_4/KO_sgB_R2_branch_30bpDown -o libraries_4/KO_sgB_R2_sense_branch_30bpDown --subst_type without</v>
-      </c>
-      <c r="K24" s="2" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", table_4_1[[#This Row],[subst_type]], " -dir ", globals!$A$4, "/", table_4_1[[#This Row],[dir_out]])</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgB_R2_sense_branch_30bpDown</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="B25" s="6" t="str">
-        <f ca="1">OFFSET(table_3_1[control], 3 * QUOTIENT(table_4_1[[#This Row],[index]] - 1, 2), 0, 1, 1)</f>
-        <v>30bpDown</v>
-      </c>
-      <c r="C25" s="6" t="str">
-        <f ca="1">OFFSET(table_3_1[treatment], 3 * QUOTIENT(table_4_1[[#This Row],[index]] - 1, 2), 0, 1, 1)</f>
+      <c r="J27" s="2" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", libraries_4, "/", table_4_3[[#This Row],[dir_1]], " ", libraries_4, "/", table_4_3[[#This Row],[dir_2]], " -o ", libraries_4, "/", table_4_3[[#This Row],[dir_out]], " --subst_type ", table_4_3[[#This Row],[subst_type]])</f>
+        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgA_R1_sense_nodsb libraries_4/WT_sgA_R1_cmv_nodsb -o libraries_4/WT_sgA_R1_sense_cmv_nodsb --subst_type without</v>
+      </c>
+      <c r="K27" s="2" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", table_4_3[[#This Row],[subst_type]], " -dir ", libraries_4, "/", table_4_3[[#This Row],[dir_out]])</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgA_R1_sense_cmv_nodsb</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>3</v>
+      </c>
+      <c r="B28" s="6" t="str">
+        <f ca="1">OFFSET(table_3_2[control], 3 * QUOTIENT(table_4_3[[#This Row],[index]] - 1, 2), 0, 1, 1)</f>
+        <v>nodsb</v>
+      </c>
+      <c r="C28" s="6" t="str">
+        <f ca="1">OFFSET(table_3_2[treatment], 3 * QUOTIENT(table_4_3[[#This Row],[index]] - 1, 2), 0, 1, 1)</f>
         <v>sense</v>
       </c>
-      <c r="D25" t="str">
-        <f ca="1">OFFSET(table_3_1[dir], 3 * QUOTIENT(table_4_1[[#This Row],[index]] - 1, 2), 0, 1, 1)</f>
-        <v>KO_sgB_R2_sense_30bpDown</v>
-      </c>
-      <c r="E25" t="str">
-        <f ca="1">OFFSET(table_3_1[treatment], 3 * QUOTIENT(table_4_1[[#This Row],[index]] - 1, 2) + 1 + MOD(table_4_1[[#This Row],[index]] - 1, 2), 0, 1, 1)</f>
-        <v>cmv</v>
-      </c>
-      <c r="F25" t="str">
-        <f ca="1">OFFSET(table_3_1[dir], 3 * QUOTIENT(table_4_1[[#This Row],[index]] - 1, 2) + 1 + MOD(table_4_1[[#This Row],[index]] - 1, 2), 0, 1, 1)</f>
-        <v>KO_sgB_R2_cmv_30bpDown</v>
-      </c>
-      <c r="G25" t="str">
-        <f ca="1">_xlfn.CONCAT(table_4_1[[#This Row],[treatment_1]], "_", table_4_1[[#This Row],[treatment_2]])</f>
-        <v>sense_cmv</v>
-      </c>
-      <c r="H25" t="str">
-        <f ca="1">SUBSTITUTE(table_4_1[[#This Row],[dir_1]], table_4_1[[#This Row],[treatment_1]], table_4_1[[#This Row],[treatments_out]])</f>
-        <v>KO_sgB_R2_sense_cmv_30bpDown</v>
-      </c>
-      <c r="I25" t="str">
+      <c r="D28" t="str">
+        <f ca="1">OFFSET(table_3_2[dir], 3 * QUOTIENT(table_4_3[[#This Row],[index]] - 1, 2), 0, 1, 1)</f>
+        <v>KO_sgA_R1_sense_nodsb</v>
+      </c>
+      <c r="E28" t="str">
+        <f ca="1">OFFSET(table_3_2[treatment], 3 * QUOTIENT(table_4_3[[#This Row],[index]] - 1, 2) + 1 + MOD(table_4_3[[#This Row],[index]] - 1, 2), 0, 1, 1)</f>
+        <v>branch</v>
+      </c>
+      <c r="F28" t="str">
+        <f ca="1">OFFSET(table_3_2[dir], 3 * QUOTIENT(table_4_3[[#This Row],[index]] - 1, 2) + 1 + MOD(table_4_3[[#This Row],[index]] - 1, 2), 0, 1, 1)</f>
+        <v>KO_sgA_R1_branch_nodsb</v>
+      </c>
+      <c r="G28" t="str">
+        <f ca="1">_xlfn.CONCAT(table_4_3[[#This Row],[treatment_1]], "_", table_4_3[[#This Row],[treatment_2]])</f>
+        <v>sense_branch</v>
+      </c>
+      <c r="H28" t="str">
+        <f ca="1">SUBSTITUTE(table_4_3[[#This Row],[dir_1]], table_4_3[[#This Row],[treatment_1]], table_4_3[[#This Row],[treatments_out]])</f>
+        <v>KO_sgA_R1_sense_branch_nodsb</v>
+      </c>
+      <c r="I28" t="str">
         <f>subst_type</f>
         <v>without</v>
       </c>
-      <c r="J25" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", libraries_4, "/", table_4_1[[#This Row],[dir_1]], " ", libraries_4, "/", table_4_1[[#This Row],[dir_2]], " -o ", libraries_4, "/", table_4_1[[#This Row],[dir_out]], " --subst_type ", table_4_1[[#This Row],[subst_type]])</f>
-        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/KO_sgB_R2_sense_30bpDown libraries_4/KO_sgB_R2_cmv_30bpDown -o libraries_4/KO_sgB_R2_sense_cmv_30bpDown --subst_type without</v>
-      </c>
-      <c r="K25" s="2" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", table_4_1[[#This Row],[subst_type]], " -dir ", globals!$A$4, "/", table_4_1[[#This Row],[dir_out]])</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgB_R2_sense_cmv_30bpDown</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>109</v>
+      <c r="J28" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", libraries_4, "/", table_4_3[[#This Row],[dir_1]], " ", libraries_4, "/", table_4_3[[#This Row],[dir_2]], " -o ", libraries_4, "/", table_4_3[[#This Row],[dir_out]], " --subst_type ", table_4_3[[#This Row],[subst_type]])</f>
+        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/KO_sgA_R1_sense_nodsb libraries_4/KO_sgA_R1_branch_nodsb -o libraries_4/KO_sgA_R1_sense_branch_nodsb --subst_type without</v>
+      </c>
+      <c r="K28" s="2" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", table_4_3[[#This Row],[subst_type]], " -dir ", libraries_4, "/", table_4_3[[#This Row],[dir_out]])</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgA_R1_sense_branch_nodsb</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B29" s="6" t="str">
-        <f ca="1">OFFSET(table_3_1[control], var_4_anti_offset + 2 * (table_4_2[[#This Row],[index]] - 1), 0, 1, 1)</f>
-        <v>none</v>
+        <f ca="1">OFFSET(table_3_2[control], 3 * QUOTIENT(table_4_3[[#This Row],[index]] - 1, 2), 0, 1, 1)</f>
+        <v>nodsb</v>
       </c>
       <c r="C29" s="6" t="str">
-        <f ca="1">OFFSET(table_3_1[treatment], var_4_anti_offset + 2 * (table_4_2[[#This Row],[index]] - 1), 0, 1, 1)</f>
-        <v>antisense</v>
+        <f ca="1">OFFSET(table_3_2[treatment], 3 * QUOTIENT(table_4_3[[#This Row],[index]] - 1, 2), 0, 1, 1)</f>
+        <v>sense</v>
       </c>
       <c r="D29" t="str">
-        <f ca="1">OFFSET(table_3_1[dir], var_4_anti_offset + 2 * (table_4_2[[#This Row],[index]] - 1), 0, 1, 1)</f>
-        <v>WT_sgCD_R1_antisense</v>
+        <f ca="1">OFFSET(table_3_2[dir], 3 * QUOTIENT(table_4_3[[#This Row],[index]] - 1, 2), 0, 1, 1)</f>
+        <v>KO_sgA_R1_sense_nodsb</v>
       </c>
       <c r="E29" t="str">
-        <f ca="1">OFFSET(table_3_1[treatment], var_4_anti_offset + 2 * (table_4_2[[#This Row],[index]] - 1) + 1, 0, 1, 1)</f>
-        <v>splicing</v>
+        <f ca="1">OFFSET(table_3_2[treatment], 3 * QUOTIENT(table_4_3[[#This Row],[index]] - 1, 2) + 1 + MOD(table_4_3[[#This Row],[index]] - 1, 2), 0, 1, 1)</f>
+        <v>cmv</v>
       </c>
       <c r="F29" t="str">
-        <f ca="1">OFFSET(table_3_1[dir], var_4_anti_offset + 2 * (table_4_2[[#This Row],[index]] - 1) + 1, 0, 1, 1)</f>
-        <v>WT_sgCD_R1_splicing</v>
+        <f ca="1">OFFSET(table_3_2[dir], 3 * QUOTIENT(table_4_3[[#This Row],[index]] - 1, 2) + 1 + MOD(table_4_3[[#This Row],[index]] - 1, 2), 0, 1, 1)</f>
+        <v>KO_sgA_R1_cmv_nodsb</v>
       </c>
       <c r="G29" t="str">
-        <f ca="1">_xlfn.CONCAT(table_4_2[[#This Row],[treatment_1]], "_", table_4_2[[#This Row],[treatment_2]])</f>
-        <v>antisense_splicing</v>
+        <f ca="1">_xlfn.CONCAT(table_4_3[[#This Row],[treatment_1]], "_", table_4_3[[#This Row],[treatment_2]])</f>
+        <v>sense_cmv</v>
       </c>
       <c r="H29" t="str">
-        <f ca="1">SUBSTITUTE(table_4_2[[#This Row],[dir_1]], table_4_2[[#This Row],[treatment_1]], table_4_2[[#This Row],[treatments_out]])</f>
-        <v>WT_sgCD_R1_antisense_splicing</v>
+        <f ca="1">SUBSTITUTE(table_4_3[[#This Row],[dir_1]], table_4_3[[#This Row],[treatment_1]], table_4_3[[#This Row],[treatments_out]])</f>
+        <v>KO_sgA_R1_sense_cmv_nodsb</v>
       </c>
       <c r="I29" t="str">
         <f>subst_type</f>
         <v>without</v>
       </c>
       <c r="J29" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", libraries_4, "/", table_4_2[[#This Row],[dir_1]], " ", libraries_4, "/", table_4_2[[#This Row],[dir_2]], " -o ", libraries_4, "/", table_4_2[[#This Row],[dir_out]], " --subst_type ", table_4_2[[#This Row],[subst_type]])</f>
-        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgCD_R1_antisense libraries_4/WT_sgCD_R1_splicing -o libraries_4/WT_sgCD_R1_antisense_splicing --subst_type without</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", libraries_4, "/", table_4_3[[#This Row],[dir_1]], " ", libraries_4, "/", table_4_3[[#This Row],[dir_2]], " -o ", libraries_4, "/", table_4_3[[#This Row],[dir_out]], " --subst_type ", table_4_3[[#This Row],[subst_type]])</f>
+        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/KO_sgA_R1_sense_nodsb libraries_4/KO_sgA_R1_cmv_nodsb -o libraries_4/KO_sgA_R1_sense_cmv_nodsb --subst_type without</v>
       </c>
       <c r="K29" s="2" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", table_4_2[[#This Row],[subst_type]], " -dir ", globals!$A$4, "/", table_4_2[[#This Row],[dir_out]])</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgCD_R1_antisense_splicing</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", table_4_3[[#This Row],[subst_type]], " -dir ", libraries_4, "/", table_4_3[[#This Row],[dir_out]])</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgA_R1_sense_cmv_nodsb</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B30" s="6" t="str">
-        <f ca="1">OFFSET(table_3_1[control], var_4_anti_offset + 2 * (table_4_2[[#This Row],[index]] - 1), 0, 1, 1)</f>
-        <v>none</v>
+        <f ca="1">OFFSET(table_3_2[control], 3 * QUOTIENT(table_4_3[[#This Row],[index]] - 1, 2), 0, 1, 1)</f>
+        <v>nodsb</v>
       </c>
       <c r="C30" s="6" t="str">
-        <f ca="1">OFFSET(table_3_1[treatment], var_4_anti_offset + 2 * (table_4_2[[#This Row],[index]] - 1), 0, 1, 1)</f>
-        <v>antisense</v>
+        <f ca="1">OFFSET(table_3_2[treatment], 3 * QUOTIENT(table_4_3[[#This Row],[index]] - 1, 2), 0, 1, 1)</f>
+        <v>sense</v>
       </c>
       <c r="D30" t="str">
-        <f ca="1">OFFSET(table_3_1[dir], var_4_anti_offset + 2 * (table_4_2[[#This Row],[index]] - 1), 0, 1, 1)</f>
-        <v>WT_sgCD_R2_antisense</v>
+        <f ca="1">OFFSET(table_3_2[dir], 3 * QUOTIENT(table_4_3[[#This Row],[index]] - 1, 2), 0, 1, 1)</f>
+        <v>WT_sgB_R2_sense_nodsb</v>
       </c>
       <c r="E30" t="str">
-        <f ca="1">OFFSET(table_3_1[treatment], var_4_anti_offset + 2 * (table_4_2[[#This Row],[index]] - 1) + 1, 0, 1, 1)</f>
-        <v>splicing</v>
+        <f ca="1">OFFSET(table_3_2[treatment], 3 * QUOTIENT(table_4_3[[#This Row],[index]] - 1, 2) + 1 + MOD(table_4_3[[#This Row],[index]] - 1, 2), 0, 1, 1)</f>
+        <v>branch</v>
       </c>
       <c r="F30" t="str">
-        <f ca="1">OFFSET(table_3_1[dir], var_4_anti_offset + 2 * (table_4_2[[#This Row],[index]] - 1) + 1, 0, 1, 1)</f>
-        <v>WT_sgCD_R2_splicing</v>
+        <f ca="1">OFFSET(table_3_2[dir], 3 * QUOTIENT(table_4_3[[#This Row],[index]] - 1, 2) + 1 + MOD(table_4_3[[#This Row],[index]] - 1, 2), 0, 1, 1)</f>
+        <v>WT_sgB_R2_branch_nodsb</v>
       </c>
       <c r="G30" t="str">
-        <f ca="1">_xlfn.CONCAT(table_4_2[[#This Row],[treatment_1]], "_", table_4_2[[#This Row],[treatment_2]])</f>
-        <v>antisense_splicing</v>
+        <f ca="1">_xlfn.CONCAT(table_4_3[[#This Row],[treatment_1]], "_", table_4_3[[#This Row],[treatment_2]])</f>
+        <v>sense_branch</v>
       </c>
       <c r="H30" t="str">
-        <f ca="1">SUBSTITUTE(table_4_2[[#This Row],[dir_1]], table_4_2[[#This Row],[treatment_1]], table_4_2[[#This Row],[treatments_out]])</f>
-        <v>WT_sgCD_R2_antisense_splicing</v>
+        <f ca="1">SUBSTITUTE(table_4_3[[#This Row],[dir_1]], table_4_3[[#This Row],[treatment_1]], table_4_3[[#This Row],[treatments_out]])</f>
+        <v>WT_sgB_R2_sense_branch_nodsb</v>
       </c>
       <c r="I30" t="str">
         <f>subst_type</f>
         <v>without</v>
       </c>
       <c r="J30" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", libraries_4, "/", table_4_2[[#This Row],[dir_1]], " ", libraries_4, "/", table_4_2[[#This Row],[dir_2]], " -o ", libraries_4, "/", table_4_2[[#This Row],[dir_out]], " --subst_type ", table_4_2[[#This Row],[subst_type]])</f>
-        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgCD_R2_antisense libraries_4/WT_sgCD_R2_splicing -o libraries_4/WT_sgCD_R2_antisense_splicing --subst_type without</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", libraries_4, "/", table_4_3[[#This Row],[dir_1]], " ", libraries_4, "/", table_4_3[[#This Row],[dir_2]], " -o ", libraries_4, "/", table_4_3[[#This Row],[dir_out]], " --subst_type ", table_4_3[[#This Row],[subst_type]])</f>
+        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgB_R2_sense_nodsb libraries_4/WT_sgB_R2_branch_nodsb -o libraries_4/WT_sgB_R2_sense_branch_nodsb --subst_type without</v>
       </c>
       <c r="K30" s="2" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", table_4_2[[#This Row],[subst_type]], " -dir ", globals!$A$4, "/", table_4_2[[#This Row],[dir_out]])</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgCD_R2_antisense_splicing</v>
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", table_4_3[[#This Row],[subst_type]], " -dir ", libraries_4, "/", table_4_3[[#This Row],[dir_out]])</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgB_R2_sense_branch_nodsb</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="K31" s="2"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>1</v>
-      </c>
-      <c r="B34" s="7" t="str">
+      <c r="A31" s="1">
+        <v>6</v>
+      </c>
+      <c r="B31" s="6" t="str">
         <f ca="1">OFFSET(table_3_2[control], 3 * QUOTIENT(table_4_3[[#This Row],[index]] - 1, 2), 0, 1, 1)</f>
         <v>nodsb</v>
       </c>
-      <c r="C34" s="7" t="str">
+      <c r="C31" s="6" t="str">
         <f ca="1">OFFSET(table_3_2[treatment], 3 * QUOTIENT(table_4_3[[#This Row],[index]] - 1, 2), 0, 1, 1)</f>
         <v>sense</v>
       </c>
-      <c r="D34" s="2" t="str">
+      <c r="D31" t="str">
         <f ca="1">OFFSET(table_3_2[dir], 3 * QUOTIENT(table_4_3[[#This Row],[index]] - 1, 2), 0, 1, 1)</f>
-        <v>WT_sgA_R1_sense_nodsb</v>
-      </c>
-      <c r="E34" s="2" t="str">
+        <v>WT_sgB_R2_sense_nodsb</v>
+      </c>
+      <c r="E31" t="str">
+        <f ca="1">OFFSET(table_3_2[treatment], 3 * QUOTIENT(table_4_3[[#This Row],[index]] - 1, 2) + 1 + MOD(table_4_3[[#This Row],[index]] - 1, 2), 0, 1, 1)</f>
+        <v>cmv</v>
+      </c>
+      <c r="F31" t="str">
+        <f ca="1">OFFSET(table_3_2[dir], 3 * QUOTIENT(table_4_3[[#This Row],[index]] - 1, 2) + 1 + MOD(table_4_3[[#This Row],[index]] - 1, 2), 0, 1, 1)</f>
+        <v>WT_sgB_R2_cmv_nodsb</v>
+      </c>
+      <c r="G31" t="str">
+        <f ca="1">_xlfn.CONCAT(table_4_3[[#This Row],[treatment_1]], "_", table_4_3[[#This Row],[treatment_2]])</f>
+        <v>sense_cmv</v>
+      </c>
+      <c r="H31" t="str">
+        <f ca="1">SUBSTITUTE(table_4_3[[#This Row],[dir_1]], table_4_3[[#This Row],[treatment_1]], table_4_3[[#This Row],[treatments_out]])</f>
+        <v>WT_sgB_R2_sense_cmv_nodsb</v>
+      </c>
+      <c r="I31" t="str">
+        <f>subst_type</f>
+        <v>without</v>
+      </c>
+      <c r="J31" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", libraries_4, "/", table_4_3[[#This Row],[dir_1]], " ", libraries_4, "/", table_4_3[[#This Row],[dir_2]], " -o ", libraries_4, "/", table_4_3[[#This Row],[dir_out]], " --subst_type ", table_4_3[[#This Row],[subst_type]])</f>
+        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgB_R2_sense_nodsb libraries_4/WT_sgB_R2_cmv_nodsb -o libraries_4/WT_sgB_R2_sense_cmv_nodsb --subst_type without</v>
+      </c>
+      <c r="K31" s="2" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", table_4_3[[#This Row],[subst_type]], " -dir ", libraries_4, "/", table_4_3[[#This Row],[dir_out]])</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgB_R2_sense_cmv_nodsb</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>7</v>
+      </c>
+      <c r="B32" s="6" t="str">
+        <f ca="1">OFFSET(table_3_2[control], 3 * QUOTIENT(table_4_3[[#This Row],[index]] - 1, 2), 0, 1, 1)</f>
+        <v>nodsb</v>
+      </c>
+      <c r="C32" s="6" t="str">
+        <f ca="1">OFFSET(table_3_2[treatment], 3 * QUOTIENT(table_4_3[[#This Row],[index]] - 1, 2), 0, 1, 1)</f>
+        <v>sense</v>
+      </c>
+      <c r="D32" t="str">
+        <f ca="1">OFFSET(table_3_2[dir], 3 * QUOTIENT(table_4_3[[#This Row],[index]] - 1, 2), 0, 1, 1)</f>
+        <v>KO_sgB_R2_sense_nodsb</v>
+      </c>
+      <c r="E32" t="str">
         <f ca="1">OFFSET(table_3_2[treatment], 3 * QUOTIENT(table_4_3[[#This Row],[index]] - 1, 2) + 1 + MOD(table_4_3[[#This Row],[index]] - 1, 2), 0, 1, 1)</f>
         <v>branch</v>
       </c>
-      <c r="F34" s="2" t="str">
+      <c r="F32" t="str">
         <f ca="1">OFFSET(table_3_2[dir], 3 * QUOTIENT(table_4_3[[#This Row],[index]] - 1, 2) + 1 + MOD(table_4_3[[#This Row],[index]] - 1, 2), 0, 1, 1)</f>
-        <v>WT_sgA_R1_branch_nodsb</v>
-      </c>
-      <c r="G34" s="2" t="str">
+        <v>KO_sgB_R2_branch_nodsb</v>
+      </c>
+      <c r="G32" t="str">
         <f ca="1">_xlfn.CONCAT(table_4_3[[#This Row],[treatment_1]], "_", table_4_3[[#This Row],[treatment_2]])</f>
         <v>sense_branch</v>
       </c>
-      <c r="H34" s="2" t="str">
+      <c r="H32" t="str">
         <f ca="1">SUBSTITUTE(table_4_3[[#This Row],[dir_1]], table_4_3[[#This Row],[treatment_1]], table_4_3[[#This Row],[treatments_out]])</f>
-        <v>WT_sgA_R1_sense_branch_nodsb</v>
-      </c>
-      <c r="I34" t="str">
+        <v>KO_sgB_R2_sense_branch_nodsb</v>
+      </c>
+      <c r="I32" t="str">
         <f>subst_type</f>
         <v>without</v>
       </c>
-      <c r="J34" s="2" t="str">
+      <c r="J32" t="str">
         <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", libraries_4, "/", table_4_3[[#This Row],[dir_1]], " ", libraries_4, "/", table_4_3[[#This Row],[dir_2]], " -o ", libraries_4, "/", table_4_3[[#This Row],[dir_out]], " --subst_type ", table_4_3[[#This Row],[subst_type]])</f>
-        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgA_R1_sense_nodsb libraries_4/WT_sgA_R1_branch_nodsb -o libraries_4/WT_sgA_R1_sense_branch_nodsb --subst_type without</v>
-      </c>
-      <c r="K34" s="2" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", table_4_3[[#This Row],[subst_type]], " -dir ", globals!$A$4, "/", table_4_3[[#This Row],[dir_out]])</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgA_R1_sense_branch_nodsb</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>2</v>
-      </c>
-      <c r="B35" s="7" t="str">
+        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/KO_sgB_R2_sense_nodsb libraries_4/KO_sgB_R2_branch_nodsb -o libraries_4/KO_sgB_R2_sense_branch_nodsb --subst_type without</v>
+      </c>
+      <c r="K32" s="2" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", table_4_3[[#This Row],[subst_type]], " -dir ", libraries_4, "/", table_4_3[[#This Row],[dir_out]])</f>
+        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgB_R2_sense_branch_nodsb</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>8</v>
+      </c>
+      <c r="B33" s="6" t="str">
         <f ca="1">OFFSET(table_3_2[control], 3 * QUOTIENT(table_4_3[[#This Row],[index]] - 1, 2), 0, 1, 1)</f>
         <v>nodsb</v>
       </c>
-      <c r="C35" s="7" t="str">
+      <c r="C33" s="6" t="str">
         <f ca="1">OFFSET(table_3_2[treatment], 3 * QUOTIENT(table_4_3[[#This Row],[index]] - 1, 2), 0, 1, 1)</f>
         <v>sense</v>
       </c>
-      <c r="D35" s="2" t="str">
+      <c r="D33" t="str">
         <f ca="1">OFFSET(table_3_2[dir], 3 * QUOTIENT(table_4_3[[#This Row],[index]] - 1, 2), 0, 1, 1)</f>
-        <v>WT_sgA_R1_sense_nodsb</v>
-      </c>
-      <c r="E35" s="2" t="str">
+        <v>KO_sgB_R2_sense_nodsb</v>
+      </c>
+      <c r="E33" t="str">
         <f ca="1">OFFSET(table_3_2[treatment], 3 * QUOTIENT(table_4_3[[#This Row],[index]] - 1, 2) + 1 + MOD(table_4_3[[#This Row],[index]] - 1, 2), 0, 1, 1)</f>
         <v>cmv</v>
       </c>
-      <c r="F35" s="2" t="str">
+      <c r="F33" t="str">
         <f ca="1">OFFSET(table_3_2[dir], 3 * QUOTIENT(table_4_3[[#This Row],[index]] - 1, 2) + 1 + MOD(table_4_3[[#This Row],[index]] - 1, 2), 0, 1, 1)</f>
-        <v>WT_sgA_R1_cmv_nodsb</v>
-      </c>
-      <c r="G35" s="2" t="str">
+        <v>KO_sgB_R2_cmv_nodsb</v>
+      </c>
+      <c r="G33" t="str">
         <f ca="1">_xlfn.CONCAT(table_4_3[[#This Row],[treatment_1]], "_", table_4_3[[#This Row],[treatment_2]])</f>
         <v>sense_cmv</v>
       </c>
-      <c r="H35" s="2" t="str">
+      <c r="H33" t="str">
         <f ca="1">SUBSTITUTE(table_4_3[[#This Row],[dir_1]], table_4_3[[#This Row],[treatment_1]], table_4_3[[#This Row],[treatments_out]])</f>
-        <v>WT_sgA_R1_sense_cmv_nodsb</v>
-      </c>
-      <c r="I35" t="str">
+        <v>KO_sgB_R2_sense_cmv_nodsb</v>
+      </c>
+      <c r="I33" t="str">
         <f>subst_type</f>
         <v>without</v>
       </c>
-      <c r="J35" s="2" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", libraries_4, "/", table_4_3[[#This Row],[dir_1]], " ", libraries_4, "/", table_4_3[[#This Row],[dir_2]], " -o ", libraries_4, "/", table_4_3[[#This Row],[dir_out]], " --subst_type ", table_4_3[[#This Row],[subst_type]])</f>
-        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgA_R1_sense_nodsb libraries_4/WT_sgA_R1_cmv_nodsb -o libraries_4/WT_sgA_R1_sense_cmv_nodsb --subst_type without</v>
-      </c>
-      <c r="K35" s="2" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", table_4_3[[#This Row],[subst_type]], " -dir ", globals!$A$4, "/", table_4_3[[#This Row],[dir_out]])</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgA_R1_sense_cmv_nodsb</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>3</v>
-      </c>
-      <c r="B36" s="6" t="str">
-        <f ca="1">OFFSET(table_3_2[control], 3 * QUOTIENT(table_4_3[[#This Row],[index]] - 1, 2), 0, 1, 1)</f>
-        <v>nodsb</v>
-      </c>
-      <c r="C36" s="6" t="str">
-        <f ca="1">OFFSET(table_3_2[treatment], 3 * QUOTIENT(table_4_3[[#This Row],[index]] - 1, 2), 0, 1, 1)</f>
-        <v>sense</v>
-      </c>
-      <c r="D36" t="str">
-        <f ca="1">OFFSET(table_3_2[dir], 3 * QUOTIENT(table_4_3[[#This Row],[index]] - 1, 2), 0, 1, 1)</f>
-        <v>KO_sgA_R1_sense_nodsb</v>
-      </c>
-      <c r="E36" t="str">
-        <f ca="1">OFFSET(table_3_2[treatment], 3 * QUOTIENT(table_4_3[[#This Row],[index]] - 1, 2) + 1 + MOD(table_4_3[[#This Row],[index]] - 1, 2), 0, 1, 1)</f>
-        <v>branch</v>
-      </c>
-      <c r="F36" t="str">
-        <f ca="1">OFFSET(table_3_2[dir], 3 * QUOTIENT(table_4_3[[#This Row],[index]] - 1, 2) + 1 + MOD(table_4_3[[#This Row],[index]] - 1, 2), 0, 1, 1)</f>
-        <v>KO_sgA_R1_branch_nodsb</v>
-      </c>
-      <c r="G36" t="str">
-        <f ca="1">_xlfn.CONCAT(table_4_3[[#This Row],[treatment_1]], "_", table_4_3[[#This Row],[treatment_2]])</f>
-        <v>sense_branch</v>
-      </c>
-      <c r="H36" t="str">
-        <f ca="1">SUBSTITUTE(table_4_3[[#This Row],[dir_1]], table_4_3[[#This Row],[treatment_1]], table_4_3[[#This Row],[treatments_out]])</f>
-        <v>KO_sgA_R1_sense_branch_nodsb</v>
-      </c>
-      <c r="I36" t="str">
-        <f>subst_type</f>
-        <v>without</v>
-      </c>
-      <c r="J36" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", libraries_4, "/", table_4_3[[#This Row],[dir_1]], " ", libraries_4, "/", table_4_3[[#This Row],[dir_2]], " -o ", libraries_4, "/", table_4_3[[#This Row],[dir_out]], " --subst_type ", table_4_3[[#This Row],[subst_type]])</f>
-        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/KO_sgA_R1_sense_nodsb libraries_4/KO_sgA_R1_branch_nodsb -o libraries_4/KO_sgA_R1_sense_branch_nodsb --subst_type without</v>
-      </c>
-      <c r="K36" s="2" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", table_4_3[[#This Row],[subst_type]], " -dir ", globals!$A$4, "/", table_4_3[[#This Row],[dir_out]])</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgA_R1_sense_branch_nodsb</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>4</v>
-      </c>
-      <c r="B37" s="6" t="str">
-        <f ca="1">OFFSET(table_3_2[control], 3 * QUOTIENT(table_4_3[[#This Row],[index]] - 1, 2), 0, 1, 1)</f>
-        <v>nodsb</v>
-      </c>
-      <c r="C37" s="6" t="str">
-        <f ca="1">OFFSET(table_3_2[treatment], 3 * QUOTIENT(table_4_3[[#This Row],[index]] - 1, 2), 0, 1, 1)</f>
-        <v>sense</v>
-      </c>
-      <c r="D37" t="str">
-        <f ca="1">OFFSET(table_3_2[dir], 3 * QUOTIENT(table_4_3[[#This Row],[index]] - 1, 2), 0, 1, 1)</f>
-        <v>KO_sgA_R1_sense_nodsb</v>
-      </c>
-      <c r="E37" t="str">
-        <f ca="1">OFFSET(table_3_2[treatment], 3 * QUOTIENT(table_4_3[[#This Row],[index]] - 1, 2) + 1 + MOD(table_4_3[[#This Row],[index]] - 1, 2), 0, 1, 1)</f>
-        <v>cmv</v>
-      </c>
-      <c r="F37" t="str">
-        <f ca="1">OFFSET(table_3_2[dir], 3 * QUOTIENT(table_4_3[[#This Row],[index]] - 1, 2) + 1 + MOD(table_4_3[[#This Row],[index]] - 1, 2), 0, 1, 1)</f>
-        <v>KO_sgA_R1_cmv_nodsb</v>
-      </c>
-      <c r="G37" t="str">
-        <f ca="1">_xlfn.CONCAT(table_4_3[[#This Row],[treatment_1]], "_", table_4_3[[#This Row],[treatment_2]])</f>
-        <v>sense_cmv</v>
-      </c>
-      <c r="H37" t="str">
-        <f ca="1">SUBSTITUTE(table_4_3[[#This Row],[dir_1]], table_4_3[[#This Row],[treatment_1]], table_4_3[[#This Row],[treatments_out]])</f>
-        <v>KO_sgA_R1_sense_cmv_nodsb</v>
-      </c>
-      <c r="I37" t="str">
-        <f>subst_type</f>
-        <v>without</v>
-      </c>
-      <c r="J37" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", libraries_4, "/", table_4_3[[#This Row],[dir_1]], " ", libraries_4, "/", table_4_3[[#This Row],[dir_2]], " -o ", libraries_4, "/", table_4_3[[#This Row],[dir_out]], " --subst_type ", table_4_3[[#This Row],[subst_type]])</f>
-        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/KO_sgA_R1_sense_nodsb libraries_4/KO_sgA_R1_cmv_nodsb -o libraries_4/KO_sgA_R1_sense_cmv_nodsb --subst_type without</v>
-      </c>
-      <c r="K37" s="2" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", table_4_3[[#This Row],[subst_type]], " -dir ", globals!$A$4, "/", table_4_3[[#This Row],[dir_out]])</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgA_R1_sense_cmv_nodsb</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>5</v>
-      </c>
-      <c r="B38" s="6" t="str">
-        <f ca="1">OFFSET(table_3_2[control], 3 * QUOTIENT(table_4_3[[#This Row],[index]] - 1, 2), 0, 1, 1)</f>
-        <v>nodsb</v>
-      </c>
-      <c r="C38" s="6" t="str">
-        <f ca="1">OFFSET(table_3_2[treatment], 3 * QUOTIENT(table_4_3[[#This Row],[index]] - 1, 2), 0, 1, 1)</f>
-        <v>sense</v>
-      </c>
-      <c r="D38" t="str">
-        <f ca="1">OFFSET(table_3_2[dir], 3 * QUOTIENT(table_4_3[[#This Row],[index]] - 1, 2), 0, 1, 1)</f>
-        <v>WT_sgB_R2_sense_nodsb</v>
-      </c>
-      <c r="E38" t="str">
-        <f ca="1">OFFSET(table_3_2[treatment], 3 * QUOTIENT(table_4_3[[#This Row],[index]] - 1, 2) + 1 + MOD(table_4_3[[#This Row],[index]] - 1, 2), 0, 1, 1)</f>
-        <v>branch</v>
-      </c>
-      <c r="F38" t="str">
-        <f ca="1">OFFSET(table_3_2[dir], 3 * QUOTIENT(table_4_3[[#This Row],[index]] - 1, 2) + 1 + MOD(table_4_3[[#This Row],[index]] - 1, 2), 0, 1, 1)</f>
-        <v>WT_sgB_R2_branch_nodsb</v>
-      </c>
-      <c r="G38" t="str">
-        <f ca="1">_xlfn.CONCAT(table_4_3[[#This Row],[treatment_1]], "_", table_4_3[[#This Row],[treatment_2]])</f>
-        <v>sense_branch</v>
-      </c>
-      <c r="H38" t="str">
-        <f ca="1">SUBSTITUTE(table_4_3[[#This Row],[dir_1]], table_4_3[[#This Row],[treatment_1]], table_4_3[[#This Row],[treatments_out]])</f>
-        <v>WT_sgB_R2_sense_branch_nodsb</v>
-      </c>
-      <c r="I38" t="str">
-        <f>subst_type</f>
-        <v>without</v>
-      </c>
-      <c r="J38" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", libraries_4, "/", table_4_3[[#This Row],[dir_1]], " ", libraries_4, "/", table_4_3[[#This Row],[dir_2]], " -o ", libraries_4, "/", table_4_3[[#This Row],[dir_out]], " --subst_type ", table_4_3[[#This Row],[subst_type]])</f>
-        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgB_R2_sense_nodsb libraries_4/WT_sgB_R2_branch_nodsb -o libraries_4/WT_sgB_R2_sense_branch_nodsb --subst_type without</v>
-      </c>
-      <c r="K38" s="2" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", table_4_3[[#This Row],[subst_type]], " -dir ", globals!$A$4, "/", table_4_3[[#This Row],[dir_out]])</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgB_R2_sense_branch_nodsb</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>6</v>
-      </c>
-      <c r="B39" s="6" t="str">
-        <f ca="1">OFFSET(table_3_2[control], 3 * QUOTIENT(table_4_3[[#This Row],[index]] - 1, 2), 0, 1, 1)</f>
-        <v>nodsb</v>
-      </c>
-      <c r="C39" s="6" t="str">
-        <f ca="1">OFFSET(table_3_2[treatment], 3 * QUOTIENT(table_4_3[[#This Row],[index]] - 1, 2), 0, 1, 1)</f>
-        <v>sense</v>
-      </c>
-      <c r="D39" t="str">
-        <f ca="1">OFFSET(table_3_2[dir], 3 * QUOTIENT(table_4_3[[#This Row],[index]] - 1, 2), 0, 1, 1)</f>
-        <v>WT_sgB_R2_sense_nodsb</v>
-      </c>
-      <c r="E39" t="str">
-        <f ca="1">OFFSET(table_3_2[treatment], 3 * QUOTIENT(table_4_3[[#This Row],[index]] - 1, 2) + 1 + MOD(table_4_3[[#This Row],[index]] - 1, 2), 0, 1, 1)</f>
-        <v>cmv</v>
-      </c>
-      <c r="F39" t="str">
-        <f ca="1">OFFSET(table_3_2[dir], 3 * QUOTIENT(table_4_3[[#This Row],[index]] - 1, 2) + 1 + MOD(table_4_3[[#This Row],[index]] - 1, 2), 0, 1, 1)</f>
-        <v>WT_sgB_R2_cmv_nodsb</v>
-      </c>
-      <c r="G39" t="str">
-        <f ca="1">_xlfn.CONCAT(table_4_3[[#This Row],[treatment_1]], "_", table_4_3[[#This Row],[treatment_2]])</f>
-        <v>sense_cmv</v>
-      </c>
-      <c r="H39" t="str">
-        <f ca="1">SUBSTITUTE(table_4_3[[#This Row],[dir_1]], table_4_3[[#This Row],[treatment_1]], table_4_3[[#This Row],[treatments_out]])</f>
-        <v>WT_sgB_R2_sense_cmv_nodsb</v>
-      </c>
-      <c r="I39" t="str">
-        <f>subst_type</f>
-        <v>without</v>
-      </c>
-      <c r="J39" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", libraries_4, "/", table_4_3[[#This Row],[dir_1]], " ", libraries_4, "/", table_4_3[[#This Row],[dir_2]], " -o ", libraries_4, "/", table_4_3[[#This Row],[dir_out]], " --subst_type ", table_4_3[[#This Row],[subst_type]])</f>
-        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/WT_sgB_R2_sense_nodsb libraries_4/WT_sgB_R2_cmv_nodsb -o libraries_4/WT_sgB_R2_sense_cmv_nodsb --subst_type without</v>
-      </c>
-      <c r="K39" s="2" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", table_4_3[[#This Row],[subst_type]], " -dir ", globals!$A$4, "/", table_4_3[[#This Row],[dir_out]])</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/WT_sgB_R2_sense_cmv_nodsb</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>7</v>
-      </c>
-      <c r="B40" s="6" t="str">
-        <f ca="1">OFFSET(table_3_2[control], 3 * QUOTIENT(table_4_3[[#This Row],[index]] - 1, 2), 0, 1, 1)</f>
-        <v>nodsb</v>
-      </c>
-      <c r="C40" s="6" t="str">
-        <f ca="1">OFFSET(table_3_2[treatment], 3 * QUOTIENT(table_4_3[[#This Row],[index]] - 1, 2), 0, 1, 1)</f>
-        <v>sense</v>
-      </c>
-      <c r="D40" t="str">
-        <f ca="1">OFFSET(table_3_2[dir], 3 * QUOTIENT(table_4_3[[#This Row],[index]] - 1, 2), 0, 1, 1)</f>
-        <v>KO_sgB_R2_sense_nodsb</v>
-      </c>
-      <c r="E40" t="str">
-        <f ca="1">OFFSET(table_3_2[treatment], 3 * QUOTIENT(table_4_3[[#This Row],[index]] - 1, 2) + 1 + MOD(table_4_3[[#This Row],[index]] - 1, 2), 0, 1, 1)</f>
-        <v>branch</v>
-      </c>
-      <c r="F40" t="str">
-        <f ca="1">OFFSET(table_3_2[dir], 3 * QUOTIENT(table_4_3[[#This Row],[index]] - 1, 2) + 1 + MOD(table_4_3[[#This Row],[index]] - 1, 2), 0, 1, 1)</f>
-        <v>KO_sgB_R2_branch_nodsb</v>
-      </c>
-      <c r="G40" t="str">
-        <f ca="1">_xlfn.CONCAT(table_4_3[[#This Row],[treatment_1]], "_", table_4_3[[#This Row],[treatment_2]])</f>
-        <v>sense_branch</v>
-      </c>
-      <c r="H40" t="str">
-        <f ca="1">SUBSTITUTE(table_4_3[[#This Row],[dir_1]], table_4_3[[#This Row],[treatment_1]], table_4_3[[#This Row],[treatments_out]])</f>
-        <v>KO_sgB_R2_sense_branch_nodsb</v>
-      </c>
-      <c r="I40" t="str">
-        <f>subst_type</f>
-        <v>without</v>
-      </c>
-      <c r="J40" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", libraries_4, "/", table_4_3[[#This Row],[dir_1]], " ", libraries_4, "/", table_4_3[[#This Row],[dir_2]], " -o ", libraries_4, "/", table_4_3[[#This Row],[dir_out]], " --subst_type ", table_4_3[[#This Row],[subst_type]])</f>
-        <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/KO_sgB_R2_sense_nodsb libraries_4/KO_sgB_R2_branch_nodsb -o libraries_4/KO_sgB_R2_sense_branch_nodsb --subst_type without</v>
-      </c>
-      <c r="K40" s="2" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", table_4_3[[#This Row],[subst_type]], " -dir ", globals!$A$4, "/", table_4_3[[#This Row],[dir_out]])</f>
-        <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgB_R2_sense_branch_nodsb</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>8</v>
-      </c>
-      <c r="B41" s="6" t="str">
-        <f ca="1">OFFSET(table_3_2[control], 3 * QUOTIENT(table_4_3[[#This Row],[index]] - 1, 2), 0, 1, 1)</f>
-        <v>nodsb</v>
-      </c>
-      <c r="C41" s="6" t="str">
-        <f ca="1">OFFSET(table_3_2[treatment], 3 * QUOTIENT(table_4_3[[#This Row],[index]] - 1, 2), 0, 1, 1)</f>
-        <v>sense</v>
-      </c>
-      <c r="D41" t="str">
-        <f ca="1">OFFSET(table_3_2[dir], 3 * QUOTIENT(table_4_3[[#This Row],[index]] - 1, 2), 0, 1, 1)</f>
-        <v>KO_sgB_R2_sense_nodsb</v>
-      </c>
-      <c r="E41" t="str">
-        <f ca="1">OFFSET(table_3_2[treatment], 3 * QUOTIENT(table_4_3[[#This Row],[index]] - 1, 2) + 1 + MOD(table_4_3[[#This Row],[index]] - 1, 2), 0, 1, 1)</f>
-        <v>cmv</v>
-      </c>
-      <c r="F41" t="str">
-        <f ca="1">OFFSET(table_3_2[dir], 3 * QUOTIENT(table_4_3[[#This Row],[index]] - 1, 2) + 1 + MOD(table_4_3[[#This Row],[index]] - 1, 2), 0, 1, 1)</f>
-        <v>KO_sgB_R2_cmv_nodsb</v>
-      </c>
-      <c r="G41" t="str">
-        <f ca="1">_xlfn.CONCAT(table_4_3[[#This Row],[treatment_1]], "_", table_4_3[[#This Row],[treatment_2]])</f>
-        <v>sense_cmv</v>
-      </c>
-      <c r="H41" t="str">
-        <f ca="1">SUBSTITUTE(table_4_3[[#This Row],[dir_1]], table_4_3[[#This Row],[treatment_1]], table_4_3[[#This Row],[treatments_out]])</f>
-        <v>KO_sgB_R2_sense_cmv_nodsb</v>
-      </c>
-      <c r="I41" t="str">
-        <f>subst_type</f>
-        <v>without</v>
-      </c>
-      <c r="J41" t="str">
+      <c r="J33" t="str">
         <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_main_data_combined.py", " -i ", libraries_4, "/", table_4_3[[#This Row],[dir_1]], " ", libraries_4, "/", table_4_3[[#This Row],[dir_2]], " -o ", libraries_4, "/", table_4_3[[#This Row],[dir_out]], " --subst_type ", table_4_3[[#This Row],[subst_type]])</f>
         <v>python 2_graph_processing/make_main_data_combined.py -i libraries_4/KO_sgB_R2_sense_nodsb libraries_4/KO_sgB_R2_cmv_nodsb -o libraries_4/KO_sgB_R2_sense_cmv_nodsb --subst_type without</v>
       </c>
-      <c r="K41" s="2" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", table_4_3[[#This Row],[subst_type]], " -dir ", globals!$A$4, "/", table_4_3[[#This Row],[dir_out]])</f>
+      <c r="K33" s="2" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_graph_data.py", " --subst_type ", table_4_3[[#This Row],[subst_type]], " -dir ", libraries_4, "/", table_4_3[[#This Row],[dir_out]])</f>
         <v>python 2_graph_processing/make_graph_data.py --subst_type without -dir libraries_4/KO_sgB_R2_sense_cmv_nodsb</v>
       </c>
     </row>
@@ -23310,7 +22798,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FCC207B-A9CD-4866-A17E-A3EE763F139F}">
   <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView topLeftCell="C34" workbookViewId="0">
+    <sheetView topLeftCell="C19" workbookViewId="0">
       <selection activeCell="B44" sqref="B44:L44"/>
     </sheetView>
   </sheetViews>
@@ -23331,13 +22819,13 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>86</v>
@@ -23349,7 +22837,7 @@
         <v>102</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>82</v>
@@ -23364,7 +22852,7 @@
         <v>81</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>171</v>
@@ -25492,13 +24980,13 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B43" t="s">
         <v>87</v>
       </c>
       <c r="C43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D43" t="s">
         <v>86</v>
@@ -25510,7 +24998,7 @@
         <v>102</v>
       </c>
       <c r="G43" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H43" t="s">
         <v>82</v>
@@ -25525,7 +25013,7 @@
         <v>81</v>
       </c>
       <c r="L43" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M43" t="s">
         <v>171</v>
@@ -26178,17 +25666,17 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B1417E7-0E2A-4E67-94B4-4030BF5F7C23}">
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15:N16"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2:T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35" customWidth="1"/>
-    <col min="3" max="3" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.7109375" customWidth="1"/>
     <col min="4" max="4" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28.85546875" bestFit="1" customWidth="1"/>
@@ -26199,393 +25687,555 @@
     <col min="13" max="13" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>168</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>176</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>135</v>
+        <v>178</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="str" cm="1">
-        <f t="array" aca="1" ref="B2" ca="1">_xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_1[[dir]:[dir]], 6 * (table_7_1[[#This Row],[index]:[index]] - 1) + COLUMN() - 2, 0, 1, 1))</f>
+        <f t="array" aca="1" ref="B2" ca="1">_xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_1[[dir]:[dir]], 6 * (table_6_1[[#This Row],[index]:[index]] - 1) + COLUMN(table_6_1[dir_1]) - COLUMN(table_6_1[[dir_1]:[dir_1]]), 0, 1, 1))</f>
         <v>libraries_4/WT_sgAB_R1_sense</v>
       </c>
       <c r="C2" s="7" t="str" cm="1">
-        <f t="array" aca="1" ref="C2" ca="1">_xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_1[[dir]:[dir]], 6 * (table_7_1[[#This Row],[index]:[index]] - 1) + COLUMN() - 2, 0, 1, 1))</f>
+        <f t="array" aca="1" ref="C2" ca="1">_xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_1[[dir]:[dir]], 6 * (table_6_1[[#This Row],[index]:[index]] - 1) + COLUMN(table_6_1[dir_2]) - COLUMN(table_6_1[[dir_1]:[dir_1]]), 0, 1, 1))</f>
         <v>libraries_4/WT_sgAB_R1_branch</v>
       </c>
       <c r="D2" s="7" t="str" cm="1">
-        <f t="array" aca="1" ref="D2" ca="1">_xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_1[[dir]:[dir]], 6 * (table_7_1[[#This Row],[index]:[index]] - 1) + COLUMN() - 2, 0, 1, 1))</f>
+        <f t="array" aca="1" ref="D2" ca="1">_xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_1[[dir]:[dir]], 6 * (table_6_1[[#This Row],[index]:[index]] - 1) + COLUMN(table_6_1[dir_3]) - COLUMN(table_6_1[[dir_1]:[dir_1]]), 0, 1, 1))</f>
         <v>libraries_4/WT_sgAB_R1_cmv</v>
       </c>
       <c r="E2" s="7" t="str" cm="1">
-        <f t="array" aca="1" ref="E2" ca="1">_xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_1[[dir]:[dir]], 6 * (table_7_1[[#This Row],[index]:[index]] - 1) + COLUMN() - 2, 0, 1, 1))</f>
+        <f t="array" aca="1" ref="E2" ca="1">_xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_1[[dir]:[dir]], 6 * (table_6_1[[#This Row],[index]:[index]] - 1) + COLUMN(table_6_1[dir_4]) - COLUMN(table_6_1[[dir_1]:[dir_1]]), 0, 1, 1))</f>
         <v>libraries_4/KO_sgAB_R1_sense</v>
       </c>
       <c r="F2" s="7" t="str" cm="1">
-        <f t="array" aca="1" ref="F2" ca="1">_xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_1[[dir]:[dir]], 6 * (table_7_1[[#This Row],[index]:[index]] - 1) + COLUMN() - 2, 0, 1, 1))</f>
+        <f t="array" aca="1" ref="F2" ca="1">_xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_1[[dir]:[dir]], 6 * (table_6_1[[#This Row],[index]:[index]] - 1) + COLUMN(table_6_1[dir_5]) - COLUMN(table_6_1[[dir_1]:[dir_1]]), 0, 1, 1))</f>
         <v>libraries_4/KO_sgAB_R1_branch</v>
       </c>
       <c r="G2" s="7" t="str" cm="1">
-        <f t="array" aca="1" ref="G2" ca="1">_xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_1[[dir]:[dir]], 6 * (table_7_1[[#This Row],[index]:[index]] - 1) + COLUMN() - 2, 0, 1, 1))</f>
+        <f t="array" aca="1" ref="G2" ca="1">_xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_1[[dir]:[dir]], 6 * (table_6_1[[#This Row],[index]:[index]] - 1) + COLUMN(table_6_1[dir_6]) - COLUMN(table_6_1[[dir_1]:[dir_1]]), 0, 1, 1))</f>
         <v>libraries_4/KO_sgAB_R1_cmv</v>
       </c>
-      <c r="H2" t="str">
-        <f ca="1">OFFSET(table_3_1[control], 6 * (table_7_1[[#This Row],[index]] - 1), 0, 1, 1)</f>
+      <c r="H2" s="7" t="str" cm="1">
+        <f t="array" aca="1" ref="H2" ca="1">IF(AND(table_6_1[[#This Row],[dsb_type]:[dsb_type]]="1DSB", table_6_1[[#This Row],[control]:[control]]="none"), _xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_2[[dir]:[dir]], 6 * (table_6_1[[#This Row],[index]:[index]] - 3) + COLUMN(table_6_1[[#This Row],[dir_7]]) -COLUMN(table_6_1[[#This Row],[dir_7]:[dir_7]]), 0, 1, 1)), "")</f>
+        <v/>
+      </c>
+      <c r="I2" s="7" t="str" cm="1">
+        <f t="array" aca="1" ref="I2" ca="1">IF(AND(table_6_1[[#This Row],[dsb_type]:[dsb_type]]="1DSB", table_6_1[[#This Row],[control]:[control]]="none"), _xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_2[[dir]:[dir]], 6 * (table_6_1[[#This Row],[index]:[index]] - 3) + COLUMN(table_6_1[[#This Row],[dir_8]]) -COLUMN(table_6_1[[#This Row],[dir_7]:[dir_7]]), 0, 1, 1)), "")</f>
+        <v/>
+      </c>
+      <c r="J2" s="7" t="str" cm="1">
+        <f t="array" aca="1" ref="J2" ca="1">IF(AND(table_6_1[[#This Row],[dsb_type]:[dsb_type]]="1DSB", table_6_1[[#This Row],[control]:[control]]="none"), _xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_2[[dir]:[dir]], 6 * (table_6_1[[#This Row],[index]:[index]] - 3) + COLUMN(table_6_1[[#This Row],[dir_9]]) -COLUMN(table_6_1[[#This Row],[dir_7]:[dir_7]]), 0, 1, 1)), "")</f>
+        <v/>
+      </c>
+      <c r="K2" s="7" t="str" cm="1">
+        <f t="array" aca="1" ref="K2" ca="1">IF(AND(table_6_1[[#This Row],[dsb_type]:[dsb_type]]="1DSB", table_6_1[[#This Row],[control]:[control]]="none"), _xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_2[[dir]:[dir]], 6 * (table_6_1[[#This Row],[index]:[index]] - 3) + COLUMN(table_6_1[[#This Row],[dir_10]]) -COLUMN(table_6_1[[#This Row],[dir_7]:[dir_7]]), 0, 1, 1)), "")</f>
+        <v/>
+      </c>
+      <c r="L2" s="7" t="str" cm="1">
+        <f t="array" aca="1" ref="L2" ca="1">IF(AND(table_6_1[[#This Row],[dsb_type]:[dsb_type]]="1DSB", table_6_1[[#This Row],[control]:[control]]="none"), _xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_2[[dir]:[dir]], 6 * (table_6_1[[#This Row],[index]:[index]] - 3) + COLUMN(table_6_1[[#This Row],[dir_11]]) -COLUMN(table_6_1[[#This Row],[dir_7]:[dir_7]]), 0, 1, 1)), "")</f>
+        <v/>
+      </c>
+      <c r="M2" s="7" t="str" cm="1">
+        <f t="array" aca="1" ref="M2" ca="1">IF(AND(table_6_1[[#This Row],[dsb_type]:[dsb_type]]="1DSB", table_6_1[[#This Row],[control]:[control]]="none"), _xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_2[[dir]:[dir]], 6 * (table_6_1[[#This Row],[index]:[index]] - 3) + COLUMN(table_6_1[[#This Row],[dir_12]]) -COLUMN(table_6_1[[#This Row],[dir_7]:[dir_7]]), 0, 1, 1)), "")</f>
+        <v/>
+      </c>
+      <c r="N2" t="str">
+        <f ca="1">OFFSET(table_3_1[control], 6 * (table_6_1[[#This Row],[index]] - 1), 0, 1, 1)</f>
         <v>none</v>
       </c>
-      <c r="I2" t="str">
-        <f ca="1">OFFSET(table_3_1[dsb_type], 6 * (table_7_1[[#This Row],[index]] - 1), 0, 1, 1)</f>
+      <c r="O2" t="str">
+        <f ca="1">OFFSET(table_3_1[dsb_type], 6 * (table_6_1[[#This Row],[index]] - 1), 0, 1, 1)</f>
         <v>2DSB</v>
       </c>
-      <c r="J2" t="str">
-        <f ca="1">OFFSET(table_3_1[strand], 6 * (table_7_1[[#This Row],[index]] - 1), 0, 1, 1)</f>
+      <c r="P2" t="str">
+        <f ca="1">OFFSET(table_3_1[strand], 6 * (table_6_1[[#This Row],[index]] - 1), 0, 1, 1)</f>
         <v>R1</v>
       </c>
-      <c r="K2" t="str">
-        <f ca="1">OFFSET(table_3_1[hguide], 6 * (table_7_1[[#This Row],[index]] - 1), 0, 1, 1)</f>
+      <c r="Q2" t="str">
+        <f ca="1">OFFSET(table_3_1[hguide], 6 * (table_6_1[[#This Row],[index]] - 1), 0, 1, 1)</f>
         <v>AB</v>
       </c>
-      <c r="L2" t="str">
+      <c r="R2" t="str">
         <f>subst_type</f>
         <v>without</v>
       </c>
-      <c r="M2" t="str">
-        <f ca="1">_xlfn.CONCAT(table_7_1[[#This Row],[dsb_type]], "_", table_7_1[[#This Row],[strand]], IF(table_7_1[[#This Row],[control]]&lt;&gt;"none", _xlfn.CONCAT("_", table_7_1[[#This Row],[control]]), ""))</f>
+      <c r="S2" t="str">
+        <f ca="1">_xlfn.CONCAT(table_6_1[[#This Row],[dsb_type]], "_", table_6_1[[#This Row],[strand]], IF(table_6_1[[#This Row],[control]]&lt;&gt;"none", _xlfn.CONCAT("_", table_6_1[[#This Row],[control]]), ""))</f>
         <v>2DSB_R1</v>
       </c>
-      <c r="N2" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_common_layout.py ", "-i ", _xlfn.TEXTJOIN(" ", TRUE, table_7_1[[#This Row],[dir_1]:[dir_6]]), " -o ", layouts, "/", table_7_1[[#This Row],[dir_out]], " --subst_type ", table_7_1[[#This Row],[subst_type]])</f>
+      <c r="T2" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_common_layout.py ", "-i ", _xlfn.TEXTJOIN(" ", TRUE, table_6_1[[#This Row],[dir_1]:[dir_12]]), " -o ", layouts, "/", table_6_1[[#This Row],[dir_out]], " --subst_type ", table_6_1[[#This Row],[subst_type]])</f>
         <v>python 2_graph_processing/make_common_layout.py -i libraries_4/WT_sgAB_R1_sense libraries_4/WT_sgAB_R1_branch libraries_4/WT_sgAB_R1_cmv libraries_4/KO_sgAB_R1_sense libraries_4/KO_sgAB_R1_branch libraries_4/KO_sgAB_R1_cmv -o layouts/2DSB_R1 --subst_type without</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="7" t="str" cm="1">
-        <f t="array" aca="1" ref="B3" ca="1">_xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_1[[dir]:[dir]], 6 * (table_7_1[[#This Row],[index]:[index]] - 1) + COLUMN() - 2, 0, 1, 1))</f>
+        <f t="array" aca="1" ref="B3" ca="1">_xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_1[[dir]:[dir]], 6 * (table_6_1[[#This Row],[index]:[index]] - 1) + COLUMN(table_6_1[dir_1]) - COLUMN(table_6_1[[dir_1]:[dir_1]]), 0, 1, 1))</f>
         <v>libraries_4/WT_sgAB_R2_sense</v>
       </c>
       <c r="C3" s="7" t="str" cm="1">
-        <f t="array" aca="1" ref="C3" ca="1">_xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_1[[dir]:[dir]], 6 * (table_7_1[[#This Row],[index]:[index]] - 1) + COLUMN() - 2, 0, 1, 1))</f>
+        <f t="array" aca="1" ref="C3" ca="1">_xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_1[[dir]:[dir]], 6 * (table_6_1[[#This Row],[index]:[index]] - 1) + COLUMN(table_6_1[dir_2]) - COLUMN(table_6_1[[dir_1]:[dir_1]]), 0, 1, 1))</f>
         <v>libraries_4/WT_sgAB_R2_branch</v>
       </c>
       <c r="D3" s="7" t="str" cm="1">
-        <f t="array" aca="1" ref="D3" ca="1">_xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_1[[dir]:[dir]], 6 * (table_7_1[[#This Row],[index]:[index]] - 1) + COLUMN() - 2, 0, 1, 1))</f>
+        <f t="array" aca="1" ref="D3" ca="1">_xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_1[[dir]:[dir]], 6 * (table_6_1[[#This Row],[index]:[index]] - 1) + COLUMN(table_6_1[dir_3]) - COLUMN(table_6_1[[dir_1]:[dir_1]]), 0, 1, 1))</f>
         <v>libraries_4/WT_sgAB_R2_cmv</v>
       </c>
       <c r="E3" s="7" t="str" cm="1">
-        <f t="array" aca="1" ref="E3" ca="1">_xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_1[[dir]:[dir]], 6 * (table_7_1[[#This Row],[index]:[index]] - 1) + COLUMN() - 2, 0, 1, 1))</f>
+        <f t="array" aca="1" ref="E3" ca="1">_xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_1[[dir]:[dir]], 6 * (table_6_1[[#This Row],[index]:[index]] - 1) + COLUMN(table_6_1[dir_4]) - COLUMN(table_6_1[[dir_1]:[dir_1]]), 0, 1, 1))</f>
         <v>libraries_4/KO_sgAB_R2_sense</v>
       </c>
       <c r="F3" s="7" t="str" cm="1">
-        <f t="array" aca="1" ref="F3" ca="1">_xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_1[[dir]:[dir]], 6 * (table_7_1[[#This Row],[index]:[index]] - 1) + COLUMN() - 2, 0, 1, 1))</f>
+        <f t="array" aca="1" ref="F3" ca="1">_xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_1[[dir]:[dir]], 6 * (table_6_1[[#This Row],[index]:[index]] - 1) + COLUMN(table_6_1[dir_5]) - COLUMN(table_6_1[[dir_1]:[dir_1]]), 0, 1, 1))</f>
         <v>libraries_4/KO_sgAB_R2_branch</v>
       </c>
       <c r="G3" s="7" t="str" cm="1">
-        <f t="array" aca="1" ref="G3" ca="1">_xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_1[[dir]:[dir]], 6 * (table_7_1[[#This Row],[index]:[index]] - 1) + COLUMN() - 2, 0, 1, 1))</f>
+        <f t="array" aca="1" ref="G3" ca="1">_xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_1[[dir]:[dir]], 6 * (table_6_1[[#This Row],[index]:[index]] - 1) + COLUMN(table_6_1[dir_6]) - COLUMN(table_6_1[[dir_1]:[dir_1]]), 0, 1, 1))</f>
         <v>libraries_4/KO_sgAB_R2_cmv</v>
       </c>
-      <c r="H3" t="str">
-        <f ca="1">OFFSET(table_3_1[control], 6 * (table_7_1[[#This Row],[index]] - 1), 0, 1, 1)</f>
+      <c r="H3" s="7" t="str" cm="1">
+        <f t="array" aca="1" ref="H3" ca="1">IF(AND(table_6_1[[#This Row],[dsb_type]:[dsb_type]]="1DSB", table_6_1[[#This Row],[control]:[control]]="none"), _xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_2[[dir]:[dir]], 6 * (table_6_1[[#This Row],[index]:[index]] - 3) + COLUMN(table_6_1[[#This Row],[dir_7]]) -COLUMN(table_6_1[[#This Row],[dir_7]:[dir_7]]), 0, 1, 1)), "")</f>
+        <v/>
+      </c>
+      <c r="I3" s="7" t="str" cm="1">
+        <f t="array" aca="1" ref="I3" ca="1">IF(AND(table_6_1[[#This Row],[dsb_type]:[dsb_type]]="1DSB", table_6_1[[#This Row],[control]:[control]]="none"), _xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_2[[dir]:[dir]], 6 * (table_6_1[[#This Row],[index]:[index]] - 3) + COLUMN(table_6_1[[#This Row],[dir_8]]) -COLUMN(table_6_1[[#This Row],[dir_7]:[dir_7]]), 0, 1, 1)), "")</f>
+        <v/>
+      </c>
+      <c r="J3" s="7" t="str" cm="1">
+        <f t="array" aca="1" ref="J3" ca="1">IF(AND(table_6_1[[#This Row],[dsb_type]:[dsb_type]]="1DSB", table_6_1[[#This Row],[control]:[control]]="none"), _xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_2[[dir]:[dir]], 6 * (table_6_1[[#This Row],[index]:[index]] - 3) + COLUMN(table_6_1[[#This Row],[dir_9]]) -COLUMN(table_6_1[[#This Row],[dir_7]:[dir_7]]), 0, 1, 1)), "")</f>
+        <v/>
+      </c>
+      <c r="K3" s="7" t="str" cm="1">
+        <f t="array" aca="1" ref="K3" ca="1">IF(AND(table_6_1[[#This Row],[dsb_type]:[dsb_type]]="1DSB", table_6_1[[#This Row],[control]:[control]]="none"), _xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_2[[dir]:[dir]], 6 * (table_6_1[[#This Row],[index]:[index]] - 3) + COLUMN(table_6_1[[#This Row],[dir_10]]) -COLUMN(table_6_1[[#This Row],[dir_7]:[dir_7]]), 0, 1, 1)), "")</f>
+        <v/>
+      </c>
+      <c r="L3" s="7" t="str" cm="1">
+        <f t="array" aca="1" ref="L3" ca="1">IF(AND(table_6_1[[#This Row],[dsb_type]:[dsb_type]]="1DSB", table_6_1[[#This Row],[control]:[control]]="none"), _xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_2[[dir]:[dir]], 6 * (table_6_1[[#This Row],[index]:[index]] - 3) + COLUMN(table_6_1[[#This Row],[dir_11]]) -COLUMN(table_6_1[[#This Row],[dir_7]:[dir_7]]), 0, 1, 1)), "")</f>
+        <v/>
+      </c>
+      <c r="M3" s="7" t="str" cm="1">
+        <f t="array" aca="1" ref="M3" ca="1">IF(AND(table_6_1[[#This Row],[dsb_type]:[dsb_type]]="1DSB", table_6_1[[#This Row],[control]:[control]]="none"), _xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_2[[dir]:[dir]], 6 * (table_6_1[[#This Row],[index]:[index]] - 3) + COLUMN(table_6_1[[#This Row],[dir_12]]) -COLUMN(table_6_1[[#This Row],[dir_7]:[dir_7]]), 0, 1, 1)), "")</f>
+        <v/>
+      </c>
+      <c r="N3" t="str">
+        <f ca="1">OFFSET(table_3_1[control], 6 * (table_6_1[[#This Row],[index]] - 1), 0, 1, 1)</f>
         <v>none</v>
       </c>
-      <c r="I3" t="str">
-        <f ca="1">OFFSET(table_3_1[dsb_type], 6 * (table_7_1[[#This Row],[index]] - 1), 0, 1, 1)</f>
+      <c r="O3" t="str">
+        <f ca="1">OFFSET(table_3_1[dsb_type], 6 * (table_6_1[[#This Row],[index]] - 1), 0, 1, 1)</f>
         <v>2DSB</v>
       </c>
-      <c r="J3" t="str">
-        <f ca="1">OFFSET(table_3_1[strand], 6 * (table_7_1[[#This Row],[index]] - 1), 0, 1, 1)</f>
+      <c r="P3" t="str">
+        <f ca="1">OFFSET(table_3_1[strand], 6 * (table_6_1[[#This Row],[index]] - 1), 0, 1, 1)</f>
         <v>R2</v>
       </c>
-      <c r="K3" t="str">
-        <f ca="1">OFFSET(table_3_1[hguide], 6 * (table_7_1[[#This Row],[index]] - 1), 0, 1, 1)</f>
+      <c r="Q3" t="str">
+        <f ca="1">OFFSET(table_3_1[hguide], 6 * (table_6_1[[#This Row],[index]] - 1), 0, 1, 1)</f>
         <v>AB</v>
       </c>
-      <c r="L3" t="str">
+      <c r="R3" t="str">
         <f>subst_type</f>
         <v>without</v>
       </c>
-      <c r="M3" t="str">
-        <f ca="1">_xlfn.CONCAT(table_7_1[[#This Row],[dsb_type]], "_", table_7_1[[#This Row],[strand]], IF(table_7_1[[#This Row],[control]]&lt;&gt;"none", _xlfn.CONCAT("_", table_7_1[[#This Row],[control]]), ""))</f>
+      <c r="S3" t="str">
+        <f ca="1">_xlfn.CONCAT(table_6_1[[#This Row],[dsb_type]], "_", table_6_1[[#This Row],[strand]], IF(table_6_1[[#This Row],[control]]&lt;&gt;"none", _xlfn.CONCAT("_", table_6_1[[#This Row],[control]]), ""))</f>
         <v>2DSB_R2</v>
       </c>
-      <c r="N3" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_common_layout.py ", "-i ", _xlfn.TEXTJOIN(" ", TRUE, table_7_1[[#This Row],[dir_1]:[dir_6]]), " -o ", layouts, "/", table_7_1[[#This Row],[dir_out]], " --subst_type ", table_7_1[[#This Row],[subst_type]])</f>
+      <c r="T3" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_common_layout.py ", "-i ", _xlfn.TEXTJOIN(" ", TRUE, table_6_1[[#This Row],[dir_1]:[dir_12]]), " -o ", layouts, "/", table_6_1[[#This Row],[dir_out]], " --subst_type ", table_6_1[[#This Row],[subst_type]])</f>
         <v>python 2_graph_processing/make_common_layout.py -i libraries_4/WT_sgAB_R2_sense libraries_4/WT_sgAB_R2_branch libraries_4/WT_sgAB_R2_cmv libraries_4/KO_sgAB_R2_sense libraries_4/KO_sgAB_R2_branch libraries_4/KO_sgAB_R2_cmv -o layouts/2DSB_R2 --subst_type without</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="7" t="str" cm="1">
-        <f t="array" aca="1" ref="B4" ca="1">_xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_1[[dir]:[dir]], 6 * (table_7_1[[#This Row],[index]:[index]] - 1) + COLUMN() - 2, 0, 1, 1))</f>
+        <f t="array" aca="1" ref="B4" ca="1">_xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_1[[dir]:[dir]], 6 * (table_6_1[[#This Row],[index]:[index]] - 1) + COLUMN(table_6_1[dir_1]) - COLUMN(table_6_1[[dir_1]:[dir_1]]), 0, 1, 1))</f>
         <v>libraries_4/WT_sgA_R1_sense</v>
       </c>
       <c r="C4" s="7" t="str" cm="1">
-        <f t="array" aca="1" ref="C4" ca="1">_xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_1[[dir]:[dir]], 6 * (table_7_1[[#This Row],[index]:[index]] - 1) + COLUMN() - 2, 0, 1, 1))</f>
+        <f t="array" aca="1" ref="C4" ca="1">_xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_1[[dir]:[dir]], 6 * (table_6_1[[#This Row],[index]:[index]] - 1) + COLUMN(table_6_1[dir_2]) - COLUMN(table_6_1[[dir_1]:[dir_1]]), 0, 1, 1))</f>
         <v>libraries_4/WT_sgA_R1_branch</v>
       </c>
       <c r="D4" s="7" t="str" cm="1">
-        <f t="array" aca="1" ref="D4" ca="1">_xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_1[[dir]:[dir]], 6 * (table_7_1[[#This Row],[index]:[index]] - 1) + COLUMN() - 2, 0, 1, 1))</f>
+        <f t="array" aca="1" ref="D4" ca="1">_xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_1[[dir]:[dir]], 6 * (table_6_1[[#This Row],[index]:[index]] - 1) + COLUMN(table_6_1[dir_3]) - COLUMN(table_6_1[[dir_1]:[dir_1]]), 0, 1, 1))</f>
         <v>libraries_4/WT_sgA_R1_cmv</v>
       </c>
       <c r="E4" s="7" t="str" cm="1">
-        <f t="array" aca="1" ref="E4" ca="1">_xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_1[[dir]:[dir]], 6 * (table_7_1[[#This Row],[index]:[index]] - 1) + COLUMN() - 2, 0, 1, 1))</f>
+        <f t="array" aca="1" ref="E4" ca="1">_xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_1[[dir]:[dir]], 6 * (table_6_1[[#This Row],[index]:[index]] - 1) + COLUMN(table_6_1[dir_4]) - COLUMN(table_6_1[[dir_1]:[dir_1]]), 0, 1, 1))</f>
         <v>libraries_4/KO_sgA_R1_sense</v>
       </c>
       <c r="F4" s="7" t="str" cm="1">
-        <f t="array" aca="1" ref="F4" ca="1">_xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_1[[dir]:[dir]], 6 * (table_7_1[[#This Row],[index]:[index]] - 1) + COLUMN() - 2, 0, 1, 1))</f>
+        <f t="array" aca="1" ref="F4" ca="1">_xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_1[[dir]:[dir]], 6 * (table_6_1[[#This Row],[index]:[index]] - 1) + COLUMN(table_6_1[dir_5]) - COLUMN(table_6_1[[dir_1]:[dir_1]]), 0, 1, 1))</f>
         <v>libraries_4/KO_sgA_R1_branch</v>
       </c>
       <c r="G4" s="7" t="str" cm="1">
-        <f t="array" aca="1" ref="G4" ca="1">_xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_1[[dir]:[dir]], 6 * (table_7_1[[#This Row],[index]:[index]] - 1) + COLUMN() - 2, 0, 1, 1))</f>
+        <f t="array" aca="1" ref="G4" ca="1">_xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_1[[dir]:[dir]], 6 * (table_6_1[[#This Row],[index]:[index]] - 1) + COLUMN(table_6_1[dir_6]) - COLUMN(table_6_1[[dir_1]:[dir_1]]), 0, 1, 1))</f>
         <v>libraries_4/KO_sgA_R1_cmv</v>
       </c>
-      <c r="H4" t="str">
-        <f ca="1">OFFSET(table_3_1[control], 6 * (table_7_1[[#This Row],[index]] - 1), 0, 1, 1)</f>
+      <c r="H4" s="7" t="str" cm="1">
+        <f t="array" aca="1" ref="H4" ca="1">IF(AND(table_6_1[[#This Row],[dsb_type]:[dsb_type]]="1DSB", table_6_1[[#This Row],[control]:[control]]="none"), _xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_2[[dir]:[dir]], 6 * (table_6_1[[#This Row],[index]:[index]] - 3) + COLUMN(table_6_1[[#This Row],[dir_7]]) -COLUMN(table_6_1[[#This Row],[dir_7]:[dir_7]]), 0, 1, 1)), "")</f>
+        <v>libraries_4/WT_sgA_R1_sense_nodsb</v>
+      </c>
+      <c r="I4" s="7" t="str" cm="1">
+        <f t="array" aca="1" ref="I4" ca="1">IF(AND(table_6_1[[#This Row],[dsb_type]:[dsb_type]]="1DSB", table_6_1[[#This Row],[control]:[control]]="none"), _xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_2[[dir]:[dir]], 6 * (table_6_1[[#This Row],[index]:[index]] - 3) + COLUMN(table_6_1[[#This Row],[dir_8]]) -COLUMN(table_6_1[[#This Row],[dir_7]:[dir_7]]), 0, 1, 1)), "")</f>
+        <v>libraries_4/WT_sgA_R1_branch_nodsb</v>
+      </c>
+      <c r="J4" s="7" t="str" cm="1">
+        <f t="array" aca="1" ref="J4" ca="1">IF(AND(table_6_1[[#This Row],[dsb_type]:[dsb_type]]="1DSB", table_6_1[[#This Row],[control]:[control]]="none"), _xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_2[[dir]:[dir]], 6 * (table_6_1[[#This Row],[index]:[index]] - 3) + COLUMN(table_6_1[[#This Row],[dir_9]]) -COLUMN(table_6_1[[#This Row],[dir_7]:[dir_7]]), 0, 1, 1)), "")</f>
+        <v>libraries_4/WT_sgA_R1_cmv_nodsb</v>
+      </c>
+      <c r="K4" s="7" t="str" cm="1">
+        <f t="array" aca="1" ref="K4" ca="1">IF(AND(table_6_1[[#This Row],[dsb_type]:[dsb_type]]="1DSB", table_6_1[[#This Row],[control]:[control]]="none"), _xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_2[[dir]:[dir]], 6 * (table_6_1[[#This Row],[index]:[index]] - 3) + COLUMN(table_6_1[[#This Row],[dir_10]]) -COLUMN(table_6_1[[#This Row],[dir_7]:[dir_7]]), 0, 1, 1)), "")</f>
+        <v>libraries_4/KO_sgA_R1_sense_nodsb</v>
+      </c>
+      <c r="L4" s="7" t="str" cm="1">
+        <f t="array" aca="1" ref="L4" ca="1">IF(AND(table_6_1[[#This Row],[dsb_type]:[dsb_type]]="1DSB", table_6_1[[#This Row],[control]:[control]]="none"), _xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_2[[dir]:[dir]], 6 * (table_6_1[[#This Row],[index]:[index]] - 3) + COLUMN(table_6_1[[#This Row],[dir_11]]) -COLUMN(table_6_1[[#This Row],[dir_7]:[dir_7]]), 0, 1, 1)), "")</f>
+        <v>libraries_4/KO_sgA_R1_branch_nodsb</v>
+      </c>
+      <c r="M4" s="7" t="str" cm="1">
+        <f t="array" aca="1" ref="M4" ca="1">IF(AND(table_6_1[[#This Row],[dsb_type]:[dsb_type]]="1DSB", table_6_1[[#This Row],[control]:[control]]="none"), _xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_2[[dir]:[dir]], 6 * (table_6_1[[#This Row],[index]:[index]] - 3) + COLUMN(table_6_1[[#This Row],[dir_12]]) -COLUMN(table_6_1[[#This Row],[dir_7]:[dir_7]]), 0, 1, 1)), "")</f>
+        <v>libraries_4/KO_sgA_R1_cmv_nodsb</v>
+      </c>
+      <c r="N4" t="str">
+        <f ca="1">OFFSET(table_3_1[control], 6 * (table_6_1[[#This Row],[index]] - 1), 0, 1, 1)</f>
         <v>none</v>
       </c>
-      <c r="I4" t="str">
-        <f ca="1">OFFSET(table_3_1[dsb_type], 6 * (table_7_1[[#This Row],[index]] - 1), 0, 1, 1)</f>
+      <c r="O4" t="str">
+        <f ca="1">OFFSET(table_3_1[dsb_type], 6 * (table_6_1[[#This Row],[index]] - 1), 0, 1, 1)</f>
         <v>1DSB</v>
       </c>
-      <c r="J4" t="str">
-        <f ca="1">OFFSET(table_3_1[strand], 6 * (table_7_1[[#This Row],[index]] - 1), 0, 1, 1)</f>
+      <c r="P4" t="str">
+        <f ca="1">OFFSET(table_3_1[strand], 6 * (table_6_1[[#This Row],[index]] - 1), 0, 1, 1)</f>
         <v>R1</v>
       </c>
-      <c r="K4" t="str">
-        <f ca="1">OFFSET(table_3_1[hguide], 6 * (table_7_1[[#This Row],[index]] - 1), 0, 1, 1)</f>
+      <c r="Q4" t="str">
+        <f ca="1">OFFSET(table_3_1[hguide], 6 * (table_6_1[[#This Row],[index]] - 1), 0, 1, 1)</f>
         <v>A</v>
       </c>
-      <c r="L4" t="str">
+      <c r="R4" t="str">
         <f>subst_type</f>
         <v>without</v>
       </c>
-      <c r="M4" t="str">
-        <f ca="1">_xlfn.CONCAT(table_7_1[[#This Row],[dsb_type]], "_", table_7_1[[#This Row],[strand]], IF(table_7_1[[#This Row],[control]]&lt;&gt;"none", _xlfn.CONCAT("_", table_7_1[[#This Row],[control]]), ""))</f>
+      <c r="S4" t="str">
+        <f ca="1">_xlfn.CONCAT(table_6_1[[#This Row],[dsb_type]], "_", table_6_1[[#This Row],[strand]], IF(table_6_1[[#This Row],[control]]&lt;&gt;"none", _xlfn.CONCAT("_", table_6_1[[#This Row],[control]]), ""))</f>
         <v>1DSB_R1</v>
       </c>
-      <c r="N4" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_common_layout.py ", "-i ", _xlfn.TEXTJOIN(" ", TRUE, table_7_1[[#This Row],[dir_1]:[dir_6]]), " -o ", layouts, "/", table_7_1[[#This Row],[dir_out]], " --subst_type ", table_7_1[[#This Row],[subst_type]])</f>
-        <v>python 2_graph_processing/make_common_layout.py -i libraries_4/WT_sgA_R1_sense libraries_4/WT_sgA_R1_branch libraries_4/WT_sgA_R1_cmv libraries_4/KO_sgA_R1_sense libraries_4/KO_sgA_R1_branch libraries_4/KO_sgA_R1_cmv -o layouts/1DSB_R1 --subst_type without</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T4" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_common_layout.py ", "-i ", _xlfn.TEXTJOIN(" ", TRUE, table_6_1[[#This Row],[dir_1]:[dir_12]]), " -o ", layouts, "/", table_6_1[[#This Row],[dir_out]], " --subst_type ", table_6_1[[#This Row],[subst_type]])</f>
+        <v>python 2_graph_processing/make_common_layout.py -i libraries_4/WT_sgA_R1_sense libraries_4/WT_sgA_R1_branch libraries_4/WT_sgA_R1_cmv libraries_4/KO_sgA_R1_sense libraries_4/KO_sgA_R1_branch libraries_4/KO_sgA_R1_cmv libraries_4/WT_sgA_R1_sense_nodsb libraries_4/WT_sgA_R1_branch_nodsb libraries_4/WT_sgA_R1_cmv_nodsb libraries_4/KO_sgA_R1_sense_nodsb libraries_4/KO_sgA_R1_branch_nodsb libraries_4/KO_sgA_R1_cmv_nodsb -o layouts/1DSB_R1 --subst_type without</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="7" t="str" cm="1">
-        <f t="array" aca="1" ref="B5" ca="1">_xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_1[[dir]:[dir]], 6 * (table_7_1[[#This Row],[index]:[index]] - 1) + COLUMN() - 2, 0, 1, 1))</f>
+        <f t="array" aca="1" ref="B5" ca="1">_xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_1[[dir]:[dir]], 6 * (table_6_1[[#This Row],[index]:[index]] - 1) + COLUMN(table_6_1[dir_1]) - COLUMN(table_6_1[[dir_1]:[dir_1]]), 0, 1, 1))</f>
         <v>libraries_4/WT_sgB_R2_sense</v>
       </c>
       <c r="C5" s="7" t="str" cm="1">
-        <f t="array" aca="1" ref="C5" ca="1">_xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_1[[dir]:[dir]], 6 * (table_7_1[[#This Row],[index]:[index]] - 1) + COLUMN() - 2, 0, 1, 1))</f>
+        <f t="array" aca="1" ref="C5" ca="1">_xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_1[[dir]:[dir]], 6 * (table_6_1[[#This Row],[index]:[index]] - 1) + COLUMN(table_6_1[dir_2]) - COLUMN(table_6_1[[dir_1]:[dir_1]]), 0, 1, 1))</f>
         <v>libraries_4/WT_sgB_R2_branch</v>
       </c>
       <c r="D5" s="7" t="str" cm="1">
-        <f t="array" aca="1" ref="D5" ca="1">_xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_1[[dir]:[dir]], 6 * (table_7_1[[#This Row],[index]:[index]] - 1) + COLUMN() - 2, 0, 1, 1))</f>
+        <f t="array" aca="1" ref="D5" ca="1">_xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_1[[dir]:[dir]], 6 * (table_6_1[[#This Row],[index]:[index]] - 1) + COLUMN(table_6_1[dir_3]) - COLUMN(table_6_1[[dir_1]:[dir_1]]), 0, 1, 1))</f>
         <v>libraries_4/WT_sgB_R2_cmv</v>
       </c>
       <c r="E5" s="7" t="str" cm="1">
-        <f t="array" aca="1" ref="E5" ca="1">_xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_1[[dir]:[dir]], 6 * (table_7_1[[#This Row],[index]:[index]] - 1) + COLUMN() - 2, 0, 1, 1))</f>
+        <f t="array" aca="1" ref="E5" ca="1">_xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_1[[dir]:[dir]], 6 * (table_6_1[[#This Row],[index]:[index]] - 1) + COLUMN(table_6_1[dir_4]) - COLUMN(table_6_1[[dir_1]:[dir_1]]), 0, 1, 1))</f>
         <v>libraries_4/KO_sgB_R2_sense</v>
       </c>
       <c r="F5" s="7" t="str" cm="1">
-        <f t="array" aca="1" ref="F5" ca="1">_xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_1[[dir]:[dir]], 6 * (table_7_1[[#This Row],[index]:[index]] - 1) + COLUMN() - 2, 0, 1, 1))</f>
+        <f t="array" aca="1" ref="F5" ca="1">_xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_1[[dir]:[dir]], 6 * (table_6_1[[#This Row],[index]:[index]] - 1) + COLUMN(table_6_1[dir_5]) - COLUMN(table_6_1[[dir_1]:[dir_1]]), 0, 1, 1))</f>
         <v>libraries_4/KO_sgB_R2_branch</v>
       </c>
       <c r="G5" s="7" t="str" cm="1">
-        <f t="array" aca="1" ref="G5" ca="1">_xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_1[[dir]:[dir]], 6 * (table_7_1[[#This Row],[index]:[index]] - 1) + COLUMN() - 2, 0, 1, 1))</f>
+        <f t="array" aca="1" ref="G5" ca="1">_xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_1[[dir]:[dir]], 6 * (table_6_1[[#This Row],[index]:[index]] - 1) + COLUMN(table_6_1[dir_6]) - COLUMN(table_6_1[[dir_1]:[dir_1]]), 0, 1, 1))</f>
         <v>libraries_4/KO_sgB_R2_cmv</v>
       </c>
-      <c r="H5" t="str">
-        <f ca="1">OFFSET(table_3_1[control], 6 * (table_7_1[[#This Row],[index]] - 1), 0, 1, 1)</f>
+      <c r="H5" s="7" t="str" cm="1">
+        <f t="array" aca="1" ref="H5" ca="1">IF(AND(table_6_1[[#This Row],[dsb_type]:[dsb_type]]="1DSB", table_6_1[[#This Row],[control]:[control]]="none"), _xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_2[[dir]:[dir]], 6 * (table_6_1[[#This Row],[index]:[index]] - 3) + COLUMN(table_6_1[[#This Row],[dir_7]]) -COLUMN(table_6_1[[#This Row],[dir_7]:[dir_7]]), 0, 1, 1)), "")</f>
+        <v>libraries_4/WT_sgB_R2_sense_nodsb</v>
+      </c>
+      <c r="I5" s="7" t="str" cm="1">
+        <f t="array" aca="1" ref="I5" ca="1">IF(AND(table_6_1[[#This Row],[dsb_type]:[dsb_type]]="1DSB", table_6_1[[#This Row],[control]:[control]]="none"), _xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_2[[dir]:[dir]], 6 * (table_6_1[[#This Row],[index]:[index]] - 3) + COLUMN(table_6_1[[#This Row],[dir_8]]) -COLUMN(table_6_1[[#This Row],[dir_7]:[dir_7]]), 0, 1, 1)), "")</f>
+        <v>libraries_4/WT_sgB_R2_branch_nodsb</v>
+      </c>
+      <c r="J5" s="7" t="str" cm="1">
+        <f t="array" aca="1" ref="J5" ca="1">IF(AND(table_6_1[[#This Row],[dsb_type]:[dsb_type]]="1DSB", table_6_1[[#This Row],[control]:[control]]="none"), _xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_2[[dir]:[dir]], 6 * (table_6_1[[#This Row],[index]:[index]] - 3) + COLUMN(table_6_1[[#This Row],[dir_9]]) -COLUMN(table_6_1[[#This Row],[dir_7]:[dir_7]]), 0, 1, 1)), "")</f>
+        <v>libraries_4/WT_sgB_R2_cmv_nodsb</v>
+      </c>
+      <c r="K5" s="7" t="str" cm="1">
+        <f t="array" aca="1" ref="K5" ca="1">IF(AND(table_6_1[[#This Row],[dsb_type]:[dsb_type]]="1DSB", table_6_1[[#This Row],[control]:[control]]="none"), _xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_2[[dir]:[dir]], 6 * (table_6_1[[#This Row],[index]:[index]] - 3) + COLUMN(table_6_1[[#This Row],[dir_10]]) -COLUMN(table_6_1[[#This Row],[dir_7]:[dir_7]]), 0, 1, 1)), "")</f>
+        <v>libraries_4/KO_sgB_R2_sense_nodsb</v>
+      </c>
+      <c r="L5" s="7" t="str" cm="1">
+        <f t="array" aca="1" ref="L5" ca="1">IF(AND(table_6_1[[#This Row],[dsb_type]:[dsb_type]]="1DSB", table_6_1[[#This Row],[control]:[control]]="none"), _xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_2[[dir]:[dir]], 6 * (table_6_1[[#This Row],[index]:[index]] - 3) + COLUMN(table_6_1[[#This Row],[dir_11]]) -COLUMN(table_6_1[[#This Row],[dir_7]:[dir_7]]), 0, 1, 1)), "")</f>
+        <v>libraries_4/KO_sgB_R2_branch_nodsb</v>
+      </c>
+      <c r="M5" s="7" t="str" cm="1">
+        <f t="array" aca="1" ref="M5" ca="1">IF(AND(table_6_1[[#This Row],[dsb_type]:[dsb_type]]="1DSB", table_6_1[[#This Row],[control]:[control]]="none"), _xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_2[[dir]:[dir]], 6 * (table_6_1[[#This Row],[index]:[index]] - 3) + COLUMN(table_6_1[[#This Row],[dir_12]]) -COLUMN(table_6_1[[#This Row],[dir_7]:[dir_7]]), 0, 1, 1)), "")</f>
+        <v>libraries_4/KO_sgB_R2_cmv_nodsb</v>
+      </c>
+      <c r="N5" t="str">
+        <f ca="1">OFFSET(table_3_1[control], 6 * (table_6_1[[#This Row],[index]] - 1), 0, 1, 1)</f>
         <v>none</v>
       </c>
-      <c r="I5" t="str">
-        <f ca="1">OFFSET(table_3_1[dsb_type], 6 * (table_7_1[[#This Row],[index]] - 1), 0, 1, 1)</f>
+      <c r="O5" t="str">
+        <f ca="1">OFFSET(table_3_1[dsb_type], 6 * (table_6_1[[#This Row],[index]] - 1), 0, 1, 1)</f>
         <v>1DSB</v>
       </c>
-      <c r="J5" t="str">
-        <f ca="1">OFFSET(table_3_1[strand], 6 * (table_7_1[[#This Row],[index]] - 1), 0, 1, 1)</f>
+      <c r="P5" t="str">
+        <f ca="1">OFFSET(table_3_1[strand], 6 * (table_6_1[[#This Row],[index]] - 1), 0, 1, 1)</f>
         <v>R2</v>
       </c>
-      <c r="K5" t="str">
-        <f ca="1">OFFSET(table_3_1[hguide], 6 * (table_7_1[[#This Row],[index]] - 1), 0, 1, 1)</f>
+      <c r="Q5" t="str">
+        <f ca="1">OFFSET(table_3_1[hguide], 6 * (table_6_1[[#This Row],[index]] - 1), 0, 1, 1)</f>
         <v>B</v>
       </c>
-      <c r="L5" t="str">
+      <c r="R5" t="str">
         <f>subst_type</f>
         <v>without</v>
       </c>
-      <c r="M5" t="str">
-        <f ca="1">_xlfn.CONCAT(table_7_1[[#This Row],[dsb_type]], "_", table_7_1[[#This Row],[strand]], IF(table_7_1[[#This Row],[control]]&lt;&gt;"none", _xlfn.CONCAT("_", table_7_1[[#This Row],[control]]), ""))</f>
+      <c r="S5" t="str">
+        <f ca="1">_xlfn.CONCAT(table_6_1[[#This Row],[dsb_type]], "_", table_6_1[[#This Row],[strand]], IF(table_6_1[[#This Row],[control]]&lt;&gt;"none", _xlfn.CONCAT("_", table_6_1[[#This Row],[control]]), ""))</f>
         <v>1DSB_R2</v>
       </c>
-      <c r="N5" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_common_layout.py ", "-i ", _xlfn.TEXTJOIN(" ", TRUE, table_7_1[[#This Row],[dir_1]:[dir_6]]), " -o ", layouts, "/", table_7_1[[#This Row],[dir_out]], " --subst_type ", table_7_1[[#This Row],[subst_type]])</f>
-        <v>python 2_graph_processing/make_common_layout.py -i libraries_4/WT_sgB_R2_sense libraries_4/WT_sgB_R2_branch libraries_4/WT_sgB_R2_cmv libraries_4/KO_sgB_R2_sense libraries_4/KO_sgB_R2_branch libraries_4/KO_sgB_R2_cmv -o layouts/1DSB_R2 --subst_type without</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T5" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_common_layout.py ", "-i ", _xlfn.TEXTJOIN(" ", TRUE, table_6_1[[#This Row],[dir_1]:[dir_12]]), " -o ", layouts, "/", table_6_1[[#This Row],[dir_out]], " --subst_type ", table_6_1[[#This Row],[subst_type]])</f>
+        <v>python 2_graph_processing/make_common_layout.py -i libraries_4/WT_sgB_R2_sense libraries_4/WT_sgB_R2_branch libraries_4/WT_sgB_R2_cmv libraries_4/KO_sgB_R2_sense libraries_4/KO_sgB_R2_branch libraries_4/KO_sgB_R2_cmv libraries_4/WT_sgB_R2_sense_nodsb libraries_4/WT_sgB_R2_branch_nodsb libraries_4/WT_sgB_R2_cmv_nodsb libraries_4/KO_sgB_R2_sense_nodsb libraries_4/KO_sgB_R2_branch_nodsb libraries_4/KO_sgB_R2_cmv_nodsb -o layouts/1DSB_R2 --subst_type without</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="7" t="str" cm="1">
-        <f t="array" aca="1" ref="B6" ca="1">_xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_1[[dir]:[dir]], 6 * (table_7_1[[#This Row],[index]:[index]] - 1) + COLUMN() - 2, 0, 1, 1))</f>
+        <f t="array" aca="1" ref="B6" ca="1">_xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_1[[dir]:[dir]], 6 * (table_6_1[[#This Row],[index]:[index]] - 1) + COLUMN(table_6_1[dir_1]) - COLUMN(table_6_1[[dir_1]:[dir_1]]), 0, 1, 1))</f>
         <v>libraries_4/WT_sgA_R1_sense_30bpDown</v>
       </c>
       <c r="C6" s="7" t="str" cm="1">
-        <f t="array" aca="1" ref="C6" ca="1">_xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_1[[dir]:[dir]], 6 * (table_7_1[[#This Row],[index]:[index]] - 1) + COLUMN() - 2, 0, 1, 1))</f>
+        <f t="array" aca="1" ref="C6" ca="1">_xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_1[[dir]:[dir]], 6 * (table_6_1[[#This Row],[index]:[index]] - 1) + COLUMN(table_6_1[dir_2]) - COLUMN(table_6_1[[dir_1]:[dir_1]]), 0, 1, 1))</f>
         <v>libraries_4/WT_sgA_R1_branch_30bpDown</v>
       </c>
       <c r="D6" s="7" t="str" cm="1">
-        <f t="array" aca="1" ref="D6" ca="1">_xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_1[[dir]:[dir]], 6 * (table_7_1[[#This Row],[index]:[index]] - 1) + COLUMN() - 2, 0, 1, 1))</f>
+        <f t="array" aca="1" ref="D6" ca="1">_xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_1[[dir]:[dir]], 6 * (table_6_1[[#This Row],[index]:[index]] - 1) + COLUMN(table_6_1[dir_3]) - COLUMN(table_6_1[[dir_1]:[dir_1]]), 0, 1, 1))</f>
         <v>libraries_4/WT_sgA_R1_cmv_30bpDown</v>
       </c>
       <c r="E6" s="7" t="str" cm="1">
-        <f t="array" aca="1" ref="E6" ca="1">_xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_1[[dir]:[dir]], 6 * (table_7_1[[#This Row],[index]:[index]] - 1) + COLUMN() - 2, 0, 1, 1))</f>
+        <f t="array" aca="1" ref="E6" ca="1">_xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_1[[dir]:[dir]], 6 * (table_6_1[[#This Row],[index]:[index]] - 1) + COLUMN(table_6_1[dir_4]) - COLUMN(table_6_1[[dir_1]:[dir_1]]), 0, 1, 1))</f>
         <v>libraries_4/KO_sgA_R1_sense_30bpDown</v>
       </c>
       <c r="F6" s="7" t="str" cm="1">
-        <f t="array" aca="1" ref="F6" ca="1">_xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_1[[dir]:[dir]], 6 * (table_7_1[[#This Row],[index]:[index]] - 1) + COLUMN() - 2, 0, 1, 1))</f>
+        <f t="array" aca="1" ref="F6" ca="1">_xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_1[[dir]:[dir]], 6 * (table_6_1[[#This Row],[index]:[index]] - 1) + COLUMN(table_6_1[dir_5]) - COLUMN(table_6_1[[dir_1]:[dir_1]]), 0, 1, 1))</f>
         <v>libraries_4/KO_sgA_R1_branch_30bpDown</v>
       </c>
       <c r="G6" s="7" t="str" cm="1">
-        <f t="array" aca="1" ref="G6" ca="1">_xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_1[[dir]:[dir]], 6 * (table_7_1[[#This Row],[index]:[index]] - 1) + COLUMN() - 2, 0, 1, 1))</f>
+        <f t="array" aca="1" ref="G6" ca="1">_xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_1[[dir]:[dir]], 6 * (table_6_1[[#This Row],[index]:[index]] - 1) + COLUMN(table_6_1[dir_6]) - COLUMN(table_6_1[[dir_1]:[dir_1]]), 0, 1, 1))</f>
         <v>libraries_4/KO_sgA_R1_cmv_30bpDown</v>
       </c>
-      <c r="H6" t="str">
-        <f ca="1">OFFSET(table_3_1[control], 6 * (table_7_1[[#This Row],[index]] - 1), 0, 1, 1)</f>
+      <c r="H6" s="7" t="str" cm="1">
+        <f t="array" aca="1" ref="H6" ca="1">IF(AND(table_6_1[[#This Row],[dsb_type]:[dsb_type]]="1DSB", table_6_1[[#This Row],[control]:[control]]="none"), _xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_2[[dir]:[dir]], 6 * (table_6_1[[#This Row],[index]:[index]] - 3) + COLUMN(table_6_1[[#This Row],[dir_7]]) -COLUMN(table_6_1[[#This Row],[dir_7]:[dir_7]]), 0, 1, 1)), "")</f>
+        <v/>
+      </c>
+      <c r="I6" s="7" t="str" cm="1">
+        <f t="array" aca="1" ref="I6" ca="1">IF(AND(table_6_1[[#This Row],[dsb_type]:[dsb_type]]="1DSB", table_6_1[[#This Row],[control]:[control]]="none"), _xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_2[[dir]:[dir]], 6 * (table_6_1[[#This Row],[index]:[index]] - 3) + COLUMN(table_6_1[[#This Row],[dir_8]]) -COLUMN(table_6_1[[#This Row],[dir_7]:[dir_7]]), 0, 1, 1)), "")</f>
+        <v/>
+      </c>
+      <c r="J6" s="7" t="str" cm="1">
+        <f t="array" aca="1" ref="J6" ca="1">IF(AND(table_6_1[[#This Row],[dsb_type]:[dsb_type]]="1DSB", table_6_1[[#This Row],[control]:[control]]="none"), _xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_2[[dir]:[dir]], 6 * (table_6_1[[#This Row],[index]:[index]] - 3) + COLUMN(table_6_1[[#This Row],[dir_9]]) -COLUMN(table_6_1[[#This Row],[dir_7]:[dir_7]]), 0, 1, 1)), "")</f>
+        <v/>
+      </c>
+      <c r="K6" s="7" t="str" cm="1">
+        <f t="array" aca="1" ref="K6" ca="1">IF(AND(table_6_1[[#This Row],[dsb_type]:[dsb_type]]="1DSB", table_6_1[[#This Row],[control]:[control]]="none"), _xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_2[[dir]:[dir]], 6 * (table_6_1[[#This Row],[index]:[index]] - 3) + COLUMN(table_6_1[[#This Row],[dir_10]]) -COLUMN(table_6_1[[#This Row],[dir_7]:[dir_7]]), 0, 1, 1)), "")</f>
+        <v/>
+      </c>
+      <c r="L6" s="7" t="str" cm="1">
+        <f t="array" aca="1" ref="L6" ca="1">IF(AND(table_6_1[[#This Row],[dsb_type]:[dsb_type]]="1DSB", table_6_1[[#This Row],[control]:[control]]="none"), _xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_2[[dir]:[dir]], 6 * (table_6_1[[#This Row],[index]:[index]] - 3) + COLUMN(table_6_1[[#This Row],[dir_11]]) -COLUMN(table_6_1[[#This Row],[dir_7]:[dir_7]]), 0, 1, 1)), "")</f>
+        <v/>
+      </c>
+      <c r="M6" s="7" t="str" cm="1">
+        <f t="array" aca="1" ref="M6" ca="1">IF(AND(table_6_1[[#This Row],[dsb_type]:[dsb_type]]="1DSB", table_6_1[[#This Row],[control]:[control]]="none"), _xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_2[[dir]:[dir]], 6 * (table_6_1[[#This Row],[index]:[index]] - 3) + COLUMN(table_6_1[[#This Row],[dir_12]]) -COLUMN(table_6_1[[#This Row],[dir_7]:[dir_7]]), 0, 1, 1)), "")</f>
+        <v/>
+      </c>
+      <c r="N6" t="str">
+        <f ca="1">OFFSET(table_3_1[control], 6 * (table_6_1[[#This Row],[index]] - 1), 0, 1, 1)</f>
         <v>30bpDown</v>
       </c>
-      <c r="I6" t="str">
-        <f ca="1">OFFSET(table_3_1[dsb_type], 6 * (table_7_1[[#This Row],[index]] - 1), 0, 1, 1)</f>
+      <c r="O6" t="str">
+        <f ca="1">OFFSET(table_3_1[dsb_type], 6 * (table_6_1[[#This Row],[index]] - 1), 0, 1, 1)</f>
         <v>1DSB</v>
       </c>
-      <c r="J6" t="str">
-        <f ca="1">OFFSET(table_3_1[strand], 6 * (table_7_1[[#This Row],[index]] - 1), 0, 1, 1)</f>
+      <c r="P6" t="str">
+        <f ca="1">OFFSET(table_3_1[strand], 6 * (table_6_1[[#This Row],[index]] - 1), 0, 1, 1)</f>
         <v>R1</v>
       </c>
-      <c r="K6" t="str">
-        <f ca="1">OFFSET(table_3_1[hguide], 6 * (table_7_1[[#This Row],[index]] - 1), 0, 1, 1)</f>
+      <c r="Q6" t="str">
+        <f ca="1">OFFSET(table_3_1[hguide], 6 * (table_6_1[[#This Row],[index]] - 1), 0, 1, 1)</f>
         <v>A</v>
       </c>
-      <c r="L6" t="str">
+      <c r="R6" t="str">
         <f>subst_type</f>
         <v>without</v>
       </c>
-      <c r="M6" t="str">
-        <f ca="1">_xlfn.CONCAT(table_7_1[[#This Row],[dsb_type]], "_", table_7_1[[#This Row],[strand]], IF(table_7_1[[#This Row],[control]]&lt;&gt;"none", _xlfn.CONCAT("_", table_7_1[[#This Row],[control]]), ""))</f>
+      <c r="S6" t="str">
+        <f ca="1">_xlfn.CONCAT(table_6_1[[#This Row],[dsb_type]], "_", table_6_1[[#This Row],[strand]], IF(table_6_1[[#This Row],[control]]&lt;&gt;"none", _xlfn.CONCAT("_", table_6_1[[#This Row],[control]]), ""))</f>
         <v>1DSB_R1_30bpDown</v>
       </c>
-      <c r="N6" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_common_layout.py ", "-i ", _xlfn.TEXTJOIN(" ", TRUE, table_7_1[[#This Row],[dir_1]:[dir_6]]), " -o ", layouts, "/", table_7_1[[#This Row],[dir_out]], " --subst_type ", table_7_1[[#This Row],[subst_type]])</f>
+      <c r="T6" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_common_layout.py ", "-i ", _xlfn.TEXTJOIN(" ", TRUE, table_6_1[[#This Row],[dir_1]:[dir_12]]), " -o ", layouts, "/", table_6_1[[#This Row],[dir_out]], " --subst_type ", table_6_1[[#This Row],[subst_type]])</f>
         <v>python 2_graph_processing/make_common_layout.py -i libraries_4/WT_sgA_R1_sense_30bpDown libraries_4/WT_sgA_R1_branch_30bpDown libraries_4/WT_sgA_R1_cmv_30bpDown libraries_4/KO_sgA_R1_sense_30bpDown libraries_4/KO_sgA_R1_branch_30bpDown libraries_4/KO_sgA_R1_cmv_30bpDown -o layouts/1DSB_R1_30bpDown --subst_type without</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="7" t="str" cm="1">
-        <f t="array" aca="1" ref="B7" ca="1">_xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_1[[dir]:[dir]], 6 * (table_7_1[[#This Row],[index]:[index]] - 1) + COLUMN() - 2, 0, 1, 1))</f>
+        <f t="array" aca="1" ref="B7" ca="1">_xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_1[[dir]:[dir]], 6 * (table_6_1[[#This Row],[index]:[index]] - 1) + COLUMN(table_6_1[dir_1]) - COLUMN(table_6_1[[dir_1]:[dir_1]]), 0, 1, 1))</f>
         <v>libraries_4/WT_sgB_R2_sense_30bpDown</v>
       </c>
       <c r="C7" s="7" t="str" cm="1">
-        <f t="array" aca="1" ref="C7" ca="1">_xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_1[[dir]:[dir]], 6 * (table_7_1[[#This Row],[index]:[index]] - 1) + COLUMN() - 2, 0, 1, 1))</f>
+        <f t="array" aca="1" ref="C7" ca="1">_xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_1[[dir]:[dir]], 6 * (table_6_1[[#This Row],[index]:[index]] - 1) + COLUMN(table_6_1[dir_2]) - COLUMN(table_6_1[[dir_1]:[dir_1]]), 0, 1, 1))</f>
         <v>libraries_4/WT_sgB_R2_branch_30bpDown</v>
       </c>
       <c r="D7" s="7" t="str" cm="1">
-        <f t="array" aca="1" ref="D7" ca="1">_xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_1[[dir]:[dir]], 6 * (table_7_1[[#This Row],[index]:[index]] - 1) + COLUMN() - 2, 0, 1, 1))</f>
+        <f t="array" aca="1" ref="D7" ca="1">_xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_1[[dir]:[dir]], 6 * (table_6_1[[#This Row],[index]:[index]] - 1) + COLUMN(table_6_1[dir_3]) - COLUMN(table_6_1[[dir_1]:[dir_1]]), 0, 1, 1))</f>
         <v>libraries_4/WT_sgB_R2_cmv_30bpDown</v>
       </c>
       <c r="E7" s="7" t="str" cm="1">
-        <f t="array" aca="1" ref="E7" ca="1">_xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_1[[dir]:[dir]], 6 * (table_7_1[[#This Row],[index]:[index]] - 1) + COLUMN() - 2, 0, 1, 1))</f>
+        <f t="array" aca="1" ref="E7" ca="1">_xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_1[[dir]:[dir]], 6 * (table_6_1[[#This Row],[index]:[index]] - 1) + COLUMN(table_6_1[dir_4]) - COLUMN(table_6_1[[dir_1]:[dir_1]]), 0, 1, 1))</f>
         <v>libraries_4/KO_sgB_R2_sense_30bpDown</v>
       </c>
       <c r="F7" s="7" t="str" cm="1">
-        <f t="array" aca="1" ref="F7" ca="1">_xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_1[[dir]:[dir]], 6 * (table_7_1[[#This Row],[index]:[index]] - 1) + COLUMN() - 2, 0, 1, 1))</f>
+        <f t="array" aca="1" ref="F7" ca="1">_xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_1[[dir]:[dir]], 6 * (table_6_1[[#This Row],[index]:[index]] - 1) + COLUMN(table_6_1[dir_5]) - COLUMN(table_6_1[[dir_1]:[dir_1]]), 0, 1, 1))</f>
         <v>libraries_4/KO_sgB_R2_branch_30bpDown</v>
       </c>
       <c r="G7" s="7" t="str" cm="1">
-        <f t="array" aca="1" ref="G7" ca="1">_xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_1[[dir]:[dir]], 6 * (table_7_1[[#This Row],[index]:[index]] - 1) + COLUMN() - 2, 0, 1, 1))</f>
+        <f t="array" aca="1" ref="G7" ca="1">_xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_1[[dir]:[dir]], 6 * (table_6_1[[#This Row],[index]:[index]] - 1) + COLUMN(table_6_1[dir_6]) - COLUMN(table_6_1[[dir_1]:[dir_1]]), 0, 1, 1))</f>
         <v>libraries_4/KO_sgB_R2_cmv_30bpDown</v>
       </c>
-      <c r="H7" t="str">
-        <f ca="1">OFFSET(table_3_1[control], 6 * (table_7_1[[#This Row],[index]] - 1), 0, 1, 1)</f>
+      <c r="H7" s="7" t="str" cm="1">
+        <f t="array" aca="1" ref="H7" ca="1">IF(AND(table_6_1[[#This Row],[dsb_type]:[dsb_type]]="1DSB", table_6_1[[#This Row],[control]:[control]]="none"), _xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_2[[dir]:[dir]], 6 * (table_6_1[[#This Row],[index]:[index]] - 3) + COLUMN(table_6_1[[#This Row],[dir_7]]) -COLUMN(table_6_1[[#This Row],[dir_7]:[dir_7]]), 0, 1, 1)), "")</f>
+        <v/>
+      </c>
+      <c r="I7" s="7" t="str" cm="1">
+        <f t="array" aca="1" ref="I7" ca="1">IF(AND(table_6_1[[#This Row],[dsb_type]:[dsb_type]]="1DSB", table_6_1[[#This Row],[control]:[control]]="none"), _xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_2[[dir]:[dir]], 6 * (table_6_1[[#This Row],[index]:[index]] - 3) + COLUMN(table_6_1[[#This Row],[dir_8]]) -COLUMN(table_6_1[[#This Row],[dir_7]:[dir_7]]), 0, 1, 1)), "")</f>
+        <v/>
+      </c>
+      <c r="J7" s="7" t="str" cm="1">
+        <f t="array" aca="1" ref="J7" ca="1">IF(AND(table_6_1[[#This Row],[dsb_type]:[dsb_type]]="1DSB", table_6_1[[#This Row],[control]:[control]]="none"), _xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_2[[dir]:[dir]], 6 * (table_6_1[[#This Row],[index]:[index]] - 3) + COLUMN(table_6_1[[#This Row],[dir_9]]) -COLUMN(table_6_1[[#This Row],[dir_7]:[dir_7]]), 0, 1, 1)), "")</f>
+        <v/>
+      </c>
+      <c r="K7" s="7" t="str" cm="1">
+        <f t="array" aca="1" ref="K7" ca="1">IF(AND(table_6_1[[#This Row],[dsb_type]:[dsb_type]]="1DSB", table_6_1[[#This Row],[control]:[control]]="none"), _xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_2[[dir]:[dir]], 6 * (table_6_1[[#This Row],[index]:[index]] - 3) + COLUMN(table_6_1[[#This Row],[dir_10]]) -COLUMN(table_6_1[[#This Row],[dir_7]:[dir_7]]), 0, 1, 1)), "")</f>
+        <v/>
+      </c>
+      <c r="L7" s="7" t="str" cm="1">
+        <f t="array" aca="1" ref="L7" ca="1">IF(AND(table_6_1[[#This Row],[dsb_type]:[dsb_type]]="1DSB", table_6_1[[#This Row],[control]:[control]]="none"), _xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_2[[dir]:[dir]], 6 * (table_6_1[[#This Row],[index]:[index]] - 3) + COLUMN(table_6_1[[#This Row],[dir_11]]) -COLUMN(table_6_1[[#This Row],[dir_7]:[dir_7]]), 0, 1, 1)), "")</f>
+        <v/>
+      </c>
+      <c r="M7" s="7" t="str" cm="1">
+        <f t="array" aca="1" ref="M7" ca="1">IF(AND(table_6_1[[#This Row],[dsb_type]:[dsb_type]]="1DSB", table_6_1[[#This Row],[control]:[control]]="none"), _xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_2[[dir]:[dir]], 6 * (table_6_1[[#This Row],[index]:[index]] - 3) + COLUMN(table_6_1[[#This Row],[dir_12]]) -COLUMN(table_6_1[[#This Row],[dir_7]:[dir_7]]), 0, 1, 1)), "")</f>
+        <v/>
+      </c>
+      <c r="N7" t="str">
+        <f ca="1">OFFSET(table_3_1[control], 6 * (table_6_1[[#This Row],[index]] - 1), 0, 1, 1)</f>
         <v>30bpDown</v>
       </c>
-      <c r="I7" t="str">
-        <f ca="1">OFFSET(table_3_1[dsb_type], 6 * (table_7_1[[#This Row],[index]] - 1), 0, 1, 1)</f>
+      <c r="O7" t="str">
+        <f ca="1">OFFSET(table_3_1[dsb_type], 6 * (table_6_1[[#This Row],[index]] - 1), 0, 1, 1)</f>
         <v>1DSB</v>
       </c>
-      <c r="J7" t="str">
-        <f ca="1">OFFSET(table_3_1[strand], 6 * (table_7_1[[#This Row],[index]] - 1), 0, 1, 1)</f>
+      <c r="P7" t="str">
+        <f ca="1">OFFSET(table_3_1[strand], 6 * (table_6_1[[#This Row],[index]] - 1), 0, 1, 1)</f>
         <v>R2</v>
       </c>
-      <c r="K7" t="str">
-        <f ca="1">OFFSET(table_3_1[hguide], 6 * (table_7_1[[#This Row],[index]] - 1), 0, 1, 1)</f>
+      <c r="Q7" t="str">
+        <f ca="1">OFFSET(table_3_1[hguide], 6 * (table_6_1[[#This Row],[index]] - 1), 0, 1, 1)</f>
         <v>B</v>
       </c>
-      <c r="L7" t="str">
+      <c r="R7" t="str">
         <f>subst_type</f>
         <v>without</v>
       </c>
-      <c r="M7" t="str">
-        <f ca="1">_xlfn.CONCAT(table_7_1[[#This Row],[dsb_type]], "_", table_7_1[[#This Row],[strand]], IF(table_7_1[[#This Row],[control]]&lt;&gt;"none", _xlfn.CONCAT("_", table_7_1[[#This Row],[control]]), ""))</f>
+      <c r="S7" t="str">
+        <f ca="1">_xlfn.CONCAT(table_6_1[[#This Row],[dsb_type]], "_", table_6_1[[#This Row],[strand]], IF(table_6_1[[#This Row],[control]]&lt;&gt;"none", _xlfn.CONCAT("_", table_6_1[[#This Row],[control]]), ""))</f>
         <v>1DSB_R2_30bpDown</v>
       </c>
-      <c r="N7" t="str">
-        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_common_layout.py ", "-i ", _xlfn.TEXTJOIN(" ", TRUE, table_7_1[[#This Row],[dir_1]:[dir_6]]), " -o ", layouts, "/", table_7_1[[#This Row],[dir_out]], " --subst_type ", table_7_1[[#This Row],[subst_type]])</f>
+      <c r="T7" t="str">
+        <f ca="1">_xlfn.CONCAT("python 2_graph_processing/make_common_layout.py ", "-i ", _xlfn.TEXTJOIN(" ", TRUE, table_6_1[[#This Row],[dir_1]:[dir_12]]), " -o ", layouts, "/", table_6_1[[#This Row],[dir_out]], " --subst_type ", table_6_1[[#This Row],[subst_type]])</f>
         <v>python 2_graph_processing/make_common_layout.py -i libraries_4/WT_sgB_R2_sense_30bpDown libraries_4/WT_sgB_R2_branch_30bpDown libraries_4/WT_sgB_R2_cmv_30bpDown libraries_4/KO_sgB_R2_sense_30bpDown libraries_4/KO_sgB_R2_branch_30bpDown libraries_4/KO_sgB_R2_cmv_30bpDown -o layouts/1DSB_R2_30bpDown --subst_type without</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -26594,7 +26244,7 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>37</v>
       </c>
@@ -26605,18 +26255,18 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B10" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>111</v>
-      </c>
       <c r="D10" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>102</v>
@@ -26628,41 +26278,41 @@
         <v>103</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J10" s="10" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>1</v>
       </c>
       <c r="B11" s="7" t="str" cm="1">
-        <f t="array" aca="1" ref="B11" ca="1">_xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_1[[dir]:[dir]], var_7_anti_offset - 1 + COLUMN() - 2 + 2 * (table_7_2[[#This Row],[index]:[index]] - 1), 0, 1, 1))</f>
+        <f t="array" aca="1" ref="B11" ca="1">_xlfn.CONCAT(libraries_4, "/", OFFSET(table_3_1[[dir]:[dir]], var_6_anti_offset - 1 + COLUMN() - 2 + 2 * (table_6_2[[#This Row],[index]:[index]] - 1), 0, 1, 1))</f>
         <v>libraries_4/